--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="68">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -657,13 +657,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -778,10 +778,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23627,12 +23628,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CI258"/>
+  <dimension ref="A1:CJ258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="A27" sqref="A27"/>
+      <selection pane="topRight" activeCell="CO13" sqref="CO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23677,11 +23678,11 @@
     <col min="75" max="77" width="7.90625" style="7" customWidth="1"/>
     <col min="78" max="78" width="7.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="7.90625" style="7" customWidth="1"/>
-    <col min="82" max="87" width="7.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="7"/>
+    <col min="82" max="88" width="8.81640625" style="16" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -23691,8 +23692,9 @@
       <c r="CG1" s="13"/>
       <c r="CH1" s="13"/>
       <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
     </row>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -23702,8 +23704,9 @@
       <c r="CG2" s="13"/>
       <c r="CH2" s="13"/>
       <c r="CI2" s="13"/>
+      <c r="CJ2" s="13"/>
     </row>
-    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -23713,16 +23716,18 @@
       <c r="CG3" s="13"/>
       <c r="CH3" s="13"/>
       <c r="CI3" s="13"/>
+      <c r="CJ3" s="13"/>
     </row>
-    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD4" s="13"/>
       <c r="CE4" s="13"/>
       <c r="CF4" s="13"/>
       <c r="CG4" s="13"/>
       <c r="CH4" s="13"/>
       <c r="CI4" s="13"/>
+      <c r="CJ4" s="13"/>
     </row>
-    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -23732,8 +23737,9 @@
       <c r="CG5" s="13"/>
       <c r="CH5" s="13"/>
       <c r="CI5" s="13"/>
+      <c r="CJ5" s="13"/>
     </row>
-    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -23743,8 +23749,9 @@
       <c r="CG6" s="13"/>
       <c r="CH6" s="13"/>
       <c r="CI6" s="13"/>
+      <c r="CJ6" s="13"/>
     </row>
-    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -23754,16 +23761,18 @@
       <c r="CG7" s="13"/>
       <c r="CH7" s="13"/>
       <c r="CI7" s="13"/>
+      <c r="CJ7" s="13"/>
     </row>
-    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD8" s="13"/>
       <c r="CE8" s="13"/>
       <c r="CF8" s="13"/>
       <c r="CG8" s="13"/>
       <c r="CH8" s="13"/>
       <c r="CI8" s="13"/>
+      <c r="CJ8" s="13"/>
     </row>
-    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="22">
         <v>2000</v>
@@ -23885,18 +23894,19 @@
       <c r="CA9" s="22"/>
       <c r="CB9" s="22"/>
       <c r="CC9" s="22"/>
-      <c r="CD9" s="21">
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
     </row>
-    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24158,8 +24168,11 @@
       <c r="CI10" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="CJ10" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="CD11" s="13"/>
       <c r="CE11" s="13"/>
@@ -24167,8 +24180,9 @@
       <c r="CG11" s="13"/>
       <c r="CH11" s="13"/>
       <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
     </row>
-    <row r="12" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24428,10 +24442,13 @@
         <v>86453.40599823065</v>
       </c>
       <c r="CI12" s="15">
-        <v>73253.480732482887</v>
+        <v>73240.044819039191</v>
+      </c>
+      <c r="CJ12" s="15">
+        <v>58054.255477073399</v>
       </c>
     </row>
-    <row r="13" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24691,10 +24708,13 @@
         <v>28602.193397478266</v>
       </c>
       <c r="CI13" s="15">
-        <v>17281.018972585545</v>
+        <v>17284.740443670198</v>
+      </c>
+      <c r="CJ13" s="15">
+        <v>29227.766766899538</v>
       </c>
     </row>
-    <row r="14" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24954,10 +24974,13 @@
         <v>20786.973021609014</v>
       </c>
       <c r="CI14" s="15">
-        <v>16384.3384797607</v>
+        <v>16392.552213888055</v>
+      </c>
+      <c r="CJ14" s="15">
+        <v>34968.083430448976</v>
       </c>
     </row>
-    <row r="15" spans="1:87" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25217,10 +25240,13 @@
         <v>10491.761680676842</v>
       </c>
       <c r="CI15" s="15">
-        <v>6512.7597095502824</v>
+        <v>6517.3602496753383</v>
+      </c>
+      <c r="CJ15" s="15">
+        <v>934.31989936532011</v>
       </c>
     </row>
-    <row r="16" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25480,10 +25506,13 @@
         <v>46440.459184300424</v>
       </c>
       <c r="CI16" s="15">
-        <v>45219.834113319594</v>
+        <v>45245.211086545234</v>
+      </c>
+      <c r="CJ16" s="15">
+        <v>43005.376254109178</v>
       </c>
     </row>
-    <row r="17" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25743,10 +25772,13 @@
         <v>6664.844968901959</v>
       </c>
       <c r="CI17" s="15">
-        <v>20363.919878780456</v>
+        <v>20364.262240872231</v>
+      </c>
+      <c r="CJ17" s="15">
+        <v>2300.1215770164004</v>
       </c>
     </row>
-    <row r="18" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26006,10 +26038,13 @@
         <v>7138.5630365015741</v>
       </c>
       <c r="CI18" s="15">
-        <v>4309.4179178764725</v>
+        <v>4309.1342151521294</v>
+      </c>
+      <c r="CJ18" s="15">
+        <v>7316.2909807788128</v>
       </c>
     </row>
-    <row r="19" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26269,10 +26304,13 @@
         <v>1784.5181121969686</v>
       </c>
       <c r="CI19" s="15">
-        <v>610.23692861510631</v>
+        <v>610.19089953919911</v>
+      </c>
+      <c r="CJ19" s="15">
+        <v>502.09999412546193</v>
       </c>
     </row>
-    <row r="20" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26532,10 +26570,13 @@
         <v>3882.2676078063091</v>
       </c>
       <c r="CI20" s="15">
-        <v>6297.3302377400432</v>
+        <v>5269.888186826277</v>
+      </c>
+      <c r="CJ20" s="15">
+        <v>6693.310592033632</v>
       </c>
     </row>
-    <row r="21" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26795,10 +26836,13 @@
         <v>1193.0244395717716</v>
       </c>
       <c r="CI21" s="15">
-        <v>3267.362891782167</v>
+        <v>3267.3512438581038</v>
+      </c>
+      <c r="CJ21" s="15">
+        <v>2445.0287487100477</v>
       </c>
     </row>
-    <row r="22" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27058,10 +27102,13 @@
         <v>397.33993033729121</v>
       </c>
       <c r="CI22" s="15">
-        <v>292.39181767250722</v>
+        <v>292.44175209414277</v>
+      </c>
+      <c r="CJ22" s="15">
+        <v>406.96274226817371</v>
       </c>
     </row>
-    <row r="23" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27321,10 +27368,13 @@
         <v>328.00448599801399</v>
       </c>
       <c r="CI23" s="15">
-        <v>267.62511040220613</v>
+        <v>270.41170867269625</v>
+      </c>
+      <c r="CJ23" s="15">
+        <v>372.40761707673619</v>
       </c>
     </row>
-    <row r="24" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27584,10 +27634,13 @@
         <v>234.53009651188694</v>
       </c>
       <c r="CI24" s="15">
-        <v>233.91080918825656</v>
+        <v>234.4989103713101</v>
+      </c>
+      <c r="CJ24" s="15">
+        <v>295.82366644027411</v>
       </c>
     </row>
-    <row r="25" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -27847,10 +27900,13 @@
         <v>25697.970806835569</v>
       </c>
       <c r="CI25" s="15">
-        <v>17020.908786249856</v>
+        <v>17018.407560629828</v>
+      </c>
+      <c r="CJ25" s="15">
+        <v>24363.814991695501</v>
       </c>
     </row>
-    <row r="26" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28110,10 +28166,13 @@
         <v>61010.036106745625</v>
       </c>
       <c r="CI26" s="15">
-        <v>69712.354653574701</v>
+        <v>69325.771389409347</v>
+      </c>
+      <c r="CJ26" s="15">
+        <v>63388.823707558418</v>
       </c>
     </row>
-    <row r="27" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28373,10 +28432,13 @@
         <v>64982.023701537066</v>
       </c>
       <c r="CI27" s="15">
-        <v>40610.366950745709</v>
+        <v>40595.597884641829</v>
+      </c>
+      <c r="CJ27" s="15">
+        <v>39416.720709997651</v>
       </c>
     </row>
-    <row r="28" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28636,10 +28698,13 @@
         <v>18075.732168063703</v>
       </c>
       <c r="CI28" s="15">
-        <v>14041.197075420001</v>
+        <v>13995.138985545927</v>
+      </c>
+      <c r="CJ28" s="15">
+        <v>13913.578017021544</v>
       </c>
     </row>
-    <row r="29" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -28899,10 +28964,13 @@
         <v>336.03958848865921</v>
       </c>
       <c r="CI29" s="15">
-        <v>544.43699357601872</v>
+        <v>482.01124083861373</v>
+      </c>
+      <c r="CJ29" s="15">
+        <v>82.081422998169728</v>
       </c>
     </row>
-    <row r="30" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29162,10 +29230,13 @@
         <v>58792.450602377183</v>
       </c>
       <c r="CI30" s="15">
-        <v>55654.288671463815</v>
+        <v>55670.05504622357</v>
+      </c>
+      <c r="CJ30" s="15">
+        <v>64709.272948412327</v>
       </c>
     </row>
-    <row r="31" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29425,11 +29496,14 @@
         <v>43715.558631033877</v>
       </c>
       <c r="CI31" s="15">
-        <v>64459.173901221387</v>
+        <v>63542.871960025652</v>
+      </c>
+      <c r="CJ31" s="15">
+        <v>40491.459868062804</v>
       </c>
     </row>
-    <row r="32" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -29689,10 +29763,13 @@
         <v>487007.69756520254</v>
       </c>
       <c r="CI33" s="17">
-        <v>456336.35463200766</v>
+        <v>453927.94203751889</v>
+      </c>
+      <c r="CJ33" s="17">
+        <v>432887.5994120923</v>
       </c>
     </row>
-    <row r="34" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -29780,8 +29857,9 @@
       <c r="CG34" s="18"/>
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
+      <c r="CJ34" s="18"/>
     </row>
-    <row r="35" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -29791,10 +29869,11 @@
       <c r="CG35" s="13"/>
       <c r="CH35" s="13"/>
       <c r="CI35" s="13"/>
+      <c r="CJ35" s="13"/>
     </row>
-    <row r="36" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -29804,8 +29883,9 @@
       <c r="CG38" s="13"/>
       <c r="CH38" s="13"/>
       <c r="CI38" s="13"/>
+      <c r="CJ38" s="13"/>
     </row>
-    <row r="39" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -29815,8 +29895,9 @@
       <c r="CG39" s="13"/>
       <c r="CH39" s="13"/>
       <c r="CI39" s="13"/>
+      <c r="CJ39" s="13"/>
     </row>
-    <row r="40" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -29826,16 +29907,18 @@
       <c r="CG40" s="13"/>
       <c r="CH40" s="13"/>
       <c r="CI40" s="13"/>
+      <c r="CJ40" s="13"/>
     </row>
-    <row r="41" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD41" s="13"/>
       <c r="CE41" s="13"/>
       <c r="CF41" s="13"/>
       <c r="CG41" s="13"/>
       <c r="CH41" s="13"/>
       <c r="CI41" s="13"/>
+      <c r="CJ41" s="13"/>
     </row>
-    <row r="42" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -29845,8 +29928,9 @@
       <c r="CG42" s="13"/>
       <c r="CH42" s="13"/>
       <c r="CI42" s="13"/>
+      <c r="CJ42" s="13"/>
     </row>
-    <row r="43" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -29856,8 +29940,9 @@
       <c r="CG43" s="13"/>
       <c r="CH43" s="13"/>
       <c r="CI43" s="13"/>
+      <c r="CJ43" s="13"/>
     </row>
-    <row r="44" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -29867,16 +29952,18 @@
       <c r="CG44" s="13"/>
       <c r="CH44" s="13"/>
       <c r="CI44" s="13"/>
+      <c r="CJ44" s="13"/>
     </row>
-    <row r="45" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD45" s="13"/>
       <c r="CE45" s="13"/>
       <c r="CF45" s="13"/>
       <c r="CG45" s="13"/>
       <c r="CH45" s="13"/>
       <c r="CI45" s="13"/>
+      <c r="CJ45" s="13"/>
     </row>
-    <row r="46" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="22">
         <v>2000</v>
@@ -29998,20 +30085,19 @@
       <c r="CA46" s="22"/>
       <c r="CB46" s="22"/>
       <c r="CC46" s="22"/>
-      <c r="CD46" s="21">
+      <c r="CD46" s="23">
         <v>2020</v>
       </c>
-      <c r="CE46" s="21"/>
-      <c r="CF46" s="21"/>
-      <c r="CG46" s="21"/>
-      <c r="CH46" s="21">
+      <c r="CE46" s="23"/>
+      <c r="CF46" s="23"/>
+      <c r="CG46" s="23"/>
+      <c r="CH46" s="23">
         <v>2021</v>
       </c>
-      <c r="CI46" s="21">
-        <v>0</v>
-      </c>
+      <c r="CI46" s="23"/>
+      <c r="CJ46" s="23"/>
     </row>
-    <row r="47" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30273,8 +30359,11 @@
       <c r="CI47" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="CJ47" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="48" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="CD48" s="13"/>
       <c r="CE48" s="13"/>
@@ -30282,8 +30371,9 @@
       <c r="CG48" s="13"/>
       <c r="CH48" s="13"/>
       <c r="CI48" s="13"/>
+      <c r="CJ48" s="13"/>
     </row>
-    <row r="49" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30543,10 +30633,13 @@
         <v>92716.522555732852</v>
       </c>
       <c r="CI49" s="15">
-        <v>80866.764047753109</v>
+        <v>80867.720040088316</v>
+      </c>
+      <c r="CJ49" s="15">
+        <v>70995.936025398871</v>
       </c>
     </row>
-    <row r="50" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -30808,8 +30901,11 @@
       <c r="CI50" s="15">
         <v>18123.200734178405</v>
       </c>
+      <c r="CJ50" s="15">
+        <v>29350.745706644084</v>
+      </c>
     </row>
-    <row r="51" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31069,10 +31165,13 @@
         <v>25686.164978833229</v>
       </c>
       <c r="CI51" s="15">
-        <v>13257.861615742635</v>
+        <v>13260.560142862385</v>
+      </c>
+      <c r="CJ51" s="15">
+        <v>21718.902310848389</v>
       </c>
     </row>
-    <row r="52" spans="1:87" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:88" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31334,8 +31433,11 @@
       <c r="CI52" s="15">
         <v>11520.224089589774</v>
       </c>
+      <c r="CJ52" s="15">
+        <v>558.566248323938</v>
+      </c>
     </row>
-    <row r="53" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -31595,10 +31697,13 @@
         <v>31187.147800679319</v>
       </c>
       <c r="CI53" s="15">
-        <v>33872.907471569277</v>
+        <v>33872.888870786875</v>
+      </c>
+      <c r="CJ53" s="15">
+        <v>35163.955619007582</v>
       </c>
     </row>
-    <row r="54" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -31858,10 +31963,13 @@
         <v>5673.4693978002524</v>
       </c>
       <c r="CI54" s="15">
-        <v>18829.414227369096</v>
+        <v>18829.398514821689</v>
+      </c>
+      <c r="CJ54" s="15">
+        <v>2373.0966703033646</v>
       </c>
     </row>
-    <row r="55" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32123,8 +32231,11 @@
       <c r="CI55" s="15">
         <v>6547.4278481524425</v>
       </c>
+      <c r="CJ55" s="15">
+        <v>6293.4088443055043</v>
+      </c>
     </row>
-    <row r="56" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32384,10 +32495,13 @@
         <v>2394.0924036536326</v>
       </c>
       <c r="CI56" s="15">
-        <v>570.25939132137967</v>
+        <v>570.25932936308266</v>
+      </c>
+      <c r="CJ56" s="15">
+        <v>583.08869814592151</v>
       </c>
     </row>
-    <row r="57" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -32647,10 +32761,13 @@
         <v>3650.793294620556</v>
       </c>
       <c r="CI57" s="15">
-        <v>5381.5088384829232</v>
+        <v>5400.4882715879012</v>
+      </c>
+      <c r="CJ57" s="15">
+        <v>4683.810567129316</v>
       </c>
     </row>
-    <row r="58" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -32910,10 +33027,13 @@
         <v>911.20628771790348</v>
       </c>
       <c r="CI58" s="15">
-        <v>3300.9891510959769</v>
+        <v>3301.0012709131352</v>
+      </c>
+      <c r="CJ58" s="15">
+        <v>2246.8108958920379</v>
       </c>
     </row>
-    <row r="59" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33173,10 +33293,13 @@
         <v>569.05072268153049</v>
       </c>
       <c r="CI59" s="15">
-        <v>489.38516485275198</v>
+        <v>489.38528081745329</v>
+      </c>
+      <c r="CJ59" s="15">
+        <v>341.6765408253255</v>
       </c>
     </row>
-    <row r="60" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -33436,10 +33559,13 @@
         <v>403.82696393930075</v>
       </c>
       <c r="CI60" s="15">
-        <v>457.88883811976405</v>
+        <v>461.47767573157728</v>
+      </c>
+      <c r="CJ60" s="15">
+        <v>282.63685791006532</v>
       </c>
     </row>
-    <row r="61" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -33699,10 +33825,13 @@
         <v>354.62312270151199</v>
       </c>
       <c r="CI61" s="15">
-        <v>365.91208446668554</v>
+        <v>365.91211990898182</v>
+      </c>
+      <c r="CJ61" s="15">
+        <v>195.27127650881226</v>
       </c>
     </row>
-    <row r="62" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -33962,10 +34091,13 @@
         <v>24335.154189411736</v>
       </c>
       <c r="CI62" s="15">
-        <v>24985.665278175711</v>
+        <v>24985.758799899857</v>
+      </c>
+      <c r="CJ62" s="15">
+        <v>17732.948911724201</v>
       </c>
     </row>
-    <row r="63" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34225,10 +34357,13 @@
         <v>45184.233408945642</v>
       </c>
       <c r="CI63" s="15">
-        <v>43713.993320111127</v>
+        <v>43728.038640863</v>
+      </c>
+      <c r="CJ63" s="15">
+        <v>43169.037625291036</v>
       </c>
     </row>
-    <row r="64" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -34488,10 +34623,13 @@
         <v>43891.748697045696</v>
       </c>
       <c r="CI64" s="15">
-        <v>37648.207595499669</v>
+        <v>37648.563387642062</v>
+      </c>
+      <c r="CJ64" s="15">
+        <v>40469.345705372965</v>
       </c>
     </row>
-    <row r="65" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -34751,10 +34889,13 @@
         <v>17523.420648252399</v>
       </c>
       <c r="CI65" s="15">
-        <v>16087.651430333422</v>
+        <v>16100.063691340209</v>
+      </c>
+      <c r="CJ65" s="15">
+        <v>16465.507971134062</v>
       </c>
     </row>
-    <row r="66" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35014,10 +35155,13 @@
         <v>692.84619774058876</v>
       </c>
       <c r="CI66" s="15">
-        <v>1110.4871587147049</v>
+        <v>1014.6414762940587</v>
+      </c>
+      <c r="CJ66" s="15">
+        <v>1182.2392870960578</v>
       </c>
     </row>
-    <row r="67" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -35277,10 +35421,13 @@
         <v>47894.750405219835</v>
       </c>
       <c r="CI67" s="15">
-        <v>49971.631008875818</v>
+        <v>49976.576973203351</v>
+      </c>
+      <c r="CJ67" s="15">
+        <v>53977.052074361622</v>
       </c>
     </row>
-    <row r="68" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -35540,11 +35687,14 @@
         <v>37458.390698701143</v>
       </c>
       <c r="CI68" s="15">
-        <v>48843.150823554563</v>
+        <v>49208.61415996404</v>
+      </c>
+      <c r="CJ68" s="15">
+        <v>50428.665312193189</v>
       </c>
     </row>
-    <row r="69" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -35804,10 +35954,13 @@
         <v>434001.99609410099</v>
       </c>
       <c r="CI70" s="17">
-        <v>415944.53011795931</v>
+        <v>416272.20131800859</v>
+      </c>
+      <c r="CJ70" s="17">
+        <v>398212.70314841636</v>
       </c>
     </row>
-    <row r="71" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -35895,8 +36048,9 @@
       <c r="CG71" s="18"/>
       <c r="CH71" s="18"/>
       <c r="CI71" s="18"/>
+      <c r="CJ71" s="18"/>
     </row>
-    <row r="72" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -35906,10 +36060,11 @@
       <c r="CG72" s="13"/>
       <c r="CH72" s="13"/>
       <c r="CI72" s="13"/>
+      <c r="CJ72" s="13"/>
     </row>
-    <row r="73" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -35919,8 +36074,9 @@
       <c r="CG75" s="13"/>
       <c r="CH75" s="13"/>
       <c r="CI75" s="13"/>
+      <c r="CJ75" s="13"/>
     </row>
-    <row r="76" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -35930,8 +36086,9 @@
       <c r="CG76" s="13"/>
       <c r="CH76" s="13"/>
       <c r="CI76" s="13"/>
+      <c r="CJ76" s="13"/>
     </row>
-    <row r="77" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>65</v>
       </c>
@@ -35941,16 +36098,18 @@
       <c r="CG77" s="13"/>
       <c r="CH77" s="13"/>
       <c r="CI77" s="13"/>
+      <c r="CJ77" s="13"/>
     </row>
-    <row r="78" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD78" s="13"/>
       <c r="CE78" s="13"/>
       <c r="CF78" s="13"/>
       <c r="CG78" s="13"/>
       <c r="CH78" s="13"/>
       <c r="CI78" s="13"/>
+      <c r="CJ78" s="13"/>
     </row>
-    <row r="79" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -35960,8 +36119,9 @@
       <c r="CG79" s="13"/>
       <c r="CH79" s="13"/>
       <c r="CI79" s="13"/>
+      <c r="CJ79" s="13"/>
     </row>
-    <row r="80" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
@@ -35971,8 +36131,9 @@
       <c r="CG80" s="13"/>
       <c r="CH80" s="13"/>
       <c r="CI80" s="13"/>
+      <c r="CJ80" s="13"/>
     </row>
-    <row r="81" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -35982,16 +36143,18 @@
       <c r="CG81" s="13"/>
       <c r="CH81" s="13"/>
       <c r="CI81" s="13"/>
+      <c r="CJ81" s="13"/>
     </row>
-    <row r="82" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD82" s="13"/>
       <c r="CE82" s="13"/>
       <c r="CF82" s="13"/>
       <c r="CG82" s="13"/>
       <c r="CH82" s="13"/>
       <c r="CI82" s="13"/>
+      <c r="CJ82" s="13"/>
     </row>
-    <row r="83" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
         <v>47</v>
@@ -36113,16 +36276,17 @@
       <c r="CA83" s="22"/>
       <c r="CB83" s="22"/>
       <c r="CC83" s="22"/>
-      <c r="CD83" s="21" t="s">
+      <c r="CD83" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="21"/>
-      <c r="CF83" s="19"/>
+      <c r="CE83" s="23"/>
+      <c r="CF83" s="23"/>
       <c r="CG83" s="19"/>
       <c r="CH83" s="19"/>
       <c r="CI83" s="19"/>
+      <c r="CJ83" s="19"/>
     </row>
-    <row r="84" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -36372,12 +36536,15 @@
       <c r="CE84" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="CF84" s="14"/>
+      <c r="CF84" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="CG84" s="14"/>
       <c r="CH84" s="14"/>
       <c r="CI84" s="14"/>
+      <c r="CJ84" s="14"/>
     </row>
-    <row r="85" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="CD85" s="13"/>
       <c r="CE85" s="13"/>
@@ -36385,8 +36552,9 @@
       <c r="CG85" s="13"/>
       <c r="CH85" s="13"/>
       <c r="CI85" s="13"/>
+      <c r="CJ85" s="13"/>
     </row>
-    <row r="86" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -36634,10 +36802,13 @@
         <v>13.651717492784982</v>
       </c>
       <c r="CE86" s="20">
-        <v>-6.8732298394910316</v>
+        <v>-6.890310846572973</v>
+      </c>
+      <c r="CF86" s="20">
+        <v>4.8468705949902073</v>
       </c>
     </row>
-    <row r="87" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -36885,14 +37056,17 @@
         <v>9.755024683403505</v>
       </c>
       <c r="CE87" s="20">
-        <v>15.031236033439015</v>
-      </c>
-      <c r="CF87" s="17"/>
+        <v>15.056008034407782</v>
+      </c>
+      <c r="CF87" s="20">
+        <v>3.5120399888482581</v>
+      </c>
       <c r="CG87" s="17"/>
       <c r="CH87" s="17"/>
       <c r="CI87" s="17"/>
+      <c r="CJ87" s="17"/>
     </row>
-    <row r="88" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -37140,14 +37314,17 @@
         <v>18.348105372290675</v>
       </c>
       <c r="CE88" s="20">
-        <v>15.961152567688515</v>
-      </c>
-      <c r="CF88" s="17"/>
+        <v>16.019285770775667</v>
+      </c>
+      <c r="CF88" s="20">
+        <v>15.344128897117116</v>
+      </c>
       <c r="CG88" s="17"/>
       <c r="CH88" s="17"/>
       <c r="CI88" s="17"/>
+      <c r="CJ88" s="17"/>
     </row>
-    <row r="89" spans="1:87" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -37395,14 +37572,17 @@
         <v>-29.615840058599233</v>
       </c>
       <c r="CE89" s="20">
-        <v>21.826219781727701</v>
-      </c>
-      <c r="CF89" s="17"/>
+        <v>21.912276451616464</v>
+      </c>
+      <c r="CF89" s="20">
+        <v>166.04083696202883</v>
+      </c>
       <c r="CG89" s="17"/>
       <c r="CH89" s="17"/>
       <c r="CI89" s="17"/>
+      <c r="CJ89" s="17"/>
     </row>
-    <row r="90" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -37650,14 +37830,17 @@
         <v>10.867859335387635</v>
       </c>
       <c r="CE90" s="20">
-        <v>-6.9910553974421532</v>
-      </c>
-      <c r="CF90" s="17"/>
+        <v>-6.9388595956838088</v>
+      </c>
+      <c r="CF90" s="20">
+        <v>-14.642935983164691</v>
+      </c>
       <c r="CG90" s="17"/>
       <c r="CH90" s="17"/>
       <c r="CI90" s="17"/>
+      <c r="CJ90" s="17"/>
     </row>
-    <row r="91" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -37905,14 +38088,17 @@
         <v>25.965410678784792</v>
       </c>
       <c r="CE91" s="20">
-        <v>10.78076841055686</v>
-      </c>
-      <c r="CF91" s="17"/>
+        <v>10.782630877892572</v>
+      </c>
+      <c r="CF91" s="20">
+        <v>-6.5497221869607216</v>
+      </c>
       <c r="CG91" s="17"/>
       <c r="CH91" s="17"/>
       <c r="CI91" s="17"/>
+      <c r="CJ91" s="17"/>
     </row>
-    <row r="92" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -38160,14 +38346,17 @@
         <v>7.4780585278006413</v>
       </c>
       <c r="CE92" s="20">
-        <v>11.021370272869845</v>
-      </c>
-      <c r="CF92" s="17"/>
+        <v>11.014061382015683</v>
+      </c>
+      <c r="CF92" s="20">
+        <v>16.325609668018927</v>
+      </c>
       <c r="CG92" s="17"/>
       <c r="CH92" s="17"/>
       <c r="CI92" s="17"/>
+      <c r="CJ92" s="17"/>
     </row>
-    <row r="93" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -38415,14 +38604,17 @@
         <v>2.2339642052323399</v>
       </c>
       <c r="CE93" s="20">
-        <v>-0.9510900458891598</v>
-      </c>
-      <c r="CF93" s="17"/>
+        <v>-0.95856112733476095</v>
+      </c>
+      <c r="CF93" s="20">
+        <v>4.6883472646370734</v>
+      </c>
       <c r="CG93" s="17"/>
       <c r="CH93" s="17"/>
       <c r="CI93" s="17"/>
+      <c r="CJ93" s="17"/>
     </row>
-    <row r="94" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -38670,14 +38862,17 @@
         <v>-3.0404303543676434</v>
       </c>
       <c r="CE94" s="20">
-        <v>5.8226991336803877</v>
-      </c>
-      <c r="CF94" s="17"/>
+        <v>-11.442822432830042</v>
+      </c>
+      <c r="CF94" s="20">
+        <v>-5.5705863575041548</v>
+      </c>
       <c r="CG94" s="17"/>
       <c r="CH94" s="17"/>
       <c r="CI94" s="17"/>
+      <c r="CJ94" s="17"/>
     </row>
-    <row r="95" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -38925,14 +39120,17 @@
         <v>17.359709751842402</v>
       </c>
       <c r="CE95" s="20">
-        <v>69.274161653163048</v>
-      </c>
-      <c r="CF95" s="17"/>
+        <v>69.273558202415131</v>
+      </c>
+      <c r="CF95" s="20">
+        <v>34.887387480111784</v>
+      </c>
       <c r="CG95" s="17"/>
       <c r="CH95" s="17"/>
       <c r="CI95" s="17"/>
+      <c r="CJ95" s="17"/>
     </row>
-    <row r="96" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -39180,14 +39378,17 @@
         <v>3.8043780661974722</v>
       </c>
       <c r="CE96" s="20">
-        <v>-2.3649588335024276</v>
-      </c>
-      <c r="CF96" s="17"/>
+        <v>-2.3482848056489019</v>
+      </c>
+      <c r="CF96" s="20">
+        <v>-6.472566865147968</v>
+      </c>
       <c r="CG96" s="17"/>
       <c r="CH96" s="17"/>
       <c r="CI96" s="17"/>
+      <c r="CJ96" s="17"/>
     </row>
-    <row r="97" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -39435,14 +39636,17 @@
         <v>-11.478532856418084</v>
       </c>
       <c r="CE97" s="20">
-        <v>-9.4379013404813463</v>
-      </c>
-      <c r="CF97" s="17"/>
+        <v>-8.4949397958142328</v>
+      </c>
+      <c r="CF97" s="20">
+        <v>-27.552588029294967</v>
+      </c>
       <c r="CG97" s="17"/>
       <c r="CH97" s="17"/>
       <c r="CI97" s="17"/>
+      <c r="CJ97" s="17"/>
     </row>
-    <row r="98" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -39690,14 +39894,17 @@
         <v>-7.5642035532133178</v>
       </c>
       <c r="CE98" s="20">
-        <v>-9.0498135073437282</v>
-      </c>
-      <c r="CF98" s="17"/>
+        <v>-8.8211455271811587</v>
+      </c>
+      <c r="CF98" s="20">
+        <v>-33.730738448606772</v>
+      </c>
       <c r="CG98" s="17"/>
       <c r="CH98" s="17"/>
       <c r="CI98" s="17"/>
+      <c r="CJ98" s="17"/>
     </row>
-    <row r="99" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -39945,14 +40152,17 @@
         <v>8.3094118790514955</v>
       </c>
       <c r="CE99" s="20">
-        <v>1.2732764898112094</v>
-      </c>
-      <c r="CF99" s="17"/>
+        <v>1.2583943635415977</v>
+      </c>
+      <c r="CF99" s="20">
+        <v>9.881723144718535</v>
+      </c>
       <c r="CG99" s="17"/>
       <c r="CH99" s="17"/>
       <c r="CI99" s="17"/>
+      <c r="CJ99" s="17"/>
     </row>
-    <row r="100" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -40200,14 +40410,17 @@
         <v>10.576321642802895</v>
       </c>
       <c r="CE100" s="20">
-        <v>18.253076545231181</v>
-      </c>
-      <c r="CF100" s="17"/>
+        <v>17.597315302398073</v>
+      </c>
+      <c r="CF100" s="20">
+        <v>12.730978236704459</v>
+      </c>
       <c r="CG100" s="17"/>
       <c r="CH100" s="17"/>
       <c r="CI100" s="17"/>
+      <c r="CJ100" s="17"/>
     </row>
-    <row r="101" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -40455,14 +40668,17 @@
         <v>10.631136815099723</v>
       </c>
       <c r="CE101" s="20">
-        <v>14.032437134947457</v>
-      </c>
-      <c r="CF101" s="17"/>
+        <v>13.990966133119898</v>
+      </c>
+      <c r="CF101" s="20">
+        <v>2.7174605274726389</v>
+      </c>
       <c r="CG101" s="17"/>
       <c r="CH101" s="17"/>
       <c r="CI101" s="17"/>
+      <c r="CJ101" s="17"/>
     </row>
-    <row r="102" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -40710,14 +40926,17 @@
         <v>19.876739647441326</v>
       </c>
       <c r="CE102" s="20">
-        <v>16.251967798525598</v>
-      </c>
-      <c r="CF102" s="17"/>
+        <v>15.870636808572087</v>
+      </c>
+      <c r="CF102" s="20">
+        <v>8.3583375366332149</v>
+      </c>
       <c r="CG102" s="17"/>
       <c r="CH102" s="17"/>
       <c r="CI102" s="17"/>
+      <c r="CJ102" s="17"/>
     </row>
-    <row r="103" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -40965,14 +41184,17 @@
         <v>-23.674161820462373</v>
       </c>
       <c r="CE103" s="20">
-        <v>28.915407113985708</v>
-      </c>
-      <c r="CF103" s="17"/>
+        <v>14.133822792023395</v>
+      </c>
+      <c r="CF103" s="20">
+        <v>-89.217957266009336</v>
+      </c>
       <c r="CG103" s="17"/>
       <c r="CH103" s="17"/>
       <c r="CI103" s="17"/>
+      <c r="CJ103" s="17"/>
     </row>
-    <row r="104" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -41220,10 +41442,13 @@
         <v>6.8219600787778063</v>
       </c>
       <c r="CE104" s="20">
-        <v>9.6380284069675213</v>
+        <v>9.6690879045381166</v>
+      </c>
+      <c r="CF104" s="20">
+        <v>10.734397139810369</v>
       </c>
     </row>
-    <row r="105" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -41471,11 +41696,14 @@
         <v>14.411404413688615</v>
       </c>
       <c r="CE105" s="20">
-        <v>15.134713297323032</v>
+        <v>13.498046940800677</v>
+      </c>
+      <c r="CF105" s="20">
+        <v>8.661584730906597</v>
       </c>
     </row>
-    <row r="106" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -41723,10 +41951,13 @@
         <v>10.033889413548764</v>
       </c>
       <c r="CE107" s="20">
-        <v>7.6239868950149514</v>
+        <v>7.0559783134587661</v>
+      </c>
+      <c r="CF107" s="20">
+        <v>5.5147554894543021</v>
       </c>
     </row>
-    <row r="108" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -41814,8 +42045,9 @@
       <c r="CG108" s="18"/>
       <c r="CH108" s="18"/>
       <c r="CI108" s="18"/>
+      <c r="CJ108" s="18"/>
     </row>
-    <row r="109" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -41825,10 +42057,11 @@
       <c r="CG109" s="13"/>
       <c r="CH109" s="13"/>
       <c r="CI109" s="13"/>
+      <c r="CJ109" s="13"/>
     </row>
-    <row r="110" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -41838,8 +42071,9 @@
       <c r="CG112" s="13"/>
       <c r="CH112" s="13"/>
       <c r="CI112" s="13"/>
+      <c r="CJ112" s="13"/>
     </row>
-    <row r="113" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -41849,8 +42083,9 @@
       <c r="CG113" s="13"/>
       <c r="CH113" s="13"/>
       <c r="CI113" s="13"/>
+      <c r="CJ113" s="13"/>
     </row>
-    <row r="114" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>65</v>
       </c>
@@ -41860,16 +42095,18 @@
       <c r="CG114" s="13"/>
       <c r="CH114" s="13"/>
       <c r="CI114" s="13"/>
+      <c r="CJ114" s="13"/>
     </row>
-    <row r="115" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD115" s="13"/>
       <c r="CE115" s="13"/>
       <c r="CF115" s="13"/>
       <c r="CG115" s="13"/>
       <c r="CH115" s="13"/>
       <c r="CI115" s="13"/>
+      <c r="CJ115" s="13"/>
     </row>
-    <row r="116" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
@@ -41879,8 +42116,9 @@
       <c r="CG116" s="13"/>
       <c r="CH116" s="13"/>
       <c r="CI116" s="13"/>
+      <c r="CJ116" s="13"/>
     </row>
-    <row r="117" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>67</v>
       </c>
@@ -41890,8 +42128,9 @@
       <c r="CG117" s="13"/>
       <c r="CH117" s="13"/>
       <c r="CI117" s="13"/>
+      <c r="CJ117" s="13"/>
     </row>
-    <row r="118" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -41901,16 +42140,18 @@
       <c r="CG118" s="13"/>
       <c r="CH118" s="13"/>
       <c r="CI118" s="13"/>
+      <c r="CJ118" s="13"/>
     </row>
-    <row r="119" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD119" s="13"/>
       <c r="CE119" s="13"/>
       <c r="CF119" s="13"/>
       <c r="CG119" s="13"/>
       <c r="CH119" s="13"/>
       <c r="CI119" s="13"/>
+      <c r="CJ119" s="13"/>
     </row>
-    <row r="120" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="s">
         <v>47</v>
@@ -42032,16 +42273,17 @@
       <c r="CA120" s="22"/>
       <c r="CB120" s="22"/>
       <c r="CC120" s="22"/>
-      <c r="CD120" s="21" t="s">
+      <c r="CD120" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="21"/>
-      <c r="CF120" s="19"/>
+      <c r="CE120" s="23"/>
+      <c r="CF120" s="23"/>
       <c r="CG120" s="19"/>
       <c r="CH120" s="19"/>
       <c r="CI120" s="19"/>
+      <c r="CJ120" s="19"/>
     </row>
-    <row r="121" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -42291,12 +42533,15 @@
       <c r="CE121" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="CF121" s="14"/>
+      <c r="CF121" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="CG121" s="14"/>
       <c r="CH121" s="14"/>
       <c r="CI121" s="14"/>
+      <c r="CJ121" s="14"/>
     </row>
-    <row r="122" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="CD122" s="13"/>
       <c r="CE122" s="13"/>
@@ -42304,8 +42549,9 @@
       <c r="CG122" s="13"/>
       <c r="CH122" s="13"/>
       <c r="CI122" s="13"/>
+      <c r="CJ122" s="13"/>
     </row>
-    <row r="123" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -42553,10 +42799,13 @@
         <v>8.5765715219759215</v>
       </c>
       <c r="CE123" s="20">
-        <v>1.2176355883548524</v>
+        <v>1.2188321650319409</v>
+      </c>
+      <c r="CF123" s="20">
+        <v>5.6111208337637208</v>
       </c>
     </row>
-    <row r="124" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -42806,12 +43055,15 @@
       <c r="CE124" s="20">
         <v>6.314492659931787</v>
       </c>
-      <c r="CF124" s="17"/>
+      <c r="CF124" s="20">
+        <v>-18.197302881927286</v>
+      </c>
       <c r="CG124" s="17"/>
       <c r="CH124" s="17"/>
       <c r="CI124" s="17"/>
+      <c r="CJ124" s="17"/>
     </row>
-    <row r="125" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -43059,14 +43311,17 @@
         <v>-0.80551947755196807</v>
       </c>
       <c r="CE125" s="20">
-        <v>0.48234000321436099</v>
-      </c>
-      <c r="CF125" s="17"/>
+        <v>0.50279234518424687</v>
+      </c>
+      <c r="CF125" s="20">
+        <v>1.8071509715310299</v>
+      </c>
       <c r="CG125" s="17"/>
       <c r="CH125" s="17"/>
       <c r="CI125" s="17"/>
+      <c r="CJ125" s="17"/>
     </row>
-    <row r="126" spans="1:87" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -43316,12 +43571,15 @@
       <c r="CE126" s="20">
         <v>32.218787193819765</v>
       </c>
-      <c r="CF126" s="17"/>
+      <c r="CF126" s="20">
+        <v>100.87565670803866</v>
+      </c>
       <c r="CG126" s="17"/>
       <c r="CH126" s="17"/>
       <c r="CI126" s="17"/>
+      <c r="CJ126" s="17"/>
     </row>
-    <row r="127" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -43569,14 +43827,17 @@
         <v>1.2348582253214744</v>
       </c>
       <c r="CE127" s="20">
-        <v>1.7664306586601555</v>
-      </c>
-      <c r="CF127" s="17"/>
+        <v>1.7663747752012569</v>
+      </c>
+      <c r="CF127" s="20">
+        <v>0.32106617661197845</v>
+      </c>
       <c r="CG127" s="17"/>
       <c r="CH127" s="17"/>
       <c r="CI127" s="17"/>
+      <c r="CJ127" s="17"/>
     </row>
-    <row r="128" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -43824,14 +44085,17 @@
         <v>4.0674860309420637</v>
       </c>
       <c r="CE128" s="20">
-        <v>-0.5108322275775663</v>
-      </c>
-      <c r="CF128" s="17"/>
+        <v>-0.51091524812437683</v>
+      </c>
+      <c r="CF128" s="20">
+        <v>0.79479752734586384</v>
+      </c>
       <c r="CG128" s="17"/>
       <c r="CH128" s="17"/>
       <c r="CI128" s="17"/>
+      <c r="CJ128" s="17"/>
     </row>
-    <row r="129" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -44081,12 +44345,15 @@
       <c r="CE129" s="20">
         <v>3.5664535893745466</v>
       </c>
-      <c r="CF129" s="17"/>
+      <c r="CF129" s="20">
+        <v>12.265120212726075</v>
+      </c>
       <c r="CG129" s="17"/>
       <c r="CH129" s="17"/>
       <c r="CI129" s="17"/>
+      <c r="CJ129" s="17"/>
     </row>
-    <row r="130" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -44334,14 +44601,17 @@
         <v>12.331546872822145</v>
       </c>
       <c r="CE130" s="20">
-        <v>-0.44992514751210422</v>
-      </c>
-      <c r="CF130" s="17"/>
+        <v>-0.44993596356039234</v>
+      </c>
+      <c r="CF130" s="20">
+        <v>-4.3561371437743617</v>
+      </c>
       <c r="CG130" s="17"/>
       <c r="CH130" s="17"/>
       <c r="CI130" s="17"/>
+      <c r="CJ130" s="17"/>
     </row>
-    <row r="131" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -44589,14 +44859,17 @@
         <v>-7.3293116190583021</v>
       </c>
       <c r="CE131" s="20">
-        <v>-4.4232355423580003</v>
-      </c>
-      <c r="CF131" s="17"/>
+        <v>-4.0861566929389852</v>
+      </c>
+      <c r="CF131" s="21">
+        <v>-1.1202796677295623E-2</v>
+      </c>
       <c r="CG131" s="17"/>
       <c r="CH131" s="17"/>
       <c r="CI131" s="17"/>
+      <c r="CJ131" s="17"/>
     </row>
-    <row r="132" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -44844,14 +45117,17 @@
         <v>1.8389048719024998</v>
       </c>
       <c r="CE132" s="20">
-        <v>2.7157027528289461</v>
-      </c>
-      <c r="CF132" s="17"/>
+        <v>2.7160798808592688</v>
+      </c>
+      <c r="CF132" s="20">
+        <v>0.85626547898318961</v>
+      </c>
       <c r="CG132" s="17"/>
       <c r="CH132" s="17"/>
       <c r="CI132" s="17"/>
+      <c r="CJ132" s="17"/>
     </row>
-    <row r="133" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -45099,14 +45375,17 @@
         <v>11.810703952984426</v>
       </c>
       <c r="CE133" s="20">
-        <v>9.8578124843485853</v>
-      </c>
-      <c r="CF133" s="17"/>
+        <v>9.8578385162541622</v>
+      </c>
+      <c r="CF133" s="20">
+        <v>-3.2356428471622678</v>
+      </c>
       <c r="CG133" s="17"/>
       <c r="CH133" s="17"/>
       <c r="CI133" s="17"/>
+      <c r="CJ133" s="17"/>
     </row>
-    <row r="134" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -45354,14 +45633,17 @@
         <v>-14.594052002785503</v>
       </c>
       <c r="CE134" s="20">
-        <v>-1.2410737589793115</v>
-      </c>
-      <c r="CF134" s="17"/>
+        <v>-0.46702180686914119</v>
+      </c>
+      <c r="CF134" s="20">
+        <v>-21.025089735664992</v>
+      </c>
       <c r="CG134" s="17"/>
       <c r="CH134" s="17"/>
       <c r="CI134" s="17"/>
+      <c r="CJ134" s="17"/>
     </row>
-    <row r="135" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -45609,14 +45891,17 @@
         <v>-6.184258636799342</v>
       </c>
       <c r="CE135" s="20">
-        <v>-2.1788932293434868</v>
-      </c>
-      <c r="CF135" s="17"/>
+        <v>-2.178883754377253</v>
+      </c>
+      <c r="CF135" s="20">
+        <v>3.4562882243008204</v>
+      </c>
       <c r="CG135" s="17"/>
       <c r="CH135" s="17"/>
       <c r="CI135" s="17"/>
+      <c r="CJ135" s="17"/>
     </row>
-    <row r="136" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -45864,14 +46149,17 @@
         <v>-4.1168486330635119</v>
       </c>
       <c r="CE136" s="20">
-        <v>4.7025892276627985</v>
-      </c>
-      <c r="CF136" s="17"/>
+        <v>4.7029811310425202</v>
+      </c>
+      <c r="CF136" s="20">
+        <v>-1.9512164192648953</v>
+      </c>
       <c r="CG136" s="17"/>
       <c r="CH136" s="17"/>
       <c r="CI136" s="17"/>
+      <c r="CJ136" s="17"/>
     </row>
-    <row r="137" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -46119,14 +46407,17 @@
         <v>-23.429587761404605</v>
       </c>
       <c r="CE137" s="20">
-        <v>-19.480363677411518</v>
-      </c>
-      <c r="CF137" s="17"/>
+        <v>-19.454492691187653</v>
+      </c>
+      <c r="CF137" s="20">
+        <v>-15.638661680707216</v>
+      </c>
       <c r="CG137" s="17"/>
       <c r="CH137" s="17"/>
       <c r="CI137" s="17"/>
+      <c r="CJ137" s="17"/>
     </row>
-    <row r="138" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -46374,14 +46665,17 @@
         <v>-7.4639328916115062</v>
       </c>
       <c r="CE138" s="20">
-        <v>2.6259952928768797</v>
-      </c>
-      <c r="CF138" s="17"/>
+        <v>2.6269651537298273</v>
+      </c>
+      <c r="CF138" s="20">
+        <v>1.5186344670939462</v>
+      </c>
       <c r="CG138" s="17"/>
       <c r="CH138" s="17"/>
       <c r="CI138" s="17"/>
+      <c r="CJ138" s="17"/>
     </row>
-    <row r="139" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -46629,14 +46923,17 @@
         <v>3.6001773461996862</v>
       </c>
       <c r="CE139" s="20">
-        <v>4.2690747620198692</v>
-      </c>
-      <c r="CF139" s="17"/>
+        <v>4.3495224878104892</v>
+      </c>
+      <c r="CF139" s="20">
+        <v>1.0542106832388498</v>
+      </c>
       <c r="CG139" s="17"/>
       <c r="CH139" s="17"/>
       <c r="CI139" s="17"/>
+      <c r="CJ139" s="17"/>
     </row>
-    <row r="140" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -46884,14 +47181,17 @@
         <v>-3.2237814834804084</v>
       </c>
       <c r="CE140" s="20">
-        <v>51.185296432698806</v>
-      </c>
-      <c r="CF140" s="17"/>
+        <v>38.136556701812424</v>
+      </c>
+      <c r="CF140" s="20">
+        <v>0.80040794864213183</v>
+      </c>
       <c r="CG140" s="17"/>
       <c r="CH140" s="17"/>
       <c r="CI140" s="17"/>
+      <c r="CJ140" s="17"/>
     </row>
-    <row r="141" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -47139,10 +47439,13 @@
         <v>0.22650759028046252</v>
       </c>
       <c r="CE141" s="20">
-        <v>-0.97692562820458306</v>
+        <v>-0.96712477552962639</v>
+      </c>
+      <c r="CF141" s="20">
+        <v>-0.6033744808375161</v>
       </c>
     </row>
-    <row r="142" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -47390,11 +47693,14 @@
         <v>7.9007520020195017</v>
       </c>
       <c r="CE142" s="20">
-        <v>4.7364076586962938</v>
+        <v>5.5200859501473758</v>
+      </c>
+      <c r="CF142" s="20">
+        <v>5.1762274078243706</v>
       </c>
     </row>
-    <row r="143" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -47641,11 +47947,14 @@
       <c r="CD144" s="20">
         <v>-1.3034417755662702</v>
       </c>
-      <c r="CE144" s="20">
-        <v>-5.7039344197576725E-2</v>
+      <c r="CE144" s="21">
+        <v>2.1693341252770892E-2</v>
+      </c>
+      <c r="CF144" s="20">
+        <v>-1.6729384729843986</v>
       </c>
     </row>
-    <row r="145" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -47733,8 +48042,9 @@
       <c r="CG145" s="18"/>
       <c r="CH145" s="18"/>
       <c r="CI145" s="18"/>
+      <c r="CJ145" s="18"/>
     </row>
-    <row r="146" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -47744,10 +48054,11 @@
       <c r="CG146" s="13"/>
       <c r="CH146" s="13"/>
       <c r="CI146" s="13"/>
+      <c r="CJ146" s="13"/>
     </row>
-    <row r="147" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -47757,8 +48068,9 @@
       <c r="CG149" s="13"/>
       <c r="CH149" s="13"/>
       <c r="CI149" s="13"/>
+      <c r="CJ149" s="13"/>
     </row>
-    <row r="150" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>65</v>
       </c>
@@ -47768,16 +48080,18 @@
       <c r="CG150" s="13"/>
       <c r="CH150" s="13"/>
       <c r="CI150" s="13"/>
+      <c r="CJ150" s="13"/>
     </row>
-    <row r="151" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD151" s="13"/>
       <c r="CE151" s="13"/>
       <c r="CF151" s="13"/>
       <c r="CG151" s="13"/>
       <c r="CH151" s="13"/>
       <c r="CI151" s="13"/>
+      <c r="CJ151" s="13"/>
     </row>
-    <row r="152" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
@@ -47787,8 +48101,9 @@
       <c r="CG152" s="13"/>
       <c r="CH152" s="13"/>
       <c r="CI152" s="13"/>
+      <c r="CJ152" s="13"/>
     </row>
-    <row r="153" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>66</v>
       </c>
@@ -47798,8 +48113,9 @@
       <c r="CG153" s="13"/>
       <c r="CH153" s="13"/>
       <c r="CI153" s="13"/>
+      <c r="CJ153" s="13"/>
     </row>
-    <row r="154" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -47809,16 +48125,18 @@
       <c r="CG154" s="13"/>
       <c r="CH154" s="13"/>
       <c r="CI154" s="13"/>
+      <c r="CJ154" s="13"/>
     </row>
-    <row r="155" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD155" s="13"/>
       <c r="CE155" s="13"/>
       <c r="CF155" s="13"/>
       <c r="CG155" s="13"/>
       <c r="CH155" s="13"/>
       <c r="CI155" s="13"/>
+      <c r="CJ155" s="13"/>
     </row>
-    <row r="156" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="22">
         <v>2000</v>
@@ -47940,20 +48258,21 @@
       <c r="CA156" s="22"/>
       <c r="CB156" s="22"/>
       <c r="CC156" s="22"/>
-      <c r="CD156" s="21">
+      <c r="CD156" s="23">
         <v>2020</v>
       </c>
-      <c r="CE156" s="21"/>
-      <c r="CF156" s="21"/>
-      <c r="CG156" s="21"/>
-      <c r="CH156" s="21">
+      <c r="CE156" s="23"/>
+      <c r="CF156" s="23"/>
+      <c r="CG156" s="23"/>
+      <c r="CH156" s="23">
         <v>2021</v>
       </c>
-      <c r="CI156" s="21">
+      <c r="CI156" s="23">
         <v>0</v>
       </c>
+      <c r="CJ156" s="23"/>
     </row>
-    <row r="157" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -48215,8 +48534,11 @@
       <c r="CI157" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="CJ157" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="158" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="CD158" s="13"/>
       <c r="CE158" s="13"/>
@@ -48224,8 +48546,9 @@
       <c r="CG158" s="13"/>
       <c r="CH158" s="13"/>
       <c r="CI158" s="13"/>
+      <c r="CJ158" s="13"/>
     </row>
-    <row r="159" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -48485,10 +48808,13 @@
         <v>93.244875471103455</v>
       </c>
       <c r="CI159" s="20">
-        <v>90.585398828652941</v>
+        <v>90.567713276363079</v>
+      </c>
+      <c r="CJ159" s="20">
+        <v>81.771237520277822</v>
       </c>
     </row>
-    <row r="160" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -48748,10 +49074,13 @@
         <v>91.481414314475884</v>
       </c>
       <c r="CI160" s="20">
-        <v>95.353018630949691</v>
+        <v>95.373552923645761</v>
+      </c>
+      <c r="CJ160" s="20">
+        <v>99.581002333045646</v>
       </c>
     </row>
-    <row r="161" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -49011,10 +49340,13 @@
         <v>80.926728605607693</v>
       </c>
       <c r="CI161" s="20">
-        <v>123.58205987235247</v>
+        <v>123.61885197369655</v>
+      </c>
+      <c r="CJ161" s="20">
+        <v>161.00299605373124</v>
       </c>
     </row>
-    <row r="162" spans="1:87" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -49274,10 +49606,13 @@
         <v>70.726860840668408</v>
       </c>
       <c r="CI162" s="20">
-        <v>56.533272781000186</v>
+        <v>56.573207248327208</v>
+      </c>
+      <c r="CJ162" s="20">
+        <v>167.2710984899083</v>
       </c>
     </row>
-    <row r="163" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -49537,10 +49872,13 @@
         <v>148.90896558129262</v>
       </c>
       <c r="CI163" s="20">
-        <v>133.49853168427953</v>
+        <v>133.57352323605986</v>
+      </c>
+      <c r="CJ163" s="20">
+        <v>122.29959769049128</v>
       </c>
     </row>
-    <row r="164" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -49800,10 +50138,13 @@
         <v>117.47388593452337</v>
       </c>
       <c r="CI164" s="20">
-        <v>108.14951348396656</v>
+        <v>108.15142196306678</v>
+      </c>
+      <c r="CJ164" s="20">
+        <v>96.924900102041121</v>
       </c>
     </row>
-    <row r="165" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -50063,10 +50404,13 @@
         <v>96.796974447277989</v>
       </c>
       <c r="CI165" s="20">
-        <v>65.818486554113107</v>
+        <v>65.814153513246936</v>
+      </c>
+      <c r="CJ165" s="20">
+        <v>116.25322876327743</v>
       </c>
     </row>
-    <row r="166" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -50326,10 +50670,13 @@
         <v>74.5383974934973</v>
       </c>
       <c r="CI166" s="20">
-        <v>107.0104127879582</v>
+        <v>107.00235281038113</v>
+      </c>
+      <c r="CJ166" s="20">
+        <v>86.110397221214598</v>
       </c>
     </row>
-    <row r="167" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -50589,10 +50936,13 @@
         <v>106.34038397974572</v>
       </c>
       <c r="CI167" s="20">
-        <v>117.01792985469285</v>
+        <v>97.581698576243298</v>
+      </c>
+      <c r="CJ167" s="20">
+        <v>142.90310199577368</v>
       </c>
     </row>
-    <row r="168" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -50852,10 +51202,13 @@
         <v>130.92802976147976</v>
       </c>
       <c r="CI168" s="20">
-        <v>98.981327784653715</v>
+        <v>98.980611508649218</v>
+      </c>
+      <c r="CJ168" s="20">
+        <v>108.8221867350039</v>
       </c>
     </row>
-    <row r="169" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -51115,10 +51468,13 @@
         <v>69.825046256845312</v>
       </c>
       <c r="CI169" s="20">
-        <v>59.746767714236526</v>
+        <v>59.756957055524339</v>
+      </c>
+      <c r="CJ169" s="20">
+        <v>119.10760431054128</v>
       </c>
     </row>
-    <row r="170" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -51378,10 +51734,13 @@
         <v>81.224018029493521</v>
       </c>
       <c r="CI170" s="20">
-        <v>58.447616129093518</v>
+        <v>58.596920911507688</v>
+      </c>
+      <c r="CJ170" s="20">
+        <v>131.76187275448547</v>
       </c>
     </row>
-    <row r="171" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -51641,10 +52000,13 @@
         <v>66.13502659534474</v>
       </c>
       <c r="CI171" s="20">
-        <v>63.925412446866858</v>
+        <v>64.086128229269946</v>
+      </c>
+      <c r="CJ171" s="20">
+        <v>151.49369212369749</v>
       </c>
     </row>
-    <row r="172" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -51904,10 +52266,13 @@
         <v>105.60019717490343</v>
       </c>
       <c r="CI172" s="20">
-        <v>68.122695940848729</v>
+        <v>68.112430352517606</v>
+      </c>
+      <c r="CJ172" s="20">
+        <v>137.39291255492921</v>
       </c>
     </row>
-    <row r="173" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -52167,10 +52532,13 @@
         <v>135.02505521022465</v>
       </c>
       <c r="CI173" s="20">
-        <v>159.47377340496305</v>
+        <v>158.5384882198347</v>
+      </c>
+      <c r="CJ173" s="20">
+        <v>146.83863063563271</v>
       </c>
     </row>
-    <row r="174" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -52430,10 +52798,13 @@
         <v>148.05066015952772</v>
       </c>
       <c r="CI174" s="20">
-        <v>107.86799570134151</v>
+        <v>107.82774754684827</v>
+      </c>
+      <c r="CJ174" s="20">
+        <v>97.398957218041801</v>
       </c>
     </row>
-    <row r="175" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -52693,10 +53064,13 @@
         <v>103.15184763807166</v>
       </c>
       <c r="CI175" s="20">
-        <v>87.279346747563096</v>
+        <v>86.925985224974838</v>
+      </c>
+      <c r="CJ175" s="20">
+        <v>84.501359092070842</v>
       </c>
     </row>
-    <row r="176" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -52956,10 +53330,13 @@
         <v>48.501325342406957</v>
       </c>
       <c r="CI176" s="20">
-        <v>49.026860806401267</v>
+        <v>47.505572372139007</v>
+      </c>
+      <c r="CJ176" s="20">
+        <v>6.9428772917694923</v>
       </c>
     </row>
-    <row r="177" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -53219,10 +53596,13 @@
         <v>122.75343352863501</v>
       </c>
       <c r="CI177" s="20">
-        <v>111.37176743656548</v>
+        <v>111.39229298571803</v>
+      </c>
+      <c r="CJ177" s="20">
+        <v>119.88293258265648</v>
       </c>
     </row>
-    <row r="178" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -53482,11 +53862,14 @@
         <v>116.70431595063077</v>
       </c>
       <c r="CI178" s="20">
-        <v>131.97177662448431</v>
+        <v>129.12957018757888</v>
+      </c>
+      <c r="CJ178" s="20">
+        <v>80.294530139532256</v>
       </c>
     </row>
-    <row r="179" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -53746,10 +54129,13 @@
         <v>112.21323909754754</v>
       </c>
       <c r="CI180" s="20">
-        <v>109.71086805795798</v>
+        <v>109.04594171801143</v>
+      </c>
+      <c r="CJ180" s="20">
+        <v>108.70763187349964</v>
       </c>
     </row>
-    <row r="181" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -53837,8 +54223,9 @@
       <c r="CG181" s="18"/>
       <c r="CH181" s="18"/>
       <c r="CI181" s="18"/>
+      <c r="CJ181" s="18"/>
     </row>
-    <row r="182" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -53848,8 +54235,9 @@
       <c r="CG182" s="13"/>
       <c r="CH182" s="13"/>
       <c r="CI182" s="13"/>
+      <c r="CJ182" s="13"/>
     </row>
-    <row r="185" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -53859,8 +54247,9 @@
       <c r="CG185" s="13"/>
       <c r="CH185" s="13"/>
       <c r="CI185" s="13"/>
+      <c r="CJ185" s="13"/>
     </row>
-    <row r="186" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -53870,8 +54259,9 @@
       <c r="CG186" s="13"/>
       <c r="CH186" s="13"/>
       <c r="CI186" s="13"/>
+      <c r="CJ186" s="13"/>
     </row>
-    <row r="187" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>65</v>
       </c>
@@ -53881,16 +54271,18 @@
       <c r="CG187" s="13"/>
       <c r="CH187" s="13"/>
       <c r="CI187" s="13"/>
+      <c r="CJ187" s="13"/>
     </row>
-    <row r="188" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD188" s="13"/>
       <c r="CE188" s="13"/>
       <c r="CF188" s="13"/>
       <c r="CG188" s="13"/>
       <c r="CH188" s="13"/>
       <c r="CI188" s="13"/>
+      <c r="CJ188" s="13"/>
     </row>
-    <row r="189" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
@@ -53900,8 +54292,9 @@
       <c r="CG189" s="13"/>
       <c r="CH189" s="13"/>
       <c r="CI189" s="13"/>
+      <c r="CJ189" s="13"/>
     </row>
-    <row r="190" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>66</v>
       </c>
@@ -53911,8 +54304,9 @@
       <c r="CG190" s="13"/>
       <c r="CH190" s="13"/>
       <c r="CI190" s="13"/>
+      <c r="CJ190" s="13"/>
     </row>
-    <row r="191" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
@@ -53922,16 +54316,18 @@
       <c r="CG191" s="13"/>
       <c r="CH191" s="13"/>
       <c r="CI191" s="13"/>
+      <c r="CJ191" s="13"/>
     </row>
-    <row r="192" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD192" s="13"/>
       <c r="CE192" s="13"/>
       <c r="CF192" s="13"/>
       <c r="CG192" s="13"/>
       <c r="CH192" s="13"/>
       <c r="CI192" s="13"/>
+      <c r="CJ192" s="13"/>
     </row>
-    <row r="193" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="22">
         <v>2000</v>
@@ -54053,20 +54449,21 @@
       <c r="CA193" s="22"/>
       <c r="CB193" s="22"/>
       <c r="CC193" s="22"/>
-      <c r="CD193" s="21">
+      <c r="CD193" s="23">
         <v>2020</v>
       </c>
-      <c r="CE193" s="21"/>
-      <c r="CF193" s="21"/>
-      <c r="CG193" s="21"/>
-      <c r="CH193" s="21">
+      <c r="CE193" s="23"/>
+      <c r="CF193" s="23"/>
+      <c r="CG193" s="23"/>
+      <c r="CH193" s="23">
         <v>2021</v>
       </c>
-      <c r="CI193" s="21">
+      <c r="CI193" s="23">
         <v>0</v>
       </c>
+      <c r="CJ193" s="23"/>
     </row>
-    <row r="194" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -54328,8 +54725,11 @@
       <c r="CI194" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="CJ194" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="195" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="CD195" s="13"/>
       <c r="CE195" s="13"/>
@@ -54337,8 +54737,9 @@
       <c r="CG195" s="13"/>
       <c r="CH195" s="13"/>
       <c r="CI195" s="13"/>
+      <c r="CJ195" s="13"/>
     </row>
-    <row r="196" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -54598,10 +54999,13 @@
         <v>17.751958835651855</v>
       </c>
       <c r="CI196" s="20">
-        <v>16.052519153674471</v>
+        <v>16.134729333975571</v>
+      </c>
+      <c r="CJ196" s="20">
+        <v>13.410930587043216</v>
       </c>
     </row>
-    <row r="197" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -54861,10 +55265,13 @@
         <v>5.8730474981145218</v>
       </c>
       <c r="CI197" s="20">
-        <v>3.7869038478253749</v>
+        <v>3.8078159203166102</v>
+      </c>
+      <c r="CJ197" s="20">
+        <v>6.7518142831058174</v>
       </c>
     </row>
-    <row r="198" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -55124,10 +55531,13 @@
         <v>4.2683048184933403</v>
       </c>
       <c r="CI198" s="20">
-        <v>3.5904083278600778</v>
+        <v>3.6112674933179476</v>
+      </c>
+      <c r="CJ198" s="20">
+        <v>8.0778667436857461</v>
       </c>
     </row>
-    <row r="199" spans="1:87" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -55387,10 +55797,13 @@
         <v>2.1543317966287714</v>
       </c>
       <c r="CI199" s="20">
-        <v>1.4271840591798151</v>
+        <v>1.435769787693892</v>
+      </c>
+      <c r="CJ199" s="20">
+        <v>0.21583429523835437</v>
       </c>
     </row>
-    <row r="200" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -55650,10 +56063,13 @@
         <v>9.5358778550071666</v>
       </c>
       <c r="CI200" s="20">
-        <v>9.9093209765820944</v>
+        <v>9.9674875451499627</v>
+      </c>
+      <c r="CJ200" s="20">
+        <v>9.9345364275888439</v>
       </c>
     </row>
-    <row r="201" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -55913,10 +56329,13 @@
         <v>1.3685296972148253</v>
       </c>
       <c r="CI201" s="20">
-        <v>4.4624802893913724</v>
+        <v>4.4862323631068834</v>
+      </c>
+      <c r="CJ201" s="20">
+        <v>0.53134383616906833</v>
       </c>
     </row>
-    <row r="202" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -56176,10 +56595,13 @@
         <v>1.4658008635573638</v>
       </c>
       <c r="CI202" s="20">
-        <v>0.94435121684565604</v>
+        <v>0.94929917638689065</v>
+      </c>
+      <c r="CJ202" s="20">
+        <v>1.6901133205744676</v>
       </c>
     </row>
-    <row r="203" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -56439,10 +56861,13 @@
         <v>0.36642503211318345</v>
       </c>
       <c r="CI203" s="20">
-        <v>0.13372524946148656</v>
+        <v>0.13442461744044046</v>
+      </c>
+      <c r="CJ203" s="20">
+        <v>0.11598853716469761</v>
       </c>
     </row>
-    <row r="204" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -56702,10 +57127,13 @@
         <v>0.79716760683983556</v>
       </c>
       <c r="CI204" s="20">
-        <v>1.3799755758706203</v>
+        <v>1.1609525871378723</v>
+      </c>
+      <c r="CJ204" s="20">
+        <v>1.5462005844297375</v>
       </c>
     </row>
-    <row r="205" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -56965,10 +57393,13 @@
         <v>0.24497034554819222</v>
       </c>
       <c r="CI205" s="20">
-        <v>0.71599881504443974</v>
+        <v>0.71979513514681248</v>
+      </c>
+      <c r="CJ205" s="20">
+        <v>0.56481838519529282</v>
       </c>
     </row>
-    <row r="206" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -57228,10 +57659,13 @@
         <v>8.1588018490014472E-2</v>
       </c>
       <c r="CI206" s="20">
-        <v>6.4073750579940913E-2</v>
+        <v>6.4424708199604802E-2</v>
+      </c>
+      <c r="CJ206" s="20">
+        <v>9.4011180459055113E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -57491,10 +57925,13 @@
         <v>6.7350985957280368E-2</v>
       </c>
       <c r="CI207" s="20">
-        <v>5.8646458404134953E-2</v>
+        <v>5.9571505437386284E-2</v>
+      </c>
+      <c r="CJ207" s="20">
+        <v>8.6028709896634969E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -57750,14 +58187,17 @@
       <c r="CG208" s="20">
         <v>0.16967923615284036</v>
       </c>
-      <c r="CH208" s="20">
+      <c r="CH208" s="21">
         <v>4.8157369520938034E-2</v>
       </c>
       <c r="CI208" s="20">
-        <v>5.1258420858641351E-2</v>
+        <v>5.1659941734084273E-2</v>
+      </c>
+      <c r="CJ208" s="20">
+        <v>6.8337292831218616E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -58017,10 +58457,13 @@
         <v>5.2767073159854974</v>
       </c>
       <c r="CI209" s="20">
-        <v>3.7299041843763723</v>
+        <v>3.7491429772400289</v>
+      </c>
+      <c r="CJ209" s="20">
+        <v>5.6282081133264548</v>
       </c>
     </row>
-    <row r="210" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -58280,10 +58723,13 @@
         <v>12.527530142083092</v>
       </c>
       <c r="CI210" s="20">
-        <v>15.276528802924579</v>
+        <v>15.272417705380937</v>
+      </c>
+      <c r="CJ210" s="20">
+        <v>14.643252380906087</v>
       </c>
     </row>
-    <row r="211" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -58543,10 +58989,13 @@
         <v>13.343120453006188</v>
       </c>
       <c r="CI211" s="20">
-        <v>8.899217986586704</v>
+        <v>8.9431810922286097</v>
+      </c>
+      <c r="CJ211" s="20">
+        <v>9.1055324207784594</v>
       </c>
     </row>
-    <row r="212" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -58806,10 +59255,13 @@
         <v>3.7115906500930924</v>
       </c>
       <c r="CI212" s="20">
-        <v>3.0769402728701958</v>
+        <v>3.0831190789284295</v>
+      </c>
+      <c r="CJ212" s="20">
+        <v>3.21413180602024</v>
       </c>
     </row>
-    <row r="213" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -59062,17 +59514,20 @@
       <c r="CF213" s="20">
         <v>0.18555893870473666</v>
       </c>
-      <c r="CG213" s="20">
+      <c r="CG213" s="21">
         <v>3.3709529986202066E-2</v>
       </c>
       <c r="CH213" s="20">
         <v>6.9000878254838846E-2</v>
       </c>
       <c r="CI213" s="20">
-        <v>0.11930607501457033</v>
+        <v>0.10618673057997688</v>
+      </c>
+      <c r="CJ213" s="21">
+        <v>1.8961370829204877E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -59332,10 +59787,13 @@
         <v>12.072180972972365</v>
       </c>
       <c r="CI214" s="20">
-        <v>12.195891935093307</v>
+        <v>12.264073191075385</v>
+      </c>
+      <c r="CJ214" s="20">
+        <v>14.948285198350437</v>
       </c>
     </row>
-    <row r="215" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -59595,11 +60053,14 @@
         <v>8.9763588644676524</v>
       </c>
       <c r="CI215" s="20">
-        <v>14.125364601556159</v>
+        <v>13.998449109522671</v>
+      </c>
+      <c r="CJ215" s="20">
+        <v>9.3538045264069787</v>
       </c>
     </row>
-    <row r="216" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -59861,8 +60322,11 @@
       <c r="CI217" s="20">
         <v>100</v>
       </c>
+      <c r="CJ217" s="20">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -59950,8 +60414,9 @@
       <c r="CG218" s="18"/>
       <c r="CH218" s="18"/>
       <c r="CI218" s="18"/>
+      <c r="CJ218" s="18"/>
     </row>
-    <row r="219" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
@@ -59961,10 +60426,11 @@
       <c r="CG219" s="13"/>
       <c r="CH219" s="13"/>
       <c r="CI219" s="13"/>
+      <c r="CJ219" s="13"/>
     </row>
-    <row r="220" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -59974,8 +60440,9 @@
       <c r="CG222" s="13"/>
       <c r="CH222" s="13"/>
       <c r="CI222" s="13"/>
+      <c r="CJ222" s="13"/>
     </row>
-    <row r="223" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -59985,8 +60452,9 @@
       <c r="CG223" s="13"/>
       <c r="CH223" s="13"/>
       <c r="CI223" s="13"/>
+      <c r="CJ223" s="13"/>
     </row>
-    <row r="224" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>65</v>
       </c>
@@ -59996,16 +60464,18 @@
       <c r="CG224" s="13"/>
       <c r="CH224" s="13"/>
       <c r="CI224" s="13"/>
+      <c r="CJ224" s="13"/>
     </row>
-    <row r="225" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD225" s="13"/>
       <c r="CE225" s="13"/>
       <c r="CF225" s="13"/>
       <c r="CG225" s="13"/>
       <c r="CH225" s="13"/>
       <c r="CI225" s="13"/>
+      <c r="CJ225" s="13"/>
     </row>
-    <row r="226" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
@@ -60015,8 +60485,9 @@
       <c r="CG226" s="13"/>
       <c r="CH226" s="13"/>
       <c r="CI226" s="13"/>
+      <c r="CJ226" s="13"/>
     </row>
-    <row r="227" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>66</v>
       </c>
@@ -60026,8 +60497,9 @@
       <c r="CG227" s="13"/>
       <c r="CH227" s="13"/>
       <c r="CI227" s="13"/>
+      <c r="CJ227" s="13"/>
     </row>
-    <row r="228" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
@@ -60037,16 +60509,18 @@
       <c r="CG228" s="13"/>
       <c r="CH228" s="13"/>
       <c r="CI228" s="13"/>
+      <c r="CJ228" s="13"/>
     </row>
-    <row r="229" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD229" s="13"/>
       <c r="CE229" s="13"/>
       <c r="CF229" s="13"/>
       <c r="CG229" s="13"/>
       <c r="CH229" s="13"/>
       <c r="CI229" s="13"/>
+      <c r="CJ229" s="13"/>
     </row>
-    <row r="230" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="22">
         <v>2000</v>
@@ -60168,20 +60642,21 @@
       <c r="CA230" s="22"/>
       <c r="CB230" s="22"/>
       <c r="CC230" s="22"/>
-      <c r="CD230" s="21">
+      <c r="CD230" s="23">
         <v>2020</v>
       </c>
-      <c r="CE230" s="21"/>
-      <c r="CF230" s="21"/>
-      <c r="CG230" s="21"/>
-      <c r="CH230" s="21">
+      <c r="CE230" s="23"/>
+      <c r="CF230" s="23"/>
+      <c r="CG230" s="23"/>
+      <c r="CH230" s="23">
         <v>2021</v>
       </c>
-      <c r="CI230" s="21">
+      <c r="CI230" s="23">
         <v>0</v>
       </c>
+      <c r="CJ230" s="23"/>
     </row>
-    <row r="231" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -60443,8 +60918,11 @@
       <c r="CI231" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="CJ231" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="232" spans="1:87" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="CD232" s="13"/>
       <c r="CE232" s="13"/>
@@ -60452,8 +60930,9 @@
       <c r="CG232" s="13"/>
       <c r="CH232" s="13"/>
       <c r="CI232" s="13"/>
+      <c r="CJ232" s="13"/>
     </row>
-    <row r="233" spans="1:87" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -60713,10 +61192,13 @@
         <v>21.363155789640633</v>
       </c>
       <c r="CI233" s="20">
-        <v>19.441718352401409</v>
+        <v>19.42664434090085</v>
+      </c>
+      <c r="CJ233" s="20">
+        <v>17.828646716711656</v>
       </c>
     </row>
-    <row r="234" spans="1:87" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -60976,10 +61458,13 @@
         <v>7.2040172102246762</v>
       </c>
       <c r="CI234" s="20">
-        <v>4.3571196209837826</v>
+        <v>4.3536898877216395</v>
+      </c>
+      <c r="CJ234" s="20">
+        <v>7.3706201420964916</v>
       </c>
     </row>
-    <row r="235" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -61239,10 +61724,13 @@
         <v>5.9184439726088067</v>
       </c>
       <c r="CI235" s="20">
-        <v>3.1874109780895035</v>
+        <v>3.1855502483414835</v>
+      </c>
+      <c r="CJ235" s="20">
+        <v>5.45409579833359</v>
       </c>
     </row>
-    <row r="236" spans="1:87" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -61502,10 +61990,13 @@
         <v>3.4180019601767602</v>
       </c>
       <c r="CI236" s="20">
-        <v>2.7696539455207425</v>
+        <v>2.7674737955391286</v>
+      </c>
+      <c r="CJ236" s="20">
+        <v>0.14026831487486646</v>
       </c>
     </row>
-    <row r="237" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -61765,10 +62256,13 @@
         <v>7.1859457056315632</v>
       </c>
       <c r="CI237" s="20">
-        <v>8.1436117123509533</v>
+        <v>8.1371969503459312</v>
+      </c>
+      <c r="CJ237" s="20">
+        <v>8.8304454732328708</v>
       </c>
     </row>
-    <row r="238" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -62028,10 +62522,13 @@
         <v>1.3072450009124204</v>
       </c>
       <c r="CI238" s="20">
-        <v>4.5269051193026124</v>
+        <v>4.5233379637659459</v>
+      </c>
+      <c r="CJ238" s="20">
+        <v>0.59593695819866821</v>
       </c>
     </row>
-    <row r="239" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -62291,10 +62788,13 @@
         <v>1.6992500407266555</v>
       </c>
       <c r="CI239" s="20">
-        <v>1.5741108186458499</v>
+        <v>1.5728717477222494</v>
+      </c>
+      <c r="CJ239" s="20">
+        <v>1.5804138829694521</v>
       </c>
     </row>
-    <row r="240" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -62554,10 +63054,13 @@
         <v>0.55163165727342456</v>
       </c>
       <c r="CI240" s="20">
-        <v>0.13709986549400172</v>
+        <v>0.13699193161530299</v>
+      </c>
+      <c r="CJ240" s="20">
+        <v>0.14642644333940313</v>
       </c>
     </row>
-    <row r="241" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -62817,10 +63320,13 @@
         <v>0.84119274277000922</v>
       </c>
       <c r="CI241" s="20">
-        <v>1.2938044495877277</v>
+        <v>1.2973454039181038</v>
+      </c>
+      <c r="CJ241" s="20">
+        <v>1.1762082249253687</v>
       </c>
     </row>
-    <row r="242" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -63080,10 +63586,13 @@
         <v>0.20995440019136094</v>
       </c>
       <c r="CI242" s="20">
-        <v>0.79361282865285832</v>
+        <v>0.79299104299096723</v>
+      </c>
+      <c r="CJ242" s="20">
+        <v>0.56422381258255283</v>
       </c>
     </row>
-    <row r="243" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -63343,10 +63852,13 @@
         <v>0.13111707499109013</v>
       </c>
       <c r="CI243" s="20">
-        <v>0.1176563530512026</v>
+        <v>0.11756376699379703</v>
+      </c>
+      <c r="CJ243" s="20">
+        <v>8.5802521648331381E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -63606,10 +64118,13 @@
         <v>9.3047259591806666E-2</v>
       </c>
       <c r="CI244" s="20">
-        <v>0.11008411097266013</v>
+        <v>0.11085959482051366</v>
+      </c>
+      <c r="CJ244" s="20">
+        <v>7.0976354012675671E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -63859,7 +64374,7 @@
       <c r="CE245" s="20">
         <v>8.9879567403038166E-2</v>
       </c>
-      <c r="CF245" s="20">
+      <c r="CF245" s="21">
         <v>4.6605741601528486E-2</v>
       </c>
       <c r="CG245" s="20">
@@ -63869,10 +64384,13 @@
         <v>8.1710021127327268E-2</v>
       </c>
       <c r="CI245" s="20">
-        <v>8.797136588451232E-2</v>
+        <v>8.7902127201966468E-2</v>
+      </c>
+      <c r="CJ245" s="21">
+        <v>4.903692799474392E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -64132,10 +64650,13 @@
         <v>5.6071525957072677</v>
       </c>
       <c r="CI246" s="20">
-        <v>6.0069705138543181</v>
+        <v>6.0022645568907782</v>
+      </c>
+      <c r="CJ246" s="20">
+        <v>4.453134912955055</v>
       </c>
     </row>
-    <row r="247" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -64395,10 +64916,13 @@
         <v>10.411065805132546</v>
       </c>
       <c r="CI247" s="20">
-        <v>10.509572828788999</v>
+        <v>10.50467422576153</v>
+      </c>
+      <c r="CJ247" s="20">
+        <v>10.840698271044776</v>
       </c>
     </row>
-    <row r="248" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -64658,10 +65182,13 @@
         <v>10.113259637526879</v>
       </c>
       <c r="CI248" s="20">
-        <v>9.0512568069648296</v>
+        <v>9.0442175260414945</v>
+      </c>
+      <c r="CJ248" s="20">
+        <v>10.162746036328677</v>
       </c>
     </row>
-    <row r="249" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -64921,10 +65448,13 @@
         <v>4.0376359569675673</v>
       </c>
       <c r="CI249" s="20">
-        <v>3.8677396300345777</v>
+        <v>3.8676768807438728</v>
+      </c>
+      <c r="CJ249" s="20">
+        <v>4.1348525149880171</v>
       </c>
     </row>
-    <row r="250" spans="1:87" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -65184,10 +65714,13 @@
         <v>0.15964124680900427</v>
       </c>
       <c r="CI250" s="20">
-        <v>0.26697962788446278</v>
+        <v>0.24374471153285818</v>
+      </c>
+      <c r="CJ250" s="20">
+        <v>0.29688638201364204</v>
       </c>
     </row>
-    <row r="251" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -65447,10 +65980,13 @@
         <v>11.035606019386883</v>
       </c>
       <c r="CI251" s="20">
-        <v>12.014013261504887</v>
+        <v>12.005744514038316</v>
+      </c>
+      <c r="CJ251" s="20">
+        <v>13.55482927782041</v>
       </c>
     </row>
-    <row r="252" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -65710,11 +66246,14 @@
         <v>8.6309259026033036</v>
       </c>
       <c r="CI252" s="20">
-        <v>11.742707810030089</v>
+        <v>11.821258783113269</v>
+      </c>
+      <c r="CJ252" s="20">
+        <v>12.663751033928747</v>
       </c>
     </row>
-    <row r="253" spans="1:87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:87" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -65976,8 +66515,11 @@
       <c r="CI254" s="20">
         <v>100</v>
       </c>
+      <c r="CJ254" s="20">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:87" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -66065,8 +66607,9 @@
       <c r="CG255" s="18"/>
       <c r="CH255" s="18"/>
       <c r="CI255" s="18"/>
+      <c r="CJ255" s="18"/>
     </row>
-    <row r="256" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
@@ -66076,8 +66619,9 @@
       <c r="CG256" s="13"/>
       <c r="CH256" s="13"/>
       <c r="CI256" s="13"/>
+      <c r="CJ256" s="13"/>
     </row>
-    <row r="257" spans="1:87" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:88" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -66093,8 +66637,9 @@
       <c r="CG257" s="16"/>
       <c r="CH257" s="16"/>
       <c r="CI257" s="16"/>
+      <c r="CJ257" s="16"/>
     </row>
-    <row r="258" spans="1:87" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:88" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -66110,6 +66655,7 @@
       <c r="CG258" s="16"/>
       <c r="CH258" s="16"/>
       <c r="CI258" s="16"/>
+      <c r="CJ258" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -66158,16 +66704,17 @@
     <mergeCell ref="B156:E156"/>
     <mergeCell ref="F156:I156"/>
     <mergeCell ref="J156:M156"/>
+    <mergeCell ref="AL120:AO120"/>
+    <mergeCell ref="AP120:AS120"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="AX120:BA120"/>
+    <mergeCell ref="BB120:BE120"/>
     <mergeCell ref="N156:Q156"/>
     <mergeCell ref="R156:U156"/>
     <mergeCell ref="V156:Y156"/>
     <mergeCell ref="Z156:AC156"/>
     <mergeCell ref="AD156:AG156"/>
     <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="AP83:AS83"/>
-    <mergeCell ref="AT83:AW83"/>
-    <mergeCell ref="AX83:BA83"/>
-    <mergeCell ref="BB83:BE83"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="F120:I120"/>
     <mergeCell ref="J120:M120"/>
@@ -66177,14 +66724,29 @@
     <mergeCell ref="Z120:AC120"/>
     <mergeCell ref="AD120:AG120"/>
     <mergeCell ref="AH120:AK120"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BB83:BE83"/>
     <mergeCell ref="V83:Y83"/>
     <mergeCell ref="Z83:AC83"/>
     <mergeCell ref="AD83:AG83"/>
-    <mergeCell ref="AL120:AO120"/>
-    <mergeCell ref="AP120:AS120"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="AX120:BA120"/>
-    <mergeCell ref="BB120:BE120"/>
+    <mergeCell ref="AP83:AS83"/>
+    <mergeCell ref="AT83:AW83"/>
+    <mergeCell ref="AX83:BA83"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR83:BU83"/>
+    <mergeCell ref="BV83:BY83"/>
+    <mergeCell ref="BR46:BU46"/>
+    <mergeCell ref="BV46:BY46"/>
+    <mergeCell ref="BR193:BU193"/>
+    <mergeCell ref="BV193:BY193"/>
+    <mergeCell ref="BV230:BY230"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -66201,53 +66763,44 @@
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AH46:AK46"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BR230:BU230"/>
-    <mergeCell ref="BR120:BU120"/>
-    <mergeCell ref="BV120:BY120"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR83:BU83"/>
-    <mergeCell ref="BV83:BY83"/>
-    <mergeCell ref="BR46:BU46"/>
-    <mergeCell ref="BV46:BY46"/>
-    <mergeCell ref="BR193:BU193"/>
-    <mergeCell ref="BV193:BY193"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="AX46:BA46"/>
     <mergeCell ref="BF46:BI46"/>
     <mergeCell ref="BJ46:BM46"/>
     <mergeCell ref="BN46:BQ46"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB46:BE46"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH46:CJ46"/>
+    <mergeCell ref="CD83:CF83"/>
+    <mergeCell ref="CD120:CF120"/>
+    <mergeCell ref="CH156:CJ156"/>
+    <mergeCell ref="CH193:CJ193"/>
+    <mergeCell ref="CH230:CJ230"/>
+    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="AP46:AS46"/>
+    <mergeCell ref="AT46:AW46"/>
     <mergeCell ref="BZ156:CC156"/>
     <mergeCell ref="BR156:BU156"/>
     <mergeCell ref="BV156:BY156"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB46:BE46"/>
     <mergeCell ref="BJ83:BM83"/>
     <mergeCell ref="BN83:BQ83"/>
     <mergeCell ref="BF83:BI83"/>
     <mergeCell ref="BF120:BI120"/>
     <mergeCell ref="BJ120:BM120"/>
     <mergeCell ref="BN120:BQ120"/>
-    <mergeCell ref="AL46:AO46"/>
-    <mergeCell ref="AP46:AS46"/>
-    <mergeCell ref="AT46:AW46"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="AX46:BA46"/>
-    <mergeCell ref="BV230:BY230"/>
+    <mergeCell ref="BR230:BU230"/>
+    <mergeCell ref="BR120:BU120"/>
+    <mergeCell ref="BV120:BY120"/>
     <mergeCell ref="BZ230:CC230"/>
     <mergeCell ref="BZ83:CC83"/>
     <mergeCell ref="BZ120:CC120"/>
@@ -66256,13 +66809,6 @@
     <mergeCell ref="CD193:CG193"/>
     <mergeCell ref="CD156:CG156"/>
     <mergeCell ref="CD46:CG46"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH46:CI46"/>
-    <mergeCell ref="CD83:CE83"/>
-    <mergeCell ref="CD120:CE120"/>
-    <mergeCell ref="CH156:CI156"/>
-    <mergeCell ref="CH193:CI193"/>
-    <mergeCell ref="CH230:CI230"/>
     <mergeCell ref="BZ193:CC193"/>
     <mergeCell ref="BZ46:CC46"/>
   </mergeCells>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="68">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -657,13 +657,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -778,11 +778,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23628,12 +23627,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CJ258"/>
+  <dimension ref="A1:CK258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO13" sqref="CO13"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23678,11 +23677,11 @@
     <col min="75" max="77" width="7.90625" style="7" customWidth="1"/>
     <col min="78" max="78" width="7.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="7.90625" style="7" customWidth="1"/>
-    <col min="82" max="88" width="8.81640625" style="16" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="7"/>
+    <col min="82" max="89" width="9.08984375" style="16" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -23693,8 +23692,9 @@
       <c r="CH1" s="13"/>
       <c r="CI1" s="13"/>
       <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
     </row>
-    <row r="2" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -23705,8 +23705,9 @@
       <c r="CH2" s="13"/>
       <c r="CI2" s="13"/>
       <c r="CJ2" s="13"/>
+      <c r="CK2" s="13"/>
     </row>
-    <row r="3" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -23717,8 +23718,9 @@
       <c r="CH3" s="13"/>
       <c r="CI3" s="13"/>
       <c r="CJ3" s="13"/>
+      <c r="CK3" s="13"/>
     </row>
-    <row r="4" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD4" s="13"/>
       <c r="CE4" s="13"/>
       <c r="CF4" s="13"/>
@@ -23726,8 +23728,9 @@
       <c r="CH4" s="13"/>
       <c r="CI4" s="13"/>
       <c r="CJ4" s="13"/>
+      <c r="CK4" s="13"/>
     </row>
-    <row r="5" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -23738,8 +23741,9 @@
       <c r="CH5" s="13"/>
       <c r="CI5" s="13"/>
       <c r="CJ5" s="13"/>
+      <c r="CK5" s="13"/>
     </row>
-    <row r="6" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -23750,8 +23754,9 @@
       <c r="CH6" s="13"/>
       <c r="CI6" s="13"/>
       <c r="CJ6" s="13"/>
+      <c r="CK6" s="13"/>
     </row>
-    <row r="7" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -23762,8 +23767,9 @@
       <c r="CH7" s="13"/>
       <c r="CI7" s="13"/>
       <c r="CJ7" s="13"/>
+      <c r="CK7" s="13"/>
     </row>
-    <row r="8" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD8" s="13"/>
       <c r="CE8" s="13"/>
       <c r="CF8" s="13"/>
@@ -23771,8 +23777,9 @@
       <c r="CH8" s="13"/>
       <c r="CI8" s="13"/>
       <c r="CJ8" s="13"/>
+      <c r="CK8" s="13"/>
     </row>
-    <row r="9" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="22">
         <v>2000</v>
@@ -23894,19 +23901,20 @@
       <c r="CA9" s="22"/>
       <c r="CB9" s="22"/>
       <c r="CC9" s="22"/>
-      <c r="CD9" s="23">
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
     </row>
-    <row r="10" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24171,8 +24179,11 @@
       <c r="CJ10" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="CK10" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="CD11" s="13"/>
       <c r="CE11" s="13"/>
@@ -24181,8 +24192,9 @@
       <c r="CH11" s="13"/>
       <c r="CI11" s="13"/>
       <c r="CJ11" s="13"/>
+      <c r="CK11" s="13"/>
     </row>
-    <row r="12" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24447,8 +24459,11 @@
       <c r="CJ12" s="15">
         <v>58054.255477073399</v>
       </c>
+      <c r="CK12" s="15">
+        <v>127105.58837156251</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24711,10 +24726,13 @@
         <v>17284.740443670198</v>
       </c>
       <c r="CJ13" s="15">
-        <v>29227.766766899538</v>
+        <v>29226.975074492228</v>
+      </c>
+      <c r="CK13" s="15">
+        <v>29640.147169860622</v>
       </c>
     </row>
-    <row r="14" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24977,10 +24995,13 @@
         <v>16392.552213888055</v>
       </c>
       <c r="CJ14" s="15">
-        <v>34968.083430448976</v>
+        <v>34974.083170734317</v>
+      </c>
+      <c r="CK14" s="15">
+        <v>19317.267934230411</v>
       </c>
     </row>
-    <row r="15" spans="1:88" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25243,10 +25264,13 @@
         <v>6517.3602496753383</v>
       </c>
       <c r="CJ15" s="15">
-        <v>934.31989936532011</v>
+        <v>934.28599457319672</v>
+      </c>
+      <c r="CK15" s="15">
+        <v>8867.8884921330227</v>
       </c>
     </row>
-    <row r="16" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25509,10 +25533,13 @@
         <v>45245.211086545234</v>
       </c>
       <c r="CJ16" s="15">
-        <v>43005.376254109178</v>
+        <v>43004.279929510398</v>
+      </c>
+      <c r="CK16" s="15">
+        <v>44807.584823737525</v>
       </c>
     </row>
-    <row r="17" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25775,10 +25802,13 @@
         <v>20364.262240872231</v>
       </c>
       <c r="CJ17" s="15">
-        <v>2300.1215770164004</v>
+        <v>2299.956146759454</v>
+      </c>
+      <c r="CK17" s="15">
+        <v>7745.6608910402374</v>
       </c>
     </row>
-    <row r="18" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26041,10 +26071,13 @@
         <v>4309.1342151521294</v>
       </c>
       <c r="CJ18" s="15">
-        <v>7316.2909807788128</v>
+        <v>7316.1973721516033</v>
+      </c>
+      <c r="CK18" s="15">
+        <v>7918.7460450714752</v>
       </c>
     </row>
-    <row r="19" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26307,10 +26340,13 @@
         <v>610.19089953919911</v>
       </c>
       <c r="CJ19" s="15">
-        <v>502.09999412546193</v>
+        <v>502.09261258767299</v>
+      </c>
+      <c r="CK19" s="15">
+        <v>2855.5286341607348</v>
       </c>
     </row>
-    <row r="20" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26573,10 +26609,13 @@
         <v>5269.888186826277</v>
       </c>
       <c r="CJ20" s="15">
-        <v>6693.310592033632</v>
+        <v>6693.2188622139965</v>
+      </c>
+      <c r="CK20" s="15">
+        <v>7838.0640567066457</v>
       </c>
     </row>
-    <row r="21" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26839,10 +26878,13 @@
         <v>3267.3512438581038</v>
       </c>
       <c r="CJ21" s="15">
-        <v>2445.0287487100477</v>
+        <v>2444.9464085549143</v>
+      </c>
+      <c r="CK21" s="15">
+        <v>4061.6526261719491</v>
       </c>
     </row>
-    <row r="22" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27105,10 +27147,13 @@
         <v>292.44175209414277</v>
       </c>
       <c r="CJ22" s="15">
-        <v>406.96274226817371</v>
+        <v>406.93827296960387</v>
+      </c>
+      <c r="CK22" s="15">
+        <v>465.36602685276711</v>
       </c>
     </row>
-    <row r="23" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27371,10 +27416,13 @@
         <v>270.41170867269625</v>
       </c>
       <c r="CJ23" s="15">
-        <v>372.40761707673619</v>
+        <v>376.22851676354526</v>
+      </c>
+      <c r="CK23" s="15">
+        <v>533.00556533764257</v>
       </c>
     </row>
-    <row r="24" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27637,10 +27685,13 @@
         <v>234.4989103713101</v>
       </c>
       <c r="CJ24" s="15">
-        <v>295.82366644027411</v>
+        <v>295.71966821633805</v>
+      </c>
+      <c r="CK24" s="15">
+        <v>607.88115852754481</v>
       </c>
     </row>
-    <row r="25" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -27903,10 +27954,13 @@
         <v>17018.407560629828</v>
       </c>
       <c r="CJ25" s="15">
-        <v>24363.814991695501</v>
+        <v>24362.929028497016</v>
+      </c>
+      <c r="CK25" s="15">
+        <v>28875.027625612682</v>
       </c>
     </row>
-    <row r="26" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28169,10 +28223,13 @@
         <v>69325.771389409347</v>
       </c>
       <c r="CJ26" s="15">
-        <v>63388.823707558418</v>
+        <v>63358.530623814964</v>
+      </c>
+      <c r="CK26" s="15">
+        <v>73603.91143682113</v>
       </c>
     </row>
-    <row r="27" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28435,10 +28492,13 @@
         <v>40595.597884641829</v>
       </c>
       <c r="CJ27" s="15">
-        <v>39416.720709997651</v>
+        <v>39417.12381132778</v>
+      </c>
+      <c r="CK27" s="15">
+        <v>56775.898051368698</v>
       </c>
     </row>
-    <row r="28" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28701,10 +28761,13 @@
         <v>13995.138985545927</v>
       </c>
       <c r="CJ28" s="15">
-        <v>13913.578017021544</v>
+        <v>13909.92401423031</v>
+      </c>
+      <c r="CK28" s="15">
+        <v>19762.915170581648</v>
       </c>
     </row>
-    <row r="29" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -28967,10 +29030,13 @@
         <v>482.01124083861373</v>
       </c>
       <c r="CJ29" s="15">
-        <v>82.081422998169728</v>
+        <v>343.11325616295926</v>
+      </c>
+      <c r="CK29" s="15">
+        <v>81.691786313419982</v>
       </c>
     </row>
-    <row r="30" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29233,10 +29299,13 @@
         <v>55670.05504622357</v>
       </c>
       <c r="CJ30" s="15">
-        <v>64709.272948412327</v>
+        <v>65066.290853652783</v>
+      </c>
+      <c r="CK30" s="15">
+        <v>68651.094205828296</v>
       </c>
     </row>
-    <row r="31" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29501,9 +29570,12 @@
       <c r="CJ31" s="15">
         <v>40491.459868062804</v>
       </c>
+      <c r="CK31" s="15">
+        <v>69846.969715434039</v>
+      </c>
     </row>
-    <row r="32" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -29766,10 +29838,13 @@
         <v>453927.94203751889</v>
       </c>
       <c r="CJ33" s="17">
-        <v>432887.5994120923</v>
+        <v>433478.54896234925</v>
+      </c>
+      <c r="CK33" s="17">
+        <v>579361.88978735299</v>
       </c>
     </row>
-    <row r="34" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -29858,8 +29933,9 @@
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
       <c r="CJ34" s="18"/>
+      <c r="CK34" s="18"/>
     </row>
-    <row r="35" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -29870,10 +29946,11 @@
       <c r="CH35" s="13"/>
       <c r="CI35" s="13"/>
       <c r="CJ35" s="13"/>
+      <c r="CK35" s="13"/>
     </row>
-    <row r="36" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -29884,8 +29961,9 @@
       <c r="CH38" s="13"/>
       <c r="CI38" s="13"/>
       <c r="CJ38" s="13"/>
+      <c r="CK38" s="13"/>
     </row>
-    <row r="39" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -29896,8 +29974,9 @@
       <c r="CH39" s="13"/>
       <c r="CI39" s="13"/>
       <c r="CJ39" s="13"/>
+      <c r="CK39" s="13"/>
     </row>
-    <row r="40" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -29908,8 +29987,9 @@
       <c r="CH40" s="13"/>
       <c r="CI40" s="13"/>
       <c r="CJ40" s="13"/>
+      <c r="CK40" s="13"/>
     </row>
-    <row r="41" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD41" s="13"/>
       <c r="CE41" s="13"/>
       <c r="CF41" s="13"/>
@@ -29917,8 +29997,9 @@
       <c r="CH41" s="13"/>
       <c r="CI41" s="13"/>
       <c r="CJ41" s="13"/>
+      <c r="CK41" s="13"/>
     </row>
-    <row r="42" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -29929,8 +30010,9 @@
       <c r="CH42" s="13"/>
       <c r="CI42" s="13"/>
       <c r="CJ42" s="13"/>
+      <c r="CK42" s="13"/>
     </row>
-    <row r="43" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -29941,8 +30023,9 @@
       <c r="CH43" s="13"/>
       <c r="CI43" s="13"/>
       <c r="CJ43" s="13"/>
+      <c r="CK43" s="13"/>
     </row>
-    <row r="44" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -29953,8 +30036,9 @@
       <c r="CH44" s="13"/>
       <c r="CI44" s="13"/>
       <c r="CJ44" s="13"/>
+      <c r="CK44" s="13"/>
     </row>
-    <row r="45" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD45" s="13"/>
       <c r="CE45" s="13"/>
       <c r="CF45" s="13"/>
@@ -29962,8 +30046,9 @@
       <c r="CH45" s="13"/>
       <c r="CI45" s="13"/>
       <c r="CJ45" s="13"/>
+      <c r="CK45" s="13"/>
     </row>
-    <row r="46" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="22">
         <v>2000</v>
@@ -30085,19 +30170,20 @@
       <c r="CA46" s="22"/>
       <c r="CB46" s="22"/>
       <c r="CC46" s="22"/>
-      <c r="CD46" s="23">
+      <c r="CD46" s="21">
         <v>2020</v>
       </c>
-      <c r="CE46" s="23"/>
-      <c r="CF46" s="23"/>
-      <c r="CG46" s="23"/>
-      <c r="CH46" s="23">
+      <c r="CE46" s="21"/>
+      <c r="CF46" s="21"/>
+      <c r="CG46" s="21"/>
+      <c r="CH46" s="21">
         <v>2021</v>
       </c>
-      <c r="CI46" s="23"/>
-      <c r="CJ46" s="23"/>
+      <c r="CI46" s="21"/>
+      <c r="CJ46" s="21"/>
+      <c r="CK46" s="21"/>
     </row>
-    <row r="47" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30362,8 +30448,11 @@
       <c r="CJ47" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="CK47" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="CD48" s="13"/>
       <c r="CE48" s="13"/>
@@ -30372,8 +30461,9 @@
       <c r="CH48" s="13"/>
       <c r="CI48" s="13"/>
       <c r="CJ48" s="13"/>
+      <c r="CK48" s="13"/>
     </row>
-    <row r="49" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30638,8 +30728,11 @@
       <c r="CJ49" s="15">
         <v>70995.936025398871</v>
       </c>
+      <c r="CK49" s="15">
+        <v>136985.14319459267</v>
+      </c>
     </row>
-    <row r="50" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -30904,8 +30997,11 @@
       <c r="CJ50" s="15">
         <v>29350.745706644084</v>
       </c>
+      <c r="CK50" s="15">
+        <v>26012.277561576338</v>
+      </c>
     </row>
-    <row r="51" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31168,10 +31264,13 @@
         <v>13260.560142862385</v>
       </c>
       <c r="CJ51" s="15">
-        <v>21718.902310848389</v>
+        <v>21722.896675543539</v>
+      </c>
+      <c r="CK51" s="15">
+        <v>22234.290255085176</v>
       </c>
     </row>
-    <row r="52" spans="1:88" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:89" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31436,8 +31535,11 @@
       <c r="CJ52" s="15">
         <v>558.566248323938</v>
       </c>
+      <c r="CK52" s="15">
+        <v>6472.9553974543342</v>
+      </c>
     </row>
-    <row r="53" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -31702,8 +31804,11 @@
       <c r="CJ53" s="15">
         <v>35163.955619007582</v>
       </c>
+      <c r="CK53" s="15">
+        <v>34548.688102399865</v>
+      </c>
     </row>
-    <row r="54" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -31968,8 +32073,11 @@
       <c r="CJ54" s="15">
         <v>2373.0966703033646</v>
       </c>
+      <c r="CK54" s="15">
+        <v>7637.3274546257135</v>
+      </c>
     </row>
-    <row r="55" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32234,8 +32342,11 @@
       <c r="CJ55" s="15">
         <v>6293.4088443055043</v>
       </c>
+      <c r="CK55" s="15">
+        <v>8874.9569145223122</v>
+      </c>
     </row>
-    <row r="56" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32500,8 +32611,11 @@
       <c r="CJ56" s="15">
         <v>583.08869814592151</v>
       </c>
+      <c r="CK56" s="15">
+        <v>2438.5153358828811</v>
+      </c>
     </row>
-    <row r="57" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -32766,8 +32880,11 @@
       <c r="CJ57" s="15">
         <v>4683.810567129316</v>
       </c>
+      <c r="CK57" s="15">
+        <v>5968.125420696897</v>
+      </c>
     </row>
-    <row r="58" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33032,8 +33149,11 @@
       <c r="CJ58" s="15">
         <v>2246.8108958920379</v>
       </c>
+      <c r="CK58" s="15">
+        <v>3634.9122253062824</v>
+      </c>
     </row>
-    <row r="59" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33298,8 +33418,11 @@
       <c r="CJ59" s="15">
         <v>341.6765408253255</v>
       </c>
+      <c r="CK59" s="15">
+        <v>560.17425677377958</v>
+      </c>
     </row>
-    <row r="60" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -33562,10 +33685,13 @@
         <v>461.47767573157728</v>
       </c>
       <c r="CJ60" s="15">
-        <v>282.63685791006532</v>
+        <v>285.59266750492992</v>
+      </c>
+      <c r="CK60" s="15">
+        <v>473.13348352195987</v>
       </c>
     </row>
-    <row r="61" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -33830,8 +33956,11 @@
       <c r="CJ61" s="15">
         <v>195.27127650881226</v>
       </c>
+      <c r="CK61" s="15">
+        <v>466.88687086762434</v>
+      </c>
     </row>
-    <row r="62" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34094,10 +34223,13 @@
         <v>24985.758799899857</v>
       </c>
       <c r="CJ62" s="15">
-        <v>17732.948911724201</v>
+        <v>17732.698781956853</v>
+      </c>
+      <c r="CK62" s="15">
+        <v>25763.089609334354</v>
       </c>
     </row>
-    <row r="63" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34360,10 +34492,13 @@
         <v>43728.038640863</v>
       </c>
       <c r="CJ63" s="15">
-        <v>43169.037625291036</v>
+        <v>43122.065416969825</v>
+      </c>
+      <c r="CK63" s="15">
+        <v>46984.624359979323</v>
       </c>
     </row>
-    <row r="64" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -34626,10 +34761,13 @@
         <v>37648.563387642062</v>
       </c>
       <c r="CJ64" s="15">
-        <v>40469.345705372965</v>
+        <v>40469.753030214444</v>
+      </c>
+      <c r="CK64" s="15">
+        <v>52968.117586456035</v>
       </c>
     </row>
-    <row r="65" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -34892,10 +35030,13 @@
         <v>16100.063691340209</v>
       </c>
       <c r="CJ65" s="15">
-        <v>16465.507971134062</v>
+        <v>16449.401202672907</v>
+      </c>
+      <c r="CK65" s="15">
+        <v>19188.205081070511</v>
       </c>
     </row>
-    <row r="66" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35158,10 +35299,13 @@
         <v>1014.6414762940587</v>
       </c>
       <c r="CJ66" s="15">
-        <v>1182.2392870960578</v>
+        <v>1077.2350615948569</v>
+      </c>
+      <c r="CK66" s="15">
+        <v>284.94343707778586</v>
       </c>
     </row>
-    <row r="67" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -35424,10 +35568,13 @@
         <v>49976.576973203351</v>
       </c>
       <c r="CJ67" s="15">
-        <v>53977.052074361622</v>
+        <v>54213.519008742252</v>
+      </c>
+      <c r="CK67" s="15">
+        <v>71666.675829673113</v>
       </c>
     </row>
-    <row r="68" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -35690,11 +35837,14 @@
         <v>49208.61415996404</v>
       </c>
       <c r="CJ68" s="15">
-        <v>50428.665312193189</v>
+        <v>50427.537157837345</v>
+      </c>
+      <c r="CK68" s="15">
+        <v>53842.114921497341</v>
       </c>
     </row>
-    <row r="69" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -35957,10 +36107,13 @@
         <v>416272.20131800859</v>
       </c>
       <c r="CJ70" s="17">
-        <v>398212.70314841636</v>
+        <v>398287.06609552173</v>
+      </c>
+      <c r="CK70" s="17">
+        <v>527005.15729839436</v>
       </c>
     </row>
-    <row r="71" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -36049,8 +36202,9 @@
       <c r="CH71" s="18"/>
       <c r="CI71" s="18"/>
       <c r="CJ71" s="18"/>
+      <c r="CK71" s="18"/>
     </row>
-    <row r="72" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -36061,10 +36215,11 @@
       <c r="CH72" s="13"/>
       <c r="CI72" s="13"/>
       <c r="CJ72" s="13"/>
+      <c r="CK72" s="13"/>
     </row>
-    <row r="73" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -36075,8 +36230,9 @@
       <c r="CH75" s="13"/>
       <c r="CI75" s="13"/>
       <c r="CJ75" s="13"/>
+      <c r="CK75" s="13"/>
     </row>
-    <row r="76" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -36087,8 +36243,9 @@
       <c r="CH76" s="13"/>
       <c r="CI76" s="13"/>
       <c r="CJ76" s="13"/>
+      <c r="CK76" s="13"/>
     </row>
-    <row r="77" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>65</v>
       </c>
@@ -36099,8 +36256,9 @@
       <c r="CH77" s="13"/>
       <c r="CI77" s="13"/>
       <c r="CJ77" s="13"/>
+      <c r="CK77" s="13"/>
     </row>
-    <row r="78" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD78" s="13"/>
       <c r="CE78" s="13"/>
       <c r="CF78" s="13"/>
@@ -36108,8 +36266,9 @@
       <c r="CH78" s="13"/>
       <c r="CI78" s="13"/>
       <c r="CJ78" s="13"/>
+      <c r="CK78" s="13"/>
     </row>
-    <row r="79" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
@@ -36120,8 +36279,9 @@
       <c r="CH79" s="13"/>
       <c r="CI79" s="13"/>
       <c r="CJ79" s="13"/>
+      <c r="CK79" s="13"/>
     </row>
-    <row r="80" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
@@ -36132,8 +36292,9 @@
       <c r="CH80" s="13"/>
       <c r="CI80" s="13"/>
       <c r="CJ80" s="13"/>
+      <c r="CK80" s="13"/>
     </row>
-    <row r="81" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
@@ -36144,8 +36305,9 @@
       <c r="CH81" s="13"/>
       <c r="CI81" s="13"/>
       <c r="CJ81" s="13"/>
+      <c r="CK81" s="13"/>
     </row>
-    <row r="82" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD82" s="13"/>
       <c r="CE82" s="13"/>
       <c r="CF82" s="13"/>
@@ -36153,8 +36315,9 @@
       <c r="CH82" s="13"/>
       <c r="CI82" s="13"/>
       <c r="CJ82" s="13"/>
+      <c r="CK82" s="13"/>
     </row>
-    <row r="83" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="s">
         <v>47</v>
@@ -36276,17 +36439,18 @@
       <c r="CA83" s="22"/>
       <c r="CB83" s="22"/>
       <c r="CC83" s="22"/>
-      <c r="CD83" s="23" t="s">
+      <c r="CD83" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="23"/>
-      <c r="CF83" s="23"/>
-      <c r="CG83" s="19"/>
+      <c r="CE83" s="21"/>
+      <c r="CF83" s="21"/>
+      <c r="CG83" s="21"/>
       <c r="CH83" s="19"/>
       <c r="CI83" s="19"/>
       <c r="CJ83" s="19"/>
+      <c r="CK83" s="19"/>
     </row>
-    <row r="84" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -36539,12 +36703,15 @@
       <c r="CF84" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="CG84" s="14"/>
+      <c r="CG84" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="CH84" s="14"/>
       <c r="CI84" s="14"/>
       <c r="CJ84" s="14"/>
+      <c r="CK84" s="14"/>
     </row>
-    <row r="85" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="CD85" s="13"/>
       <c r="CE85" s="13"/>
@@ -36553,8 +36720,9 @@
       <c r="CH85" s="13"/>
       <c r="CI85" s="13"/>
       <c r="CJ85" s="13"/>
+      <c r="CK85" s="13"/>
     </row>
-    <row r="86" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -36807,8 +36975,11 @@
       <c r="CF86" s="20">
         <v>4.8468705949902073</v>
       </c>
+      <c r="CG86" s="20">
+        <v>5.7188847578842399</v>
+      </c>
     </row>
-    <row r="87" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -37059,14 +37230,17 @@
         <v>15.056008034407782</v>
       </c>
       <c r="CF87" s="20">
-        <v>3.5120399888482581</v>
-      </c>
-      <c r="CG87" s="17"/>
+        <v>3.5092361586145557</v>
+      </c>
+      <c r="CG87" s="20">
+        <v>69.298906083725655</v>
+      </c>
       <c r="CH87" s="17"/>
       <c r="CI87" s="17"/>
       <c r="CJ87" s="17"/>
+      <c r="CK87" s="17"/>
     </row>
-    <row r="88" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -37317,14 +37491,17 @@
         <v>16.019285770775667</v>
       </c>
       <c r="CF88" s="20">
-        <v>15.344128897117116</v>
-      </c>
-      <c r="CG88" s="17"/>
+        <v>15.363919367424089</v>
+      </c>
+      <c r="CG88" s="20">
+        <v>5.4716942124433956</v>
+      </c>
       <c r="CH88" s="17"/>
       <c r="CI88" s="17"/>
       <c r="CJ88" s="17"/>
+      <c r="CK88" s="17"/>
     </row>
-    <row r="89" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:89" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -37575,14 +37752,17 @@
         <v>21.912276451616464</v>
       </c>
       <c r="CF89" s="20">
-        <v>166.04083696202883</v>
-      </c>
-      <c r="CG89" s="17"/>
+        <v>166.03118281757611</v>
+      </c>
+      <c r="CG89" s="20">
+        <v>19.775801620970725</v>
+      </c>
       <c r="CH89" s="17"/>
       <c r="CI89" s="17"/>
       <c r="CJ89" s="17"/>
+      <c r="CK89" s="17"/>
     </row>
-    <row r="90" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -37833,14 +38013,17 @@
         <v>-6.9388595956838088</v>
       </c>
       <c r="CF90" s="20">
-        <v>-14.642935983164691</v>
-      </c>
-      <c r="CG90" s="17"/>
+        <v>-14.645111968055701</v>
+      </c>
+      <c r="CG90" s="20">
+        <v>-3.9929013239234479</v>
+      </c>
       <c r="CH90" s="17"/>
       <c r="CI90" s="17"/>
       <c r="CJ90" s="17"/>
+      <c r="CK90" s="17"/>
     </row>
-    <row r="91" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -38091,14 +38274,17 @@
         <v>10.782630877892572</v>
       </c>
       <c r="CF91" s="20">
-        <v>-6.5497221869607216</v>
-      </c>
-      <c r="CG91" s="17"/>
+        <v>-6.5564433549306074</v>
+      </c>
+      <c r="CG91" s="20">
+        <v>-17.475854006144402</v>
+      </c>
       <c r="CH91" s="17"/>
       <c r="CI91" s="17"/>
       <c r="CJ91" s="17"/>
+      <c r="CK91" s="17"/>
     </row>
-    <row r="92" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -38349,14 +38535,17 @@
         <v>11.014061382015683</v>
       </c>
       <c r="CF92" s="20">
-        <v>16.325609668018927</v>
-      </c>
-      <c r="CG92" s="17"/>
+        <v>16.32412133456431</v>
+      </c>
+      <c r="CG92" s="20">
+        <v>-39.852452796459424</v>
+      </c>
       <c r="CH92" s="17"/>
       <c r="CI92" s="17"/>
       <c r="CJ92" s="17"/>
+      <c r="CK92" s="17"/>
     </row>
-    <row r="93" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -38607,14 +38796,17 @@
         <v>-0.95856112733476095</v>
       </c>
       <c r="CF93" s="20">
-        <v>4.6883472646370734</v>
-      </c>
-      <c r="CG93" s="17"/>
+        <v>4.6868082066796148</v>
+      </c>
+      <c r="CG93" s="20">
+        <v>2.8754558005049375</v>
+      </c>
       <c r="CH93" s="17"/>
       <c r="CI93" s="17"/>
       <c r="CJ93" s="17"/>
+      <c r="CK93" s="17"/>
     </row>
-    <row r="94" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -38865,14 +39057,17 @@
         <v>-11.442822432830042</v>
       </c>
       <c r="CF94" s="20">
-        <v>-5.5705863575041548</v>
-      </c>
-      <c r="CG94" s="17"/>
+        <v>-5.5718804843734659</v>
+      </c>
+      <c r="CG94" s="20">
+        <v>-21.61658026825063</v>
+      </c>
       <c r="CH94" s="17"/>
       <c r="CI94" s="17"/>
       <c r="CJ94" s="17"/>
+      <c r="CK94" s="17"/>
     </row>
-    <row r="95" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -39123,14 +39318,17 @@
         <v>69.273558202415131</v>
       </c>
       <c r="CF95" s="20">
-        <v>34.887387480111784</v>
-      </c>
-      <c r="CG95" s="17"/>
+        <v>34.882844937036765</v>
+      </c>
+      <c r="CG95" s="20">
+        <v>4.7432661191513859</v>
+      </c>
       <c r="CH95" s="17"/>
       <c r="CI95" s="17"/>
       <c r="CJ95" s="17"/>
+      <c r="CK95" s="17"/>
     </row>
-    <row r="96" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -39381,14 +39579,17 @@
         <v>-2.3482848056489019</v>
       </c>
       <c r="CF96" s="20">
-        <v>-6.472566865147968</v>
-      </c>
-      <c r="CG96" s="17"/>
+        <v>-6.4781903545934512</v>
+      </c>
+      <c r="CG96" s="20">
+        <v>-7.0018679666981996</v>
+      </c>
       <c r="CH96" s="17"/>
       <c r="CI96" s="17"/>
       <c r="CJ96" s="17"/>
+      <c r="CK96" s="17"/>
     </row>
-    <row r="97" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -39639,14 +39840,17 @@
         <v>-8.4949397958142328</v>
       </c>
       <c r="CF97" s="20">
-        <v>-27.552588029294967</v>
-      </c>
-      <c r="CG97" s="17"/>
+        <v>-26.809278061894503</v>
+      </c>
+      <c r="CG97" s="20">
+        <v>-9.8509519889736623</v>
+      </c>
       <c r="CH97" s="17"/>
       <c r="CI97" s="17"/>
       <c r="CJ97" s="17"/>
+      <c r="CK97" s="17"/>
     </row>
-    <row r="98" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -39897,14 +40101,17 @@
         <v>-8.8211455271811587</v>
       </c>
       <c r="CF98" s="20">
-        <v>-33.730738448606772</v>
-      </c>
-      <c r="CG98" s="17"/>
+        <v>-33.754035724263687</v>
+      </c>
+      <c r="CG98" s="20">
+        <v>-34.879617280251992</v>
+      </c>
       <c r="CH98" s="17"/>
       <c r="CI98" s="17"/>
       <c r="CJ98" s="17"/>
+      <c r="CK98" s="17"/>
     </row>
-    <row r="99" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -40155,14 +40362,17 @@
         <v>1.2583943635415977</v>
       </c>
       <c r="CF99" s="20">
-        <v>9.881723144718535</v>
-      </c>
-      <c r="CG99" s="17"/>
+        <v>9.8777274173283018</v>
+      </c>
+      <c r="CG99" s="20">
+        <v>-16.93934780256231</v>
+      </c>
       <c r="CH99" s="17"/>
       <c r="CI99" s="17"/>
       <c r="CJ99" s="17"/>
+      <c r="CK99" s="17"/>
     </row>
-    <row r="100" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -40413,14 +40623,17 @@
         <v>17.597315302398073</v>
       </c>
       <c r="CF100" s="20">
-        <v>12.730978236704459</v>
-      </c>
-      <c r="CG100" s="17"/>
+        <v>12.677104876000357</v>
+      </c>
+      <c r="CG100" s="20">
+        <v>6.6154909090161169</v>
+      </c>
       <c r="CH100" s="17"/>
       <c r="CI100" s="17"/>
       <c r="CJ100" s="17"/>
+      <c r="CK100" s="17"/>
     </row>
-    <row r="101" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -40671,14 +40884,17 @@
         <v>13.990966133119898</v>
       </c>
       <c r="CF101" s="20">
-        <v>2.7174605274726389</v>
-      </c>
-      <c r="CG101" s="17"/>
+        <v>2.7185109838327719</v>
+      </c>
+      <c r="CG101" s="20">
+        <v>2.439339876736895</v>
+      </c>
       <c r="CH101" s="17"/>
       <c r="CI101" s="17"/>
       <c r="CJ101" s="17"/>
+      <c r="CK101" s="17"/>
     </row>
-    <row r="102" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -40929,14 +41145,17 @@
         <v>15.870636808572087</v>
       </c>
       <c r="CF102" s="20">
-        <v>8.3583375366332149</v>
-      </c>
-      <c r="CG102" s="17"/>
+        <v>8.3298803225846143</v>
+      </c>
+      <c r="CG102" s="20">
+        <v>19.37258053929034</v>
+      </c>
       <c r="CH102" s="17"/>
       <c r="CI102" s="17"/>
       <c r="CJ102" s="17"/>
+      <c r="CK102" s="17"/>
     </row>
-    <row r="103" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -41187,14 +41406,17 @@
         <v>14.133822792023395</v>
       </c>
       <c r="CF103" s="20">
-        <v>-89.217957266009336</v>
-      </c>
-      <c r="CG103" s="17"/>
+        <v>-54.929365800222527</v>
+      </c>
+      <c r="CG103" s="20">
+        <v>-55.949315859181574</v>
+      </c>
       <c r="CH103" s="17"/>
       <c r="CI103" s="17"/>
       <c r="CJ103" s="17"/>
+      <c r="CK103" s="17"/>
     </row>
-    <row r="104" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -41445,10 +41667,13 @@
         <v>9.6690879045381166</v>
       </c>
       <c r="CF104" s="20">
-        <v>10.734397139810369</v>
+        <v>11.345347637375653</v>
+      </c>
+      <c r="CG104" s="20">
+        <v>14.514846368757532</v>
       </c>
     </row>
-    <row r="105" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -41701,9 +41926,12 @@
       <c r="CF105" s="20">
         <v>8.661584730906597</v>
       </c>
+      <c r="CG105" s="20">
+        <v>11.101645370227558</v>
+      </c>
     </row>
-    <row r="106" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -41954,10 +42182,13 @@
         <v>7.0559783134587661</v>
       </c>
       <c r="CF107" s="20">
-        <v>5.5147554894543021</v>
+        <v>5.6587972623917722</v>
+      </c>
+      <c r="CG107" s="20">
+        <v>5.311763741282391</v>
       </c>
     </row>
-    <row r="108" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -42046,8 +42277,9 @@
       <c r="CH108" s="18"/>
       <c r="CI108" s="18"/>
       <c r="CJ108" s="18"/>
+      <c r="CK108" s="18"/>
     </row>
-    <row r="109" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -42058,10 +42290,11 @@
       <c r="CH109" s="13"/>
       <c r="CI109" s="13"/>
       <c r="CJ109" s="13"/>
+      <c r="CK109" s="13"/>
     </row>
-    <row r="110" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -42072,8 +42305,9 @@
       <c r="CH112" s="13"/>
       <c r="CI112" s="13"/>
       <c r="CJ112" s="13"/>
+      <c r="CK112" s="13"/>
     </row>
-    <row r="113" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -42084,8 +42318,9 @@
       <c r="CH113" s="13"/>
       <c r="CI113" s="13"/>
       <c r="CJ113" s="13"/>
+      <c r="CK113" s="13"/>
     </row>
-    <row r="114" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>65</v>
       </c>
@@ -42096,8 +42331,9 @@
       <c r="CH114" s="13"/>
       <c r="CI114" s="13"/>
       <c r="CJ114" s="13"/>
+      <c r="CK114" s="13"/>
     </row>
-    <row r="115" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD115" s="13"/>
       <c r="CE115" s="13"/>
       <c r="CF115" s="13"/>
@@ -42105,8 +42341,9 @@
       <c r="CH115" s="13"/>
       <c r="CI115" s="13"/>
       <c r="CJ115" s="13"/>
+      <c r="CK115" s="13"/>
     </row>
-    <row r="116" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
@@ -42117,8 +42354,9 @@
       <c r="CH116" s="13"/>
       <c r="CI116" s="13"/>
       <c r="CJ116" s="13"/>
+      <c r="CK116" s="13"/>
     </row>
-    <row r="117" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>67</v>
       </c>
@@ -42129,8 +42367,9 @@
       <c r="CH117" s="13"/>
       <c r="CI117" s="13"/>
       <c r="CJ117" s="13"/>
+      <c r="CK117" s="13"/>
     </row>
-    <row r="118" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
@@ -42141,8 +42380,9 @@
       <c r="CH118" s="13"/>
       <c r="CI118" s="13"/>
       <c r="CJ118" s="13"/>
+      <c r="CK118" s="13"/>
     </row>
-    <row r="119" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD119" s="13"/>
       <c r="CE119" s="13"/>
       <c r="CF119" s="13"/>
@@ -42150,8 +42390,9 @@
       <c r="CH119" s="13"/>
       <c r="CI119" s="13"/>
       <c r="CJ119" s="13"/>
+      <c r="CK119" s="13"/>
     </row>
-    <row r="120" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="s">
         <v>47</v>
@@ -42273,17 +42514,18 @@
       <c r="CA120" s="22"/>
       <c r="CB120" s="22"/>
       <c r="CC120" s="22"/>
-      <c r="CD120" s="23" t="s">
+      <c r="CD120" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="23"/>
-      <c r="CF120" s="23"/>
-      <c r="CG120" s="19"/>
+      <c r="CE120" s="21"/>
+      <c r="CF120" s="21"/>
+      <c r="CG120" s="21"/>
       <c r="CH120" s="19"/>
       <c r="CI120" s="19"/>
       <c r="CJ120" s="19"/>
+      <c r="CK120" s="19"/>
     </row>
-    <row r="121" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -42536,12 +42778,15 @@
       <c r="CF121" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="CG121" s="14"/>
+      <c r="CG121" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="CH121" s="14"/>
       <c r="CI121" s="14"/>
       <c r="CJ121" s="14"/>
+      <c r="CK121" s="14"/>
     </row>
-    <row r="122" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="CD122" s="13"/>
       <c r="CE122" s="13"/>
@@ -42550,8 +42795,9 @@
       <c r="CH122" s="13"/>
       <c r="CI122" s="13"/>
       <c r="CJ122" s="13"/>
+      <c r="CK122" s="13"/>
     </row>
-    <row r="123" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -42804,8 +43050,11 @@
       <c r="CF123" s="20">
         <v>5.6111208337637208</v>
       </c>
+      <c r="CG123" s="20">
+        <v>0.21298295709424053</v>
+      </c>
     </row>
-    <row r="124" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -43058,12 +43307,15 @@
       <c r="CF124" s="20">
         <v>-18.197302881927286</v>
       </c>
-      <c r="CG124" s="17"/>
+      <c r="CG124" s="20">
+        <v>28.670314223108221</v>
+      </c>
       <c r="CH124" s="17"/>
       <c r="CI124" s="17"/>
       <c r="CJ124" s="17"/>
+      <c r="CK124" s="17"/>
     </row>
-    <row r="125" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -43314,14 +43566,17 @@
         <v>0.50279234518424687</v>
       </c>
       <c r="CF125" s="20">
-        <v>1.8071509715310299</v>
-      </c>
-      <c r="CG125" s="17"/>
+        <v>1.8258745185931247</v>
+      </c>
+      <c r="CG125" s="20">
+        <v>3.0428510300950791</v>
+      </c>
       <c r="CH125" s="17"/>
       <c r="CI125" s="17"/>
       <c r="CJ125" s="17"/>
+      <c r="CK125" s="17"/>
     </row>
-    <row r="126" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:89" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -43574,12 +43829,15 @@
       <c r="CF126" s="20">
         <v>100.87565670803866</v>
       </c>
-      <c r="CG126" s="17"/>
+      <c r="CG126" s="20">
+        <v>1.3679983988767077</v>
+      </c>
       <c r="CH126" s="17"/>
       <c r="CI126" s="17"/>
       <c r="CJ126" s="17"/>
+      <c r="CK126" s="17"/>
     </row>
-    <row r="127" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -43832,12 +44090,15 @@
       <c r="CF127" s="20">
         <v>0.32106617661197845</v>
       </c>
-      <c r="CG127" s="17"/>
+      <c r="CG127" s="20">
+        <v>0.21022173764524155</v>
+      </c>
       <c r="CH127" s="17"/>
       <c r="CI127" s="17"/>
       <c r="CJ127" s="17"/>
+      <c r="CK127" s="17"/>
     </row>
-    <row r="128" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -44090,12 +44351,15 @@
       <c r="CF128" s="20">
         <v>0.79479752734586384</v>
       </c>
-      <c r="CG128" s="17"/>
+      <c r="CG128" s="20">
+        <v>-0.7989425415989615</v>
+      </c>
       <c r="CH128" s="17"/>
       <c r="CI128" s="17"/>
       <c r="CJ128" s="17"/>
+      <c r="CK128" s="17"/>
     </row>
-    <row r="129" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -44348,12 +44612,15 @@
       <c r="CF129" s="20">
         <v>12.265120212726075</v>
       </c>
-      <c r="CG129" s="17"/>
+      <c r="CG129" s="20">
+        <v>0.53812335347025453</v>
+      </c>
       <c r="CH129" s="17"/>
       <c r="CI129" s="17"/>
       <c r="CJ129" s="17"/>
+      <c r="CK129" s="17"/>
     </row>
-    <row r="130" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -44606,12 +44873,15 @@
       <c r="CF130" s="20">
         <v>-4.3561371437743617</v>
       </c>
-      <c r="CG130" s="17"/>
+      <c r="CG130" s="20">
+        <v>-5.8749885185201691</v>
+      </c>
       <c r="CH130" s="17"/>
       <c r="CI130" s="17"/>
       <c r="CJ130" s="17"/>
+      <c r="CK130" s="17"/>
     </row>
-    <row r="131" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -44861,15 +45131,18 @@
       <c r="CE131" s="20">
         <v>-4.0861566929389852</v>
       </c>
-      <c r="CF131" s="21">
+      <c r="CF131" s="20">
         <v>-1.1202796677295623E-2</v>
       </c>
-      <c r="CG131" s="17"/>
+      <c r="CG131" s="20">
+        <v>3.5212019594453636</v>
+      </c>
       <c r="CH131" s="17"/>
       <c r="CI131" s="17"/>
       <c r="CJ131" s="17"/>
+      <c r="CK131" s="17"/>
     </row>
-    <row r="132" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -45122,12 +45395,15 @@
       <c r="CF132" s="20">
         <v>0.85626547898318961</v>
       </c>
-      <c r="CG132" s="17"/>
+      <c r="CG132" s="20">
+        <v>-1.9857321799957646</v>
+      </c>
       <c r="CH132" s="17"/>
       <c r="CI132" s="17"/>
       <c r="CJ132" s="17"/>
+      <c r="CK132" s="17"/>
     </row>
-    <row r="133" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -45380,12 +45656,15 @@
       <c r="CF133" s="20">
         <v>-3.2356428471622678</v>
       </c>
-      <c r="CG133" s="17"/>
+      <c r="CG133" s="20">
+        <v>11.786899917984698</v>
+      </c>
       <c r="CH133" s="17"/>
       <c r="CI133" s="17"/>
       <c r="CJ133" s="17"/>
+      <c r="CK133" s="17"/>
     </row>
-    <row r="134" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -45636,14 +45915,17 @@
         <v>-0.46702180686914119</v>
       </c>
       <c r="CF134" s="20">
-        <v>-21.025089735664992</v>
-      </c>
-      <c r="CG134" s="17"/>
+        <v>-20.199171986511516</v>
+      </c>
+      <c r="CG134" s="20">
+        <v>-11.011770196601873</v>
+      </c>
       <c r="CH134" s="17"/>
       <c r="CI134" s="17"/>
       <c r="CJ134" s="17"/>
+      <c r="CK134" s="17"/>
     </row>
-    <row r="135" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -45896,12 +46178,15 @@
       <c r="CF135" s="20">
         <v>3.4562882243008204</v>
       </c>
-      <c r="CG135" s="17"/>
+      <c r="CG135" s="20">
+        <v>4.6890161413608951</v>
+      </c>
       <c r="CH135" s="17"/>
       <c r="CI135" s="17"/>
       <c r="CJ135" s="17"/>
+      <c r="CK135" s="17"/>
     </row>
-    <row r="136" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -46152,14 +46437,17 @@
         <v>4.7029811310425202</v>
       </c>
       <c r="CF136" s="20">
-        <v>-1.9512164192648953</v>
-      </c>
-      <c r="CG136" s="17"/>
+        <v>-1.9525994334238987</v>
+      </c>
+      <c r="CG136" s="20">
+        <v>-0.68177307650223895</v>
+      </c>
       <c r="CH136" s="17"/>
       <c r="CI136" s="17"/>
       <c r="CJ136" s="17"/>
+      <c r="CK136" s="17"/>
     </row>
-    <row r="137" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -46410,14 +46698,17 @@
         <v>-19.454492691187653</v>
       </c>
       <c r="CF137" s="20">
-        <v>-15.638661680707216</v>
-      </c>
-      <c r="CG137" s="17"/>
+        <v>-15.730455210880052</v>
+      </c>
+      <c r="CG137" s="20">
+        <v>-9.6861725950767976</v>
+      </c>
       <c r="CH137" s="17"/>
       <c r="CI137" s="17"/>
       <c r="CJ137" s="17"/>
+      <c r="CK137" s="17"/>
     </row>
-    <row r="138" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -46668,14 +46959,17 @@
         <v>2.6269651537298273</v>
       </c>
       <c r="CF138" s="20">
-        <v>1.5186344670939462</v>
-      </c>
-      <c r="CG138" s="17"/>
+        <v>1.5196562543497265</v>
+      </c>
+      <c r="CG138" s="20">
+        <v>2.7990288058764605</v>
+      </c>
       <c r="CH138" s="17"/>
       <c r="CI138" s="17"/>
       <c r="CJ138" s="17"/>
+      <c r="CK138" s="17"/>
     </row>
-    <row r="139" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -46926,14 +47220,17 @@
         <v>4.3495224878104892</v>
       </c>
       <c r="CF139" s="20">
-        <v>1.0542106832388498</v>
-      </c>
-      <c r="CG139" s="17"/>
+        <v>0.95535817432428871</v>
+      </c>
+      <c r="CG139" s="20">
+        <v>-3.9912655582066066</v>
+      </c>
       <c r="CH139" s="17"/>
       <c r="CI139" s="17"/>
       <c r="CJ139" s="17"/>
+      <c r="CK139" s="17"/>
     </row>
-    <row r="140" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -47184,14 +47481,17 @@
         <v>38.136556701812424</v>
       </c>
       <c r="CF140" s="20">
-        <v>0.80040794864213183</v>
-      </c>
-      <c r="CG140" s="17"/>
+        <v>-8.1524909123413778</v>
+      </c>
+      <c r="CG140" s="20">
+        <v>4.2160476571154959</v>
+      </c>
       <c r="CH140" s="17"/>
       <c r="CI140" s="17"/>
       <c r="CJ140" s="17"/>
+      <c r="CK140" s="17"/>
     </row>
-    <row r="141" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -47442,10 +47742,13 @@
         <v>-0.96712477552962639</v>
       </c>
       <c r="CF141" s="20">
-        <v>-0.6033744808375161</v>
+        <v>-0.16792989057134378</v>
+      </c>
+      <c r="CG141" s="20">
+        <v>1.4432696860504848</v>
       </c>
     </row>
-    <row r="142" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -47696,11 +47999,14 @@
         <v>5.5200859501473758</v>
       </c>
       <c r="CF142" s="20">
-        <v>5.1762274078243706</v>
+        <v>5.1738744798151401</v>
+      </c>
+      <c r="CG142" s="20">
+        <v>8.0605775393111117</v>
       </c>
     </row>
-    <row r="143" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -47947,14 +48253,17 @@
       <c r="CD144" s="20">
         <v>-1.3034417755662702</v>
       </c>
-      <c r="CE144" s="21">
+      <c r="CE144" s="20">
         <v>2.1693341252770892E-2</v>
       </c>
       <c r="CF144" s="20">
-        <v>-1.6729384729843986</v>
+        <v>-1.6545767029616201</v>
+      </c>
+      <c r="CG144" s="20">
+        <v>1.4171626471286345</v>
       </c>
     </row>
-    <row r="145" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -48043,8 +48352,9 @@
       <c r="CH145" s="18"/>
       <c r="CI145" s="18"/>
       <c r="CJ145" s="18"/>
+      <c r="CK145" s="18"/>
     </row>
-    <row r="146" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
@@ -48055,10 +48365,11 @@
       <c r="CH146" s="13"/>
       <c r="CI146" s="13"/>
       <c r="CJ146" s="13"/>
+      <c r="CK146" s="13"/>
     </row>
-    <row r="147" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -48069,8 +48380,9 @@
       <c r="CH149" s="13"/>
       <c r="CI149" s="13"/>
       <c r="CJ149" s="13"/>
+      <c r="CK149" s="13"/>
     </row>
-    <row r="150" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>65</v>
       </c>
@@ -48081,8 +48393,9 @@
       <c r="CH150" s="13"/>
       <c r="CI150" s="13"/>
       <c r="CJ150" s="13"/>
+      <c r="CK150" s="13"/>
     </row>
-    <row r="151" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD151" s="13"/>
       <c r="CE151" s="13"/>
       <c r="CF151" s="13"/>
@@ -48090,8 +48403,9 @@
       <c r="CH151" s="13"/>
       <c r="CI151" s="13"/>
       <c r="CJ151" s="13"/>
+      <c r="CK151" s="13"/>
     </row>
-    <row r="152" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
@@ -48102,8 +48416,9 @@
       <c r="CH152" s="13"/>
       <c r="CI152" s="13"/>
       <c r="CJ152" s="13"/>
+      <c r="CK152" s="13"/>
     </row>
-    <row r="153" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>66</v>
       </c>
@@ -48114,8 +48429,9 @@
       <c r="CH153" s="13"/>
       <c r="CI153" s="13"/>
       <c r="CJ153" s="13"/>
+      <c r="CK153" s="13"/>
     </row>
-    <row r="154" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -48126,8 +48442,9 @@
       <c r="CH154" s="13"/>
       <c r="CI154" s="13"/>
       <c r="CJ154" s="13"/>
+      <c r="CK154" s="13"/>
     </row>
-    <row r="155" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD155" s="13"/>
       <c r="CE155" s="13"/>
       <c r="CF155" s="13"/>
@@ -48135,8 +48452,9 @@
       <c r="CH155" s="13"/>
       <c r="CI155" s="13"/>
       <c r="CJ155" s="13"/>
+      <c r="CK155" s="13"/>
     </row>
-    <row r="156" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="22">
         <v>2000</v>
@@ -48258,21 +48576,20 @@
       <c r="CA156" s="22"/>
       <c r="CB156" s="22"/>
       <c r="CC156" s="22"/>
-      <c r="CD156" s="23">
+      <c r="CD156" s="21">
         <v>2020</v>
       </c>
-      <c r="CE156" s="23"/>
-      <c r="CF156" s="23"/>
-      <c r="CG156" s="23"/>
-      <c r="CH156" s="23">
+      <c r="CE156" s="21"/>
+      <c r="CF156" s="21"/>
+      <c r="CG156" s="21"/>
+      <c r="CH156" s="21">
         <v>2021</v>
       </c>
-      <c r="CI156" s="23">
-        <v>0</v>
-      </c>
-      <c r="CJ156" s="23"/>
+      <c r="CI156" s="21"/>
+      <c r="CJ156" s="21"/>
+      <c r="CK156" s="21"/>
     </row>
-    <row r="157" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -48537,8 +48854,11 @@
       <c r="CJ157" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="CK157" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="158" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="CD158" s="13"/>
       <c r="CE158" s="13"/>
@@ -48547,8 +48867,9 @@
       <c r="CH158" s="13"/>
       <c r="CI158" s="13"/>
       <c r="CJ158" s="13"/>
+      <c r="CK158" s="13"/>
     </row>
-    <row r="159" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -48813,8 +49134,11 @@
       <c r="CJ159" s="20">
         <v>81.771237520277822</v>
       </c>
+      <c r="CK159" s="20">
+        <v>92.787864002889805</v>
+      </c>
     </row>
-    <row r="160" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -49077,10 +49401,13 @@
         <v>95.373552923645761</v>
       </c>
       <c r="CJ160" s="20">
-        <v>99.581002333045646</v>
+        <v>99.578304982813975</v>
+      </c>
+      <c r="CK160" s="20">
+        <v>113.94675879379028</v>
       </c>
     </row>
-    <row r="161" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -49343,10 +49670,13 @@
         <v>123.61885197369655</v>
       </c>
       <c r="CJ161" s="20">
-        <v>161.00299605373124</v>
+        <v>161.00101056094175</v>
+      </c>
+      <c r="CK161" s="20">
+        <v>86.88052423806235</v>
       </c>
     </row>
-    <row r="162" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:89" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -49609,10 +49939,13 @@
         <v>56.573207248327208</v>
       </c>
       <c r="CJ162" s="20">
-        <v>167.2710984899083</v>
+        <v>167.26502852198146</v>
+      </c>
+      <c r="CK162" s="20">
+        <v>136.9990668500599</v>
       </c>
     </row>
-    <row r="163" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -49875,10 +50208,13 @@
         <v>133.57352323605986</v>
       </c>
       <c r="CJ163" s="20">
-        <v>122.29959769049128</v>
+        <v>122.29647993943205</v>
+      </c>
+      <c r="CK163" s="20">
+        <v>129.69402684967665</v>
       </c>
     </row>
-    <row r="164" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -50141,10 +50477,13 @@
         <v>108.15142196306678</v>
       </c>
       <c r="CJ164" s="20">
-        <v>96.924900102041121</v>
+        <v>96.917929030907928</v>
+      </c>
+      <c r="CK164" s="20">
+        <v>101.41847311193798</v>
       </c>
     </row>
-    <row r="165" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -50407,10 +50746,13 @@
         <v>65.814153513246936</v>
       </c>
       <c r="CJ165" s="20">
-        <v>116.25322876327743</v>
+        <v>116.2517413559037</v>
+      </c>
+      <c r="CK165" s="20">
+        <v>89.225740714457274</v>
       </c>
     </row>
-    <row r="166" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -50673,10 +51015,13 @@
         <v>107.00235281038113</v>
       </c>
       <c r="CJ166" s="20">
-        <v>86.110397221214598</v>
+        <v>86.1091312838345</v>
+      </c>
+      <c r="CK166" s="20">
+        <v>117.10111444211489</v>
       </c>
     </row>
-    <row r="167" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -50939,10 +51284,13 @@
         <v>97.581698576243298</v>
       </c>
       <c r="CJ167" s="20">
-        <v>142.90310199577368</v>
+        <v>142.90114355150442</v>
+      </c>
+      <c r="CK167" s="20">
+        <v>131.33209348323979</v>
       </c>
     </row>
-    <row r="168" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -51205,10 +51553,13 @@
         <v>98.980611508649218</v>
       </c>
       <c r="CJ168" s="20">
-        <v>108.8221867350039</v>
+        <v>108.81852197820199</v>
+      </c>
+      <c r="CK168" s="20">
+        <v>111.74004692313331</v>
       </c>
     </row>
-    <row r="169" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -51471,10 +51822,13 @@
         <v>59.756957055524339</v>
       </c>
       <c r="CJ169" s="20">
-        <v>119.10760431054128</v>
+        <v>119.10044277158671</v>
+      </c>
+      <c r="CK169" s="20">
+        <v>83.07522547233016</v>
       </c>
     </row>
-    <row r="170" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -51737,10 +52091,13 @@
         <v>58.596920911507688</v>
       </c>
       <c r="CJ170" s="20">
-        <v>131.76187275448547</v>
+        <v>131.73605612862968</v>
+      </c>
+      <c r="CK170" s="20">
+        <v>112.65437427298544</v>
       </c>
     </row>
-    <row r="171" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -52003,10 +52360,13 @@
         <v>64.086128229269946</v>
       </c>
       <c r="CJ171" s="20">
-        <v>151.49369212369749</v>
+        <v>151.44043379211112</v>
+      </c>
+      <c r="CK171" s="20">
+        <v>130.19881184448562</v>
       </c>
     </row>
-    <row r="172" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -52269,10 +52629,13 @@
         <v>68.112430352517606</v>
       </c>
       <c r="CJ172" s="20">
-        <v>137.39291255492921</v>
+        <v>137.38985434798266</v>
+      </c>
+      <c r="CK172" s="20">
+        <v>112.07905598073464</v>
       </c>
     </row>
-    <row r="173" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -52535,10 +52898,13 @@
         <v>158.5384882198347</v>
       </c>
       <c r="CJ173" s="20">
-        <v>146.83863063563271</v>
+        <v>146.92833010471128</v>
+      </c>
+      <c r="CK173" s="20">
+        <v>156.65531530675733</v>
       </c>
     </row>
-    <row r="174" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -52801,10 +53167,13 @@
         <v>107.82774754684827</v>
       </c>
       <c r="CJ174" s="20">
-        <v>97.398957218041801</v>
+        <v>97.398972961113003</v>
+      </c>
+      <c r="CK174" s="20">
+        <v>107.18881591118941</v>
       </c>
     </row>
-    <row r="175" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -53067,10 +53436,13 @@
         <v>86.925985224974838</v>
       </c>
       <c r="CJ175" s="20">
-        <v>84.501359092070842</v>
+        <v>84.561886738892653</v>
+      </c>
+      <c r="CK175" s="20">
+        <v>102.9951216754406</v>
       </c>
     </row>
-    <row r="176" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -53333,10 +53705,13 @@
         <v>47.505572372139007</v>
       </c>
       <c r="CJ176" s="20">
-        <v>6.9428772917694923</v>
+        <v>31.85128932351838</v>
+      </c>
+      <c r="CK176" s="20">
+        <v>28.669474598609263</v>
       </c>
     </row>
-    <row r="177" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -53599,10 +53974,13 @@
         <v>111.39229298571803</v>
       </c>
       <c r="CJ177" s="20">
-        <v>119.88293258265648</v>
+        <v>120.01857109323683</v>
+      </c>
+      <c r="CK177" s="20">
+        <v>95.79221222564891</v>
       </c>
     </row>
-    <row r="178" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -53865,11 +54243,14 @@
         <v>129.12957018757888</v>
       </c>
       <c r="CJ178" s="20">
-        <v>80.294530139532256</v>
+        <v>80.296326472032959</v>
+      </c>
+      <c r="CK178" s="20">
+        <v>129.72553143068774</v>
       </c>
     </row>
-    <row r="179" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -54132,10 +54513,13 @@
         <v>109.04594171801143</v>
       </c>
       <c r="CJ180" s="20">
-        <v>108.70763187349964</v>
+        <v>108.8357081769729</v>
+      </c>
+      <c r="CK180" s="20">
+        <v>109.93476662683091</v>
       </c>
     </row>
-    <row r="181" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -54224,8 +54608,9 @@
       <c r="CH181" s="18"/>
       <c r="CI181" s="18"/>
       <c r="CJ181" s="18"/>
+      <c r="CK181" s="18"/>
     </row>
-    <row r="182" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -54236,8 +54621,9 @@
       <c r="CH182" s="13"/>
       <c r="CI182" s="13"/>
       <c r="CJ182" s="13"/>
+      <c r="CK182" s="13"/>
     </row>
-    <row r="185" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -54248,8 +54634,9 @@
       <c r="CH185" s="13"/>
       <c r="CI185" s="13"/>
       <c r="CJ185" s="13"/>
+      <c r="CK185" s="13"/>
     </row>
-    <row r="186" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -54260,8 +54647,9 @@
       <c r="CH186" s="13"/>
       <c r="CI186" s="13"/>
       <c r="CJ186" s="13"/>
+      <c r="CK186" s="13"/>
     </row>
-    <row r="187" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>65</v>
       </c>
@@ -54272,8 +54660,9 @@
       <c r="CH187" s="13"/>
       <c r="CI187" s="13"/>
       <c r="CJ187" s="13"/>
+      <c r="CK187" s="13"/>
     </row>
-    <row r="188" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD188" s="13"/>
       <c r="CE188" s="13"/>
       <c r="CF188" s="13"/>
@@ -54281,8 +54670,9 @@
       <c r="CH188" s="13"/>
       <c r="CI188" s="13"/>
       <c r="CJ188" s="13"/>
+      <c r="CK188" s="13"/>
     </row>
-    <row r="189" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
@@ -54293,8 +54683,9 @@
       <c r="CH189" s="13"/>
       <c r="CI189" s="13"/>
       <c r="CJ189" s="13"/>
+      <c r="CK189" s="13"/>
     </row>
-    <row r="190" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>66</v>
       </c>
@@ -54305,8 +54696,9 @@
       <c r="CH190" s="13"/>
       <c r="CI190" s="13"/>
       <c r="CJ190" s="13"/>
+      <c r="CK190" s="13"/>
     </row>
-    <row r="191" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
@@ -54317,8 +54709,9 @@
       <c r="CH191" s="13"/>
       <c r="CI191" s="13"/>
       <c r="CJ191" s="13"/>
+      <c r="CK191" s="13"/>
     </row>
-    <row r="192" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD192" s="13"/>
       <c r="CE192" s="13"/>
       <c r="CF192" s="13"/>
@@ -54326,8 +54719,9 @@
       <c r="CH192" s="13"/>
       <c r="CI192" s="13"/>
       <c r="CJ192" s="13"/>
+      <c r="CK192" s="13"/>
     </row>
-    <row r="193" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="22">
         <v>2000</v>
@@ -54449,21 +54843,20 @@
       <c r="CA193" s="22"/>
       <c r="CB193" s="22"/>
       <c r="CC193" s="22"/>
-      <c r="CD193" s="23">
+      <c r="CD193" s="21">
         <v>2020</v>
       </c>
-      <c r="CE193" s="23"/>
-      <c r="CF193" s="23"/>
-      <c r="CG193" s="23"/>
-      <c r="CH193" s="23">
+      <c r="CE193" s="21"/>
+      <c r="CF193" s="21"/>
+      <c r="CG193" s="21"/>
+      <c r="CH193" s="21">
         <v>2021</v>
       </c>
-      <c r="CI193" s="23">
-        <v>0</v>
-      </c>
-      <c r="CJ193" s="23"/>
+      <c r="CI193" s="21"/>
+      <c r="CJ193" s="21"/>
+      <c r="CK193" s="21"/>
     </row>
-    <row r="194" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -54728,8 +55121,11 @@
       <c r="CJ194" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="CK194" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="195" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="CD195" s="13"/>
       <c r="CE195" s="13"/>
@@ -54738,8 +55134,9 @@
       <c r="CH195" s="13"/>
       <c r="CI195" s="13"/>
       <c r="CJ195" s="13"/>
+      <c r="CK195" s="13"/>
     </row>
-    <row r="196" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -55002,10 +55399,13 @@
         <v>16.134729333975571</v>
       </c>
       <c r="CJ196" s="20">
-        <v>13.410930587043216</v>
+        <v>13.392647829066123</v>
+      </c>
+      <c r="CK196" s="20">
+        <v>21.938893567579136</v>
       </c>
     </row>
-    <row r="197" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -55268,10 +55668,13 @@
         <v>3.8078159203166102</v>
       </c>
       <c r="CJ197" s="20">
-        <v>6.7518142831058174</v>
+        <v>6.7424270807529165</v>
+      </c>
+      <c r="CK197" s="20">
+        <v>5.1159987725011806</v>
       </c>
     </row>
-    <row r="198" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -55534,10 +55937,13 @@
         <v>3.6112674933179476</v>
       </c>
       <c r="CJ198" s="20">
-        <v>8.0778667436857461</v>
+        <v>8.0682384986418487</v>
+      </c>
+      <c r="CK198" s="20">
+        <v>3.334231725410961</v>
       </c>
     </row>
-    <row r="199" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:89" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -55800,10 +56206,13 @@
         <v>1.435769787693892</v>
       </c>
       <c r="CJ199" s="20">
-        <v>0.21583429523835437</v>
+        <v>0.21553223263519466</v>
+      </c>
+      <c r="CK199" s="20">
+        <v>1.5306302759036949</v>
       </c>
     </row>
-    <row r="200" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -56066,10 +56475,13 @@
         <v>9.9674875451499627</v>
       </c>
       <c r="CJ200" s="20">
-        <v>9.9345364275888439</v>
+        <v>9.9207400302628663</v>
+      </c>
+      <c r="CK200" s="20">
+        <v>7.7339544788117749</v>
       </c>
     </row>
-    <row r="201" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -56332,10 +56744,13 @@
         <v>4.4862323631068834</v>
       </c>
       <c r="CJ201" s="20">
-        <v>0.53134383616906833</v>
+        <v>0.5305813061026976</v>
+      </c>
+      <c r="CK201" s="20">
+        <v>1.3369296509791451</v>
       </c>
     </row>
-    <row r="202" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -56598,10 +57013,13 @@
         <v>0.94929917638689065</v>
       </c>
       <c r="CJ202" s="20">
-        <v>1.6901133205744676</v>
+        <v>1.6877876401646503</v>
+      </c>
+      <c r="CK202" s="20">
+        <v>1.3668047872423823</v>
       </c>
     </row>
-    <row r="203" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -56864,10 +57282,13 @@
         <v>0.13442461744044046</v>
       </c>
       <c r="CJ203" s="20">
-        <v>0.11598853716469761</v>
+        <v>0.11582871027633788</v>
+      </c>
+      <c r="CK203" s="20">
+        <v>0.49287477904506594</v>
       </c>
     </row>
-    <row r="204" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -57130,10 +57551,13 @@
         <v>1.1609525871378723</v>
       </c>
       <c r="CJ204" s="20">
-        <v>1.5462005844297375</v>
+        <v>1.5440715297760561</v>
+      </c>
+      <c r="CK204" s="20">
+        <v>1.3528787783372327</v>
       </c>
     </row>
-    <row r="205" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -57396,10 +57820,13 @@
         <v>0.71979513514681248</v>
       </c>
       <c r="CJ205" s="20">
-        <v>0.56481838519529282</v>
+        <v>0.56402938839939587</v>
+      </c>
+      <c r="CK205" s="20">
+        <v>0.70105623061653644</v>
       </c>
     </row>
-    <row r="206" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -57662,10 +58089,13 @@
         <v>6.4424708199604802E-2</v>
       </c>
       <c r="CJ206" s="20">
-        <v>9.4011180459055113E-2</v>
+        <v>9.3877372696693565E-2</v>
+      </c>
+      <c r="CK206" s="20">
+        <v>8.0323893417216907E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -57928,10 +58358,13 @@
         <v>5.9571505437386284E-2</v>
       </c>
       <c r="CJ207" s="20">
-        <v>8.6028709896634969E-2</v>
+        <v>8.6792879985446159E-2</v>
+      </c>
+      <c r="CK207" s="20">
+        <v>9.1998727346956674E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -58187,17 +58620,20 @@
       <c r="CG208" s="20">
         <v>0.16967923615284036</v>
       </c>
-      <c r="CH208" s="21">
+      <c r="CH208" s="20">
         <v>4.8157369520938034E-2</v>
       </c>
       <c r="CI208" s="20">
         <v>5.1659941734084273E-2</v>
       </c>
       <c r="CJ208" s="20">
-        <v>6.8337292831218616E-2</v>
+        <v>6.8220138902888014E-2</v>
+      </c>
+      <c r="CK208" s="20">
+        <v>0.1049225310195428</v>
       </c>
     </row>
-    <row r="209" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -58460,10 +58896,13 @@
         <v>3.7491429772400289</v>
       </c>
       <c r="CJ209" s="20">
-        <v>5.6282081133264548</v>
+        <v>5.6203309452835493</v>
+      </c>
+      <c r="CK209" s="20">
+        <v>4.9839363159028069</v>
       </c>
     </row>
-    <row r="210" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -58726,10 +59165,13 @@
         <v>15.272417705380937</v>
       </c>
       <c r="CJ210" s="20">
-        <v>14.643252380906087</v>
+        <v>14.616301262307241</v>
+      </c>
+      <c r="CK210" s="20">
+        <v>12.704306709548408</v>
       </c>
     </row>
-    <row r="211" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -58992,10 +59434,13 @@
         <v>8.9431810922286097</v>
       </c>
       <c r="CJ211" s="20">
-        <v>9.1055324207784594</v>
+        <v>9.0932120875839342</v>
+      </c>
+      <c r="CK211" s="20">
+        <v>9.7997295045084041</v>
       </c>
     </row>
-    <row r="212" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -59258,10 +59703,13 @@
         <v>3.0831190789284295</v>
       </c>
       <c r="CJ212" s="20">
-        <v>3.21413180602024</v>
+        <v>3.2089071183631948</v>
+      </c>
+      <c r="CK212" s="20">
+        <v>3.4111520828260486</v>
       </c>
     </row>
-    <row r="213" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -59514,7 +59962,7 @@
       <c r="CF213" s="20">
         <v>0.18555893870473666</v>
       </c>
-      <c r="CG213" s="21">
+      <c r="CG213" s="20">
         <v>3.3709529986202066E-2</v>
       </c>
       <c r="CH213" s="20">
@@ -59523,11 +59971,14 @@
       <c r="CI213" s="20">
         <v>0.10618673057997688</v>
       </c>
-      <c r="CJ213" s="21">
-        <v>1.8961370829204877E-2</v>
+      <c r="CJ213" s="20">
+        <v>7.9153456839858791E-2</v>
+      </c>
+      <c r="CK213" s="20">
+        <v>1.4100303757191185E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -59790,10 +60241,13 @@
         <v>12.264073191075385</v>
       </c>
       <c r="CJ214" s="20">
-        <v>14.948285198350437</v>
+        <v>15.010267753596329</v>
+      </c>
+      <c r="CK214" s="20">
+        <v>11.849432179777265</v>
       </c>
     </row>
-    <row r="215" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -60056,11 +60510,14 @@
         <v>13.998449109522671</v>
       </c>
       <c r="CJ215" s="20">
-        <v>9.3538045264069787</v>
+        <v>9.341052738362789</v>
+      </c>
+      <c r="CK215" s="20">
+        <v>12.055844705469051</v>
       </c>
     </row>
-    <row r="216" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -60325,8 +60782,11 @@
       <c r="CJ217" s="20">
         <v>100</v>
       </c>
+      <c r="CK217" s="20">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -60415,8 +60875,9 @@
       <c r="CH218" s="18"/>
       <c r="CI218" s="18"/>
       <c r="CJ218" s="18"/>
+      <c r="CK218" s="18"/>
     </row>
-    <row r="219" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
@@ -60427,10 +60888,11 @@
       <c r="CH219" s="13"/>
       <c r="CI219" s="13"/>
       <c r="CJ219" s="13"/>
+      <c r="CK219" s="13"/>
     </row>
-    <row r="220" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -60441,8 +60903,9 @@
       <c r="CH222" s="13"/>
       <c r="CI222" s="13"/>
       <c r="CJ222" s="13"/>
+      <c r="CK222" s="13"/>
     </row>
-    <row r="223" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -60453,8 +60916,9 @@
       <c r="CH223" s="13"/>
       <c r="CI223" s="13"/>
       <c r="CJ223" s="13"/>
+      <c r="CK223" s="13"/>
     </row>
-    <row r="224" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>65</v>
       </c>
@@ -60465,8 +60929,9 @@
       <c r="CH224" s="13"/>
       <c r="CI224" s="13"/>
       <c r="CJ224" s="13"/>
+      <c r="CK224" s="13"/>
     </row>
-    <row r="225" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD225" s="13"/>
       <c r="CE225" s="13"/>
       <c r="CF225" s="13"/>
@@ -60474,8 +60939,9 @@
       <c r="CH225" s="13"/>
       <c r="CI225" s="13"/>
       <c r="CJ225" s="13"/>
+      <c r="CK225" s="13"/>
     </row>
-    <row r="226" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
@@ -60486,8 +60952,9 @@
       <c r="CH226" s="13"/>
       <c r="CI226" s="13"/>
       <c r="CJ226" s="13"/>
+      <c r="CK226" s="13"/>
     </row>
-    <row r="227" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>66</v>
       </c>
@@ -60498,8 +60965,9 @@
       <c r="CH227" s="13"/>
       <c r="CI227" s="13"/>
       <c r="CJ227" s="13"/>
+      <c r="CK227" s="13"/>
     </row>
-    <row r="228" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
@@ -60510,8 +60978,9 @@
       <c r="CH228" s="13"/>
       <c r="CI228" s="13"/>
       <c r="CJ228" s="13"/>
+      <c r="CK228" s="13"/>
     </row>
-    <row r="229" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="CD229" s="13"/>
       <c r="CE229" s="13"/>
       <c r="CF229" s="13"/>
@@ -60519,8 +60988,9 @@
       <c r="CH229" s="13"/>
       <c r="CI229" s="13"/>
       <c r="CJ229" s="13"/>
+      <c r="CK229" s="13"/>
     </row>
-    <row r="230" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="22">
         <v>2000</v>
@@ -60642,21 +61112,20 @@
       <c r="CA230" s="22"/>
       <c r="CB230" s="22"/>
       <c r="CC230" s="22"/>
-      <c r="CD230" s="23">
+      <c r="CD230" s="21">
         <v>2020</v>
       </c>
-      <c r="CE230" s="23"/>
-      <c r="CF230" s="23"/>
-      <c r="CG230" s="23"/>
-      <c r="CH230" s="23">
+      <c r="CE230" s="21"/>
+      <c r="CF230" s="21"/>
+      <c r="CG230" s="21"/>
+      <c r="CH230" s="21">
         <v>2021</v>
       </c>
-      <c r="CI230" s="23">
-        <v>0</v>
-      </c>
-      <c r="CJ230" s="23"/>
+      <c r="CI230" s="21"/>
+      <c r="CJ230" s="21"/>
+      <c r="CK230" s="21"/>
     </row>
-    <row r="231" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -60921,8 +61390,11 @@
       <c r="CJ231" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="CK231" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="232" spans="1:88" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:89" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="CD232" s="13"/>
       <c r="CE232" s="13"/>
@@ -60931,8 +61403,9 @@
       <c r="CH232" s="13"/>
       <c r="CI232" s="13"/>
       <c r="CJ232" s="13"/>
+      <c r="CK232" s="13"/>
     </row>
-    <row r="233" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -61195,10 +61668,13 @@
         <v>19.42664434090085</v>
       </c>
       <c r="CJ233" s="20">
-        <v>17.828646716711656</v>
+        <v>17.825317985187048</v>
+      </c>
+      <c r="CK233" s="20">
+        <v>25.993131432873369</v>
       </c>
     </row>
-    <row r="234" spans="1:88" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:89" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -61461,10 +61937,13 @@
         <v>4.3536898877216395</v>
       </c>
       <c r="CJ234" s="20">
-        <v>7.3706201420964916</v>
+        <v>7.3692439963904972</v>
+      </c>
+      <c r="CK234" s="20">
+        <v>4.9358677427226745</v>
       </c>
     </row>
-    <row r="235" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -61727,10 +62206,13 @@
         <v>3.1855502483414835</v>
       </c>
       <c r="CJ235" s="20">
-        <v>5.45409579833359</v>
+        <v>5.4540803668311204</v>
+      </c>
+      <c r="CK235" s="20">
+        <v>4.2189891212954391</v>
       </c>
     </row>
-    <row r="236" spans="1:88" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:89" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -61993,10 +62475,13 @@
         <v>2.7674737955391286</v>
       </c>
       <c r="CJ236" s="20">
-        <v>0.14026831487486646</v>
+        <v>0.14024212581133033</v>
+      </c>
+      <c r="CK236" s="20">
+        <v>1.2282527614410608</v>
       </c>
     </row>
-    <row r="237" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -62259,10 +62744,13 @@
         <v>8.1371969503459312</v>
       </c>
       <c r="CJ237" s="20">
-        <v>8.8304454732328708</v>
+        <v>8.8287967680512534</v>
+      </c>
+      <c r="CK237" s="20">
+        <v>6.5556641379959268</v>
       </c>
     </row>
-    <row r="238" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -62525,10 +63013,13 @@
         <v>4.5233379637659459</v>
       </c>
       <c r="CJ238" s="20">
-        <v>0.59593695819866821</v>
+        <v>0.59582569265109442</v>
+      </c>
+      <c r="CK238" s="20">
+        <v>1.449194063636345</v>
       </c>
     </row>
-    <row r="239" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -62791,10 +63282,13 @@
         <v>1.5728717477222494</v>
       </c>
       <c r="CJ239" s="20">
-        <v>1.5804138829694521</v>
+        <v>1.5801188087780254</v>
+      </c>
+      <c r="CK239" s="20">
+        <v>1.6840360652291004</v>
       </c>
     </row>
-    <row r="240" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -63057,10 +63551,13 @@
         <v>0.13699193161530299</v>
       </c>
       <c r="CJ240" s="20">
-        <v>0.14642644333940313</v>
+        <v>0.14639910451073462</v>
+      </c>
+      <c r="CK240" s="20">
+        <v>0.46271185435518897</v>
       </c>
     </row>
-    <row r="241" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -63323,10 +63820,13 @@
         <v>1.2973454039181038</v>
       </c>
       <c r="CJ241" s="20">
-        <v>1.1762082249253687</v>
+        <v>1.1759886187230573</v>
+      </c>
+      <c r="CK241" s="20">
+        <v>1.1324605344075787</v>
       </c>
     </row>
-    <row r="242" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -63589,10 +64089,13 @@
         <v>0.79299104299096723</v>
       </c>
       <c r="CJ242" s="20">
-        <v>0.56422381258255283</v>
+        <v>0.56411846809837962</v>
+      </c>
+      <c r="CK242" s="20">
+        <v>0.68972991534657169</v>
       </c>
     </row>
-    <row r="243" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -63855,10 +64358,13 @@
         <v>0.11756376699379703</v>
       </c>
       <c r="CJ243" s="20">
-        <v>8.5802521648331381E-2</v>
+        <v>8.5786501724708475E-2</v>
+      </c>
+      <c r="CK243" s="20">
+        <v>0.10629388517665012</v>
       </c>
     </row>
-    <row r="244" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -64121,10 +64627,13 @@
         <v>0.11085959482051366</v>
       </c>
       <c r="CJ244" s="20">
-        <v>7.0976354012675671E-2</v>
+        <v>7.1705232686726475E-2</v>
+      </c>
+      <c r="CK244" s="20">
+        <v>8.9777771046378602E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -64374,7 +64883,7 @@
       <c r="CE245" s="20">
         <v>8.9879567403038166E-2</v>
       </c>
-      <c r="CF245" s="21">
+      <c r="CF245" s="20">
         <v>4.6605741601528486E-2</v>
       </c>
       <c r="CG245" s="20">
@@ -64386,11 +64895,14 @@
       <c r="CI245" s="20">
         <v>8.7902127201966468E-2</v>
       </c>
-      <c r="CJ245" s="21">
-        <v>4.903692799474392E-2</v>
+      <c r="CJ245" s="20">
+        <v>4.9027772461478852E-2</v>
+      </c>
+      <c r="CK245" s="20">
+        <v>8.8592467151753007E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -64653,10 +65165,13 @@
         <v>6.0022645568907782</v>
       </c>
       <c r="CJ246" s="20">
-        <v>4.453134912955055</v>
+        <v>4.4522406805206156</v>
+      </c>
+      <c r="CK246" s="20">
+        <v>4.8885839640364459</v>
       </c>
     </row>
-    <row r="247" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -64919,10 +65434,13 @@
         <v>10.50467422576153</v>
       </c>
       <c r="CJ247" s="20">
-        <v>10.840698271044776</v>
+        <v>10.826880681741194</v>
+      </c>
+      <c r="CK247" s="20">
+        <v>8.9154012459457341</v>
       </c>
     </row>
-    <row r="248" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -65185,10 +65703,13 @@
         <v>9.0442175260414945</v>
       </c>
       <c r="CJ248" s="20">
-        <v>10.162746036328677</v>
+        <v>10.160950850587884</v>
+      </c>
+      <c r="CK248" s="20">
+        <v>10.050777843994624</v>
       </c>
     </row>
-    <row r="249" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -65451,10 +65972,13 @@
         <v>3.8676768807438728</v>
       </c>
       <c r="CJ249" s="20">
-        <v>4.1348525149880171</v>
+        <v>4.1300364995351933</v>
+      </c>
+      <c r="CK249" s="20">
+        <v>3.6409900008257416</v>
       </c>
     </row>
-    <row r="250" spans="1:88" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:89" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -65717,10 +66241,13 @@
         <v>0.24374471153285818</v>
       </c>
       <c r="CJ250" s="20">
-        <v>0.29688638201364204</v>
+        <v>0.2704669956157959</v>
+      </c>
+      <c r="CK250" s="20">
+        <v>5.406843427083366E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -65983,10 +66510,13 @@
         <v>12.005744514038316</v>
       </c>
       <c r="CJ251" s="20">
-        <v>13.55482927782041</v>
+        <v>13.611669477547169</v>
+      </c>
+      <c r="CK251" s="20">
+        <v>13.598856640618203</v>
       </c>
     </row>
-    <row r="252" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -66249,11 +66779,14 @@
         <v>11.821258783113269</v>
       </c>
       <c r="CJ252" s="20">
-        <v>12.663751033928747</v>
+        <v>12.661103372546684</v>
+      </c>
+      <c r="CK252" s="20">
+        <v>10.21662011763037</v>
       </c>
     </row>
-    <row r="253" spans="1:88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:88" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:89" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -66518,8 +67051,11 @@
       <c r="CJ254" s="20">
         <v>100</v>
       </c>
+      <c r="CK254" s="20">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:88" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:89" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -66608,8 +67144,9 @@
       <c r="CH255" s="18"/>
       <c r="CI255" s="18"/>
       <c r="CJ255" s="18"/>
+      <c r="CK255" s="18"/>
     </row>
-    <row r="256" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
@@ -66620,8 +67157,9 @@
       <c r="CH256" s="13"/>
       <c r="CI256" s="13"/>
       <c r="CJ256" s="13"/>
+      <c r="CK256" s="13"/>
     </row>
-    <row r="257" spans="1:88" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:89" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -66638,8 +67176,9 @@
       <c r="CH257" s="16"/>
       <c r="CI257" s="16"/>
       <c r="CJ257" s="16"/>
+      <c r="CK257" s="16"/>
     </row>
-    <row r="258" spans="1:88" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:89" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -66656,13 +67195,10 @@
       <c r="CH258" s="16"/>
       <c r="CI258" s="16"/>
       <c r="CJ258" s="16"/>
+      <c r="CK258" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BN230:BQ230"/>
-    <mergeCell ref="AP230:AS230"/>
-    <mergeCell ref="AT230:AW230"/>
-    <mergeCell ref="AX230:BA230"/>
     <mergeCell ref="BB230:BE230"/>
     <mergeCell ref="BF230:BI230"/>
     <mergeCell ref="V230:Y230"/>
@@ -66670,21 +67206,18 @@
     <mergeCell ref="AD230:AG230"/>
     <mergeCell ref="AH230:AK230"/>
     <mergeCell ref="AL230:AO230"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="J156:M156"/>
     <mergeCell ref="B230:E230"/>
     <mergeCell ref="F230:I230"/>
     <mergeCell ref="J230:M230"/>
     <mergeCell ref="N230:Q230"/>
     <mergeCell ref="R230:U230"/>
     <mergeCell ref="AX193:BA193"/>
-    <mergeCell ref="BB193:BE193"/>
-    <mergeCell ref="BF193:BI193"/>
-    <mergeCell ref="BJ193:BM193"/>
-    <mergeCell ref="BJ230:BM230"/>
-    <mergeCell ref="BN193:BQ193"/>
-    <mergeCell ref="BB156:BE156"/>
-    <mergeCell ref="BF156:BI156"/>
-    <mergeCell ref="BJ156:BM156"/>
-    <mergeCell ref="BN156:BQ156"/>
+    <mergeCell ref="AP230:AS230"/>
+    <mergeCell ref="AT230:AW230"/>
+    <mergeCell ref="AX230:BA230"/>
     <mergeCell ref="B193:E193"/>
     <mergeCell ref="F193:I193"/>
     <mergeCell ref="J193:M193"/>
@@ -66694,6 +67227,17 @@
     <mergeCell ref="Z193:AC193"/>
     <mergeCell ref="AD193:AG193"/>
     <mergeCell ref="AH193:AK193"/>
+    <mergeCell ref="N156:Q156"/>
+    <mergeCell ref="R156:U156"/>
+    <mergeCell ref="V156:Y156"/>
+    <mergeCell ref="Z156:AC156"/>
+    <mergeCell ref="AD156:AG156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="BN193:BQ193"/>
+    <mergeCell ref="BB156:BE156"/>
+    <mergeCell ref="BF156:BI156"/>
+    <mergeCell ref="BJ156:BM156"/>
+    <mergeCell ref="BN156:BQ156"/>
     <mergeCell ref="AL193:AO193"/>
     <mergeCell ref="AP193:AS193"/>
     <mergeCell ref="AT193:AW193"/>
@@ -66701,20 +67245,9 @@
     <mergeCell ref="AP156:AS156"/>
     <mergeCell ref="AT156:AW156"/>
     <mergeCell ref="AX156:BA156"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="AL120:AO120"/>
-    <mergeCell ref="AP120:AS120"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="AX120:BA120"/>
-    <mergeCell ref="BB120:BE120"/>
-    <mergeCell ref="N156:Q156"/>
-    <mergeCell ref="R156:U156"/>
-    <mergeCell ref="V156:Y156"/>
-    <mergeCell ref="Z156:AC156"/>
-    <mergeCell ref="AD156:AG156"/>
-    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="BB193:BE193"/>
+    <mergeCell ref="BF193:BI193"/>
+    <mergeCell ref="BJ193:BM193"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="F120:I120"/>
     <mergeCell ref="J120:M120"/>
@@ -66724,29 +67257,18 @@
     <mergeCell ref="Z120:AC120"/>
     <mergeCell ref="AD120:AG120"/>
     <mergeCell ref="AH120:AK120"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AH46:AK46"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BB83:BE83"/>
     <mergeCell ref="V83:Y83"/>
     <mergeCell ref="Z83:AC83"/>
     <mergeCell ref="AD83:AG83"/>
     <mergeCell ref="AP83:AS83"/>
     <mergeCell ref="AT83:AW83"/>
     <mergeCell ref="AX83:BA83"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR83:BU83"/>
-    <mergeCell ref="BV83:BY83"/>
-    <mergeCell ref="BR46:BU46"/>
-    <mergeCell ref="BV46:BY46"/>
-    <mergeCell ref="BR193:BU193"/>
-    <mergeCell ref="BV193:BY193"/>
-    <mergeCell ref="BV230:BY230"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="AX46:BA46"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -66763,54 +67285,72 @@
     <mergeCell ref="B46:E46"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="J46:M46"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="AX46:BA46"/>
-    <mergeCell ref="BF46:BI46"/>
-    <mergeCell ref="BJ46:BM46"/>
-    <mergeCell ref="BN46:BQ46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BB46:BE46"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH46:CJ46"/>
-    <mergeCell ref="CD83:CF83"/>
-    <mergeCell ref="CD120:CF120"/>
-    <mergeCell ref="CH156:CJ156"/>
-    <mergeCell ref="CH193:CJ193"/>
-    <mergeCell ref="CH230:CJ230"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR46:BU46"/>
+    <mergeCell ref="BV46:BY46"/>
+    <mergeCell ref="BR230:BU230"/>
+    <mergeCell ref="BR120:BU120"/>
+    <mergeCell ref="BV120:BY120"/>
+    <mergeCell ref="BZ230:CC230"/>
+    <mergeCell ref="BZ83:CC83"/>
+    <mergeCell ref="BZ120:CC120"/>
+    <mergeCell ref="CD230:CG230"/>
+    <mergeCell ref="BF46:BI46"/>
+    <mergeCell ref="BJ46:BM46"/>
+    <mergeCell ref="BN46:BQ46"/>
+    <mergeCell ref="BR83:BU83"/>
+    <mergeCell ref="BV83:BY83"/>
+    <mergeCell ref="BR193:BU193"/>
+    <mergeCell ref="BV193:BY193"/>
+    <mergeCell ref="BV230:BY230"/>
+    <mergeCell ref="BJ230:BM230"/>
+    <mergeCell ref="BN230:BQ230"/>
     <mergeCell ref="AL46:AO46"/>
     <mergeCell ref="AP46:AS46"/>
     <mergeCell ref="AT46:AW46"/>
     <mergeCell ref="BZ156:CC156"/>
     <mergeCell ref="BR156:BU156"/>
     <mergeCell ref="BV156:BY156"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BJ83:BM83"/>
     <mergeCell ref="BN83:BQ83"/>
     <mergeCell ref="BF83:BI83"/>
     <mergeCell ref="BF120:BI120"/>
     <mergeCell ref="BJ120:BM120"/>
     <mergeCell ref="BN120:BQ120"/>
-    <mergeCell ref="BR230:BU230"/>
-    <mergeCell ref="BR120:BU120"/>
-    <mergeCell ref="BV120:BY120"/>
-    <mergeCell ref="BZ230:CC230"/>
-    <mergeCell ref="BZ83:CC83"/>
-    <mergeCell ref="BZ120:CC120"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD230:CG230"/>
+    <mergeCell ref="BB83:BE83"/>
+    <mergeCell ref="AL120:AO120"/>
+    <mergeCell ref="AP120:AS120"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="AX120:BA120"/>
+    <mergeCell ref="BB120:BE120"/>
+    <mergeCell ref="CH230:CK230"/>
     <mergeCell ref="CD193:CG193"/>
     <mergeCell ref="CD156:CG156"/>
     <mergeCell ref="CD46:CG46"/>
     <mergeCell ref="BZ193:CC193"/>
     <mergeCell ref="BZ46:CC46"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH46:CK46"/>
+    <mergeCell ref="CD83:CG83"/>
+    <mergeCell ref="CD120:CG120"/>
+    <mergeCell ref="CH156:CK156"/>
+    <mergeCell ref="CH193:CK193"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70CEE5-DCFA-4043-B0F2-45C639545AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFAFF9-C577-419E-B676-598F1198EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="69">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -661,13 +661,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -675,9 +675,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -750,9 +750,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -770,11 +770,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23621,234 +23618,235 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CM258"/>
+  <dimension ref="A1:CN258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CY31" sqref="CY31"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.90625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.90625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.90625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.90625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="7.90625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.90625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="7.90625" style="7" customWidth="1"/>
-    <col min="30" max="30" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="7.90625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="7.90625" style="7" customWidth="1"/>
-    <col min="38" max="38" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="7.90625" style="7" customWidth="1"/>
-    <col min="42" max="42" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="7.90625" style="7" customWidth="1"/>
-    <col min="46" max="46" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="7.90625" style="7" customWidth="1"/>
-    <col min="50" max="50" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="7.90625" style="7" customWidth="1"/>
-    <col min="54" max="54" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="7.90625" style="7" customWidth="1"/>
-    <col min="58" max="58" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="7.90625" style="7" customWidth="1"/>
-    <col min="62" max="62" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="7.90625" style="7" customWidth="1"/>
-    <col min="66" max="66" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="7.90625" style="7" customWidth="1"/>
-    <col min="70" max="73" width="9.1796875" style="7" customWidth="1"/>
-    <col min="74" max="74" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="7.90625" style="7" customWidth="1"/>
-    <col min="78" max="78" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="7.90625" style="7" customWidth="1"/>
-    <col min="82" max="82" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="83" max="85" width="7.90625" style="7" customWidth="1"/>
-    <col min="86" max="91" width="7.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="7"/>
+    <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.88671875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.88671875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="7.88671875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.88671875" style="7" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="7.88671875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="7.88671875" style="7" customWidth="1"/>
+    <col min="34" max="34" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.88671875" style="7" customWidth="1"/>
+    <col min="38" max="38" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="7.88671875" style="7" customWidth="1"/>
+    <col min="42" max="42" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="7.88671875" style="7" customWidth="1"/>
+    <col min="46" max="46" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="7.88671875" style="7" customWidth="1"/>
+    <col min="50" max="50" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="7.88671875" style="7" customWidth="1"/>
+    <col min="54" max="54" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="7.88671875" style="7" customWidth="1"/>
+    <col min="58" max="58" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="61" width="7.88671875" style="7" customWidth="1"/>
+    <col min="62" max="62" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="7.88671875" style="7" customWidth="1"/>
+    <col min="66" max="66" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="69" width="7.88671875" style="7" customWidth="1"/>
+    <col min="70" max="73" width="9.21875" style="7" customWidth="1"/>
+    <col min="74" max="74" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="7.88671875" style="7" customWidth="1"/>
+    <col min="78" max="78" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="7.88671875" style="7" customWidth="1"/>
+    <col min="82" max="82" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="83" max="85" width="7.88671875" style="7" customWidth="1"/>
+    <col min="86" max="92" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2000</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <v>2001</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
         <v>2002</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>2003</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13">
         <v>2004</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13">
         <v>2005</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14">
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13">
         <v>2006</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13">
         <v>2007</v>
       </c>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14">
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13">
         <v>2008</v>
       </c>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14">
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
         <v>2009</v>
       </c>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14">
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14">
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13">
         <v>2011</v>
       </c>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14">
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13">
         <v>2012</v>
       </c>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14">
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13">
         <v>2013</v>
       </c>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14">
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13">
         <v>2014</v>
       </c>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14">
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13">
         <v>2015</v>
       </c>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14">
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13">
         <v>2016</v>
       </c>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="14">
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13">
         <v>2017</v>
       </c>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14">
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13">
         <v>2018</v>
       </c>
-      <c r="BW9" s="14"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14">
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13">
         <v>2019</v>
       </c>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14">
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13">
         <v>2020</v>
       </c>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14">
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13">
         <v>2021</v>
       </c>
-      <c r="CI9" s="14"/>
-      <c r="CJ9" s="14"/>
-      <c r="CK9" s="14"/>
-      <c r="CL9" s="14">
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13">
         <v>2022</v>
       </c>
-      <c r="CM9" s="14"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13"/>
     </row>
-    <row r="10" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24122,11 +24120,14 @@
       <c r="CM10" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="CN10" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24398,10 +24399,13 @@
         <v>88196.306217954858</v>
       </c>
       <c r="CM12" s="6">
-        <v>74311.407369057008</v>
+        <v>74312.857413969788</v>
+      </c>
+      <c r="CN12" s="6">
+        <v>60322.412041435062</v>
       </c>
     </row>
-    <row r="13" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24673,10 +24677,13 @@
         <v>36165.140132393506</v>
       </c>
       <c r="CM13" s="6">
-        <v>22964.420334049799</v>
+        <v>22964.471714516847</v>
+      </c>
+      <c r="CN13" s="6">
+        <v>35523.586060840986</v>
       </c>
     </row>
-    <row r="14" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24950,8 +24957,11 @@
       <c r="CM14" s="6">
         <v>18718.63937222536</v>
       </c>
+      <c r="CN14" s="6">
+        <v>37290.807521087503</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25225,8 +25235,11 @@
       <c r="CM15" s="6">
         <v>4502.9881142789445</v>
       </c>
+      <c r="CN15" s="6">
+        <v>3243.19282961406</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25500,8 +25513,11 @@
       <c r="CM16" s="6">
         <v>34220.430569929864</v>
       </c>
+      <c r="CN16" s="6">
+        <v>33568.786872089309</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25775,8 +25791,11 @@
       <c r="CM17" s="6">
         <v>20231.920561675448</v>
       </c>
+      <c r="CN17" s="6">
+        <v>2658.8596403152333</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26050,8 +26069,11 @@
       <c r="CM18" s="6">
         <v>4319.3921515491511</v>
       </c>
+      <c r="CN18" s="6">
+        <v>8660.3335501832444</v>
+      </c>
     </row>
-    <row r="19" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26325,8 +26347,11 @@
       <c r="CM19" s="6">
         <v>755.33120532608655</v>
       </c>
+      <c r="CN19" s="6">
+        <v>570.49252824166513</v>
+      </c>
     </row>
-    <row r="20" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26598,10 +26623,13 @@
         <v>3390.0530834926053</v>
       </c>
       <c r="CM20" s="6">
-        <v>5756.8928215521046</v>
+        <v>5181.2929626545319</v>
+      </c>
+      <c r="CN20" s="6">
+        <v>7265.2633873865943</v>
       </c>
     </row>
-    <row r="21" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26875,8 +26903,11 @@
       <c r="CM21" s="6">
         <v>3365.6747559005253</v>
       </c>
+      <c r="CN21" s="6">
+        <v>2407.1282613156754</v>
+      </c>
     </row>
-    <row r="22" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27150,8 +27181,11 @@
       <c r="CM22" s="6">
         <v>274.93012582582531</v>
       </c>
+      <c r="CN22" s="6">
+        <v>426.60353421153985</v>
+      </c>
     </row>
-    <row r="23" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27425,8 +27459,11 @@
       <c r="CM23" s="6">
         <v>274.45965058042941</v>
       </c>
+      <c r="CN23" s="6">
+        <v>465.82375032603431</v>
+      </c>
     </row>
-    <row r="24" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27700,8 +27737,11 @@
       <c r="CM24" s="6">
         <v>147.52204379002626</v>
       </c>
+      <c r="CN24" s="6">
+        <v>298.6521464050046</v>
+      </c>
     </row>
-    <row r="25" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -27973,10 +28013,13 @@
         <v>24911.347256929854</v>
       </c>
       <c r="CM25" s="6">
-        <v>18791.807057524918</v>
+        <v>18747.070765618875</v>
+      </c>
+      <c r="CN25" s="6">
+        <v>26188.759740452617</v>
       </c>
     </row>
-    <row r="26" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28250,8 +28293,11 @@
       <c r="CM26" s="6">
         <v>76232.345555541746</v>
       </c>
+      <c r="CN26" s="6">
+        <v>75728.90272784172</v>
+      </c>
     </row>
-    <row r="27" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28525,8 +28571,11 @@
       <c r="CM27" s="6">
         <v>44903.050843144229</v>
       </c>
+      <c r="CN27" s="6">
+        <v>53344.954013274604</v>
+      </c>
     </row>
-    <row r="28" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28800,8 +28849,11 @@
       <c r="CM28" s="6">
         <v>14998.131788869097</v>
       </c>
+      <c r="CN28" s="6">
+        <v>17527.508189510481</v>
+      </c>
     </row>
-    <row r="29" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29073,10 +29125,13 @@
         <v>385.03944199129432</v>
       </c>
       <c r="CM29" s="6">
-        <v>281.4026891429271</v>
+        <v>284.85899091189367</v>
+      </c>
+      <c r="CN29" s="6">
+        <v>387.36426861404379</v>
       </c>
     </row>
-    <row r="30" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29348,10 +29403,13 @@
         <v>57052.142770400853</v>
       </c>
       <c r="CM30" s="6">
-        <v>64267.057112469047</v>
+        <v>65031.017831760037</v>
+      </c>
+      <c r="CN30" s="6">
+        <v>71752.676113166002</v>
       </c>
     </row>
-    <row r="31" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29625,9 +29683,12 @@
       <c r="CM31" s="6">
         <v>71137.81420133519</v>
       </c>
+      <c r="CN31" s="6">
+        <v>47642.553877687154</v>
+      </c>
     </row>
-    <row r="32" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -29899,10 +29960,13 @@
         <v>499729.71965406463</v>
       </c>
       <c r="CM33" s="8">
-        <v>480455.61832376767</v>
+        <v>480604.20061940385</v>
+      </c>
+      <c r="CN33" s="8">
+        <v>485274.66105399857</v>
       </c>
     </row>
-    <row r="34" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -29994,186 +30058,188 @@
       <c r="CK34" s="10"/>
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
+      <c r="CN34" s="10"/>
     </row>
-    <row r="35" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>2000</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13">
         <v>2001</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
         <v>2002</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14">
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13">
         <v>2003</v>
       </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13">
         <v>2004</v>
       </c>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14">
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13">
         <v>2005</v>
       </c>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14">
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13">
         <v>2006</v>
       </c>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14">
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13">
         <v>2007</v>
       </c>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14">
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13">
         <v>2008</v>
       </c>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14">
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13">
         <v>2009</v>
       </c>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14">
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14">
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="13">
         <v>2011</v>
       </c>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="14"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14">
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13">
         <v>2012</v>
       </c>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="14">
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BB46" s="13">
         <v>2013</v>
       </c>
-      <c r="BC46" s="14"/>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14">
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="13"/>
+      <c r="BE46" s="13"/>
+      <c r="BF46" s="13">
         <v>2014</v>
       </c>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="14"/>
-      <c r="BJ46" s="14">
+      <c r="BG46" s="13"/>
+      <c r="BH46" s="13"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="13">
         <v>2015</v>
       </c>
-      <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="14"/>
-      <c r="BN46" s="14">
+      <c r="BK46" s="13"/>
+      <c r="BL46" s="13"/>
+      <c r="BM46" s="13"/>
+      <c r="BN46" s="13">
         <v>2016</v>
       </c>
-      <c r="BO46" s="14"/>
-      <c r="BP46" s="14"/>
-      <c r="BQ46" s="14"/>
-      <c r="BR46" s="14">
+      <c r="BO46" s="13"/>
+      <c r="BP46" s="13"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="13">
         <v>2017</v>
       </c>
-      <c r="BS46" s="14"/>
-      <c r="BT46" s="14"/>
-      <c r="BU46" s="14"/>
-      <c r="BV46" s="14">
+      <c r="BS46" s="13"/>
+      <c r="BT46" s="13"/>
+      <c r="BU46" s="13"/>
+      <c r="BV46" s="13">
         <v>2018</v>
       </c>
-      <c r="BW46" s="14"/>
-      <c r="BX46" s="14"/>
-      <c r="BY46" s="14"/>
-      <c r="BZ46" s="14">
+      <c r="BW46" s="13"/>
+      <c r="BX46" s="13"/>
+      <c r="BY46" s="13"/>
+      <c r="BZ46" s="13">
         <v>2019</v>
       </c>
-      <c r="CA46" s="14"/>
-      <c r="CB46" s="14"/>
-      <c r="CC46" s="14"/>
-      <c r="CD46" s="14">
+      <c r="CA46" s="13"/>
+      <c r="CB46" s="13"/>
+      <c r="CC46" s="13"/>
+      <c r="CD46" s="13">
         <v>2020</v>
       </c>
-      <c r="CE46" s="14"/>
-      <c r="CF46" s="14"/>
-      <c r="CG46" s="14"/>
-      <c r="CH46" s="14">
+      <c r="CE46" s="13"/>
+      <c r="CF46" s="13"/>
+      <c r="CG46" s="13"/>
+      <c r="CH46" s="13">
         <v>2021</v>
       </c>
-      <c r="CI46" s="14"/>
-      <c r="CJ46" s="14"/>
-      <c r="CK46" s="14"/>
-      <c r="CL46" s="14">
+      <c r="CI46" s="13"/>
+      <c r="CJ46" s="13"/>
+      <c r="CK46" s="13"/>
+      <c r="CL46" s="13">
         <v>2022</v>
       </c>
-      <c r="CM46" s="14"/>
+      <c r="CM46" s="13"/>
+      <c r="CN46" s="13"/>
     </row>
-    <row r="47" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30447,11 +30513,14 @@
       <c r="CM47" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="CN47" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="48" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30723,10 +30792,13 @@
         <v>91004.129311031167</v>
       </c>
       <c r="CM49" s="6">
-        <v>81437.333602044906</v>
+        <v>81438.922695771951</v>
+      </c>
+      <c r="CN49" s="6">
+        <v>71670.732228659414</v>
       </c>
     </row>
-    <row r="50" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -30998,10 +31070,13 @@
         <v>31046.33928596507</v>
       </c>
       <c r="CM50" s="6">
-        <v>19977.302418243333</v>
+        <v>20096.019257101645</v>
+      </c>
+      <c r="CN50" s="6">
+        <v>30085.655035864416</v>
       </c>
     </row>
-    <row r="51" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31275,8 +31350,11 @@
       <c r="CM51" s="6">
         <v>13529.384348503043</v>
       </c>
+      <c r="CN51" s="6">
+        <v>21954.494998102586</v>
+      </c>
     </row>
-    <row r="52" spans="1:91" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:92" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31550,8 +31628,11 @@
       <c r="CM52" s="6">
         <v>5752.2216478901746</v>
       </c>
+      <c r="CN52" s="6">
+        <v>945.64137379305657</v>
+      </c>
     </row>
-    <row r="53" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -31825,8 +31906,11 @@
       <c r="CM53" s="6">
         <v>34130.300358639637</v>
       </c>
+      <c r="CN53" s="6">
+        <v>35250.992937110655</v>
+      </c>
     </row>
-    <row r="54" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32100,8 +32184,11 @@
       <c r="CM54" s="6">
         <v>18114.628431223435</v>
       </c>
+      <c r="CN54" s="6">
+        <v>2283.1506726753864</v>
+      </c>
     </row>
-    <row r="55" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32375,8 +32462,11 @@
       <c r="CM55" s="6">
         <v>6418.7609778100941</v>
       </c>
+      <c r="CN55" s="6">
+        <v>6557.774813556749</v>
+      </c>
     </row>
-    <row r="56" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32650,8 +32740,11 @@
       <c r="CM56" s="6">
         <v>529.35724707990573</v>
       </c>
+      <c r="CN56" s="6">
+        <v>576.99787870647981</v>
+      </c>
     </row>
-    <row r="57" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -32925,8 +33018,11 @@
       <c r="CM57" s="6">
         <v>5447.0100612469996</v>
       </c>
+      <c r="CN57" s="6">
+        <v>4696.510629733878</v>
+      </c>
     </row>
-    <row r="58" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33200,8 +33296,11 @@
       <c r="CM58" s="6">
         <v>3282.1534614378315</v>
       </c>
+      <c r="CN58" s="6">
+        <v>2271.5266302254395</v>
+      </c>
     </row>
-    <row r="59" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33475,8 +33574,11 @@
       <c r="CM59" s="6">
         <v>496.2511506741547</v>
       </c>
+      <c r="CN59" s="6">
+        <v>369.68390302396267</v>
+      </c>
     </row>
-    <row r="60" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -33750,8 +33852,11 @@
       <c r="CM60" s="6">
         <v>455.4955949964467</v>
       </c>
+      <c r="CN60" s="6">
+        <v>335.56755808997707</v>
+      </c>
     </row>
-    <row r="61" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34025,8 +34130,11 @@
       <c r="CM61" s="6">
         <v>362.10023020330527</v>
       </c>
+      <c r="CN61" s="6">
+        <v>198.75870180661479</v>
+      </c>
     </row>
-    <row r="62" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34298,10 +34406,13 @@
         <v>24646.655641688456</v>
       </c>
       <c r="CM62" s="6">
-        <v>23777.05808510914</v>
+        <v>23779.336971489225</v>
+      </c>
+      <c r="CN62" s="6">
+        <v>17925.753473563913</v>
       </c>
     </row>
-    <row r="63" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34575,8 +34686,11 @@
       <c r="CM63" s="6">
         <v>44723.61634491352</v>
       </c>
+      <c r="CN63" s="6">
+        <v>45184.848980372946</v>
+      </c>
     </row>
-    <row r="64" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -34850,8 +34964,11 @@
       <c r="CM64" s="6">
         <v>40594.161490269005</v>
       </c>
+      <c r="CN64" s="6">
+        <v>43057.576446615363</v>
+      </c>
     </row>
-    <row r="65" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35125,8 +35242,11 @@
       <c r="CM65" s="6">
         <v>16867.177959083474</v>
       </c>
+      <c r="CN65" s="6">
+        <v>17274.519488212791</v>
+      </c>
     </row>
-    <row r="66" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35398,10 +35518,13 @@
         <v>759.71033471228702</v>
       </c>
       <c r="CM66" s="6">
-        <v>676.17467146252898</v>
+        <v>685.9136656051345</v>
+      </c>
+      <c r="CN66" s="6">
+        <v>939.46357870127281</v>
       </c>
     </row>
-    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -35673,10 +35796,13 @@
         <v>45118.562967812133</v>
       </c>
       <c r="CM67" s="6">
-        <v>48804.379040321423</v>
+        <v>48801.438592715815</v>
+      </c>
+      <c r="CN67" s="6">
+        <v>53027.849159169215</v>
       </c>
     </row>
-    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -35950,9 +36076,12 @@
       <c r="CM68" s="6">
         <v>51509.999366363823</v>
       </c>
+      <c r="CN68" s="6">
+        <v>52458.304934282831</v>
+      </c>
     </row>
-    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36224,10 +36353,13 @@
         <v>434771.79709026119</v>
       </c>
       <c r="CM70" s="8">
-        <v>416884.86648751615</v>
+        <v>417014.24985301855</v>
+      </c>
+      <c r="CN70" s="8">
+        <v>407065.80342226691</v>
       </c>
     </row>
-    <row r="71" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -36319,184 +36451,186 @@
       <c r="CK71" s="10"/>
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
+      <c r="CN71" s="10"/>
     </row>
-    <row r="72" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14" t="s">
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14" t="s">
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14" t="s">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="14" t="s">
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="14" t="s">
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14" t="s">
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
-      <c r="AH83" s="14" t="s">
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="14"/>
-      <c r="AJ83" s="14"/>
-      <c r="AK83" s="14"/>
-      <c r="AL83" s="14" t="s">
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="14"/>
-      <c r="AN83" s="14"/>
-      <c r="AO83" s="14"/>
-      <c r="AP83" s="14" t="s">
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="14"/>
-      <c r="AR83" s="14"/>
-      <c r="AS83" s="14"/>
-      <c r="AT83" s="14" t="s">
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="14"/>
-      <c r="AV83" s="14"/>
-      <c r="AW83" s="14"/>
-      <c r="AX83" s="14" t="s">
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="14"/>
-      <c r="AZ83" s="14"/>
-      <c r="BA83" s="14"/>
-      <c r="BB83" s="14" t="s">
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="14"/>
-      <c r="BD83" s="14"/>
-      <c r="BE83" s="14"/>
-      <c r="BF83" s="14" t="s">
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="14"/>
-      <c r="BH83" s="14"/>
-      <c r="BI83" s="14"/>
-      <c r="BJ83" s="14" t="s">
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="14"/>
-      <c r="BL83" s="14"/>
-      <c r="BM83" s="14"/>
-      <c r="BN83" s="14" t="s">
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+      <c r="BM83" s="13"/>
+      <c r="BN83" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="14"/>
-      <c r="BP83" s="14"/>
-      <c r="BQ83" s="14"/>
-      <c r="BR83" s="14" t="s">
+      <c r="BO83" s="13"/>
+      <c r="BP83" s="13"/>
+      <c r="BQ83" s="13"/>
+      <c r="BR83" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="14"/>
-      <c r="BT83" s="14"/>
-      <c r="BU83" s="14"/>
-      <c r="BV83" s="14" t="s">
+      <c r="BS83" s="13"/>
+      <c r="BT83" s="13"/>
+      <c r="BU83" s="13"/>
+      <c r="BV83" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="14"/>
-      <c r="BX83" s="14"/>
-      <c r="BY83" s="14"/>
-      <c r="BZ83" s="14" t="s">
+      <c r="BW83" s="13"/>
+      <c r="BX83" s="13"/>
+      <c r="BY83" s="13"/>
+      <c r="BZ83" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="14"/>
-      <c r="CB83" s="14"/>
-      <c r="CC83" s="14"/>
-      <c r="CD83" s="14" t="s">
+      <c r="CA83" s="13"/>
+      <c r="CB83" s="13"/>
+      <c r="CC83" s="13"/>
+      <c r="CD83" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="14"/>
-      <c r="CF83" s="14"/>
-      <c r="CG83" s="14"/>
-      <c r="CH83" s="14" t="s">
+      <c r="CE83" s="13"/>
+      <c r="CF83" s="13"/>
+      <c r="CG83" s="13"/>
+      <c r="CH83" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CI83" s="14"/>
-      <c r="CJ83" s="3"/>
+      <c r="CI83" s="13"/>
+      <c r="CJ83" s="13"/>
       <c r="CK83" s="3"/>
       <c r="CL83" s="13"/>
-      <c r="CM83" s="3"/>
+      <c r="CM83" s="13"/>
+      <c r="CN83" s="3"/>
     </row>
-    <row r="84" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -36758,15 +36892,18 @@
       <c r="CI84" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CJ84" s="4"/>
+      <c r="CJ84" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="CK84" s="4"/>
       <c r="CL84" s="4"/>
       <c r="CM84" s="4"/>
+      <c r="CN84" s="4"/>
     </row>
-    <row r="85" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37026,13 +37163,17 @@
         <v>2.015999485040382</v>
       </c>
       <c r="CI86" s="11">
-        <v>1.4628097957407391</v>
-      </c>
-      <c r="CJ86" s="11"/>
+        <v>1.4647896483150618</v>
+      </c>
+      <c r="CJ86" s="11">
+        <v>3.9069600423303967</v>
+      </c>
       <c r="CK86" s="11"/>
       <c r="CL86" s="11"/>
+      <c r="CM86" s="11"/>
+      <c r="CN86" s="11"/>
     </row>
-    <row r="87" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -37292,13 +37433,17 @@
         <v>26.441841818963567</v>
       </c>
       <c r="CI87" s="11">
-        <v>32.859503496099904</v>
-      </c>
-      <c r="CJ87" s="11"/>
+        <v>32.859800755218203</v>
+      </c>
+      <c r="CJ87" s="11">
+        <v>21.54383397631905</v>
+      </c>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
+      <c r="CM87" s="11"/>
+      <c r="CN87" s="11"/>
     </row>
-    <row r="88" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -37560,11 +37705,15 @@
       <c r="CI88" s="11">
         <v>14.189902389736503</v>
       </c>
-      <c r="CJ88" s="11"/>
+      <c r="CJ88" s="11">
+        <v>6.6241174616173453</v>
+      </c>
       <c r="CK88" s="11"/>
       <c r="CL88" s="11"/>
+      <c r="CM88" s="11"/>
+      <c r="CN88" s="11"/>
     </row>
-    <row r="89" spans="1:91" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -37826,11 +37975,15 @@
       <c r="CI89" s="11">
         <v>-30.907791778070575</v>
       </c>
-      <c r="CJ89" s="11"/>
+      <c r="CJ89" s="11">
+        <v>247.13062685860183</v>
+      </c>
       <c r="CK89" s="11"/>
       <c r="CL89" s="11"/>
+      <c r="CM89" s="11"/>
+      <c r="CN89" s="11"/>
     </row>
-    <row r="90" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -38092,11 +38245,15 @@
       <c r="CI90" s="11">
         <v>-24.366734626405261</v>
       </c>
-      <c r="CJ90" s="11"/>
+      <c r="CJ90" s="11">
+        <v>-21.940823268956223</v>
+      </c>
       <c r="CK90" s="11"/>
       <c r="CL90" s="11"/>
+      <c r="CM90" s="11"/>
+      <c r="CN90" s="11"/>
     </row>
-    <row r="91" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -38358,11 +38515,15 @@
       <c r="CI91" s="11">
         <v>-0.64987220077713914</v>
       </c>
-      <c r="CJ91" s="11"/>
+      <c r="CJ91" s="11">
+        <v>15.604797250654528</v>
+      </c>
       <c r="CK91" s="11"/>
       <c r="CL91" s="11"/>
+      <c r="CM91" s="11"/>
+      <c r="CN91" s="11"/>
     </row>
-    <row r="92" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -38624,11 +38785,15 @@
       <c r="CI92" s="11">
         <v>0.23805098390650414</v>
       </c>
-      <c r="CJ92" s="11"/>
+      <c r="CJ92" s="11">
+        <v>18.372060097065798</v>
+      </c>
       <c r="CK92" s="11"/>
       <c r="CL92" s="11"/>
+      <c r="CM92" s="11"/>
+      <c r="CN92" s="11"/>
     </row>
-    <row r="93" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -38890,11 +39055,15 @@
       <c r="CI93" s="11">
         <v>23.786048906414976</v>
       </c>
-      <c r="CJ93" s="11"/>
+      <c r="CJ93" s="11">
+        <v>13.622967942402937</v>
+      </c>
       <c r="CK93" s="11"/>
       <c r="CL93" s="11"/>
+      <c r="CM93" s="11"/>
+      <c r="CN93" s="11"/>
     </row>
-    <row r="94" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -39154,13 +39323,17 @@
         <v>-12.67853157067222</v>
       </c>
       <c r="CI94" s="11">
-        <v>9.2412707340403699</v>
-      </c>
-      <c r="CJ94" s="11"/>
+        <v>-1.6811594673529555</v>
+      </c>
+      <c r="CJ94" s="11">
+        <v>8.546628116436267</v>
+      </c>
       <c r="CK94" s="11"/>
       <c r="CL94" s="11"/>
+      <c r="CM94" s="11"/>
+      <c r="CN94" s="11"/>
     </row>
-    <row r="95" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -39422,11 +39595,15 @@
       <c r="CI95" s="11">
         <v>3.0092727932831735</v>
       </c>
-      <c r="CJ95" s="11"/>
+      <c r="CJ95" s="11">
+        <v>-1.5467883920446042</v>
+      </c>
       <c r="CK95" s="11"/>
       <c r="CL95" s="11"/>
+      <c r="CM95" s="11"/>
+      <c r="CN95" s="11"/>
     </row>
-    <row r="96" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -39688,11 +39865,15 @@
       <c r="CI96" s="11">
         <v>-5.988073229256301</v>
       </c>
-      <c r="CJ96" s="11"/>
+      <c r="CJ96" s="11">
+        <v>4.8324924314516267</v>
+      </c>
       <c r="CK96" s="11"/>
       <c r="CL96" s="11"/>
+      <c r="CM96" s="11"/>
+      <c r="CN96" s="11"/>
     </row>
-    <row r="97" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -39954,11 +40135,15 @@
       <c r="CI97" s="11">
         <v>1.4969551161827752</v>
       </c>
-      <c r="CJ97" s="11"/>
+      <c r="CJ97" s="11">
+        <v>23.814046402760681</v>
+      </c>
       <c r="CK97" s="11"/>
       <c r="CL97" s="11"/>
+      <c r="CM97" s="11"/>
+      <c r="CN97" s="11"/>
     </row>
-    <row r="98" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -40220,11 +40405,15 @@
       <c r="CI98" s="11">
         <v>-37.090520567265315</v>
       </c>
-      <c r="CJ98" s="11"/>
+      <c r="CJ98" s="11">
+        <v>0.99164124129929121</v>
+      </c>
       <c r="CK98" s="11"/>
       <c r="CL98" s="11"/>
+      <c r="CM98" s="11"/>
+      <c r="CN98" s="11"/>
     </row>
-    <row r="99" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -40484,13 +40673,17 @@
         <v>-3.0610337128115646</v>
       </c>
       <c r="CI99" s="11">
-        <v>10.420478476480085</v>
-      </c>
-      <c r="CJ99" s="11"/>
+        <v>10.157608453261588</v>
+      </c>
+      <c r="CJ99" s="11">
+        <v>7.4942988579901311</v>
+      </c>
       <c r="CK99" s="11"/>
       <c r="CL99" s="11"/>
+      <c r="CM99" s="11"/>
+      <c r="CN99" s="11"/>
     </row>
-    <row r="100" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -40752,11 +40945,15 @@
       <c r="CI100" s="11">
         <v>9.9624916213878407</v>
       </c>
-      <c r="CJ100" s="11"/>
+      <c r="CJ100" s="11">
+        <v>19.607564690824589</v>
+      </c>
       <c r="CK100" s="11"/>
       <c r="CL100" s="11"/>
+      <c r="CM100" s="11"/>
+      <c r="CN100" s="11"/>
     </row>
-    <row r="101" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -41018,11 +41215,15 @@
       <c r="CI101" s="11">
         <v>10.610640520045138</v>
       </c>
-      <c r="CJ101" s="11"/>
+      <c r="CJ101" s="11">
+        <v>35.334465976292819</v>
+      </c>
       <c r="CK101" s="11"/>
       <c r="CL101" s="11"/>
+      <c r="CM101" s="11"/>
+      <c r="CN101" s="11"/>
     </row>
-    <row r="102" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -41284,11 +41485,15 @@
       <c r="CI102" s="11">
         <v>7.1667227053554257</v>
       </c>
-      <c r="CJ102" s="11"/>
+      <c r="CJ102" s="11">
+        <v>26.007217376451976</v>
+      </c>
       <c r="CK102" s="11"/>
       <c r="CL102" s="11"/>
+      <c r="CM102" s="11"/>
+      <c r="CN102" s="11"/>
     </row>
-    <row r="103" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -41548,13 +41753,17 @@
         <v>-3.3320867072509515</v>
       </c>
       <c r="CI103" s="11">
-        <v>-42.16704392099907</v>
-      </c>
-      <c r="CJ103" s="11"/>
+        <v>-41.45671613767469</v>
+      </c>
+      <c r="CJ103" s="11">
+        <v>-1.0217542592096436</v>
+      </c>
       <c r="CK103" s="11"/>
       <c r="CL103" s="11"/>
+      <c r="CM103" s="11"/>
+      <c r="CN103" s="11"/>
     </row>
-    <row r="104" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -41814,13 +42023,17 @@
         <v>-2.3890201557280193</v>
       </c>
       <c r="CI104" s="11">
-        <v>15.442776298868893</v>
-      </c>
-      <c r="CJ104" s="11"/>
+        <v>16.815077293823293</v>
+      </c>
+      <c r="CJ104" s="11">
+        <v>10.276266207570117</v>
+      </c>
       <c r="CK104" s="11"/>
       <c r="CL104" s="11"/>
+      <c r="CM104" s="11"/>
+      <c r="CN104" s="11"/>
     </row>
-    <row r="105" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -42082,12 +42295,16 @@
       <c r="CI105" s="11">
         <v>11.952469265297694</v>
       </c>
-      <c r="CJ105" s="11"/>
+      <c r="CJ105" s="11">
+        <v>17.660746322620739</v>
+      </c>
       <c r="CK105" s="11"/>
       <c r="CL105" s="11"/>
+      <c r="CM105" s="11"/>
+      <c r="CN105" s="11"/>
     </row>
-    <row r="106" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -42347,13 +42564,17 @@
         <v>2.6716698081174428</v>
       </c>
       <c r="CI107" s="11">
-        <v>5.8429631187493669</v>
-      </c>
-      <c r="CJ107" s="11"/>
+        <v>5.87569536255576</v>
+      </c>
+      <c r="CJ107" s="11">
+        <v>11.947861302997055</v>
+      </c>
       <c r="CK107" s="11"/>
       <c r="CL107" s="11"/>
+      <c r="CM107" s="11"/>
+      <c r="CN107" s="11"/>
     </row>
-    <row r="108" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -42445,184 +42666,186 @@
       <c r="CK108" s="10"/>
       <c r="CL108" s="10"/>
       <c r="CM108" s="10"/>
+      <c r="CN108" s="10"/>
     </row>
-    <row r="109" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14" t="s">
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14" t="s">
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14" t="s">
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14" t="s">
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-      <c r="U120" s="14"/>
-      <c r="V120" s="14" t="s">
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14" t="s">
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="14"/>
-      <c r="AB120" s="14"/>
-      <c r="AC120" s="14"/>
-      <c r="AD120" s="14" t="s">
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+      <c r="AC120" s="13"/>
+      <c r="AD120" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="14"/>
-      <c r="AF120" s="14"/>
-      <c r="AG120" s="14"/>
-      <c r="AH120" s="14" t="s">
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
+      <c r="AG120" s="13"/>
+      <c r="AH120" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="14"/>
-      <c r="AJ120" s="14"/>
-      <c r="AK120" s="14"/>
-      <c r="AL120" s="14" t="s">
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="13"/>
+      <c r="AK120" s="13"/>
+      <c r="AL120" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="14"/>
-      <c r="AN120" s="14"/>
-      <c r="AO120" s="14"/>
-      <c r="AP120" s="14" t="s">
+      <c r="AM120" s="13"/>
+      <c r="AN120" s="13"/>
+      <c r="AO120" s="13"/>
+      <c r="AP120" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="14"/>
-      <c r="AR120" s="14"/>
-      <c r="AS120" s="14"/>
-      <c r="AT120" s="14" t="s">
+      <c r="AQ120" s="13"/>
+      <c r="AR120" s="13"/>
+      <c r="AS120" s="13"/>
+      <c r="AT120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="14"/>
-      <c r="AV120" s="14"/>
-      <c r="AW120" s="14"/>
-      <c r="AX120" s="14" t="s">
+      <c r="AU120" s="13"/>
+      <c r="AV120" s="13"/>
+      <c r="AW120" s="13"/>
+      <c r="AX120" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="14"/>
-      <c r="AZ120" s="14"/>
-      <c r="BA120" s="14"/>
-      <c r="BB120" s="14" t="s">
+      <c r="AY120" s="13"/>
+      <c r="AZ120" s="13"/>
+      <c r="BA120" s="13"/>
+      <c r="BB120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="14"/>
-      <c r="BD120" s="14"/>
-      <c r="BE120" s="14"/>
-      <c r="BF120" s="14" t="s">
+      <c r="BC120" s="13"/>
+      <c r="BD120" s="13"/>
+      <c r="BE120" s="13"/>
+      <c r="BF120" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="14"/>
-      <c r="BH120" s="14"/>
-      <c r="BI120" s="14"/>
-      <c r="BJ120" s="14" t="s">
+      <c r="BG120" s="13"/>
+      <c r="BH120" s="13"/>
+      <c r="BI120" s="13"/>
+      <c r="BJ120" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="14"/>
-      <c r="BL120" s="14"/>
-      <c r="BM120" s="14"/>
-      <c r="BN120" s="14" t="s">
+      <c r="BK120" s="13"/>
+      <c r="BL120" s="13"/>
+      <c r="BM120" s="13"/>
+      <c r="BN120" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="14"/>
-      <c r="BP120" s="14"/>
-      <c r="BQ120" s="14"/>
-      <c r="BR120" s="14" t="s">
+      <c r="BO120" s="13"/>
+      <c r="BP120" s="13"/>
+      <c r="BQ120" s="13"/>
+      <c r="BR120" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="14"/>
-      <c r="BT120" s="14"/>
-      <c r="BU120" s="14"/>
-      <c r="BV120" s="14" t="s">
+      <c r="BS120" s="13"/>
+      <c r="BT120" s="13"/>
+      <c r="BU120" s="13"/>
+      <c r="BV120" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="14"/>
-      <c r="BX120" s="14"/>
-      <c r="BY120" s="14"/>
-      <c r="BZ120" s="14" t="s">
+      <c r="BW120" s="13"/>
+      <c r="BX120" s="13"/>
+      <c r="BY120" s="13"/>
+      <c r="BZ120" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="14"/>
-      <c r="CB120" s="14"/>
-      <c r="CC120" s="14"/>
-      <c r="CD120" s="14" t="s">
+      <c r="CA120" s="13"/>
+      <c r="CB120" s="13"/>
+      <c r="CC120" s="13"/>
+      <c r="CD120" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="14"/>
-      <c r="CF120" s="14"/>
-      <c r="CG120" s="14"/>
-      <c r="CH120" s="14" t="s">
+      <c r="CE120" s="13"/>
+      <c r="CF120" s="13"/>
+      <c r="CG120" s="13"/>
+      <c r="CH120" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CI120" s="14"/>
-      <c r="CJ120" s="3"/>
+      <c r="CI120" s="13"/>
+      <c r="CJ120" s="13"/>
       <c r="CK120" s="3"/>
       <c r="CL120" s="13"/>
       <c r="CM120" s="13"/>
+      <c r="CN120" s="3"/>
     </row>
-    <row r="121" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -42884,15 +43107,18 @@
       <c r="CI121" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CJ121" s="4"/>
+      <c r="CJ121" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="CK121" s="4"/>
       <c r="CL121" s="4"/>
       <c r="CM121" s="4"/>
+      <c r="CN121" s="4"/>
     </row>
-    <row r="122" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -43152,13 +43378,17 @@
         <v>-1.8469127157701024</v>
       </c>
       <c r="CI123" s="11">
-        <v>0.70437692774596883</v>
-      </c>
-      <c r="CJ123" s="11"/>
+        <v>0.70634198095417844</v>
+      </c>
+      <c r="CJ123" s="11">
+        <v>0.95047159180931828</v>
+      </c>
       <c r="CK123" s="11"/>
       <c r="CL123" s="11"/>
+      <c r="CM123" s="11"/>
+      <c r="CN123" s="11"/>
     </row>
-    <row r="124" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -43418,13 +43648,17 @@
         <v>-0.70121589284948982</v>
       </c>
       <c r="CI124" s="11">
-        <v>10.230542117035043</v>
-      </c>
-      <c r="CJ124" s="11"/>
+        <v>10.885596599957736</v>
+      </c>
+      <c r="CJ124" s="11">
+        <v>2.5038863971826402</v>
+      </c>
       <c r="CK124" s="11"/>
       <c r="CL124" s="11"/>
+      <c r="CM124" s="11"/>
+      <c r="CN124" s="11"/>
     </row>
-    <row r="125" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -43686,11 +43920,15 @@
       <c r="CI125" s="11">
         <v>2.0272462305097605</v>
       </c>
-      <c r="CJ125" s="11"/>
+      <c r="CJ125" s="11">
+        <v>1.0661484332325983</v>
+      </c>
       <c r="CK125" s="11"/>
       <c r="CL125" s="11"/>
+      <c r="CM125" s="11"/>
+      <c r="CN125" s="11"/>
     </row>
-    <row r="126" spans="1:91" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -43952,11 +44190,15 @@
       <c r="CI126" s="11">
         <v>-50.068491696371105</v>
       </c>
-      <c r="CJ126" s="11"/>
+      <c r="CJ126" s="11">
+        <v>69.29797971692625</v>
+      </c>
       <c r="CK126" s="11"/>
       <c r="CL126" s="11"/>
+      <c r="CM126" s="11"/>
+      <c r="CN126" s="11"/>
     </row>
-    <row r="127" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -44218,11 +44460,15 @@
       <c r="CI127" s="11">
         <v>0.75993367095053088</v>
       </c>
-      <c r="CJ127" s="11"/>
+      <c r="CJ127" s="11">
+        <v>0.24751856431083752</v>
+      </c>
       <c r="CK127" s="11"/>
       <c r="CL127" s="11"/>
+      <c r="CM127" s="11"/>
+      <c r="CN127" s="11"/>
     </row>
-    <row r="128" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -44484,11 +44730,15 @@
       <c r="CI128" s="11">
         <v>-3.7960324809930484</v>
       </c>
-      <c r="CJ128" s="11"/>
+      <c r="CJ128" s="11">
+        <v>-3.7902374038761764</v>
+      </c>
       <c r="CK128" s="11"/>
       <c r="CL128" s="11"/>
+      <c r="CM128" s="11"/>
+      <c r="CN128" s="11"/>
     </row>
-    <row r="129" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -44750,11 +45000,15 @@
       <c r="CI129" s="11">
         <v>-1.9651514048933905</v>
       </c>
-      <c r="CJ129" s="11"/>
+      <c r="CJ129" s="11">
+        <v>4.2006800414762893</v>
+      </c>
       <c r="CK129" s="11"/>
       <c r="CL129" s="11"/>
+      <c r="CM129" s="11"/>
+      <c r="CN129" s="11"/>
     </row>
-    <row r="130" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -45016,11 +45270,15 @@
       <c r="CI130" s="11">
         <v>-7.1725406630102952</v>
       </c>
-      <c r="CJ130" s="11"/>
+      <c r="CJ130" s="11">
+        <v>-1.0445785450496743</v>
+      </c>
       <c r="CK130" s="11"/>
       <c r="CL130" s="11"/>
+      <c r="CM130" s="11"/>
+      <c r="CN130" s="11"/>
     </row>
-    <row r="131" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -45282,11 +45540,15 @@
       <c r="CI131" s="11">
         <v>0.86143673163500978</v>
       </c>
-      <c r="CJ131" s="11"/>
+      <c r="CJ131" s="11">
+        <v>0.27114808386339462</v>
+      </c>
       <c r="CK131" s="11"/>
       <c r="CL131" s="11"/>
+      <c r="CM131" s="11"/>
+      <c r="CN131" s="11"/>
     </row>
-    <row r="132" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -45548,11 +45810,15 @@
       <c r="CI132" s="11">
         <v>-0.57097249981032405</v>
       </c>
-      <c r="CJ132" s="11"/>
+      <c r="CJ132" s="11">
+        <v>1.100036250429028</v>
+      </c>
       <c r="CK132" s="11"/>
       <c r="CL132" s="11"/>
+      <c r="CM132" s="11"/>
+      <c r="CN132" s="11"/>
     </row>
-    <row r="133" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -45814,11 +46080,15 @@
       <c r="CI133" s="11">
         <v>1.4029579813338273</v>
       </c>
-      <c r="CJ133" s="11"/>
+      <c r="CJ133" s="11">
+        <v>8.1970398468051116</v>
+      </c>
       <c r="CK133" s="11"/>
       <c r="CL133" s="11"/>
+      <c r="CM133" s="11"/>
+      <c r="CN133" s="11"/>
     </row>
-    <row r="134" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -46080,11 +46350,15 @@
       <c r="CI134" s="11">
         <v>-1.2962882171162988</v>
       </c>
-      <c r="CJ134" s="11"/>
+      <c r="CJ134" s="11">
+        <v>17.49866024980642</v>
+      </c>
       <c r="CK134" s="11"/>
       <c r="CL134" s="11"/>
+      <c r="CM134" s="11"/>
+      <c r="CN134" s="11"/>
     </row>
-    <row r="135" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -46346,11 +46620,15 @@
       <c r="CI135" s="11">
         <v>-1.041750053708185</v>
       </c>
-      <c r="CJ135" s="11"/>
+      <c r="CJ135" s="11">
+        <v>1.7859387003316982</v>
+      </c>
       <c r="CK135" s="11"/>
       <c r="CL135" s="11"/>
+      <c r="CM135" s="11"/>
+      <c r="CN135" s="11"/>
     </row>
-    <row r="136" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -46610,13 +46888,17 @@
         <v>1.2800471690138409</v>
       </c>
       <c r="CI136" s="11">
-        <v>-4.8375585647435315</v>
-      </c>
-      <c r="CJ136" s="11"/>
+        <v>-4.8284378236112104</v>
+      </c>
+      <c r="CJ136" s="11">
+        <v>1.0886932326595229</v>
+      </c>
       <c r="CK136" s="11"/>
       <c r="CL136" s="11"/>
+      <c r="CM136" s="11"/>
+      <c r="CN136" s="11"/>
     </row>
-    <row r="137" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -46878,11 +47160,15 @@
       <c r="CI137" s="11">
         <v>2.2767490493392586</v>
       </c>
-      <c r="CJ137" s="11"/>
+      <c r="CJ137" s="11">
+        <v>4.7835917492750326</v>
+      </c>
       <c r="CK137" s="11"/>
       <c r="CL137" s="11"/>
+      <c r="CM137" s="11"/>
+      <c r="CN137" s="11"/>
     </row>
-    <row r="138" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -47144,11 +47430,15 @@
       <c r="CI138" s="11">
         <v>7.8239322767726662</v>
       </c>
-      <c r="CJ138" s="11"/>
+      <c r="CJ138" s="11">
+        <v>6.3944630807825149</v>
+      </c>
       <c r="CK138" s="11"/>
       <c r="CL138" s="11"/>
+      <c r="CM138" s="11"/>
+      <c r="CN138" s="11"/>
     </row>
-    <row r="139" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -47410,11 +47700,15 @@
       <c r="CI139" s="11">
         <v>4.7646660438733335</v>
       </c>
-      <c r="CJ139" s="11"/>
+      <c r="CJ139" s="11">
+        <v>5.0160992207169954</v>
+      </c>
       <c r="CK139" s="11"/>
       <c r="CL139" s="11"/>
+      <c r="CM139" s="11"/>
+      <c r="CN139" s="11"/>
     </row>
-    <row r="140" spans="1:90" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -47674,13 +47968,17 @@
         <v>4.3088911676618835</v>
       </c>
       <c r="CI140" s="11">
-        <v>-15.543424816689907</v>
-      </c>
-      <c r="CJ140" s="11"/>
+        <v>-14.326990475492678</v>
+      </c>
+      <c r="CJ140" s="11">
+        <v>-1.252457194352985E-2</v>
+      </c>
       <c r="CK140" s="11"/>
       <c r="CL140" s="11"/>
+      <c r="CM140" s="11"/>
+      <c r="CN140" s="11"/>
     </row>
-    <row r="141" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -47940,13 +48238,17 @@
         <v>-5.7964336674048837</v>
       </c>
       <c r="CI141" s="11">
-        <v>-2.3454946374387333</v>
-      </c>
-      <c r="CJ141" s="11"/>
+        <v>-2.351378288908478</v>
+      </c>
+      <c r="CJ141" s="11">
+        <v>-2.1870372395155897</v>
+      </c>
       <c r="CK141" s="11"/>
       <c r="CL141" s="11"/>
+      <c r="CM141" s="11"/>
+      <c r="CN141" s="11"/>
     </row>
-    <row r="142" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -48208,12 +48510,16 @@
       <c r="CI142" s="11">
         <v>4.6767933738564409</v>
       </c>
-      <c r="CJ142" s="11"/>
+      <c r="CJ142" s="11">
+        <v>4.027100847874479</v>
+      </c>
       <c r="CK142" s="11"/>
       <c r="CL142" s="11"/>
+      <c r="CM142" s="11"/>
+      <c r="CN142" s="11"/>
     </row>
-    <row r="143" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:90" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -48473,13 +48779,17 @@
         <v>0.16918347759499852</v>
       </c>
       <c r="CI144" s="11">
-        <v>0.19869540788812401</v>
-      </c>
-      <c r="CJ144" s="11"/>
+        <v>0.22979282943775559</v>
+      </c>
+      <c r="CJ144" s="11">
+        <v>2.2394585690328199</v>
+      </c>
       <c r="CK144" s="11"/>
       <c r="CL144" s="11"/>
+      <c r="CM144" s="11"/>
+      <c r="CN144" s="11"/>
     </row>
-    <row r="145" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -48571,181 +48881,183 @@
       <c r="CK145" s="10"/>
       <c r="CL145" s="10"/>
       <c r="CM145" s="10"/>
+      <c r="CN145" s="10"/>
     </row>
-    <row r="146" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="14">
+      <c r="B156" s="13">
         <v>2000</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14">
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13">
         <v>2001</v>
       </c>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14">
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13">
         <v>2002</v>
       </c>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="14">
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13">
         <v>2003</v>
       </c>
-      <c r="O156" s="14"/>
-      <c r="P156" s="14"/>
-      <c r="Q156" s="14"/>
-      <c r="R156" s="14">
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13">
         <v>2004</v>
       </c>
-      <c r="S156" s="14"/>
-      <c r="T156" s="14"/>
-      <c r="U156" s="14"/>
-      <c r="V156" s="14">
+      <c r="S156" s="13"/>
+      <c r="T156" s="13"/>
+      <c r="U156" s="13"/>
+      <c r="V156" s="13">
         <v>2005</v>
       </c>
-      <c r="W156" s="14"/>
-      <c r="X156" s="14"/>
-      <c r="Y156" s="14"/>
-      <c r="Z156" s="14">
+      <c r="W156" s="13"/>
+      <c r="X156" s="13"/>
+      <c r="Y156" s="13"/>
+      <c r="Z156" s="13">
         <v>2006</v>
       </c>
-      <c r="AA156" s="14"/>
-      <c r="AB156" s="14"/>
-      <c r="AC156" s="14"/>
-      <c r="AD156" s="14">
+      <c r="AA156" s="13"/>
+      <c r="AB156" s="13"/>
+      <c r="AC156" s="13"/>
+      <c r="AD156" s="13">
         <v>2007</v>
       </c>
-      <c r="AE156" s="14"/>
-      <c r="AF156" s="14"/>
-      <c r="AG156" s="14"/>
-      <c r="AH156" s="14">
+      <c r="AE156" s="13"/>
+      <c r="AF156" s="13"/>
+      <c r="AG156" s="13"/>
+      <c r="AH156" s="13">
         <v>2008</v>
       </c>
-      <c r="AI156" s="14"/>
-      <c r="AJ156" s="14"/>
-      <c r="AK156" s="14"/>
-      <c r="AL156" s="14">
+      <c r="AI156" s="13"/>
+      <c r="AJ156" s="13"/>
+      <c r="AK156" s="13"/>
+      <c r="AL156" s="13">
         <v>2009</v>
       </c>
-      <c r="AM156" s="14"/>
-      <c r="AN156" s="14"/>
-      <c r="AO156" s="14"/>
-      <c r="AP156" s="14">
+      <c r="AM156" s="13"/>
+      <c r="AN156" s="13"/>
+      <c r="AO156" s="13"/>
+      <c r="AP156" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ156" s="14"/>
-      <c r="AR156" s="14"/>
-      <c r="AS156" s="14"/>
-      <c r="AT156" s="14">
+      <c r="AQ156" s="13"/>
+      <c r="AR156" s="13"/>
+      <c r="AS156" s="13"/>
+      <c r="AT156" s="13">
         <v>2011</v>
       </c>
-      <c r="AU156" s="14"/>
-      <c r="AV156" s="14"/>
-      <c r="AW156" s="14"/>
-      <c r="AX156" s="14">
+      <c r="AU156" s="13"/>
+      <c r="AV156" s="13"/>
+      <c r="AW156" s="13"/>
+      <c r="AX156" s="13">
         <v>2012</v>
       </c>
-      <c r="AY156" s="14"/>
-      <c r="AZ156" s="14"/>
-      <c r="BA156" s="14"/>
-      <c r="BB156" s="14">
+      <c r="AY156" s="13"/>
+      <c r="AZ156" s="13"/>
+      <c r="BA156" s="13"/>
+      <c r="BB156" s="13">
         <v>2013</v>
       </c>
-      <c r="BC156" s="14"/>
-      <c r="BD156" s="14"/>
-      <c r="BE156" s="14"/>
-      <c r="BF156" s="14">
+      <c r="BC156" s="13"/>
+      <c r="BD156" s="13"/>
+      <c r="BE156" s="13"/>
+      <c r="BF156" s="13">
         <v>2014</v>
       </c>
-      <c r="BG156" s="14"/>
-      <c r="BH156" s="14"/>
-      <c r="BI156" s="14"/>
-      <c r="BJ156" s="14">
+      <c r="BG156" s="13"/>
+      <c r="BH156" s="13"/>
+      <c r="BI156" s="13"/>
+      <c r="BJ156" s="13">
         <v>2015</v>
       </c>
-      <c r="BK156" s="14"/>
-      <c r="BL156" s="14"/>
-      <c r="BM156" s="14"/>
-      <c r="BN156" s="14">
+      <c r="BK156" s="13"/>
+      <c r="BL156" s="13"/>
+      <c r="BM156" s="13"/>
+      <c r="BN156" s="13">
         <v>2016</v>
       </c>
-      <c r="BO156" s="14"/>
-      <c r="BP156" s="14"/>
-      <c r="BQ156" s="14"/>
-      <c r="BR156" s="14">
+      <c r="BO156" s="13"/>
+      <c r="BP156" s="13"/>
+      <c r="BQ156" s="13"/>
+      <c r="BR156" s="13">
         <v>2017</v>
       </c>
-      <c r="BS156" s="14"/>
-      <c r="BT156" s="14"/>
-      <c r="BU156" s="14"/>
-      <c r="BV156" s="14">
+      <c r="BS156" s="13"/>
+      <c r="BT156" s="13"/>
+      <c r="BU156" s="13"/>
+      <c r="BV156" s="13">
         <v>2018</v>
       </c>
-      <c r="BW156" s="14"/>
-      <c r="BX156" s="14"/>
-      <c r="BY156" s="14"/>
-      <c r="BZ156" s="14">
+      <c r="BW156" s="13"/>
+      <c r="BX156" s="13"/>
+      <c r="BY156" s="13"/>
+      <c r="BZ156" s="13">
         <v>2019</v>
       </c>
-      <c r="CA156" s="14"/>
-      <c r="CB156" s="14"/>
-      <c r="CC156" s="14"/>
-      <c r="CD156" s="14">
+      <c r="CA156" s="13"/>
+      <c r="CB156" s="13"/>
+      <c r="CC156" s="13"/>
+      <c r="CD156" s="13">
         <v>2020</v>
       </c>
-      <c r="CE156" s="14"/>
-      <c r="CF156" s="14"/>
-      <c r="CG156" s="14"/>
-      <c r="CH156" s="14">
+      <c r="CE156" s="13"/>
+      <c r="CF156" s="13"/>
+      <c r="CG156" s="13"/>
+      <c r="CH156" s="13">
         <v>2021</v>
       </c>
-      <c r="CI156" s="14"/>
-      <c r="CJ156" s="14"/>
-      <c r="CK156" s="14"/>
-      <c r="CL156" s="14">
+      <c r="CI156" s="13"/>
+      <c r="CJ156" s="13"/>
+      <c r="CK156" s="13"/>
+      <c r="CL156" s="13">
         <v>2022</v>
       </c>
-      <c r="CM156" s="14"/>
+      <c r="CM156" s="13"/>
+      <c r="CN156" s="13"/>
     </row>
-    <row r="157" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -49019,11 +49331,14 @@
       <c r="CM157" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="CN157" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="158" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -49295,10 +49610,13 @@
         <v>96.91462012291791</v>
       </c>
       <c r="CM159" s="11">
-        <v>91.249804091315482</v>
+        <v>91.249804091315511</v>
+      </c>
+      <c r="CN159" s="11">
+        <v>84.166032863989031</v>
       </c>
     </row>
-    <row r="160" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -49570,10 +49888,13 @@
         <v>116.48761484978829</v>
       </c>
       <c r="CM160" s="11">
-        <v>114.95255892546643</v>
+        <v>114.27373461737469</v>
+      </c>
+      <c r="CN160" s="11">
+        <v>118.07483007597521</v>
       </c>
     </row>
-    <row r="161" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -49847,8 +50168,11 @@
       <c r="CM161" s="11">
         <v>138.35544094285771</v>
       </c>
+      <c r="CN161" s="11">
+        <v>169.85500019157971</v>
+      </c>
     </row>
-    <row r="162" spans="1:91" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -50122,8 +50446,11 @@
       <c r="CM162" s="11">
         <v>78.282590447997961</v>
       </c>
+      <c r="CN162" s="11">
+        <v>342.96223912087396</v>
+      </c>
     </row>
-    <row r="163" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -50397,8 +50724,11 @@
       <c r="CM163" s="11">
         <v>100.26407681837881</v>
       </c>
+      <c r="CN163" s="11">
+        <v>95.227918634738955</v>
+      </c>
     </row>
-    <row r="164" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -50672,8 +51002,11 @@
       <c r="CM164" s="11">
         <v>111.688300085706</v>
       </c>
+      <c r="CN164" s="11">
+        <v>116.45572375648744</v>
+      </c>
     </row>
-    <row r="165" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -50947,8 +51280,11 @@
       <c r="CM165" s="11">
         <v>67.293238780528782</v>
       </c>
+      <c r="CN165" s="11">
+        <v>132.06207587793227</v>
+      </c>
     </row>
-    <row r="166" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -51222,8 +51558,11 @@
       <c r="CM166" s="11">
         <v>142.68836584229675</v>
       </c>
+      <c r="CN166" s="11">
+        <v>98.872552100295678</v>
+      </c>
     </row>
-    <row r="167" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -51495,10 +51834,13 @@
         <v>95.088472257642394</v>
       </c>
       <c r="CM167" s="11">
-        <v>105.68904328834969</v>
+        <v>95.121780653887086</v>
+      </c>
+      <c r="CN167" s="11">
+        <v>154.6949205520753</v>
       </c>
     </row>
-    <row r="168" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -51772,8 +52114,11 @@
       <c r="CM168" s="11">
         <v>102.54471021675218</v>
       </c>
+      <c r="CN168" s="11">
+        <v>105.9696254178089</v>
+      </c>
     </row>
-    <row r="169" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -52047,8 +52392,11 @@
       <c r="CM169" s="11">
         <v>55.40140822894498</v>
       </c>
+      <c r="CN169" s="11">
+        <v>115.39683787202594</v>
+      </c>
     </row>
-    <row r="170" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -52322,8 +52670,11 @@
       <c r="CM170" s="11">
         <v>60.25517120150645</v>
       </c>
+      <c r="CN170" s="11">
+        <v>138.81668209449828</v>
+      </c>
     </row>
-    <row r="171" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -52597,8 +52948,11 @@
       <c r="CM171" s="11">
         <v>40.7406655630123</v>
       </c>
+      <c r="CN171" s="11">
+        <v>150.25865216989723</v>
+      </c>
     </row>
-    <row r="172" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -52870,10 +53224,13 @@
         <v>101.07394536236262</v>
       </c>
       <c r="CM172" s="11">
-        <v>79.033356398677697</v>
+        <v>78.8376513108675</v>
+      </c>
+      <c r="CN172" s="11">
+        <v>146.09572634742861</v>
       </c>
     </row>
-    <row r="173" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -53147,8 +53504,11 @@
       <c r="CM173" s="11">
         <v>170.45210514201131</v>
       </c>
+      <c r="CN173" s="11">
+        <v>167.59799896805291</v>
+      </c>
     </row>
-    <row r="174" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -53422,8 +53782,11 @@
       <c r="CM174" s="11">
         <v>110.61455439573034</v>
       </c>
+      <c r="CN174" s="11">
+        <v>123.89214260448212</v>
+      </c>
     </row>
-    <row r="175" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -53697,8 +54060,11 @@
       <c r="CM175" s="11">
         <v>88.919034501513394</v>
       </c>
+      <c r="CN175" s="11">
+        <v>101.46451947025396</v>
+      </c>
     </row>
-    <row r="176" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -53970,10 +54336,13 @@
         <v>50.682401488866702</v>
       </c>
       <c r="CM176" s="11">
-        <v>41.616863366719784</v>
+        <v>41.52986085509496</v>
+      </c>
+      <c r="CN176" s="11">
+        <v>41.23249452092027</v>
       </c>
     </row>
-    <row r="177" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -54245,10 +54614,13 @@
         <v>126.44937918590674</v>
       </c>
       <c r="CM177" s="11">
-        <v>131.68297266803168</v>
+        <v>133.25635413023804</v>
+      </c>
+      <c r="CN177" s="11">
+        <v>135.31130764476615</v>
       </c>
     </row>
-    <row r="178" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -54522,9 +54894,12 @@
       <c r="CM178" s="11">
         <v>138.10486328172698</v>
       </c>
+      <c r="CN178" s="11">
+        <v>90.819850045424431</v>
+      </c>
     </row>
-    <row r="179" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -54796,10 +55171,13 @@
         <v>114.94069371530964</v>
       </c>
       <c r="CM180" s="11">
-        <v>115.2489948536319</v>
+        <v>115.24886758397304</v>
+      </c>
+      <c r="CN180" s="11">
+        <v>119.21282922176646</v>
       </c>
     </row>
-    <row r="181" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -54891,184 +55269,186 @@
       <c r="CK181" s="10"/>
       <c r="CL181" s="10"/>
       <c r="CM181" s="10"/>
+      <c r="CN181" s="10"/>
     </row>
-    <row r="182" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="188" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="B193" s="14">
+      <c r="B193" s="13">
         <v>2000</v>
       </c>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14">
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13">
         <v>2001</v>
       </c>
-      <c r="G193" s="14"/>
-      <c r="H193" s="14"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14">
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13">
         <v>2002</v>
       </c>
-      <c r="K193" s="14"/>
-      <c r="L193" s="14"/>
-      <c r="M193" s="14"/>
-      <c r="N193" s="14">
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13">
         <v>2003</v>
       </c>
-      <c r="O193" s="14"/>
-      <c r="P193" s="14"/>
-      <c r="Q193" s="14"/>
-      <c r="R193" s="14">
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13">
         <v>2004</v>
       </c>
-      <c r="S193" s="14"/>
-      <c r="T193" s="14"/>
-      <c r="U193" s="14"/>
-      <c r="V193" s="14">
+      <c r="S193" s="13"/>
+      <c r="T193" s="13"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="13">
         <v>2005</v>
       </c>
-      <c r="W193" s="14"/>
-      <c r="X193" s="14"/>
-      <c r="Y193" s="14"/>
-      <c r="Z193" s="14">
+      <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
+      <c r="Z193" s="13">
         <v>2006</v>
       </c>
-      <c r="AA193" s="14"/>
-      <c r="AB193" s="14"/>
-      <c r="AC193" s="14"/>
-      <c r="AD193" s="14">
+      <c r="AA193" s="13"/>
+      <c r="AB193" s="13"/>
+      <c r="AC193" s="13"/>
+      <c r="AD193" s="13">
         <v>2007</v>
       </c>
-      <c r="AE193" s="14"/>
-      <c r="AF193" s="14"/>
-      <c r="AG193" s="14"/>
-      <c r="AH193" s="14">
+      <c r="AE193" s="13"/>
+      <c r="AF193" s="13"/>
+      <c r="AG193" s="13"/>
+      <c r="AH193" s="13">
         <v>2008</v>
       </c>
-      <c r="AI193" s="14"/>
-      <c r="AJ193" s="14"/>
-      <c r="AK193" s="14"/>
-      <c r="AL193" s="14">
+      <c r="AI193" s="13"/>
+      <c r="AJ193" s="13"/>
+      <c r="AK193" s="13"/>
+      <c r="AL193" s="13">
         <v>2009</v>
       </c>
-      <c r="AM193" s="14"/>
-      <c r="AN193" s="14"/>
-      <c r="AO193" s="14"/>
-      <c r="AP193" s="14">
+      <c r="AM193" s="13"/>
+      <c r="AN193" s="13"/>
+      <c r="AO193" s="13"/>
+      <c r="AP193" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ193" s="14"/>
-      <c r="AR193" s="14"/>
-      <c r="AS193" s="14"/>
-      <c r="AT193" s="14">
+      <c r="AQ193" s="13"/>
+      <c r="AR193" s="13"/>
+      <c r="AS193" s="13"/>
+      <c r="AT193" s="13">
         <v>2011</v>
       </c>
-      <c r="AU193" s="14"/>
-      <c r="AV193" s="14"/>
-      <c r="AW193" s="14"/>
-      <c r="AX193" s="14">
+      <c r="AU193" s="13"/>
+      <c r="AV193" s="13"/>
+      <c r="AW193" s="13"/>
+      <c r="AX193" s="13">
         <v>2012</v>
       </c>
-      <c r="AY193" s="14"/>
-      <c r="AZ193" s="14"/>
-      <c r="BA193" s="14"/>
-      <c r="BB193" s="14">
+      <c r="AY193" s="13"/>
+      <c r="AZ193" s="13"/>
+      <c r="BA193" s="13"/>
+      <c r="BB193" s="13">
         <v>2013</v>
       </c>
-      <c r="BC193" s="14"/>
-      <c r="BD193" s="14"/>
-      <c r="BE193" s="14"/>
-      <c r="BF193" s="14">
+      <c r="BC193" s="13"/>
+      <c r="BD193" s="13"/>
+      <c r="BE193" s="13"/>
+      <c r="BF193" s="13">
         <v>2014</v>
       </c>
-      <c r="BG193" s="14"/>
-      <c r="BH193" s="14"/>
-      <c r="BI193" s="14"/>
-      <c r="BJ193" s="14">
+      <c r="BG193" s="13"/>
+      <c r="BH193" s="13"/>
+      <c r="BI193" s="13"/>
+      <c r="BJ193" s="13">
         <v>2015</v>
       </c>
-      <c r="BK193" s="14"/>
-      <c r="BL193" s="14"/>
-      <c r="BM193" s="14"/>
-      <c r="BN193" s="14">
+      <c r="BK193" s="13"/>
+      <c r="BL193" s="13"/>
+      <c r="BM193" s="13"/>
+      <c r="BN193" s="13">
         <v>2016</v>
       </c>
-      <c r="BO193" s="14"/>
-      <c r="BP193" s="14"/>
-      <c r="BQ193" s="14"/>
-      <c r="BR193" s="14">
+      <c r="BO193" s="13"/>
+      <c r="BP193" s="13"/>
+      <c r="BQ193" s="13"/>
+      <c r="BR193" s="13">
         <v>2017</v>
       </c>
-      <c r="BS193" s="14"/>
-      <c r="BT193" s="14"/>
-      <c r="BU193" s="14"/>
-      <c r="BV193" s="14">
+      <c r="BS193" s="13"/>
+      <c r="BT193" s="13"/>
+      <c r="BU193" s="13"/>
+      <c r="BV193" s="13">
         <v>2018</v>
       </c>
-      <c r="BW193" s="14"/>
-      <c r="BX193" s="14"/>
-      <c r="BY193" s="14"/>
-      <c r="BZ193" s="14">
+      <c r="BW193" s="13"/>
+      <c r="BX193" s="13"/>
+      <c r="BY193" s="13"/>
+      <c r="BZ193" s="13">
         <v>2019</v>
       </c>
-      <c r="CA193" s="14"/>
-      <c r="CB193" s="14"/>
-      <c r="CC193" s="14"/>
-      <c r="CD193" s="14">
+      <c r="CA193" s="13"/>
+      <c r="CB193" s="13"/>
+      <c r="CC193" s="13"/>
+      <c r="CD193" s="13">
         <v>2020</v>
       </c>
-      <c r="CE193" s="14"/>
-      <c r="CF193" s="14"/>
-      <c r="CG193" s="14"/>
-      <c r="CH193" s="14">
+      <c r="CE193" s="13"/>
+      <c r="CF193" s="13"/>
+      <c r="CG193" s="13"/>
+      <c r="CH193" s="13">
         <v>2021</v>
       </c>
-      <c r="CI193" s="14"/>
-      <c r="CJ193" s="14"/>
-      <c r="CK193" s="14"/>
-      <c r="CL193" s="14">
+      <c r="CI193" s="13"/>
+      <c r="CJ193" s="13"/>
+      <c r="CK193" s="13"/>
+      <c r="CL193" s="13">
         <v>2022</v>
       </c>
-      <c r="CM193" s="14"/>
+      <c r="CM193" s="13"/>
+      <c r="CN193" s="13"/>
     </row>
-    <row r="194" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -55342,11 +55722,14 @@
       <c r="CM194" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="CN194" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="195" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
     </row>
-    <row r="196" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -55618,10 +56001,13 @@
         <v>17.64880149193614</v>
       </c>
       <c r="CM196" s="11">
-        <v>15.466861981616024</v>
+        <v>15.46238200127989</v>
+      </c>
+      <c r="CN196" s="11">
+        <v>12.430571155398269</v>
       </c>
     </row>
-    <row r="197" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -55893,10 +56279,13 @@
         <v>7.2369400317893131</v>
       </c>
       <c r="CM197" s="11">
-        <v>4.779717305454553</v>
+        <v>4.7782503117784199</v>
+      </c>
+      <c r="CN197" s="11">
+        <v>7.3203051615522376</v>
       </c>
     </row>
-    <row r="198" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -56168,10 +56557,13 @@
         <v>4.5126951540625466</v>
       </c>
       <c r="CM198" s="11">
-        <v>3.8960184163381579</v>
+        <v>3.8948139338151293</v>
+      </c>
+      <c r="CN198" s="11">
+        <v>7.6844744871065904</v>
       </c>
     </row>
-    <row r="199" spans="1:91" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -56443,10 +56835,13 @@
         <v>2.2742463891968598</v>
       </c>
       <c r="CM199" s="11">
-        <v>0.93723289780420194</v>
+        <v>0.93694314541476809</v>
+      </c>
+      <c r="CN199" s="11">
+        <v>0.66832107461987933</v>
       </c>
     </row>
-    <row r="200" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -56718,10 +57113,13 @@
         <v>7.0140244346003051</v>
       </c>
       <c r="CM200" s="11">
-        <v>7.1224956613723105</v>
+        <v>7.1202936898650675</v>
+      </c>
+      <c r="CN200" s="11">
+        <v>6.9174819058508321</v>
       </c>
     </row>
-    <row r="201" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -56993,10 +57391,13 @@
         <v>1.0554306050351356</v>
       </c>
       <c r="CM201" s="11">
-        <v>4.2109863617083638</v>
+        <v>4.2096845045466731</v>
+      </c>
+      <c r="CN201" s="11">
+        <v>0.54790819585351702</v>
       </c>
     </row>
-    <row r="202" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -57268,10 +57669,13 @@
         <v>1.4372383595184537</v>
       </c>
       <c r="CM202" s="11">
-        <v>0.89902001075954019</v>
+        <v>0.89874207216297897</v>
+      </c>
+      <c r="CN202" s="11">
+        <v>1.7846251298951652</v>
       </c>
     </row>
-    <row r="203" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -57543,10 +57947,13 @@
         <v>0.39052164888138768</v>
       </c>
       <c r="CM203" s="11">
-        <v>0.15721144191451347</v>
+        <v>0.15716283885005869</v>
+      </c>
+      <c r="CN203" s="11">
+        <v>0.11756074941200856</v>
       </c>
     </row>
-    <row r="204" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -57818,10 +58225,13 @@
         <v>0.67837732081240887</v>
       </c>
       <c r="CM204" s="11">
-        <v>1.1982153193747587</v>
+        <v>1.0780790005532348</v>
+      </c>
+      <c r="CN204" s="11">
+        <v>1.497144600875453</v>
       </c>
     </row>
-    <row r="205" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -58093,10 +58503,13 @@
         <v>0.26852600420078204</v>
       </c>
       <c r="CM205" s="11">
-        <v>0.70051730639404797</v>
+        <v>0.70030073635703471</v>
+      </c>
+      <c r="CN205" s="11">
+        <v>0.49603419558059803</v>
       </c>
     </row>
-    <row r="206" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -58368,10 +58781,13 @@
         <v>8.5928420197558419E-2</v>
       </c>
       <c r="CM206" s="11">
-        <v>5.722279339453086E-2</v>
+        <v>5.720510255039276E-2</v>
+      </c>
+      <c r="CN206" s="11">
+        <v>8.7909707316053298E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -58643,10 +59059,13 @@
         <v>7.8201439580241047E-2</v>
       </c>
       <c r="CM207" s="11">
-        <v>5.7124870667133613E-2</v>
+        <v>5.7107210096521248E-2</v>
+      </c>
+      <c r="CN207" s="11">
+        <v>9.5991772847624557E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -58918,10 +59337,13 @@
         <v>3.4885079501735347E-2</v>
       </c>
       <c r="CM208" s="11">
-        <v>3.070461415452002E-2</v>
+        <v>3.0695121598999654E-2</v>
+      </c>
+      <c r="CN208" s="11">
+        <v>6.1542909690842543E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -59193,10 +59615,13 @@
         <v>4.9849641270434359</v>
       </c>
       <c r="CM209" s="11">
-        <v>3.9112472288463414</v>
+        <v>3.9007296943009666</v>
+      </c>
+      <c r="CN209" s="11">
+        <v>5.3966880701274613</v>
       </c>
     </row>
-    <row r="210" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -59468,10 +59893,13 @@
         <v>13.399344252497997</v>
       </c>
       <c r="CM210" s="11">
-        <v>15.866677929899984</v>
+        <v>15.861772630637292</v>
+      </c>
+      <c r="CN210" s="11">
+        <v>15.605369248697501</v>
       </c>
     </row>
-    <row r="211" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -59743,10 +60171,13 @@
         <v>14.155273348853656</v>
       </c>
       <c r="CM211" s="11">
-        <v>9.345931055984682</v>
+        <v>9.343041693200572</v>
+      </c>
+      <c r="CN211" s="11">
+        <v>10.992734279059892</v>
       </c>
     </row>
-    <row r="212" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -60018,10 +60449,13 @@
         <v>3.9561907006465171</v>
       </c>
       <c r="CM212" s="11">
-        <v>3.1216477062325061</v>
+        <v>3.1206826260651632</v>
+      </c>
+      <c r="CN212" s="11">
+        <v>3.6118737688552263</v>
       </c>
     </row>
-    <row r="213" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -60293,10 +60727,13 @@
         <v>7.7049538350017682E-2</v>
       </c>
       <c r="CM213" s="11">
-        <v>5.8569965343457896E-2</v>
+        <v>5.9271015639223858E-2</v>
+      </c>
+      <c r="CN213" s="11">
+        <v>7.982371627908677E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -60568,10 +61005,13 @@
         <v>11.416599919231322</v>
       </c>
       <c r="CM214" s="11">
-        <v>13.376273408288256</v>
+        <v>13.531096429858064</v>
+      </c>
+      <c r="CN214" s="11">
+        <v>14.785992731893696</v>
       </c>
     </row>
-    <row r="215" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -60843,11 +61283,14 @@
         <v>9.2947617340641795</v>
       </c>
       <c r="CM215" s="11">
-        <v>14.806323724452131</v>
+        <v>14.801746241429559</v>
+      </c>
+      <c r="CN215" s="11">
+        <v>9.8176471390880558</v>
       </c>
     </row>
-    <row r="216" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -61121,8 +61564,11 @@
       <c r="CM217" s="11">
         <v>100</v>
       </c>
+      <c r="CN217" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -61214,186 +61660,188 @@
       <c r="CK218" s="10"/>
       <c r="CL218" s="10"/>
       <c r="CM218" s="10"/>
+      <c r="CN218" s="10"/>
     </row>
-    <row r="219" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="225" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="228" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="14">
+      <c r="B230" s="13">
         <v>2000</v>
       </c>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14">
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13">
         <v>2001</v>
       </c>
-      <c r="G230" s="14"/>
-      <c r="H230" s="14"/>
-      <c r="I230" s="14"/>
-      <c r="J230" s="14">
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13">
         <v>2002</v>
       </c>
-      <c r="K230" s="14"/>
-      <c r="L230" s="14"/>
-      <c r="M230" s="14"/>
-      <c r="N230" s="14">
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="13">
         <v>2003</v>
       </c>
-      <c r="O230" s="14"/>
-      <c r="P230" s="14"/>
-      <c r="Q230" s="14"/>
-      <c r="R230" s="14">
+      <c r="O230" s="13"/>
+      <c r="P230" s="13"/>
+      <c r="Q230" s="13"/>
+      <c r="R230" s="13">
         <v>2004</v>
       </c>
-      <c r="S230" s="14"/>
-      <c r="T230" s="14"/>
-      <c r="U230" s="14"/>
-      <c r="V230" s="14">
+      <c r="S230" s="13"/>
+      <c r="T230" s="13"/>
+      <c r="U230" s="13"/>
+      <c r="V230" s="13">
         <v>2005</v>
       </c>
-      <c r="W230" s="14"/>
-      <c r="X230" s="14"/>
-      <c r="Y230" s="14"/>
-      <c r="Z230" s="14">
+      <c r="W230" s="13"/>
+      <c r="X230" s="13"/>
+      <c r="Y230" s="13"/>
+      <c r="Z230" s="13">
         <v>2006</v>
       </c>
-      <c r="AA230" s="14"/>
-      <c r="AB230" s="14"/>
-      <c r="AC230" s="14"/>
-      <c r="AD230" s="14">
+      <c r="AA230" s="13"/>
+      <c r="AB230" s="13"/>
+      <c r="AC230" s="13"/>
+      <c r="AD230" s="13">
         <v>2007</v>
       </c>
-      <c r="AE230" s="14"/>
-      <c r="AF230" s="14"/>
-      <c r="AG230" s="14"/>
-      <c r="AH230" s="14">
+      <c r="AE230" s="13"/>
+      <c r="AF230" s="13"/>
+      <c r="AG230" s="13"/>
+      <c r="AH230" s="13">
         <v>2008</v>
       </c>
-      <c r="AI230" s="14"/>
-      <c r="AJ230" s="14"/>
-      <c r="AK230" s="14"/>
-      <c r="AL230" s="14">
+      <c r="AI230" s="13"/>
+      <c r="AJ230" s="13"/>
+      <c r="AK230" s="13"/>
+      <c r="AL230" s="13">
         <v>2009</v>
       </c>
-      <c r="AM230" s="14"/>
-      <c r="AN230" s="14"/>
-      <c r="AO230" s="14"/>
-      <c r="AP230" s="14">
+      <c r="AM230" s="13"/>
+      <c r="AN230" s="13"/>
+      <c r="AO230" s="13"/>
+      <c r="AP230" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ230" s="14"/>
-      <c r="AR230" s="14"/>
-      <c r="AS230" s="14"/>
-      <c r="AT230" s="14">
+      <c r="AQ230" s="13"/>
+      <c r="AR230" s="13"/>
+      <c r="AS230" s="13"/>
+      <c r="AT230" s="13">
         <v>2011</v>
       </c>
-      <c r="AU230" s="14"/>
-      <c r="AV230" s="14"/>
-      <c r="AW230" s="14"/>
-      <c r="AX230" s="14">
+      <c r="AU230" s="13"/>
+      <c r="AV230" s="13"/>
+      <c r="AW230" s="13"/>
+      <c r="AX230" s="13">
         <v>2012</v>
       </c>
-      <c r="AY230" s="14"/>
-      <c r="AZ230" s="14"/>
-      <c r="BA230" s="14"/>
-      <c r="BB230" s="14">
+      <c r="AY230" s="13"/>
+      <c r="AZ230" s="13"/>
+      <c r="BA230" s="13"/>
+      <c r="BB230" s="13">
         <v>2013</v>
       </c>
-      <c r="BC230" s="14"/>
-      <c r="BD230" s="14"/>
-      <c r="BE230" s="14"/>
-      <c r="BF230" s="14">
+      <c r="BC230" s="13"/>
+      <c r="BD230" s="13"/>
+      <c r="BE230" s="13"/>
+      <c r="BF230" s="13">
         <v>2014</v>
       </c>
-      <c r="BG230" s="14"/>
-      <c r="BH230" s="14"/>
-      <c r="BI230" s="14"/>
-      <c r="BJ230" s="14">
+      <c r="BG230" s="13"/>
+      <c r="BH230" s="13"/>
+      <c r="BI230" s="13"/>
+      <c r="BJ230" s="13">
         <v>2015</v>
       </c>
-      <c r="BK230" s="14"/>
-      <c r="BL230" s="14"/>
-      <c r="BM230" s="14"/>
-      <c r="BN230" s="14">
+      <c r="BK230" s="13"/>
+      <c r="BL230" s="13"/>
+      <c r="BM230" s="13"/>
+      <c r="BN230" s="13">
         <v>2016</v>
       </c>
-      <c r="BO230" s="14"/>
-      <c r="BP230" s="14"/>
-      <c r="BQ230" s="14"/>
-      <c r="BR230" s="14">
+      <c r="BO230" s="13"/>
+      <c r="BP230" s="13"/>
+      <c r="BQ230" s="13"/>
+      <c r="BR230" s="13">
         <v>2017</v>
       </c>
-      <c r="BS230" s="14"/>
-      <c r="BT230" s="14"/>
-      <c r="BU230" s="14"/>
-      <c r="BV230" s="14">
+      <c r="BS230" s="13"/>
+      <c r="BT230" s="13"/>
+      <c r="BU230" s="13"/>
+      <c r="BV230" s="13">
         <v>2018</v>
       </c>
-      <c r="BW230" s="14"/>
-      <c r="BX230" s="14"/>
-      <c r="BY230" s="14"/>
-      <c r="BZ230" s="14">
+      <c r="BW230" s="13"/>
+      <c r="BX230" s="13"/>
+      <c r="BY230" s="13"/>
+      <c r="BZ230" s="13">
         <v>2019</v>
       </c>
-      <c r="CA230" s="14"/>
-      <c r="CB230" s="14"/>
-      <c r="CC230" s="14"/>
-      <c r="CD230" s="14">
+      <c r="CA230" s="13"/>
+      <c r="CB230" s="13"/>
+      <c r="CC230" s="13"/>
+      <c r="CD230" s="13">
         <v>2020</v>
       </c>
-      <c r="CE230" s="14"/>
-      <c r="CF230" s="14"/>
-      <c r="CG230" s="14"/>
-      <c r="CH230" s="14">
+      <c r="CE230" s="13"/>
+      <c r="CF230" s="13"/>
+      <c r="CG230" s="13"/>
+      <c r="CH230" s="13">
         <v>2021</v>
       </c>
-      <c r="CI230" s="14"/>
-      <c r="CJ230" s="14"/>
-      <c r="CK230" s="14"/>
-      <c r="CL230" s="14">
+      <c r="CI230" s="13"/>
+      <c r="CJ230" s="13"/>
+      <c r="CK230" s="13"/>
+      <c r="CL230" s="13">
         <v>2022</v>
       </c>
-      <c r="CM230" s="14"/>
+      <c r="CM230" s="13"/>
+      <c r="CN230" s="13"/>
     </row>
-    <row r="231" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -61667,11 +62115,14 @@
       <c r="CM231" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="CN231" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="232" spans="1:91" s="1" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
     </row>
-    <row r="233" spans="1:91" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -61943,10 +62394,13 @@
         <v>20.931470237969041</v>
       </c>
       <c r="CM233" s="11">
-        <v>19.534730125417877</v>
+        <v>19.529050320097223</v>
+      </c>
+      <c r="CN233" s="11">
+        <v>17.606669886321125</v>
       </c>
     </row>
-    <row r="234" spans="1:91" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -62218,10 +62672,13 @@
         <v>7.1408356047344235</v>
       </c>
       <c r="CM234" s="11">
-        <v>4.7920430853158749</v>
+        <v>4.8190245930887778</v>
+      </c>
+      <c r="CN234" s="11">
+        <v>7.3908578865946319</v>
       </c>
     </row>
-    <row r="235" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -62493,10 +62950,13 @@
         <v>6.0071519940768781</v>
       </c>
       <c r="CM235" s="11">
-        <v>3.2453527187243649</v>
+        <v>3.2443458115092296</v>
+      </c>
+      <c r="CN235" s="11">
+        <v>5.3933528224497502</v>
       </c>
     </row>
-    <row r="236" spans="1:91" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -62768,10 +63228,13 @@
         <v>3.0660898578313787</v>
       </c>
       <c r="CM236" s="11">
-        <v>1.3798106168630682</v>
+        <v>1.3793825150861418</v>
+      </c>
+      <c r="CN236" s="11">
+        <v>0.23230675872129253</v>
       </c>
     </row>
-    <row r="237" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -63043,10 +63506,13 @@
         <v>6.983274876401933</v>
       </c>
       <c r="CM237" s="11">
-        <v>8.1869847294304918</v>
+        <v>8.1844446252542333</v>
+      </c>
+      <c r="CN237" s="11">
+        <v>8.6597775201822298</v>
       </c>
     </row>
-    <row r="238" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -63318,10 +63784,13 @@
         <v>1.2597108764500125</v>
       </c>
       <c r="CM238" s="11">
-        <v>4.3452353125334398</v>
+        <v>4.3438871543617852</v>
+      </c>
+      <c r="CN238" s="11">
+        <v>0.56087999863426896</v>
       </c>
     </row>
-    <row r="239" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -63593,10 +64062,13 @@
         <v>1.7065418377010786</v>
       </c>
       <c r="CM239" s="11">
-        <v>1.5396963271638233</v>
+        <v>1.5392186190453827</v>
+      </c>
+      <c r="CN239" s="11">
+        <v>1.6109864199902064</v>
       </c>
     </row>
-    <row r="240" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -63868,10 +64340,13 @@
         <v>0.52825280736786906</v>
       </c>
       <c r="CM240" s="11">
-        <v>0.12697924286387058</v>
+        <v>0.12693984612431919</v>
+      </c>
+      <c r="CN240" s="11">
+        <v>0.14174560325519042</v>
       </c>
     </row>
-    <row r="241" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -64143,10 +64618,13 @@
         <v>0.82000644245963905</v>
       </c>
       <c r="CM241" s="11">
-        <v>1.3065981759282963</v>
+        <v>1.30619278913535</v>
+      </c>
+      <c r="CN241" s="11">
+        <v>1.1537472787567922</v>
       </c>
     </row>
-    <row r="242" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -64418,10 +64896,13 @@
         <v>0.20615925553138836</v>
       </c>
       <c r="CM242" s="11">
-        <v>0.78730453544446843</v>
+        <v>0.78706026534936491</v>
+      </c>
+      <c r="CN242" s="11">
+        <v>0.55802443023421622</v>
       </c>
     </row>
-    <row r="243" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -64693,10 +65174,13 @@
         <v>0.13865475839308514</v>
       </c>
       <c r="CM243" s="11">
-        <v>0.11903793842538421</v>
+        <v>0.11900100556493311</v>
+      </c>
+      <c r="CN243" s="11">
+        <v>9.0816742628825942E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -64968,10 +65452,13 @@
         <v>0.10542755480833323</v>
       </c>
       <c r="CM244" s="11">
-        <v>0.10926172466615233</v>
+        <v>0.10922782498607453</v>
+      </c>
+      <c r="CN244" s="11">
+        <v>8.2435703335629593E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -65243,10 +65730,13 @@
         <v>6.2416091819280838E-2</v>
       </c>
       <c r="CM245" s="11">
-        <v>8.6858569190625332E-2</v>
+        <v>8.6831620341734514E-2</v>
+      </c>
+      <c r="CN245" s="11">
+        <v>4.8827167533017704E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -65518,10 +66008,13 @@
         <v>5.6688717636787436</v>
       </c>
       <c r="CM246" s="11">
-        <v>5.7035071302645033</v>
+        <v>5.7022840298312412</v>
+      </c>
+      <c r="CN246" s="11">
+        <v>4.4036500543300994</v>
       </c>
     </row>
-    <row r="247" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -65793,10 +66286,13 @@
         <v>10.288043581787766</v>
       </c>
       <c r="CM247" s="11">
-        <v>10.728049862240033</v>
+        <v>10.724721364000601</v>
+      </c>
+      <c r="CN247" s="11">
+        <v>11.100133835978541</v>
       </c>
     </row>
-    <row r="248" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -66068,10 +66564,13 @@
         <v>11.341813600216879</v>
       </c>
       <c r="CM248" s="11">
-        <v>9.7374994281507732</v>
+        <v>9.7344782593345158</v>
+      </c>
+      <c r="CN248" s="11">
+        <v>10.577546943178099</v>
       </c>
     </row>
-    <row r="249" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -66343,10 +66842,13 @@
         <v>4.2513614108842486</v>
       </c>
       <c r="CM249" s="11">
-        <v>4.0460039005969941</v>
+        <v>4.0447485823394533</v>
+      </c>
+      <c r="CN249" s="11">
+        <v>4.2436675699562967</v>
       </c>
     </row>
-    <row r="250" spans="1:91" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -66618,10 +67120,13 @@
         <v>0.17473772213301286</v>
       </c>
       <c r="CM250" s="11">
-        <v>0.16219698190526122</v>
+        <v>0.16448206886141004</v>
+      </c>
+      <c r="CN250" s="11">
+        <v>0.23078911832019616</v>
       </c>
     </row>
-    <row r="251" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -66893,10 +67398,13 @@
         <v>10.377527537381928</v>
       </c>
       <c r="CM251" s="11">
-        <v>11.70692029469074</v>
+        <v>11.702582971664983</v>
+      </c>
+      <c r="CN251" s="11">
+        <v>13.026849397162735</v>
       </c>
     </row>
-    <row r="252" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -67168,11 +67676,14 @@
         <v>8.9416521883730802</v>
       </c>
       <c r="CM252" s="11">
-        <v>12.355929300183968</v>
+        <v>12.352095734023266</v>
+      </c>
+      <c r="CN252" s="11">
+        <v>12.886934862436867</v>
       </c>
     </row>
-    <row r="253" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:91" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -67446,8 +67957,11 @@
       <c r="CM254" s="11">
         <v>100</v>
       </c>
+      <c r="CN254" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:91" s="1" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -67539,13 +68053,14 @@
       <c r="CK255" s="10"/>
       <c r="CL255" s="10"/>
       <c r="CM255" s="10"/>
+      <c r="CN255" s="10"/>
     </row>
-    <row r="256" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:91" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:92" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -67565,8 +68080,9 @@
       <c r="CK257" s="7"/>
       <c r="CL257" s="7"/>
       <c r="CM257" s="7"/>
+      <c r="CN257" s="7"/>
     </row>
-    <row r="258" spans="1:91" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:92" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -67586,85 +68102,69 @@
       <c r="CK258" s="7"/>
       <c r="CL258" s="7"/>
       <c r="CM258" s="7"/>
+      <c r="CN258" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="J230:M230"/>
-    <mergeCell ref="N230:Q230"/>
-    <mergeCell ref="R230:U230"/>
-    <mergeCell ref="AX193:BA193"/>
-    <mergeCell ref="AP230:AS230"/>
-    <mergeCell ref="AT230:AW230"/>
-    <mergeCell ref="AX230:BA230"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="J193:M193"/>
-    <mergeCell ref="N193:Q193"/>
-    <mergeCell ref="R193:U193"/>
-    <mergeCell ref="N156:Q156"/>
-    <mergeCell ref="R156:U156"/>
-    <mergeCell ref="V156:Y156"/>
-    <mergeCell ref="Z156:AC156"/>
-    <mergeCell ref="AD156:AG156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="BB230:BE230"/>
-    <mergeCell ref="BF230:BI230"/>
-    <mergeCell ref="V230:Y230"/>
-    <mergeCell ref="Z230:AC230"/>
-    <mergeCell ref="AD230:AG230"/>
-    <mergeCell ref="AH230:AK230"/>
-    <mergeCell ref="AL230:AO230"/>
-    <mergeCell ref="AL156:AO156"/>
-    <mergeCell ref="AP156:AS156"/>
-    <mergeCell ref="AT156:AW156"/>
-    <mergeCell ref="AX156:BA156"/>
-    <mergeCell ref="BB193:BE193"/>
-    <mergeCell ref="BF193:BI193"/>
-    <mergeCell ref="BJ193:BM193"/>
-    <mergeCell ref="V193:Y193"/>
-    <mergeCell ref="Z193:AC193"/>
-    <mergeCell ref="AD193:AG193"/>
-    <mergeCell ref="AH193:AK193"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:Y120"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="AD120:AG120"/>
-    <mergeCell ref="AH120:AK120"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="BJ230:BM230"/>
-    <mergeCell ref="BN230:BQ230"/>
-    <mergeCell ref="BZ156:CC156"/>
-    <mergeCell ref="BR156:BU156"/>
-    <mergeCell ref="BV156:BY156"/>
-    <mergeCell ref="BF120:BI120"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="AX46:BA46"/>
-    <mergeCell ref="AL46:AO46"/>
-    <mergeCell ref="AP46:AS46"/>
-    <mergeCell ref="AT46:AW46"/>
-    <mergeCell ref="AH83:AK83"/>
-    <mergeCell ref="AL83:AO83"/>
-    <mergeCell ref="BB156:BE156"/>
-    <mergeCell ref="BF156:BI156"/>
-    <mergeCell ref="BJ156:BM156"/>
-    <mergeCell ref="BN156:BQ156"/>
-    <mergeCell ref="AL193:AO193"/>
-    <mergeCell ref="AP193:AS193"/>
-    <mergeCell ref="AT193:AW193"/>
+  <mergeCells count="161">
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL46:CN46"/>
+    <mergeCell ref="CH83:CJ83"/>
+    <mergeCell ref="CL83:CM83"/>
+    <mergeCell ref="CH120:CJ120"/>
+    <mergeCell ref="CL120:CM120"/>
+    <mergeCell ref="CL156:CN156"/>
+    <mergeCell ref="CL193:CN193"/>
+    <mergeCell ref="CL230:CN230"/>
+    <mergeCell ref="CH193:CK193"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD46:CG46"/>
+    <mergeCell ref="BN193:BQ193"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH230:CK230"/>
+    <mergeCell ref="CD193:CG193"/>
+    <mergeCell ref="CD156:CG156"/>
+    <mergeCell ref="BZ193:CC193"/>
+    <mergeCell ref="BR230:BU230"/>
+    <mergeCell ref="BR120:BU120"/>
+    <mergeCell ref="BV120:BY120"/>
+    <mergeCell ref="BZ230:CC230"/>
+    <mergeCell ref="BZ120:CC120"/>
+    <mergeCell ref="CD230:CG230"/>
+    <mergeCell ref="BR193:BU193"/>
+    <mergeCell ref="BV193:BY193"/>
+    <mergeCell ref="BV230:BY230"/>
+    <mergeCell ref="BZ83:CC83"/>
+    <mergeCell ref="BZ46:CC46"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH46:CK46"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB46:BE46"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AP120:AS120"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="AX120:BA120"/>
+    <mergeCell ref="BB120:BE120"/>
+    <mergeCell ref="BR46:BU46"/>
+    <mergeCell ref="BV46:BY46"/>
+    <mergeCell ref="AP83:AS83"/>
+    <mergeCell ref="AT83:AW83"/>
+    <mergeCell ref="AX83:BA83"/>
+    <mergeCell ref="BB83:BE83"/>
+    <mergeCell ref="BF46:BI46"/>
+    <mergeCell ref="BJ46:BM46"/>
+    <mergeCell ref="BN46:BQ46"/>
+    <mergeCell ref="BR83:BU83"/>
+    <mergeCell ref="BV83:BY83"/>
+    <mergeCell ref="BJ83:BM83"/>
+    <mergeCell ref="BN83:BQ83"/>
+    <mergeCell ref="BF83:BI83"/>
+    <mergeCell ref="CD83:CG83"/>
+    <mergeCell ref="CD120:CG120"/>
+    <mergeCell ref="CH156:CK156"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -67689,65 +68189,84 @@
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="F120:I120"/>
     <mergeCell ref="J120:M120"/>
-    <mergeCell ref="CD230:CG230"/>
-    <mergeCell ref="BR193:BU193"/>
-    <mergeCell ref="BV193:BY193"/>
-    <mergeCell ref="BV230:BY230"/>
-    <mergeCell ref="BZ83:CC83"/>
-    <mergeCell ref="BZ46:CC46"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH46:CK46"/>
-    <mergeCell ref="CD83:CG83"/>
-    <mergeCell ref="CD120:CG120"/>
-    <mergeCell ref="CH156:CK156"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB46:BE46"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AP120:AS120"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="AX120:BA120"/>
-    <mergeCell ref="BB120:BE120"/>
-    <mergeCell ref="BR46:BU46"/>
-    <mergeCell ref="BV46:BY46"/>
-    <mergeCell ref="AP83:AS83"/>
-    <mergeCell ref="AT83:AW83"/>
-    <mergeCell ref="AX83:BA83"/>
-    <mergeCell ref="BB83:BE83"/>
-    <mergeCell ref="BF46:BI46"/>
-    <mergeCell ref="BJ46:BM46"/>
-    <mergeCell ref="BN46:BQ46"/>
-    <mergeCell ref="BR83:BU83"/>
-    <mergeCell ref="BV83:BY83"/>
-    <mergeCell ref="BJ83:BM83"/>
-    <mergeCell ref="BN83:BQ83"/>
-    <mergeCell ref="BF83:BI83"/>
-    <mergeCell ref="CL230:CM230"/>
-    <mergeCell ref="CH193:CK193"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="AX46:BA46"/>
+    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="AP46:AS46"/>
+    <mergeCell ref="AT46:AW46"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="AH83:AK83"/>
+    <mergeCell ref="AL83:AO83"/>
+    <mergeCell ref="BB156:BE156"/>
+    <mergeCell ref="BF156:BI156"/>
+    <mergeCell ref="BJ156:BM156"/>
+    <mergeCell ref="BN156:BQ156"/>
+    <mergeCell ref="AL193:AO193"/>
+    <mergeCell ref="AP193:AS193"/>
+    <mergeCell ref="AT193:AW193"/>
+    <mergeCell ref="BJ193:BM193"/>
+    <mergeCell ref="BB193:BE193"/>
+    <mergeCell ref="BF193:BI193"/>
     <mergeCell ref="BJ120:BM120"/>
     <mergeCell ref="BN120:BQ120"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD46:CG46"/>
-    <mergeCell ref="BN193:BQ193"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL46:CM46"/>
-    <mergeCell ref="CH83:CI83"/>
-    <mergeCell ref="CH120:CI120"/>
-    <mergeCell ref="CL156:CM156"/>
-    <mergeCell ref="CL193:CM193"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH230:CK230"/>
-    <mergeCell ref="CD193:CG193"/>
-    <mergeCell ref="CD156:CG156"/>
-    <mergeCell ref="BZ193:CC193"/>
-    <mergeCell ref="BR230:BU230"/>
-    <mergeCell ref="BR120:BU120"/>
-    <mergeCell ref="BV120:BY120"/>
-    <mergeCell ref="BZ230:CC230"/>
-    <mergeCell ref="BZ120:CC120"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:Y120"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="AD120:AG120"/>
+    <mergeCell ref="AH120:AK120"/>
+    <mergeCell ref="BJ230:BM230"/>
+    <mergeCell ref="BN230:BQ230"/>
+    <mergeCell ref="BZ156:CC156"/>
+    <mergeCell ref="BR156:BU156"/>
+    <mergeCell ref="BV156:BY156"/>
+    <mergeCell ref="BF120:BI120"/>
+    <mergeCell ref="BB230:BE230"/>
+    <mergeCell ref="BF230:BI230"/>
+    <mergeCell ref="Z230:AC230"/>
+    <mergeCell ref="AD230:AG230"/>
+    <mergeCell ref="AH230:AK230"/>
+    <mergeCell ref="AL230:AO230"/>
+    <mergeCell ref="AL156:AO156"/>
+    <mergeCell ref="AP156:AS156"/>
+    <mergeCell ref="AT156:AW156"/>
+    <mergeCell ref="AX156:BA156"/>
+    <mergeCell ref="V193:Y193"/>
+    <mergeCell ref="Z193:AC193"/>
+    <mergeCell ref="AD193:AG193"/>
+    <mergeCell ref="AH193:AK193"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="J156:M156"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="J230:M230"/>
+    <mergeCell ref="N230:Q230"/>
+    <mergeCell ref="R230:U230"/>
+    <mergeCell ref="AX193:BA193"/>
+    <mergeCell ref="AP230:AS230"/>
+    <mergeCell ref="AT230:AW230"/>
+    <mergeCell ref="AX230:BA230"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="J193:M193"/>
+    <mergeCell ref="N193:Q193"/>
+    <mergeCell ref="R193:U193"/>
+    <mergeCell ref="N156:Q156"/>
+    <mergeCell ref="R156:U156"/>
+    <mergeCell ref="V156:Y156"/>
+    <mergeCell ref="Z156:AC156"/>
+    <mergeCell ref="AD156:AG156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="V230:Y230"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFAFF9-C577-419E-B676-598F1198EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21644494-0561-46F6-8370-CF79E7B96AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="69">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -661,13 +661,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -800,7 +800,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15167,7 +15167,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15190,7 +15190,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15219,7 +15219,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15282,7 +15282,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15311,7 +15311,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15342,7 +15342,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17736,7 +17736,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17824,7 +17824,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17845,7 +17845,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17902,7 +17902,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17919,7 +17919,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17960,7 +17960,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18007,7 +18007,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18036,7 +18036,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22453,7 +22453,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22496,7 +22496,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22610,7 +22610,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23607,7 +23607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23618,12 +23618,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CN258"/>
+  <dimension ref="A1:CO258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23670,43 +23670,43 @@
     <col min="79" max="81" width="7.88671875" style="7" customWidth="1"/>
     <col min="82" max="82" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="83" max="85" width="7.88671875" style="7" customWidth="1"/>
-    <col min="86" max="92" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="7"/>
+    <col min="86" max="93" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="13">
         <v>2000</v>
@@ -23845,8 +23845,9 @@
       </c>
       <c r="CM9" s="13"/>
       <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
     </row>
-    <row r="10" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24123,11 +24124,14 @@
       <c r="CN10" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CO10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24402,10 +24406,13 @@
         <v>74312.857413969788</v>
       </c>
       <c r="CN12" s="6">
-        <v>60322.412041435062</v>
+        <v>60338.102480430149</v>
+      </c>
+      <c r="CO12" s="6">
+        <v>133724.21586475451</v>
       </c>
     </row>
-    <row r="13" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24682,8 +24689,11 @@
       <c r="CN13" s="6">
         <v>35523.586060840986</v>
       </c>
+      <c r="CO13" s="6">
+        <v>32068.23222613195</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24960,8 +24970,11 @@
       <c r="CN14" s="6">
         <v>37290.807521087503</v>
       </c>
+      <c r="CO14" s="6">
+        <v>19850.493340803216</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:93" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25238,8 +25251,11 @@
       <c r="CN15" s="6">
         <v>3243.19282961406</v>
       </c>
+      <c r="CO15" s="6">
+        <v>19142.198981327314</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25516,8 +25532,11 @@
       <c r="CN16" s="6">
         <v>33568.786872089309</v>
       </c>
+      <c r="CO16" s="6">
+        <v>35611.666853901079</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25794,8 +25813,11 @@
       <c r="CN17" s="6">
         <v>2658.8596403152333</v>
       </c>
+      <c r="CO17" s="6">
+        <v>9551.9200277581003</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26072,8 +26094,11 @@
       <c r="CN18" s="6">
         <v>8660.3335501832444</v>
       </c>
+      <c r="CO18" s="6">
+        <v>10321.744233598143</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26350,8 +26375,11 @@
       <c r="CN19" s="6">
         <v>570.49252824166513</v>
       </c>
+      <c r="CO19" s="6">
+        <v>3457.5085910954563</v>
+      </c>
     </row>
-    <row r="20" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26628,8 +26656,11 @@
       <c r="CN20" s="6">
         <v>7265.2633873865943</v>
       </c>
+      <c r="CO20" s="6">
+        <v>8818.289481152291</v>
+      </c>
     </row>
-    <row r="21" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26906,8 +26937,11 @@
       <c r="CN21" s="6">
         <v>2407.1282613156754</v>
       </c>
+      <c r="CO21" s="6">
+        <v>3357.6866506351325</v>
+      </c>
     </row>
-    <row r="22" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27184,8 +27218,11 @@
       <c r="CN22" s="6">
         <v>426.60353421153985</v>
       </c>
+      <c r="CO22" s="6">
+        <v>583.25044168280044</v>
+      </c>
     </row>
-    <row r="23" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27460,10 +27497,13 @@
         <v>274.45965058042941</v>
       </c>
       <c r="CN23" s="6">
-        <v>465.82375032603431</v>
+        <v>465.76522023969198</v>
+      </c>
+      <c r="CO23" s="6">
+        <v>558.8227762590592</v>
       </c>
     </row>
-    <row r="24" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27740,8 +27780,11 @@
       <c r="CN24" s="6">
         <v>298.6521464050046</v>
       </c>
+      <c r="CO24" s="6">
+        <v>842.51255432531616</v>
+      </c>
     </row>
-    <row r="25" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28016,10 +28059,13 @@
         <v>18747.070765618875</v>
       </c>
       <c r="CN25" s="6">
-        <v>26188.759740452617</v>
+        <v>26189.396856191277</v>
+      </c>
+      <c r="CO25" s="6">
+        <v>33401.099010823818</v>
       </c>
     </row>
-    <row r="26" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28294,10 +28340,13 @@
         <v>76232.345555541746</v>
       </c>
       <c r="CN26" s="6">
-        <v>75728.90272784172</v>
+        <v>75730.393452584103</v>
+      </c>
+      <c r="CO26" s="6">
+        <v>80756.488554152602</v>
       </c>
     </row>
-    <row r="27" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28574,8 +28623,11 @@
       <c r="CN27" s="6">
         <v>53344.954013274604</v>
       </c>
+      <c r="CO27" s="6">
+        <v>67101.889608612837</v>
+      </c>
     </row>
-    <row r="28" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28852,8 +28904,11 @@
       <c r="CN28" s="6">
         <v>17527.508189510481</v>
       </c>
+      <c r="CO28" s="6">
+        <v>22769.589437401453</v>
+      </c>
     </row>
-    <row r="29" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29128,10 +29183,13 @@
         <v>284.85899091189367</v>
       </c>
       <c r="CN29" s="6">
-        <v>387.36426861404379</v>
+        <v>411.41724298435338</v>
+      </c>
+      <c r="CO29" s="6">
+        <v>97.526213580638796</v>
       </c>
     </row>
-    <row r="30" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29406,10 +29464,13 @@
         <v>65031.017831760037</v>
       </c>
       <c r="CN30" s="6">
-        <v>71752.676113166002</v>
+        <v>71106.340267988184</v>
+      </c>
+      <c r="CO30" s="6">
+        <v>76169.922331395923</v>
       </c>
     </row>
-    <row r="31" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29686,9 +29747,12 @@
       <c r="CN31" s="6">
         <v>47642.553877687154</v>
       </c>
+      <c r="CO31" s="6">
+        <v>80183.05976110202</v>
+      </c>
     </row>
-    <row r="32" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -29963,10 +30027,13 @@
         <v>480604.20061940385</v>
       </c>
       <c r="CN33" s="8">
-        <v>485274.66105399857</v>
+        <v>484670.13793258084</v>
+      </c>
+      <c r="CO33" s="8">
+        <v>638368.1169404937</v>
       </c>
     </row>
-    <row r="34" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30059,47 +30126,48 @@
       <c r="CL34" s="10"/>
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
+      <c r="CO34" s="10"/>
     </row>
-    <row r="35" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="13">
         <v>2000</v>
@@ -30238,8 +30306,9 @@
       </c>
       <c r="CM46" s="13"/>
       <c r="CN46" s="13"/>
+      <c r="CO46" s="13"/>
     </row>
-    <row r="47" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30516,11 +30585,14 @@
       <c r="CN47" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CO47" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30795,10 +30867,13 @@
         <v>81438.922695771951</v>
       </c>
       <c r="CN49" s="6">
-        <v>71670.732228659414</v>
+        <v>71689.374474778364</v>
+      </c>
+      <c r="CO49" s="6">
+        <v>133574.09583906844</v>
       </c>
     </row>
-    <row r="50" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31075,8 +31150,11 @@
       <c r="CN50" s="6">
         <v>30085.655035864416</v>
       </c>
+      <c r="CO50" s="6">
+        <v>24194.329118444788</v>
+      </c>
     </row>
-    <row r="51" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31353,8 +31431,11 @@
       <c r="CN51" s="6">
         <v>21954.494998102586</v>
       </c>
+      <c r="CO51" s="6">
+        <v>22516.097250357081</v>
+      </c>
     </row>
-    <row r="52" spans="1:92" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:93" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31631,8 +31712,11 @@
       <c r="CN52" s="6">
         <v>945.64137379305657</v>
       </c>
+      <c r="CO52" s="6">
+        <v>7506.6868217338251</v>
+      </c>
     </row>
-    <row r="53" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -31909,8 +31993,11 @@
       <c r="CN53" s="6">
         <v>35250.992937110655</v>
       </c>
+      <c r="CO53" s="6">
+        <v>34237.945742791388</v>
+      </c>
     </row>
-    <row r="54" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32187,8 +32274,11 @@
       <c r="CN54" s="6">
         <v>2283.1506726753864</v>
       </c>
+      <c r="CO54" s="6">
+        <v>7173.8923183657735</v>
+      </c>
     </row>
-    <row r="55" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32465,8 +32555,11 @@
       <c r="CN55" s="6">
         <v>6557.774813556749</v>
       </c>
+      <c r="CO55" s="6">
+        <v>9371.5829921354416</v>
+      </c>
     </row>
-    <row r="56" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32743,8 +32836,11 @@
       <c r="CN56" s="6">
         <v>576.99787870647981</v>
       </c>
+      <c r="CO56" s="6">
+        <v>2486.0593712919899</v>
+      </c>
     </row>
-    <row r="57" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33021,8 +33117,11 @@
       <c r="CN57" s="6">
         <v>4696.510629733878</v>
       </c>
+      <c r="CO57" s="6">
+        <v>5996.1146708887454</v>
+      </c>
     </row>
-    <row r="58" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33299,8 +33398,11 @@
       <c r="CN58" s="6">
         <v>2271.5266302254395</v>
       </c>
+      <c r="CO58" s="6">
+        <v>3369.5887063748746</v>
+      </c>
     </row>
-    <row r="59" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33577,8 +33679,11 @@
       <c r="CN59" s="6">
         <v>369.68390302396267</v>
       </c>
+      <c r="CO59" s="6">
+        <v>572.90764402431273</v>
+      </c>
     </row>
-    <row r="60" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -33853,10 +33958,13 @@
         <v>455.4955949964467</v>
       </c>
       <c r="CN60" s="6">
-        <v>335.56755808997707</v>
+        <v>334.6487350299634</v>
+      </c>
+      <c r="CO60" s="6">
+        <v>486.95604071117168</v>
       </c>
     </row>
-    <row r="61" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34133,8 +34241,11 @@
       <c r="CN61" s="6">
         <v>198.75870180661479</v>
       </c>
+      <c r="CO61" s="6">
+        <v>930.3324849411872</v>
+      </c>
     </row>
-    <row r="62" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34411,8 +34522,11 @@
       <c r="CN62" s="6">
         <v>17925.753473563913</v>
       </c>
+      <c r="CO62" s="6">
+        <v>25803.711942083552</v>
+      </c>
     </row>
-    <row r="63" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34687,10 +34801,13 @@
         <v>44723.61634491352</v>
       </c>
       <c r="CN63" s="6">
-        <v>45184.848980372946</v>
+        <v>45185.317220949975</v>
+      </c>
+      <c r="CO63" s="6">
+        <v>48430.042560249916</v>
       </c>
     </row>
-    <row r="64" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -34967,8 +35084,11 @@
       <c r="CN64" s="6">
         <v>43057.576446615363</v>
       </c>
+      <c r="CO64" s="6">
+        <v>53789.969913542431</v>
+      </c>
     </row>
-    <row r="65" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35245,8 +35365,11 @@
       <c r="CN65" s="6">
         <v>17274.519488212791</v>
       </c>
+      <c r="CO65" s="6">
+        <v>19570.459116741433</v>
+      </c>
     </row>
-    <row r="66" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35521,10 +35644,13 @@
         <v>685.9136656051345</v>
       </c>
       <c r="CN66" s="6">
-        <v>939.46357870127281</v>
+        <v>988.04942330519452</v>
+      </c>
+      <c r="CO66" s="6">
+        <v>219.96876256287919</v>
       </c>
     </row>
-    <row r="67" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -35799,10 +35925,13 @@
         <v>48801.438592715815</v>
       </c>
       <c r="CN67" s="6">
-        <v>53027.849159169215</v>
+        <v>52446.111707699543</v>
+      </c>
+      <c r="CO67" s="6">
+        <v>69286.878798104692</v>
       </c>
     </row>
-    <row r="68" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36079,9 +36208,12 @@
       <c r="CN68" s="6">
         <v>52458.304934282831</v>
       </c>
+      <c r="CO68" s="6">
+        <v>55874.953256162233</v>
+      </c>
     </row>
-    <row r="69" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36356,10 +36488,13 @@
         <v>417014.24985301855</v>
       </c>
       <c r="CN70" s="8">
-        <v>407065.80342226691</v>
+        <v>406550.84347903717</v>
+      </c>
+      <c r="CO70" s="8">
+        <v>525392.57335057622</v>
       </c>
     </row>
-    <row r="71" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -36452,47 +36587,48 @@
       <c r="CL71" s="10"/>
       <c r="CM71" s="10"/>
       <c r="CN71" s="10"/>
+      <c r="CO71" s="10"/>
     </row>
-    <row r="72" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="13" t="s">
         <v>47</v>
@@ -36625,12 +36761,13 @@
       </c>
       <c r="CI83" s="13"/>
       <c r="CJ83" s="13"/>
-      <c r="CK83" s="3"/>
+      <c r="CK83" s="13"/>
       <c r="CL83" s="13"/>
       <c r="CM83" s="13"/>
       <c r="CN83" s="3"/>
+      <c r="CO83" s="3"/>
     </row>
-    <row r="84" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -36895,15 +37032,18 @@
       <c r="CJ84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CK84" s="4"/>
+      <c r="CK84" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="CL84" s="4"/>
       <c r="CM84" s="4"/>
       <c r="CN84" s="4"/>
+      <c r="CO84" s="4"/>
     </row>
-    <row r="85" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37166,14 +37306,17 @@
         <v>1.4647896483150618</v>
       </c>
       <c r="CJ86" s="11">
-        <v>3.9069600423303967</v>
-      </c>
-      <c r="CK86" s="11"/>
+        <v>3.9339872410536287</v>
+      </c>
+      <c r="CK86" s="11">
+        <v>4.3964217902892671</v>
+      </c>
       <c r="CL86" s="11"/>
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
+      <c r="CO86" s="11"/>
     </row>
-    <row r="87" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -37438,12 +37581,15 @@
       <c r="CJ87" s="11">
         <v>21.54383397631905</v>
       </c>
-      <c r="CK87" s="11"/>
+      <c r="CK87" s="11">
+        <v>9.6608431276021349</v>
+      </c>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
+      <c r="CO87" s="11"/>
     </row>
-    <row r="88" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -37708,12 +37854,15 @@
       <c r="CJ88" s="11">
         <v>6.6241174616173453</v>
       </c>
-      <c r="CK88" s="11"/>
+      <c r="CK88" s="11">
+        <v>4.3958548706422675</v>
+      </c>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
+      <c r="CO88" s="11"/>
     </row>
-    <row r="89" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -37978,12 +38127,15 @@
       <c r="CJ89" s="11">
         <v>247.13062685860183</v>
       </c>
-      <c r="CK89" s="11"/>
+      <c r="CK89" s="11">
+        <v>127.05881333765598</v>
+      </c>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
+      <c r="CO89" s="11"/>
     </row>
-    <row r="90" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -38248,12 +38400,15 @@
       <c r="CJ90" s="11">
         <v>-21.940823268956223</v>
       </c>
-      <c r="CK90" s="11"/>
+      <c r="CK90" s="11">
+        <v>-18.92067598442199</v>
+      </c>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
+      <c r="CO90" s="11"/>
     </row>
-    <row r="91" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -38518,12 +38673,15 @@
       <c r="CJ91" s="11">
         <v>15.604797250654528</v>
       </c>
-      <c r="CK91" s="11"/>
+      <c r="CK91" s="11">
+        <v>17.561304390164551</v>
+      </c>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
       <c r="CN91" s="11"/>
+      <c r="CO91" s="11"/>
     </row>
-    <row r="92" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -38788,12 +38946,15 @@
       <c r="CJ92" s="11">
         <v>18.372060097065798</v>
       </c>
-      <c r="CK92" s="11"/>
+      <c r="CK92" s="11">
+        <v>33.598408950801542</v>
+      </c>
       <c r="CL92" s="11"/>
       <c r="CM92" s="11"/>
       <c r="CN92" s="11"/>
+      <c r="CO92" s="11"/>
     </row>
-    <row r="93" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -39058,12 +39219,15 @@
       <c r="CJ93" s="11">
         <v>13.622967942402937</v>
       </c>
-      <c r="CK93" s="11"/>
+      <c r="CK93" s="11">
+        <v>24.400321135986687</v>
+      </c>
       <c r="CL93" s="11"/>
       <c r="CM93" s="11"/>
       <c r="CN93" s="11"/>
+      <c r="CO93" s="11"/>
     </row>
-    <row r="94" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -39328,12 +39492,15 @@
       <c r="CJ94" s="11">
         <v>8.546628116436267</v>
       </c>
-      <c r="CK94" s="11"/>
+      <c r="CK94" s="11">
+        <v>11.697338505455818</v>
+      </c>
       <c r="CL94" s="11"/>
       <c r="CM94" s="11"/>
       <c r="CN94" s="11"/>
+      <c r="CO94" s="11"/>
     </row>
-    <row r="95" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -39598,12 +39765,15 @@
       <c r="CJ95" s="11">
         <v>-1.5467883920446042</v>
       </c>
-      <c r="CK95" s="11"/>
+      <c r="CK95" s="11">
+        <v>-18.00581981413211</v>
+      </c>
       <c r="CL95" s="11"/>
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
+      <c r="CO95" s="11"/>
     </row>
-    <row r="96" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -39868,12 +40038,15 @@
       <c r="CJ96" s="11">
         <v>4.8324924314516267</v>
       </c>
-      <c r="CK96" s="11"/>
+      <c r="CK96" s="11">
+        <v>17.798552853862361</v>
+      </c>
       <c r="CL96" s="11"/>
       <c r="CM96" s="11"/>
       <c r="CN96" s="11"/>
+      <c r="CO96" s="11"/>
     </row>
-    <row r="97" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -40136,14 +40309,17 @@
         <v>1.4969551161827752</v>
       </c>
       <c r="CJ97" s="11">
-        <v>23.814046402760681</v>
-      </c>
-      <c r="CK97" s="11"/>
+        <v>23.798489345351584</v>
+      </c>
+      <c r="CK97" s="11">
+        <v>5.055395763250516</v>
+      </c>
       <c r="CL97" s="11"/>
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
+      <c r="CO97" s="11"/>
     </row>
-    <row r="98" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -40408,12 +40584,15 @@
       <c r="CJ98" s="11">
         <v>0.99164124129929121</v>
       </c>
-      <c r="CK98" s="11"/>
+      <c r="CK98" s="11">
+        <v>11.234902833146961</v>
+      </c>
       <c r="CL98" s="11"/>
       <c r="CM98" s="11"/>
       <c r="CN98" s="11"/>
+      <c r="CO98" s="11"/>
     </row>
-    <row r="99" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -40676,14 +40855,17 @@
         <v>10.157608453261588</v>
       </c>
       <c r="CJ99" s="11">
-        <v>7.4942988579901311</v>
-      </c>
-      <c r="CK99" s="11"/>
+        <v>7.4969139611984446</v>
+      </c>
+      <c r="CK99" s="11">
+        <v>15.166537002796105</v>
+      </c>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
+      <c r="CO99" s="11"/>
     </row>
-    <row r="100" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -40946,14 +41128,17 @@
         <v>9.9624916213878407</v>
       </c>
       <c r="CJ100" s="11">
-        <v>19.607564690824589</v>
-      </c>
-      <c r="CK100" s="11"/>
+        <v>19.60991916777644</v>
+      </c>
+      <c r="CK100" s="11">
+        <v>8.8225635989955862</v>
+      </c>
       <c r="CL100" s="11"/>
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
+      <c r="CO100" s="11"/>
     </row>
-    <row r="101" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -41218,12 +41403,15 @@
       <c r="CJ101" s="11">
         <v>35.334465976292819</v>
       </c>
-      <c r="CK101" s="11"/>
+      <c r="CK101" s="11">
+        <v>18.855903125908085</v>
+      </c>
       <c r="CL101" s="11"/>
       <c r="CM101" s="11"/>
       <c r="CN101" s="11"/>
+      <c r="CO101" s="11"/>
     </row>
-    <row r="102" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -41488,12 +41676,15 @@
       <c r="CJ102" s="11">
         <v>26.007217376451976</v>
       </c>
-      <c r="CK102" s="11"/>
+      <c r="CK102" s="11">
+        <v>13.050889148324799</v>
+      </c>
       <c r="CL102" s="11"/>
       <c r="CM102" s="11"/>
       <c r="CN102" s="11"/>
+      <c r="CO102" s="11"/>
     </row>
-    <row r="103" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -41756,14 +41947,17 @@
         <v>-41.45671613767469</v>
       </c>
       <c r="CJ103" s="11">
-        <v>-1.0217542592096436</v>
-      </c>
-      <c r="CK103" s="11"/>
+        <v>5.12419517629057</v>
+      </c>
+      <c r="CK103" s="11">
+        <v>2.0369625936062334</v>
+      </c>
       <c r="CL103" s="11"/>
       <c r="CM103" s="11"/>
       <c r="CN103" s="11"/>
+      <c r="CO103" s="11"/>
     </row>
-    <row r="104" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -42026,14 +42220,17 @@
         <v>16.815077293823293</v>
       </c>
       <c r="CJ104" s="11">
-        <v>10.276266207570117</v>
-      </c>
-      <c r="CK104" s="11"/>
+        <v>9.2829164458147346</v>
+      </c>
+      <c r="CK104" s="11">
+        <v>10.26125206004977</v>
+      </c>
       <c r="CL104" s="11"/>
       <c r="CM104" s="11"/>
       <c r="CN104" s="11"/>
+      <c r="CO104" s="11"/>
     </row>
-    <row r="105" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -42298,13 +42495,16 @@
       <c r="CJ105" s="11">
         <v>17.660746322620739</v>
       </c>
-      <c r="CK105" s="11"/>
+      <c r="CK105" s="11">
+        <v>14.368173210458295</v>
+      </c>
       <c r="CL105" s="11"/>
       <c r="CM105" s="11"/>
       <c r="CN105" s="11"/>
+      <c r="CO105" s="11"/>
     </row>
-    <row r="106" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -42567,14 +42767,17 @@
         <v>5.87569536255576</v>
       </c>
       <c r="CJ107" s="11">
-        <v>11.947861302997055</v>
-      </c>
-      <c r="CK107" s="11"/>
+        <v>11.808404051295639</v>
+      </c>
+      <c r="CK107" s="11">
+        <v>10.024887112768937</v>
+      </c>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
+      <c r="CO107" s="11"/>
     </row>
-    <row r="108" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -42667,47 +42870,48 @@
       <c r="CL108" s="10"/>
       <c r="CM108" s="10"/>
       <c r="CN108" s="10"/>
+      <c r="CO108" s="10"/>
     </row>
-    <row r="109" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="13" t="s">
         <v>47</v>
@@ -42840,12 +43044,13 @@
       </c>
       <c r="CI120" s="13"/>
       <c r="CJ120" s="13"/>
-      <c r="CK120" s="3"/>
+      <c r="CK120" s="13"/>
       <c r="CL120" s="13"/>
       <c r="CM120" s="13"/>
       <c r="CN120" s="3"/>
+      <c r="CO120" s="3"/>
     </row>
-    <row r="121" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -43110,15 +43315,18 @@
       <c r="CJ121" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CK121" s="4"/>
+      <c r="CK121" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="CL121" s="4"/>
       <c r="CM121" s="4"/>
       <c r="CN121" s="4"/>
+      <c r="CO121" s="4"/>
     </row>
-    <row r="122" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -43381,14 +43589,17 @@
         <v>0.70634198095417844</v>
       </c>
       <c r="CJ123" s="11">
-        <v>0.95047159180931828</v>
-      </c>
-      <c r="CK123" s="11"/>
+        <v>0.9767297794783758</v>
+      </c>
+      <c r="CK123" s="11">
+        <v>-2.4900856224084436</v>
+      </c>
       <c r="CL123" s="11"/>
       <c r="CM123" s="11"/>
       <c r="CN123" s="11"/>
+      <c r="CO123" s="11"/>
     </row>
-    <row r="124" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -43653,12 +43864,15 @@
       <c r="CJ124" s="11">
         <v>2.5038863971826402</v>
       </c>
-      <c r="CK124" s="11"/>
+      <c r="CK124" s="11">
+        <v>-6.9888091837713802</v>
+      </c>
       <c r="CL124" s="11"/>
       <c r="CM124" s="11"/>
       <c r="CN124" s="11"/>
+      <c r="CO124" s="11"/>
     </row>
-    <row r="125" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -43923,12 +44137,15 @@
       <c r="CJ125" s="11">
         <v>1.0661484332325983</v>
       </c>
-      <c r="CK125" s="11"/>
+      <c r="CK125" s="11">
+        <v>1.3340196748929003</v>
+      </c>
       <c r="CL125" s="11"/>
       <c r="CM125" s="11"/>
       <c r="CN125" s="11"/>
+      <c r="CO125" s="11"/>
     </row>
-    <row r="126" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -44193,12 +44410,15 @@
       <c r="CJ126" s="11">
         <v>69.29797971692625</v>
       </c>
-      <c r="CK126" s="11"/>
+      <c r="CK126" s="11">
+        <v>15.970006910383375</v>
+      </c>
       <c r="CL126" s="11"/>
       <c r="CM126" s="11"/>
       <c r="CN126" s="11"/>
+      <c r="CO126" s="11"/>
     </row>
-    <row r="127" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -44463,12 +44683,15 @@
       <c r="CJ127" s="11">
         <v>0.24751856431083752</v>
       </c>
-      <c r="CK127" s="11"/>
+      <c r="CK127" s="11">
+        <v>-0.89943316715083199</v>
+      </c>
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
+      <c r="CO127" s="11"/>
     </row>
-    <row r="128" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -44733,12 +44956,15 @@
       <c r="CJ128" s="11">
         <v>-3.7902374038761764</v>
       </c>
-      <c r="CK128" s="11"/>
+      <c r="CK128" s="11">
+        <v>-6.068027579192659</v>
+      </c>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
+      <c r="CO128" s="11"/>
     </row>
-    <row r="129" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -45003,12 +45229,15 @@
       <c r="CJ129" s="11">
         <v>4.2006800414762893</v>
       </c>
-      <c r="CK129" s="11"/>
+      <c r="CK129" s="11">
+        <v>5.595813956014652</v>
+      </c>
       <c r="CL129" s="11"/>
       <c r="CM129" s="11"/>
       <c r="CN129" s="11"/>
+      <c r="CO129" s="11"/>
     </row>
-    <row r="130" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -45273,12 +45502,15 @@
       <c r="CJ130" s="11">
         <v>-1.0445785450496743</v>
       </c>
-      <c r="CK130" s="11"/>
+      <c r="CK130" s="11">
+        <v>1.9497123807054209</v>
+      </c>
       <c r="CL130" s="11"/>
       <c r="CM130" s="11"/>
       <c r="CN130" s="11"/>
+      <c r="CO130" s="11"/>
     </row>
-    <row r="131" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -45543,12 +45775,15 @@
       <c r="CJ131" s="11">
         <v>0.27114808386339462</v>
       </c>
-      <c r="CK131" s="11"/>
+      <c r="CK131" s="11">
+        <v>0.46897892083140391</v>
+      </c>
       <c r="CL131" s="11"/>
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
+      <c r="CO131" s="11"/>
     </row>
-    <row r="132" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -45813,12 +46048,15 @@
       <c r="CJ132" s="11">
         <v>1.100036250429028</v>
       </c>
-      <c r="CK132" s="11"/>
+      <c r="CK132" s="11">
+        <v>-7.3593899079029228</v>
+      </c>
       <c r="CL132" s="11"/>
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
+      <c r="CO132" s="11"/>
     </row>
-    <row r="133" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -46083,12 +46321,15 @@
       <c r="CJ133" s="11">
         <v>8.1970398468051116</v>
       </c>
-      <c r="CK133" s="11"/>
+      <c r="CK133" s="11">
+        <v>2.2731118212873156</v>
+      </c>
       <c r="CL133" s="11"/>
       <c r="CM133" s="11"/>
       <c r="CN133" s="11"/>
+      <c r="CO133" s="11"/>
     </row>
-    <row r="134" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -46351,14 +46592,17 @@
         <v>-1.2962882171162988</v>
       </c>
       <c r="CJ134" s="11">
-        <v>17.49866024980642</v>
-      </c>
-      <c r="CK134" s="11"/>
+        <v>17.176935232129708</v>
+      </c>
+      <c r="CK134" s="11">
+        <v>2.8895328248791117</v>
+      </c>
       <c r="CL134" s="11"/>
       <c r="CM134" s="11"/>
       <c r="CN134" s="11"/>
+      <c r="CO134" s="11"/>
     </row>
-    <row r="135" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -46623,12 +46867,15 @@
       <c r="CJ135" s="11">
         <v>1.7859387003316982</v>
       </c>
-      <c r="CK135" s="11"/>
+      <c r="CK135" s="11">
+        <v>8.2553686832053046</v>
+      </c>
       <c r="CL135" s="11"/>
       <c r="CM135" s="11"/>
       <c r="CN135" s="11"/>
+      <c r="CO135" s="11"/>
     </row>
-    <row r="136" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -46893,12 +47140,15 @@
       <c r="CJ136" s="11">
         <v>1.0886932326595229</v>
       </c>
-      <c r="CK136" s="11"/>
+      <c r="CK136" s="11">
+        <v>0.15767647966600862</v>
+      </c>
       <c r="CL136" s="11"/>
       <c r="CM136" s="11"/>
       <c r="CN136" s="11"/>
+      <c r="CO136" s="11"/>
     </row>
-    <row r="137" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -47161,14 +47411,17 @@
         <v>2.2767490493392586</v>
       </c>
       <c r="CJ137" s="11">
-        <v>4.7835917492750326</v>
-      </c>
-      <c r="CK137" s="11"/>
+        <v>4.7846775984162946</v>
+      </c>
+      <c r="CK137" s="11">
+        <v>3.0540390388721619</v>
+      </c>
       <c r="CL137" s="11"/>
       <c r="CM137" s="11"/>
       <c r="CN137" s="11"/>
+      <c r="CO137" s="11"/>
     </row>
-    <row r="138" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -47433,12 +47686,15 @@
       <c r="CJ138" s="11">
         <v>6.3944630807825149</v>
       </c>
-      <c r="CK138" s="11"/>
+      <c r="CK138" s="11">
+        <v>1.5515981396638807</v>
+      </c>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
+      <c r="CO138" s="11"/>
     </row>
-    <row r="139" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -47703,12 +47959,15 @@
       <c r="CJ139" s="11">
         <v>5.0160992207169954</v>
       </c>
-      <c r="CK139" s="11"/>
+      <c r="CK139" s="11">
+        <v>1.9810838194844962</v>
+      </c>
       <c r="CL139" s="11"/>
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
+      <c r="CO139" s="11"/>
     </row>
-    <row r="140" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -47971,14 +48230,17 @@
         <v>-14.326990475492678</v>
       </c>
       <c r="CJ140" s="11">
-        <v>-1.252457194352985E-2</v>
-      </c>
-      <c r="CK140" s="11"/>
+        <v>5.1584858361467099</v>
+      </c>
+      <c r="CK140" s="11">
+        <v>-0.99353686962572851</v>
+      </c>
       <c r="CL140" s="11"/>
       <c r="CM140" s="11"/>
       <c r="CN140" s="11"/>
+      <c r="CO140" s="11"/>
     </row>
-    <row r="141" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -48241,14 +48503,17 @@
         <v>-2.351378288908478</v>
       </c>
       <c r="CJ141" s="11">
-        <v>-2.1870372395155897</v>
-      </c>
-      <c r="CK141" s="11"/>
+        <v>-3.2600859220330562</v>
+      </c>
+      <c r="CK141" s="11">
+        <v>-3.020192974971124</v>
+      </c>
       <c r="CL141" s="11"/>
       <c r="CM141" s="11"/>
       <c r="CN141" s="11"/>
+      <c r="CO141" s="11"/>
     </row>
-    <row r="142" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -48513,13 +48778,16 @@
       <c r="CJ142" s="11">
         <v>4.027100847874479</v>
       </c>
-      <c r="CK142" s="11"/>
+      <c r="CK142" s="11">
+        <v>3.7755543920010979</v>
+      </c>
       <c r="CL142" s="11"/>
       <c r="CM142" s="11"/>
       <c r="CN142" s="11"/>
+      <c r="CO142" s="11"/>
     </row>
-    <row r="143" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -48782,14 +49050,17 @@
         <v>0.22979282943775559</v>
       </c>
       <c r="CJ144" s="11">
-        <v>2.2394585690328199</v>
-      </c>
-      <c r="CK144" s="11"/>
+        <v>2.1101202032503892</v>
+      </c>
+      <c r="CK144" s="11">
+        <v>-0.32638906009904645</v>
+      </c>
       <c r="CL144" s="11"/>
       <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
+      <c r="CO144" s="11"/>
     </row>
-    <row r="145" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -48882,42 +49153,43 @@
       <c r="CL145" s="10"/>
       <c r="CM145" s="10"/>
       <c r="CN145" s="10"/>
+      <c r="CO145" s="10"/>
     </row>
-    <row r="146" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="13">
         <v>2000</v>
@@ -49056,8 +49328,9 @@
       </c>
       <c r="CM156" s="13"/>
       <c r="CN156" s="13"/>
+      <c r="CO156" s="13"/>
     </row>
-    <row r="157" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -49334,11 +49607,14 @@
       <c r="CN157" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CO157" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="158" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -49613,10 +49889,13 @@
         <v>91.249804091315511</v>
       </c>
       <c r="CN159" s="11">
-        <v>84.166032863989031</v>
+        <v>84.166032863989074</v>
+      </c>
+      <c r="CO159" s="11">
+        <v>100.11238707980246</v>
       </c>
     </row>
-    <row r="160" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -49893,8 +50172,11 @@
       <c r="CN160" s="11">
         <v>118.07483007597521</v>
       </c>
+      <c r="CO160" s="11">
+        <v>132.54441596268279</v>
+      </c>
     </row>
-    <row r="161" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -50171,8 +50453,11 @@
       <c r="CN161" s="11">
         <v>169.85500019157971</v>
       </c>
+      <c r="CO161" s="11">
+        <v>88.16134128434895</v>
+      </c>
     </row>
-    <row r="162" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -50449,8 +50734,11 @@
       <c r="CN162" s="11">
         <v>342.96223912087396</v>
       </c>
+      <c r="CO162" s="11">
+        <v>255.00196605918916</v>
+      </c>
     </row>
-    <row r="163" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -50727,8 +51015,11 @@
       <c r="CN163" s="11">
         <v>95.227918634738955</v>
       </c>
+      <c r="CO163" s="11">
+        <v>104.01227667521181</v>
+      </c>
     </row>
-    <row r="164" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -51005,8 +51296,11 @@
       <c r="CN164" s="11">
         <v>116.45572375648744</v>
       </c>
+      <c r="CO164" s="11">
+        <v>133.1483608041394</v>
+      </c>
     </row>
-    <row r="165" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -51283,8 +51577,11 @@
       <c r="CN165" s="11">
         <v>132.06207587793227</v>
       </c>
+      <c r="CO165" s="11">
+        <v>110.13874862187177</v>
+      </c>
     </row>
-    <row r="166" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -51561,8 +51858,11 @@
       <c r="CN166" s="11">
         <v>98.872552100295678</v>
       </c>
+      <c r="CO166" s="11">
+        <v>139.07586564590412</v>
+      </c>
     </row>
-    <row r="167" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -51839,8 +52139,11 @@
       <c r="CN167" s="11">
         <v>154.6949205520753</v>
       </c>
+      <c r="CO167" s="11">
+        <v>147.06672512394167</v>
+      </c>
     </row>
-    <row r="168" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -52117,8 +52420,11 @@
       <c r="CN168" s="11">
         <v>105.9696254178089</v>
       </c>
+      <c r="CO168" s="11">
+        <v>99.646780162895709</v>
+      </c>
     </row>
-    <row r="169" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -52395,8 +52701,11 @@
       <c r="CN169" s="11">
         <v>115.39683787202594</v>
       </c>
+      <c r="CO169" s="11">
+        <v>101.80531674980561</v>
+      </c>
     </row>
-    <row r="170" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -52671,10 +52980,13 @@
         <v>60.25517120150645</v>
       </c>
       <c r="CN170" s="11">
-        <v>138.81668209449828</v>
+        <v>139.18033193760283</v>
+      </c>
+      <c r="CO170" s="11">
+        <v>114.75836205726706</v>
       </c>
     </row>
-    <row r="171" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -52951,8 +53263,11 @@
       <c r="CN171" s="11">
         <v>150.25865216989723</v>
       </c>
+      <c r="CO171" s="11">
+        <v>90.560371476072589</v>
+      </c>
     </row>
-    <row r="172" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -53227,10 +53542,13 @@
         <v>78.8376513108675</v>
       </c>
       <c r="CN172" s="11">
-        <v>146.09572634742861</v>
+        <v>146.09928053966718</v>
+      </c>
+      <c r="CO172" s="11">
+        <v>129.44300062639286</v>
       </c>
     </row>
-    <row r="173" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -53505,10 +53823,13 @@
         <v>170.45210514201131</v>
       </c>
       <c r="CN173" s="11">
-        <v>167.59799896805291</v>
+        <v>167.59956134040826</v>
+      </c>
+      <c r="CO173" s="11">
+        <v>166.74874578870464</v>
       </c>
     </row>
-    <row r="174" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -53785,8 +54106,11 @@
       <c r="CN174" s="11">
         <v>123.89214260448212</v>
       </c>
+      <c r="CO174" s="11">
+        <v>124.74795899024835</v>
+      </c>
     </row>
-    <row r="175" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -54063,8 +54387,11 @@
       <c r="CN175" s="11">
         <v>101.46451947025396</v>
       </c>
+      <c r="CO175" s="11">
+        <v>116.34673106837509</v>
+      </c>
     </row>
-    <row r="176" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -54339,10 +54666,13 @@
         <v>41.52986085509496</v>
       </c>
       <c r="CN176" s="11">
-        <v>41.23249452092027</v>
+        <v>41.639338405572083</v>
+      </c>
+      <c r="CO176" s="11">
+        <v>44.33639233332525</v>
       </c>
     </row>
-    <row r="177" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -54617,10 +54947,13 @@
         <v>133.25635413023804</v>
       </c>
       <c r="CN177" s="11">
-        <v>135.31130764476615</v>
+        <v>135.57981316954169</v>
+      </c>
+      <c r="CO177" s="11">
+        <v>109.93412266895115</v>
       </c>
     </row>
-    <row r="178" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -54897,9 +55230,12 @@
       <c r="CN178" s="11">
         <v>90.819850045424431</v>
       </c>
+      <c r="CO178" s="11">
+        <v>143.50447756707331</v>
+      </c>
     </row>
-    <row r="179" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -55174,10 +55510,13 @@
         <v>115.24886758397304</v>
       </c>
       <c r="CN180" s="11">
-        <v>119.21282922176646</v>
+        <v>119.21513525468106</v>
+      </c>
+      <c r="CO180" s="11">
+        <v>121.50307204942786</v>
       </c>
     </row>
-    <row r="181" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -55270,45 +55609,46 @@
       <c r="CL181" s="10"/>
       <c r="CM181" s="10"/>
       <c r="CN181" s="10"/>
+      <c r="CO181" s="10"/>
     </row>
-    <row r="182" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="13">
         <v>2000</v>
@@ -55447,8 +55787,9 @@
       </c>
       <c r="CM193" s="13"/>
       <c r="CN193" s="13"/>
+      <c r="CO193" s="13"/>
     </row>
-    <row r="194" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -55725,11 +56066,14 @@
       <c r="CN194" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CO194" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="195" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
     </row>
-    <row r="196" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -56004,10 +56348,13 @@
         <v>15.46238200127989</v>
       </c>
       <c r="CN196" s="11">
-        <v>12.430571155398269</v>
+        <v>12.4493129982816</v>
+      </c>
+      <c r="CO196" s="11">
+        <v>20.947821847001766</v>
       </c>
     </row>
-    <row r="197" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -56282,10 +56629,13 @@
         <v>4.7782503117784199</v>
       </c>
       <c r="CN197" s="11">
-        <v>7.3203051615522376</v>
+        <v>7.3294356884398004</v>
+      </c>
+      <c r="CO197" s="11">
+        <v>5.0234702164991161</v>
       </c>
     </row>
-    <row r="198" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -56560,10 +56910,13 @@
         <v>3.8948139338151293</v>
       </c>
       <c r="CN198" s="11">
-        <v>7.6844744871065904</v>
+        <v>7.6940592379295234</v>
+      </c>
+      <c r="CO198" s="11">
+        <v>3.1095684157818937</v>
       </c>
     </row>
-    <row r="199" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -56838,10 +57191,13 @@
         <v>0.93694314541476809</v>
       </c>
       <c r="CN199" s="11">
-        <v>0.66832107461987933</v>
+        <v>0.66915466330322959</v>
+      </c>
+      <c r="CO199" s="11">
+        <v>2.9986145099272989</v>
       </c>
     </row>
-    <row r="200" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -57116,10 +57472,13 @@
         <v>7.1202936898650675</v>
       </c>
       <c r="CN200" s="11">
-        <v>6.9174819058508321</v>
+        <v>6.9261099962298136</v>
+      </c>
+      <c r="CO200" s="11">
+        <v>5.578547222028738</v>
       </c>
     </row>
-    <row r="201" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -57394,10 +57753,13 @@
         <v>4.2096845045466731</v>
       </c>
       <c r="CN201" s="11">
-        <v>0.54790819585351702</v>
+        <v>0.54859159502933708</v>
+      </c>
+      <c r="CO201" s="11">
+        <v>1.4963028030813286</v>
       </c>
     </row>
-    <row r="202" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -57672,10 +58034,13 @@
         <v>0.89874207216297897</v>
       </c>
       <c r="CN202" s="11">
-        <v>1.7846251298951652</v>
+        <v>1.7868510709417635</v>
+      </c>
+      <c r="CO202" s="11">
+        <v>1.6168953241379218</v>
       </c>
     </row>
-    <row r="203" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -57950,10 +58315,13 @@
         <v>0.15716283885005869</v>
       </c>
       <c r="CN203" s="11">
-        <v>0.11756074941200856</v>
+        <v>0.11770738149355973</v>
+      </c>
+      <c r="CO203" s="11">
+        <v>0.54161674108447877</v>
       </c>
     </row>
-    <row r="204" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -58228,10 +58596,13 @@
         <v>1.0780790005532348</v>
       </c>
       <c r="CN204" s="11">
-        <v>1.497144600875453</v>
+        <v>1.4990119709824614</v>
+      </c>
+      <c r="CO204" s="11">
+        <v>1.3813799980199042</v>
       </c>
     </row>
-    <row r="205" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -58506,10 +58877,13 @@
         <v>0.70030073635703471</v>
       </c>
       <c r="CN205" s="11">
-        <v>0.49603419558059803</v>
+        <v>0.49665289295180687</v>
+      </c>
+      <c r="CO205" s="11">
+        <v>0.52597969126771471</v>
       </c>
     </row>
-    <row r="206" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -58784,10 +59158,13 @@
         <v>5.720510255039276E-2</v>
       </c>
       <c r="CN206" s="11">
-        <v>8.7909707316053298E-2</v>
+        <v>8.8019356016293654E-2</v>
+      </c>
+      <c r="CO206" s="11">
+        <v>9.1365847730325939E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -59062,10 +59439,13 @@
         <v>5.7107210096521248E-2</v>
       </c>
       <c r="CN207" s="11">
-        <v>9.5991772847624557E-2</v>
+        <v>9.6099425936673116E-2</v>
+      </c>
+      <c r="CO207" s="11">
+        <v>8.7539267928562703E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -59340,10 +59720,13 @@
         <v>3.0695121598999654E-2</v>
       </c>
       <c r="CN208" s="11">
-        <v>6.1542909690842543E-2</v>
+        <v>6.16196714076385E-2</v>
+      </c>
+      <c r="CO208" s="11">
+        <v>0.13197910922669906</v>
       </c>
     </row>
-    <row r="209" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -59618,10 +60001,13 @@
         <v>3.9007296943009666</v>
       </c>
       <c r="CN209" s="11">
-        <v>5.3966880701274613</v>
+        <v>5.4035507464737398</v>
+      </c>
+      <c r="CO209" s="11">
+        <v>5.2322630351442418</v>
       </c>
     </row>
-    <row r="210" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -59896,10 +60282,13 @@
         <v>15.861772630637292</v>
       </c>
       <c r="CN210" s="11">
-        <v>15.605369248697501</v>
+        <v>15.625141209570135</v>
+      </c>
+      <c r="CO210" s="11">
+        <v>12.65045769221592</v>
       </c>
     </row>
-    <row r="211" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -60174,10 +60563,13 @@
         <v>9.343041693200572</v>
       </c>
       <c r="CN211" s="11">
-        <v>10.992734279059892</v>
+        <v>11.006445381765001</v>
+      </c>
+      <c r="CO211" s="11">
+        <v>10.511472585788276</v>
       </c>
     </row>
-    <row r="212" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -60452,10 +60844,13 @@
         <v>3.1206826260651632</v>
       </c>
       <c r="CN212" s="11">
-        <v>3.6118737688552263</v>
+        <v>3.616378814728753</v>
+      </c>
+      <c r="CO212" s="11">
+        <v>3.5668431478892217</v>
       </c>
     </row>
-    <row r="213" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -60730,10 +61125,13 @@
         <v>5.9271015639223858E-2</v>
       </c>
       <c r="CN213" s="11">
-        <v>7.982371627908677E-2</v>
+        <v>8.4886030886760111E-2</v>
+      </c>
+      <c r="CO213" s="11">
+        <v>1.5277425515555599E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -61008,10 +61406,13 @@
         <v>13.531096429858064</v>
       </c>
       <c r="CN214" s="11">
-        <v>14.785992731893696</v>
+        <v>14.671079297623098</v>
+      </c>
+      <c r="CO214" s="11">
+        <v>11.93197471961091</v>
       </c>
     </row>
-    <row r="215" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -61286,11 +61687,14 @@
         <v>14.801746241429559</v>
       </c>
       <c r="CN215" s="11">
-        <v>9.8176471390880558</v>
+        <v>9.8298925700090045</v>
+      </c>
+      <c r="CO215" s="11">
+        <v>12.560630400120122</v>
       </c>
     </row>
-    <row r="216" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -61567,8 +61971,11 @@
       <c r="CN217" s="11">
         <v>100</v>
       </c>
+      <c r="CO217" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -61661,47 +62068,48 @@
       <c r="CL218" s="10"/>
       <c r="CM218" s="10"/>
       <c r="CN218" s="10"/>
+      <c r="CO218" s="10"/>
     </row>
-    <row r="219" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="225" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="228" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="13">
         <v>2000</v>
@@ -61840,8 +62248,9 @@
       </c>
       <c r="CM230" s="13"/>
       <c r="CN230" s="13"/>
+      <c r="CO230" s="13"/>
     </row>
-    <row r="231" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -62118,11 +62527,14 @@
       <c r="CN231" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CO231" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="232" spans="1:92" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
     </row>
-    <row r="233" spans="1:92" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -62397,10 +62809,13 @@
         <v>19.529050320097223</v>
       </c>
       <c r="CN233" s="11">
-        <v>17.606669886321125</v>
+        <v>17.633556939963611</v>
+      </c>
+      <c r="CO233" s="11">
+        <v>25.423674146596486</v>
       </c>
     </row>
-    <row r="234" spans="1:92" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -62675,10 +63090,13 @@
         <v>4.8190245930887778</v>
       </c>
       <c r="CN234" s="11">
-        <v>7.3908578865946319</v>
+        <v>7.4002195588645261</v>
+      </c>
+      <c r="CO234" s="11">
+        <v>4.6050002123461216</v>
       </c>
     </row>
-    <row r="235" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -62953,10 +63371,13 @@
         <v>3.2443458115092296</v>
       </c>
       <c r="CN235" s="11">
-        <v>5.3933528224497502</v>
+        <v>5.4001843435443808</v>
+      </c>
+      <c r="CO235" s="11">
+        <v>4.2855758517417932</v>
       </c>
     </row>
-    <row r="236" spans="1:92" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -63231,10 +63652,13 @@
         <v>1.3793825150861418</v>
       </c>
       <c r="CN236" s="11">
-        <v>0.23230675872129253</v>
+        <v>0.23260101140137379</v>
+      </c>
+      <c r="CO236" s="11">
+        <v>1.4287767285825097</v>
       </c>
     </row>
-    <row r="237" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -63509,10 +63933,13 @@
         <v>8.1844446252542333</v>
       </c>
       <c r="CN237" s="11">
-        <v>8.6597775201822298</v>
+        <v>8.6707464767388416</v>
+      </c>
+      <c r="CO237" s="11">
+        <v>6.5166405997036421</v>
       </c>
     </row>
-    <row r="238" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -63787,10 +64214,13 @@
         <v>4.3438871543617852</v>
       </c>
       <c r="CN238" s="11">
-        <v>0.56087999863426896</v>
+        <v>0.56159044048155116</v>
+      </c>
+      <c r="CO238" s="11">
+        <v>1.3654346639534405</v>
       </c>
     </row>
-    <row r="239" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -64065,10 +64495,13 @@
         <v>1.5392186190453827</v>
       </c>
       <c r="CN239" s="11">
-        <v>1.6109864199902064</v>
+        <v>1.6130269851216985</v>
+      </c>
+      <c r="CO239" s="11">
+        <v>1.7837296276135426</v>
       </c>
     </row>
-    <row r="240" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -64343,10 +64776,13 @@
         <v>0.12693984612431919</v>
       </c>
       <c r="CN240" s="11">
-        <v>0.14174560325519042</v>
+        <v>0.14192514613150256</v>
+      </c>
+      <c r="CO240" s="11">
+        <v>0.47318129288308935</v>
       </c>
     </row>
-    <row r="241" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -64621,10 +65057,13 @@
         <v>1.30619278913535</v>
       </c>
       <c r="CN241" s="11">
-        <v>1.1537472787567922</v>
+        <v>1.1552086793237812</v>
+      </c>
+      <c r="CO241" s="11">
+        <v>1.1412636902440085</v>
       </c>
     </row>
-    <row r="242" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -64899,10 +65338,13 @@
         <v>0.78706026534936491</v>
       </c>
       <c r="CN242" s="11">
-        <v>0.55802443023421622</v>
+        <v>0.55873125505950783</v>
+      </c>
+      <c r="CO242" s="11">
+        <v>0.64134684753651161</v>
       </c>
     </row>
-    <row r="243" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -65177,10 +65619,13 @@
         <v>0.11900100556493311</v>
       </c>
       <c r="CN243" s="11">
-        <v>9.0816742628825942E-2</v>
+        <v>9.0931776173531556E-2</v>
+      </c>
+      <c r="CO243" s="11">
+        <v>0.10904372712593167</v>
       </c>
     </row>
-    <row r="244" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -65455,10 +65900,13 @@
         <v>0.10922782498607453</v>
       </c>
       <c r="CN244" s="11">
-        <v>8.2435703335629593E-2</v>
+        <v>8.2314116523833705E-2</v>
+      </c>
+      <c r="CO244" s="11">
+        <v>9.268422612175807E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -65733,10 +66181,13 @@
         <v>8.6831620341734514E-2</v>
       </c>
       <c r="CN245" s="11">
-        <v>4.8827167533017704E-2</v>
+        <v>4.8889014743087919E-2</v>
+      </c>
+      <c r="CO245" s="11">
+        <v>0.17707377913779695</v>
       </c>
     </row>
-    <row r="246" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -66011,10 +66462,13 @@
         <v>5.7022840298312412</v>
       </c>
       <c r="CN246" s="11">
-        <v>4.4036500543300994</v>
+        <v>4.4092279627721922</v>
+      </c>
+      <c r="CO246" s="11">
+        <v>4.9113202681046717</v>
       </c>
     </row>
-    <row r="247" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -66289,10 +66743,13 @@
         <v>10.724721364000601</v>
       </c>
       <c r="CN247" s="11">
-        <v>11.100133835978541</v>
+        <v>11.114309057700885</v>
+      </c>
+      <c r="CO247" s="11">
+        <v>9.2178772629765042</v>
       </c>
     </row>
-    <row r="248" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -66567,10 +67024,13 @@
         <v>9.7344782593345158</v>
       </c>
       <c r="CN248" s="11">
-        <v>10.577546943178099</v>
+        <v>10.590945053305621</v>
+      </c>
+      <c r="CO248" s="11">
+        <v>10.238052961142687</v>
       </c>
     </row>
-    <row r="249" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -66845,10 +67305,13 @@
         <v>4.0447485823394533</v>
       </c>
       <c r="CN249" s="11">
-        <v>4.2436675699562967</v>
+        <v>4.2490428356726584</v>
+      </c>
+      <c r="CO249" s="11">
+        <v>3.7249211559910544</v>
       </c>
     </row>
-    <row r="250" spans="1:92" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -67123,10 +67586,13 @@
         <v>0.16448206886141004</v>
       </c>
       <c r="CN250" s="11">
-        <v>0.23078911832019616</v>
+        <v>0.24303219121377642</v>
+      </c>
+      <c r="CO250" s="11">
+        <v>4.1867505122898205E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -67401,10 +67867,13 @@
         <v>11.702582971664983</v>
       </c>
       <c r="CN251" s="11">
-        <v>13.026849397162735</v>
+        <v>12.900258983327825</v>
+      </c>
+      <c r="CO251" s="11">
+        <v>13.187639550411376</v>
       </c>
     </row>
-    <row r="252" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -67679,11 +68148,14 @@
         <v>12.352095734023266</v>
       </c>
       <c r="CN252" s="11">
-        <v>12.886934862436867</v>
+        <v>12.903258171935811</v>
+      </c>
+      <c r="CO252" s="11">
+        <v>10.634895902664162</v>
       </c>
     </row>
-    <row r="253" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -67960,8 +68432,11 @@
       <c r="CN254" s="11">
         <v>100</v>
       </c>
+      <c r="CO254" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:92" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -68054,13 +68529,14 @@
       <c r="CL255" s="10"/>
       <c r="CM255" s="10"/>
       <c r="CN255" s="10"/>
+      <c r="CO255" s="10"/>
     </row>
-    <row r="256" spans="1:92" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:92" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:93" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -68081,8 +68557,9 @@
       <c r="CL257" s="7"/>
       <c r="CM257" s="7"/>
       <c r="CN257" s="7"/>
+      <c r="CO257" s="7"/>
     </row>
-    <row r="258" spans="1:92" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:93" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -68103,41 +68580,112 @@
       <c r="CL258" s="7"/>
       <c r="CM258" s="7"/>
       <c r="CN258" s="7"/>
+      <c r="CO258" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL46:CN46"/>
-    <mergeCell ref="CH83:CJ83"/>
-    <mergeCell ref="CL83:CM83"/>
-    <mergeCell ref="CH120:CJ120"/>
-    <mergeCell ref="CL120:CM120"/>
-    <mergeCell ref="CL156:CN156"/>
-    <mergeCell ref="CL193:CN193"/>
-    <mergeCell ref="CL230:CN230"/>
-    <mergeCell ref="CH193:CK193"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD46:CG46"/>
-    <mergeCell ref="BN193:BQ193"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH230:CK230"/>
-    <mergeCell ref="CD193:CG193"/>
-    <mergeCell ref="CD156:CG156"/>
-    <mergeCell ref="BZ193:CC193"/>
-    <mergeCell ref="BR230:BU230"/>
-    <mergeCell ref="BR120:BU120"/>
-    <mergeCell ref="BV120:BY120"/>
-    <mergeCell ref="BZ230:CC230"/>
-    <mergeCell ref="BZ120:CC120"/>
-    <mergeCell ref="CD230:CG230"/>
-    <mergeCell ref="BR193:BU193"/>
-    <mergeCell ref="BV193:BY193"/>
-    <mergeCell ref="BV230:BY230"/>
-    <mergeCell ref="BZ83:CC83"/>
-    <mergeCell ref="BZ46:CC46"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH46:CK46"/>
+    <mergeCell ref="AH193:AK193"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="J156:M156"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="J230:M230"/>
+    <mergeCell ref="N230:Q230"/>
+    <mergeCell ref="R230:U230"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="J193:M193"/>
+    <mergeCell ref="N193:Q193"/>
+    <mergeCell ref="R193:U193"/>
+    <mergeCell ref="N156:Q156"/>
+    <mergeCell ref="R156:U156"/>
+    <mergeCell ref="V156:Y156"/>
+    <mergeCell ref="Z156:AC156"/>
+    <mergeCell ref="AD156:AG156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="V230:Y230"/>
+    <mergeCell ref="BJ230:BM230"/>
+    <mergeCell ref="BN230:BQ230"/>
+    <mergeCell ref="BZ156:CC156"/>
+    <mergeCell ref="BR156:BU156"/>
+    <mergeCell ref="BV156:BY156"/>
+    <mergeCell ref="BF120:BI120"/>
+    <mergeCell ref="BB230:BE230"/>
+    <mergeCell ref="BF230:BI230"/>
+    <mergeCell ref="Z230:AC230"/>
+    <mergeCell ref="AD230:AG230"/>
+    <mergeCell ref="AH230:AK230"/>
+    <mergeCell ref="AL230:AO230"/>
+    <mergeCell ref="AL156:AO156"/>
+    <mergeCell ref="AP156:AS156"/>
+    <mergeCell ref="AT156:AW156"/>
+    <mergeCell ref="AX156:BA156"/>
+    <mergeCell ref="AX193:BA193"/>
+    <mergeCell ref="AP230:AS230"/>
+    <mergeCell ref="AT230:AW230"/>
+    <mergeCell ref="AX230:BA230"/>
+    <mergeCell ref="BJ156:BM156"/>
+    <mergeCell ref="BN156:BQ156"/>
+    <mergeCell ref="AL193:AO193"/>
+    <mergeCell ref="AP193:AS193"/>
+    <mergeCell ref="AT193:AW193"/>
+    <mergeCell ref="BJ193:BM193"/>
+    <mergeCell ref="BB193:BE193"/>
+    <mergeCell ref="BF193:BI193"/>
+    <mergeCell ref="BJ120:BM120"/>
+    <mergeCell ref="BN120:BQ120"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="AH83:AK83"/>
+    <mergeCell ref="AL83:AO83"/>
+    <mergeCell ref="BB156:BE156"/>
+    <mergeCell ref="BF156:BI156"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:Y120"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="AD120:AG120"/>
+    <mergeCell ref="AH120:AK120"/>
+    <mergeCell ref="V193:Y193"/>
+    <mergeCell ref="Z193:AC193"/>
+    <mergeCell ref="AD193:AG193"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="AX46:BA46"/>
+    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="AP46:AS46"/>
+    <mergeCell ref="AT46:AW46"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AL120:AO120"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="V83:Y83"/>
+    <mergeCell ref="Z83:AC83"/>
+    <mergeCell ref="AD83:AG83"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>
@@ -68162,111 +68710,41 @@
     <mergeCell ref="BJ83:BM83"/>
     <mergeCell ref="BN83:BQ83"/>
     <mergeCell ref="BF83:BI83"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD46:CG46"/>
+    <mergeCell ref="BN193:BQ193"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH230:CK230"/>
+    <mergeCell ref="CD193:CG193"/>
+    <mergeCell ref="CD156:CG156"/>
+    <mergeCell ref="BZ193:CC193"/>
+    <mergeCell ref="BR230:BU230"/>
+    <mergeCell ref="BR120:BU120"/>
+    <mergeCell ref="BV120:BY120"/>
+    <mergeCell ref="BZ230:CC230"/>
+    <mergeCell ref="BZ120:CC120"/>
+    <mergeCell ref="CD230:CG230"/>
+    <mergeCell ref="BR193:BU193"/>
+    <mergeCell ref="BV193:BY193"/>
+    <mergeCell ref="BV230:BY230"/>
+    <mergeCell ref="BZ83:CC83"/>
+    <mergeCell ref="BZ46:CC46"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH46:CK46"/>
     <mergeCell ref="CD83:CG83"/>
     <mergeCell ref="CD120:CG120"/>
+    <mergeCell ref="CL230:CO230"/>
+    <mergeCell ref="CL83:CM83"/>
+    <mergeCell ref="CL120:CM120"/>
+    <mergeCell ref="CH193:CK193"/>
     <mergeCell ref="CH156:CK156"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AL120:AO120"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AH46:AK46"/>
-    <mergeCell ref="V83:Y83"/>
-    <mergeCell ref="Z83:AC83"/>
-    <mergeCell ref="AD83:AG83"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="AX46:BA46"/>
-    <mergeCell ref="AL46:AO46"/>
-    <mergeCell ref="AP46:AS46"/>
-    <mergeCell ref="AT46:AW46"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="AH83:AK83"/>
-    <mergeCell ref="AL83:AO83"/>
-    <mergeCell ref="BB156:BE156"/>
-    <mergeCell ref="BF156:BI156"/>
-    <mergeCell ref="BJ156:BM156"/>
-    <mergeCell ref="BN156:BQ156"/>
-    <mergeCell ref="AL193:AO193"/>
-    <mergeCell ref="AP193:AS193"/>
-    <mergeCell ref="AT193:AW193"/>
-    <mergeCell ref="BJ193:BM193"/>
-    <mergeCell ref="BB193:BE193"/>
-    <mergeCell ref="BF193:BI193"/>
-    <mergeCell ref="BJ120:BM120"/>
-    <mergeCell ref="BN120:BQ120"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:Y120"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="AD120:AG120"/>
-    <mergeCell ref="AH120:AK120"/>
-    <mergeCell ref="BJ230:BM230"/>
-    <mergeCell ref="BN230:BQ230"/>
-    <mergeCell ref="BZ156:CC156"/>
-    <mergeCell ref="BR156:BU156"/>
-    <mergeCell ref="BV156:BY156"/>
-    <mergeCell ref="BF120:BI120"/>
-    <mergeCell ref="BB230:BE230"/>
-    <mergeCell ref="BF230:BI230"/>
-    <mergeCell ref="Z230:AC230"/>
-    <mergeCell ref="AD230:AG230"/>
-    <mergeCell ref="AH230:AK230"/>
-    <mergeCell ref="AL230:AO230"/>
-    <mergeCell ref="AL156:AO156"/>
-    <mergeCell ref="AP156:AS156"/>
-    <mergeCell ref="AT156:AW156"/>
-    <mergeCell ref="AX156:BA156"/>
-    <mergeCell ref="V193:Y193"/>
-    <mergeCell ref="Z193:AC193"/>
-    <mergeCell ref="AD193:AG193"/>
-    <mergeCell ref="AH193:AK193"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="J230:M230"/>
-    <mergeCell ref="N230:Q230"/>
-    <mergeCell ref="R230:U230"/>
-    <mergeCell ref="AX193:BA193"/>
-    <mergeCell ref="AP230:AS230"/>
-    <mergeCell ref="AT230:AW230"/>
-    <mergeCell ref="AX230:BA230"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="J193:M193"/>
-    <mergeCell ref="N193:Q193"/>
-    <mergeCell ref="R193:U193"/>
-    <mergeCell ref="N156:Q156"/>
-    <mergeCell ref="R156:U156"/>
-    <mergeCell ref="V156:Y156"/>
-    <mergeCell ref="Z156:AC156"/>
-    <mergeCell ref="AD156:AG156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="V230:Y230"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL46:CO46"/>
+    <mergeCell ref="CH83:CK83"/>
+    <mergeCell ref="CH120:CK120"/>
+    <mergeCell ref="CL156:CO156"/>
+    <mergeCell ref="CL193:CO193"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21644494-0561-46F6-8370-CF79E7B96AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62F021-8D16-4418-A84F-B24B16D18588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -661,13 +661,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23607,7 +23607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23621,9 +23621,9 @@
   <dimension ref="A1:CO258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23670,7 +23670,10 @@
     <col min="79" max="81" width="7.88671875" style="7" customWidth="1"/>
     <col min="82" max="82" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="83" max="85" width="7.88671875" style="7" customWidth="1"/>
-    <col min="86" max="93" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="87" max="89" width="7.88671875" style="7" customWidth="1"/>
+    <col min="90" max="90" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="7.88671875" style="7" customWidth="1"/>
     <col min="94" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
@@ -23686,7 +23689,7 @@
     </row>
     <row r="3" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -23697,7 +23700,7 @@
     </row>
     <row r="6" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -24409,7 +24412,7 @@
         <v>60338.102480430149</v>
       </c>
       <c r="CO12" s="6">
-        <v>133724.21586475451</v>
+        <v>134332.57281604729</v>
       </c>
     </row>
     <row r="13" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24669,10 +24672,10 @@
         <v>17507.583395253765</v>
       </c>
       <c r="CH13" s="6">
-        <v>28602.193397478266</v>
+        <v>28616.833375203627</v>
       </c>
       <c r="CI13" s="6">
-        <v>17284.740443670198</v>
+        <v>17120.84499826757</v>
       </c>
       <c r="CJ13" s="6">
         <v>29226.975074492228</v>
@@ -24681,16 +24684,16 @@
         <v>29243.102014834159</v>
       </c>
       <c r="CL13" s="6">
-        <v>36165.140132393506</v>
+        <v>36183.658281769538</v>
       </c>
       <c r="CM13" s="6">
-        <v>22964.471714516847</v>
+        <v>22746.720552308041</v>
       </c>
       <c r="CN13" s="6">
         <v>35523.586060840986</v>
       </c>
       <c r="CO13" s="6">
-        <v>32068.23222613195</v>
+        <v>32235.883038472639</v>
       </c>
     </row>
     <row r="14" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -24971,7 +24974,7 @@
         <v>37290.807521087503</v>
       </c>
       <c r="CO14" s="6">
-        <v>19850.493340803216</v>
+        <v>19553.487826351644</v>
       </c>
     </row>
     <row r="15" spans="1:93" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -25252,7 +25255,7 @@
         <v>3243.19282961406</v>
       </c>
       <c r="CO15" s="6">
-        <v>19142.198981327314</v>
+        <v>18748.249646992539</v>
       </c>
     </row>
     <row r="16" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25533,7 +25536,7 @@
         <v>33568.786872089309</v>
       </c>
       <c r="CO16" s="6">
-        <v>35611.666853901079</v>
+        <v>35878.550106385228</v>
       </c>
     </row>
     <row r="17" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -25814,7 +25817,7 @@
         <v>2658.8596403152333</v>
       </c>
       <c r="CO17" s="6">
-        <v>9551.9200277581003</v>
+        <v>9418.9819852519468</v>
       </c>
     </row>
     <row r="18" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26095,7 +26098,7 @@
         <v>8660.3335501832444</v>
       </c>
       <c r="CO18" s="6">
-        <v>10321.744233598143</v>
+        <v>10089.765648665163</v>
       </c>
     </row>
     <row r="19" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26376,7 +26379,7 @@
         <v>570.49252824166513</v>
       </c>
       <c r="CO19" s="6">
-        <v>3457.5085910954563</v>
+        <v>3197.5244131931577</v>
       </c>
     </row>
     <row r="20" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26645,7 +26648,7 @@
         <v>6693.2188622139965</v>
       </c>
       <c r="CK20" s="6">
-        <v>7894.8071629491551</v>
+        <v>7894.7813753254331</v>
       </c>
       <c r="CL20" s="6">
         <v>3390.0530834926053</v>
@@ -26657,7 +26660,7 @@
         <v>7265.2633873865943</v>
       </c>
       <c r="CO20" s="6">
-        <v>8818.289481152291</v>
+        <v>8660.0378907285485</v>
       </c>
     </row>
     <row r="21" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -26938,7 +26941,7 @@
         <v>2407.1282613156754</v>
       </c>
       <c r="CO21" s="6">
-        <v>3357.6866506351325</v>
+        <v>3381.935712594518</v>
       </c>
     </row>
     <row r="22" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -27219,7 +27222,7 @@
         <v>426.60353421153985</v>
       </c>
       <c r="CO22" s="6">
-        <v>583.25044168280044</v>
+        <v>585.13917654234183</v>
       </c>
     </row>
     <row r="23" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -27500,7 +27503,7 @@
         <v>465.76522023969198</v>
       </c>
       <c r="CO23" s="6">
-        <v>558.8227762590592</v>
+        <v>558.10577073315903</v>
       </c>
     </row>
     <row r="24" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -27781,7 +27784,7 @@
         <v>298.6521464050046</v>
       </c>
       <c r="CO24" s="6">
-        <v>842.51255432531616</v>
+        <v>786.79005485054222</v>
       </c>
     </row>
     <row r="25" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -28041,7 +28044,7 @@
         <v>34763.786295556485</v>
       </c>
       <c r="CH25" s="6">
-        <v>25697.970806835565</v>
+        <v>25860.178642579784</v>
       </c>
       <c r="CI25" s="6">
         <v>17018.407560629828</v>
@@ -28050,10 +28053,10 @@
         <v>24362.929028497016</v>
       </c>
       <c r="CK25" s="6">
-        <v>29002.434109842932</v>
+        <v>29036.271976618853</v>
       </c>
       <c r="CL25" s="6">
-        <v>24911.347256929854</v>
+        <v>25068.587035050525</v>
       </c>
       <c r="CM25" s="6">
         <v>18747.070765618875</v>
@@ -28062,7 +28065,7 @@
         <v>26189.396856191277</v>
       </c>
       <c r="CO25" s="6">
-        <v>33401.099010823818</v>
+        <v>33347.188721319428</v>
       </c>
     </row>
     <row r="26" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -28322,28 +28325,28 @@
         <v>69036.788940580387</v>
       </c>
       <c r="CH26" s="6">
-        <v>61010.036106745625</v>
+        <v>61009.550381582492</v>
       </c>
       <c r="CI26" s="6">
-        <v>69325.771389409347</v>
+        <v>69324.567896634166</v>
       </c>
       <c r="CJ26" s="6">
-        <v>63314.475905929954</v>
+        <v>63313.55735702769</v>
       </c>
       <c r="CK26" s="6">
-        <v>74209.323768308997</v>
+        <v>74209.323378849396</v>
       </c>
       <c r="CL26" s="6">
-        <v>66960.505468491261</v>
+        <v>66959.558277702279</v>
       </c>
       <c r="CM26" s="6">
-        <v>76232.345555541746</v>
+        <v>76231.021362213913</v>
       </c>
       <c r="CN26" s="6">
-        <v>75730.393452584103</v>
+        <v>75729.293835260207</v>
       </c>
       <c r="CO26" s="6">
-        <v>80756.488554152602</v>
+        <v>80756.489399161917</v>
       </c>
     </row>
     <row r="27" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -28603,28 +28606,28 @@
         <v>55423.920263139094</v>
       </c>
       <c r="CH27" s="6">
-        <v>64982.023701537037</v>
+        <v>65009.555849892917</v>
       </c>
       <c r="CI27" s="6">
-        <v>40595.597884641829</v>
+        <v>40654.599247211547</v>
       </c>
       <c r="CJ27" s="6">
-        <v>39417.12381132778</v>
+        <v>39419.062887684413</v>
       </c>
       <c r="CK27" s="6">
-        <v>56456.5056037053</v>
+        <v>56454.21267765644</v>
       </c>
       <c r="CL27" s="6">
-        <v>70738.107822492893</v>
+        <v>70768.078751608089</v>
       </c>
       <c r="CM27" s="6">
-        <v>44903.050843144229</v>
+        <v>44970.194975703256</v>
       </c>
       <c r="CN27" s="6">
-        <v>53344.954013274604</v>
+        <v>53347.578713246665</v>
       </c>
       <c r="CO27" s="6">
-        <v>67101.889608612837</v>
+        <v>67056.191721928015</v>
       </c>
     </row>
     <row r="28" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -28905,7 +28908,7 @@
         <v>17527.508189510481</v>
       </c>
       <c r="CO28" s="6">
-        <v>22769.589437401453</v>
+        <v>22787.214825263043</v>
       </c>
     </row>
     <row r="29" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -29165,28 +29168,28 @@
         <v>205.14642265167646</v>
       </c>
       <c r="CH29" s="6">
-        <v>398.31152745093516</v>
+        <v>406.36147627261914</v>
       </c>
       <c r="CI29" s="6">
-        <v>486.57842901636502</v>
+        <v>492.43785964322558</v>
       </c>
       <c r="CJ29" s="6">
-        <v>391.36303711473579</v>
+        <v>391.36111327839149</v>
       </c>
       <c r="CK29" s="6">
-        <v>95.579299012522654</v>
+        <v>93.302011634174448</v>
       </c>
       <c r="CL29" s="6">
-        <v>385.03944199129432</v>
+        <v>423.07865901871082</v>
       </c>
       <c r="CM29" s="6">
-        <v>284.85899091189367</v>
+        <v>288.2892940164927</v>
       </c>
       <c r="CN29" s="6">
-        <v>411.41724298435338</v>
+        <v>411.41521805496927</v>
       </c>
       <c r="CO29" s="6">
-        <v>97.526213580638796</v>
+        <v>84.148194282600571</v>
       </c>
     </row>
     <row r="30" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -29461,13 +29464,13 @@
         <v>57052.142770400853</v>
       </c>
       <c r="CM30" s="6">
-        <v>65031.017831760037</v>
+        <v>65016.147889991626</v>
       </c>
       <c r="CN30" s="6">
-        <v>71106.340267988184</v>
+        <v>71105.184213113011</v>
       </c>
       <c r="CO30" s="6">
-        <v>76169.922331395923</v>
+        <v>76470.086961006338</v>
       </c>
     </row>
     <row r="31" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -29748,7 +29751,7 @@
         <v>47642.553877687154</v>
       </c>
       <c r="CO31" s="6">
-        <v>80183.05976110202</v>
+        <v>80185.82352993227</v>
       </c>
     </row>
     <row r="32" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30009,28 +30012,28 @@
         <v>551777.97856436903</v>
       </c>
       <c r="CH33" s="8">
-        <v>486726.0078539747</v>
+        <v>486937.95203945873</v>
       </c>
       <c r="CI33" s="8">
-        <v>453932.50922569662</v>
+        <v>453832.27108071535</v>
       </c>
       <c r="CJ33" s="8">
-        <v>433482.74402541609</v>
+        <v>433483.76262903411</v>
       </c>
       <c r="CK33" s="8">
-        <v>580203.38279120834</v>
+        <v>580232.62426747358</v>
       </c>
       <c r="CL33" s="8">
-        <v>499729.71965406463</v>
+        <v>499972.54053691495</v>
       </c>
       <c r="CM33" s="8">
-        <v>480604.20061940385</v>
+        <v>480440.82975776243</v>
       </c>
       <c r="CN33" s="8">
-        <v>484670.13793258084</v>
+        <v>484670.50493542448</v>
       </c>
       <c r="CO33" s="8">
-        <v>638368.1169404937</v>
+        <v>638114.16743970243</v>
       </c>
     </row>
     <row r="34" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30147,7 +30150,7 @@
     </row>
     <row r="40" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -30158,7 +30161,7 @@
     </row>
     <row r="43" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -31130,10 +31133,10 @@
         <v>20216.222924949328</v>
       </c>
       <c r="CH50" s="6">
-        <v>31265.578491337663</v>
+        <v>31281.581418716582</v>
       </c>
       <c r="CI50" s="6">
-        <v>18123.200734178405</v>
+        <v>17951.354933766794</v>
       </c>
       <c r="CJ50" s="6">
         <v>29350.745706644084</v>
@@ -31142,10 +31145,10 @@
         <v>26012.277561576338</v>
       </c>
       <c r="CL50" s="6">
-        <v>31046.33928596507</v>
+        <v>31062.236102475232</v>
       </c>
       <c r="CM50" s="6">
-        <v>20096.019257101645</v>
+        <v>19905.467016083261</v>
       </c>
       <c r="CN50" s="6">
         <v>30085.655035864416</v>
@@ -33106,7 +33109,7 @@
         <v>4683.810567129316</v>
       </c>
       <c r="CK57" s="6">
-        <v>5968.125420696897</v>
+        <v>5968.1059266650409</v>
       </c>
       <c r="CL57" s="6">
         <v>3565.1567461376917</v>
@@ -33961,7 +33964,7 @@
         <v>334.6487350299634</v>
       </c>
       <c r="CO60" s="6">
-        <v>486.95604071117168</v>
+        <v>486.95604071117191</v>
       </c>
     </row>
     <row r="61" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34511,7 +34514,7 @@
         <v>17732.698781956853</v>
       </c>
       <c r="CK62" s="6">
-        <v>25763.089609334354</v>
+        <v>25751.605731508971</v>
       </c>
       <c r="CL62" s="6">
         <v>24646.655641688456</v>
@@ -34523,7 +34526,7 @@
         <v>17925.753473563913</v>
       </c>
       <c r="CO62" s="6">
-        <v>25803.711942083552</v>
+        <v>25792.209956883882</v>
       </c>
     </row>
     <row r="63" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -34783,25 +34786,25 @@
         <v>52023.732921120885</v>
       </c>
       <c r="CH63" s="6">
-        <v>45184.233408945642</v>
+        <v>45183.873682072037</v>
       </c>
       <c r="CI63" s="6">
-        <v>43728.038640862971</v>
+        <v>43727.279523762321</v>
       </c>
       <c r="CJ63" s="6">
-        <v>43122.065416969795</v>
+        <v>43122.065237896983</v>
       </c>
       <c r="CK63" s="6">
-        <v>46994.802932451799</v>
+        <v>46994.802685817325</v>
       </c>
       <c r="CL63" s="6">
-        <v>44729.511965967948</v>
+        <v>44729.156148321548</v>
       </c>
       <c r="CM63" s="6">
-        <v>44723.61634491352</v>
+        <v>44722.839473705768</v>
       </c>
       <c r="CN63" s="6">
-        <v>45185.317220949975</v>
+        <v>45185.317033269297</v>
       </c>
       <c r="CO63" s="6">
         <v>48430.042560249916</v>
@@ -35064,25 +35067,25 @@
         <v>51525.892998930853</v>
       </c>
       <c r="CH64" s="6">
-        <v>43891.748697045696</v>
+        <v>43891.609411469268</v>
       </c>
       <c r="CI64" s="6">
-        <v>37648.563387642062</v>
+        <v>37648.563387347691</v>
       </c>
       <c r="CJ64" s="6">
-        <v>40469.753030214444</v>
+        <v>40471.743991949406</v>
       </c>
       <c r="CK64" s="6">
-        <v>52968.117586456006</v>
+        <v>52968.11760138697</v>
       </c>
       <c r="CL64" s="6">
-        <v>49311.00681229058</v>
+        <v>49310.850326626402</v>
       </c>
       <c r="CM64" s="6">
-        <v>40594.161490269005</v>
+        <v>40594.161489951555</v>
       </c>
       <c r="CN64" s="6">
-        <v>43057.576446615363</v>
+        <v>43059.695089992543</v>
       </c>
       <c r="CO64" s="6">
         <v>53789.969913542431</v>
@@ -35626,28 +35629,28 @@
         <v>252.54731856597977</v>
       </c>
       <c r="CH66" s="6">
-        <v>728.32749558343914</v>
+        <v>742.83526484779361</v>
       </c>
       <c r="CI66" s="6">
-        <v>800.61815198510612</v>
+        <v>810.25928328154555</v>
       </c>
       <c r="CJ66" s="6">
-        <v>939.58125723180274</v>
+        <v>939.57666868741831</v>
       </c>
       <c r="CK66" s="6">
-        <v>222.17616467444014</v>
+        <v>216.88256050690347</v>
       </c>
       <c r="CL66" s="6">
-        <v>759.71033471228702</v>
+        <v>833.37896351986751</v>
       </c>
       <c r="CM66" s="6">
-        <v>685.9136656051345</v>
+        <v>694.17351293900333</v>
       </c>
       <c r="CN66" s="6">
-        <v>988.04942330519452</v>
+        <v>988.04459142650876</v>
       </c>
       <c r="CO66" s="6">
-        <v>219.96876256287919</v>
+        <v>191.11873004219791</v>
       </c>
     </row>
     <row r="67" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -35922,13 +35925,13 @@
         <v>45118.562967812133</v>
       </c>
       <c r="CM67" s="6">
-        <v>48801.438592715815</v>
+        <v>48790.279693865945</v>
       </c>
       <c r="CN67" s="6">
-        <v>52446.111707699543</v>
+        <v>52445.259032918431</v>
       </c>
       <c r="CO67" s="6">
-        <v>69286.878798104692</v>
+        <v>69200.637338889384</v>
       </c>
     </row>
     <row r="68" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -36470,28 +36473,28 @@
         <v>519770.20128042623</v>
       </c>
       <c r="CH70" s="8">
-        <v>434037.47739194386</v>
+        <v>434067.48907613708</v>
       </c>
       <c r="CI70" s="8">
-        <v>416058.17799369962</v>
+        <v>415895.21420718945</v>
       </c>
       <c r="CJ70" s="8">
-        <v>398149.41229115875</v>
+        <v>398151.39848527644</v>
       </c>
       <c r="CK70" s="8">
-        <v>527113.01255792379</v>
+        <v>527096.21535019553</v>
       </c>
       <c r="CL70" s="8">
-        <v>434771.79709026119</v>
+        <v>434860.85023226833</v>
       </c>
       <c r="CM70" s="8">
-        <v>417014.24985301855</v>
+        <v>416820.02168895892</v>
       </c>
       <c r="CN70" s="8">
-        <v>406550.84347903717</v>
+        <v>406552.10442807386</v>
       </c>
       <c r="CO70" s="8">
-        <v>525392.57335057622</v>
+        <v>525265.97987364046</v>
       </c>
     </row>
     <row r="71" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36608,7 +36611,7 @@
     </row>
     <row r="77" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -36619,7 +36622,7 @@
     </row>
     <row r="80" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -36764,8 +36767,8 @@
       <c r="CK83" s="13"/>
       <c r="CL83" s="13"/>
       <c r="CM83" s="13"/>
-      <c r="CN83" s="3"/>
-      <c r="CO83" s="3"/>
+      <c r="CN83" s="13"/>
+      <c r="CO83" s="13"/>
     </row>
     <row r="84" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
@@ -37309,7 +37312,7 @@
         <v>3.9339872410536287</v>
       </c>
       <c r="CK86" s="11">
-        <v>4.3964217902892671</v>
+        <v>4.8713566289459038</v>
       </c>
       <c r="CL86" s="11"/>
       <c r="CM86" s="11"/>
@@ -37561,10 +37564,10 @@
         <v>-1.7932308515963769</v>
       </c>
       <c r="CD87" s="11">
-        <v>9.755024683403505</v>
+        <v>9.8112025818703188</v>
       </c>
       <c r="CE87" s="11">
-        <v>15.05600803440781</v>
+        <v>13.96503673839662</v>
       </c>
       <c r="CF87" s="11">
         <v>3.5092361586145557</v>
@@ -37573,16 +37576,16 @@
         <v>67.031059368032743</v>
       </c>
       <c r="CH87" s="11">
-        <v>26.441841818963567</v>
+        <v>26.441866601224078</v>
       </c>
       <c r="CI87" s="11">
-        <v>32.859800755218203</v>
+        <v>32.859800755218231</v>
       </c>
       <c r="CJ87" s="11">
         <v>21.54383397631905</v>
       </c>
       <c r="CK87" s="11">
-        <v>9.6608431276021349</v>
+        <v>10.234143498594392</v>
       </c>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
@@ -37855,7 +37858,7 @@
         <v>6.6241174616173453</v>
       </c>
       <c r="CK88" s="11">
-        <v>4.3958548706422675</v>
+        <v>2.8338712942072846</v>
       </c>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
@@ -38128,7 +38131,7 @@
         <v>247.13062685860183</v>
       </c>
       <c r="CK89" s="11">
-        <v>127.05881333765598</v>
+        <v>122.38590880581671</v>
       </c>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
@@ -38401,7 +38404,7 @@
         <v>-21.940823268956223</v>
       </c>
       <c r="CK90" s="11">
-        <v>-18.92067598442199</v>
+        <v>-18.313046080680962</v>
       </c>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
@@ -38674,7 +38677,7 @@
         <v>15.604797250654528</v>
       </c>
       <c r="CK91" s="11">
-        <v>17.561304390164551</v>
+        <v>15.925154837542436</v>
       </c>
       <c r="CL91" s="11"/>
       <c r="CM91" s="11"/>
@@ -38947,7 +38950,7 @@
         <v>18.372060097065798</v>
       </c>
       <c r="CK92" s="11">
-        <v>33.598408950801542</v>
+        <v>30.595818578834837</v>
       </c>
       <c r="CL92" s="11"/>
       <c r="CM92" s="11"/>
@@ -39220,7 +39223,7 @@
         <v>13.622967942402937</v>
       </c>
       <c r="CK93" s="11">
-        <v>24.400321135986687</v>
+        <v>15.046153425567681</v>
       </c>
       <c r="CL93" s="11"/>
       <c r="CM93" s="11"/>
@@ -39481,7 +39484,7 @@
         <v>-5.5718804843734659</v>
       </c>
       <c r="CG94" s="11">
-        <v>-21.04912908626082</v>
+        <v>-21.049386971641638</v>
       </c>
       <c r="CH94" s="11">
         <v>-12.67853157067222</v>
@@ -39493,7 +39496,7 @@
         <v>8.546628116436267</v>
       </c>
       <c r="CK94" s="11">
-        <v>11.697338505455818</v>
+        <v>9.6931945170118325</v>
       </c>
       <c r="CL94" s="11"/>
       <c r="CM94" s="11"/>
@@ -39766,7 +39769,7 @@
         <v>-1.5467883920446042</v>
       </c>
       <c r="CK95" s="11">
-        <v>-18.00581981413211</v>
+        <v>-17.413661532995292</v>
       </c>
       <c r="CL95" s="11"/>
       <c r="CM95" s="11"/>
@@ -40039,7 +40042,7 @@
         <v>4.8324924314516267</v>
       </c>
       <c r="CK96" s="11">
-        <v>17.798552853862361</v>
+        <v>18.180018888481527</v>
       </c>
       <c r="CL96" s="11"/>
       <c r="CM96" s="11"/>
@@ -40312,7 +40315,7 @@
         <v>23.798489345351584</v>
       </c>
       <c r="CK97" s="11">
-        <v>5.055395763250516</v>
+        <v>4.920602940752957</v>
       </c>
       <c r="CL97" s="11"/>
       <c r="CM97" s="11"/>
@@ -40585,7 +40588,7 @@
         <v>0.99164124129929121</v>
       </c>
       <c r="CK98" s="11">
-        <v>11.234902833146961</v>
+        <v>3.8779954697188259</v>
       </c>
       <c r="CL98" s="11"/>
       <c r="CM98" s="11"/>
@@ -40837,7 +40840,7 @@
         <v>17.312001084730284</v>
       </c>
       <c r="CD99" s="11">
-        <v>8.3094118790514813</v>
+        <v>8.9930703446824225</v>
       </c>
       <c r="CE99" s="11">
         <v>1.2583943635415977</v>
@@ -40846,10 +40849,10 @@
         <v>9.8777274173283018</v>
       </c>
       <c r="CG99" s="11">
-        <v>-16.572855835470293</v>
+        <v>-16.475519295404609</v>
       </c>
       <c r="CH99" s="11">
-        <v>-3.0610337128115646</v>
+        <v>-3.0610446218104386</v>
       </c>
       <c r="CI99" s="11">
         <v>10.157608453261588</v>
@@ -40858,7 +40861,7 @@
         <v>7.4969139611984446</v>
       </c>
       <c r="CK99" s="11">
-        <v>15.166537002796105</v>
+        <v>14.846660577404336</v>
       </c>
       <c r="CL99" s="11"/>
       <c r="CM99" s="11"/>
@@ -41110,28 +41113,28 @@
         <v>14.977386156929384</v>
       </c>
       <c r="CD100" s="11">
-        <v>10.576321642802895</v>
+        <v>10.575441300726467</v>
       </c>
       <c r="CE100" s="11">
-        <v>17.597315302397959</v>
+        <v>17.595273817442063</v>
       </c>
       <c r="CF100" s="11">
-        <v>12.59875776127825</v>
+        <v>12.59712420964793</v>
       </c>
       <c r="CG100" s="11">
-        <v>7.4924325234485991</v>
+        <v>7.4924319593151694</v>
       </c>
       <c r="CH100" s="11">
-        <v>9.7532631374524215</v>
+        <v>9.7525844050736907</v>
       </c>
       <c r="CI100" s="11">
-        <v>9.9624916213878407</v>
+        <v>9.9624904635216183</v>
       </c>
       <c r="CJ100" s="11">
-        <v>19.60991916777644</v>
+        <v>19.609917680378757</v>
       </c>
       <c r="CK100" s="11">
-        <v>8.8225635989955862</v>
+        <v>8.8225653087932017</v>
       </c>
       <c r="CL100" s="11"/>
       <c r="CM100" s="11"/>
@@ -41383,28 +41386,28 @@
         <v>-4.9449995135505844</v>
       </c>
       <c r="CD101" s="11">
-        <v>10.631136815099723</v>
+        <v>10.678009976292174</v>
       </c>
       <c r="CE101" s="11">
-        <v>13.99096613311994</v>
+        <v>14.156639818764489</v>
       </c>
       <c r="CF101" s="11">
-        <v>2.7185109838328287</v>
+        <v>2.7235640931614142</v>
       </c>
       <c r="CG101" s="11">
-        <v>1.8630680321127642</v>
+        <v>1.8589309627066655</v>
       </c>
       <c r="CH101" s="11">
-        <v>8.857963776864807</v>
+        <v>8.8579637661447777</v>
       </c>
       <c r="CI101" s="11">
-        <v>10.610640520045138</v>
+        <v>10.615270617352635</v>
       </c>
       <c r="CJ101" s="11">
-        <v>35.334465976292819</v>
+        <v>35.334467146640094</v>
       </c>
       <c r="CK101" s="11">
-        <v>18.855903125908085</v>
+        <v>18.779783724568077</v>
       </c>
       <c r="CL101" s="11"/>
       <c r="CM101" s="11"/>
@@ -41677,7 +41680,7 @@
         <v>26.007217376451976</v>
       </c>
       <c r="CK102" s="11">
-        <v>13.050889148324799</v>
+        <v>13.138399104304227</v>
       </c>
       <c r="CL102" s="11"/>
       <c r="CM102" s="11"/>
@@ -41929,28 +41932,28 @@
         <v>-18.184467440327793</v>
       </c>
       <c r="CD103" s="11">
-        <v>-26.915097959425808</v>
+        <v>-25.438038721824711</v>
       </c>
       <c r="CE103" s="11">
-        <v>31.409586647580028</v>
+        <v>32.992035253496397</v>
       </c>
       <c r="CF103" s="11">
-        <v>-51.793348336530585</v>
+        <v>-51.793585307577189</v>
       </c>
       <c r="CG103" s="11">
-        <v>-53.409229477615959</v>
+        <v>-54.51930848796988</v>
       </c>
       <c r="CH103" s="11">
-        <v>-3.3320867072509515</v>
+        <v>4.1138699710000282</v>
       </c>
       <c r="CI103" s="11">
-        <v>-41.45671613767469</v>
+        <v>-41.456716137674675</v>
       </c>
       <c r="CJ103" s="11">
-        <v>5.12419517629057</v>
+        <v>5.1241945344509645</v>
       </c>
       <c r="CK103" s="11">
-        <v>2.0369625936062334</v>
+        <v>-9.8109539025426926</v>
       </c>
       <c r="CL103" s="11"/>
       <c r="CM103" s="11"/>
@@ -42217,13 +42220,13 @@
         <v>-2.3890201557280193</v>
       </c>
       <c r="CI104" s="11">
-        <v>16.815077293823293</v>
+        <v>16.788366449445519</v>
       </c>
       <c r="CJ104" s="11">
-        <v>9.2829164458147346</v>
+        <v>9.2811397118715462</v>
       </c>
       <c r="CK104" s="11">
-        <v>10.26125206004977</v>
+        <v>10.695761205811948</v>
       </c>
       <c r="CL104" s="11"/>
       <c r="CM104" s="11"/>
@@ -42496,7 +42499,7 @@
         <v>17.660746322620739</v>
       </c>
       <c r="CK105" s="11">
-        <v>14.368173210458295</v>
+        <v>14.372115279933226</v>
       </c>
       <c r="CL105" s="11"/>
       <c r="CM105" s="11"/>
@@ -42749,28 +42752,28 @@
         <v>7.4523813495096363</v>
       </c>
       <c r="CD107" s="11">
-        <v>10.025760908215148</v>
+        <v>10.073671477820341</v>
       </c>
       <c r="CE107" s="11">
-        <v>7.0701977421430087</v>
+        <v>7.0465543198581457</v>
       </c>
       <c r="CF107" s="11">
-        <v>5.646798659970159</v>
+        <v>5.6470469102473118</v>
       </c>
       <c r="CG107" s="11">
-        <v>5.151601791140223</v>
+        <v>5.1569012915554566</v>
       </c>
       <c r="CH107" s="11">
-        <v>2.6716698081174428</v>
+        <v>2.6768479316231293</v>
       </c>
       <c r="CI107" s="11">
-        <v>5.87569536255576</v>
+        <v>5.8630821060132803</v>
       </c>
       <c r="CJ107" s="11">
-        <v>11.808404051295639</v>
+        <v>11.808225986585526</v>
       </c>
       <c r="CK107" s="11">
-        <v>10.024887112768937</v>
+        <v>9.9755754418846294</v>
       </c>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
@@ -42891,7 +42894,7 @@
     </row>
     <row r="114" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -42902,7 +42905,7 @@
     </row>
     <row r="117" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -43047,8 +43050,8 @@
       <c r="CK120" s="13"/>
       <c r="CL120" s="13"/>
       <c r="CM120" s="13"/>
-      <c r="CN120" s="3"/>
-      <c r="CO120" s="3"/>
+      <c r="CN120" s="13"/>
+      <c r="CO120" s="13"/>
     </row>
     <row r="121" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
@@ -43844,10 +43847,10 @@
         <v>0.36586182234444209</v>
       </c>
       <c r="CD124" s="11">
-        <v>6.4456911170080105</v>
+        <v>6.5001741218632105</v>
       </c>
       <c r="CE124" s="11">
-        <v>6.314492659931787</v>
+        <v>5.3064091897726939</v>
       </c>
       <c r="CF124" s="11">
         <v>-18.197302881927286</v>
@@ -43856,10 +43859,10 @@
         <v>28.670314223108221</v>
       </c>
       <c r="CH124" s="11">
-        <v>-0.70121589284948982</v>
+        <v>-0.70119637912586086</v>
       </c>
       <c r="CI124" s="11">
-        <v>10.885596599957736</v>
+        <v>10.885596599957765</v>
       </c>
       <c r="CJ124" s="11">
         <v>2.5038863971826402</v>
@@ -45764,7 +45767,7 @@
         <v>-1.1202796677295623E-2</v>
       </c>
       <c r="CG131" s="11">
-        <v>3.521201959445392</v>
+        <v>3.5208638221800612</v>
       </c>
       <c r="CH131" s="11">
         <v>-2.3456969916387749</v>
@@ -45776,7 +45779,7 @@
         <v>0.27114808386339462</v>
       </c>
       <c r="CK131" s="11">
-        <v>0.46897892083140391</v>
+        <v>0.46930708951668976</v>
       </c>
       <c r="CL131" s="11"/>
       <c r="CM131" s="11"/>
@@ -46595,7 +46598,7 @@
         <v>17.176935232129708</v>
       </c>
       <c r="CK134" s="11">
-        <v>2.8895328248791117</v>
+        <v>2.8895328248791543</v>
       </c>
       <c r="CL134" s="11"/>
       <c r="CM134" s="11"/>
@@ -47129,7 +47132,7 @@
         <v>-1.9525994334238987</v>
       </c>
       <c r="CG136" s="11">
-        <v>-0.68177307650223895</v>
+        <v>-0.72604410148868226</v>
       </c>
       <c r="CH136" s="11">
         <v>1.2800471690138409</v>
@@ -47393,28 +47396,28 @@
         <v>-12.971541187168413</v>
       </c>
       <c r="CD137" s="11">
-        <v>-23.429587761404605</v>
+        <v>-23.430197364200239</v>
       </c>
       <c r="CE137" s="11">
-        <v>-19.454492691187696</v>
+        <v>-19.455890958155052</v>
       </c>
       <c r="CF137" s="11">
-        <v>-15.730455210880066</v>
+        <v>-15.730455560825845</v>
       </c>
       <c r="CG137" s="11">
-        <v>-9.6666073468699665</v>
+        <v>-9.6666078209506736</v>
       </c>
       <c r="CH137" s="11">
-        <v>-1.0063719325769682</v>
+        <v>-1.0063712928865414</v>
       </c>
       <c r="CI137" s="11">
-        <v>2.2767490493392586</v>
+        <v>2.2767479724011537</v>
       </c>
       <c r="CJ137" s="11">
-        <v>4.7846775984162946</v>
+        <v>4.7846775983239951</v>
       </c>
       <c r="CK137" s="11">
-        <v>3.0540390388721619</v>
+        <v>3.0540395797123807</v>
       </c>
       <c r="CL137" s="11"/>
       <c r="CM137" s="11"/>
@@ -47666,28 +47669,28 @@
         <v>-4.9068133362109307</v>
       </c>
       <c r="CD138" s="11">
-        <v>-7.4639328916115062</v>
+        <v>-7.4642265445150713</v>
       </c>
       <c r="CE138" s="11">
-        <v>2.6269651537298699</v>
+        <v>2.6269651529274256</v>
       </c>
       <c r="CF138" s="11">
-        <v>1.5196562543497265</v>
+        <v>1.5246506448714001</v>
       </c>
       <c r="CG138" s="11">
-        <v>2.7990288058764605</v>
+        <v>2.799028834854056</v>
       </c>
       <c r="CH138" s="11">
-        <v>12.346872193792649</v>
+        <v>12.346872187696633</v>
       </c>
       <c r="CI138" s="11">
-        <v>7.8239322767726662</v>
+        <v>7.8239322767725383</v>
       </c>
       <c r="CJ138" s="11">
-        <v>6.3944630807825149</v>
+        <v>6.3944639958138083</v>
       </c>
       <c r="CK138" s="11">
-        <v>1.5515981396638807</v>
+        <v>1.5515981110379045</v>
       </c>
       <c r="CL138" s="11"/>
       <c r="CM138" s="11"/>
@@ -48212,28 +48215,28 @@
         <v>-5.3911853893030326</v>
       </c>
       <c r="CD140" s="11">
-        <v>3.6592384273789804</v>
+        <v>5.7240572380685677</v>
       </c>
       <c r="CE140" s="11">
-        <v>40.962712697245308</v>
+        <v>42.660201091240253</v>
       </c>
       <c r="CF140" s="11">
-        <v>-12.155179685612225</v>
+        <v>-12.155608685077524</v>
       </c>
       <c r="CG140" s="11">
-        <v>-12.025926097332501</v>
+        <v>-14.122010188660397</v>
       </c>
       <c r="CH140" s="11">
-        <v>4.3088911676618835</v>
+        <v>12.188933799558683</v>
       </c>
       <c r="CI140" s="11">
         <v>-14.326990475492678</v>
       </c>
       <c r="CJ140" s="11">
-        <v>5.1584858361467099</v>
+        <v>5.1584851299894154</v>
       </c>
       <c r="CK140" s="11">
-        <v>-0.99353686962572851</v>
+        <v>-11.879161885810305</v>
       </c>
       <c r="CL140" s="11"/>
       <c r="CM140" s="11"/>
@@ -48500,13 +48503,13 @@
         <v>-5.7964336674048837</v>
       </c>
       <c r="CI141" s="11">
-        <v>-2.351378288908478</v>
+        <v>-2.3737065465157343</v>
       </c>
       <c r="CJ141" s="11">
-        <v>-3.2600859220330562</v>
+        <v>-3.2616587304334388</v>
       </c>
       <c r="CK141" s="11">
-        <v>-3.020192974971124</v>
+        <v>-3.1409038543950345</v>
       </c>
       <c r="CL141" s="11"/>
       <c r="CM141" s="11"/>
@@ -49032,28 +49035,28 @@
         <v>-2.4922338426034969</v>
       </c>
       <c r="CD144" s="11">
-        <v>-1.2923854644821233</v>
+        <v>-1.2855602894472327</v>
       </c>
       <c r="CE144" s="11">
-        <v>1.0292061679123776E-2</v>
+        <v>-2.8880478956764932E-2</v>
       </c>
       <c r="CF144" s="11">
-        <v>-1.6634934954323626</v>
+        <v>-1.6630029374037747</v>
       </c>
       <c r="CG144" s="11">
-        <v>1.4127033945787701</v>
+        <v>1.409471734185999</v>
       </c>
       <c r="CH144" s="11">
-        <v>0.16918347759499852</v>
+        <v>0.1827736875249002</v>
       </c>
       <c r="CI144" s="11">
-        <v>0.22979282943775559</v>
+        <v>0.22236550221728635</v>
       </c>
       <c r="CJ144" s="11">
-        <v>2.1101202032503892</v>
+        <v>2.1099275237402253</v>
       </c>
       <c r="CK144" s="11">
-        <v>-0.32638906009904645</v>
+        <v>-0.34722986491927088</v>
       </c>
       <c r="CL144" s="11"/>
       <c r="CM144" s="11"/>
@@ -49169,7 +49172,7 @@
     </row>
     <row r="150" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -49180,7 +49183,7 @@
     </row>
     <row r="153" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -49892,7 +49895,7 @@
         <v>84.166032863989074</v>
       </c>
       <c r="CO159" s="11">
-        <v>100.11238707980246</v>
+        <v>100.56783238712144</v>
       </c>
     </row>
     <row r="160" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -50152,10 +50155,10 @@
         <v>86.601653831424827</v>
       </c>
       <c r="CH160" s="11">
-        <v>91.481414314475884</v>
+        <v>91.481415188560234</v>
       </c>
       <c r="CI160" s="11">
-        <v>95.373552923645761</v>
+        <v>95.373552923645775</v>
       </c>
       <c r="CJ160" s="11">
         <v>99.578304982813975</v>
@@ -50164,16 +50167,16 @@
         <v>112.42038281965048</v>
       </c>
       <c r="CL160" s="11">
-        <v>116.48761484978829</v>
+        <v>116.48761590246943</v>
       </c>
       <c r="CM160" s="11">
-        <v>114.27373461737469</v>
+        <v>114.27373461737471</v>
       </c>
       <c r="CN160" s="11">
         <v>118.07483007597521</v>
       </c>
       <c r="CO160" s="11">
-        <v>132.54441596268279</v>
+        <v>133.23735029254144</v>
       </c>
     </row>
     <row r="161" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -50454,7 +50457,7 @@
         <v>169.85500019157971</v>
       </c>
       <c r="CO161" s="11">
-        <v>88.16134128434895</v>
+        <v>86.842260490065811</v>
       </c>
     </row>
     <row r="162" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -50735,7 +50738,7 @@
         <v>342.96223912087396</v>
       </c>
       <c r="CO162" s="11">
-        <v>255.00196605918916</v>
+        <v>249.7539872412346</v>
       </c>
     </row>
     <row r="163" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -51016,7 +51019,7 @@
         <v>95.227918634738955</v>
       </c>
       <c r="CO163" s="11">
-        <v>104.01227667521181</v>
+        <v>104.79177219310614</v>
       </c>
     </row>
     <row r="164" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -51297,7 +51300,7 @@
         <v>116.45572375648744</v>
       </c>
       <c r="CO164" s="11">
-        <v>133.1483608041394</v>
+        <v>131.29527970664617</v>
       </c>
     </row>
     <row r="165" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -51578,7 +51581,7 @@
         <v>132.06207587793227</v>
       </c>
       <c r="CO165" s="11">
-        <v>110.13874862187177</v>
+        <v>107.66340816842165</v>
       </c>
     </row>
     <row r="166" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -51859,7 +51862,7 @@
         <v>98.872552100295678</v>
       </c>
       <c r="CO166" s="11">
-        <v>139.07586564590412</v>
+        <v>128.61818386627763</v>
       </c>
     </row>
     <row r="167" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -52128,7 +52131,7 @@
         <v>142.90114355150442</v>
       </c>
       <c r="CK167" s="11">
-        <v>132.2828628160311</v>
+        <v>132.28286280999393</v>
       </c>
       <c r="CL167" s="11">
         <v>95.088472257642394</v>
@@ -52140,7 +52143,7 @@
         <v>154.6949205520753</v>
       </c>
       <c r="CO167" s="11">
-        <v>147.06672512394167</v>
+        <v>144.42748956708922</v>
       </c>
     </row>
     <row r="168" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -52421,7 +52424,7 @@
         <v>105.9696254178089</v>
       </c>
       <c r="CO168" s="11">
-        <v>99.646780162895709</v>
+        <v>100.36642472703818</v>
       </c>
     </row>
     <row r="169" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -52702,7 +52705,7 @@
         <v>115.39683787202594</v>
       </c>
       <c r="CO169" s="11">
-        <v>101.80531674980561</v>
+        <v>102.13499202630818</v>
       </c>
     </row>
     <row r="170" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -52983,7 +52986,7 @@
         <v>139.18033193760283</v>
       </c>
       <c r="CO170" s="11">
-        <v>114.75836205726706</v>
+        <v>114.61111970560565</v>
       </c>
     </row>
     <row r="171" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -53264,7 +53267,7 @@
         <v>150.25865216989723</v>
       </c>
       <c r="CO171" s="11">
-        <v>90.560371476072589</v>
+        <v>84.57084618519805</v>
       </c>
     </row>
     <row r="172" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -53524,7 +53527,7 @@
         <v>134.01644245227109</v>
       </c>
       <c r="CH172" s="11">
-        <v>105.60019717490341</v>
+        <v>106.26675484074633</v>
       </c>
       <c r="CI172" s="11">
         <v>68.112430352517606</v>
@@ -53533,10 +53536,10 @@
         <v>137.38985434798266</v>
       </c>
       <c r="CK172" s="11">
-        <v>112.57358705663513</v>
+        <v>112.75519002331902</v>
       </c>
       <c r="CL172" s="11">
-        <v>101.07394536236262</v>
+        <v>101.71192148539778</v>
       </c>
       <c r="CM172" s="11">
         <v>78.8376513108675</v>
@@ -53545,7 +53548,7 @@
         <v>146.09928053966718</v>
       </c>
       <c r="CO172" s="11">
-        <v>129.44300062639286</v>
+        <v>129.29170775619843</v>
       </c>
     </row>
     <row r="173" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -53805,28 +53808,28 @@
         <v>132.70248992946151</v>
       </c>
       <c r="CH173" s="11">
-        <v>135.02505521022465</v>
+        <v>135.02505520191761</v>
       </c>
       <c r="CI173" s="11">
-        <v>158.53848821983479</v>
+        <v>158.53848821983482</v>
       </c>
       <c r="CJ173" s="11">
-        <v>146.82616728514552</v>
+        <v>146.82403778144143</v>
       </c>
       <c r="CK173" s="11">
         <v>157.90963923175531</v>
       </c>
       <c r="CL173" s="11">
-        <v>149.70095251528247</v>
+        <v>149.70002576320661</v>
       </c>
       <c r="CM173" s="11">
-        <v>170.45210514201131</v>
+        <v>170.45210514201133</v>
       </c>
       <c r="CN173" s="11">
-        <v>167.59956134040826</v>
+        <v>167.59712846432353</v>
       </c>
       <c r="CO173" s="11">
-        <v>166.74874578870464</v>
+        <v>166.74874753350863</v>
       </c>
     </row>
     <row r="174" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -54086,28 +54089,28 @@
         <v>107.56518138227923</v>
       </c>
       <c r="CH174" s="11">
-        <v>148.05066015952767</v>
+        <v>148.11385757229795</v>
       </c>
       <c r="CI174" s="11">
-        <v>107.82774754684827</v>
+        <v>107.9844636538617</v>
       </c>
       <c r="CJ174" s="11">
-        <v>97.398972961113003</v>
+        <v>97.398972714211695</v>
       </c>
       <c r="CK174" s="11">
-        <v>106.58582591981951</v>
+        <v>106.58149701015273</v>
       </c>
       <c r="CL174" s="11">
-        <v>143.452978138872</v>
+        <v>143.51421296297423</v>
       </c>
       <c r="CM174" s="11">
-        <v>110.61455439573034</v>
+        <v>110.77995781938968</v>
       </c>
       <c r="CN174" s="11">
-        <v>123.89214260448212</v>
+        <v>123.89214229630045</v>
       </c>
       <c r="CO174" s="11">
-        <v>124.74795899024835</v>
+        <v>124.66300284180976</v>
       </c>
     </row>
     <row r="175" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -54388,7 +54391,7 @@
         <v>101.46451947025396</v>
       </c>
       <c r="CO175" s="11">
-        <v>116.34673106837509</v>
+        <v>116.43679225578236</v>
       </c>
     </row>
     <row r="176" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -54648,28 +54651,28 @@
         <v>81.230885291732179</v>
       </c>
       <c r="CH176" s="11">
-        <v>54.688519912578734</v>
+        <v>54.704117521383736</v>
       </c>
       <c r="CI176" s="11">
         <v>60.775343128295297</v>
       </c>
       <c r="CJ176" s="11">
-        <v>41.652920820043896</v>
+        <v>41.652919481825798</v>
       </c>
       <c r="CK176" s="11">
-        <v>43.019600753562926</v>
+        <v>43.019600753562941</v>
       </c>
       <c r="CL176" s="11">
-        <v>50.682401488866702</v>
+        <v>50.766659291685471</v>
       </c>
       <c r="CM176" s="11">
-        <v>41.52986085509496</v>
+        <v>41.529860855094967</v>
       </c>
       <c r="CN176" s="11">
-        <v>41.639338405572083</v>
+        <v>41.639337093175165</v>
       </c>
       <c r="CO176" s="11">
-        <v>44.33639233332525</v>
+        <v>44.02927659890851</v>
       </c>
     </row>
     <row r="177" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -54950,7 +54953,7 @@
         <v>135.57981316954169</v>
       </c>
       <c r="CO177" s="11">
-        <v>109.93412266895115</v>
+        <v>110.50488825199254</v>
       </c>
     </row>
     <row r="178" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -55231,7 +55234,7 @@
         <v>90.819850045424431</v>
       </c>
       <c r="CO178" s="11">
-        <v>143.50447756707331</v>
+        <v>143.50942391363682</v>
       </c>
     </row>
     <row r="179" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -55492,28 +55495,28 @@
         <v>106.15806316042999</v>
       </c>
       <c r="CH180" s="11">
-        <v>112.13916613344708</v>
+        <v>112.1802402377221</v>
       </c>
       <c r="CI180" s="11">
-        <v>109.10313346432299</v>
+        <v>109.12178250135538</v>
       </c>
       <c r="CJ180" s="11">
-        <v>108.87439002632982</v>
+        <v>108.87410273533531</v>
       </c>
       <c r="CK180" s="11">
-        <v>110.07191417560584</v>
+        <v>110.08096954025271</v>
       </c>
       <c r="CL180" s="11">
-        <v>114.94069371530964</v>
+        <v>114.9729942968812</v>
       </c>
       <c r="CM180" s="11">
-        <v>115.24886758397304</v>
+        <v>115.26337621955187</v>
       </c>
       <c r="CN180" s="11">
-        <v>119.21513525468106</v>
+        <v>119.21485577285237</v>
       </c>
       <c r="CO180" s="11">
-        <v>121.50307204942786</v>
+        <v>121.4840084623811</v>
       </c>
     </row>
     <row r="181" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -55628,7 +55631,7 @@
     </row>
     <row r="187" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -55639,7 +55642,7 @@
     </row>
     <row r="190" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -56330,28 +56333,28 @@
         <v>21.789522265331936</v>
       </c>
       <c r="CH196" s="11">
-        <v>17.762232673658154</v>
+        <v>17.754501499859462</v>
       </c>
       <c r="CI196" s="11">
-        <v>16.134566996307377</v>
+        <v>16.138130645630806</v>
       </c>
       <c r="CJ196" s="11">
-        <v>13.392518220672134</v>
+        <v>13.392486750825533</v>
       </c>
       <c r="CK196" s="11">
-        <v>22.077210065729957</v>
+        <v>22.076097459876479</v>
       </c>
       <c r="CL196" s="11">
-        <v>17.64880149193614</v>
+        <v>17.640230026081397</v>
       </c>
       <c r="CM196" s="11">
-        <v>15.46238200127989</v>
+        <v>15.46763988635983</v>
       </c>
       <c r="CN196" s="11">
-        <v>12.4493129982816</v>
+        <v>12.449303571396273</v>
       </c>
       <c r="CO196" s="11">
-        <v>20.947821847001766</v>
+        <v>21.051495119600339</v>
       </c>
     </row>
     <row r="197" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -56611,28 +56614,28 @@
         <v>3.172939855411677</v>
       </c>
       <c r="CH197" s="11">
-        <v>5.8764464885672112</v>
+        <v>5.8768952502771192</v>
       </c>
       <c r="CI197" s="11">
-        <v>3.8077776084277257</v>
+        <v>3.7725049735880458</v>
       </c>
       <c r="CJ197" s="11">
-        <v>6.7423618303889352</v>
+        <v>6.7423459871330946</v>
       </c>
       <c r="CK197" s="11">
-        <v>5.0401467627012382</v>
+        <v>5.0398927588314608</v>
       </c>
       <c r="CL197" s="11">
-        <v>7.2369400317893131</v>
+        <v>7.2371291117132763</v>
       </c>
       <c r="CM197" s="11">
-        <v>4.7782503117784199</v>
+        <v>4.7345519246931831</v>
       </c>
       <c r="CN197" s="11">
-        <v>7.3294356884398004</v>
+        <v>7.3294301384347715</v>
       </c>
       <c r="CO197" s="11">
-        <v>5.0234702164991161</v>
+        <v>5.0517422560624654</v>
       </c>
     </row>
     <row r="198" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -56892,28 +56895,28 @@
         <v>3.3171109055090846</v>
       </c>
       <c r="CH198" s="11">
-        <v>4.2707750738985428</v>
+        <v>4.2689161800895237</v>
       </c>
       <c r="CI198" s="11">
-        <v>3.611231158977783</v>
+        <v>3.6120287732849645</v>
       </c>
       <c r="CJ198" s="11">
-        <v>8.0681604176344575</v>
+        <v>8.0681414590064762</v>
       </c>
       <c r="CK198" s="11">
-        <v>3.2772365755304218</v>
+        <v>3.2770714155040279</v>
       </c>
       <c r="CL198" s="11">
-        <v>4.5126951540625466</v>
+        <v>4.5105034804554984</v>
       </c>
       <c r="CM198" s="11">
-        <v>3.8948139338151293</v>
+        <v>3.8961383406283909</v>
       </c>
       <c r="CN198" s="11">
-        <v>7.6940592379295234</v>
+        <v>7.6940534118237665</v>
       </c>
       <c r="CO198" s="11">
-        <v>3.1095684157818937</v>
+        <v>3.0642616672821825</v>
       </c>
     </row>
     <row r="199" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -57173,28 +57176,28 @@
         <v>1.3417968672060858</v>
       </c>
       <c r="CH199" s="11">
-        <v>2.1555786030288586</v>
+        <v>2.1546403677786543</v>
       </c>
       <c r="CI199" s="11">
-        <v>1.4357553418662259</v>
+        <v>1.4360724578169557</v>
       </c>
       <c r="CJ199" s="11">
-        <v>0.21553014680520183</v>
+        <v>0.21552964035073627</v>
       </c>
       <c r="CK199" s="11">
-        <v>1.4530253994538385</v>
+        <v>1.4529521726031689</v>
       </c>
       <c r="CL199" s="11">
-        <v>2.2742463891968598</v>
+        <v>2.2731418595051873</v>
       </c>
       <c r="CM199" s="11">
-        <v>0.93694314541476809</v>
+        <v>0.93726174699792797</v>
       </c>
       <c r="CN199" s="11">
-        <v>0.66915466330322959</v>
+        <v>0.66915415660504651</v>
       </c>
       <c r="CO199" s="11">
-        <v>2.9986145099272989</v>
+        <v>2.9380713677328165</v>
       </c>
     </row>
     <row r="200" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -57454,28 +57457,28 @@
         <v>8.4583144423060439</v>
       </c>
       <c r="CH200" s="11">
-        <v>9.5413966862098061</v>
+        <v>9.5372437062653006</v>
       </c>
       <c r="CI200" s="11">
-        <v>9.9673872584545773</v>
+        <v>9.9695887599183628</v>
       </c>
       <c r="CJ200" s="11">
-        <v>9.9206440215274085</v>
+        <v>9.9206207099186123</v>
       </c>
       <c r="CK200" s="11">
-        <v>7.5701053975121404</v>
+        <v>7.5697238935289981</v>
       </c>
       <c r="CL200" s="11">
-        <v>7.0140244346003051</v>
+        <v>7.0106179443084287</v>
       </c>
       <c r="CM200" s="11">
-        <v>7.1202936898650675</v>
+        <v>7.1227149006431771</v>
       </c>
       <c r="CN200" s="11">
-        <v>6.9261099962298136</v>
+        <v>6.926104751631601</v>
       </c>
       <c r="CO200" s="11">
-        <v>5.578547222028738</v>
+        <v>5.622591056133464</v>
       </c>
     </row>
     <row r="201" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -57735,28 +57738,28 @@
         <v>1.7010343235535859</v>
       </c>
       <c r="CH201" s="11">
-        <v>1.3693217254380856</v>
+        <v>1.3687257156661055</v>
       </c>
       <c r="CI201" s="11">
-        <v>4.4861872254113129</v>
+        <v>4.4871780916721962</v>
       </c>
       <c r="CJ201" s="11">
-        <v>0.53057617136072255</v>
+        <v>0.53057492460858469</v>
       </c>
       <c r="CK201" s="11">
-        <v>1.4003804045008224</v>
+        <v>1.4003098307539354</v>
       </c>
       <c r="CL201" s="11">
-        <v>1.0554306050351356</v>
+        <v>1.0549180157016762</v>
       </c>
       <c r="CM201" s="11">
-        <v>4.2096845045466731</v>
+        <v>4.2111159811035117</v>
       </c>
       <c r="CN201" s="11">
-        <v>0.54859159502933708</v>
+        <v>0.54859117962408066</v>
       </c>
       <c r="CO201" s="11">
-        <v>1.4963028030813286</v>
+        <v>1.4760653290372179</v>
       </c>
     </row>
     <row r="202" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -58016,28 +58019,28 @@
         <v>2.3860202756789262</v>
       </c>
       <c r="CH202" s="11">
-        <v>1.4666491868754326</v>
+        <v>1.4660108144380384</v>
       </c>
       <c r="CI202" s="11">
-        <v>0.94928962512566273</v>
+        <v>0.94949929516707676</v>
       </c>
       <c r="CJ202" s="11">
-        <v>1.6877713064681155</v>
+        <v>1.687767340529579</v>
       </c>
       <c r="CK202" s="11">
-        <v>1.331593144772788</v>
+        <v>1.3315260376372888</v>
       </c>
       <c r="CL202" s="11">
-        <v>1.4372383595184537</v>
+        <v>1.4365403382092234</v>
       </c>
       <c r="CM202" s="11">
-        <v>0.89874207216297897</v>
+        <v>0.89904768371309784</v>
       </c>
       <c r="CN202" s="11">
-        <v>1.7868510709417635</v>
+        <v>1.7868497179000218</v>
       </c>
       <c r="CO202" s="11">
-        <v>1.6168953241379218</v>
+        <v>1.5811850235433897</v>
       </c>
     </row>
     <row r="203" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -58297,28 +58300,28 @@
         <v>0.50304910798287483</v>
       </c>
       <c r="CH203" s="11">
-        <v>0.36663709836774361</v>
+        <v>0.36647751622620722</v>
       </c>
       <c r="CI203" s="11">
-        <v>0.13442326494307336</v>
+        <v>0.13445295507217797</v>
       </c>
       <c r="CJ203" s="11">
-        <v>0.11582758933495957</v>
+        <v>0.11582731716236226</v>
       </c>
       <c r="CK203" s="11">
-        <v>0.4790286733348868</v>
+        <v>0.47900453214565364</v>
       </c>
       <c r="CL203" s="11">
-        <v>0.39052164888138768</v>
+        <v>0.39033198484213522</v>
       </c>
       <c r="CM203" s="11">
-        <v>0.15716283885005869</v>
+        <v>0.15721628107813473</v>
       </c>
       <c r="CN203" s="11">
-        <v>0.11770738149355973</v>
+        <v>0.11770729236301997</v>
       </c>
       <c r="CO203" s="11">
-        <v>0.54161674108447877</v>
+        <v>0.50108970719495938</v>
       </c>
     </row>
     <row r="204" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -58578,28 +58581,28 @@
         <v>1.8122588845866383</v>
       </c>
       <c r="CH204" s="11">
-        <v>0.79762896273483075</v>
+        <v>0.7972817874528112</v>
       </c>
       <c r="CI204" s="11">
-        <v>1.1609409063509202</v>
+        <v>1.1611973239093463</v>
       </c>
       <c r="CJ204" s="11">
-        <v>1.5440565869033895</v>
+        <v>1.5440529586668523</v>
       </c>
       <c r="CK204" s="11">
-        <v>1.3606965069678294</v>
+        <v>1.360623488776137</v>
       </c>
       <c r="CL204" s="11">
-        <v>0.67837732081240887</v>
+        <v>0.6780478543585744</v>
       </c>
       <c r="CM204" s="11">
-        <v>1.0780790005532348</v>
+        <v>1.0784455944901543</v>
       </c>
       <c r="CN204" s="11">
-        <v>1.4990119709824614</v>
+        <v>1.4990108358986252</v>
       </c>
       <c r="CO204" s="11">
-        <v>1.3813799980199042</v>
+        <v>1.3571298574164419</v>
       </c>
     </row>
     <row r="205" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -58859,28 +58862,28 @@
         <v>0.703224286383898</v>
       </c>
       <c r="CH205" s="11">
-        <v>0.24511212064297522</v>
+        <v>0.24500543335654715</v>
       </c>
       <c r="CI205" s="11">
-        <v>0.71978789301331292</v>
+        <v>0.71994687290031789</v>
       </c>
       <c r="CJ205" s="11">
-        <v>0.56402392996099548</v>
+        <v>0.56402260461304654</v>
       </c>
       <c r="CK205" s="11">
-        <v>0.70579224067068247</v>
+        <v>0.70575667147620669</v>
       </c>
       <c r="CL205" s="11">
-        <v>0.26852600420078204</v>
+        <v>0.26839558959573534</v>
       </c>
       <c r="CM205" s="11">
-        <v>0.70030073635703471</v>
+        <v>0.70053886918759456</v>
       </c>
       <c r="CN205" s="11">
-        <v>0.49665289295180687</v>
+        <v>0.49665251687564343</v>
       </c>
       <c r="CO205" s="11">
-        <v>0.52597969126771471</v>
+        <v>0.52998912814674159</v>
       </c>
     </row>
     <row r="206" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -59140,28 +59143,28 @@
         <v>9.0689307591044974E-2</v>
       </c>
       <c r="CH206" s="11">
-        <v>8.1635237058566901E-2</v>
+        <v>8.1599704576958712E-2</v>
       </c>
       <c r="CI206" s="11">
-        <v>6.4424059998033731E-2</v>
+        <v>6.4438289370156138E-2</v>
       </c>
       <c r="CJ206" s="11">
-        <v>9.3876464191096853E-2</v>
+        <v>9.3876243599429268E-2</v>
       </c>
       <c r="CK206" s="11">
-        <v>8.5336507443876872E-2</v>
+        <v>8.5332206814521305E-2</v>
       </c>
       <c r="CL206" s="11">
-        <v>8.5928420197558419E-2</v>
+        <v>8.5886687475933546E-2</v>
       </c>
       <c r="CM206" s="11">
-        <v>5.720510255039276E-2</v>
+        <v>5.7224554783248685E-2</v>
       </c>
       <c r="CN206" s="11">
-        <v>8.8019356016293654E-2</v>
+        <v>8.8019289366159964E-2</v>
       </c>
       <c r="CO206" s="11">
-        <v>9.1365847730325939E-2</v>
+        <v>9.1698195464001139E-2</v>
       </c>
     </row>
     <row r="207" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -59421,28 +59424,28 @@
         <v>0.10718675279507818</v>
       </c>
       <c r="CH207" s="11">
-        <v>6.7389964930006443E-2</v>
+        <v>6.7360632833037906E-2</v>
       </c>
       <c r="CI207" s="11">
-        <v>5.957090606573999E-2</v>
+        <v>5.9584063519494142E-2</v>
       </c>
       <c r="CJ207" s="11">
-        <v>8.6792040040580304E-2</v>
+        <v>8.6791836095949343E-2</v>
       </c>
       <c r="CK207" s="11">
-        <v>9.1680184552155541E-2</v>
+        <v>9.1675564226051068E-2</v>
       </c>
       <c r="CL207" s="11">
-        <v>7.8201439580241047E-2</v>
+        <v>7.8163459609223745E-2</v>
       </c>
       <c r="CM207" s="11">
-        <v>5.7107210096521248E-2</v>
+        <v>5.7126629041668167E-2</v>
       </c>
       <c r="CN207" s="11">
-        <v>9.6099425936673116E-2</v>
+        <v>9.6099353168138141E-2</v>
       </c>
       <c r="CO207" s="11">
-        <v>8.7539267928562703E-2</v>
+        <v>8.7461742617694876E-2</v>
       </c>
     </row>
     <row r="208" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -59702,28 +59705,28 @@
         <v>0.31139702219315679</v>
       </c>
       <c r="CH208" s="11">
-        <v>4.8185240305106028E-2</v>
+        <v>4.8164267239716396E-2</v>
       </c>
       <c r="CI208" s="11">
-        <v>5.1659421963699131E-2</v>
+        <v>5.1670832004276711E-2</v>
       </c>
       <c r="CJ208" s="11">
-        <v>6.8219478697172597E-2</v>
+        <v>6.8219318394495049E-2</v>
       </c>
       <c r="CK208" s="11">
-        <v>0.13054343757276382</v>
+        <v>0.13053685868927514</v>
       </c>
       <c r="CL208" s="11">
-        <v>3.4885079501735347E-2</v>
+        <v>3.4868136919661105E-2</v>
       </c>
       <c r="CM208" s="11">
-        <v>3.0695121598999654E-2</v>
+        <v>3.0705559280714476E-2</v>
       </c>
       <c r="CN208" s="11">
-        <v>6.16196714076385E-2</v>
+        <v>6.1619624747909059E-2</v>
       </c>
       <c r="CO208" s="11">
-        <v>0.13197910922669906</v>
+        <v>0.12329926132299651</v>
       </c>
     </row>
     <row r="209" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -59983,28 +59986,28 @@
         <v>6.3003214419694409</v>
       </c>
       <c r="CH209" s="11">
-        <v>5.2797611781915199</v>
+        <v>5.3107749219933913</v>
       </c>
       <c r="CI209" s="11">
-        <v>3.749105255682013</v>
+        <v>3.7499333223051154</v>
       </c>
       <c r="CJ209" s="11">
-        <v>5.6202765540924418</v>
+        <v>5.620263347521572</v>
       </c>
       <c r="CK209" s="11">
-        <v>4.9986668416719198</v>
+        <v>5.004246704203557</v>
       </c>
       <c r="CL209" s="11">
-        <v>4.9849641270434359</v>
+        <v>5.0139927701088638</v>
       </c>
       <c r="CM209" s="11">
-        <v>3.9007296943009666</v>
+        <v>3.9020561127311186</v>
       </c>
       <c r="CN209" s="11">
-        <v>5.4035507464737398</v>
+        <v>5.4035466547898645</v>
       </c>
       <c r="CO209" s="11">
-        <v>5.2322630351442418</v>
+        <v>5.2258969355151503</v>
       </c>
     </row>
     <row r="210" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -60264,28 +60267,28 @@
         <v>12.511697027163388</v>
       </c>
       <c r="CH210" s="11">
-        <v>12.534780373817537</v>
+        <v>12.529224745381651</v>
       </c>
       <c r="CI210" s="11">
-        <v>15.272264043759062</v>
+        <v>15.275372051341982</v>
       </c>
       <c r="CJ210" s="11">
-        <v>14.605996842683473</v>
+        <v>14.605750622131156</v>
       </c>
       <c r="CK210" s="11">
-        <v>12.790225974089834</v>
+        <v>12.789581329132682</v>
       </c>
       <c r="CL210" s="11">
-        <v>13.399344252497997</v>
+        <v>13.392647165341351</v>
       </c>
       <c r="CM210" s="11">
-        <v>15.861772630637292</v>
+        <v>15.866890705490096</v>
       </c>
       <c r="CN210" s="11">
-        <v>15.625141209570135</v>
+        <v>15.624902498523211</v>
       </c>
       <c r="CO210" s="11">
-        <v>12.65045769221592</v>
+        <v>12.655492311537319</v>
       </c>
     </row>
     <row r="211" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -60545,28 +60548,28 @@
         <v>10.044605333352113</v>
       </c>
       <c r="CH211" s="11">
-        <v>13.350842702663352</v>
+        <v>13.350685765529507</v>
       </c>
       <c r="CI211" s="11">
-        <v>8.943091111471281</v>
+        <v>8.9580670740757018</v>
       </c>
       <c r="CJ211" s="11">
-        <v>9.0931240873146866</v>
+        <v>9.0935500440920514</v>
       </c>
       <c r="CK211" s="11">
-        <v>9.7304681906726671</v>
+        <v>9.7295826391920315</v>
       </c>
       <c r="CL211" s="11">
-        <v>14.155273348853656</v>
+        <v>14.154393094390953</v>
       </c>
       <c r="CM211" s="11">
-        <v>9.343041693200572</v>
+        <v>9.3601942612531843</v>
       </c>
       <c r="CN211" s="11">
-        <v>11.006445381765001</v>
+        <v>11.006978590610641</v>
       </c>
       <c r="CO211" s="11">
-        <v>10.511472585788276</v>
+        <v>10.508494426785218</v>
       </c>
     </row>
     <row r="212" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -60826,28 +60829,28 @@
         <v>3.0004200598199833</v>
       </c>
       <c r="CH212" s="11">
-        <v>3.713738710565615</v>
+        <v>3.7121222719150344</v>
       </c>
       <c r="CI212" s="11">
-        <v>3.0830880584909819</v>
+        <v>3.0837690215856979</v>
       </c>
       <c r="CJ212" s="11">
-        <v>3.2088760639142624</v>
+        <v>3.208868523671581</v>
       </c>
       <c r="CK212" s="11">
-        <v>3.4713704390292297</v>
+        <v>3.4711954954082489</v>
       </c>
       <c r="CL212" s="11">
-        <v>3.9561907006465171</v>
+        <v>3.9542693036881489</v>
       </c>
       <c r="CM212" s="11">
-        <v>3.1206826260651632</v>
+        <v>3.1217437944296145</v>
       </c>
       <c r="CN212" s="11">
-        <v>3.616378814728753</v>
+        <v>3.6163760763295825</v>
       </c>
       <c r="CO212" s="11">
-        <v>3.5668431478892217</v>
+        <v>3.5710247457272271</v>
       </c>
     </row>
     <row r="213" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -61107,28 +61110,28 @@
         <v>3.7179160934517903E-2</v>
       </c>
       <c r="CH213" s="11">
-        <v>8.1834855960775929E-2</v>
+        <v>8.3452414125997285E-2</v>
       </c>
       <c r="CI213" s="11">
-        <v>0.10719180035075142</v>
+        <v>0.10850657633283289</v>
       </c>
       <c r="CJ213" s="11">
-        <v>9.028341785429625E-2</v>
+        <v>9.0282761897429994E-2</v>
       </c>
       <c r="CK213" s="11">
-        <v>1.6473412918193511E-2</v>
+        <v>1.6080104380887833E-2</v>
       </c>
       <c r="CL213" s="11">
-        <v>7.7049538350017682E-2</v>
+        <v>8.4620379064092477E-2</v>
       </c>
       <c r="CM213" s="11">
-        <v>5.9271015639223858E-2</v>
+        <v>6.0005161127094003E-2</v>
       </c>
       <c r="CN213" s="11">
-        <v>8.4886030886760111E-2</v>
+        <v>8.4885548814195855E-2</v>
       </c>
       <c r="CO213" s="11">
-        <v>1.5277425515555599E-2</v>
+        <v>1.3187012383728656E-2</v>
       </c>
     </row>
     <row r="214" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -61388,28 +61391,28 @@
         <v>11.017586868993742</v>
       </c>
       <c r="CH214" s="11">
-        <v>12.008499239621999</v>
+        <v>12.003272430786156</v>
       </c>
       <c r="CI214" s="11">
-        <v>12.263949797555533</v>
+        <v>12.266658541856422</v>
       </c>
       <c r="CJ214" s="11">
-        <v>15.010122490559349</v>
+        <v>15.010087219653276</v>
       </c>
       <c r="CK214" s="11">
-        <v>11.906396372522842</v>
+        <v>11.905796336274671</v>
       </c>
       <c r="CL214" s="11">
-        <v>11.416599919231322</v>
+        <v>11.411055236980253</v>
       </c>
       <c r="CM214" s="11">
-        <v>13.531096429858064</v>
+        <v>13.532602531465255</v>
       </c>
       <c r="CN214" s="11">
-        <v>14.671079297623098</v>
+        <v>14.670829664492741</v>
       </c>
       <c r="CO214" s="11">
-        <v>11.93197471961091</v>
+        <v>11.98376260283114</v>
       </c>
     </row>
     <row r="215" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -61669,28 +61672,28 @@
         <v>11.393645811236802</v>
       </c>
       <c r="CH215" s="11">
-        <v>8.9815538774638934</v>
+        <v>8.9776445742087922</v>
       </c>
       <c r="CI215" s="11">
-        <v>13.998308265784933</v>
+        <v>14.001400078648082</v>
       </c>
       <c r="CJ215" s="11">
-        <v>9.3409623395963131</v>
+        <v>9.3409403901281767</v>
       </c>
       <c r="CK215" s="11">
-        <v>12.083623468351913</v>
+        <v>12.083014500544744</v>
       </c>
       <c r="CL215" s="11">
-        <v>9.2947617340641795</v>
+        <v>9.2902475616503786</v>
       </c>
       <c r="CM215" s="11">
-        <v>14.801746241429559</v>
+        <v>14.806779481503012</v>
       </c>
       <c r="CN215" s="11">
-        <v>9.8298925700090045</v>
+        <v>9.829885126604692</v>
       </c>
       <c r="CO215" s="11">
-        <v>12.560630400120122</v>
+        <v>12.566062253665494</v>
       </c>
     </row>
     <row r="216" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -62089,7 +62092,7 @@
     </row>
     <row r="224" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -62100,7 +62103,7 @@
     </row>
     <row r="227" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -62791,28 +62794,28 @@
         <v>26.298931319437884</v>
       </c>
       <c r="CH233" s="11">
-        <v>21.361409413963607</v>
+        <v>21.359932473420056</v>
       </c>
       <c r="CI233" s="11">
-        <v>19.436637546711772</v>
+        <v>19.444253570997301</v>
       </c>
       <c r="CJ233" s="11">
-        <v>17.831480804367221</v>
+        <v>17.831391851314642</v>
       </c>
       <c r="CK233" s="11">
-        <v>25.987812846782926</v>
+        <v>25.988641011884621</v>
       </c>
       <c r="CL233" s="11">
-        <v>20.931470237969041</v>
+        <v>20.927183779000558</v>
       </c>
       <c r="CM233" s="11">
-        <v>19.529050320097223</v>
+        <v>19.538150390612383</v>
       </c>
       <c r="CN233" s="11">
-        <v>17.633556939963611</v>
+        <v>17.633502248285978</v>
       </c>
       <c r="CO233" s="11">
-        <v>25.423674146596486</v>
+        <v>25.429801463860542</v>
       </c>
     </row>
     <row r="234" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -63072,28 +63075,28 @@
         <v>3.8894540077803108</v>
       </c>
       <c r="CH234" s="11">
-        <v>7.2034283028293125</v>
+        <v>7.2066169906656317</v>
       </c>
       <c r="CI234" s="11">
-        <v>4.3559294571666474</v>
+        <v>4.3163167837809837</v>
       </c>
       <c r="CJ234" s="11">
-        <v>7.3717917948803766</v>
+        <v>7.371755020403242</v>
       </c>
       <c r="CK234" s="11">
-        <v>4.9348577898592252</v>
+        <v>4.9350150511504118</v>
       </c>
       <c r="CL234" s="11">
-        <v>7.1408356047344235</v>
+        <v>7.1430288759919955</v>
       </c>
       <c r="CM234" s="11">
-        <v>4.8190245930887778</v>
+        <v>4.7755544312449549</v>
       </c>
       <c r="CN234" s="11">
-        <v>7.4002195588645261</v>
+        <v>7.4001966065796356</v>
       </c>
       <c r="CO234" s="11">
-        <v>4.6050002123461216</v>
+        <v>4.6061100557597596</v>
       </c>
     </row>
     <row r="235" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -63353,28 +63356,28 @@
         <v>4.1486672350540301</v>
       </c>
       <c r="CH235" s="11">
-        <v>5.9179601570760552</v>
+        <v>5.9175509857933131</v>
       </c>
       <c r="CI235" s="11">
-        <v>3.1871889183399706</v>
+        <v>3.1884377818919258</v>
       </c>
       <c r="CJ235" s="11">
-        <v>5.4559660280643634</v>
+        <v>5.4559388107604123</v>
       </c>
       <c r="CK235" s="11">
-        <v>4.2153545420421272</v>
+        <v>4.2154888746057635</v>
       </c>
       <c r="CL235" s="11">
-        <v>6.0071519940768781</v>
+        <v>6.0059218172069633</v>
       </c>
       <c r="CM235" s="11">
-        <v>3.2443458115092296</v>
+        <v>3.2458575990860132</v>
       </c>
       <c r="CN235" s="11">
-        <v>5.4001843435443808</v>
+        <v>5.4001675945049055</v>
       </c>
       <c r="CO235" s="11">
-        <v>4.2855758517417932</v>
+        <v>4.2866087112235256</v>
       </c>
     </row>
     <row r="236" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -63634,28 +63637,28 @@
         <v>1.2285430117635565</v>
       </c>
       <c r="CH236" s="11">
-        <v>3.4177225484856195</v>
+        <v>3.4174862451172112</v>
       </c>
       <c r="CI236" s="11">
-        <v>2.7688974039982037</v>
+        <v>2.7699823648008279</v>
       </c>
       <c r="CJ236" s="11">
-        <v>0.14029061228789899</v>
+        <v>0.14028991244258901</v>
       </c>
       <c r="CK236" s="11">
-        <v>1.2280014424312906</v>
+        <v>1.2280405756952346</v>
       </c>
       <c r="CL236" s="11">
-        <v>3.0660898578313787</v>
+        <v>3.0654619674720367</v>
       </c>
       <c r="CM236" s="11">
-        <v>1.3793825150861418</v>
+        <v>1.3800252743575308</v>
       </c>
       <c r="CN236" s="11">
-        <v>0.23260101140137379</v>
+        <v>0.2326002899734976</v>
       </c>
       <c r="CO236" s="11">
-        <v>1.4287767285825097</v>
+        <v>1.4291210756766803</v>
       </c>
     </row>
     <row r="237" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -63915,28 +63918,28 @@
         <v>6.6329719415130146</v>
       </c>
       <c r="CH237" s="11">
-        <v>7.1853582755289924</v>
+        <v>7.1848614755870317</v>
       </c>
       <c r="CI237" s="11">
-        <v>8.1413827830827579</v>
+        <v>8.1445728908801964</v>
       </c>
       <c r="CJ237" s="11">
-        <v>8.8318491836157431</v>
+        <v>8.8318051255841414</v>
       </c>
       <c r="CK237" s="11">
-        <v>6.5543227503994412</v>
+        <v>6.5545316198952763</v>
       </c>
       <c r="CL237" s="11">
-        <v>6.983274876401933</v>
+        <v>6.9818448038421455</v>
       </c>
       <c r="CM237" s="11">
-        <v>8.1844446252542333</v>
+        <v>8.188258380761873</v>
       </c>
       <c r="CN237" s="11">
-        <v>8.6707464767388416</v>
+        <v>8.6707195838281965</v>
       </c>
       <c r="CO237" s="11">
-        <v>6.5166405997036421</v>
+        <v>6.5182111643757645</v>
       </c>
     </row>
     <row r="238" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -64196,28 +64199,28 @@
         <v>1.4812000991123315</v>
       </c>
       <c r="CH238" s="11">
-        <v>1.3071381374463673</v>
+        <v>1.3070477611386151</v>
       </c>
       <c r="CI238" s="11">
-        <v>4.5256648014035248</v>
+        <v>4.5274381314331054</v>
       </c>
       <c r="CJ238" s="11">
-        <v>0.59603168987424404</v>
+        <v>0.59602871654640721</v>
       </c>
       <c r="CK238" s="11">
-        <v>1.4488975367092569</v>
+        <v>1.4489437093665296</v>
       </c>
       <c r="CL238" s="11">
-        <v>1.2597108764500125</v>
+        <v>1.2594529060865995</v>
       </c>
       <c r="CM238" s="11">
-        <v>4.3438871543617852</v>
+        <v>4.3459113019146196</v>
       </c>
       <c r="CN238" s="11">
-        <v>0.56159044048155116</v>
+        <v>0.56158869867055761</v>
       </c>
       <c r="CO238" s="11">
-        <v>1.3654346639534405</v>
+        <v>1.3657637450823574</v>
       </c>
     </row>
     <row r="239" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -64477,28 +64480,28 @@
         <v>1.6983379000097543</v>
       </c>
       <c r="CH239" s="11">
-        <v>1.6991111319919379</v>
+        <v>1.6989936544383644</v>
       </c>
       <c r="CI239" s="11">
-        <v>1.5736808442812511</v>
+        <v>1.5742974731348229</v>
       </c>
       <c r="CJ239" s="11">
-        <v>1.5806651096355908</v>
+        <v>1.5806572244247017</v>
       </c>
       <c r="CK239" s="11">
-        <v>1.6836914860922838</v>
+        <v>1.6837451410319677</v>
       </c>
       <c r="CL239" s="11">
-        <v>1.7065418377010786</v>
+        <v>1.7061923628919926</v>
       </c>
       <c r="CM239" s="11">
-        <v>1.5392186190453827</v>
+        <v>1.5399358581195812</v>
       </c>
       <c r="CN239" s="11">
-        <v>1.6130269851216985</v>
+        <v>1.6130219822086627</v>
       </c>
       <c r="CO239" s="11">
-        <v>1.7837296276135426</v>
+        <v>1.7841595213133541</v>
       </c>
     </row>
     <row r="240" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -64758,28 +64761,28 @@
         <v>0.49843562058061158</v>
       </c>
       <c r="CH240" s="11">
-        <v>0.55158656299435704</v>
+        <v>0.55154842597154285</v>
       </c>
       <c r="CI240" s="11">
-        <v>0.1370624012519033</v>
+        <v>0.13711610758737719</v>
       </c>
       <c r="CJ240" s="11">
-        <v>0.14644971966441592</v>
+        <v>0.14644898909415335</v>
       </c>
       <c r="CK240" s="11">
-        <v>0.46261717654236734</v>
+        <v>0.46263191896810812</v>
       </c>
       <c r="CL240" s="11">
-        <v>0.52825280736786906</v>
+        <v>0.52814462891895819</v>
       </c>
       <c r="CM240" s="11">
-        <v>0.12693984612431919</v>
+        <v>0.12699899705751774</v>
       </c>
       <c r="CN240" s="11">
-        <v>0.14192514613150256</v>
+        <v>0.14192470594099724</v>
       </c>
       <c r="CO240" s="11">
-        <v>0.47318129288308935</v>
+        <v>0.47329533351656311</v>
       </c>
     </row>
     <row r="241" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -65039,28 +65042,28 @@
         <v>1.1091678121132507</v>
       </c>
       <c r="CH241" s="11">
-        <v>0.84112397771674963</v>
+        <v>0.84106582190498791</v>
       </c>
       <c r="CI241" s="11">
-        <v>1.2980127677407849</v>
+        <v>1.2985213792091155</v>
       </c>
       <c r="CJ241" s="11">
-        <v>1.176395198017808</v>
+        <v>1.1763893295234835</v>
       </c>
       <c r="CK241" s="11">
-        <v>1.1322288159298795</v>
+        <v>1.1322611987832074</v>
       </c>
       <c r="CL241" s="11">
-        <v>0.82000644245963905</v>
+        <v>0.81983851713334654</v>
       </c>
       <c r="CM241" s="11">
-        <v>1.30619278913535</v>
+        <v>1.3068014437443911</v>
       </c>
       <c r="CN241" s="11">
-        <v>1.1552086793237812</v>
+        <v>1.1552050963653966</v>
       </c>
       <c r="CO241" s="11">
-        <v>1.1412636902440085</v>
+        <v>1.1415387443007805</v>
       </c>
     </row>
     <row r="242" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -65320,28 +65323,28 @@
         <v>0.7139615272553671</v>
       </c>
       <c r="CH242" s="11">
-        <v>0.20993723703150807</v>
+        <v>0.20992272184615848</v>
       </c>
       <c r="CI242" s="11">
-        <v>0.79339896329669612</v>
+        <v>0.79370984761287788</v>
       </c>
       <c r="CJ242" s="11">
-        <v>0.56431350305472505</v>
+        <v>0.56431068795432715</v>
       </c>
       <c r="CK242" s="11">
-        <v>0.69003600143971344</v>
+        <v>0.69005799112151833</v>
       </c>
       <c r="CL242" s="11">
-        <v>0.20615925553138836</v>
+        <v>0.20611703713106763</v>
       </c>
       <c r="CM242" s="11">
-        <v>0.78706026534936491</v>
+        <v>0.78742701661463199</v>
       </c>
       <c r="CN242" s="11">
-        <v>0.55873125505950783</v>
+        <v>0.55872952211647253</v>
       </c>
       <c r="CO242" s="11">
-        <v>0.64134684753651161</v>
+        <v>0.64150141746957845</v>
       </c>
     </row>
     <row r="243" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -65601,28 +65604,28 @@
         <v>9.6409727791777686E-2</v>
       </c>
       <c r="CH243" s="11">
-        <v>0.13110635655263181</v>
+        <v>0.13109729178121349</v>
       </c>
       <c r="CI243" s="11">
-        <v>0.11762424264254315</v>
+        <v>0.11767033235772047</v>
       </c>
       <c r="CJ243" s="11">
-        <v>8.5816161038425487E-2</v>
+        <v>8.5815732941086367E-2</v>
       </c>
       <c r="CK243" s="11">
-        <v>0.10627213584719136</v>
+        <v>0.10627552246824756</v>
       </c>
       <c r="CL243" s="11">
-        <v>0.13865475839308514</v>
+        <v>0.13862636392648151</v>
       </c>
       <c r="CM243" s="11">
-        <v>0.11900100556493311</v>
+        <v>0.1190564571882464</v>
       </c>
       <c r="CN243" s="11">
-        <v>9.0931776173531556E-2</v>
+        <v>9.0931494142435607E-2</v>
       </c>
       <c r="CO243" s="11">
-        <v>0.10904372712593167</v>
+        <v>0.10907000757256982</v>
       </c>
     </row>
     <row r="244" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -65882,28 +65885,28 @@
         <v>0.10232331886008629</v>
       </c>
       <c r="CH244" s="11">
-        <v>9.3039653249721008E-2</v>
+        <v>9.3033220432794952E-2</v>
       </c>
       <c r="CI244" s="11">
-        <v>0.1109166217947927</v>
+        <v>0.11096008320540081</v>
       </c>
       <c r="CJ244" s="11">
-        <v>7.17300236264274E-2</v>
+        <v>7.1729665798346096E-2</v>
       </c>
       <c r="CK244" s="11">
-        <v>8.9787281962389193E-2</v>
+        <v>8.9790143253331067E-2</v>
       </c>
       <c r="CL244" s="11">
-        <v>0.10542755480833323</v>
+        <v>0.10540596478705447</v>
       </c>
       <c r="CM244" s="11">
-        <v>0.10922782498607453</v>
+        <v>0.10927872254091202</v>
       </c>
       <c r="CN244" s="11">
-        <v>8.2314116523833705E-2</v>
+        <v>8.2313861220995987E-2</v>
       </c>
       <c r="CO244" s="11">
-        <v>9.268422612175807E-2</v>
+        <v>9.2706563792369634E-2</v>
       </c>
     </row>
     <row r="245" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -66163,28 +66166,28 @@
         <v>0.15793422237888505</v>
       </c>
       <c r="CH245" s="11">
-        <v>8.1703341571419369E-2</v>
+        <v>8.1697692553820755E-2</v>
       </c>
       <c r="CI245" s="11">
-        <v>8.7947344689502258E-2</v>
+        <v>8.7981805851387554E-2</v>
       </c>
       <c r="CJ245" s="11">
-        <v>4.9044723031266009E-2</v>
+        <v>4.9044478369710737E-2</v>
       </c>
       <c r="CK245" s="11">
-        <v>0.16303656053389687</v>
+        <v>0.1630417560919275</v>
       </c>
       <c r="CL245" s="11">
-        <v>6.2416091819280838E-2</v>
+        <v>6.2403309916551852E-2</v>
       </c>
       <c r="CM245" s="11">
-        <v>8.6831620341734514E-2</v>
+        <v>8.687208180069457E-2</v>
       </c>
       <c r="CN245" s="11">
-        <v>4.8889014743087919E-2</v>
+        <v>4.8888863110479519E-2</v>
       </c>
       <c r="CO245" s="11">
-        <v>0.17707377913779695</v>
+        <v>0.17711645539370183</v>
       </c>
     </row>
     <row r="246" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -66444,28 +66447,28 @@
         <v>4.9906556936534248</v>
       </c>
       <c r="CH246" s="11">
-        <v>5.6066942273366509</v>
+        <v>5.6063065771652996</v>
       </c>
       <c r="CI246" s="11">
-        <v>6.0053521650229928</v>
+        <v>6.0077052936349791</v>
       </c>
       <c r="CJ246" s="11">
-        <v>4.4537799716728657</v>
+        <v>4.4537577538139947</v>
       </c>
       <c r="CK246" s="11">
-        <v>4.8875836861461055</v>
+        <v>4.8855607347512358</v>
       </c>
       <c r="CL246" s="11">
-        <v>5.6688717636787436</v>
+        <v>5.6677108616524476</v>
       </c>
       <c r="CM246" s="11">
-        <v>5.7022840298312412</v>
+        <v>5.7049411578491629</v>
       </c>
       <c r="CN246" s="11">
-        <v>4.4092279627721922</v>
+        <v>4.4092142872514115</v>
       </c>
       <c r="CO246" s="11">
-        <v>4.9113202681046717</v>
+        <v>4.9103141922666556</v>
       </c>
     </row>
     <row r="247" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -66725,28 +66728,28 @@
         <v>10.008987201067546</v>
       </c>
       <c r="CH247" s="11">
-        <v>10.410214730868377</v>
+        <v>10.409412088945141</v>
       </c>
       <c r="CI247" s="11">
-        <v>10.510077905865641</v>
+        <v>10.514013633727075</v>
       </c>
       <c r="CJ247" s="11">
-        <v>10.830623902927046</v>
+        <v>10.830569828952045</v>
       </c>
       <c r="CK247" s="11">
-        <v>8.9155080244367131</v>
+        <v>8.9157920920746161</v>
       </c>
       <c r="CL247" s="11">
-        <v>10.288043581787766</v>
+        <v>10.28585491759738</v>
       </c>
       <c r="CM247" s="11">
-        <v>10.724721364000601</v>
+        <v>10.729532447239068</v>
       </c>
       <c r="CN247" s="11">
-        <v>11.114309057700885</v>
+        <v>11.114274539750504</v>
       </c>
       <c r="CO247" s="11">
-        <v>9.2178772629765042</v>
+        <v>9.2200988481874244</v>
       </c>
     </row>
     <row r="248" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -67006,28 +67009,28 @@
         <v>9.9132064269939981</v>
       </c>
       <c r="CH248" s="11">
-        <v>10.112432908048314</v>
+        <v>10.111701639965604</v>
       </c>
       <c r="CI248" s="11">
-        <v>9.0488699366972121</v>
+        <v>9.0524156328935401</v>
       </c>
       <c r="CJ248" s="11">
-        <v>10.164463837163652</v>
+        <v>10.164913182754033</v>
       </c>
       <c r="CK248" s="11">
-        <v>10.048721303505177</v>
+        <v>10.049041533374638</v>
       </c>
       <c r="CL248" s="11">
-        <v>11.341813600216879</v>
+        <v>11.339454977445875</v>
       </c>
       <c r="CM248" s="11">
-        <v>9.7344782593345158</v>
+        <v>9.7390142933786166</v>
       </c>
       <c r="CN248" s="11">
-        <v>10.590945053305621</v>
+        <v>10.591433329454221</v>
       </c>
       <c r="CO248" s="11">
-        <v>10.238052961142687</v>
+        <v>10.240520417195551</v>
       </c>
     </row>
     <row r="249" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -67287,28 +67290,28 @@
         <v>3.8451406380766091</v>
       </c>
       <c r="CH249" s="11">
-        <v>4.0373058920044427</v>
+        <v>4.0370267502753983</v>
       </c>
       <c r="CI249" s="11">
-        <v>3.8696664415965434</v>
+        <v>3.8711827261660976</v>
       </c>
       <c r="CJ249" s="11">
-        <v>4.1314643937346274</v>
+        <v>4.1314437837598605</v>
       </c>
       <c r="CK249" s="11">
-        <v>3.6406393046503638</v>
+        <v>3.6407553225098797</v>
       </c>
       <c r="CL249" s="11">
-        <v>4.2513614108842486</v>
+        <v>4.2504907942462022</v>
       </c>
       <c r="CM249" s="11">
-        <v>4.0447485823394533</v>
+        <v>4.0466333384700421</v>
       </c>
       <c r="CN249" s="11">
-        <v>4.2490428356726584</v>
+        <v>4.2490296569769583</v>
       </c>
       <c r="CO249" s="11">
-        <v>3.7249211559910544</v>
+        <v>3.7258188930205152</v>
       </c>
     </row>
     <row r="250" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -67568,28 +67571,28 @@
         <v>4.8588264187489565E-2</v>
       </c>
       <c r="CH250" s="11">
-        <v>0.16780290493803279</v>
+        <v>0.17113358718222213</v>
       </c>
       <c r="CI250" s="11">
-        <v>0.19242937510465902</v>
+        <v>0.19482293991435376</v>
       </c>
       <c r="CJ250" s="11">
-        <v>0.23598710138110304</v>
+        <v>0.23598477168783916</v>
       </c>
       <c r="CK250" s="11">
-        <v>4.2149626243580068E-2</v>
+        <v>4.1146673831230156E-2</v>
       </c>
       <c r="CL250" s="11">
-        <v>0.17473772213301286</v>
+        <v>0.19164267444971012</v>
       </c>
       <c r="CM250" s="11">
-        <v>0.16448206886141004</v>
+        <v>0.16654034758844005</v>
       </c>
       <c r="CN250" s="11">
-        <v>0.24303219121377642</v>
+        <v>0.24303024893118247</v>
       </c>
       <c r="CO250" s="11">
-        <v>4.1867505122898205E-2</v>
+        <v>3.6385133887440031E-2</v>
       </c>
     </row>
     <row r="251" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -67849,28 +67852,28 @@
         <v>13.550951063057138</v>
       </c>
       <c r="CH251" s="11">
-        <v>11.03470389078176</v>
+        <v>11.03394094479601</v>
       </c>
       <c r="CI251" s="11">
-        <v>12.011920355513393</v>
+        <v>12.016627089223048</v>
       </c>
       <c r="CJ251" s="11">
-        <v>13.616375495010653</v>
+        <v>13.616307569178881</v>
       </c>
       <c r="CK251" s="11">
-        <v>13.553952045131556</v>
+        <v>13.554383974903411</v>
       </c>
       <c r="CL251" s="11">
-        <v>10.377527537381928</v>
+        <v>10.375402371520305</v>
       </c>
       <c r="CM251" s="11">
-        <v>11.702582971664983</v>
+        <v>11.705358945131101</v>
       </c>
       <c r="CN251" s="11">
-        <v>12.900258983327825</v>
+        <v>12.900009239085591</v>
       </c>
       <c r="CO251" s="11">
-        <v>13.187639550411376</v>
+        <v>13.174399254932995</v>
       </c>
     </row>
     <row r="252" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -68130,28 +68133,28 @@
         <v>9.5861329693129491</v>
       </c>
       <c r="CH252" s="11">
-        <v>8.6302203495841265</v>
+        <v>8.6296236510195765</v>
       </c>
       <c r="CI252" s="11">
-        <v>11.827339723799206</v>
+        <v>11.831974131697857</v>
       </c>
       <c r="CJ252" s="11">
-        <v>12.665480746951522</v>
+        <v>12.665417564696096</v>
       </c>
       <c r="CK252" s="11">
-        <v>10.214529643314528</v>
+        <v>10.214855154238849</v>
       </c>
       <c r="CL252" s="11">
-        <v>8.9416521883730802</v>
+        <v>8.939821068782333</v>
       </c>
       <c r="CM252" s="11">
-        <v>12.352095734023266</v>
+        <v>12.357851515300245</v>
       </c>
       <c r="CN252" s="11">
-        <v>12.903258171935811</v>
+        <v>12.903218151601923</v>
       </c>
       <c r="CO252" s="11">
-        <v>10.634895902664162</v>
+        <v>10.637459001171878</v>
       </c>
     </row>
     <row r="253" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -68735,8 +68738,6 @@
     <mergeCell ref="CD83:CG83"/>
     <mergeCell ref="CD120:CG120"/>
     <mergeCell ref="CL230:CO230"/>
-    <mergeCell ref="CL83:CM83"/>
-    <mergeCell ref="CL120:CM120"/>
     <mergeCell ref="CH193:CK193"/>
     <mergeCell ref="CH156:CK156"/>
     <mergeCell ref="CL9:CO9"/>
@@ -68745,6 +68746,8 @@
     <mergeCell ref="CH120:CK120"/>
     <mergeCell ref="CL156:CO156"/>
     <mergeCell ref="CL193:CO193"/>
+    <mergeCell ref="CL83:CO83"/>
+    <mergeCell ref="CL120:CO120"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62F021-8D16-4418-A84F-B24B16D18588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3689CCB8-CF58-4D9C-A98B-F28A59F1F607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="70">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -661,13 +661,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,6 +775,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23618,12 +23624,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CO258"/>
+  <dimension ref="A1:CP258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23668,189 +23674,189 @@
     <col min="75" max="77" width="7.88671875" style="7" customWidth="1"/>
     <col min="78" max="78" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="7.88671875" style="7" customWidth="1"/>
-    <col min="82" max="82" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="83" max="85" width="7.88671875" style="7" customWidth="1"/>
-    <col min="86" max="86" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="87" max="89" width="7.88671875" style="7" customWidth="1"/>
-    <col min="90" max="90" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="7.88671875" style="7" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="7"/>
+    <col min="82" max="84" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7.88671875" style="7" customWidth="1"/>
+    <col min="86" max="94" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>2000</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
         <v>2001</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14">
         <v>2002</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14">
         <v>2003</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14">
         <v>2004</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14">
         <v>2005</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13">
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14">
         <v>2006</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13">
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14">
         <v>2007</v>
       </c>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13">
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14">
         <v>2008</v>
       </c>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13">
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14">
         <v>2009</v>
       </c>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13">
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13">
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14">
         <v>2011</v>
       </c>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13">
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14">
         <v>2012</v>
       </c>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13">
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14">
         <v>2013</v>
       </c>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13">
+      <c r="BC9" s="14"/>
+      <c r="BD9" s="14"/>
+      <c r="BE9" s="14"/>
+      <c r="BF9" s="14">
         <v>2014</v>
       </c>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13">
+      <c r="BG9" s="14"/>
+      <c r="BH9" s="14"/>
+      <c r="BI9" s="14"/>
+      <c r="BJ9" s="14">
         <v>2015</v>
       </c>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13">
+      <c r="BK9" s="14"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14">
         <v>2016</v>
       </c>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="13"/>
-      <c r="BQ9" s="13"/>
-      <c r="BR9" s="13">
+      <c r="BO9" s="14"/>
+      <c r="BP9" s="14"/>
+      <c r="BQ9" s="14"/>
+      <c r="BR9" s="14">
         <v>2017</v>
       </c>
-      <c r="BS9" s="13"/>
-      <c r="BT9" s="13"/>
-      <c r="BU9" s="13"/>
-      <c r="BV9" s="13">
+      <c r="BS9" s="14"/>
+      <c r="BT9" s="14"/>
+      <c r="BU9" s="14"/>
+      <c r="BV9" s="14">
         <v>2018</v>
       </c>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="13"/>
-      <c r="BY9" s="13"/>
-      <c r="BZ9" s="13">
+      <c r="BW9" s="14"/>
+      <c r="BX9" s="14"/>
+      <c r="BY9" s="14"/>
+      <c r="BZ9" s="14">
         <v>2019</v>
       </c>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="13"/>
-      <c r="CC9" s="13"/>
-      <c r="CD9" s="13">
+      <c r="CA9" s="14"/>
+      <c r="CB9" s="14"/>
+      <c r="CC9" s="14"/>
+      <c r="CD9" s="14">
         <v>2020</v>
       </c>
-      <c r="CE9" s="13"/>
-      <c r="CF9" s="13"/>
-      <c r="CG9" s="13"/>
-      <c r="CH9" s="13">
+      <c r="CE9" s="14"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14">
         <v>2021</v>
       </c>
-      <c r="CI9" s="13"/>
-      <c r="CJ9" s="13"/>
-      <c r="CK9" s="13"/>
-      <c r="CL9" s="13">
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14">
         <v>2022</v>
       </c>
-      <c r="CM9" s="13"/>
-      <c r="CN9" s="13"/>
-      <c r="CO9" s="13"/>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24130,11 +24136,14 @@
       <c r="CO10" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="CP10" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24414,8 +24423,11 @@
       <c r="CO12" s="6">
         <v>134332.57281604729</v>
       </c>
+      <c r="CP12" s="6">
+        <v>93834.755992139151</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24695,8 +24707,11 @@
       <c r="CO13" s="6">
         <v>32235.883038472639</v>
       </c>
+      <c r="CP13" s="6">
+        <v>45636.323206322086</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24976,8 +24991,11 @@
       <c r="CO14" s="6">
         <v>19553.487826351644</v>
       </c>
+      <c r="CP14" s="6">
+        <v>20356.330363943223</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:94" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25257,8 +25275,11 @@
       <c r="CO15" s="6">
         <v>18748.249646992539</v>
       </c>
+      <c r="CP15" s="6">
+        <v>16082.93397826683</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25538,8 +25559,11 @@
       <c r="CO16" s="6">
         <v>35878.550106385228</v>
       </c>
+      <c r="CP16" s="6">
+        <v>34561.027847580932</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25819,8 +25843,11 @@
       <c r="CO17" s="6">
         <v>9418.9819852519468</v>
       </c>
+      <c r="CP17" s="6">
+        <v>6489.9324468757904</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26100,8 +26127,11 @@
       <c r="CO18" s="6">
         <v>10089.765648665163</v>
       </c>
+      <c r="CP18" s="6">
+        <v>6840.4901097173479</v>
+      </c>
     </row>
-    <row r="19" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26381,8 +26411,11 @@
       <c r="CO19" s="6">
         <v>3197.5244131931577</v>
       </c>
+      <c r="CP19" s="6">
+        <v>1933.8923400270132</v>
+      </c>
     </row>
-    <row r="20" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26662,8 +26695,11 @@
       <c r="CO20" s="6">
         <v>8660.0378907285485</v>
       </c>
+      <c r="CP20" s="6">
+        <v>4170.8210332680455</v>
+      </c>
     </row>
-    <row r="21" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26943,8 +26979,11 @@
       <c r="CO21" s="6">
         <v>3381.935712594518</v>
       </c>
+      <c r="CP21" s="6">
+        <v>1113.3913037177003</v>
+      </c>
     </row>
-    <row r="22" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27224,8 +27263,11 @@
       <c r="CO22" s="6">
         <v>585.13917654234183</v>
       </c>
+      <c r="CP22" s="6">
+        <v>483.1902940807297</v>
+      </c>
     </row>
-    <row r="23" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27505,8 +27547,11 @@
       <c r="CO23" s="6">
         <v>558.10577073315903</v>
       </c>
+      <c r="CP23" s="6">
+        <v>367.86876115881</v>
+      </c>
     </row>
-    <row r="24" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27786,8 +27831,11 @@
       <c r="CO24" s="6">
         <v>786.79005485054222</v>
       </c>
+      <c r="CP24" s="6">
+        <v>197.81892395993975</v>
+      </c>
     </row>
-    <row r="25" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28067,8 +28115,11 @@
       <c r="CO25" s="6">
         <v>33347.188721319428</v>
       </c>
+      <c r="CP25" s="6">
+        <v>35444.65572739589</v>
+      </c>
     </row>
-    <row r="26" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28348,8 +28399,11 @@
       <c r="CO26" s="6">
         <v>80756.489399161917</v>
       </c>
+      <c r="CP26" s="6">
+        <v>69693.856264138682</v>
+      </c>
     </row>
-    <row r="27" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28629,8 +28683,11 @@
       <c r="CO27" s="6">
         <v>67056.191721928015</v>
       </c>
+      <c r="CP27" s="6">
+        <v>83695.53685758973</v>
+      </c>
     </row>
-    <row r="28" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28910,8 +28967,11 @@
       <c r="CO28" s="6">
         <v>22787.214825263043</v>
       </c>
+      <c r="CP28" s="6">
+        <v>21762.014000829251</v>
+      </c>
     </row>
-    <row r="29" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29191,8 +29251,11 @@
       <c r="CO29" s="6">
         <v>84.148194282600571</v>
       </c>
+      <c r="CP29" s="6">
+        <v>234.53131040585185</v>
+      </c>
     </row>
-    <row r="30" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29472,8 +29535,11 @@
       <c r="CO30" s="6">
         <v>76470.086961006338</v>
       </c>
+      <c r="CP30" s="6">
+        <v>71370.907057535602</v>
+      </c>
     </row>
-    <row r="31" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29753,9 +29819,12 @@
       <c r="CO31" s="6">
         <v>80185.82352993227</v>
       </c>
+      <c r="CP31" s="6">
+        <v>52572.026777995095</v>
+      </c>
     </row>
-    <row r="32" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -30035,8 +30104,11 @@
       <c r="CO33" s="8">
         <v>638114.16743970243</v>
       </c>
+      <c r="CP33" s="8">
+        <v>566842.30459694762</v>
+      </c>
     </row>
-    <row r="34" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30130,188 +30202,192 @@
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
+      <c r="CP34" s="10"/>
     </row>
-    <row r="35" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="13">
+      <c r="B46" s="14">
         <v>2000</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14">
         <v>2001</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13">
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14">
         <v>2002</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13">
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14">
         <v>2003</v>
       </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13">
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14">
         <v>2004</v>
       </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13">
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14">
         <v>2005</v>
       </c>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13">
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14">
         <v>2006</v>
       </c>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14">
         <v>2007</v>
       </c>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13">
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14">
         <v>2008</v>
       </c>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13">
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14">
         <v>2009</v>
       </c>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13">
+      <c r="AM46" s="14"/>
+      <c r="AN46" s="14"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14">
         <v>2010</v>
       </c>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="13">
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14">
         <v>2011</v>
       </c>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13">
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="14"/>
+      <c r="AX46" s="14">
         <v>2012</v>
       </c>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13">
+      <c r="AY46" s="14"/>
+      <c r="AZ46" s="14"/>
+      <c r="BA46" s="14"/>
+      <c r="BB46" s="14">
         <v>2013</v>
       </c>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="13"/>
-      <c r="BF46" s="13">
+      <c r="BC46" s="14"/>
+      <c r="BD46" s="14"/>
+      <c r="BE46" s="14"/>
+      <c r="BF46" s="14">
         <v>2014</v>
       </c>
-      <c r="BG46" s="13"/>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="13">
+      <c r="BG46" s="14"/>
+      <c r="BH46" s="14"/>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="14">
         <v>2015</v>
       </c>
-      <c r="BK46" s="13"/>
-      <c r="BL46" s="13"/>
-      <c r="BM46" s="13"/>
-      <c r="BN46" s="13">
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="14"/>
+      <c r="BM46" s="14"/>
+      <c r="BN46" s="14">
         <v>2016</v>
       </c>
-      <c r="BO46" s="13"/>
-      <c r="BP46" s="13"/>
-      <c r="BQ46" s="13"/>
-      <c r="BR46" s="13">
+      <c r="BO46" s="14"/>
+      <c r="BP46" s="14"/>
+      <c r="BQ46" s="14"/>
+      <c r="BR46" s="14">
         <v>2017</v>
       </c>
-      <c r="BS46" s="13"/>
-      <c r="BT46" s="13"/>
-      <c r="BU46" s="13"/>
-      <c r="BV46" s="13">
+      <c r="BS46" s="14"/>
+      <c r="BT46" s="14"/>
+      <c r="BU46" s="14"/>
+      <c r="BV46" s="14">
         <v>2018</v>
       </c>
-      <c r="BW46" s="13"/>
-      <c r="BX46" s="13"/>
-      <c r="BY46" s="13"/>
-      <c r="BZ46" s="13">
+      <c r="BW46" s="14"/>
+      <c r="BX46" s="14"/>
+      <c r="BY46" s="14"/>
+      <c r="BZ46" s="14">
         <v>2019</v>
       </c>
-      <c r="CA46" s="13"/>
-      <c r="CB46" s="13"/>
-      <c r="CC46" s="13"/>
-      <c r="CD46" s="13">
+      <c r="CA46" s="14"/>
+      <c r="CB46" s="14"/>
+      <c r="CC46" s="14"/>
+      <c r="CD46" s="14">
         <v>2020</v>
       </c>
-      <c r="CE46" s="13"/>
-      <c r="CF46" s="13"/>
-      <c r="CG46" s="13"/>
-      <c r="CH46" s="13">
+      <c r="CE46" s="14"/>
+      <c r="CF46" s="14"/>
+      <c r="CG46" s="14"/>
+      <c r="CH46" s="14">
         <v>2021</v>
       </c>
-      <c r="CI46" s="13"/>
-      <c r="CJ46" s="13"/>
-      <c r="CK46" s="13"/>
-      <c r="CL46" s="13">
+      <c r="CI46" s="14"/>
+      <c r="CJ46" s="14"/>
+      <c r="CK46" s="14"/>
+      <c r="CL46" s="14">
         <v>2022</v>
       </c>
-      <c r="CM46" s="13"/>
-      <c r="CN46" s="13"/>
-      <c r="CO46" s="13"/>
+      <c r="CM46" s="14"/>
+      <c r="CN46" s="14"/>
+      <c r="CO46" s="14"/>
+      <c r="CP46" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="47" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30591,11 +30667,14 @@
       <c r="CO47" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="CP47" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="48" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30875,8 +30954,11 @@
       <c r="CO49" s="6">
         <v>133574.09583906844</v>
       </c>
+      <c r="CP49" s="6">
+        <v>95070.645017647243</v>
+      </c>
     </row>
-    <row r="50" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31156,8 +31238,11 @@
       <c r="CO50" s="6">
         <v>24194.329118444788</v>
       </c>
+      <c r="CP50" s="6">
+        <v>32063.305435735991</v>
+      </c>
     </row>
-    <row r="51" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31437,8 +31522,11 @@
       <c r="CO51" s="6">
         <v>22516.097250357081</v>
       </c>
+      <c r="CP51" s="6">
+        <v>26985.100062939469</v>
+      </c>
     </row>
-    <row r="52" spans="1:93" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:94" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31718,8 +31806,11 @@
       <c r="CO52" s="6">
         <v>7506.6868217338251</v>
       </c>
+      <c r="CP52" s="6">
+        <v>11060.969515075989</v>
+      </c>
     </row>
-    <row r="53" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -31999,8 +32090,11 @@
       <c r="CO53" s="6">
         <v>34237.945742791388</v>
       </c>
+      <c r="CP53" s="6">
+        <v>30398.832077773182</v>
+      </c>
     </row>
-    <row r="54" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32280,8 +32374,11 @@
       <c r="CO54" s="6">
         <v>7173.8923183657735</v>
       </c>
+      <c r="CP54" s="6">
+        <v>5890.8435345289809</v>
+      </c>
     </row>
-    <row r="55" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32561,8 +32658,11 @@
       <c r="CO55" s="6">
         <v>9371.5829921354416</v>
       </c>
+      <c r="CP55" s="6">
+        <v>7127.1696539006925</v>
+      </c>
     </row>
-    <row r="56" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32842,8 +32942,11 @@
       <c r="CO56" s="6">
         <v>2486.0593712919899</v>
       </c>
+      <c r="CP56" s="6">
+        <v>2331.4337907316117</v>
+      </c>
     </row>
-    <row r="57" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33123,8 +33226,11 @@
       <c r="CO57" s="6">
         <v>5996.1146708887454</v>
       </c>
+      <c r="CP57" s="6">
+        <v>3749.7935901032583</v>
+      </c>
     </row>
-    <row r="58" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33404,8 +33510,11 @@
       <c r="CO58" s="6">
         <v>3369.5887063748746</v>
       </c>
+      <c r="CP58" s="6">
+        <v>860.98071027649576</v>
+      </c>
     </row>
-    <row r="59" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33685,8 +33794,11 @@
       <c r="CO59" s="6">
         <v>572.90764402431273</v>
       </c>
+      <c r="CP59" s="6">
+        <v>593.01948382610692</v>
+      </c>
     </row>
-    <row r="60" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -33966,8 +34078,11 @@
       <c r="CO60" s="6">
         <v>486.95604071117191</v>
       </c>
+      <c r="CP60" s="6">
+        <v>475.08912081720678</v>
+      </c>
     </row>
-    <row r="61" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34247,8 +34362,11 @@
       <c r="CO61" s="6">
         <v>930.3324849411872</v>
       </c>
+      <c r="CP61" s="6">
+        <v>310.03904547366005</v>
+      </c>
     </row>
-    <row r="62" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34528,8 +34646,11 @@
       <c r="CO62" s="6">
         <v>25792.209956883882</v>
       </c>
+      <c r="CP62" s="6">
+        <v>24915.633856381301</v>
+      </c>
     </row>
-    <row r="63" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34809,8 +34930,11 @@
       <c r="CO63" s="6">
         <v>48430.042560249916</v>
       </c>
+      <c r="CP63" s="6">
+        <v>46960.592230863636</v>
+      </c>
     </row>
-    <row r="64" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -35090,8 +35214,11 @@
       <c r="CO64" s="6">
         <v>53789.969913542431</v>
       </c>
+      <c r="CP64" s="6">
+        <v>50865.133922985086</v>
+      </c>
     </row>
-    <row r="65" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35371,8 +35498,11 @@
       <c r="CO65" s="6">
         <v>19570.459116741433</v>
       </c>
+      <c r="CP65" s="6">
+        <v>19011.27014917984</v>
+      </c>
     </row>
-    <row r="66" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35652,8 +35782,11 @@
       <c r="CO66" s="6">
         <v>191.11873004219791</v>
       </c>
+      <c r="CP66" s="6">
+        <v>583.73513170403271</v>
+      </c>
     </row>
-    <row r="67" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -35933,8 +36066,11 @@
       <c r="CO67" s="6">
         <v>69200.637338889384</v>
       </c>
+      <c r="CP67" s="6">
+        <v>45269.06002780881</v>
+      </c>
     </row>
-    <row r="68" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36214,9 +36350,12 @@
       <c r="CO68" s="6">
         <v>55874.953256162233</v>
       </c>
+      <c r="CP68" s="6">
+        <v>40097.190131400988</v>
+      </c>
     </row>
-    <row r="69" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36496,8 +36635,11 @@
       <c r="CO70" s="8">
         <v>525265.97987364046</v>
       </c>
+      <c r="CP70" s="8">
+        <v>444619.83648915356</v>
+      </c>
     </row>
-    <row r="71" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -36591,186 +36733,190 @@
       <c r="CM71" s="10"/>
       <c r="CN71" s="10"/>
       <c r="CO71" s="10"/>
+      <c r="CP71" s="10"/>
     </row>
-    <row r="72" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13" t="s">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13" t="s">
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13" t="s">
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13" t="s">
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13" t="s">
+      <c r="S83" s="14"/>
+      <c r="T83" s="14"/>
+      <c r="U83" s="14"/>
+      <c r="V83" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13" t="s">
+      <c r="W83" s="14"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="13"/>
-      <c r="AC83" s="13"/>
-      <c r="AD83" s="13" t="s">
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AC83" s="14"/>
+      <c r="AD83" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="13" t="s">
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="14"/>
+      <c r="AG83" s="14"/>
+      <c r="AH83" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="13"/>
-      <c r="AJ83" s="13"/>
-      <c r="AK83" s="13"/>
-      <c r="AL83" s="13" t="s">
+      <c r="AI83" s="14"/>
+      <c r="AJ83" s="14"/>
+      <c r="AK83" s="14"/>
+      <c r="AL83" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="13"/>
-      <c r="AN83" s="13"/>
-      <c r="AO83" s="13"/>
-      <c r="AP83" s="13" t="s">
+      <c r="AM83" s="14"/>
+      <c r="AN83" s="14"/>
+      <c r="AO83" s="14"/>
+      <c r="AP83" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="13"/>
-      <c r="AR83" s="13"/>
-      <c r="AS83" s="13"/>
-      <c r="AT83" s="13" t="s">
+      <c r="AQ83" s="14"/>
+      <c r="AR83" s="14"/>
+      <c r="AS83" s="14"/>
+      <c r="AT83" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="13"/>
-      <c r="AV83" s="13"/>
-      <c r="AW83" s="13"/>
-      <c r="AX83" s="13" t="s">
+      <c r="AU83" s="14"/>
+      <c r="AV83" s="14"/>
+      <c r="AW83" s="14"/>
+      <c r="AX83" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="13"/>
-      <c r="AZ83" s="13"/>
-      <c r="BA83" s="13"/>
-      <c r="BB83" s="13" t="s">
+      <c r="AY83" s="14"/>
+      <c r="AZ83" s="14"/>
+      <c r="BA83" s="14"/>
+      <c r="BB83" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="13"/>
-      <c r="BD83" s="13"/>
-      <c r="BE83" s="13"/>
-      <c r="BF83" s="13" t="s">
+      <c r="BC83" s="14"/>
+      <c r="BD83" s="14"/>
+      <c r="BE83" s="14"/>
+      <c r="BF83" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="13"/>
-      <c r="BH83" s="13"/>
-      <c r="BI83" s="13"/>
-      <c r="BJ83" s="13" t="s">
+      <c r="BG83" s="14"/>
+      <c r="BH83" s="14"/>
+      <c r="BI83" s="14"/>
+      <c r="BJ83" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="13"/>
-      <c r="BL83" s="13"/>
-      <c r="BM83" s="13"/>
-      <c r="BN83" s="13" t="s">
+      <c r="BK83" s="14"/>
+      <c r="BL83" s="14"/>
+      <c r="BM83" s="14"/>
+      <c r="BN83" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="13"/>
-      <c r="BP83" s="13"/>
-      <c r="BQ83" s="13"/>
-      <c r="BR83" s="13" t="s">
+      <c r="BO83" s="14"/>
+      <c r="BP83" s="14"/>
+      <c r="BQ83" s="14"/>
+      <c r="BR83" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="13"/>
-      <c r="BT83" s="13"/>
-      <c r="BU83" s="13"/>
-      <c r="BV83" s="13" t="s">
+      <c r="BS83" s="14"/>
+      <c r="BT83" s="14"/>
+      <c r="BU83" s="14"/>
+      <c r="BV83" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="13"/>
-      <c r="BX83" s="13"/>
-      <c r="BY83" s="13"/>
-      <c r="BZ83" s="13" t="s">
+      <c r="BW83" s="14"/>
+      <c r="BX83" s="14"/>
+      <c r="BY83" s="14"/>
+      <c r="BZ83" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="13"/>
-      <c r="CB83" s="13"/>
-      <c r="CC83" s="13"/>
-      <c r="CD83" s="13" t="s">
+      <c r="CA83" s="14"/>
+      <c r="CB83" s="14"/>
+      <c r="CC83" s="14"/>
+      <c r="CD83" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="13"/>
-      <c r="CF83" s="13"/>
-      <c r="CG83" s="13"/>
-      <c r="CH83" s="13" t="s">
+      <c r="CE83" s="14"/>
+      <c r="CF83" s="14"/>
+      <c r="CG83" s="14"/>
+      <c r="CH83" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="CI83" s="13"/>
-      <c r="CJ83" s="13"/>
-      <c r="CK83" s="13"/>
-      <c r="CL83" s="13"/>
+      <c r="CI83" s="14"/>
+      <c r="CJ83" s="14"/>
+      <c r="CK83" s="14"/>
+      <c r="CL83" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="CM83" s="13"/>
       <c r="CN83" s="13"/>
       <c r="CO83" s="13"/>
+      <c r="CP83" s="13"/>
     </row>
-    <row r="84" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -37038,15 +37184,18 @@
       <c r="CK84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL84" s="4"/>
+      <c r="CL84" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="CM84" s="4"/>
       <c r="CN84" s="4"/>
       <c r="CO84" s="4"/>
+      <c r="CP84" s="4"/>
     </row>
-    <row r="85" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37314,12 +37463,15 @@
       <c r="CK86" s="11">
         <v>4.8713566289459038</v>
       </c>
-      <c r="CL86" s="11"/>
+      <c r="CL86" s="11">
+        <v>6.393067936711887</v>
+      </c>
       <c r="CM86" s="11"/>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
+      <c r="CP86" s="11"/>
     </row>
-    <row r="87" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -37587,12 +37739,15 @@
       <c r="CK87" s="11">
         <v>10.234143498594392</v>
       </c>
-      <c r="CL87" s="11"/>
+      <c r="CL87" s="11">
+        <v>26.124127226005498</v>
+      </c>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
+      <c r="CP87" s="11"/>
     </row>
-    <row r="88" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -37860,12 +38015,15 @@
       <c r="CK88" s="11">
         <v>2.8338712942072846</v>
       </c>
-      <c r="CL88" s="11"/>
+      <c r="CL88" s="11">
+        <v>-9.7331441540463146</v>
+      </c>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
+      <c r="CP88" s="11"/>
     </row>
-    <row r="89" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -38133,12 +38291,15 @@
       <c r="CK89" s="11">
         <v>122.38590880581671</v>
       </c>
-      <c r="CL89" s="11"/>
+      <c r="CL89" s="11">
+        <v>41.51177778004481</v>
+      </c>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
+      <c r="CP89" s="11"/>
     </row>
-    <row r="90" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -38406,12 +38567,15 @@
       <c r="CK90" s="11">
         <v>-18.313046080680962</v>
       </c>
-      <c r="CL90" s="11"/>
+      <c r="CL90" s="11">
+        <v>-1.3983466766366348</v>
+      </c>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
+      <c r="CP90" s="11"/>
     </row>
-    <row r="91" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -38679,12 +38843,15 @@
       <c r="CK91" s="11">
         <v>15.925154837542436</v>
       </c>
-      <c r="CL91" s="11"/>
+      <c r="CL91" s="11">
+        <v>23.048213983813227</v>
+      </c>
       <c r="CM91" s="11"/>
       <c r="CN91" s="11"/>
       <c r="CO91" s="11"/>
+      <c r="CP91" s="11"/>
     </row>
-    <row r="92" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -38952,12 +39119,15 @@
       <c r="CK92" s="11">
         <v>30.595818578834837</v>
       </c>
-      <c r="CL92" s="11"/>
+      <c r="CL92" s="11">
+        <v>-4.7591547446685638</v>
+      </c>
       <c r="CM92" s="11"/>
       <c r="CN92" s="11"/>
       <c r="CO92" s="11"/>
+      <c r="CP92" s="11"/>
     </row>
-    <row r="93" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -39225,12 +39395,15 @@
       <c r="CK93" s="11">
         <v>15.046153425567681</v>
       </c>
-      <c r="CL93" s="11"/>
+      <c r="CL93" s="11">
+        <v>-0.90494101153673512</v>
+      </c>
       <c r="CM93" s="11"/>
       <c r="CN93" s="11"/>
       <c r="CO93" s="11"/>
+      <c r="CP93" s="11"/>
     </row>
-    <row r="94" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -39498,12 +39671,15 @@
       <c r="CK94" s="11">
         <v>9.6931945170118325</v>
       </c>
-      <c r="CL94" s="11"/>
+      <c r="CL94" s="11">
+        <v>23.03114230208611</v>
+      </c>
       <c r="CM94" s="11"/>
       <c r="CN94" s="11"/>
       <c r="CO94" s="11"/>
+      <c r="CP94" s="11"/>
     </row>
-    <row r="95" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -39771,12 +39947,15 @@
       <c r="CK95" s="11">
         <v>-17.413661532995292</v>
       </c>
-      <c r="CL95" s="11"/>
+      <c r="CL95" s="11">
+        <v>-17.029005207731558</v>
+      </c>
       <c r="CM95" s="11"/>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
+      <c r="CP95" s="11"/>
     </row>
-    <row r="96" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -40044,12 +40223,15 @@
       <c r="CK96" s="11">
         <v>18.180018888481527</v>
       </c>
-      <c r="CL96" s="11"/>
+      <c r="CL96" s="11">
+        <v>12.524267970084239</v>
+      </c>
       <c r="CM96" s="11"/>
       <c r="CN96" s="11"/>
       <c r="CO96" s="11"/>
+      <c r="CP96" s="11"/>
     </row>
-    <row r="97" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -40317,12 +40499,15 @@
       <c r="CK97" s="11">
         <v>4.920602940752957</v>
       </c>
-      <c r="CL97" s="11"/>
+      <c r="CL97" s="11">
+        <v>-5.8667650933104341</v>
+      </c>
       <c r="CM97" s="11"/>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
+      <c r="CP97" s="11"/>
     </row>
-    <row r="98" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -40590,12 +40775,15 @@
       <c r="CK98" s="11">
         <v>3.8779954697188259</v>
       </c>
-      <c r="CL98" s="11"/>
+      <c r="CL98" s="11">
+        <v>13.473105268174848</v>
+      </c>
       <c r="CM98" s="11"/>
       <c r="CN98" s="11"/>
       <c r="CO98" s="11"/>
+      <c r="CP98" s="11"/>
     </row>
-    <row r="99" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -40863,12 +41051,15 @@
       <c r="CK99" s="11">
         <v>14.846660577404336</v>
       </c>
-      <c r="CL99" s="11"/>
+      <c r="CL99" s="11">
+        <v>41.390720098574775</v>
+      </c>
       <c r="CM99" s="11"/>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
+      <c r="CP99" s="11"/>
     </row>
-    <row r="100" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -41136,12 +41327,15 @@
       <c r="CK100" s="11">
         <v>8.8225653087932017</v>
       </c>
-      <c r="CL100" s="11"/>
+      <c r="CL100" s="11">
+        <v>4.0835066072216506</v>
+      </c>
       <c r="CM100" s="11"/>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
+      <c r="CP100" s="11"/>
     </row>
-    <row r="101" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -41409,12 +41603,15 @@
       <c r="CK101" s="11">
         <v>18.779783724568077</v>
       </c>
-      <c r="CL101" s="11"/>
+      <c r="CL101" s="11">
+        <v>18.2673577325114</v>
+      </c>
       <c r="CM101" s="11"/>
       <c r="CN101" s="11"/>
       <c r="CO101" s="11"/>
+      <c r="CP101" s="11"/>
     </row>
-    <row r="102" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -41682,12 +41879,15 @@
       <c r="CK102" s="11">
         <v>13.138399104304227</v>
       </c>
-      <c r="CL102" s="11"/>
+      <c r="CL102" s="11">
+        <v>10.074491854212781</v>
+      </c>
       <c r="CM102" s="11"/>
       <c r="CN102" s="11"/>
       <c r="CO102" s="11"/>
+      <c r="CP102" s="11"/>
     </row>
-    <row r="103" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -41955,12 +42155,15 @@
       <c r="CK103" s="11">
         <v>-9.8109539025426926</v>
       </c>
-      <c r="CL103" s="11"/>
+      <c r="CL103" s="11">
+        <v>-44.565554086366809</v>
+      </c>
       <c r="CM103" s="11"/>
       <c r="CN103" s="11"/>
       <c r="CO103" s="11"/>
+      <c r="CP103" s="11"/>
     </row>
-    <row r="104" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -42228,12 +42431,15 @@
       <c r="CK104" s="11">
         <v>10.695761205811948</v>
       </c>
-      <c r="CL104" s="11"/>
+      <c r="CL104" s="11">
+        <v>25.097680107754769</v>
+      </c>
       <c r="CM104" s="11"/>
       <c r="CN104" s="11"/>
       <c r="CO104" s="11"/>
+      <c r="CP104" s="11"/>
     </row>
-    <row r="105" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -42501,13 +42707,16 @@
       <c r="CK105" s="11">
         <v>14.372115279933226</v>
       </c>
-      <c r="CL105" s="11"/>
+      <c r="CL105" s="11">
+        <v>13.183020768680521</v>
+      </c>
       <c r="CM105" s="11"/>
       <c r="CN105" s="11"/>
       <c r="CO105" s="11"/>
+      <c r="CP105" s="11"/>
     </row>
-    <row r="106" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -42775,12 +42984,15 @@
       <c r="CK107" s="11">
         <v>9.9755754418846294</v>
       </c>
-      <c r="CL107" s="11"/>
+      <c r="CL107" s="11">
+        <v>13.374687335472871</v>
+      </c>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
       <c r="CO107" s="11"/>
+      <c r="CP107" s="11"/>
     </row>
-    <row r="108" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -42874,186 +43086,190 @@
       <c r="CM108" s="10"/>
       <c r="CN108" s="10"/>
       <c r="CO108" s="10"/>
+      <c r="CP108" s="10"/>
     </row>
-    <row r="109" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13" t="s">
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13" t="s">
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13" t="s">
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="13" t="s">
+      <c r="O120" s="14"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="14"/>
+      <c r="R120" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="13"/>
-      <c r="T120" s="13"/>
-      <c r="U120" s="13"/>
-      <c r="V120" s="13" t="s">
+      <c r="S120" s="14"/>
+      <c r="T120" s="14"/>
+      <c r="U120" s="14"/>
+      <c r="V120" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="13"/>
-      <c r="X120" s="13"/>
-      <c r="Y120" s="13"/>
-      <c r="Z120" s="13" t="s">
+      <c r="W120" s="14"/>
+      <c r="X120" s="14"/>
+      <c r="Y120" s="14"/>
+      <c r="Z120" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="13"/>
-      <c r="AB120" s="13"/>
-      <c r="AC120" s="13"/>
-      <c r="AD120" s="13" t="s">
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="14"/>
+      <c r="AC120" s="14"/>
+      <c r="AD120" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="13"/>
-      <c r="AF120" s="13"/>
-      <c r="AG120" s="13"/>
-      <c r="AH120" s="13" t="s">
+      <c r="AE120" s="14"/>
+      <c r="AF120" s="14"/>
+      <c r="AG120" s="14"/>
+      <c r="AH120" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="13"/>
-      <c r="AJ120" s="13"/>
-      <c r="AK120" s="13"/>
-      <c r="AL120" s="13" t="s">
+      <c r="AI120" s="14"/>
+      <c r="AJ120" s="14"/>
+      <c r="AK120" s="14"/>
+      <c r="AL120" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="13"/>
-      <c r="AN120" s="13"/>
-      <c r="AO120" s="13"/>
-      <c r="AP120" s="13" t="s">
+      <c r="AM120" s="14"/>
+      <c r="AN120" s="14"/>
+      <c r="AO120" s="14"/>
+      <c r="AP120" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="13"/>
-      <c r="AR120" s="13"/>
-      <c r="AS120" s="13"/>
-      <c r="AT120" s="13" t="s">
+      <c r="AQ120" s="14"/>
+      <c r="AR120" s="14"/>
+      <c r="AS120" s="14"/>
+      <c r="AT120" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="13"/>
-      <c r="AV120" s="13"/>
-      <c r="AW120" s="13"/>
-      <c r="AX120" s="13" t="s">
+      <c r="AU120" s="14"/>
+      <c r="AV120" s="14"/>
+      <c r="AW120" s="14"/>
+      <c r="AX120" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="13"/>
-      <c r="AZ120" s="13"/>
-      <c r="BA120" s="13"/>
-      <c r="BB120" s="13" t="s">
+      <c r="AY120" s="14"/>
+      <c r="AZ120" s="14"/>
+      <c r="BA120" s="14"/>
+      <c r="BB120" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="13"/>
-      <c r="BD120" s="13"/>
-      <c r="BE120" s="13"/>
-      <c r="BF120" s="13" t="s">
+      <c r="BC120" s="14"/>
+      <c r="BD120" s="14"/>
+      <c r="BE120" s="14"/>
+      <c r="BF120" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="13"/>
-      <c r="BH120" s="13"/>
-      <c r="BI120" s="13"/>
-      <c r="BJ120" s="13" t="s">
+      <c r="BG120" s="14"/>
+      <c r="BH120" s="14"/>
+      <c r="BI120" s="14"/>
+      <c r="BJ120" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="13"/>
-      <c r="BL120" s="13"/>
-      <c r="BM120" s="13"/>
-      <c r="BN120" s="13" t="s">
+      <c r="BK120" s="14"/>
+      <c r="BL120" s="14"/>
+      <c r="BM120" s="14"/>
+      <c r="BN120" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="13"/>
-      <c r="BP120" s="13"/>
-      <c r="BQ120" s="13"/>
-      <c r="BR120" s="13" t="s">
+      <c r="BO120" s="14"/>
+      <c r="BP120" s="14"/>
+      <c r="BQ120" s="14"/>
+      <c r="BR120" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="13"/>
-      <c r="BT120" s="13"/>
-      <c r="BU120" s="13"/>
-      <c r="BV120" s="13" t="s">
+      <c r="BS120" s="14"/>
+      <c r="BT120" s="14"/>
+      <c r="BU120" s="14"/>
+      <c r="BV120" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="13"/>
-      <c r="BX120" s="13"/>
-      <c r="BY120" s="13"/>
-      <c r="BZ120" s="13" t="s">
+      <c r="BW120" s="14"/>
+      <c r="BX120" s="14"/>
+      <c r="BY120" s="14"/>
+      <c r="BZ120" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="13"/>
-      <c r="CB120" s="13"/>
-      <c r="CC120" s="13"/>
-      <c r="CD120" s="13" t="s">
+      <c r="CA120" s="14"/>
+      <c r="CB120" s="14"/>
+      <c r="CC120" s="14"/>
+      <c r="CD120" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="13"/>
-      <c r="CF120" s="13"/>
-      <c r="CG120" s="13"/>
-      <c r="CH120" s="13" t="s">
+      <c r="CE120" s="14"/>
+      <c r="CF120" s="14"/>
+      <c r="CG120" s="14"/>
+      <c r="CH120" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="CI120" s="13"/>
-      <c r="CJ120" s="13"/>
-      <c r="CK120" s="13"/>
-      <c r="CL120" s="13"/>
+      <c r="CI120" s="14"/>
+      <c r="CJ120" s="14"/>
+      <c r="CK120" s="14"/>
+      <c r="CL120" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="CM120" s="13"/>
       <c r="CN120" s="13"/>
       <c r="CO120" s="13"/>
+      <c r="CP120" s="13"/>
     </row>
-    <row r="121" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -43321,15 +43537,18 @@
       <c r="CK121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL121" s="4"/>
+      <c r="CL121" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="CM121" s="4"/>
       <c r="CN121" s="4"/>
       <c r="CO121" s="4"/>
+      <c r="CP121" s="4"/>
     </row>
-    <row r="122" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -43597,12 +43816,15 @@
       <c r="CK123" s="11">
         <v>-2.4900856224084436</v>
       </c>
-      <c r="CL123" s="11"/>
+      <c r="CL123" s="11">
+        <v>4.4684958115665836</v>
+      </c>
       <c r="CM123" s="11"/>
       <c r="CN123" s="11"/>
       <c r="CO123" s="11"/>
+      <c r="CP123" s="11"/>
     </row>
-    <row r="124" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -43870,12 +44092,15 @@
       <c r="CK124" s="11">
         <v>-6.9888091837713802</v>
       </c>
-      <c r="CL124" s="11"/>
+      <c r="CL124" s="11">
+        <v>3.2227857967411069</v>
+      </c>
       <c r="CM124" s="11"/>
       <c r="CN124" s="11"/>
       <c r="CO124" s="11"/>
+      <c r="CP124" s="11"/>
     </row>
-    <row r="125" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -44143,12 +44368,15 @@
       <c r="CK125" s="11">
         <v>1.3340196748929003</v>
       </c>
-      <c r="CL125" s="11"/>
+      <c r="CL125" s="11">
+        <v>3.3222958462834526</v>
+      </c>
       <c r="CM125" s="11"/>
       <c r="CN125" s="11"/>
       <c r="CO125" s="11"/>
+      <c r="CP125" s="11"/>
     </row>
-    <row r="126" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -44416,12 +44644,15 @@
       <c r="CK126" s="11">
         <v>15.970006910383375</v>
       </c>
-      <c r="CL126" s="11"/>
+      <c r="CL126" s="11">
+        <v>-17.025058969499923</v>
+      </c>
       <c r="CM126" s="11"/>
       <c r="CN126" s="11"/>
       <c r="CO126" s="11"/>
+      <c r="CP126" s="11"/>
     </row>
-    <row r="127" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -44689,12 +44920,15 @@
       <c r="CK127" s="11">
         <v>-0.89943316715083199</v>
       </c>
-      <c r="CL127" s="11"/>
+      <c r="CL127" s="11">
+        <v>0.12358624278181196</v>
+      </c>
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
+      <c r="CP127" s="11"/>
     </row>
-    <row r="128" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -44962,12 +45196,15 @@
       <c r="CK128" s="11">
         <v>-6.068027579192659</v>
       </c>
-      <c r="CL128" s="11"/>
+      <c r="CL128" s="11">
+        <v>7.5586256213377823</v>
+      </c>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
       <c r="CO128" s="11"/>
+      <c r="CP128" s="11"/>
     </row>
-    <row r="129" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -45235,12 +45472,15 @@
       <c r="CK129" s="11">
         <v>5.595813956014652</v>
       </c>
-      <c r="CL129" s="11"/>
+      <c r="CL129" s="11">
+        <v>-3.9408382556680408</v>
+      </c>
       <c r="CM129" s="11"/>
       <c r="CN129" s="11"/>
       <c r="CO129" s="11"/>
+      <c r="CP129" s="11"/>
     </row>
-    <row r="130" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -45508,12 +45748,15 @@
       <c r="CK130" s="11">
         <v>1.9497123807054209</v>
       </c>
-      <c r="CL130" s="11"/>
+      <c r="CL130" s="11">
+        <v>1.5125899912571441</v>
+      </c>
       <c r="CM130" s="11"/>
       <c r="CN130" s="11"/>
       <c r="CO130" s="11"/>
+      <c r="CP130" s="11"/>
     </row>
-    <row r="131" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -45781,12 +46024,15 @@
       <c r="CK131" s="11">
         <v>0.46930708951668976</v>
       </c>
-      <c r="CL131" s="11"/>
+      <c r="CL131" s="11">
+        <v>5.1789264010787974</v>
+      </c>
       <c r="CM131" s="11"/>
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
+      <c r="CP131" s="11"/>
     </row>
-    <row r="132" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -46054,12 +46300,15 @@
       <c r="CK132" s="11">
         <v>-7.3593899079029228</v>
       </c>
-      <c r="CL132" s="11"/>
+      <c r="CL132" s="11">
+        <v>-3.9429555484268519</v>
+      </c>
       <c r="CM132" s="11"/>
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
+      <c r="CP132" s="11"/>
     </row>
-    <row r="133" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -46327,12 +46576,15 @@
       <c r="CK133" s="11">
         <v>2.2731118212873156</v>
       </c>
-      <c r="CL133" s="11"/>
+      <c r="CL133" s="11">
+        <v>-1.6277013319149063</v>
+      </c>
       <c r="CM133" s="11"/>
       <c r="CN133" s="11"/>
       <c r="CO133" s="11"/>
+      <c r="CP133" s="11"/>
     </row>
-    <row r="134" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -46600,12 +46852,15 @@
       <c r="CK134" s="11">
         <v>2.8895328248791543</v>
       </c>
-      <c r="CL134" s="11"/>
+      <c r="CL134" s="11">
+        <v>3.6476803906169408</v>
+      </c>
       <c r="CM134" s="11"/>
       <c r="CN134" s="11"/>
       <c r="CO134" s="11"/>
+      <c r="CP134" s="11"/>
     </row>
-    <row r="135" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -46873,12 +47128,15 @@
       <c r="CK135" s="11">
         <v>8.2553686832053046</v>
       </c>
-      <c r="CL135" s="11"/>
+      <c r="CL135" s="11">
+        <v>14.250590902089911</v>
+      </c>
       <c r="CM135" s="11"/>
       <c r="CN135" s="11"/>
       <c r="CO135" s="11"/>
+      <c r="CP135" s="11"/>
     </row>
-    <row r="136" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -47146,12 +47404,15 @@
       <c r="CK136" s="11">
         <v>0.15767647966600862</v>
       </c>
-      <c r="CL136" s="11"/>
+      <c r="CL136" s="11">
+        <v>1.0913375778167875</v>
+      </c>
       <c r="CM136" s="11"/>
       <c r="CN136" s="11"/>
       <c r="CO136" s="11"/>
+      <c r="CP136" s="11"/>
     </row>
-    <row r="137" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -47419,12 +47680,15 @@
       <c r="CK137" s="11">
         <v>3.0540395797123807</v>
       </c>
-      <c r="CL137" s="11"/>
+      <c r="CL137" s="11">
+        <v>4.9887730390948235</v>
+      </c>
       <c r="CM137" s="11"/>
       <c r="CN137" s="11"/>
       <c r="CO137" s="11"/>
+      <c r="CP137" s="11"/>
     </row>
-    <row r="138" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -47692,12 +47956,15 @@
       <c r="CK138" s="11">
         <v>1.5515981110379045</v>
       </c>
-      <c r="CL138" s="11"/>
+      <c r="CL138" s="11">
+        <v>3.1520113444878319</v>
+      </c>
       <c r="CM138" s="11"/>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
+      <c r="CP138" s="11"/>
     </row>
-    <row r="139" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -47965,12 +48232,15 @@
       <c r="CK139" s="11">
         <v>1.9810838194844962</v>
       </c>
-      <c r="CL139" s="11"/>
+      <c r="CL139" s="11">
+        <v>2.8541318017311994</v>
+      </c>
       <c r="CM139" s="11"/>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
+      <c r="CP139" s="11"/>
     </row>
-    <row r="140" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -48238,12 +48508,15 @@
       <c r="CK140" s="11">
         <v>-11.879161885810305</v>
       </c>
-      <c r="CL140" s="11"/>
+      <c r="CL140" s="11">
+        <v>-29.955619561290177</v>
+      </c>
       <c r="CM140" s="11"/>
       <c r="CN140" s="11"/>
       <c r="CO140" s="11"/>
+      <c r="CP140" s="11"/>
     </row>
-    <row r="141" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -48511,12 +48784,15 @@
       <c r="CK141" s="11">
         <v>-3.1409038543950345</v>
       </c>
-      <c r="CL141" s="11"/>
+      <c r="CL141" s="11">
+        <v>0.33355907213632463</v>
+      </c>
       <c r="CM141" s="11"/>
       <c r="CN141" s="11"/>
       <c r="CO141" s="11"/>
+      <c r="CP141" s="11"/>
     </row>
-    <row r="142" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -48784,13 +49060,16 @@
       <c r="CK142" s="11">
         <v>3.7755543920010979</v>
       </c>
-      <c r="CL142" s="11"/>
+      <c r="CL142" s="11">
+        <v>3.141822909983631</v>
+      </c>
       <c r="CM142" s="11"/>
       <c r="CN142" s="11"/>
       <c r="CO142" s="11"/>
+      <c r="CP142" s="11"/>
     </row>
-    <row r="143" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -49058,12 +49337,15 @@
       <c r="CK144" s="11">
         <v>-0.34722986491927088</v>
       </c>
-      <c r="CL144" s="11"/>
+      <c r="CL144" s="11">
+        <v>2.2441629895339616</v>
+      </c>
       <c r="CM144" s="11"/>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
+      <c r="CP144" s="11"/>
     </row>
-    <row r="145" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -49157,183 +49439,187 @@
       <c r="CM145" s="10"/>
       <c r="CN145" s="10"/>
       <c r="CO145" s="10"/>
+      <c r="CP145" s="10"/>
     </row>
-    <row r="146" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="13">
+      <c r="B156" s="14">
         <v>2000</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13">
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14">
         <v>2001</v>
       </c>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13">
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14">
         <v>2002</v>
       </c>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13">
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14">
         <v>2003</v>
       </c>
-      <c r="O156" s="13"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="13"/>
-      <c r="R156" s="13">
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="14">
         <v>2004</v>
       </c>
-      <c r="S156" s="13"/>
-      <c r="T156" s="13"/>
-      <c r="U156" s="13"/>
-      <c r="V156" s="13">
+      <c r="S156" s="14"/>
+      <c r="T156" s="14"/>
+      <c r="U156" s="14"/>
+      <c r="V156" s="14">
         <v>2005</v>
       </c>
-      <c r="W156" s="13"/>
-      <c r="X156" s="13"/>
-      <c r="Y156" s="13"/>
-      <c r="Z156" s="13">
+      <c r="W156" s="14"/>
+      <c r="X156" s="14"/>
+      <c r="Y156" s="14"/>
+      <c r="Z156" s="14">
         <v>2006</v>
       </c>
-      <c r="AA156" s="13"/>
-      <c r="AB156" s="13"/>
-      <c r="AC156" s="13"/>
-      <c r="AD156" s="13">
+      <c r="AA156" s="14"/>
+      <c r="AB156" s="14"/>
+      <c r="AC156" s="14"/>
+      <c r="AD156" s="14">
         <v>2007</v>
       </c>
-      <c r="AE156" s="13"/>
-      <c r="AF156" s="13"/>
-      <c r="AG156" s="13"/>
-      <c r="AH156" s="13">
+      <c r="AE156" s="14"/>
+      <c r="AF156" s="14"/>
+      <c r="AG156" s="14"/>
+      <c r="AH156" s="14">
         <v>2008</v>
       </c>
-      <c r="AI156" s="13"/>
-      <c r="AJ156" s="13"/>
-      <c r="AK156" s="13"/>
-      <c r="AL156" s="13">
+      <c r="AI156" s="14"/>
+      <c r="AJ156" s="14"/>
+      <c r="AK156" s="14"/>
+      <c r="AL156" s="14">
         <v>2009</v>
       </c>
-      <c r="AM156" s="13"/>
-      <c r="AN156" s="13"/>
-      <c r="AO156" s="13"/>
-      <c r="AP156" s="13">
+      <c r="AM156" s="14"/>
+      <c r="AN156" s="14"/>
+      <c r="AO156" s="14"/>
+      <c r="AP156" s="14">
         <v>2010</v>
       </c>
-      <c r="AQ156" s="13"/>
-      <c r="AR156" s="13"/>
-      <c r="AS156" s="13"/>
-      <c r="AT156" s="13">
+      <c r="AQ156" s="14"/>
+      <c r="AR156" s="14"/>
+      <c r="AS156" s="14"/>
+      <c r="AT156" s="14">
         <v>2011</v>
       </c>
-      <c r="AU156" s="13"/>
-      <c r="AV156" s="13"/>
-      <c r="AW156" s="13"/>
-      <c r="AX156" s="13">
+      <c r="AU156" s="14"/>
+      <c r="AV156" s="14"/>
+      <c r="AW156" s="14"/>
+      <c r="AX156" s="14">
         <v>2012</v>
       </c>
-      <c r="AY156" s="13"/>
-      <c r="AZ156" s="13"/>
-      <c r="BA156" s="13"/>
-      <c r="BB156" s="13">
+      <c r="AY156" s="14"/>
+      <c r="AZ156" s="14"/>
+      <c r="BA156" s="14"/>
+      <c r="BB156" s="14">
         <v>2013</v>
       </c>
-      <c r="BC156" s="13"/>
-      <c r="BD156" s="13"/>
-      <c r="BE156" s="13"/>
-      <c r="BF156" s="13">
+      <c r="BC156" s="14"/>
+      <c r="BD156" s="14"/>
+      <c r="BE156" s="14"/>
+      <c r="BF156" s="14">
         <v>2014</v>
       </c>
-      <c r="BG156" s="13"/>
-      <c r="BH156" s="13"/>
-      <c r="BI156" s="13"/>
-      <c r="BJ156" s="13">
+      <c r="BG156" s="14"/>
+      <c r="BH156" s="14"/>
+      <c r="BI156" s="14"/>
+      <c r="BJ156" s="14">
         <v>2015</v>
       </c>
-      <c r="BK156" s="13"/>
-      <c r="BL156" s="13"/>
-      <c r="BM156" s="13"/>
-      <c r="BN156" s="13">
+      <c r="BK156" s="14"/>
+      <c r="BL156" s="14"/>
+      <c r="BM156" s="14"/>
+      <c r="BN156" s="14">
         <v>2016</v>
       </c>
-      <c r="BO156" s="13"/>
-      <c r="BP156" s="13"/>
-      <c r="BQ156" s="13"/>
-      <c r="BR156" s="13">
+      <c r="BO156" s="14"/>
+      <c r="BP156" s="14"/>
+      <c r="BQ156" s="14"/>
+      <c r="BR156" s="14">
         <v>2017</v>
       </c>
-      <c r="BS156" s="13"/>
-      <c r="BT156" s="13"/>
-      <c r="BU156" s="13"/>
-      <c r="BV156" s="13">
+      <c r="BS156" s="14"/>
+      <c r="BT156" s="14"/>
+      <c r="BU156" s="14"/>
+      <c r="BV156" s="14">
         <v>2018</v>
       </c>
-      <c r="BW156" s="13"/>
-      <c r="BX156" s="13"/>
-      <c r="BY156" s="13"/>
-      <c r="BZ156" s="13">
+      <c r="BW156" s="14"/>
+      <c r="BX156" s="14"/>
+      <c r="BY156" s="14"/>
+      <c r="BZ156" s="14">
         <v>2019</v>
       </c>
-      <c r="CA156" s="13"/>
-      <c r="CB156" s="13"/>
-      <c r="CC156" s="13"/>
-      <c r="CD156" s="13">
+      <c r="CA156" s="14"/>
+      <c r="CB156" s="14"/>
+      <c r="CC156" s="14"/>
+      <c r="CD156" s="14">
         <v>2020</v>
       </c>
-      <c r="CE156" s="13"/>
-      <c r="CF156" s="13"/>
-      <c r="CG156" s="13"/>
-      <c r="CH156" s="13">
+      <c r="CE156" s="14"/>
+      <c r="CF156" s="14"/>
+      <c r="CG156" s="14"/>
+      <c r="CH156" s="14">
         <v>2021</v>
       </c>
-      <c r="CI156" s="13"/>
-      <c r="CJ156" s="13"/>
-      <c r="CK156" s="13"/>
-      <c r="CL156" s="13">
+      <c r="CI156" s="14"/>
+      <c r="CJ156" s="14"/>
+      <c r="CK156" s="14"/>
+      <c r="CL156" s="14">
         <v>2022</v>
       </c>
-      <c r="CM156" s="13"/>
-      <c r="CN156" s="13"/>
-      <c r="CO156" s="13"/>
+      <c r="CM156" s="14"/>
+      <c r="CN156" s="14"/>
+      <c r="CO156" s="14"/>
+      <c r="CP156" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="157" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -49613,11 +49899,14 @@
       <c r="CO157" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="CP157" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="158" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -49897,8 +50186,11 @@
       <c r="CO159" s="11">
         <v>100.56783238712144</v>
       </c>
+      <c r="CP159" s="11">
+        <v>98.700030882004981</v>
+      </c>
     </row>
-    <row r="160" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -50178,8 +50470,11 @@
       <c r="CO160" s="11">
         <v>133.23735029254144</v>
       </c>
+      <c r="CP160" s="11">
+        <v>142.33193548241709</v>
+      </c>
     </row>
-    <row r="161" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -50459,8 +50754,11 @@
       <c r="CO161" s="11">
         <v>86.842260490065811</v>
       </c>
+      <c r="CP161" s="11">
+        <v>75.435445177021961</v>
+      </c>
     </row>
-    <row r="162" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -50740,8 +51038,11 @@
       <c r="CO162" s="11">
         <v>249.7539872412346</v>
       </c>
+      <c r="CP162" s="11">
+        <v>145.40257032935452</v>
+      </c>
     </row>
-    <row r="163" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -51021,8 +51322,11 @@
       <c r="CO163" s="11">
         <v>104.79177219310614</v>
       </c>
+      <c r="CP163" s="11">
+        <v>113.69195947778216</v>
+      </c>
     </row>
-    <row r="164" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -51302,8 +51606,11 @@
       <c r="CO164" s="11">
         <v>131.29527970664617</v>
       </c>
+      <c r="CP164" s="11">
+        <v>110.16983236501309</v>
+      </c>
     </row>
-    <row r="165" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -51583,8 +51890,11 @@
       <c r="CO165" s="11">
         <v>107.66340816842165</v>
       </c>
+      <c r="CP165" s="11">
+        <v>95.977652306530331</v>
+      </c>
     </row>
-    <row r="166" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -51864,8 +52174,11 @@
       <c r="CO166" s="11">
         <v>128.61818386627763</v>
       </c>
+      <c r="CP166" s="11">
+        <v>82.948627909358365</v>
+      </c>
     </row>
-    <row r="167" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -52145,8 +52458,11 @@
       <c r="CO167" s="11">
         <v>144.42748956708922</v>
       </c>
+      <c r="CP167" s="11">
+        <v>111.22801650405492</v>
+      </c>
     </row>
-    <row r="168" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -52426,8 +52742,11 @@
       <c r="CO168" s="11">
         <v>100.36642472703818</v>
       </c>
+      <c r="CP168" s="11">
+        <v>129.31663746103504</v>
+      </c>
     </row>
-    <row r="169" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -52707,8 +53026,11 @@
       <c r="CO169" s="11">
         <v>102.13499202630818</v>
       </c>
+      <c r="CP169" s="11">
+        <v>81.479665889429214</v>
+      </c>
     </row>
-    <row r="170" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -52988,8 +53310,11 @@
       <c r="CO170" s="11">
         <v>114.61111970560565</v>
       </c>
+      <c r="CP170" s="11">
+        <v>77.431527062971753</v>
+      </c>
     </row>
-    <row r="171" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -53269,8 +53594,11 @@
       <c r="CO171" s="11">
         <v>84.57084618519805</v>
       </c>
+      <c r="CP171" s="11">
+        <v>63.804519736449073</v>
+      </c>
     </row>
-    <row r="172" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -53550,8 +53878,11 @@
       <c r="CO172" s="11">
         <v>129.29170775619843</v>
       </c>
+      <c r="CP172" s="11">
+        <v>142.25869561138191</v>
+      </c>
     </row>
-    <row r="173" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -53831,8 +54162,11 @@
       <c r="CO173" s="11">
         <v>166.74874753350863</v>
       </c>
+      <c r="CP173" s="11">
+        <v>148.40923624113537</v>
+      </c>
     </row>
-    <row r="174" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -54112,8 +54446,11 @@
       <c r="CO174" s="11">
         <v>124.66300284180976</v>
       </c>
+      <c r="CP174" s="11">
+        <v>164.54402142008152</v>
+      </c>
     </row>
-    <row r="175" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -54393,8 +54730,11 @@
       <c r="CO175" s="11">
         <v>116.43679225578236</v>
       </c>
+      <c r="CP175" s="11">
+        <v>114.46901669412173</v>
+      </c>
     </row>
-    <row r="176" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -54674,8 +55014,11 @@
       <c r="CO176" s="11">
         <v>44.02927659890851</v>
       </c>
+      <c r="CP176" s="11">
+        <v>40.177693215279135</v>
+      </c>
     </row>
-    <row r="177" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -54955,8 +55298,11 @@
       <c r="CO177" s="11">
         <v>110.50488825199254</v>
       </c>
+      <c r="CP177" s="11">
+        <v>157.65935279789863</v>
+      </c>
     </row>
-    <row r="178" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -55236,9 +55582,12 @@
       <c r="CO178" s="11">
         <v>143.50942391363682</v>
       </c>
+      <c r="CP178" s="11">
+        <v>131.1114983511645</v>
+      </c>
     </row>
-    <row r="179" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -55518,8 +55867,11 @@
       <c r="CO180" s="11">
         <v>121.4840084623811</v>
       </c>
+      <c r="CP180" s="11">
+        <v>127.48920720067235</v>
+      </c>
     </row>
-    <row r="181" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -55613,186 +55965,190 @@
       <c r="CM181" s="10"/>
       <c r="CN181" s="10"/>
       <c r="CO181" s="10"/>
+      <c r="CP181" s="10"/>
     </row>
-    <row r="182" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="B193" s="13">
+      <c r="B193" s="14">
         <v>2000</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13">
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14">
         <v>2001</v>
       </c>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13">
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14">
         <v>2002</v>
       </c>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="13">
+      <c r="K193" s="14"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="14"/>
+      <c r="N193" s="14">
         <v>2003</v>
       </c>
-      <c r="O193" s="13"/>
-      <c r="P193" s="13"/>
-      <c r="Q193" s="13"/>
-      <c r="R193" s="13">
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+      <c r="R193" s="14">
         <v>2004</v>
       </c>
-      <c r="S193" s="13"/>
-      <c r="T193" s="13"/>
-      <c r="U193" s="13"/>
-      <c r="V193" s="13">
+      <c r="S193" s="14"/>
+      <c r="T193" s="14"/>
+      <c r="U193" s="14"/>
+      <c r="V193" s="14">
         <v>2005</v>
       </c>
-      <c r="W193" s="13"/>
-      <c r="X193" s="13"/>
-      <c r="Y193" s="13"/>
-      <c r="Z193" s="13">
+      <c r="W193" s="14"/>
+      <c r="X193" s="14"/>
+      <c r="Y193" s="14"/>
+      <c r="Z193" s="14">
         <v>2006</v>
       </c>
-      <c r="AA193" s="13"/>
-      <c r="AB193" s="13"/>
-      <c r="AC193" s="13"/>
-      <c r="AD193" s="13">
+      <c r="AA193" s="14"/>
+      <c r="AB193" s="14"/>
+      <c r="AC193" s="14"/>
+      <c r="AD193" s="14">
         <v>2007</v>
       </c>
-      <c r="AE193" s="13"/>
-      <c r="AF193" s="13"/>
-      <c r="AG193" s="13"/>
-      <c r="AH193" s="13">
+      <c r="AE193" s="14"/>
+      <c r="AF193" s="14"/>
+      <c r="AG193" s="14"/>
+      <c r="AH193" s="14">
         <v>2008</v>
       </c>
-      <c r="AI193" s="13"/>
-      <c r="AJ193" s="13"/>
-      <c r="AK193" s="13"/>
-      <c r="AL193" s="13">
+      <c r="AI193" s="14"/>
+      <c r="AJ193" s="14"/>
+      <c r="AK193" s="14"/>
+      <c r="AL193" s="14">
         <v>2009</v>
       </c>
-      <c r="AM193" s="13"/>
-      <c r="AN193" s="13"/>
-      <c r="AO193" s="13"/>
-      <c r="AP193" s="13">
+      <c r="AM193" s="14"/>
+      <c r="AN193" s="14"/>
+      <c r="AO193" s="14"/>
+      <c r="AP193" s="14">
         <v>2010</v>
       </c>
-      <c r="AQ193" s="13"/>
-      <c r="AR193" s="13"/>
-      <c r="AS193" s="13"/>
-      <c r="AT193" s="13">
+      <c r="AQ193" s="14"/>
+      <c r="AR193" s="14"/>
+      <c r="AS193" s="14"/>
+      <c r="AT193" s="14">
         <v>2011</v>
       </c>
-      <c r="AU193" s="13"/>
-      <c r="AV193" s="13"/>
-      <c r="AW193" s="13"/>
-      <c r="AX193" s="13">
+      <c r="AU193" s="14"/>
+      <c r="AV193" s="14"/>
+      <c r="AW193" s="14"/>
+      <c r="AX193" s="14">
         <v>2012</v>
       </c>
-      <c r="AY193" s="13"/>
-      <c r="AZ193" s="13"/>
-      <c r="BA193" s="13"/>
-      <c r="BB193" s="13">
+      <c r="AY193" s="14"/>
+      <c r="AZ193" s="14"/>
+      <c r="BA193" s="14"/>
+      <c r="BB193" s="14">
         <v>2013</v>
       </c>
-      <c r="BC193" s="13"/>
-      <c r="BD193" s="13"/>
-      <c r="BE193" s="13"/>
-      <c r="BF193" s="13">
+      <c r="BC193" s="14"/>
+      <c r="BD193" s="14"/>
+      <c r="BE193" s="14"/>
+      <c r="BF193" s="14">
         <v>2014</v>
       </c>
-      <c r="BG193" s="13"/>
-      <c r="BH193" s="13"/>
-      <c r="BI193" s="13"/>
-      <c r="BJ193" s="13">
+      <c r="BG193" s="14"/>
+      <c r="BH193" s="14"/>
+      <c r="BI193" s="14"/>
+      <c r="BJ193" s="14">
         <v>2015</v>
       </c>
-      <c r="BK193" s="13"/>
-      <c r="BL193" s="13"/>
-      <c r="BM193" s="13"/>
-      <c r="BN193" s="13">
+      <c r="BK193" s="14"/>
+      <c r="BL193" s="14"/>
+      <c r="BM193" s="14"/>
+      <c r="BN193" s="14">
         <v>2016</v>
       </c>
-      <c r="BO193" s="13"/>
-      <c r="BP193" s="13"/>
-      <c r="BQ193" s="13"/>
-      <c r="BR193" s="13">
+      <c r="BO193" s="14"/>
+      <c r="BP193" s="14"/>
+      <c r="BQ193" s="14"/>
+      <c r="BR193" s="14">
         <v>2017</v>
       </c>
-      <c r="BS193" s="13"/>
-      <c r="BT193" s="13"/>
-      <c r="BU193" s="13"/>
-      <c r="BV193" s="13">
+      <c r="BS193" s="14"/>
+      <c r="BT193" s="14"/>
+      <c r="BU193" s="14"/>
+      <c r="BV193" s="14">
         <v>2018</v>
       </c>
-      <c r="BW193" s="13"/>
-      <c r="BX193" s="13"/>
-      <c r="BY193" s="13"/>
-      <c r="BZ193" s="13">
+      <c r="BW193" s="14"/>
+      <c r="BX193" s="14"/>
+      <c r="BY193" s="14"/>
+      <c r="BZ193" s="14">
         <v>2019</v>
       </c>
-      <c r="CA193" s="13"/>
-      <c r="CB193" s="13"/>
-      <c r="CC193" s="13"/>
-      <c r="CD193" s="13">
+      <c r="CA193" s="14"/>
+      <c r="CB193" s="14"/>
+      <c r="CC193" s="14"/>
+      <c r="CD193" s="14">
         <v>2020</v>
       </c>
-      <c r="CE193" s="13"/>
-      <c r="CF193" s="13"/>
-      <c r="CG193" s="13"/>
-      <c r="CH193" s="13">
+      <c r="CE193" s="14"/>
+      <c r="CF193" s="14"/>
+      <c r="CG193" s="14"/>
+      <c r="CH193" s="14">
         <v>2021</v>
       </c>
-      <c r="CI193" s="13"/>
-      <c r="CJ193" s="13"/>
-      <c r="CK193" s="13"/>
-      <c r="CL193" s="13">
+      <c r="CI193" s="14"/>
+      <c r="CJ193" s="14"/>
+      <c r="CK193" s="14"/>
+      <c r="CL193" s="14">
         <v>2022</v>
       </c>
-      <c r="CM193" s="13"/>
-      <c r="CN193" s="13"/>
-      <c r="CO193" s="13"/>
+      <c r="CM193" s="14"/>
+      <c r="CN193" s="14"/>
+      <c r="CO193" s="14"/>
+      <c r="CP193" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="194" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -56072,11 +56428,14 @@
       <c r="CO194" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="CP194" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="195" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
     </row>
-    <row r="196" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -56356,8 +56715,11 @@
       <c r="CO196" s="11">
         <v>21.051495119600339</v>
       </c>
+      <c r="CP196" s="11">
+        <v>16.553943703771406</v>
+      </c>
     </row>
-    <row r="197" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -56637,8 +56999,11 @@
       <c r="CO197" s="11">
         <v>5.0517422560624654</v>
       </c>
+      <c r="CP197" s="11">
+        <v>8.0509734076343715</v>
+      </c>
     </row>
-    <row r="198" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -56918,8 +57283,11 @@
       <c r="CO198" s="11">
         <v>3.0642616672821825</v>
       </c>
+      <c r="CP198" s="11">
+        <v>3.5911805097923244</v>
+      </c>
     </row>
-    <row r="199" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -57199,8 +57567,11 @@
       <c r="CO199" s="11">
         <v>2.9380713677328165</v>
       </c>
+      <c r="CP199" s="11">
+        <v>2.8372854051009084</v>
+      </c>
     </row>
-    <row r="200" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -57480,8 +57851,11 @@
       <c r="CO200" s="11">
         <v>5.622591056133464</v>
       </c>
+      <c r="CP200" s="11">
+        <v>6.0971151177849192</v>
+      </c>
     </row>
-    <row r="201" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -57761,8 +58135,11 @@
       <c r="CO201" s="11">
         <v>1.4760653290372179</v>
       </c>
+      <c r="CP201" s="11">
+        <v>1.1449273270968099</v>
+      </c>
     </row>
-    <row r="202" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -58042,8 +58419,11 @@
       <c r="CO202" s="11">
         <v>1.5811850235433897</v>
       </c>
+      <c r="CP202" s="11">
+        <v>1.2067712755810045</v>
+      </c>
     </row>
-    <row r="203" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -58323,8 +58703,11 @@
       <c r="CO203" s="11">
         <v>0.50108970719495938</v>
       </c>
+      <c r="CP203" s="11">
+        <v>0.341169373623605</v>
+      </c>
     </row>
-    <row r="204" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -58604,8 +58987,11 @@
       <c r="CO204" s="11">
         <v>1.3571298574164419</v>
       </c>
+      <c r="CP204" s="11">
+        <v>0.73579918073223227</v>
+      </c>
     </row>
-    <row r="205" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -58885,8 +59271,11 @@
       <c r="CO205" s="11">
         <v>0.52998912814674159</v>
       </c>
+      <c r="CP205" s="11">
+        <v>0.19641993808302213</v>
+      </c>
     </row>
-    <row r="206" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -59166,8 +59555,11 @@
       <c r="CO206" s="11">
         <v>9.1698195464001139E-2</v>
       </c>
+      <c r="CP206" s="11">
+        <v>8.5242454587841923E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -59447,8 +59839,11 @@
       <c r="CO207" s="11">
         <v>8.7461742617694876E-2</v>
       </c>
+      <c r="CP207" s="11">
+        <v>6.4897901616637901E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -59728,8 +60123,11 @@
       <c r="CO208" s="11">
         <v>0.12329926132299651</v>
       </c>
+      <c r="CP208" s="11">
+        <v>3.4898405139432667E-2</v>
+      </c>
     </row>
-    <row r="209" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -60009,8 +60407,11 @@
       <c r="CO209" s="11">
         <v>5.2258969355151503</v>
       </c>
+      <c r="CP209" s="11">
+        <v>6.2530011327575057</v>
+      </c>
     </row>
-    <row r="210" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -60290,8 +60691,11 @@
       <c r="CO210" s="11">
         <v>12.655492311537319</v>
       </c>
+      <c r="CP210" s="11">
+        <v>12.295104952283756</v>
+      </c>
     </row>
-    <row r="211" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -60571,8 +60975,11 @@
       <c r="CO211" s="11">
         <v>10.508494426785218</v>
       </c>
+      <c r="CP211" s="11">
+        <v>14.765224151203979</v>
+      </c>
     </row>
-    <row r="212" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -60852,8 +61259,11 @@
       <c r="CO212" s="11">
         <v>3.5710247457272271</v>
       </c>
+      <c r="CP212" s="11">
+        <v>3.8391654653057516</v>
+      </c>
     </row>
-    <row r="213" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -61133,8 +61543,11 @@
       <c r="CO213" s="11">
         <v>1.3187012383728656E-2</v>
       </c>
+      <c r="CP213" s="11">
+        <v>4.1375054138313654E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -61414,8 +61827,11 @@
       <c r="CO214" s="11">
         <v>11.98376260283114</v>
       </c>
+      <c r="CP214" s="11">
+        <v>12.590963391182274</v>
+      </c>
     </row>
-    <row r="215" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -61695,9 +62111,12 @@
       <c r="CO215" s="11">
         <v>12.566062253665494</v>
       </c>
+      <c r="CP215" s="11">
+        <v>9.2745418525839138</v>
+      </c>
     </row>
-    <row r="216" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -61977,8 +62396,11 @@
       <c r="CO217" s="11">
         <v>100</v>
       </c>
+      <c r="CP217" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -62072,188 +62494,192 @@
       <c r="CM218" s="10"/>
       <c r="CN218" s="10"/>
       <c r="CO218" s="10"/>
+      <c r="CP218" s="10"/>
     </row>
-    <row r="219" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="13">
+      <c r="B230" s="14">
         <v>2000</v>
       </c>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13">
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14">
         <v>2001</v>
       </c>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="13">
+      <c r="G230" s="14"/>
+      <c r="H230" s="14"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="14">
         <v>2002</v>
       </c>
-      <c r="K230" s="13"/>
-      <c r="L230" s="13"/>
-      <c r="M230" s="13"/>
-      <c r="N230" s="13">
+      <c r="K230" s="14"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="14"/>
+      <c r="N230" s="14">
         <v>2003</v>
       </c>
-      <c r="O230" s="13"/>
-      <c r="P230" s="13"/>
-      <c r="Q230" s="13"/>
-      <c r="R230" s="13">
+      <c r="O230" s="14"/>
+      <c r="P230" s="14"/>
+      <c r="Q230" s="14"/>
+      <c r="R230" s="14">
         <v>2004</v>
       </c>
-      <c r="S230" s="13"/>
-      <c r="T230" s="13"/>
-      <c r="U230" s="13"/>
-      <c r="V230" s="13">
+      <c r="S230" s="14"/>
+      <c r="T230" s="14"/>
+      <c r="U230" s="14"/>
+      <c r="V230" s="14">
         <v>2005</v>
       </c>
-      <c r="W230" s="13"/>
-      <c r="X230" s="13"/>
-      <c r="Y230" s="13"/>
-      <c r="Z230" s="13">
+      <c r="W230" s="14"/>
+      <c r="X230" s="14"/>
+      <c r="Y230" s="14"/>
+      <c r="Z230" s="14">
         <v>2006</v>
       </c>
-      <c r="AA230" s="13"/>
-      <c r="AB230" s="13"/>
-      <c r="AC230" s="13"/>
-      <c r="AD230" s="13">
+      <c r="AA230" s="14"/>
+      <c r="AB230" s="14"/>
+      <c r="AC230" s="14"/>
+      <c r="AD230" s="14">
         <v>2007</v>
       </c>
-      <c r="AE230" s="13"/>
-      <c r="AF230" s="13"/>
-      <c r="AG230" s="13"/>
-      <c r="AH230" s="13">
+      <c r="AE230" s="14"/>
+      <c r="AF230" s="14"/>
+      <c r="AG230" s="14"/>
+      <c r="AH230" s="14">
         <v>2008</v>
       </c>
-      <c r="AI230" s="13"/>
-      <c r="AJ230" s="13"/>
-      <c r="AK230" s="13"/>
-      <c r="AL230" s="13">
+      <c r="AI230" s="14"/>
+      <c r="AJ230" s="14"/>
+      <c r="AK230" s="14"/>
+      <c r="AL230" s="14">
         <v>2009</v>
       </c>
-      <c r="AM230" s="13"/>
-      <c r="AN230" s="13"/>
-      <c r="AO230" s="13"/>
-      <c r="AP230" s="13">
+      <c r="AM230" s="14"/>
+      <c r="AN230" s="14"/>
+      <c r="AO230" s="14"/>
+      <c r="AP230" s="14">
         <v>2010</v>
       </c>
-      <c r="AQ230" s="13"/>
-      <c r="AR230" s="13"/>
-      <c r="AS230" s="13"/>
-      <c r="AT230" s="13">
+      <c r="AQ230" s="14"/>
+      <c r="AR230" s="14"/>
+      <c r="AS230" s="14"/>
+      <c r="AT230" s="14">
         <v>2011</v>
       </c>
-      <c r="AU230" s="13"/>
-      <c r="AV230" s="13"/>
-      <c r="AW230" s="13"/>
-      <c r="AX230" s="13">
+      <c r="AU230" s="14"/>
+      <c r="AV230" s="14"/>
+      <c r="AW230" s="14"/>
+      <c r="AX230" s="14">
         <v>2012</v>
       </c>
-      <c r="AY230" s="13"/>
-      <c r="AZ230" s="13"/>
-      <c r="BA230" s="13"/>
-      <c r="BB230" s="13">
+      <c r="AY230" s="14"/>
+      <c r="AZ230" s="14"/>
+      <c r="BA230" s="14"/>
+      <c r="BB230" s="14">
         <v>2013</v>
       </c>
-      <c r="BC230" s="13"/>
-      <c r="BD230" s="13"/>
-      <c r="BE230" s="13"/>
-      <c r="BF230" s="13">
+      <c r="BC230" s="14"/>
+      <c r="BD230" s="14"/>
+      <c r="BE230" s="14"/>
+      <c r="BF230" s="14">
         <v>2014</v>
       </c>
-      <c r="BG230" s="13"/>
-      <c r="BH230" s="13"/>
-      <c r="BI230" s="13"/>
-      <c r="BJ230" s="13">
+      <c r="BG230" s="14"/>
+      <c r="BH230" s="14"/>
+      <c r="BI230" s="14"/>
+      <c r="BJ230" s="14">
         <v>2015</v>
       </c>
-      <c r="BK230" s="13"/>
-      <c r="BL230" s="13"/>
-      <c r="BM230" s="13"/>
-      <c r="BN230" s="13">
+      <c r="BK230" s="14"/>
+      <c r="BL230" s="14"/>
+      <c r="BM230" s="14"/>
+      <c r="BN230" s="14">
         <v>2016</v>
       </c>
-      <c r="BO230" s="13"/>
-      <c r="BP230" s="13"/>
-      <c r="BQ230" s="13"/>
-      <c r="BR230" s="13">
+      <c r="BO230" s="14"/>
+      <c r="BP230" s="14"/>
+      <c r="BQ230" s="14"/>
+      <c r="BR230" s="14">
         <v>2017</v>
       </c>
-      <c r="BS230" s="13"/>
-      <c r="BT230" s="13"/>
-      <c r="BU230" s="13"/>
-      <c r="BV230" s="13">
+      <c r="BS230" s="14"/>
+      <c r="BT230" s="14"/>
+      <c r="BU230" s="14"/>
+      <c r="BV230" s="14">
         <v>2018</v>
       </c>
-      <c r="BW230" s="13"/>
-      <c r="BX230" s="13"/>
-      <c r="BY230" s="13"/>
-      <c r="BZ230" s="13">
+      <c r="BW230" s="14"/>
+      <c r="BX230" s="14"/>
+      <c r="BY230" s="14"/>
+      <c r="BZ230" s="14">
         <v>2019</v>
       </c>
-      <c r="CA230" s="13"/>
-      <c r="CB230" s="13"/>
-      <c r="CC230" s="13"/>
-      <c r="CD230" s="13">
+      <c r="CA230" s="14"/>
+      <c r="CB230" s="14"/>
+      <c r="CC230" s="14"/>
+      <c r="CD230" s="14">
         <v>2020</v>
       </c>
-      <c r="CE230" s="13"/>
-      <c r="CF230" s="13"/>
-      <c r="CG230" s="13"/>
-      <c r="CH230" s="13">
+      <c r="CE230" s="14"/>
+      <c r="CF230" s="14"/>
+      <c r="CG230" s="14"/>
+      <c r="CH230" s="14">
         <v>2021</v>
       </c>
-      <c r="CI230" s="13"/>
-      <c r="CJ230" s="13"/>
-      <c r="CK230" s="13"/>
-      <c r="CL230" s="13">
+      <c r="CI230" s="14"/>
+      <c r="CJ230" s="14"/>
+      <c r="CK230" s="14"/>
+      <c r="CL230" s="14">
         <v>2022</v>
       </c>
-      <c r="CM230" s="13"/>
-      <c r="CN230" s="13"/>
-      <c r="CO230" s="13"/>
+      <c r="CM230" s="14"/>
+      <c r="CN230" s="14"/>
+      <c r="CO230" s="14"/>
+      <c r="CP230" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="231" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -62533,11 +62959,14 @@
       <c r="CO231" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="CP231" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="232" spans="1:93" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
     </row>
-    <row r="233" spans="1:93" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -62817,8 +63246,11 @@
       <c r="CO233" s="11">
         <v>25.429801463860542</v>
       </c>
+      <c r="CP233" s="11">
+        <v>21.382456925078394</v>
+      </c>
     </row>
-    <row r="234" spans="1:93" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -63098,8 +63530,11 @@
       <c r="CO234" s="11">
         <v>4.6061100557597596</v>
       </c>
+      <c r="CP234" s="11">
+        <v>7.2113978739493714</v>
+      </c>
     </row>
-    <row r="235" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -63379,8 +63814,11 @@
       <c r="CO235" s="11">
         <v>4.2866087112235256</v>
       </c>
+      <c r="CP235" s="11">
+        <v>6.0692523923407471</v>
+      </c>
     </row>
-    <row r="236" spans="1:93" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -63660,8 +64098,11 @@
       <c r="CO236" s="11">
         <v>1.4291210756766803</v>
       </c>
+      <c r="CP236" s="11">
+        <v>2.4877364002507387</v>
+      </c>
     </row>
-    <row r="237" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -63941,8 +64382,11 @@
       <c r="CO237" s="11">
         <v>6.5182111643757645</v>
       </c>
+      <c r="CP237" s="11">
+        <v>6.8370391023961332</v>
+      </c>
     </row>
-    <row r="238" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -64222,8 +64666,11 @@
       <c r="CO238" s="11">
         <v>1.3657637450823574</v>
       </c>
+      <c r="CP238" s="11">
+        <v>1.3249169405136711</v>
+      </c>
     </row>
-    <row r="239" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -64503,8 +64950,11 @@
       <c r="CO239" s="11">
         <v>1.7841595213133541</v>
       </c>
+      <c r="CP239" s="11">
+        <v>1.6029805845323679</v>
+      </c>
     </row>
-    <row r="240" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -64784,8 +65234,11 @@
       <c r="CO240" s="11">
         <v>0.47329533351656311</v>
       </c>
+      <c r="CP240" s="11">
+        <v>0.52436567138823253</v>
+      </c>
     </row>
-    <row r="241" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -65065,8 +65518,11 @@
       <c r="CO241" s="11">
         <v>1.1415387443007805</v>
       </c>
+      <c r="CP241" s="11">
+        <v>0.84337073660786488</v>
+      </c>
     </row>
-    <row r="242" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -65346,8 +65802,11 @@
       <c r="CO242" s="11">
         <v>0.64150141746957845</v>
       </c>
+      <c r="CP242" s="11">
+        <v>0.19364424157838925</v>
+      </c>
     </row>
-    <row r="243" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -65627,8 +66086,11 @@
       <c r="CO243" s="11">
         <v>0.10907000757256982</v>
       </c>
+      <c r="CP243" s="11">
+        <v>0.1333767491142005</v>
+      </c>
     </row>
-    <row r="244" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -65908,8 +66370,11 @@
       <c r="CO244" s="11">
         <v>9.2706563792369634E-2</v>
       </c>
+      <c r="CP244" s="11">
+        <v>0.10685288460556494</v>
+      </c>
     </row>
-    <row r="245" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -66189,8 +66654,11 @@
       <c r="CO245" s="11">
         <v>0.17711645539370183</v>
       </c>
+      <c r="CP245" s="11">
+        <v>6.9731267035186228E-2</v>
+      </c>
     </row>
-    <row r="246" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -66470,8 +66938,11 @@
       <c r="CO246" s="11">
         <v>4.9103141922666556</v>
       </c>
+      <c r="CP246" s="11">
+        <v>5.6038061758832738</v>
+      </c>
     </row>
-    <row r="247" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -66751,8 +67222,11 @@
       <c r="CO247" s="11">
         <v>9.2200988481874244</v>
       </c>
+      <c r="CP247" s="11">
+        <v>10.56196516144624</v>
+      </c>
     </row>
-    <row r="248" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -67032,8 +67506,11 @@
       <c r="CO248" s="11">
         <v>10.240520417195551</v>
       </c>
+      <c r="CP248" s="11">
+        <v>11.440140486000546</v>
+      </c>
     </row>
-    <row r="249" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -67313,8 +67790,11 @@
       <c r="CO249" s="11">
         <v>3.7258188930205152</v>
       </c>
+      <c r="CP249" s="11">
+        <v>4.2758483965309129</v>
+      </c>
     </row>
-    <row r="250" spans="1:93" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -67594,8 +68074,11 @@
       <c r="CO250" s="11">
         <v>3.6385133887440031E-2</v>
       </c>
+      <c r="CP250" s="11">
+        <v>0.13128859393979667</v>
+      </c>
     </row>
-    <row r="251" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -67875,8 +68358,11 @@
       <c r="CO251" s="11">
         <v>13.174399254932995</v>
       </c>
+      <c r="CP251" s="11">
+        <v>10.18152055141452</v>
+      </c>
     </row>
-    <row r="252" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -68156,9 +68642,12 @@
       <c r="CO252" s="11">
         <v>10.637459001171878</v>
       </c>
+      <c r="CP252" s="11">
+        <v>9.0183088653938519</v>
+      </c>
     </row>
-    <row r="253" spans="1:93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:93" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -68438,8 +68927,11 @@
       <c r="CO254" s="11">
         <v>100</v>
       </c>
+      <c r="CP254" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:93" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -68533,13 +69025,14 @@
       <c r="CM255" s="10"/>
       <c r="CN255" s="10"/>
       <c r="CO255" s="10"/>
+      <c r="CP255" s="10"/>
     </row>
-    <row r="256" spans="1:93" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:93" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:94" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -68561,8 +69054,9 @@
       <c r="CM257" s="7"/>
       <c r="CN257" s="7"/>
       <c r="CO257" s="7"/>
+      <c r="CP257" s="7"/>
     </row>
-    <row r="258" spans="1:93" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:94" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -68584,9 +69078,10 @@
       <c r="CM258" s="7"/>
       <c r="CN258" s="7"/>
       <c r="CO258" s="7"/>
+      <c r="CP258" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="AH193:AK193"/>
     <mergeCell ref="B156:E156"/>
     <mergeCell ref="F156:I156"/>
@@ -68746,8 +69241,6 @@
     <mergeCell ref="CH120:CK120"/>
     <mergeCell ref="CL156:CO156"/>
     <mergeCell ref="CL193:CO193"/>
-    <mergeCell ref="CL83:CO83"/>
-    <mergeCell ref="CL120:CO120"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3689CCB8-CF58-4D9C-A98B-F28A59F1F607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76C12-1C9D-4CB3-922B-475AB54A3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2730" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="70">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -664,13 +664,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23624,239 +23624,199 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CP258"/>
+  <dimension ref="A1:CQ258"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="62" zoomScaleNormal="62" zoomScaleSheetLayoutView="62" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CQ4" sqref="CQ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="7.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.88671875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="7.88671875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="7.88671875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="7.88671875" style="7" customWidth="1"/>
-    <col min="26" max="26" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="7.88671875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="7.88671875" style="7" customWidth="1"/>
-    <col min="34" max="34" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="7.88671875" style="7" customWidth="1"/>
-    <col min="38" max="38" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="41" width="7.88671875" style="7" customWidth="1"/>
-    <col min="42" max="42" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="7.88671875" style="7" customWidth="1"/>
-    <col min="46" max="46" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="7.88671875" style="7" customWidth="1"/>
-    <col min="50" max="50" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="7.88671875" style="7" customWidth="1"/>
-    <col min="54" max="54" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="7.88671875" style="7" customWidth="1"/>
-    <col min="58" max="58" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="61" width="7.88671875" style="7" customWidth="1"/>
-    <col min="62" max="62" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="7.88671875" style="7" customWidth="1"/>
-    <col min="66" max="66" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="69" width="7.88671875" style="7" customWidth="1"/>
-    <col min="70" max="73" width="9.21875" style="7" customWidth="1"/>
-    <col min="74" max="74" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="7.88671875" style="7" customWidth="1"/>
-    <col min="78" max="78" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="7.88671875" style="7" customWidth="1"/>
-    <col min="82" max="84" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="7.88671875" style="7" customWidth="1"/>
-    <col min="86" max="94" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="7"/>
+    <col min="2" max="95" width="9.44140625" style="7" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>2000</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13">
         <v>2001</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13">
         <v>2002</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>2003</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13">
         <v>2004</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13">
         <v>2005</v>
       </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14">
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13">
         <v>2006</v>
       </c>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13">
         <v>2007</v>
       </c>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14">
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13">
         <v>2008</v>
       </c>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14">
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13">
         <v>2009</v>
       </c>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14">
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14">
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13">
         <v>2011</v>
       </c>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14">
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13">
         <v>2012</v>
       </c>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14">
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13">
         <v>2013</v>
       </c>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14">
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13">
         <v>2014</v>
       </c>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14">
+      <c r="BG9" s="13"/>
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13">
         <v>2015</v>
       </c>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
-      <c r="BM9" s="14"/>
-      <c r="BN9" s="14">
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13">
         <v>2016</v>
       </c>
-      <c r="BO9" s="14"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="14"/>
-      <c r="BR9" s="14">
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13">
         <v>2017</v>
       </c>
-      <c r="BS9" s="14"/>
-      <c r="BT9" s="14"/>
-      <c r="BU9" s="14"/>
-      <c r="BV9" s="14">
+      <c r="BS9" s="13"/>
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13">
         <v>2018</v>
       </c>
-      <c r="BW9" s="14"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="14"/>
-      <c r="BZ9" s="14">
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13">
         <v>2019</v>
       </c>
-      <c r="CA9" s="14"/>
-      <c r="CB9" s="14"/>
-      <c r="CC9" s="14"/>
-      <c r="CD9" s="14">
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13">
         <v>2020</v>
       </c>
-      <c r="CE9" s="14"/>
-      <c r="CF9" s="14"/>
-      <c r="CG9" s="14"/>
-      <c r="CH9" s="14">
+      <c r="CE9" s="13"/>
+      <c r="CF9" s="13"/>
+      <c r="CG9" s="13"/>
+      <c r="CH9" s="13">
         <v>2021</v>
       </c>
-      <c r="CI9" s="14"/>
-      <c r="CJ9" s="14"/>
-      <c r="CK9" s="14"/>
-      <c r="CL9" s="14">
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13">
         <v>2022</v>
       </c>
-      <c r="CM9" s="14"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="14"/>
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
       <c r="CP9" s="13">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="14"/>
     </row>
-    <row r="10" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24139,11 +24099,14 @@
       <c r="CP10" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CQ10" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24426,8 +24389,11 @@
       <c r="CP12" s="6">
         <v>93834.755992139151</v>
       </c>
+      <c r="CQ12" s="6">
+        <v>82108.725959333053</v>
+      </c>
     </row>
-    <row r="13" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24710,8 +24676,11 @@
       <c r="CP13" s="6">
         <v>45636.323206322086</v>
       </c>
+      <c r="CQ13" s="6">
+        <v>24677.33501405226</v>
+      </c>
     </row>
-    <row r="14" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24994,8 +24963,11 @@
       <c r="CP14" s="6">
         <v>20356.330363943223</v>
       </c>
+      <c r="CQ14" s="6">
+        <v>16563.72625525864</v>
+      </c>
     </row>
-    <row r="15" spans="1:94" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:95" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25276,10 +25248,13 @@
         <v>18748.249646992539</v>
       </c>
       <c r="CP15" s="6">
-        <v>16082.93397826683</v>
+        <v>16082.933978266828</v>
+      </c>
+      <c r="CQ15" s="6">
+        <v>6038.6793582825558</v>
       </c>
     </row>
-    <row r="16" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25562,8 +25537,11 @@
       <c r="CP16" s="6">
         <v>34561.027847580932</v>
       </c>
+      <c r="CQ16" s="6">
+        <v>37944.198223168212</v>
+      </c>
     </row>
-    <row r="17" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25846,8 +25824,11 @@
       <c r="CP17" s="6">
         <v>6489.9324468757904</v>
       </c>
+      <c r="CQ17" s="6">
+        <v>23526.536290698794</v>
+      </c>
     </row>
-    <row r="18" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26130,8 +26111,11 @@
       <c r="CP18" s="6">
         <v>6840.4901097173479</v>
       </c>
+      <c r="CQ18" s="6">
+        <v>5240.5698429203048</v>
+      </c>
     </row>
-    <row r="19" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26414,8 +26398,11 @@
       <c r="CP19" s="6">
         <v>1933.8923400270132</v>
       </c>
+      <c r="CQ19" s="6">
+        <v>631.02479072132064</v>
+      </c>
     </row>
-    <row r="20" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26698,8 +26685,11 @@
       <c r="CP20" s="6">
         <v>4170.8210332680455</v>
       </c>
+      <c r="CQ20" s="6">
+        <v>6190.7508537492158</v>
+      </c>
     </row>
-    <row r="21" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26982,8 +26972,11 @@
       <c r="CP21" s="6">
         <v>1113.3913037177003</v>
       </c>
+      <c r="CQ21" s="6">
+        <v>2623.5636590731929</v>
+      </c>
     </row>
-    <row r="22" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27266,8 +27259,11 @@
       <c r="CP22" s="6">
         <v>483.1902940807297</v>
       </c>
+      <c r="CQ22" s="6">
+        <v>375.10898706258115</v>
+      </c>
     </row>
-    <row r="23" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27548,10 +27544,13 @@
         <v>558.10577073315903</v>
       </c>
       <c r="CP23" s="6">
-        <v>367.86876115881</v>
+        <v>367.78666983079574</v>
+      </c>
+      <c r="CQ23" s="6">
+        <v>244.88750944835169</v>
       </c>
     </row>
-    <row r="24" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27834,8 +27833,11 @@
       <c r="CP24" s="6">
         <v>197.81892395993975</v>
       </c>
+      <c r="CQ24" s="6">
+        <v>199.61157818598826</v>
+      </c>
     </row>
-    <row r="25" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28116,10 +28118,13 @@
         <v>33347.188721319428</v>
       </c>
       <c r="CP25" s="6">
-        <v>35444.65572739589</v>
+        <v>35426.099875821506</v>
+      </c>
+      <c r="CQ25" s="6">
+        <v>21559.233974198025</v>
       </c>
     </row>
-    <row r="26" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28400,10 +28405,13 @@
         <v>80756.489399161917</v>
       </c>
       <c r="CP26" s="6">
-        <v>69693.856264138682</v>
+        <v>69704.325292533584</v>
+      </c>
+      <c r="CQ26" s="6">
+        <v>73629.824727423809</v>
       </c>
     </row>
-    <row r="27" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28686,8 +28694,11 @@
       <c r="CP27" s="6">
         <v>83695.53685758973</v>
       </c>
+      <c r="CQ27" s="6">
+        <v>49128.914652569962</v>
+      </c>
     </row>
-    <row r="28" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28970,8 +28981,11 @@
       <c r="CP28" s="6">
         <v>21762.014000829251</v>
       </c>
+      <c r="CQ28" s="6">
+        <v>14189.504044455447</v>
+      </c>
     </row>
-    <row r="29" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29252,10 +29266,13 @@
         <v>84.148194282600571</v>
       </c>
       <c r="CP29" s="6">
-        <v>234.53131040585185</v>
+        <v>175.53098906893672</v>
+      </c>
+      <c r="CQ29" s="6">
+        <v>211.07738005943213</v>
       </c>
     </row>
-    <row r="30" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29536,10 +29553,13 @@
         <v>76470.086961006338</v>
       </c>
       <c r="CP30" s="6">
-        <v>71370.907057535602</v>
+        <v>71561.684108712318</v>
+      </c>
+      <c r="CQ30" s="6">
+        <v>58875.388037997909</v>
       </c>
     </row>
-    <row r="31" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29822,9 +29842,12 @@
       <c r="CP31" s="6">
         <v>52572.026777995095</v>
       </c>
+      <c r="CQ31" s="6">
+        <v>78863.163808657453</v>
+      </c>
     </row>
-    <row r="32" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -30105,10 +30128,13 @@
         <v>638114.16743970243</v>
       </c>
       <c r="CP33" s="8">
-        <v>566842.30459694762</v>
+        <v>566965.91241227987</v>
+      </c>
+      <c r="CQ33" s="8">
+        <v>502821.82494731643</v>
       </c>
     </row>
-    <row r="34" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30203,191 +30229,193 @@
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
       <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
     </row>
-    <row r="35" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>2000</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13">
         <v>2001</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13">
         <v>2002</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14">
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13">
         <v>2003</v>
       </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13">
         <v>2004</v>
       </c>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14">
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13">
         <v>2005</v>
       </c>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14">
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13">
         <v>2006</v>
       </c>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14">
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="13"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="13">
         <v>2007</v>
       </c>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14">
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="13"/>
+      <c r="AG46" s="13"/>
+      <c r="AH46" s="13">
         <v>2008</v>
       </c>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14">
+      <c r="AI46" s="13"/>
+      <c r="AJ46" s="13"/>
+      <c r="AK46" s="13"/>
+      <c r="AL46" s="13">
         <v>2009</v>
       </c>
-      <c r="AM46" s="14"/>
-      <c r="AN46" s="14"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14">
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="13"/>
+      <c r="AP46" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14">
+      <c r="AQ46" s="13"/>
+      <c r="AR46" s="13"/>
+      <c r="AS46" s="13"/>
+      <c r="AT46" s="13">
         <v>2011</v>
       </c>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="14"/>
-      <c r="AW46" s="14"/>
-      <c r="AX46" s="14">
+      <c r="AU46" s="13"/>
+      <c r="AV46" s="13"/>
+      <c r="AW46" s="13"/>
+      <c r="AX46" s="13">
         <v>2012</v>
       </c>
-      <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
-      <c r="BA46" s="14"/>
-      <c r="BB46" s="14">
+      <c r="AY46" s="13"/>
+      <c r="AZ46" s="13"/>
+      <c r="BA46" s="13"/>
+      <c r="BB46" s="13">
         <v>2013</v>
       </c>
-      <c r="BC46" s="14"/>
-      <c r="BD46" s="14"/>
-      <c r="BE46" s="14"/>
-      <c r="BF46" s="14">
+      <c r="BC46" s="13"/>
+      <c r="BD46" s="13"/>
+      <c r="BE46" s="13"/>
+      <c r="BF46" s="13">
         <v>2014</v>
       </c>
-      <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
-      <c r="BI46" s="14"/>
-      <c r="BJ46" s="14">
+      <c r="BG46" s="13"/>
+      <c r="BH46" s="13"/>
+      <c r="BI46" s="13"/>
+      <c r="BJ46" s="13">
         <v>2015</v>
       </c>
-      <c r="BK46" s="14"/>
-      <c r="BL46" s="14"/>
-      <c r="BM46" s="14"/>
-      <c r="BN46" s="14">
+      <c r="BK46" s="13"/>
+      <c r="BL46" s="13"/>
+      <c r="BM46" s="13"/>
+      <c r="BN46" s="13">
         <v>2016</v>
       </c>
-      <c r="BO46" s="14"/>
-      <c r="BP46" s="14"/>
-      <c r="BQ46" s="14"/>
-      <c r="BR46" s="14">
+      <c r="BO46" s="13"/>
+      <c r="BP46" s="13"/>
+      <c r="BQ46" s="13"/>
+      <c r="BR46" s="13">
         <v>2017</v>
       </c>
-      <c r="BS46" s="14"/>
-      <c r="BT46" s="14"/>
-      <c r="BU46" s="14"/>
-      <c r="BV46" s="14">
+      <c r="BS46" s="13"/>
+      <c r="BT46" s="13"/>
+      <c r="BU46" s="13"/>
+      <c r="BV46" s="13">
         <v>2018</v>
       </c>
-      <c r="BW46" s="14"/>
-      <c r="BX46" s="14"/>
-      <c r="BY46" s="14"/>
-      <c r="BZ46" s="14">
+      <c r="BW46" s="13"/>
+      <c r="BX46" s="13"/>
+      <c r="BY46" s="13"/>
+      <c r="BZ46" s="13">
         <v>2019</v>
       </c>
-      <c r="CA46" s="14"/>
-      <c r="CB46" s="14"/>
-      <c r="CC46" s="14"/>
-      <c r="CD46" s="14">
+      <c r="CA46" s="13"/>
+      <c r="CB46" s="13"/>
+      <c r="CC46" s="13"/>
+      <c r="CD46" s="13">
         <v>2020</v>
       </c>
-      <c r="CE46" s="14"/>
-      <c r="CF46" s="14"/>
-      <c r="CG46" s="14"/>
-      <c r="CH46" s="14">
+      <c r="CE46" s="13"/>
+      <c r="CF46" s="13"/>
+      <c r="CG46" s="13"/>
+      <c r="CH46" s="13">
         <v>2021</v>
       </c>
-      <c r="CI46" s="14"/>
-      <c r="CJ46" s="14"/>
-      <c r="CK46" s="14"/>
-      <c r="CL46" s="14">
+      <c r="CI46" s="13"/>
+      <c r="CJ46" s="13"/>
+      <c r="CK46" s="13"/>
+      <c r="CL46" s="13">
         <v>2022</v>
       </c>
-      <c r="CM46" s="14"/>
-      <c r="CN46" s="14"/>
-      <c r="CO46" s="14"/>
+      <c r="CM46" s="13"/>
+      <c r="CN46" s="13"/>
+      <c r="CO46" s="13"/>
       <c r="CP46" s="13">
         <v>2023</v>
       </c>
+      <c r="CQ46" s="14"/>
     </row>
-    <row r="47" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30670,11 +30698,14 @@
       <c r="CP47" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CQ47" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="48" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30957,8 +30988,11 @@
       <c r="CP49" s="6">
         <v>95070.645017647243</v>
       </c>
+      <c r="CQ49" s="6">
+        <v>83324.623260262684</v>
+      </c>
     </row>
-    <row r="50" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31241,8 +31275,11 @@
       <c r="CP50" s="6">
         <v>32063.305435735991</v>
       </c>
+      <c r="CQ50" s="6">
+        <v>19755.7796927202</v>
+      </c>
     </row>
-    <row r="51" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31525,8 +31562,11 @@
       <c r="CP51" s="6">
         <v>26985.100062939469</v>
       </c>
+      <c r="CQ51" s="6">
+        <v>13845.021259312678</v>
+      </c>
     </row>
-    <row r="52" spans="1:94" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:95" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31807,10 +31847,13 @@
         <v>7506.6868217338251</v>
       </c>
       <c r="CP52" s="6">
-        <v>11060.969515075989</v>
+        <v>11060.969515075987</v>
+      </c>
+      <c r="CQ52" s="6">
+        <v>5404.4817506747968</v>
       </c>
     </row>
-    <row r="53" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -32093,8 +32136,11 @@
       <c r="CP53" s="6">
         <v>30398.832077773182</v>
       </c>
+      <c r="CQ53" s="6">
+        <v>34371.790936038713</v>
+      </c>
     </row>
-    <row r="54" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32377,8 +32423,11 @@
       <c r="CP54" s="6">
         <v>5890.8435345289809</v>
       </c>
+      <c r="CQ54" s="6">
+        <v>20158.240507159462</v>
+      </c>
     </row>
-    <row r="55" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32661,8 +32710,11 @@
       <c r="CP55" s="6">
         <v>7127.1696539006925</v>
       </c>
+      <c r="CQ55" s="6">
+        <v>6652.3705715084698</v>
+      </c>
     </row>
-    <row r="56" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32945,8 +32997,11 @@
       <c r="CP56" s="6">
         <v>2331.4337907316117</v>
       </c>
+      <c r="CQ56" s="6">
+        <v>542.7079285475595</v>
+      </c>
     </row>
-    <row r="57" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33229,8 +33284,11 @@
       <c r="CP57" s="6">
         <v>3749.7935901032583</v>
       </c>
+      <c r="CQ57" s="6">
+        <v>5527.0734165302592</v>
+      </c>
     </row>
-    <row r="58" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33513,8 +33571,11 @@
       <c r="CP58" s="6">
         <v>860.98071027649576</v>
       </c>
+      <c r="CQ58" s="6">
+        <v>3002.7406619358226</v>
+      </c>
     </row>
-    <row r="59" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33797,8 +33858,11 @@
       <c r="CP59" s="6">
         <v>593.01948382610692</v>
       </c>
+      <c r="CQ59" s="6">
+        <v>516.11070721366809</v>
+      </c>
     </row>
-    <row r="60" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -34079,10 +34143,13 @@
         <v>486.95604071117191</v>
       </c>
       <c r="CP60" s="6">
-        <v>475.08912081720678</v>
+        <v>474.98310285381649</v>
+      </c>
+      <c r="CQ60" s="6">
+        <v>451.16315078455136</v>
       </c>
     </row>
-    <row r="61" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34365,8 +34432,11 @@
       <c r="CP61" s="6">
         <v>310.03904547366005</v>
       </c>
+      <c r="CQ61" s="6">
+        <v>368.26732043012771</v>
+      </c>
     </row>
-    <row r="62" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34647,10 +34717,13 @@
         <v>25792.209956883882</v>
       </c>
       <c r="CP62" s="6">
-        <v>24915.633856381301</v>
+        <v>24916.005770249827</v>
+      </c>
+      <c r="CQ62" s="6">
+        <v>23906.312530136482</v>
       </c>
     </row>
-    <row r="63" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34931,10 +35004,13 @@
         <v>48430.042560249916</v>
       </c>
       <c r="CP63" s="6">
-        <v>46960.592230863636</v>
+        <v>46960.814907114342</v>
+      </c>
+      <c r="CQ63" s="6">
+        <v>45418.830187941901</v>
       </c>
     </row>
-    <row r="64" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -35217,8 +35293,11 @@
       <c r="CP64" s="6">
         <v>50865.133922985086</v>
       </c>
+      <c r="CQ64" s="6">
+        <v>41071.883067845381</v>
+      </c>
     </row>
-    <row r="65" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35499,10 +35578,13 @@
         <v>19570.459116741433</v>
       </c>
       <c r="CP65" s="6">
-        <v>19011.27014917984</v>
+        <v>19011.270149179843</v>
+      </c>
+      <c r="CQ65" s="6">
+        <v>17089.519540505204</v>
       </c>
     </row>
-    <row r="66" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35783,10 +35865,13 @@
         <v>191.11873004219791</v>
       </c>
       <c r="CP66" s="6">
-        <v>583.73513170403271</v>
+        <v>444.97014889775153</v>
+      </c>
+      <c r="CQ66" s="6">
+        <v>577.56365425052377</v>
       </c>
     </row>
-    <row r="67" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -36067,10 +36152,13 @@
         <v>69200.637338889384</v>
       </c>
       <c r="CP67" s="6">
-        <v>45269.06002780881</v>
+        <v>45390.083262683576</v>
+      </c>
+      <c r="CQ67" s="6">
+        <v>42099.814103688797</v>
       </c>
     </row>
-    <row r="68" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36353,9 +36441,12 @@
       <c r="CP68" s="6">
         <v>40097.190131400988</v>
       </c>
+      <c r="CQ68" s="6">
+        <v>53385.012609973783</v>
+      </c>
     </row>
-    <row r="69" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36636,10 +36727,13 @@
         <v>525265.97987364046</v>
       </c>
       <c r="CP70" s="8">
-        <v>444619.83648915356</v>
+        <v>444602.58331337787</v>
+      </c>
+      <c r="CQ70" s="8">
+        <v>417469.30685746111</v>
       </c>
     </row>
-    <row r="71" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -36734,180 +36828,181 @@
       <c r="CN71" s="10"/>
       <c r="CO71" s="10"/>
       <c r="CP71" s="10"/>
+      <c r="CQ71" s="10"/>
     </row>
-    <row r="72" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14" t="s">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14" t="s">
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14" t="s">
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14" t="s">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="14" t="s">
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="14"/>
-      <c r="X83" s="14"/>
-      <c r="Y83" s="14"/>
-      <c r="Z83" s="14" t="s">
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14" t="s">
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
-      <c r="AH83" s="14" t="s">
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="14"/>
-      <c r="AJ83" s="14"/>
-      <c r="AK83" s="14"/>
-      <c r="AL83" s="14" t="s">
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="14"/>
-      <c r="AN83" s="14"/>
-      <c r="AO83" s="14"/>
-      <c r="AP83" s="14" t="s">
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="13"/>
+      <c r="AO83" s="13"/>
+      <c r="AP83" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="14"/>
-      <c r="AR83" s="14"/>
-      <c r="AS83" s="14"/>
-      <c r="AT83" s="14" t="s">
+      <c r="AQ83" s="13"/>
+      <c r="AR83" s="13"/>
+      <c r="AS83" s="13"/>
+      <c r="AT83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="14"/>
-      <c r="AV83" s="14"/>
-      <c r="AW83" s="14"/>
-      <c r="AX83" s="14" t="s">
+      <c r="AU83" s="13"/>
+      <c r="AV83" s="13"/>
+      <c r="AW83" s="13"/>
+      <c r="AX83" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="14"/>
-      <c r="AZ83" s="14"/>
-      <c r="BA83" s="14"/>
-      <c r="BB83" s="14" t="s">
+      <c r="AY83" s="13"/>
+      <c r="AZ83" s="13"/>
+      <c r="BA83" s="13"/>
+      <c r="BB83" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="14"/>
-      <c r="BD83" s="14"/>
-      <c r="BE83" s="14"/>
-      <c r="BF83" s="14" t="s">
+      <c r="BC83" s="13"/>
+      <c r="BD83" s="13"/>
+      <c r="BE83" s="13"/>
+      <c r="BF83" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="14"/>
-      <c r="BH83" s="14"/>
-      <c r="BI83" s="14"/>
-      <c r="BJ83" s="14" t="s">
+      <c r="BG83" s="13"/>
+      <c r="BH83" s="13"/>
+      <c r="BI83" s="13"/>
+      <c r="BJ83" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="14"/>
-      <c r="BL83" s="14"/>
-      <c r="BM83" s="14"/>
-      <c r="BN83" s="14" t="s">
+      <c r="BK83" s="13"/>
+      <c r="BL83" s="13"/>
+      <c r="BM83" s="13"/>
+      <c r="BN83" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="14"/>
-      <c r="BP83" s="14"/>
-      <c r="BQ83" s="14"/>
-      <c r="BR83" s="14" t="s">
+      <c r="BO83" s="13"/>
+      <c r="BP83" s="13"/>
+      <c r="BQ83" s="13"/>
+      <c r="BR83" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="14"/>
-      <c r="BT83" s="14"/>
-      <c r="BU83" s="14"/>
-      <c r="BV83" s="14" t="s">
+      <c r="BS83" s="13"/>
+      <c r="BT83" s="13"/>
+      <c r="BU83" s="13"/>
+      <c r="BV83" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="14"/>
-      <c r="BX83" s="14"/>
-      <c r="BY83" s="14"/>
-      <c r="BZ83" s="14" t="s">
+      <c r="BW83" s="13"/>
+      <c r="BX83" s="13"/>
+      <c r="BY83" s="13"/>
+      <c r="BZ83" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="14"/>
-      <c r="CB83" s="14"/>
-      <c r="CC83" s="14"/>
-      <c r="CD83" s="14" t="s">
+      <c r="CA83" s="13"/>
+      <c r="CB83" s="13"/>
+      <c r="CC83" s="13"/>
+      <c r="CD83" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="14"/>
-      <c r="CF83" s="14"/>
-      <c r="CG83" s="14"/>
-      <c r="CH83" s="14" t="s">
+      <c r="CE83" s="13"/>
+      <c r="CF83" s="13"/>
+      <c r="CG83" s="13"/>
+      <c r="CH83" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CI83" s="14"/>
-      <c r="CJ83" s="14"/>
-      <c r="CK83" s="14"/>
+      <c r="CI83" s="13"/>
+      <c r="CJ83" s="13"/>
+      <c r="CK83" s="13"/>
       <c r="CL83" s="13" t="s">
         <v>66</v>
       </c>
@@ -36915,8 +37010,9 @@
       <c r="CN83" s="13"/>
       <c r="CO83" s="13"/>
       <c r="CP83" s="13"/>
+      <c r="CQ83" s="14"/>
     </row>
-    <row r="84" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -37187,15 +37283,18 @@
       <c r="CL84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM84" s="4"/>
+      <c r="CM84" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="CN84" s="4"/>
       <c r="CO84" s="4"/>
       <c r="CP84" s="4"/>
+      <c r="CQ84" s="4"/>
     </row>
-    <row r="85" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37466,12 +37565,15 @@
       <c r="CL86" s="11">
         <v>6.393067936711887</v>
       </c>
-      <c r="CM86" s="11"/>
+      <c r="CM86" s="11">
+        <v>10.490605282387861</v>
+      </c>
       <c r="CN86" s="11"/>
       <c r="CO86" s="11"/>
       <c r="CP86" s="11"/>
+      <c r="CQ86" s="11"/>
     </row>
-    <row r="87" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -37742,12 +37844,15 @@
       <c r="CL87" s="11">
         <v>26.124127226005498</v>
       </c>
-      <c r="CM87" s="11"/>
+      <c r="CM87" s="11">
+        <v>8.4874408919940976</v>
+      </c>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
+      <c r="CQ87" s="11"/>
     </row>
-    <row r="88" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -38018,12 +38123,15 @@
       <c r="CL88" s="11">
         <v>-9.7331441540463146</v>
       </c>
-      <c r="CM88" s="11"/>
+      <c r="CM88" s="11">
+        <v>-11.512124754987113</v>
+      </c>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
+      <c r="CQ88" s="11"/>
     </row>
-    <row r="89" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -38294,12 +38402,15 @@
       <c r="CL89" s="11">
         <v>41.51177778004481</v>
       </c>
-      <c r="CM89" s="11"/>
+      <c r="CM89" s="11">
+        <v>34.103826282240107</v>
+      </c>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
       <c r="CP89" s="11"/>
+      <c r="CQ89" s="11"/>
     </row>
-    <row r="90" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -38570,12 +38681,15 @@
       <c r="CL90" s="11">
         <v>-1.3983466766366348</v>
       </c>
-      <c r="CM90" s="11"/>
+      <c r="CM90" s="11">
+        <v>10.88170894176443</v>
+      </c>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
+      <c r="CQ90" s="11"/>
     </row>
-    <row r="91" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -38846,12 +38960,15 @@
       <c r="CL91" s="11">
         <v>23.048213983813227</v>
       </c>
-      <c r="CM91" s="11"/>
+      <c r="CM91" s="11">
+        <v>16.28424607036176</v>
+      </c>
       <c r="CN91" s="11"/>
       <c r="CO91" s="11"/>
       <c r="CP91" s="11"/>
+      <c r="CQ91" s="11"/>
     </row>
-    <row r="92" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -39122,12 +39239,15 @@
       <c r="CL92" s="11">
         <v>-4.7591547446685638</v>
       </c>
-      <c r="CM92" s="11"/>
+      <c r="CM92" s="11">
+        <v>21.326558438107384</v>
+      </c>
       <c r="CN92" s="11"/>
       <c r="CO92" s="11"/>
       <c r="CP92" s="11"/>
+      <c r="CQ92" s="11"/>
     </row>
-    <row r="93" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -39398,12 +39518,15 @@
       <c r="CL93" s="11">
         <v>-0.90494101153673512</v>
       </c>
-      <c r="CM93" s="11"/>
+      <c r="CM93" s="11">
+        <v>-16.45720628622793</v>
+      </c>
       <c r="CN93" s="11"/>
       <c r="CO93" s="11"/>
       <c r="CP93" s="11"/>
+      <c r="CQ93" s="11"/>
     </row>
-    <row r="94" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -39674,12 +39797,15 @@
       <c r="CL94" s="11">
         <v>23.03114230208611</v>
       </c>
-      <c r="CM94" s="11"/>
+      <c r="CM94" s="11">
+        <v>19.482741052679415</v>
+      </c>
       <c r="CN94" s="11"/>
       <c r="CO94" s="11"/>
       <c r="CP94" s="11"/>
+      <c r="CQ94" s="11"/>
     </row>
-    <row r="95" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -39950,12 +40076,15 @@
       <c r="CL95" s="11">
         <v>-17.029005207731558</v>
       </c>
-      <c r="CM95" s="11"/>
+      <c r="CM95" s="11">
+        <v>-22.049400213918531</v>
+      </c>
       <c r="CN95" s="11"/>
       <c r="CO95" s="11"/>
       <c r="CP95" s="11"/>
+      <c r="CQ95" s="11"/>
     </row>
-    <row r="96" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -40226,12 +40355,15 @@
       <c r="CL96" s="11">
         <v>12.524267970084239</v>
       </c>
-      <c r="CM96" s="11"/>
+      <c r="CM96" s="11">
+        <v>36.437935252036169</v>
+      </c>
       <c r="CN96" s="11"/>
       <c r="CO96" s="11"/>
       <c r="CP96" s="11"/>
+      <c r="CQ96" s="11"/>
     </row>
-    <row r="97" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -40500,14 +40632,17 @@
         <v>4.920602940752957</v>
       </c>
       <c r="CL97" s="11">
-        <v>-5.8667650933104341</v>
-      </c>
-      <c r="CM97" s="11"/>
+        <v>-5.8877712864958198</v>
+      </c>
+      <c r="CM97" s="11">
+        <v>-10.774677104462654</v>
+      </c>
       <c r="CN97" s="11"/>
       <c r="CO97" s="11"/>
       <c r="CP97" s="11"/>
+      <c r="CQ97" s="11"/>
     </row>
-    <row r="98" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -40778,12 +40913,15 @@
       <c r="CL98" s="11">
         <v>13.473105268174848</v>
       </c>
-      <c r="CM98" s="11"/>
+      <c r="CM98" s="11">
+        <v>35.309661564954354</v>
+      </c>
       <c r="CN98" s="11"/>
       <c r="CO98" s="11"/>
       <c r="CP98" s="11"/>
+      <c r="CQ98" s="11"/>
     </row>
-    <row r="99" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -41052,14 +41190,17 @@
         <v>14.846660577404336</v>
       </c>
       <c r="CL99" s="11">
-        <v>41.390720098574775</v>
-      </c>
-      <c r="CM99" s="11"/>
+        <v>41.316699765683893</v>
+      </c>
+      <c r="CM99" s="11">
+        <v>15.000547252088609</v>
+      </c>
       <c r="CN99" s="11"/>
       <c r="CO99" s="11"/>
       <c r="CP99" s="11"/>
+      <c r="CQ99" s="11"/>
     </row>
-    <row r="100" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -41328,14 +41469,17 @@
         <v>8.8225653087932017</v>
       </c>
       <c r="CL100" s="11">
-        <v>4.0835066072216506</v>
-      </c>
-      <c r="CM100" s="11"/>
+        <v>4.0991414600554776</v>
+      </c>
+      <c r="CM100" s="11">
+        <v>-3.4122547334508937</v>
+      </c>
       <c r="CN100" s="11"/>
       <c r="CO100" s="11"/>
       <c r="CP100" s="11"/>
+      <c r="CQ100" s="11"/>
     </row>
-    <row r="101" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -41606,12 +41750,15 @@
       <c r="CL101" s="11">
         <v>18.2673577325114</v>
       </c>
-      <c r="CM101" s="11"/>
+      <c r="CM101" s="11">
+        <v>9.2477243630222148</v>
+      </c>
       <c r="CN101" s="11"/>
       <c r="CO101" s="11"/>
       <c r="CP101" s="11"/>
+      <c r="CQ101" s="11"/>
     </row>
-    <row r="102" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -41882,12 +42029,15 @@
       <c r="CL102" s="11">
         <v>10.074491854212781</v>
       </c>
-      <c r="CM102" s="11"/>
+      <c r="CM102" s="11">
+        <v>-5.3915231296592196</v>
+      </c>
       <c r="CN102" s="11"/>
       <c r="CO102" s="11"/>
       <c r="CP102" s="11"/>
+      <c r="CQ102" s="11"/>
     </row>
-    <row r="103" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -42156,14 +42306,17 @@
         <v>-9.8109539025426926</v>
       </c>
       <c r="CL103" s="11">
-        <v>-44.565554086366809</v>
-      </c>
-      <c r="CM103" s="11"/>
+        <v>-58.511027364021736</v>
+      </c>
+      <c r="CM103" s="11">
+        <v>-26.782789218889064</v>
+      </c>
       <c r="CN103" s="11"/>
       <c r="CO103" s="11"/>
       <c r="CP103" s="11"/>
+      <c r="CQ103" s="11"/>
     </row>
-    <row r="104" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -42432,14 +42585,17 @@
         <v>10.695761205811948</v>
       </c>
       <c r="CL104" s="11">
-        <v>25.097680107754769</v>
-      </c>
-      <c r="CM104" s="11"/>
+        <v>25.432070793034512</v>
+      </c>
+      <c r="CM104" s="11">
+        <v>-9.4449764424431635</v>
+      </c>
       <c r="CN104" s="11"/>
       <c r="CO104" s="11"/>
       <c r="CP104" s="11"/>
+      <c r="CQ104" s="11"/>
     </row>
-    <row r="105" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -42710,13 +42866,16 @@
       <c r="CL105" s="11">
         <v>13.183020768680521</v>
       </c>
-      <c r="CM105" s="11"/>
+      <c r="CM105" s="11">
+        <v>10.85969493729155</v>
+      </c>
       <c r="CN105" s="11"/>
       <c r="CO105" s="11"/>
       <c r="CP105" s="11"/>
+      <c r="CQ105" s="11"/>
     </row>
-    <row r="106" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -42985,14 +43144,17 @@
         <v>9.9755754418846294</v>
       </c>
       <c r="CL107" s="11">
-        <v>13.374687335472871</v>
-      </c>
-      <c r="CM107" s="11"/>
+        <v>13.399410256295567</v>
+      </c>
+      <c r="CM107" s="11">
+        <v>4.658429051677075</v>
+      </c>
       <c r="CN107" s="11"/>
       <c r="CO107" s="11"/>
       <c r="CP107" s="11"/>
+      <c r="CQ107" s="11"/>
     </row>
-    <row r="108" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -43087,180 +43249,181 @@
       <c r="CN108" s="10"/>
       <c r="CO108" s="10"/>
       <c r="CP108" s="10"/>
+      <c r="CQ108" s="10"/>
     </row>
-    <row r="109" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14" t="s">
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14" t="s">
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="14"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14" t="s">
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="14"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="14"/>
-      <c r="R120" s="14" t="s">
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="14"/>
-      <c r="T120" s="14"/>
-      <c r="U120" s="14"/>
-      <c r="V120" s="14" t="s">
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="14"/>
-      <c r="X120" s="14"/>
-      <c r="Y120" s="14"/>
-      <c r="Z120" s="14" t="s">
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="14"/>
-      <c r="AB120" s="14"/>
-      <c r="AC120" s="14"/>
-      <c r="AD120" s="14" t="s">
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+      <c r="AC120" s="13"/>
+      <c r="AD120" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="14"/>
-      <c r="AF120" s="14"/>
-      <c r="AG120" s="14"/>
-      <c r="AH120" s="14" t="s">
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
+      <c r="AG120" s="13"/>
+      <c r="AH120" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="14"/>
-      <c r="AJ120" s="14"/>
-      <c r="AK120" s="14"/>
-      <c r="AL120" s="14" t="s">
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="13"/>
+      <c r="AK120" s="13"/>
+      <c r="AL120" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="14"/>
-      <c r="AN120" s="14"/>
-      <c r="AO120" s="14"/>
-      <c r="AP120" s="14" t="s">
+      <c r="AM120" s="13"/>
+      <c r="AN120" s="13"/>
+      <c r="AO120" s="13"/>
+      <c r="AP120" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="14"/>
-      <c r="AR120" s="14"/>
-      <c r="AS120" s="14"/>
-      <c r="AT120" s="14" t="s">
+      <c r="AQ120" s="13"/>
+      <c r="AR120" s="13"/>
+      <c r="AS120" s="13"/>
+      <c r="AT120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="14"/>
-      <c r="AV120" s="14"/>
-      <c r="AW120" s="14"/>
-      <c r="AX120" s="14" t="s">
+      <c r="AU120" s="13"/>
+      <c r="AV120" s="13"/>
+      <c r="AW120" s="13"/>
+      <c r="AX120" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="14"/>
-      <c r="AZ120" s="14"/>
-      <c r="BA120" s="14"/>
-      <c r="BB120" s="14" t="s">
+      <c r="AY120" s="13"/>
+      <c r="AZ120" s="13"/>
+      <c r="BA120" s="13"/>
+      <c r="BB120" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="14"/>
-      <c r="BD120" s="14"/>
-      <c r="BE120" s="14"/>
-      <c r="BF120" s="14" t="s">
+      <c r="BC120" s="13"/>
+      <c r="BD120" s="13"/>
+      <c r="BE120" s="13"/>
+      <c r="BF120" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="14"/>
-      <c r="BH120" s="14"/>
-      <c r="BI120" s="14"/>
-      <c r="BJ120" s="14" t="s">
+      <c r="BG120" s="13"/>
+      <c r="BH120" s="13"/>
+      <c r="BI120" s="13"/>
+      <c r="BJ120" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="14"/>
-      <c r="BL120" s="14"/>
-      <c r="BM120" s="14"/>
-      <c r="BN120" s="14" t="s">
+      <c r="BK120" s="13"/>
+      <c r="BL120" s="13"/>
+      <c r="BM120" s="13"/>
+      <c r="BN120" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="14"/>
-      <c r="BP120" s="14"/>
-      <c r="BQ120" s="14"/>
-      <c r="BR120" s="14" t="s">
+      <c r="BO120" s="13"/>
+      <c r="BP120" s="13"/>
+      <c r="BQ120" s="13"/>
+      <c r="BR120" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="14"/>
-      <c r="BT120" s="14"/>
-      <c r="BU120" s="14"/>
-      <c r="BV120" s="14" t="s">
+      <c r="BS120" s="13"/>
+      <c r="BT120" s="13"/>
+      <c r="BU120" s="13"/>
+      <c r="BV120" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="14"/>
-      <c r="BX120" s="14"/>
-      <c r="BY120" s="14"/>
-      <c r="BZ120" s="14" t="s">
+      <c r="BW120" s="13"/>
+      <c r="BX120" s="13"/>
+      <c r="BY120" s="13"/>
+      <c r="BZ120" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="14"/>
-      <c r="CB120" s="14"/>
-      <c r="CC120" s="14"/>
-      <c r="CD120" s="14" t="s">
+      <c r="CA120" s="13"/>
+      <c r="CB120" s="13"/>
+      <c r="CC120" s="13"/>
+      <c r="CD120" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="14"/>
-      <c r="CF120" s="14"/>
-      <c r="CG120" s="14"/>
-      <c r="CH120" s="14" t="s">
+      <c r="CE120" s="13"/>
+      <c r="CF120" s="13"/>
+      <c r="CG120" s="13"/>
+      <c r="CH120" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CI120" s="14"/>
-      <c r="CJ120" s="14"/>
-      <c r="CK120" s="14"/>
+      <c r="CI120" s="13"/>
+      <c r="CJ120" s="13"/>
+      <c r="CK120" s="13"/>
       <c r="CL120" s="13" t="s">
         <v>66</v>
       </c>
@@ -43268,8 +43431,9 @@
       <c r="CN120" s="13"/>
       <c r="CO120" s="13"/>
       <c r="CP120" s="13"/>
+      <c r="CQ120" s="14"/>
     </row>
-    <row r="121" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -43540,15 +43704,18 @@
       <c r="CL121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM121" s="4"/>
+      <c r="CM121" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="CN121" s="4"/>
       <c r="CO121" s="4"/>
       <c r="CP121" s="4"/>
+      <c r="CQ121" s="4"/>
     </row>
-    <row r="122" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
     </row>
-    <row r="123" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -43819,12 +43986,15 @@
       <c r="CL123" s="11">
         <v>4.4684958115665836</v>
       </c>
-      <c r="CM123" s="11"/>
+      <c r="CM123" s="11">
+        <v>2.3154782775492606</v>
+      </c>
       <c r="CN123" s="11"/>
       <c r="CO123" s="11"/>
       <c r="CP123" s="11"/>
+      <c r="CQ123" s="11"/>
     </row>
-    <row r="124" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -44095,12 +44265,15 @@
       <c r="CL124" s="11">
         <v>3.2227857967411069</v>
       </c>
-      <c r="CM124" s="11"/>
+      <c r="CM124" s="11">
+        <v>-0.75199101453945616</v>
+      </c>
       <c r="CN124" s="11"/>
       <c r="CO124" s="11"/>
       <c r="CP124" s="11"/>
+      <c r="CQ124" s="11"/>
     </row>
-    <row r="125" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -44371,12 +44544,15 @@
       <c r="CL125" s="11">
         <v>3.3222958462834526</v>
       </c>
-      <c r="CM125" s="11"/>
+      <c r="CM125" s="11">
+        <v>2.33297319877353</v>
+      </c>
       <c r="CN125" s="11"/>
       <c r="CO125" s="11"/>
       <c r="CP125" s="11"/>
+      <c r="CQ125" s="11"/>
     </row>
-    <row r="126" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -44645,14 +44821,17 @@
         <v>15.970006910383375</v>
       </c>
       <c r="CL126" s="11">
-        <v>-17.025058969499923</v>
-      </c>
-      <c r="CM126" s="11"/>
+        <v>-17.025058969499938</v>
+      </c>
+      <c r="CM126" s="11">
+        <v>-6.045314636700823</v>
+      </c>
       <c r="CN126" s="11"/>
       <c r="CO126" s="11"/>
       <c r="CP126" s="11"/>
+      <c r="CQ126" s="11"/>
     </row>
-    <row r="127" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -44923,12 +45102,15 @@
       <c r="CL127" s="11">
         <v>0.12358624278181196</v>
       </c>
-      <c r="CM127" s="11"/>
+      <c r="CM127" s="11">
+        <v>0.70755479694437895</v>
+      </c>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
       <c r="CP127" s="11"/>
+      <c r="CQ127" s="11"/>
     </row>
-    <row r="128" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -45199,12 +45381,15 @@
       <c r="CL128" s="11">
         <v>7.5586256213377823</v>
       </c>
-      <c r="CM128" s="11"/>
+      <c r="CM128" s="11">
+        <v>11.281556691571652</v>
+      </c>
       <c r="CN128" s="11"/>
       <c r="CO128" s="11"/>
       <c r="CP128" s="11"/>
+      <c r="CQ128" s="11"/>
     </row>
-    <row r="129" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -45475,12 +45660,15 @@
       <c r="CL129" s="11">
         <v>-3.9408382556680408</v>
       </c>
-      <c r="CM129" s="11"/>
+      <c r="CM129" s="11">
+        <v>3.6394811164642533</v>
+      </c>
       <c r="CN129" s="11"/>
       <c r="CO129" s="11"/>
       <c r="CP129" s="11"/>
+      <c r="CQ129" s="11"/>
     </row>
-    <row r="130" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -45751,12 +45939,15 @@
       <c r="CL130" s="11">
         <v>1.5125899912571441</v>
       </c>
-      <c r="CM130" s="11"/>
+      <c r="CM130" s="11">
+        <v>2.5220551038642043</v>
+      </c>
       <c r="CN130" s="11"/>
       <c r="CO130" s="11"/>
       <c r="CP130" s="11"/>
+      <c r="CQ130" s="11"/>
     </row>
-    <row r="131" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -46027,12 +46218,15 @@
       <c r="CL131" s="11">
         <v>5.1789264010787974</v>
       </c>
-      <c r="CM131" s="11"/>
+      <c r="CM131" s="11">
+        <v>1.4698587735843205</v>
+      </c>
       <c r="CN131" s="11"/>
       <c r="CO131" s="11"/>
       <c r="CP131" s="11"/>
+      <c r="CQ131" s="11"/>
     </row>
-    <row r="132" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -46303,12 +46497,15 @@
       <c r="CL132" s="11">
         <v>-3.9429555484268519</v>
       </c>
-      <c r="CM132" s="11"/>
+      <c r="CM132" s="11">
+        <v>-8.5130936985379435</v>
+      </c>
       <c r="CN132" s="11"/>
       <c r="CO132" s="11"/>
       <c r="CP132" s="11"/>
+      <c r="CQ132" s="11"/>
     </row>
-    <row r="133" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -46579,12 +46776,15 @@
       <c r="CL133" s="11">
         <v>-1.6277013319149063</v>
       </c>
-      <c r="CM133" s="11"/>
+      <c r="CM133" s="11">
+        <v>4.0019164716362354</v>
+      </c>
       <c r="CN133" s="11"/>
       <c r="CO133" s="11"/>
       <c r="CP133" s="11"/>
+      <c r="CQ133" s="11"/>
     </row>
-    <row r="134" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -46853,14 +47053,17 @@
         <v>2.8895328248791543</v>
       </c>
       <c r="CL134" s="11">
-        <v>3.6476803906169408</v>
-      </c>
-      <c r="CM134" s="11"/>
+        <v>3.6245510123515743</v>
+      </c>
+      <c r="CM134" s="11">
+        <v>-0.95114953020107862</v>
+      </c>
       <c r="CN134" s="11"/>
       <c r="CO134" s="11"/>
       <c r="CP134" s="11"/>
+      <c r="CQ134" s="11"/>
     </row>
-    <row r="135" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -47131,12 +47334,15 @@
       <c r="CL135" s="11">
         <v>14.250590902089911</v>
       </c>
-      <c r="CM135" s="11"/>
+      <c r="CM135" s="11">
+        <v>1.7031445197811337</v>
+      </c>
       <c r="CN135" s="11"/>
       <c r="CO135" s="11"/>
       <c r="CP135" s="11"/>
+      <c r="CQ135" s="11"/>
     </row>
-    <row r="136" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -47405,14 +47611,17 @@
         <v>0.15767647966600862</v>
       </c>
       <c r="CL136" s="11">
-        <v>1.0913375778167875</v>
-      </c>
-      <c r="CM136" s="11"/>
+        <v>1.0928465609175078</v>
+      </c>
+      <c r="CM136" s="11">
+        <v>0.53397434419426304</v>
+      </c>
       <c r="CN136" s="11"/>
       <c r="CO136" s="11"/>
       <c r="CP136" s="11"/>
+      <c r="CQ136" s="11"/>
     </row>
-    <row r="137" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -47681,14 +47890,17 @@
         <v>3.0540395797123807</v>
       </c>
       <c r="CL137" s="11">
-        <v>4.9887730390948235</v>
-      </c>
-      <c r="CM137" s="11"/>
+        <v>4.9892708715376415</v>
+      </c>
+      <c r="CM137" s="11">
+        <v>1.5562310497868452</v>
+      </c>
       <c r="CN137" s="11"/>
       <c r="CO137" s="11"/>
       <c r="CP137" s="11"/>
+      <c r="CQ137" s="11"/>
     </row>
-    <row r="138" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -47959,12 +48171,15 @@
       <c r="CL138" s="11">
         <v>3.1520113444878319</v>
       </c>
-      <c r="CM138" s="11"/>
+      <c r="CM138" s="11">
+        <v>1.1768233666116714</v>
+      </c>
       <c r="CN138" s="11"/>
       <c r="CO138" s="11"/>
       <c r="CP138" s="11"/>
+      <c r="CQ138" s="11"/>
     </row>
-    <row r="139" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -48233,14 +48448,17 @@
         <v>1.9810838194844962</v>
       </c>
       <c r="CL139" s="11">
-        <v>2.8541318017311994</v>
-      </c>
-      <c r="CM139" s="11"/>
+        <v>2.8541318017312136</v>
+      </c>
+      <c r="CM139" s="11">
+        <v>1.3181907605474237</v>
+      </c>
       <c r="CN139" s="11"/>
       <c r="CO139" s="11"/>
       <c r="CP139" s="11"/>
+      <c r="CQ139" s="11"/>
     </row>
-    <row r="140" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -48509,14 +48727,17 @@
         <v>-11.879161885810305</v>
       </c>
       <c r="CL140" s="11">
-        <v>-29.955619561290177</v>
-      </c>
-      <c r="CM140" s="11"/>
+        <v>-46.606505758392167</v>
+      </c>
+      <c r="CM140" s="11">
+        <v>-16.798373391513437</v>
+      </c>
       <c r="CN140" s="11"/>
       <c r="CO140" s="11"/>
       <c r="CP140" s="11"/>
+      <c r="CQ140" s="11"/>
     </row>
-    <row r="141" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -48785,14 +49006,17 @@
         <v>-3.1409038543950345</v>
       </c>
       <c r="CL141" s="11">
-        <v>0.33355907213632463</v>
-      </c>
-      <c r="CM141" s="11"/>
+        <v>0.60179286974442903</v>
+      </c>
+      <c r="CM141" s="11">
+        <v>-13.712701858149615</v>
+      </c>
       <c r="CN141" s="11"/>
       <c r="CO141" s="11"/>
       <c r="CP141" s="11"/>
+      <c r="CQ141" s="11"/>
     </row>
-    <row r="142" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -49063,13 +49287,16 @@
       <c r="CL142" s="11">
         <v>3.141822909983631</v>
       </c>
-      <c r="CM142" s="11"/>
+      <c r="CM142" s="11">
+        <v>3.6400956448746342</v>
+      </c>
       <c r="CN142" s="11"/>
       <c r="CO142" s="11"/>
       <c r="CP142" s="11"/>
+      <c r="CQ142" s="11"/>
     </row>
-    <row r="143" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -49338,14 +49565,17 @@
         <v>-0.34722986491927088</v>
       </c>
       <c r="CL144" s="11">
-        <v>2.2441629895339616</v>
-      </c>
-      <c r="CM144" s="11"/>
+        <v>2.2401954730820677</v>
+      </c>
+      <c r="CM144" s="11">
+        <v>0.15577110856415288</v>
+      </c>
       <c r="CN144" s="11"/>
       <c r="CO144" s="11"/>
       <c r="CP144" s="11"/>
+      <c r="CQ144" s="11"/>
     </row>
-    <row r="145" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -49440,186 +49670,188 @@
       <c r="CN145" s="10"/>
       <c r="CO145" s="10"/>
       <c r="CP145" s="10"/>
+      <c r="CQ145" s="10"/>
     </row>
-    <row r="146" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="154" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="14">
+      <c r="B156" s="13">
         <v>2000</v>
       </c>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14">
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13">
         <v>2001</v>
       </c>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14">
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13">
         <v>2002</v>
       </c>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="14">
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13">
         <v>2003</v>
       </c>
-      <c r="O156" s="14"/>
-      <c r="P156" s="14"/>
-      <c r="Q156" s="14"/>
-      <c r="R156" s="14">
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13">
         <v>2004</v>
       </c>
-      <c r="S156" s="14"/>
-      <c r="T156" s="14"/>
-      <c r="U156" s="14"/>
-      <c r="V156" s="14">
+      <c r="S156" s="13"/>
+      <c r="T156" s="13"/>
+      <c r="U156" s="13"/>
+      <c r="V156" s="13">
         <v>2005</v>
       </c>
-      <c r="W156" s="14"/>
-      <c r="X156" s="14"/>
-      <c r="Y156" s="14"/>
-      <c r="Z156" s="14">
+      <c r="W156" s="13"/>
+      <c r="X156" s="13"/>
+      <c r="Y156" s="13"/>
+      <c r="Z156" s="13">
         <v>2006</v>
       </c>
-      <c r="AA156" s="14"/>
-      <c r="AB156" s="14"/>
-      <c r="AC156" s="14"/>
-      <c r="AD156" s="14">
+      <c r="AA156" s="13"/>
+      <c r="AB156" s="13"/>
+      <c r="AC156" s="13"/>
+      <c r="AD156" s="13">
         <v>2007</v>
       </c>
-      <c r="AE156" s="14"/>
-      <c r="AF156" s="14"/>
-      <c r="AG156" s="14"/>
-      <c r="AH156" s="14">
+      <c r="AE156" s="13"/>
+      <c r="AF156" s="13"/>
+      <c r="AG156" s="13"/>
+      <c r="AH156" s="13">
         <v>2008</v>
       </c>
-      <c r="AI156" s="14"/>
-      <c r="AJ156" s="14"/>
-      <c r="AK156" s="14"/>
-      <c r="AL156" s="14">
+      <c r="AI156" s="13"/>
+      <c r="AJ156" s="13"/>
+      <c r="AK156" s="13"/>
+      <c r="AL156" s="13">
         <v>2009</v>
       </c>
-      <c r="AM156" s="14"/>
-      <c r="AN156" s="14"/>
-      <c r="AO156" s="14"/>
-      <c r="AP156" s="14">
+      <c r="AM156" s="13"/>
+      <c r="AN156" s="13"/>
+      <c r="AO156" s="13"/>
+      <c r="AP156" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ156" s="14"/>
-      <c r="AR156" s="14"/>
-      <c r="AS156" s="14"/>
-      <c r="AT156" s="14">
+      <c r="AQ156" s="13"/>
+      <c r="AR156" s="13"/>
+      <c r="AS156" s="13"/>
+      <c r="AT156" s="13">
         <v>2011</v>
       </c>
-      <c r="AU156" s="14"/>
-      <c r="AV156" s="14"/>
-      <c r="AW156" s="14"/>
-      <c r="AX156" s="14">
+      <c r="AU156" s="13"/>
+      <c r="AV156" s="13"/>
+      <c r="AW156" s="13"/>
+      <c r="AX156" s="13">
         <v>2012</v>
       </c>
-      <c r="AY156" s="14"/>
-      <c r="AZ156" s="14"/>
-      <c r="BA156" s="14"/>
-      <c r="BB156" s="14">
+      <c r="AY156" s="13"/>
+      <c r="AZ156" s="13"/>
+      <c r="BA156" s="13"/>
+      <c r="BB156" s="13">
         <v>2013</v>
       </c>
-      <c r="BC156" s="14"/>
-      <c r="BD156" s="14"/>
-      <c r="BE156" s="14"/>
-      <c r="BF156" s="14">
+      <c r="BC156" s="13"/>
+      <c r="BD156" s="13"/>
+      <c r="BE156" s="13"/>
+      <c r="BF156" s="13">
         <v>2014</v>
       </c>
-      <c r="BG156" s="14"/>
-      <c r="BH156" s="14"/>
-      <c r="BI156" s="14"/>
-      <c r="BJ156" s="14">
+      <c r="BG156" s="13"/>
+      <c r="BH156" s="13"/>
+      <c r="BI156" s="13"/>
+      <c r="BJ156" s="13">
         <v>2015</v>
       </c>
-      <c r="BK156" s="14"/>
-      <c r="BL156" s="14"/>
-      <c r="BM156" s="14"/>
-      <c r="BN156" s="14">
+      <c r="BK156" s="13"/>
+      <c r="BL156" s="13"/>
+      <c r="BM156" s="13"/>
+      <c r="BN156" s="13">
         <v>2016</v>
       </c>
-      <c r="BO156" s="14"/>
-      <c r="BP156" s="14"/>
-      <c r="BQ156" s="14"/>
-      <c r="BR156" s="14">
+      <c r="BO156" s="13"/>
+      <c r="BP156" s="13"/>
+      <c r="BQ156" s="13"/>
+      <c r="BR156" s="13">
         <v>2017</v>
       </c>
-      <c r="BS156" s="14"/>
-      <c r="BT156" s="14"/>
-      <c r="BU156" s="14"/>
-      <c r="BV156" s="14">
+      <c r="BS156" s="13"/>
+      <c r="BT156" s="13"/>
+      <c r="BU156" s="13"/>
+      <c r="BV156" s="13">
         <v>2018</v>
       </c>
-      <c r="BW156" s="14"/>
-      <c r="BX156" s="14"/>
-      <c r="BY156" s="14"/>
-      <c r="BZ156" s="14">
+      <c r="BW156" s="13"/>
+      <c r="BX156" s="13"/>
+      <c r="BY156" s="13"/>
+      <c r="BZ156" s="13">
         <v>2019</v>
       </c>
-      <c r="CA156" s="14"/>
-      <c r="CB156" s="14"/>
-      <c r="CC156" s="14"/>
-      <c r="CD156" s="14">
+      <c r="CA156" s="13"/>
+      <c r="CB156" s="13"/>
+      <c r="CC156" s="13"/>
+      <c r="CD156" s="13">
         <v>2020</v>
       </c>
-      <c r="CE156" s="14"/>
-      <c r="CF156" s="14"/>
-      <c r="CG156" s="14"/>
-      <c r="CH156" s="14">
+      <c r="CE156" s="13"/>
+      <c r="CF156" s="13"/>
+      <c r="CG156" s="13"/>
+      <c r="CH156" s="13">
         <v>2021</v>
       </c>
-      <c r="CI156" s="14"/>
-      <c r="CJ156" s="14"/>
-      <c r="CK156" s="14"/>
-      <c r="CL156" s="14">
+      <c r="CI156" s="13"/>
+      <c r="CJ156" s="13"/>
+      <c r="CK156" s="13"/>
+      <c r="CL156" s="13">
         <v>2022</v>
       </c>
-      <c r="CM156" s="14"/>
-      <c r="CN156" s="14"/>
-      <c r="CO156" s="14"/>
+      <c r="CM156" s="13"/>
+      <c r="CN156" s="13"/>
+      <c r="CO156" s="13"/>
       <c r="CP156" s="13">
         <v>2023</v>
       </c>
+      <c r="CQ156" s="14"/>
     </row>
-    <row r="157" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -49902,11 +50134,14 @@
       <c r="CP157" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CQ157" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="158" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -50189,8 +50424,11 @@
       <c r="CP159" s="11">
         <v>98.700030882004981</v>
       </c>
+      <c r="CQ159" s="11">
+        <v>98.540770718960474</v>
+      </c>
     </row>
-    <row r="160" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -50473,8 +50711,11 @@
       <c r="CP160" s="11">
         <v>142.33193548241709</v>
       </c>
+      <c r="CQ160" s="11">
+        <v>124.9119771422922</v>
+      </c>
     </row>
-    <row r="161" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -50757,8 +50998,11 @@
       <c r="CP161" s="11">
         <v>75.435445177021961</v>
       </c>
+      <c r="CQ161" s="11">
+        <v>119.6366978787935</v>
+      </c>
     </row>
-    <row r="162" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -51039,10 +51283,13 @@
         <v>249.7539872412346</v>
       </c>
       <c r="CP162" s="11">
-        <v>145.40257032935452</v>
+        <v>145.40257032935455</v>
+      </c>
+      <c r="CQ162" s="11">
+        <v>111.73466091413064</v>
       </c>
     </row>
-    <row r="163" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -51325,8 +51572,11 @@
       <c r="CP163" s="11">
         <v>113.69195947778216</v>
       </c>
+      <c r="CQ163" s="11">
+        <v>110.39342783673179</v>
+      </c>
     </row>
-    <row r="164" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -51609,8 +51859,11 @@
       <c r="CP164" s="11">
         <v>110.16983236501309</v>
       </c>
+      <c r="CQ164" s="11">
+        <v>116.70927471245835</v>
+      </c>
     </row>
-    <row r="165" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -51893,8 +52146,11 @@
       <c r="CP165" s="11">
         <v>95.977652306530331</v>
       </c>
+      <c r="CQ165" s="11">
+        <v>78.777479194637991</v>
+      </c>
     </row>
-    <row r="166" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -52177,8 +52433,11 @@
       <c r="CP166" s="11">
         <v>82.948627909358365</v>
       </c>
+      <c r="CQ166" s="11">
+        <v>116.27336869946274</v>
+      </c>
     </row>
-    <row r="167" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -52461,8 +52720,11 @@
       <c r="CP167" s="11">
         <v>111.22801650405492</v>
       </c>
+      <c r="CQ167" s="11">
+        <v>112.00775504870342</v>
+      </c>
     </row>
-    <row r="168" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -52745,8 +53007,11 @@
       <c r="CP168" s="11">
         <v>129.31663746103504</v>
       </c>
+      <c r="CQ168" s="11">
+        <v>87.372302654396407</v>
+      </c>
     </row>
-    <row r="169" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -53029,8 +53294,11 @@
       <c r="CP169" s="11">
         <v>81.479665889429214</v>
       </c>
+      <c r="CQ169" s="11">
+        <v>72.679946728422991</v>
+      </c>
     </row>
-    <row r="170" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -53311,10 +53579,13 @@
         <v>114.61111970560565</v>
       </c>
       <c r="CP170" s="11">
-        <v>77.431527062971753</v>
+        <v>77.431527062971725</v>
+      </c>
+      <c r="CQ170" s="11">
+        <v>54.279146916698295</v>
       </c>
     </row>
-    <row r="171" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -53597,8 +53868,11 @@
       <c r="CP171" s="11">
         <v>63.804519736449073</v>
       </c>
+      <c r="CQ171" s="11">
+        <v>54.202902921944464</v>
+      </c>
     </row>
-    <row r="172" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -53879,10 +54153,13 @@
         <v>129.29170775619843</v>
       </c>
       <c r="CP172" s="11">
-        <v>142.25869561138191</v>
+        <v>142.18209853732225</v>
+      </c>
+      <c r="CQ172" s="11">
+        <v>90.182180740004497</v>
       </c>
     </row>
-    <row r="173" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -54163,10 +54440,13 @@
         <v>166.74874753350863</v>
       </c>
       <c r="CP173" s="11">
-        <v>148.40923624113537</v>
+        <v>148.430825637086</v>
+      </c>
+      <c r="CQ173" s="11">
+        <v>162.11299239268288</v>
       </c>
     </row>
-    <row r="174" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -54449,8 +54729,11 @@
       <c r="CP174" s="11">
         <v>164.54402142008152</v>
       </c>
+      <c r="CQ174" s="11">
+        <v>119.61690329955267</v>
+      </c>
     </row>
-    <row r="175" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -54731,10 +55014,13 @@
         <v>116.43679225578236</v>
       </c>
       <c r="CP175" s="11">
-        <v>114.46901669412173</v>
+        <v>114.46901669412171</v>
+      </c>
+      <c r="CQ175" s="11">
+        <v>83.030444541309649</v>
       </c>
     </row>
-    <row r="176" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -55015,10 +55301,13 @@
         <v>44.02927659890851</v>
       </c>
       <c r="CP176" s="11">
-        <v>40.177693215279135</v>
+        <v>39.447812286678023</v>
+      </c>
+      <c r="CQ176" s="11">
+        <v>36.546167423456893</v>
       </c>
     </row>
-    <row r="177" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -55299,10 +55588,13 @@
         <v>110.50488825199254</v>
       </c>
       <c r="CP177" s="11">
-        <v>157.65935279789863</v>
+        <v>157.65929243744111</v>
+      </c>
+      <c r="CQ177" s="11">
+        <v>139.84714491373308</v>
       </c>
     </row>
-    <row r="178" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -55585,9 +55877,12 @@
       <c r="CP178" s="11">
         <v>131.1114983511645</v>
       </c>
+      <c r="CQ178" s="11">
+        <v>147.72528834042768</v>
+      </c>
     </row>
-    <row r="179" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -55868,10 +56163,13 @@
         <v>121.4840084623811</v>
       </c>
       <c r="CP180" s="11">
-        <v>127.48920720067235</v>
+        <v>127.52195639237982</v>
+      </c>
+      <c r="CQ180" s="11">
+        <v>120.44521996894917</v>
       </c>
     </row>
-    <row r="181" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -55966,189 +56264,191 @@
       <c r="CN181" s="10"/>
       <c r="CO181" s="10"/>
       <c r="CP181" s="10"/>
+      <c r="CQ181" s="10"/>
     </row>
-    <row r="182" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="188" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="B193" s="14">
+      <c r="B193" s="13">
         <v>2000</v>
       </c>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14">
+      <c r="C193" s="13"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13">
         <v>2001</v>
       </c>
-      <c r="G193" s="14"/>
-      <c r="H193" s="14"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14">
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13">
         <v>2002</v>
       </c>
-      <c r="K193" s="14"/>
-      <c r="L193" s="14"/>
-      <c r="M193" s="14"/>
-      <c r="N193" s="14">
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13">
         <v>2003</v>
       </c>
-      <c r="O193" s="14"/>
-      <c r="P193" s="14"/>
-      <c r="Q193" s="14"/>
-      <c r="R193" s="14">
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="13">
         <v>2004</v>
       </c>
-      <c r="S193" s="14"/>
-      <c r="T193" s="14"/>
-      <c r="U193" s="14"/>
-      <c r="V193" s="14">
+      <c r="S193" s="13"/>
+      <c r="T193" s="13"/>
+      <c r="U193" s="13"/>
+      <c r="V193" s="13">
         <v>2005</v>
       </c>
-      <c r="W193" s="14"/>
-      <c r="X193" s="14"/>
-      <c r="Y193" s="14"/>
-      <c r="Z193" s="14">
+      <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
+      <c r="Z193" s="13">
         <v>2006</v>
       </c>
-      <c r="AA193" s="14"/>
-      <c r="AB193" s="14"/>
-      <c r="AC193" s="14"/>
-      <c r="AD193" s="14">
+      <c r="AA193" s="13"/>
+      <c r="AB193" s="13"/>
+      <c r="AC193" s="13"/>
+      <c r="AD193" s="13">
         <v>2007</v>
       </c>
-      <c r="AE193" s="14"/>
-      <c r="AF193" s="14"/>
-      <c r="AG193" s="14"/>
-      <c r="AH193" s="14">
+      <c r="AE193" s="13"/>
+      <c r="AF193" s="13"/>
+      <c r="AG193" s="13"/>
+      <c r="AH193" s="13">
         <v>2008</v>
       </c>
-      <c r="AI193" s="14"/>
-      <c r="AJ193" s="14"/>
-      <c r="AK193" s="14"/>
-      <c r="AL193" s="14">
+      <c r="AI193" s="13"/>
+      <c r="AJ193" s="13"/>
+      <c r="AK193" s="13"/>
+      <c r="AL193" s="13">
         <v>2009</v>
       </c>
-      <c r="AM193" s="14"/>
-      <c r="AN193" s="14"/>
-      <c r="AO193" s="14"/>
-      <c r="AP193" s="14">
+      <c r="AM193" s="13"/>
+      <c r="AN193" s="13"/>
+      <c r="AO193" s="13"/>
+      <c r="AP193" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ193" s="14"/>
-      <c r="AR193" s="14"/>
-      <c r="AS193" s="14"/>
-      <c r="AT193" s="14">
+      <c r="AQ193" s="13"/>
+      <c r="AR193" s="13"/>
+      <c r="AS193" s="13"/>
+      <c r="AT193" s="13">
         <v>2011</v>
       </c>
-      <c r="AU193" s="14"/>
-      <c r="AV193" s="14"/>
-      <c r="AW193" s="14"/>
-      <c r="AX193" s="14">
+      <c r="AU193" s="13"/>
+      <c r="AV193" s="13"/>
+      <c r="AW193" s="13"/>
+      <c r="AX193" s="13">
         <v>2012</v>
       </c>
-      <c r="AY193" s="14"/>
-      <c r="AZ193" s="14"/>
-      <c r="BA193" s="14"/>
-      <c r="BB193" s="14">
+      <c r="AY193" s="13"/>
+      <c r="AZ193" s="13"/>
+      <c r="BA193" s="13"/>
+      <c r="BB193" s="13">
         <v>2013</v>
       </c>
-      <c r="BC193" s="14"/>
-      <c r="BD193" s="14"/>
-      <c r="BE193" s="14"/>
-      <c r="BF193" s="14">
+      <c r="BC193" s="13"/>
+      <c r="BD193" s="13"/>
+      <c r="BE193" s="13"/>
+      <c r="BF193" s="13">
         <v>2014</v>
       </c>
-      <c r="BG193" s="14"/>
-      <c r="BH193" s="14"/>
-      <c r="BI193" s="14"/>
-      <c r="BJ193" s="14">
+      <c r="BG193" s="13"/>
+      <c r="BH193" s="13"/>
+      <c r="BI193" s="13"/>
+      <c r="BJ193" s="13">
         <v>2015</v>
       </c>
-      <c r="BK193" s="14"/>
-      <c r="BL193" s="14"/>
-      <c r="BM193" s="14"/>
-      <c r="BN193" s="14">
+      <c r="BK193" s="13"/>
+      <c r="BL193" s="13"/>
+      <c r="BM193" s="13"/>
+      <c r="BN193" s="13">
         <v>2016</v>
       </c>
-      <c r="BO193" s="14"/>
-      <c r="BP193" s="14"/>
-      <c r="BQ193" s="14"/>
-      <c r="BR193" s="14">
+      <c r="BO193" s="13"/>
+      <c r="BP193" s="13"/>
+      <c r="BQ193" s="13"/>
+      <c r="BR193" s="13">
         <v>2017</v>
       </c>
-      <c r="BS193" s="14"/>
-      <c r="BT193" s="14"/>
-      <c r="BU193" s="14"/>
-      <c r="BV193" s="14">
+      <c r="BS193" s="13"/>
+      <c r="BT193" s="13"/>
+      <c r="BU193" s="13"/>
+      <c r="BV193" s="13">
         <v>2018</v>
       </c>
-      <c r="BW193" s="14"/>
-      <c r="BX193" s="14"/>
-      <c r="BY193" s="14"/>
-      <c r="BZ193" s="14">
+      <c r="BW193" s="13"/>
+      <c r="BX193" s="13"/>
+      <c r="BY193" s="13"/>
+      <c r="BZ193" s="13">
         <v>2019</v>
       </c>
-      <c r="CA193" s="14"/>
-      <c r="CB193" s="14"/>
-      <c r="CC193" s="14"/>
-      <c r="CD193" s="14">
+      <c r="CA193" s="13"/>
+      <c r="CB193" s="13"/>
+      <c r="CC193" s="13"/>
+      <c r="CD193" s="13">
         <v>2020</v>
       </c>
-      <c r="CE193" s="14"/>
-      <c r="CF193" s="14"/>
-      <c r="CG193" s="14"/>
-      <c r="CH193" s="14">
+      <c r="CE193" s="13"/>
+      <c r="CF193" s="13"/>
+      <c r="CG193" s="13"/>
+      <c r="CH193" s="13">
         <v>2021</v>
       </c>
-      <c r="CI193" s="14"/>
-      <c r="CJ193" s="14"/>
-      <c r="CK193" s="14"/>
-      <c r="CL193" s="14">
+      <c r="CI193" s="13"/>
+      <c r="CJ193" s="13"/>
+      <c r="CK193" s="13"/>
+      <c r="CL193" s="13">
         <v>2022</v>
       </c>
-      <c r="CM193" s="14"/>
-      <c r="CN193" s="14"/>
-      <c r="CO193" s="14"/>
+      <c r="CM193" s="13"/>
+      <c r="CN193" s="13"/>
+      <c r="CO193" s="13"/>
       <c r="CP193" s="13">
         <v>2023</v>
       </c>
+      <c r="CQ193" s="14"/>
     </row>
-    <row r="194" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -56431,11 +56731,14 @@
       <c r="CP194" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CQ194" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="195" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
     </row>
-    <row r="196" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -56716,10 +57019,13 @@
         <v>21.051495119600339</v>
       </c>
       <c r="CP196" s="11">
-        <v>16.553943703771406</v>
+        <v>16.550334674072161</v>
+      </c>
+      <c r="CQ196" s="11">
+        <v>16.329586721486493</v>
       </c>
     </row>
-    <row r="197" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -57000,10 +57306,13 @@
         <v>5.0517422560624654</v>
       </c>
       <c r="CP197" s="11">
-        <v>8.0509734076343715</v>
+        <v>8.0492181641313181</v>
+      </c>
+      <c r="CQ197" s="11">
+        <v>4.9077692712797116</v>
       </c>
     </row>
-    <row r="198" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -57284,10 +57593,13 @@
         <v>3.0642616672821825</v>
       </c>
       <c r="CP198" s="11">
-        <v>3.5911805097923244</v>
+        <v>3.5903975738740246</v>
+      </c>
+      <c r="CQ198" s="11">
+        <v>3.2941541980589482</v>
       </c>
     </row>
-    <row r="199" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -57568,10 +57880,13 @@
         <v>2.9380713677328165</v>
       </c>
       <c r="CP199" s="11">
-        <v>2.8372854051009084</v>
+        <v>2.836666830610413</v>
+      </c>
+      <c r="CQ199" s="11">
+        <v>1.2009580846884009</v>
       </c>
     </row>
-    <row r="200" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -57852,10 +58167,13 @@
         <v>5.622591056133464</v>
       </c>
       <c r="CP200" s="11">
-        <v>6.0971151177849192</v>
+        <v>6.0957858472537643</v>
+      </c>
+      <c r="CQ200" s="11">
+        <v>7.5462512445922263</v>
       </c>
     </row>
-    <row r="201" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -58136,10 +58454,13 @@
         <v>1.4760653290372179</v>
       </c>
       <c r="CP201" s="11">
-        <v>1.1449273270968099</v>
+        <v>1.1446777142673288</v>
+      </c>
+      <c r="CQ201" s="11">
+        <v>4.6789011779995437</v>
       </c>
     </row>
-    <row r="202" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -58420,10 +58741,13 @@
         <v>1.5811850235433897</v>
       </c>
       <c r="CP202" s="11">
-        <v>1.2067712755810045</v>
+        <v>1.2065081797621648</v>
+      </c>
+      <c r="CQ202" s="11">
+        <v>1.042231976201389</v>
       </c>
     </row>
-    <row r="203" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -58704,10 +59028,13 @@
         <v>0.50108970719495938</v>
       </c>
       <c r="CP203" s="11">
-        <v>0.341169373623605</v>
+        <v>0.34109499313615649</v>
+      </c>
+      <c r="CQ203" s="11">
+        <v>0.12549669871379127</v>
       </c>
     </row>
-    <row r="204" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -58988,10 +59315,13 @@
         <v>1.3571298574164419</v>
       </c>
       <c r="CP204" s="11">
-        <v>0.73579918073223227</v>
+        <v>0.73563876451097021</v>
+      </c>
+      <c r="CQ204" s="11">
+        <v>1.2312016994087034</v>
       </c>
     </row>
-    <row r="205" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -59272,10 +59602,13 @@
         <v>0.52998912814674159</v>
       </c>
       <c r="CP205" s="11">
-        <v>0.19641993808302213</v>
+        <v>0.19637711533318372</v>
+      </c>
+      <c r="CQ205" s="11">
+        <v>0.52176805558272632</v>
       </c>
     </row>
-    <row r="206" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -59556,10 +59889,13 @@
         <v>9.1698195464001139E-2</v>
       </c>
       <c r="CP206" s="11">
-        <v>8.5242454587841923E-2</v>
+        <v>8.5223870342555769E-2</v>
+      </c>
+      <c r="CQ206" s="11">
+        <v>7.4600776746690245E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -59840,10 +60176,13 @@
         <v>8.7461742617694876E-2</v>
       </c>
       <c r="CP207" s="11">
-        <v>6.4897901616637901E-2</v>
+        <v>6.4869273756859094E-2</v>
+      </c>
+      <c r="CQ207" s="11">
+        <v>4.8702641233603967E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -60124,10 +60463,13 @@
         <v>0.12329926132299651</v>
       </c>
       <c r="CP208" s="11">
-        <v>3.4898405139432667E-2</v>
+        <v>3.489079671796777E-2</v>
+      </c>
+      <c r="CQ208" s="11">
+        <v>3.9698272485865695E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -60408,10 +60750,13 @@
         <v>5.2258969355151503</v>
       </c>
       <c r="CP209" s="11">
-        <v>6.2530011327575057</v>
+        <v>6.2483650428106792</v>
+      </c>
+      <c r="CQ209" s="11">
+        <v>4.2876488061067972</v>
       </c>
     </row>
-    <row r="210" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -60692,10 +61037,13 @@
         <v>12.655492311537319</v>
       </c>
       <c r="CP210" s="11">
-        <v>12.295104952283756</v>
+        <v>12.294270919385852</v>
+      </c>
+      <c r="CQ210" s="11">
+        <v>14.643323156296653</v>
       </c>
     </row>
-    <row r="211" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -60976,10 +61324,13 @@
         <v>10.508494426785218</v>
       </c>
       <c r="CP211" s="11">
-        <v>14.765224151203979</v>
+        <v>14.762005091538724</v>
+      </c>
+      <c r="CQ211" s="11">
+        <v>9.7706408542862047</v>
       </c>
     </row>
-    <row r="212" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -61260,10 +61611,13 @@
         <v>3.5710247457272271</v>
       </c>
       <c r="CP212" s="11">
-        <v>3.8391654653057516</v>
+        <v>3.8383284646228604</v>
+      </c>
+      <c r="CQ212" s="11">
+        <v>2.8219745723929472</v>
       </c>
     </row>
-    <row r="213" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -61544,10 +61898,13 @@
         <v>1.3187012383728656E-2</v>
       </c>
       <c r="CP213" s="11">
-        <v>4.1375054138313654E-2</v>
+        <v>3.095970766956728E-2</v>
+      </c>
+      <c r="CQ213" s="11">
+        <v>4.1978563695310549E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -61828,10 +62185,13 @@
         <v>11.98376260283114</v>
       </c>
       <c r="CP214" s="11">
-        <v>12.590963391182274</v>
+        <v>12.621867124998321</v>
+      </c>
+      <c r="CQ214" s="11">
+        <v>11.708996132808402</v>
       </c>
     </row>
-    <row r="215" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -62112,11 +62472,14 @@
         <v>12.566062253665494</v>
       </c>
       <c r="CP215" s="11">
-        <v>9.2745418525839138</v>
+        <v>9.272519851205157</v>
+      </c>
+      <c r="CQ215" s="11">
+        <v>15.684117095935605</v>
       </c>
     </row>
-    <row r="216" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -62399,8 +62762,11 @@
       <c r="CP217" s="11">
         <v>100</v>
       </c>
+      <c r="CQ217" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -62495,191 +62861,193 @@
       <c r="CN218" s="10"/>
       <c r="CO218" s="10"/>
       <c r="CP218" s="10"/>
+      <c r="CQ218" s="10"/>
     </row>
-    <row r="219" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="229" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="14">
+      <c r="B230" s="13">
         <v>2000</v>
       </c>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14">
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13">
         <v>2001</v>
       </c>
-      <c r="G230" s="14"/>
-      <c r="H230" s="14"/>
-      <c r="I230" s="14"/>
-      <c r="J230" s="14">
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13">
         <v>2002</v>
       </c>
-      <c r="K230" s="14"/>
-      <c r="L230" s="14"/>
-      <c r="M230" s="14"/>
-      <c r="N230" s="14">
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="13">
         <v>2003</v>
       </c>
-      <c r="O230" s="14"/>
-      <c r="P230" s="14"/>
-      <c r="Q230" s="14"/>
-      <c r="R230" s="14">
+      <c r="O230" s="13"/>
+      <c r="P230" s="13"/>
+      <c r="Q230" s="13"/>
+      <c r="R230" s="13">
         <v>2004</v>
       </c>
-      <c r="S230" s="14"/>
-      <c r="T230" s="14"/>
-      <c r="U230" s="14"/>
-      <c r="V230" s="14">
+      <c r="S230" s="13"/>
+      <c r="T230" s="13"/>
+      <c r="U230" s="13"/>
+      <c r="V230" s="13">
         <v>2005</v>
       </c>
-      <c r="W230" s="14"/>
-      <c r="X230" s="14"/>
-      <c r="Y230" s="14"/>
-      <c r="Z230" s="14">
+      <c r="W230" s="13"/>
+      <c r="X230" s="13"/>
+      <c r="Y230" s="13"/>
+      <c r="Z230" s="13">
         <v>2006</v>
       </c>
-      <c r="AA230" s="14"/>
-      <c r="AB230" s="14"/>
-      <c r="AC230" s="14"/>
-      <c r="AD230" s="14">
+      <c r="AA230" s="13"/>
+      <c r="AB230" s="13"/>
+      <c r="AC230" s="13"/>
+      <c r="AD230" s="13">
         <v>2007</v>
       </c>
-      <c r="AE230" s="14"/>
-      <c r="AF230" s="14"/>
-      <c r="AG230" s="14"/>
-      <c r="AH230" s="14">
+      <c r="AE230" s="13"/>
+      <c r="AF230" s="13"/>
+      <c r="AG230" s="13"/>
+      <c r="AH230" s="13">
         <v>2008</v>
       </c>
-      <c r="AI230" s="14"/>
-      <c r="AJ230" s="14"/>
-      <c r="AK230" s="14"/>
-      <c r="AL230" s="14">
+      <c r="AI230" s="13"/>
+      <c r="AJ230" s="13"/>
+      <c r="AK230" s="13"/>
+      <c r="AL230" s="13">
         <v>2009</v>
       </c>
-      <c r="AM230" s="14"/>
-      <c r="AN230" s="14"/>
-      <c r="AO230" s="14"/>
-      <c r="AP230" s="14">
+      <c r="AM230" s="13"/>
+      <c r="AN230" s="13"/>
+      <c r="AO230" s="13"/>
+      <c r="AP230" s="13">
         <v>2010</v>
       </c>
-      <c r="AQ230" s="14"/>
-      <c r="AR230" s="14"/>
-      <c r="AS230" s="14"/>
-      <c r="AT230" s="14">
+      <c r="AQ230" s="13"/>
+      <c r="AR230" s="13"/>
+      <c r="AS230" s="13"/>
+      <c r="AT230" s="13">
         <v>2011</v>
       </c>
-      <c r="AU230" s="14"/>
-      <c r="AV230" s="14"/>
-      <c r="AW230" s="14"/>
-      <c r="AX230" s="14">
+      <c r="AU230" s="13"/>
+      <c r="AV230" s="13"/>
+      <c r="AW230" s="13"/>
+      <c r="AX230" s="13">
         <v>2012</v>
       </c>
-      <c r="AY230" s="14"/>
-      <c r="AZ230" s="14"/>
-      <c r="BA230" s="14"/>
-      <c r="BB230" s="14">
+      <c r="AY230" s="13"/>
+      <c r="AZ230" s="13"/>
+      <c r="BA230" s="13"/>
+      <c r="BB230" s="13">
         <v>2013</v>
       </c>
-      <c r="BC230" s="14"/>
-      <c r="BD230" s="14"/>
-      <c r="BE230" s="14"/>
-      <c r="BF230" s="14">
+      <c r="BC230" s="13"/>
+      <c r="BD230" s="13"/>
+      <c r="BE230" s="13"/>
+      <c r="BF230" s="13">
         <v>2014</v>
       </c>
-      <c r="BG230" s="14"/>
-      <c r="BH230" s="14"/>
-      <c r="BI230" s="14"/>
-      <c r="BJ230" s="14">
+      <c r="BG230" s="13"/>
+      <c r="BH230" s="13"/>
+      <c r="BI230" s="13"/>
+      <c r="BJ230" s="13">
         <v>2015</v>
       </c>
-      <c r="BK230" s="14"/>
-      <c r="BL230" s="14"/>
-      <c r="BM230" s="14"/>
-      <c r="BN230" s="14">
+      <c r="BK230" s="13"/>
+      <c r="BL230" s="13"/>
+      <c r="BM230" s="13"/>
+      <c r="BN230" s="13">
         <v>2016</v>
       </c>
-      <c r="BO230" s="14"/>
-      <c r="BP230" s="14"/>
-      <c r="BQ230" s="14"/>
-      <c r="BR230" s="14">
+      <c r="BO230" s="13"/>
+      <c r="BP230" s="13"/>
+      <c r="BQ230" s="13"/>
+      <c r="BR230" s="13">
         <v>2017</v>
       </c>
-      <c r="BS230" s="14"/>
-      <c r="BT230" s="14"/>
-      <c r="BU230" s="14"/>
-      <c r="BV230" s="14">
+      <c r="BS230" s="13"/>
+      <c r="BT230" s="13"/>
+      <c r="BU230" s="13"/>
+      <c r="BV230" s="13">
         <v>2018</v>
       </c>
-      <c r="BW230" s="14"/>
-      <c r="BX230" s="14"/>
-      <c r="BY230" s="14"/>
-      <c r="BZ230" s="14">
+      <c r="BW230" s="13"/>
+      <c r="BX230" s="13"/>
+      <c r="BY230" s="13"/>
+      <c r="BZ230" s="13">
         <v>2019</v>
       </c>
-      <c r="CA230" s="14"/>
-      <c r="CB230" s="14"/>
-      <c r="CC230" s="14"/>
-      <c r="CD230" s="14">
+      <c r="CA230" s="13"/>
+      <c r="CB230" s="13"/>
+      <c r="CC230" s="13"/>
+      <c r="CD230" s="13">
         <v>2020</v>
       </c>
-      <c r="CE230" s="14"/>
-      <c r="CF230" s="14"/>
-      <c r="CG230" s="14"/>
-      <c r="CH230" s="14">
+      <c r="CE230" s="13"/>
+      <c r="CF230" s="13"/>
+      <c r="CG230" s="13"/>
+      <c r="CH230" s="13">
         <v>2021</v>
       </c>
-      <c r="CI230" s="14"/>
-      <c r="CJ230" s="14"/>
-      <c r="CK230" s="14"/>
-      <c r="CL230" s="14">
+      <c r="CI230" s="13"/>
+      <c r="CJ230" s="13"/>
+      <c r="CK230" s="13"/>
+      <c r="CL230" s="13">
         <v>2022</v>
       </c>
-      <c r="CM230" s="14"/>
-      <c r="CN230" s="14"/>
-      <c r="CO230" s="14"/>
+      <c r="CM230" s="13"/>
+      <c r="CN230" s="13"/>
+      <c r="CO230" s="13"/>
       <c r="CP230" s="13">
         <v>2023</v>
       </c>
+      <c r="CQ230" s="14"/>
     </row>
-    <row r="231" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -62962,11 +63330,14 @@
       <c r="CP231" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CQ231" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="232" spans="1:94" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
     </row>
-    <row r="233" spans="1:94" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -63247,10 +63618,13 @@
         <v>25.429801463860542</v>
       </c>
       <c r="CP233" s="11">
-        <v>21.382456925078394</v>
+        <v>21.383286689235621</v>
+      </c>
+      <c r="CQ233" s="11">
+        <v>19.95946094516421</v>
       </c>
     </row>
-    <row r="234" spans="1:94" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -63531,10 +63905,13 @@
         <v>4.6061100557597596</v>
       </c>
       <c r="CP234" s="11">
-        <v>7.2113978739493714</v>
+        <v>7.2116777182862633</v>
+      </c>
+      <c r="CQ234" s="11">
+        <v>4.732271179750593</v>
       </c>
     </row>
-    <row r="235" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -63815,10 +64192,13 @@
         <v>4.2866087112235256</v>
       </c>
       <c r="CP235" s="11">
-        <v>6.0692523923407471</v>
+        <v>6.0694879147652276</v>
+      </c>
+      <c r="CQ235" s="11">
+        <v>3.3164165680903244</v>
       </c>
     </row>
-    <row r="236" spans="1:94" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -64099,10 +64479,13 @@
         <v>1.4291210756766803</v>
       </c>
       <c r="CP236" s="11">
-        <v>2.4877364002507387</v>
+        <v>2.4878329389462115</v>
+      </c>
+      <c r="CQ236" s="11">
+        <v>1.2945818200043337</v>
       </c>
     </row>
-    <row r="237" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -64383,10 +64766,13 @@
         <v>6.5182111643757645</v>
       </c>
       <c r="CP237" s="11">
-        <v>6.8370391023961332</v>
+        <v>6.8373044194272214</v>
+      </c>
+      <c r="CQ237" s="11">
+        <v>8.2333695846469652</v>
       </c>
     </row>
-    <row r="238" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -64667,10 +65053,13 @@
         <v>1.3657637450823574</v>
       </c>
       <c r="CP238" s="11">
-        <v>1.3249169405136711</v>
+        <v>1.3249683550256888</v>
+      </c>
+      <c r="CQ238" s="11">
+        <v>4.8286760669670512</v>
       </c>
     </row>
-    <row r="239" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -64951,10 +65340,13 @@
         <v>1.7841595213133541</v>
       </c>
       <c r="CP239" s="11">
-        <v>1.6029805845323679</v>
+        <v>1.6030427895370798</v>
+      </c>
+      <c r="CQ239" s="11">
+        <v>1.5934993213237172</v>
       </c>
     </row>
-    <row r="240" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -65235,10 +65627,13 @@
         <v>0.47329533351656311</v>
       </c>
       <c r="CP240" s="11">
-        <v>0.52436567138823253</v>
+        <v>0.52438601983747402</v>
+      </c>
+      <c r="CQ240" s="11">
+        <v>0.12999948011336299</v>
       </c>
     </row>
-    <row r="241" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -65519,10 +65914,13 @@
         <v>1.1415387443007805</v>
       </c>
       <c r="CP241" s="11">
-        <v>0.84337073660786488</v>
+        <v>0.84340346431595481</v>
+      </c>
+      <c r="CQ241" s="11">
+        <v>1.3239472521071829</v>
       </c>
     </row>
-    <row r="242" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -65803,10 +66201,13 @@
         <v>0.64150141746957845</v>
       </c>
       <c r="CP242" s="11">
-        <v>0.19364424157838925</v>
+        <v>0.19365175610543719</v>
+      </c>
+      <c r="CQ242" s="11">
+        <v>0.71927219860526548</v>
       </c>
     </row>
-    <row r="243" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -66087,10 +66488,13 @@
         <v>0.10907000757256982</v>
       </c>
       <c r="CP243" s="11">
-        <v>0.1333767491142005</v>
+        <v>0.13338192491070558</v>
+      </c>
+      <c r="CQ243" s="11">
+        <v>0.12362841979898817</v>
       </c>
     </row>
-    <row r="244" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -66371,10 +66775,13 @@
         <v>9.2706563792369634E-2</v>
       </c>
       <c r="CP244" s="11">
-        <v>0.10685288460556494</v>
+        <v>0.10683318556406698</v>
+      </c>
+      <c r="CQ244" s="11">
+        <v>0.10807097512886008</v>
       </c>
     </row>
-    <row r="245" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -66655,10 +67062,13 @@
         <v>0.17711645539370183</v>
       </c>
       <c r="CP245" s="11">
-        <v>6.9731267035186228E-2</v>
+        <v>6.9733973015430994E-2</v>
+      </c>
+      <c r="CQ245" s="11">
+        <v>8.8214226622381917E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -66939,10 +67349,13 @@
         <v>4.9103141922666556</v>
       </c>
       <c r="CP246" s="11">
-        <v>5.6038061758832738</v>
+        <v>5.604107287133731</v>
+      </c>
+      <c r="CQ246" s="11">
+        <v>5.7264838725734029</v>
       </c>
     </row>
-    <row r="247" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -67223,10 +67636,13 @@
         <v>9.2200988481874244</v>
       </c>
       <c r="CP247" s="11">
-        <v>10.56196516144624</v>
+        <v>10.562425111689924</v>
+      </c>
+      <c r="CQ247" s="11">
+        <v>10.879561549048084</v>
       </c>
     </row>
-    <row r="248" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -67507,10 +67923,13 @@
         <v>10.240520417195551</v>
       </c>
       <c r="CP248" s="11">
-        <v>11.440140486000546</v>
+        <v>11.44058443023774</v>
+      </c>
+      <c r="CQ248" s="11">
+        <v>9.8383000601931148</v>
       </c>
     </row>
-    <row r="249" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -67791,10 +68210,13 @@
         <v>3.7258188930205152</v>
       </c>
       <c r="CP249" s="11">
-        <v>4.2758483965309129</v>
+        <v>4.276014324410653</v>
+      </c>
+      <c r="CQ249" s="11">
+        <v>4.0935990406452021</v>
       </c>
     </row>
-    <row r="250" spans="1:94" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -68075,10 +68497,13 @@
         <v>3.6385133887440031E-2</v>
       </c>
       <c r="CP250" s="11">
-        <v>0.13128859393979667</v>
+        <v>0.10008267284045773</v>
+      </c>
+      <c r="CQ250" s="11">
+        <v>0.13834877073914431</v>
       </c>
     </row>
-    <row r="251" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -68359,10 +68784,13 @@
         <v>13.174399254932995</v>
       </c>
       <c r="CP251" s="11">
-        <v>10.18152055141452</v>
+        <v>10.20913619628935</v>
+      </c>
+      <c r="CQ251" s="11">
+        <v>10.084529188648395</v>
       </c>
     </row>
-    <row r="252" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -68643,11 +69071,14 @@
         <v>10.637459001171878</v>
       </c>
       <c r="CP252" s="11">
-        <v>9.0183088653938519</v>
+        <v>9.0186588284257692</v>
+      </c>
+      <c r="CQ252" s="11">
+        <v>12.787769479829405</v>
       </c>
     </row>
-    <row r="253" spans="1:94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:94" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -68930,8 +69361,11 @@
       <c r="CP254" s="11">
         <v>100</v>
       </c>
+      <c r="CQ254" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:94" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -69026,13 +69460,14 @@
       <c r="CN255" s="10"/>
       <c r="CO255" s="10"/>
       <c r="CP255" s="10"/>
+      <c r="CQ255" s="10"/>
     </row>
-    <row r="256" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:94" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:95" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -69055,8 +69490,9 @@
       <c r="CN257" s="7"/>
       <c r="CO257" s="7"/>
       <c r="CP257" s="7"/>
+      <c r="CQ257" s="7"/>
     </row>
-    <row r="258" spans="1:94" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:95" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -69079,30 +69515,133 @@
       <c r="CN258" s="7"/>
       <c r="CO258" s="7"/>
       <c r="CP258" s="7"/>
+      <c r="CQ258" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="AH193:AK193"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="F230:I230"/>
-    <mergeCell ref="J230:M230"/>
-    <mergeCell ref="N230:Q230"/>
-    <mergeCell ref="R230:U230"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="F193:I193"/>
-    <mergeCell ref="J193:M193"/>
-    <mergeCell ref="N193:Q193"/>
-    <mergeCell ref="R193:U193"/>
-    <mergeCell ref="N156:Q156"/>
-    <mergeCell ref="R156:U156"/>
-    <mergeCell ref="V156:Y156"/>
-    <mergeCell ref="Z156:AC156"/>
-    <mergeCell ref="AD156:AG156"/>
-    <mergeCell ref="AH156:AK156"/>
-    <mergeCell ref="V230:Y230"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP230:CQ230"/>
+    <mergeCell ref="CL83:CO83"/>
+    <mergeCell ref="CP83:CQ83"/>
+    <mergeCell ref="CL120:CO120"/>
+    <mergeCell ref="CP120:CQ120"/>
+    <mergeCell ref="CL230:CO230"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL46:CO46"/>
+    <mergeCell ref="CH83:CK83"/>
+    <mergeCell ref="CH120:CK120"/>
+    <mergeCell ref="CL156:CO156"/>
+    <mergeCell ref="CL193:CO193"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD46:CG46"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP46:CQ46"/>
+    <mergeCell ref="CP156:CQ156"/>
+    <mergeCell ref="CP193:CQ193"/>
+    <mergeCell ref="BN193:BQ193"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CH230:CK230"/>
+    <mergeCell ref="CD193:CG193"/>
+    <mergeCell ref="CD156:CG156"/>
+    <mergeCell ref="BZ193:CC193"/>
+    <mergeCell ref="BR230:BU230"/>
+    <mergeCell ref="BR120:BU120"/>
+    <mergeCell ref="BV120:BY120"/>
+    <mergeCell ref="BZ230:CC230"/>
+    <mergeCell ref="BZ120:CC120"/>
+    <mergeCell ref="CD230:CG230"/>
+    <mergeCell ref="BR193:BU193"/>
+    <mergeCell ref="BV193:BY193"/>
+    <mergeCell ref="BV230:BY230"/>
+    <mergeCell ref="BZ83:CC83"/>
+    <mergeCell ref="BZ46:CC46"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH46:CK46"/>
+    <mergeCell ref="CD83:CG83"/>
+    <mergeCell ref="CD120:CG120"/>
+    <mergeCell ref="CH193:CK193"/>
+    <mergeCell ref="CH156:CK156"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BB46:BE46"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="AP120:AS120"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="AX120:BA120"/>
+    <mergeCell ref="BB120:BE120"/>
+    <mergeCell ref="BR46:BU46"/>
+    <mergeCell ref="BV46:BY46"/>
+    <mergeCell ref="AP83:AS83"/>
+    <mergeCell ref="AT83:AW83"/>
+    <mergeCell ref="AX83:BA83"/>
+    <mergeCell ref="BB83:BE83"/>
+    <mergeCell ref="BF46:BI46"/>
+    <mergeCell ref="BJ46:BM46"/>
+    <mergeCell ref="BN46:BQ46"/>
+    <mergeCell ref="BR83:BU83"/>
+    <mergeCell ref="BV83:BY83"/>
+    <mergeCell ref="BJ83:BM83"/>
+    <mergeCell ref="BN83:BQ83"/>
+    <mergeCell ref="BF83:BI83"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AL120:AO120"/>
+    <mergeCell ref="V46:Y46"/>
+    <mergeCell ref="Z46:AC46"/>
+    <mergeCell ref="AD46:AG46"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="V83:Y83"/>
+    <mergeCell ref="Z83:AC83"/>
+    <mergeCell ref="AD83:AG83"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="F120:I120"/>
+    <mergeCell ref="J120:M120"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="AX46:BA46"/>
+    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="AP46:AS46"/>
+    <mergeCell ref="AT46:AW46"/>
+    <mergeCell ref="AT193:AW193"/>
+    <mergeCell ref="BJ193:BM193"/>
+    <mergeCell ref="BB193:BE193"/>
+    <mergeCell ref="BF193:BI193"/>
+    <mergeCell ref="BJ120:BM120"/>
+    <mergeCell ref="BN120:BQ120"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N83:Q83"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="AH83:AK83"/>
+    <mergeCell ref="AL83:AO83"/>
+    <mergeCell ref="BB156:BE156"/>
+    <mergeCell ref="BF156:BI156"/>
+    <mergeCell ref="N120:Q120"/>
+    <mergeCell ref="R120:U120"/>
+    <mergeCell ref="V120:Y120"/>
+    <mergeCell ref="Z120:AC120"/>
+    <mergeCell ref="AD120:AG120"/>
+    <mergeCell ref="AH120:AK120"/>
+    <mergeCell ref="V193:Y193"/>
+    <mergeCell ref="Z193:AC193"/>
+    <mergeCell ref="AD193:AG193"/>
     <mergeCell ref="BJ230:BM230"/>
     <mergeCell ref="BN230:BQ230"/>
     <mergeCell ref="BZ156:CC156"/>
@@ -69127,120 +69666,27 @@
     <mergeCell ref="BN156:BQ156"/>
     <mergeCell ref="AL193:AO193"/>
     <mergeCell ref="AP193:AS193"/>
-    <mergeCell ref="AT193:AW193"/>
-    <mergeCell ref="BJ193:BM193"/>
-    <mergeCell ref="BB193:BE193"/>
-    <mergeCell ref="BF193:BI193"/>
-    <mergeCell ref="BJ120:BM120"/>
-    <mergeCell ref="BN120:BQ120"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="N83:Q83"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="AH83:AK83"/>
-    <mergeCell ref="AL83:AO83"/>
-    <mergeCell ref="BB156:BE156"/>
-    <mergeCell ref="BF156:BI156"/>
-    <mergeCell ref="N120:Q120"/>
-    <mergeCell ref="R120:U120"/>
-    <mergeCell ref="V120:Y120"/>
-    <mergeCell ref="Z120:AC120"/>
-    <mergeCell ref="AD120:AG120"/>
-    <mergeCell ref="AH120:AK120"/>
-    <mergeCell ref="V193:Y193"/>
-    <mergeCell ref="Z193:AC193"/>
-    <mergeCell ref="AD193:AG193"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="AX46:BA46"/>
-    <mergeCell ref="AL46:AO46"/>
-    <mergeCell ref="AP46:AS46"/>
-    <mergeCell ref="AT46:AW46"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AL120:AO120"/>
-    <mergeCell ref="V46:Y46"/>
-    <mergeCell ref="Z46:AC46"/>
-    <mergeCell ref="AD46:AG46"/>
-    <mergeCell ref="AH46:AK46"/>
-    <mergeCell ref="V83:Y83"/>
-    <mergeCell ref="Z83:AC83"/>
-    <mergeCell ref="AD83:AG83"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="R46:U46"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="F120:I120"/>
-    <mergeCell ref="J120:M120"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BB46:BE46"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="AP120:AS120"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="AX120:BA120"/>
-    <mergeCell ref="BB120:BE120"/>
-    <mergeCell ref="BR46:BU46"/>
-    <mergeCell ref="BV46:BY46"/>
-    <mergeCell ref="AP83:AS83"/>
-    <mergeCell ref="AT83:AW83"/>
-    <mergeCell ref="AX83:BA83"/>
-    <mergeCell ref="BB83:BE83"/>
-    <mergeCell ref="BF46:BI46"/>
-    <mergeCell ref="BJ46:BM46"/>
-    <mergeCell ref="BN46:BQ46"/>
-    <mergeCell ref="BR83:BU83"/>
-    <mergeCell ref="BV83:BY83"/>
-    <mergeCell ref="BJ83:BM83"/>
-    <mergeCell ref="BN83:BQ83"/>
-    <mergeCell ref="BF83:BI83"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD46:CG46"/>
-    <mergeCell ref="BN193:BQ193"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH230:CK230"/>
-    <mergeCell ref="CD193:CG193"/>
-    <mergeCell ref="CD156:CG156"/>
-    <mergeCell ref="BZ193:CC193"/>
-    <mergeCell ref="BR230:BU230"/>
-    <mergeCell ref="BR120:BU120"/>
-    <mergeCell ref="BV120:BY120"/>
-    <mergeCell ref="BZ230:CC230"/>
-    <mergeCell ref="BZ120:CC120"/>
-    <mergeCell ref="CD230:CG230"/>
-    <mergeCell ref="BR193:BU193"/>
-    <mergeCell ref="BV193:BY193"/>
-    <mergeCell ref="BV230:BY230"/>
-    <mergeCell ref="BZ83:CC83"/>
-    <mergeCell ref="BZ46:CC46"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH46:CK46"/>
-    <mergeCell ref="CD83:CG83"/>
-    <mergeCell ref="CD120:CG120"/>
-    <mergeCell ref="CL230:CO230"/>
-    <mergeCell ref="CH193:CK193"/>
-    <mergeCell ref="CH156:CK156"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL46:CO46"/>
-    <mergeCell ref="CH83:CK83"/>
-    <mergeCell ref="CH120:CK120"/>
-    <mergeCell ref="CL156:CO156"/>
-    <mergeCell ref="CL193:CO193"/>
+    <mergeCell ref="AH193:AK193"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="J156:M156"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="F230:I230"/>
+    <mergeCell ref="J230:M230"/>
+    <mergeCell ref="N230:Q230"/>
+    <mergeCell ref="R230:U230"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="F193:I193"/>
+    <mergeCell ref="J193:M193"/>
+    <mergeCell ref="N193:Q193"/>
+    <mergeCell ref="R193:U193"/>
+    <mergeCell ref="N156:Q156"/>
+    <mergeCell ref="R156:U156"/>
+    <mergeCell ref="V156:Y156"/>
+    <mergeCell ref="Z156:AC156"/>
+    <mergeCell ref="AD156:AG156"/>
+    <mergeCell ref="AH156:AK156"/>
+    <mergeCell ref="V230:Y230"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B76C12-1C9D-4CB3-922B-475AB54A3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063F153B-D6AA-43D8-A59E-FA8D4C568AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2730" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="70">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -664,13 +664,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,6 +775,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23624,199 +23637,259 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ258"/>
+  <dimension ref="A1:CR258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CQ4" sqref="CQ4"/>
+      <selection pane="topRight" activeCell="CL1" sqref="CL1:CR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="95" width="9.44140625" style="7" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="7"/>
+    <col min="2" max="89" width="9.44140625" style="7" customWidth="1"/>
+    <col min="90" max="96" width="9.109375" style="17" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CN1" s="14"/>
+      <c r="CO1" s="14"/>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="14"/>
+      <c r="CR1" s="14"/>
     </row>
-    <row r="2" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="CL2" s="14"/>
+      <c r="CM2" s="14"/>
+      <c r="CN2" s="14"/>
+      <c r="CO2" s="14"/>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
     </row>
-    <row r="3" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
     </row>
-    <row r="4" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="14"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+    </row>
+    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CL5" s="14"/>
+      <c r="CM5" s="14"/>
+      <c r="CN5" s="14"/>
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
     </row>
-    <row r="6" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
     </row>
-    <row r="7" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="CL7" s="14"/>
+      <c r="CM7" s="14"/>
+      <c r="CN7" s="14"/>
+      <c r="CO7" s="14"/>
+      <c r="CP7" s="14"/>
+      <c r="CQ7" s="14"/>
+      <c r="CR7" s="14"/>
     </row>
-    <row r="8" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="14"/>
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+    </row>
+    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="13">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="13"/>
-      <c r="BQ9" s="13"/>
-      <c r="BR9" s="13">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="13"/>
-      <c r="BT9" s="13"/>
-      <c r="BU9" s="13"/>
-      <c r="BV9" s="13">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="13"/>
-      <c r="BY9" s="13"/>
-      <c r="BZ9" s="13">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="13"/>
-      <c r="CC9" s="13"/>
-      <c r="CD9" s="13">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="13"/>
-      <c r="CF9" s="13"/>
-      <c r="CG9" s="13"/>
-      <c r="CH9" s="13">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="13"/>
-      <c r="CJ9" s="13"/>
-      <c r="CK9" s="13"/>
-      <c r="CL9" s="13">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="13"/>
-      <c r="CN9" s="13"/>
-      <c r="CO9" s="13"/>
-      <c r="CP9" s="13">
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
+      <c r="CP9" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="14"/>
+      <c r="CQ9" s="23"/>
+      <c r="CR9" s="23"/>
     </row>
-    <row r="10" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24084,29 +24157,39 @@
       <c r="CK10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL10" s="4" t="s">
+      <c r="CL10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM10" s="4" t="s">
+      <c r="CM10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN10" s="4" t="s">
+      <c r="CN10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="CO10" s="4" t="s">
+      <c r="CO10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="CP10" s="4" t="s">
+      <c r="CP10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CQ10" s="4" t="s">
+      <c r="CQ10" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="CR10" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
+      <c r="CL11" s="14"/>
+      <c r="CM11" s="14"/>
+      <c r="CN11" s="14"/>
+      <c r="CO11" s="14"/>
+      <c r="CP11" s="14"/>
+      <c r="CQ11" s="14"/>
+      <c r="CR11" s="14"/>
     </row>
-    <row r="12" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24374,26 +24457,29 @@
       <c r="CK12" s="6">
         <v>128092.71962728637</v>
       </c>
-      <c r="CL12" s="6">
+      <c r="CL12" s="16">
         <v>88196.306217954858</v>
       </c>
-      <c r="CM12" s="6">
+      <c r="CM12" s="16">
         <v>74312.857413969788</v>
       </c>
-      <c r="CN12" s="6">
+      <c r="CN12" s="16">
         <v>60338.102480430149</v>
       </c>
-      <c r="CO12" s="6">
+      <c r="CO12" s="16">
         <v>134332.57281604729</v>
       </c>
-      <c r="CP12" s="6">
+      <c r="CP12" s="16">
         <v>93834.755992139151</v>
       </c>
-      <c r="CQ12" s="6">
-        <v>82108.725959333053</v>
+      <c r="CQ12" s="16">
+        <v>82110.464251484431</v>
+      </c>
+      <c r="CR12" s="16">
+        <v>71591.590908042708</v>
       </c>
     </row>
-    <row r="13" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24661,26 +24747,29 @@
       <c r="CK13" s="6">
         <v>29243.102014834159</v>
       </c>
-      <c r="CL13" s="6">
+      <c r="CL13" s="16">
         <v>36183.658281769538</v>
       </c>
-      <c r="CM13" s="6">
+      <c r="CM13" s="16">
         <v>22746.720552308041</v>
       </c>
-      <c r="CN13" s="6">
+      <c r="CN13" s="16">
         <v>35523.586060840986</v>
       </c>
-      <c r="CO13" s="6">
+      <c r="CO13" s="16">
         <v>32235.883038472639</v>
       </c>
-      <c r="CP13" s="6">
+      <c r="CP13" s="16">
         <v>45636.323206322086</v>
       </c>
-      <c r="CQ13" s="6">
+      <c r="CQ13" s="16">
         <v>24677.33501405226</v>
       </c>
+      <c r="CR13" s="16">
+        <v>39840.218049823037</v>
+      </c>
     </row>
-    <row r="14" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24948,26 +25037,29 @@
       <c r="CK14" s="6">
         <v>19014.637473298262</v>
       </c>
-      <c r="CL14" s="6">
+      <c r="CL14" s="16">
         <v>22551.278842239324</v>
       </c>
-      <c r="CM14" s="6">
+      <c r="CM14" s="16">
         <v>18718.63937222536</v>
       </c>
-      <c r="CN14" s="6">
+      <c r="CN14" s="16">
         <v>37290.807521087503</v>
       </c>
-      <c r="CO14" s="6">
+      <c r="CO14" s="16">
         <v>19553.487826351644</v>
       </c>
-      <c r="CP14" s="6">
+      <c r="CP14" s="16">
         <v>20356.330363943223</v>
       </c>
-      <c r="CQ14" s="6">
+      <c r="CQ14" s="16">
         <v>16563.72625525864</v>
       </c>
+      <c r="CR14" s="16">
+        <v>35262.090621635958</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25235,26 +25327,29 @@
       <c r="CK15" s="6">
         <v>8430.5025204466383</v>
       </c>
-      <c r="CL15" s="6">
+      <c r="CL15" s="16">
         <v>11365.085104976155</v>
       </c>
-      <c r="CM15" s="6">
+      <c r="CM15" s="16">
         <v>4502.9881142789445</v>
       </c>
-      <c r="CN15" s="6">
+      <c r="CN15" s="16">
         <v>3243.19282961406</v>
       </c>
-      <c r="CO15" s="6">
+      <c r="CO15" s="16">
         <v>18748.249646992539</v>
       </c>
-      <c r="CP15" s="6">
+      <c r="CP15" s="16">
         <v>16082.933978266828</v>
       </c>
-      <c r="CQ15" s="6">
+      <c r="CQ15" s="16">
         <v>6038.6793582825558</v>
       </c>
+      <c r="CR15" s="16">
+        <v>2418.0450313965357</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25522,26 +25617,29 @@
       <c r="CK16" s="6">
         <v>43922.007597225289</v>
       </c>
-      <c r="CL16" s="6">
+      <c r="CL16" s="16">
         <v>35051.164643495693</v>
       </c>
-      <c r="CM16" s="6">
+      <c r="CM16" s="16">
         <v>34220.430569929864</v>
       </c>
-      <c r="CN16" s="6">
+      <c r="CN16" s="16">
         <v>33568.786872089309</v>
       </c>
-      <c r="CO16" s="6">
+      <c r="CO16" s="16">
         <v>35878.550106385228</v>
       </c>
-      <c r="CP16" s="6">
+      <c r="CP16" s="16">
         <v>34561.027847580932</v>
       </c>
-      <c r="CQ16" s="6">
+      <c r="CQ16" s="16">
         <v>37944.198223168212</v>
       </c>
+      <c r="CR16" s="16">
+        <v>39359.716677550939</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25809,26 +25907,29 @@
       <c r="CK17" s="6">
         <v>8125.0544788589777</v>
       </c>
-      <c r="CL17" s="6">
+      <c r="CL17" s="16">
         <v>5274.3004036852817</v>
       </c>
-      <c r="CM17" s="6">
+      <c r="CM17" s="16">
         <v>20231.920561675448</v>
       </c>
-      <c r="CN17" s="6">
+      <c r="CN17" s="16">
         <v>2658.8596403152333</v>
       </c>
-      <c r="CO17" s="6">
+      <c r="CO17" s="16">
         <v>9418.9819852519468</v>
       </c>
-      <c r="CP17" s="6">
+      <c r="CP17" s="16">
         <v>6489.9324468757904</v>
       </c>
-      <c r="CQ17" s="6">
+      <c r="CQ17" s="16">
         <v>23526.536290698794</v>
       </c>
+      <c r="CR17" s="16">
+        <v>3341.7051043860779</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26096,26 +26197,29 @@
       <c r="CK18" s="6">
         <v>7725.9484709875487</v>
       </c>
-      <c r="CL18" s="6">
+      <c r="CL18" s="16">
         <v>7182.3072247822456</v>
       </c>
-      <c r="CM18" s="6">
+      <c r="CM18" s="16">
         <v>4319.3921515491511</v>
       </c>
-      <c r="CN18" s="6">
+      <c r="CN18" s="16">
         <v>8660.3335501832444</v>
       </c>
-      <c r="CO18" s="6">
+      <c r="CO18" s="16">
         <v>10089.765648665163</v>
       </c>
-      <c r="CP18" s="6">
+      <c r="CP18" s="16">
         <v>6840.4901097173479</v>
       </c>
-      <c r="CQ18" s="6">
+      <c r="CQ18" s="16">
         <v>5240.5698429203048</v>
       </c>
+      <c r="CR18" s="16">
+        <v>10320.749789783622</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26383,26 +26487,29 @@
       <c r="CK19" s="6">
         <v>2779.3405672288604</v>
       </c>
-      <c r="CL19" s="6">
+      <c r="CL19" s="16">
         <v>1951.5527411433893</v>
       </c>
-      <c r="CM19" s="6">
+      <c r="CM19" s="16">
         <v>755.33120532608655</v>
       </c>
-      <c r="CN19" s="6">
+      <c r="CN19" s="16">
         <v>570.49252824166513</v>
       </c>
-      <c r="CO19" s="6">
+      <c r="CO19" s="16">
         <v>3197.5244131931577</v>
       </c>
-      <c r="CP19" s="6">
+      <c r="CP19" s="16">
         <v>1933.8923400270132</v>
       </c>
-      <c r="CQ19" s="6">
+      <c r="CQ19" s="16">
         <v>631.02479072132064</v>
       </c>
+      <c r="CR19" s="16">
+        <v>594.3183007619624</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26670,26 +26777,29 @@
       <c r="CK20" s="6">
         <v>7894.7813753254331</v>
       </c>
-      <c r="CL20" s="6">
+      <c r="CL20" s="16">
         <v>3390.0530834926053</v>
       </c>
-      <c r="CM20" s="6">
+      <c r="CM20" s="16">
         <v>5181.2929626545319</v>
       </c>
-      <c r="CN20" s="6">
+      <c r="CN20" s="16">
         <v>7265.2633873865943</v>
       </c>
-      <c r="CO20" s="6">
+      <c r="CO20" s="16">
         <v>8660.0378907285485</v>
       </c>
-      <c r="CP20" s="6">
+      <c r="CP20" s="16">
         <v>4170.8210332680455</v>
       </c>
-      <c r="CQ20" s="6">
+      <c r="CQ20" s="16">
         <v>6190.7508537492158</v>
       </c>
+      <c r="CR20" s="16">
+        <v>8286.1529325624797</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -26957,26 +27067,29 @@
       <c r="CK21" s="6">
         <v>4095.0304558491662</v>
       </c>
-      <c r="CL21" s="6">
+      <c r="CL21" s="16">
         <v>1341.9042479908298</v>
       </c>
-      <c r="CM21" s="6">
+      <c r="CM21" s="16">
         <v>3365.6747559005253</v>
       </c>
-      <c r="CN21" s="6">
+      <c r="CN21" s="16">
         <v>2407.1282613156754</v>
       </c>
-      <c r="CO21" s="6">
+      <c r="CO21" s="16">
         <v>3381.935712594518</v>
       </c>
-      <c r="CP21" s="6">
+      <c r="CP21" s="16">
         <v>1113.3913037177003</v>
       </c>
-      <c r="CQ21" s="6">
+      <c r="CQ21" s="16">
         <v>2623.5636590731929</v>
       </c>
+      <c r="CR21" s="16">
+        <v>2007.1012748768396</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27244,26 +27357,29 @@
       <c r="CK22" s="6">
         <v>495.12530294524487</v>
       </c>
-      <c r="CL22" s="6">
+      <c r="CL22" s="16">
         <v>429.40985335642529</v>
       </c>
-      <c r="CM22" s="6">
+      <c r="CM22" s="16">
         <v>274.93012582582531</v>
       </c>
-      <c r="CN22" s="6">
+      <c r="CN22" s="16">
         <v>426.60353421153985</v>
       </c>
-      <c r="CO22" s="6">
+      <c r="CO22" s="16">
         <v>585.13917654234183</v>
       </c>
-      <c r="CP22" s="6">
+      <c r="CP22" s="16">
         <v>483.1902940807297</v>
       </c>
-      <c r="CQ22" s="6">
+      <c r="CQ22" s="16">
         <v>375.10898706258115</v>
       </c>
+      <c r="CR22" s="16">
+        <v>540.82603765461806</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27531,26 +27647,29 @@
       <c r="CK23" s="6">
         <v>531.93153212082927</v>
       </c>
-      <c r="CL23" s="6">
+      <c r="CL23" s="16">
         <v>390.79583477978133</v>
       </c>
-      <c r="CM23" s="6">
+      <c r="CM23" s="16">
         <v>274.45965058042941</v>
       </c>
-      <c r="CN23" s="6">
+      <c r="CN23" s="16">
         <v>465.76522023969198</v>
       </c>
-      <c r="CO23" s="6">
+      <c r="CO23" s="16">
         <v>558.10577073315903</v>
       </c>
-      <c r="CP23" s="6">
+      <c r="CP23" s="16">
         <v>367.78666983079574</v>
       </c>
-      <c r="CQ23" s="6">
+      <c r="CQ23" s="16">
         <v>244.88750944835169</v>
       </c>
+      <c r="CR23" s="16">
+        <v>391.05034987533588</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27818,26 +27937,29 @@
       <c r="CK24" s="6">
         <v>757.41744080910485</v>
       </c>
-      <c r="CL24" s="6">
+      <c r="CL24" s="16">
         <v>174.33110999511962</v>
       </c>
-      <c r="CM24" s="6">
+      <c r="CM24" s="16">
         <v>147.52204379002626</v>
       </c>
-      <c r="CN24" s="6">
+      <c r="CN24" s="16">
         <v>298.6521464050046</v>
       </c>
-      <c r="CO24" s="6">
+      <c r="CO24" s="16">
         <v>786.79005485054222</v>
       </c>
-      <c r="CP24" s="6">
+      <c r="CP24" s="16">
         <v>197.81892395993975</v>
       </c>
-      <c r="CQ24" s="6">
+      <c r="CQ24" s="16">
         <v>199.61157818598826</v>
       </c>
+      <c r="CR24" s="16">
+        <v>945.43354171286865</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28105,26 +28227,29 @@
       <c r="CK25" s="6">
         <v>29036.271976618853</v>
       </c>
-      <c r="CL25" s="6">
+      <c r="CL25" s="16">
         <v>25068.587035050525</v>
       </c>
-      <c r="CM25" s="6">
+      <c r="CM25" s="16">
         <v>18747.070765618875</v>
       </c>
-      <c r="CN25" s="6">
+      <c r="CN25" s="16">
         <v>26189.396856191277</v>
       </c>
-      <c r="CO25" s="6">
+      <c r="CO25" s="16">
         <v>33347.188721319428</v>
       </c>
-      <c r="CP25" s="6">
+      <c r="CP25" s="16">
         <v>35426.099875821506</v>
       </c>
-      <c r="CQ25" s="6">
+      <c r="CQ25" s="16">
         <v>21559.233974198025</v>
       </c>
+      <c r="CR25" s="16">
+        <v>28533.894734662415</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28392,26 +28517,29 @@
       <c r="CK26" s="6">
         <v>74209.323378849396</v>
       </c>
-      <c r="CL26" s="6">
+      <c r="CL26" s="16">
         <v>66959.558277702279</v>
       </c>
-      <c r="CM26" s="6">
+      <c r="CM26" s="16">
         <v>76231.021362213913</v>
       </c>
-      <c r="CN26" s="6">
+      <c r="CN26" s="16">
         <v>75729.293835260207</v>
       </c>
-      <c r="CO26" s="6">
+      <c r="CO26" s="16">
         <v>80756.489399161917</v>
       </c>
-      <c r="CP26" s="6">
+      <c r="CP26" s="16">
         <v>69704.325292533584</v>
       </c>
-      <c r="CQ26" s="6">
+      <c r="CQ26" s="16">
         <v>73629.824727423809</v>
       </c>
+      <c r="CR26" s="16">
+        <v>73693.078625678172</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28679,26 +28807,29 @@
       <c r="CK27" s="6">
         <v>56454.21267765644</v>
       </c>
-      <c r="CL27" s="6">
+      <c r="CL27" s="16">
         <v>70768.078751608089</v>
       </c>
-      <c r="CM27" s="6">
+      <c r="CM27" s="16">
         <v>44970.194975703256</v>
       </c>
-      <c r="CN27" s="6">
+      <c r="CN27" s="16">
         <v>53347.578713246665</v>
       </c>
-      <c r="CO27" s="6">
+      <c r="CO27" s="16">
         <v>67056.191721928015</v>
       </c>
-      <c r="CP27" s="6">
+      <c r="CP27" s="16">
         <v>83695.53685758973</v>
       </c>
-      <c r="CQ27" s="6">
+      <c r="CQ27" s="16">
         <v>49128.914652569962</v>
       </c>
+      <c r="CR27" s="16">
+        <v>53515.218370342423</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -28966,26 +29097,29 @@
       <c r="CK28" s="6">
         <v>20141.008716461612</v>
       </c>
-      <c r="CL28" s="6">
+      <c r="CL28" s="16">
         <v>19770.260697321013</v>
       </c>
-      <c r="CM28" s="6">
+      <c r="CM28" s="16">
         <v>14998.131788869097</v>
       </c>
-      <c r="CN28" s="6">
+      <c r="CN28" s="16">
         <v>17527.508189510481</v>
       </c>
-      <c r="CO28" s="6">
+      <c r="CO28" s="16">
         <v>22787.214825263043</v>
       </c>
-      <c r="CP28" s="6">
+      <c r="CP28" s="16">
         <v>21762.014000829251</v>
       </c>
-      <c r="CQ28" s="6">
+      <c r="CQ28" s="16">
         <v>14189.504044455447</v>
       </c>
+      <c r="CR28" s="16">
+        <v>17331.42381226892</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29253,26 +29387,29 @@
       <c r="CK29" s="6">
         <v>93.302011634174448</v>
       </c>
-      <c r="CL29" s="6">
+      <c r="CL29" s="16">
         <v>423.07865901871082</v>
       </c>
-      <c r="CM29" s="6">
+      <c r="CM29" s="16">
         <v>288.2892940164927</v>
       </c>
-      <c r="CN29" s="6">
+      <c r="CN29" s="16">
         <v>411.41521805496927</v>
       </c>
-      <c r="CO29" s="6">
+      <c r="CO29" s="16">
         <v>84.148194282600571</v>
       </c>
-      <c r="CP29" s="6">
+      <c r="CP29" s="16">
         <v>175.53098906893672</v>
       </c>
-      <c r="CQ29" s="6">
-        <v>211.07738005943213</v>
+      <c r="CQ29" s="16">
+        <v>203.37661010772183</v>
+      </c>
+      <c r="CR29" s="16">
+        <v>462.12433722715059</v>
       </c>
     </row>
-    <row r="30" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29540,26 +29677,29 @@
       <c r="CK30" s="6">
         <v>69081.314521907247</v>
       </c>
-      <c r="CL30" s="6">
+      <c r="CL30" s="16">
         <v>57052.142770400853</v>
       </c>
-      <c r="CM30" s="6">
+      <c r="CM30" s="16">
         <v>65016.147889991626</v>
       </c>
-      <c r="CN30" s="6">
+      <c r="CN30" s="16">
         <v>71105.184213113011</v>
       </c>
-      <c r="CO30" s="6">
+      <c r="CO30" s="16">
         <v>76470.086961006338</v>
       </c>
-      <c r="CP30" s="6">
+      <c r="CP30" s="16">
         <v>71561.684108712318</v>
       </c>
-      <c r="CQ30" s="6">
-        <v>58875.388037997909</v>
+      <c r="CQ30" s="16">
+        <v>59334.007516806509</v>
+      </c>
+      <c r="CR30" s="16">
+        <v>70893.549846996364</v>
       </c>
     </row>
-    <row r="31" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29827,27 +29967,30 @@
       <c r="CK31" s="6">
         <v>70109.592127130134</v>
       </c>
-      <c r="CL31" s="6">
+      <c r="CL31" s="16">
         <v>46448.686756152194</v>
       </c>
-      <c r="CM31" s="6">
+      <c r="CM31" s="16">
         <v>71137.81420133519</v>
       </c>
-      <c r="CN31" s="6">
+      <c r="CN31" s="16">
         <v>47642.553877687154</v>
       </c>
-      <c r="CO31" s="6">
+      <c r="CO31" s="16">
         <v>80185.82352993227</v>
       </c>
-      <c r="CP31" s="6">
+      <c r="CP31" s="16">
         <v>52572.026777995095</v>
       </c>
-      <c r="CQ31" s="6">
+      <c r="CQ31" s="16">
         <v>78863.163808657453</v>
       </c>
+      <c r="CR31" s="16">
+        <v>51770.64844126458</v>
+      </c>
     </row>
-    <row r="32" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -30115,26 +30258,29 @@
       <c r="CK33" s="8">
         <v>580232.62426747358</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CL33" s="18">
         <v>499972.54053691495</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CM33" s="18">
         <v>480440.82975776243</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CN33" s="18">
         <v>484670.50493542448</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CO33" s="18">
         <v>638114.16743970243</v>
       </c>
-      <c r="CP33" s="8">
+      <c r="CP33" s="18">
         <v>566965.91241227987</v>
       </c>
-      <c r="CQ33" s="8">
-        <v>502821.82494731643</v>
+      <c r="CQ33" s="18">
+        <v>503274.48194832471</v>
+      </c>
+      <c r="CR33" s="18">
+        <v>511098.93678850296</v>
       </c>
     </row>
-    <row r="34" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30224,198 +30370,265 @@
       <c r="CI34" s="10"/>
       <c r="CJ34" s="10"/>
       <c r="CK34" s="10"/>
-      <c r="CL34" s="10"/>
-      <c r="CM34" s="10"/>
-      <c r="CN34" s="10"/>
-      <c r="CO34" s="10"/>
-      <c r="CP34" s="10"/>
-      <c r="CQ34" s="10"/>
+      <c r="CL34" s="19"/>
+      <c r="CM34" s="19"/>
+      <c r="CN34" s="19"/>
+      <c r="CO34" s="19"/>
+      <c r="CP34" s="19"/>
+      <c r="CQ34" s="19"/>
+      <c r="CR34" s="19"/>
     </row>
-    <row r="35" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL35" s="14"/>
+      <c r="CM35" s="14"/>
+      <c r="CN35" s="14"/>
+      <c r="CO35" s="14"/>
+      <c r="CP35" s="14"/>
+      <c r="CQ35" s="14"/>
+      <c r="CR35" s="14"/>
     </row>
-    <row r="36" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL38" s="14"/>
+      <c r="CM38" s="14"/>
+      <c r="CN38" s="14"/>
+      <c r="CO38" s="14"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
     </row>
-    <row r="39" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="CL39" s="14"/>
+      <c r="CM39" s="14"/>
+      <c r="CN39" s="14"/>
+      <c r="CO39" s="14"/>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
+      <c r="CR39" s="14"/>
     </row>
-    <row r="40" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="CL40" s="14"/>
+      <c r="CM40" s="14"/>
+      <c r="CN40" s="14"/>
+      <c r="CO40" s="14"/>
+      <c r="CP40" s="14"/>
+      <c r="CQ40" s="14"/>
+      <c r="CR40" s="14"/>
     </row>
-    <row r="41" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL41" s="14"/>
+      <c r="CM41" s="14"/>
+      <c r="CN41" s="14"/>
+      <c r="CO41" s="14"/>
+      <c r="CP41" s="14"/>
+      <c r="CQ41" s="14"/>
+      <c r="CR41" s="14"/>
+    </row>
+    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="CL42" s="14"/>
+      <c r="CM42" s="14"/>
+      <c r="CN42" s="14"/>
+      <c r="CO42" s="14"/>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
+      <c r="CR42" s="14"/>
     </row>
-    <row r="43" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="CL43" s="14"/>
+      <c r="CM43" s="14"/>
+      <c r="CN43" s="14"/>
+      <c r="CO43" s="14"/>
+      <c r="CP43" s="14"/>
+      <c r="CQ43" s="14"/>
+      <c r="CR43" s="14"/>
     </row>
-    <row r="44" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="CL44" s="14"/>
+      <c r="CM44" s="14"/>
+      <c r="CN44" s="14"/>
+      <c r="CO44" s="14"/>
+      <c r="CP44" s="14"/>
+      <c r="CQ44" s="14"/>
+      <c r="CR44" s="14"/>
     </row>
-    <row r="45" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL45" s="14"/>
+      <c r="CM45" s="14"/>
+      <c r="CN45" s="14"/>
+      <c r="CO45" s="14"/>
+      <c r="CP45" s="14"/>
+      <c r="CQ45" s="14"/>
+      <c r="CR45" s="14"/>
+    </row>
+    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="13">
+      <c r="B46" s="22">
         <v>2000</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13">
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22">
         <v>2001</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13">
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22">
         <v>2002</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13">
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22">
         <v>2003</v>
       </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13">
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22">
         <v>2004</v>
       </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13">
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22">
         <v>2005</v>
       </c>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13">
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22">
         <v>2006</v>
       </c>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13">
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22">
         <v>2007</v>
       </c>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13">
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22">
         <v>2008</v>
       </c>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13">
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22">
         <v>2009</v>
       </c>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13">
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ46" s="13"/>
-      <c r="AR46" s="13"/>
-      <c r="AS46" s="13"/>
-      <c r="AT46" s="13">
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22">
         <v>2011</v>
       </c>
-      <c r="AU46" s="13"/>
-      <c r="AV46" s="13"/>
-      <c r="AW46" s="13"/>
-      <c r="AX46" s="13">
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22">
         <v>2012</v>
       </c>
-      <c r="AY46" s="13"/>
-      <c r="AZ46" s="13"/>
-      <c r="BA46" s="13"/>
-      <c r="BB46" s="13">
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="22"/>
+      <c r="BB46" s="22">
         <v>2013</v>
       </c>
-      <c r="BC46" s="13"/>
-      <c r="BD46" s="13"/>
-      <c r="BE46" s="13"/>
-      <c r="BF46" s="13">
+      <c r="BC46" s="22"/>
+      <c r="BD46" s="22"/>
+      <c r="BE46" s="22"/>
+      <c r="BF46" s="22">
         <v>2014</v>
       </c>
-      <c r="BG46" s="13"/>
-      <c r="BH46" s="13"/>
-      <c r="BI46" s="13"/>
-      <c r="BJ46" s="13">
+      <c r="BG46" s="22"/>
+      <c r="BH46" s="22"/>
+      <c r="BI46" s="22"/>
+      <c r="BJ46" s="22">
         <v>2015</v>
       </c>
-      <c r="BK46" s="13"/>
-      <c r="BL46" s="13"/>
-      <c r="BM46" s="13"/>
-      <c r="BN46" s="13">
+      <c r="BK46" s="22"/>
+      <c r="BL46" s="22"/>
+      <c r="BM46" s="22"/>
+      <c r="BN46" s="22">
         <v>2016</v>
       </c>
-      <c r="BO46" s="13"/>
-      <c r="BP46" s="13"/>
-      <c r="BQ46" s="13"/>
-      <c r="BR46" s="13">
+      <c r="BO46" s="22"/>
+      <c r="BP46" s="22"/>
+      <c r="BQ46" s="22"/>
+      <c r="BR46" s="22">
         <v>2017</v>
       </c>
-      <c r="BS46" s="13"/>
-      <c r="BT46" s="13"/>
-      <c r="BU46" s="13"/>
-      <c r="BV46" s="13">
+      <c r="BS46" s="22"/>
+      <c r="BT46" s="22"/>
+      <c r="BU46" s="22"/>
+      <c r="BV46" s="22">
         <v>2018</v>
       </c>
-      <c r="BW46" s="13"/>
-      <c r="BX46" s="13"/>
-      <c r="BY46" s="13"/>
-      <c r="BZ46" s="13">
+      <c r="BW46" s="22"/>
+      <c r="BX46" s="22"/>
+      <c r="BY46" s="22"/>
+      <c r="BZ46" s="22">
         <v>2019</v>
       </c>
-      <c r="CA46" s="13"/>
-      <c r="CB46" s="13"/>
-      <c r="CC46" s="13"/>
-      <c r="CD46" s="13">
+      <c r="CA46" s="22"/>
+      <c r="CB46" s="22"/>
+      <c r="CC46" s="22"/>
+      <c r="CD46" s="22">
         <v>2020</v>
       </c>
-      <c r="CE46" s="13"/>
-      <c r="CF46" s="13"/>
-      <c r="CG46" s="13"/>
-      <c r="CH46" s="13">
+      <c r="CE46" s="22"/>
+      <c r="CF46" s="22"/>
+      <c r="CG46" s="22"/>
+      <c r="CH46" s="22">
         <v>2021</v>
       </c>
-      <c r="CI46" s="13"/>
-      <c r="CJ46" s="13"/>
-      <c r="CK46" s="13"/>
-      <c r="CL46" s="13">
+      <c r="CI46" s="22"/>
+      <c r="CJ46" s="22"/>
+      <c r="CK46" s="22"/>
+      <c r="CL46" s="23">
         <v>2022</v>
       </c>
-      <c r="CM46" s="13"/>
-      <c r="CN46" s="13"/>
-      <c r="CO46" s="13"/>
-      <c r="CP46" s="13">
+      <c r="CM46" s="23"/>
+      <c r="CN46" s="23"/>
+      <c r="CO46" s="23"/>
+      <c r="CP46" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ46" s="14"/>
+      <c r="CQ46" s="23"/>
+      <c r="CR46" s="23"/>
     </row>
-    <row r="47" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30683,29 +30896,39 @@
       <c r="CK47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL47" s="4" t="s">
+      <c r="CL47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM47" s="4" t="s">
+      <c r="CM47" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN47" s="4" t="s">
+      <c r="CN47" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="CO47" s="4" t="s">
+      <c r="CO47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="CP47" s="4" t="s">
+      <c r="CP47" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CQ47" s="4" t="s">
+      <c r="CQ47" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="CR47" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="48" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
+      <c r="CL48" s="14"/>
+      <c r="CM48" s="14"/>
+      <c r="CN48" s="14"/>
+      <c r="CO48" s="14"/>
+      <c r="CP48" s="14"/>
+      <c r="CQ48" s="14"/>
+      <c r="CR48" s="14"/>
     </row>
-    <row r="49" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -30973,26 +31196,29 @@
       <c r="CK49" s="6">
         <v>136985.14319459262</v>
       </c>
-      <c r="CL49" s="6">
+      <c r="CL49" s="16">
         <v>91004.129311031167</v>
       </c>
-      <c r="CM49" s="6">
+      <c r="CM49" s="16">
         <v>81438.922695771951</v>
       </c>
-      <c r="CN49" s="6">
+      <c r="CN49" s="16">
         <v>71689.374474778364</v>
       </c>
-      <c r="CO49" s="6">
+      <c r="CO49" s="16">
         <v>133574.09583906844</v>
       </c>
-      <c r="CP49" s="6">
+      <c r="CP49" s="16">
         <v>95070.645017647243</v>
       </c>
-      <c r="CQ49" s="6">
-        <v>83324.623260262684</v>
+      <c r="CQ49" s="16">
+        <v>83326.387293706604</v>
+      </c>
+      <c r="CR49" s="16">
+        <v>71841.759212200777</v>
       </c>
     </row>
-    <row r="50" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31260,26 +31486,29 @@
       <c r="CK50" s="6">
         <v>26012.277561576338</v>
       </c>
-      <c r="CL50" s="6">
+      <c r="CL50" s="16">
         <v>31062.236102475232</v>
       </c>
-      <c r="CM50" s="6">
+      <c r="CM50" s="16">
         <v>19905.467016083261</v>
       </c>
-      <c r="CN50" s="6">
+      <c r="CN50" s="16">
         <v>30085.655035864416</v>
       </c>
-      <c r="CO50" s="6">
+      <c r="CO50" s="16">
         <v>24194.329118444788</v>
       </c>
-      <c r="CP50" s="6">
+      <c r="CP50" s="16">
         <v>32063.305435735991</v>
       </c>
-      <c r="CQ50" s="6">
+      <c r="CQ50" s="16">
         <v>19755.7796927202</v>
       </c>
+      <c r="CR50" s="16">
+        <v>31589.499479743317</v>
+      </c>
     </row>
-    <row r="51" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31547,26 +31776,29 @@
       <c r="CK51" s="6">
         <v>22219.682316555529</v>
       </c>
-      <c r="CL51" s="6">
+      <c r="CL51" s="16">
         <v>26117.402678591501</v>
       </c>
-      <c r="CM51" s="6">
+      <c r="CM51" s="16">
         <v>13529.384348503043</v>
       </c>
-      <c r="CN51" s="6">
+      <c r="CN51" s="16">
         <v>21954.494998102586</v>
       </c>
-      <c r="CO51" s="6">
+      <c r="CO51" s="16">
         <v>22516.097250357081</v>
       </c>
-      <c r="CP51" s="6">
+      <c r="CP51" s="16">
         <v>26985.100062939469</v>
       </c>
-      <c r="CQ51" s="6">
+      <c r="CQ51" s="16">
         <v>13845.021259312678</v>
       </c>
+      <c r="CR51" s="16">
+        <v>21628.835847851158</v>
+      </c>
     </row>
-    <row r="52" spans="1:95" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -31834,26 +32066,29 @@
       <c r="CK52" s="6">
         <v>6472.9553974543342</v>
       </c>
-      <c r="CL52" s="6">
+      <c r="CL52" s="16">
         <v>13330.49397529572</v>
       </c>
-      <c r="CM52" s="6">
+      <c r="CM52" s="16">
         <v>5752.2216478901746</v>
       </c>
-      <c r="CN52" s="6">
+      <c r="CN52" s="16">
         <v>945.64137379305657</v>
       </c>
-      <c r="CO52" s="6">
+      <c r="CO52" s="16">
         <v>7506.6868217338251</v>
       </c>
-      <c r="CP52" s="6">
+      <c r="CP52" s="16">
         <v>11060.969515075987</v>
       </c>
-      <c r="CQ52" s="6">
+      <c r="CQ52" s="16">
         <v>5404.4817506747968</v>
       </c>
+      <c r="CR52" s="16">
+        <v>754.15308007277974</v>
+      </c>
     </row>
-    <row r="53" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -32121,26 +32356,29 @@
       <c r="CK53" s="6">
         <v>34548.688102399865</v>
       </c>
-      <c r="CL53" s="6">
+      <c r="CL53" s="16">
         <v>30361.309675885401</v>
       </c>
-      <c r="CM53" s="6">
+      <c r="CM53" s="16">
         <v>34130.300358639637</v>
       </c>
-      <c r="CN53" s="6">
+      <c r="CN53" s="16">
         <v>35250.992937110655</v>
       </c>
-      <c r="CO53" s="6">
+      <c r="CO53" s="16">
         <v>34237.945742791388</v>
       </c>
-      <c r="CP53" s="6">
+      <c r="CP53" s="16">
         <v>30398.832077773182</v>
       </c>
-      <c r="CQ53" s="6">
+      <c r="CQ53" s="16">
         <v>34371.790936038713</v>
       </c>
+      <c r="CR53" s="16">
+        <v>35321.05836643964</v>
+      </c>
     </row>
-    <row r="54" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32408,26 +32646,29 @@
       <c r="CK54" s="6">
         <v>7637.3274546257144</v>
       </c>
-      <c r="CL54" s="6">
+      <c r="CL54" s="16">
         <v>5476.8676156831989</v>
       </c>
-      <c r="CM54" s="6">
+      <c r="CM54" s="16">
         <v>18114.628431223435</v>
       </c>
-      <c r="CN54" s="6">
+      <c r="CN54" s="16">
         <v>2283.1506726753864</v>
       </c>
-      <c r="CO54" s="6">
+      <c r="CO54" s="16">
         <v>7173.8923183657735</v>
       </c>
-      <c r="CP54" s="6">
+      <c r="CP54" s="16">
         <v>5890.8435345289809</v>
       </c>
-      <c r="CQ54" s="6">
+      <c r="CQ54" s="16">
         <v>20158.240507159462</v>
       </c>
+      <c r="CR54" s="16">
+        <v>2628.4797473218264</v>
+      </c>
     </row>
-    <row r="55" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32695,26 +32936,29 @@
       <c r="CK55" s="6">
         <v>8874.956914522314</v>
       </c>
-      <c r="CL55" s="6">
+      <c r="CL55" s="16">
         <v>7419.562615870148</v>
       </c>
-      <c r="CM55" s="6">
+      <c r="CM55" s="16">
         <v>6418.7609778100941</v>
       </c>
-      <c r="CN55" s="6">
+      <c r="CN55" s="16">
         <v>6557.774813556749</v>
       </c>
-      <c r="CO55" s="6">
+      <c r="CO55" s="16">
         <v>9371.5829921354416</v>
       </c>
-      <c r="CP55" s="6">
+      <c r="CP55" s="16">
         <v>7127.1696539006925</v>
       </c>
-      <c r="CQ55" s="6">
+      <c r="CQ55" s="16">
         <v>6652.3705715084698</v>
       </c>
+      <c r="CR55" s="16">
+        <v>6788.9836175500213</v>
+      </c>
     </row>
-    <row r="56" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -32982,26 +33226,29 @@
       <c r="CK56" s="6">
         <v>2438.5153358828811</v>
       </c>
-      <c r="CL56" s="6">
+      <c r="CL56" s="16">
         <v>2296.69422377304</v>
       </c>
-      <c r="CM56" s="6">
+      <c r="CM56" s="16">
         <v>529.35724707990573</v>
       </c>
-      <c r="CN56" s="6">
+      <c r="CN56" s="16">
         <v>576.99787870647981</v>
       </c>
-      <c r="CO56" s="6">
+      <c r="CO56" s="16">
         <v>2486.0593712919899</v>
       </c>
-      <c r="CP56" s="6">
+      <c r="CP56" s="16">
         <v>2331.4337907316117</v>
       </c>
-      <c r="CQ56" s="6">
+      <c r="CQ56" s="16">
         <v>542.7079285475595</v>
       </c>
+      <c r="CR56" s="16">
+        <v>611.30609235679231</v>
+      </c>
     </row>
-    <row r="57" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33269,26 +33516,29 @@
       <c r="CK57" s="6">
         <v>5968.1059266650409</v>
       </c>
-      <c r="CL57" s="6">
+      <c r="CL57" s="16">
         <v>3565.1567461376917</v>
       </c>
-      <c r="CM57" s="6">
+      <c r="CM57" s="16">
         <v>5447.0100612469996</v>
       </c>
-      <c r="CN57" s="6">
+      <c r="CN57" s="16">
         <v>4696.510629733878</v>
       </c>
-      <c r="CO57" s="6">
+      <c r="CO57" s="16">
         <v>5996.1146708887454</v>
       </c>
-      <c r="CP57" s="6">
+      <c r="CP57" s="16">
         <v>3749.7935901032583</v>
       </c>
-      <c r="CQ57" s="6">
+      <c r="CQ57" s="16">
         <v>5527.0734165302592</v>
       </c>
+      <c r="CR57" s="16">
+        <v>4561.7337325912167</v>
+      </c>
     </row>
-    <row r="58" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33556,26 +33806,29 @@
       <c r="CK58" s="6">
         <v>3637.2695549231116</v>
       </c>
-      <c r="CL58" s="6">
+      <c r="CL58" s="16">
         <v>896.32230014172092</v>
       </c>
-      <c r="CM58" s="6">
+      <c r="CM58" s="16">
         <v>3282.1534614378315</v>
       </c>
-      <c r="CN58" s="6">
+      <c r="CN58" s="16">
         <v>2271.5266302254395</v>
       </c>
-      <c r="CO58" s="6">
+      <c r="CO58" s="16">
         <v>3369.5887063748746</v>
       </c>
-      <c r="CP58" s="6">
+      <c r="CP58" s="16">
         <v>860.98071027649576</v>
       </c>
-      <c r="CQ58" s="6">
+      <c r="CQ58" s="16">
         <v>3002.7406619358226</v>
       </c>
+      <c r="CR58" s="16">
+        <v>1984.1829947083663</v>
+      </c>
     </row>
-    <row r="59" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -33843,26 +34096,29 @@
       <c r="CK59" s="6">
         <v>560.17425677377958</v>
       </c>
-      <c r="CL59" s="6">
+      <c r="CL59" s="16">
         <v>602.83178481677601</v>
       </c>
-      <c r="CM59" s="6">
+      <c r="CM59" s="16">
         <v>496.2511506741547</v>
       </c>
-      <c r="CN59" s="6">
+      <c r="CN59" s="16">
         <v>369.68390302396267</v>
       </c>
-      <c r="CO59" s="6">
+      <c r="CO59" s="16">
         <v>572.90764402431273</v>
       </c>
-      <c r="CP59" s="6">
+      <c r="CP59" s="16">
         <v>593.01948382610692</v>
       </c>
-      <c r="CQ59" s="6">
+      <c r="CQ59" s="16">
         <v>516.11070721366809</v>
       </c>
+      <c r="CR59" s="16">
+        <v>389.81987911619365</v>
+      </c>
     </row>
-    <row r="60" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -34130,26 +34386,29 @@
       <c r="CK60" s="6">
         <v>473.28044684582699</v>
       </c>
-      <c r="CL60" s="6">
+      <c r="CL60" s="16">
         <v>458.36927466851046</v>
       </c>
-      <c r="CM60" s="6">
+      <c r="CM60" s="16">
         <v>455.4955949964467</v>
       </c>
-      <c r="CN60" s="6">
+      <c r="CN60" s="16">
         <v>334.6487350299634</v>
       </c>
-      <c r="CO60" s="6">
+      <c r="CO60" s="16">
         <v>486.95604071117191</v>
       </c>
-      <c r="CP60" s="6">
+      <c r="CP60" s="16">
         <v>474.98310285381649</v>
       </c>
-      <c r="CQ60" s="6">
+      <c r="CQ60" s="16">
         <v>451.16315078455136</v>
       </c>
+      <c r="CR60" s="16">
+        <v>313.08693553888634</v>
+      </c>
     </row>
-    <row r="61" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34417,26 +34676,29 @@
       <c r="CK61" s="6">
         <v>859.3869258010468</v>
       </c>
-      <c r="CL61" s="6">
+      <c r="CL61" s="16">
         <v>271.36756407619481</v>
       </c>
-      <c r="CM61" s="6">
+      <c r="CM61" s="16">
         <v>362.10023020330527</v>
       </c>
-      <c r="CN61" s="6">
+      <c r="CN61" s="16">
         <v>198.75870180661479</v>
       </c>
-      <c r="CO61" s="6">
+      <c r="CO61" s="16">
         <v>930.3324849411872</v>
       </c>
-      <c r="CP61" s="6">
+      <c r="CP61" s="16">
         <v>310.03904547366005</v>
       </c>
-      <c r="CQ61" s="6">
+      <c r="CQ61" s="16">
         <v>368.26732043012771</v>
       </c>
+      <c r="CR61" s="16">
+        <v>435.49449054084096</v>
+      </c>
     </row>
-    <row r="62" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34704,26 +34966,29 @@
       <c r="CK62" s="6">
         <v>25751.605731508971</v>
       </c>
-      <c r="CL62" s="6">
+      <c r="CL62" s="16">
         <v>24646.655641688456</v>
       </c>
-      <c r="CM62" s="6">
+      <c r="CM62" s="16">
         <v>23779.336971489225</v>
       </c>
-      <c r="CN62" s="6">
+      <c r="CN62" s="16">
         <v>17925.753473563913</v>
       </c>
-      <c r="CO62" s="6">
+      <c r="CO62" s="16">
         <v>25792.209956883882</v>
       </c>
-      <c r="CP62" s="6">
+      <c r="CP62" s="16">
         <v>24916.005770249827</v>
       </c>
-      <c r="CQ62" s="6">
+      <c r="CQ62" s="16">
         <v>23906.312530136482</v>
       </c>
+      <c r="CR62" s="16">
+        <v>16875.507004165313</v>
+      </c>
     </row>
-    <row r="63" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -34991,26 +35256,29 @@
       <c r="CK63" s="6">
         <v>46994.802685817325</v>
       </c>
-      <c r="CL63" s="6">
+      <c r="CL63" s="16">
         <v>44729.156148321548</v>
       </c>
-      <c r="CM63" s="6">
+      <c r="CM63" s="16">
         <v>44722.839473705768</v>
       </c>
-      <c r="CN63" s="6">
+      <c r="CN63" s="16">
         <v>45185.317033269297</v>
       </c>
-      <c r="CO63" s="6">
+      <c r="CO63" s="16">
         <v>48430.042560249916</v>
       </c>
-      <c r="CP63" s="6">
+      <c r="CP63" s="16">
         <v>46960.814907114342</v>
       </c>
-      <c r="CQ63" s="6">
+      <c r="CQ63" s="16">
         <v>45418.830187941901</v>
       </c>
+      <c r="CR63" s="16">
+        <v>46405.067656777304</v>
+      </c>
     </row>
-    <row r="64" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -35278,26 +35546,29 @@
       <c r="CK64" s="6">
         <v>52968.11760138697</v>
       </c>
-      <c r="CL64" s="6">
+      <c r="CL64" s="16">
         <v>49310.850326626402</v>
       </c>
-      <c r="CM64" s="6">
+      <c r="CM64" s="16">
         <v>40594.161489951555</v>
       </c>
-      <c r="CN64" s="6">
+      <c r="CN64" s="16">
         <v>43059.695089992543</v>
       </c>
-      <c r="CO64" s="6">
+      <c r="CO64" s="16">
         <v>53789.969913542431</v>
       </c>
-      <c r="CP64" s="6">
+      <c r="CP64" s="16">
         <v>50865.133922985086</v>
       </c>
-      <c r="CQ64" s="6">
+      <c r="CQ64" s="16">
         <v>41071.883067845381</v>
       </c>
+      <c r="CR64" s="16">
+        <v>44293.571884788791</v>
+      </c>
     </row>
-    <row r="65" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35565,26 +35836,29 @@
       <c r="CK65" s="6">
         <v>19190.283515110379</v>
       </c>
-      <c r="CL65" s="6">
+      <c r="CL65" s="16">
         <v>18483.720406903332</v>
       </c>
-      <c r="CM65" s="6">
+      <c r="CM65" s="16">
         <v>16867.177959083474</v>
       </c>
-      <c r="CN65" s="6">
+      <c r="CN65" s="16">
         <v>17274.519488212791</v>
       </c>
-      <c r="CO65" s="6">
+      <c r="CO65" s="16">
         <v>19570.459116741433</v>
       </c>
-      <c r="CP65" s="6">
+      <c r="CP65" s="16">
         <v>19011.270149179843</v>
       </c>
-      <c r="CQ65" s="6">
+      <c r="CQ65" s="16">
         <v>17089.519540505204</v>
       </c>
+      <c r="CR65" s="16">
+        <v>17776.937784153091</v>
+      </c>
     </row>
-    <row r="66" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -35852,26 +36126,29 @@
       <c r="CK66" s="6">
         <v>216.88256050690347</v>
       </c>
-      <c r="CL66" s="6">
+      <c r="CL66" s="16">
         <v>833.37896351986751</v>
       </c>
-      <c r="CM66" s="6">
+      <c r="CM66" s="16">
         <v>694.17351293900333</v>
       </c>
-      <c r="CN66" s="6">
+      <c r="CN66" s="16">
         <v>988.04459142650876</v>
       </c>
-      <c r="CO66" s="6">
+      <c r="CO66" s="16">
         <v>191.11873004219791</v>
       </c>
-      <c r="CP66" s="6">
+      <c r="CP66" s="16">
         <v>444.97014889775153</v>
       </c>
-      <c r="CQ66" s="6">
-        <v>577.56365425052377</v>
+      <c r="CQ66" s="16">
+        <v>555.61521891818427</v>
+      </c>
+      <c r="CR66" s="16">
+        <v>1124.3237208363175</v>
       </c>
     </row>
-    <row r="67" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -36139,26 +36416,29 @@
       <c r="CK67" s="6">
         <v>71444.644945749271</v>
       </c>
-      <c r="CL67" s="6">
+      <c r="CL67" s="16">
         <v>45118.562967812133</v>
       </c>
-      <c r="CM67" s="6">
+      <c r="CM67" s="16">
         <v>48790.279693865945</v>
       </c>
-      <c r="CN67" s="6">
+      <c r="CN67" s="16">
         <v>52445.259032918431</v>
       </c>
-      <c r="CO67" s="6">
+      <c r="CO67" s="16">
         <v>69200.637338889384</v>
       </c>
-      <c r="CP67" s="6">
+      <c r="CP67" s="16">
         <v>45390.083262683576</v>
       </c>
-      <c r="CQ67" s="6">
-        <v>42099.814103688797</v>
+      <c r="CQ67" s="16">
+        <v>42320.455808305953</v>
+      </c>
+      <c r="CR67" s="16">
+        <v>50296.514170238792</v>
       </c>
     </row>
-    <row r="68" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36426,27 +36706,30 @@
       <c r="CK68" s="6">
         <v>53842.114921497356</v>
       </c>
-      <c r="CL68" s="6">
+      <c r="CL68" s="16">
         <v>38875.78190895031</v>
       </c>
-      <c r="CM68" s="6">
+      <c r="CM68" s="16">
         <v>51509.999366363823</v>
       </c>
-      <c r="CN68" s="6">
+      <c r="CN68" s="16">
         <v>52458.304934282831</v>
       </c>
-      <c r="CO68" s="6">
+      <c r="CO68" s="16">
         <v>55874.953256162233</v>
       </c>
-      <c r="CP68" s="6">
+      <c r="CP68" s="16">
         <v>40097.190131400988</v>
       </c>
-      <c r="CQ68" s="6">
+      <c r="CQ68" s="16">
         <v>53385.012609973783</v>
       </c>
+      <c r="CR68" s="16">
+        <v>54672.313379685933</v>
+      </c>
     </row>
-    <row r="69" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36714,26 +36997,29 @@
       <c r="CK70" s="8">
         <v>527096.21535019553</v>
       </c>
-      <c r="CL70" s="8">
+      <c r="CL70" s="18">
         <v>434860.85023226833</v>
       </c>
-      <c r="CM70" s="8">
+      <c r="CM70" s="18">
         <v>416820.02168895892</v>
       </c>
-      <c r="CN70" s="8">
+      <c r="CN70" s="18">
         <v>406552.10442807386</v>
       </c>
-      <c r="CO70" s="8">
+      <c r="CO70" s="18">
         <v>525265.97987364046</v>
       </c>
-      <c r="CP70" s="8">
+      <c r="CP70" s="18">
         <v>444602.58331337787</v>
       </c>
-      <c r="CQ70" s="8">
-        <v>417469.30685746111</v>
+      <c r="CQ70" s="18">
+        <v>417669.76416018978</v>
+      </c>
+      <c r="CR70" s="18">
+        <v>410292.62907667737</v>
       </c>
     </row>
-    <row r="71" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -36823,196 +37109,263 @@
       <c r="CI71" s="10"/>
       <c r="CJ71" s="10"/>
       <c r="CK71" s="10"/>
-      <c r="CL71" s="10"/>
-      <c r="CM71" s="10"/>
-      <c r="CN71" s="10"/>
-      <c r="CO71" s="10"/>
-      <c r="CP71" s="10"/>
-      <c r="CQ71" s="10"/>
+      <c r="CL71" s="19"/>
+      <c r="CM71" s="19"/>
+      <c r="CN71" s="19"/>
+      <c r="CO71" s="19"/>
+      <c r="CP71" s="19"/>
+      <c r="CQ71" s="19"/>
+      <c r="CR71" s="19"/>
     </row>
-    <row r="72" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL72" s="14"/>
+      <c r="CM72" s="14"/>
+      <c r="CN72" s="14"/>
+      <c r="CO72" s="14"/>
+      <c r="CP72" s="14"/>
+      <c r="CQ72" s="14"/>
+      <c r="CR72" s="14"/>
     </row>
-    <row r="73" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL75" s="14"/>
+      <c r="CM75" s="14"/>
+      <c r="CN75" s="14"/>
+      <c r="CO75" s="14"/>
+      <c r="CP75" s="14"/>
+      <c r="CQ75" s="14"/>
+      <c r="CR75" s="14"/>
     </row>
-    <row r="76" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CL76" s="14"/>
+      <c r="CM76" s="14"/>
+      <c r="CN76" s="14"/>
+      <c r="CO76" s="14"/>
+      <c r="CP76" s="14"/>
+      <c r="CQ76" s="14"/>
+      <c r="CR76" s="14"/>
     </row>
-    <row r="77" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="CL77" s="14"/>
+      <c r="CM77" s="14"/>
+      <c r="CN77" s="14"/>
+      <c r="CO77" s="14"/>
+      <c r="CP77" s="14"/>
+      <c r="CQ77" s="14"/>
+      <c r="CR77" s="14"/>
     </row>
-    <row r="78" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL78" s="14"/>
+      <c r="CM78" s="14"/>
+      <c r="CN78" s="14"/>
+      <c r="CO78" s="14"/>
+      <c r="CP78" s="14"/>
+      <c r="CQ78" s="14"/>
+      <c r="CR78" s="14"/>
+    </row>
+    <row r="79" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="CL79" s="14"/>
+      <c r="CM79" s="14"/>
+      <c r="CN79" s="14"/>
+      <c r="CO79" s="14"/>
+      <c r="CP79" s="14"/>
+      <c r="CQ79" s="14"/>
+      <c r="CR79" s="14"/>
     </row>
-    <row r="80" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="CL80" s="14"/>
+      <c r="CM80" s="14"/>
+      <c r="CN80" s="14"/>
+      <c r="CO80" s="14"/>
+      <c r="CP80" s="14"/>
+      <c r="CQ80" s="14"/>
+      <c r="CR80" s="14"/>
     </row>
-    <row r="81" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="CL81" s="14"/>
+      <c r="CM81" s="14"/>
+      <c r="CN81" s="14"/>
+      <c r="CO81" s="14"/>
+      <c r="CP81" s="14"/>
+      <c r="CQ81" s="14"/>
+      <c r="CR81" s="14"/>
     </row>
-    <row r="82" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL82" s="14"/>
+      <c r="CM82" s="14"/>
+      <c r="CN82" s="14"/>
+      <c r="CO82" s="14"/>
+      <c r="CP82" s="14"/>
+      <c r="CQ82" s="14"/>
+      <c r="CR82" s="14"/>
+    </row>
+    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13" t="s">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13" t="s">
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13" t="s">
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13" t="s">
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13" t="s">
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
+      <c r="V83" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13" t="s">
+      <c r="W83" s="22"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="13"/>
-      <c r="AC83" s="13"/>
-      <c r="AD83" s="13" t="s">
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="13" t="s">
+      <c r="AE83" s="22"/>
+      <c r="AF83" s="22"/>
+      <c r="AG83" s="22"/>
+      <c r="AH83" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="13"/>
-      <c r="AJ83" s="13"/>
-      <c r="AK83" s="13"/>
-      <c r="AL83" s="13" t="s">
+      <c r="AI83" s="22"/>
+      <c r="AJ83" s="22"/>
+      <c r="AK83" s="22"/>
+      <c r="AL83" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="13"/>
-      <c r="AN83" s="13"/>
-      <c r="AO83" s="13"/>
-      <c r="AP83" s="13" t="s">
+      <c r="AM83" s="22"/>
+      <c r="AN83" s="22"/>
+      <c r="AO83" s="22"/>
+      <c r="AP83" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="13"/>
-      <c r="AR83" s="13"/>
-      <c r="AS83" s="13"/>
-      <c r="AT83" s="13" t="s">
+      <c r="AQ83" s="22"/>
+      <c r="AR83" s="22"/>
+      <c r="AS83" s="22"/>
+      <c r="AT83" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="13"/>
-      <c r="AV83" s="13"/>
-      <c r="AW83" s="13"/>
-      <c r="AX83" s="13" t="s">
+      <c r="AU83" s="22"/>
+      <c r="AV83" s="22"/>
+      <c r="AW83" s="22"/>
+      <c r="AX83" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="13"/>
-      <c r="AZ83" s="13"/>
-      <c r="BA83" s="13"/>
-      <c r="BB83" s="13" t="s">
+      <c r="AY83" s="22"/>
+      <c r="AZ83" s="22"/>
+      <c r="BA83" s="22"/>
+      <c r="BB83" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="13"/>
-      <c r="BD83" s="13"/>
-      <c r="BE83" s="13"/>
-      <c r="BF83" s="13" t="s">
+      <c r="BC83" s="22"/>
+      <c r="BD83" s="22"/>
+      <c r="BE83" s="22"/>
+      <c r="BF83" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="13"/>
-      <c r="BH83" s="13"/>
-      <c r="BI83" s="13"/>
-      <c r="BJ83" s="13" t="s">
+      <c r="BG83" s="22"/>
+      <c r="BH83" s="22"/>
+      <c r="BI83" s="22"/>
+      <c r="BJ83" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="13"/>
-      <c r="BL83" s="13"/>
-      <c r="BM83" s="13"/>
-      <c r="BN83" s="13" t="s">
+      <c r="BK83" s="22"/>
+      <c r="BL83" s="22"/>
+      <c r="BM83" s="22"/>
+      <c r="BN83" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="13"/>
-      <c r="BP83" s="13"/>
-      <c r="BQ83" s="13"/>
-      <c r="BR83" s="13" t="s">
+      <c r="BO83" s="22"/>
+      <c r="BP83" s="22"/>
+      <c r="BQ83" s="22"/>
+      <c r="BR83" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="13"/>
-      <c r="BT83" s="13"/>
-      <c r="BU83" s="13"/>
-      <c r="BV83" s="13" t="s">
+      <c r="BS83" s="22"/>
+      <c r="BT83" s="22"/>
+      <c r="BU83" s="22"/>
+      <c r="BV83" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="13"/>
-      <c r="BX83" s="13"/>
-      <c r="BY83" s="13"/>
-      <c r="BZ83" s="13" t="s">
+      <c r="BW83" s="22"/>
+      <c r="BX83" s="22"/>
+      <c r="BY83" s="22"/>
+      <c r="BZ83" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="13"/>
-      <c r="CB83" s="13"/>
-      <c r="CC83" s="13"/>
-      <c r="CD83" s="13" t="s">
+      <c r="CA83" s="22"/>
+      <c r="CB83" s="22"/>
+      <c r="CC83" s="22"/>
+      <c r="CD83" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="13"/>
-      <c r="CF83" s="13"/>
-      <c r="CG83" s="13"/>
-      <c r="CH83" s="13" t="s">
+      <c r="CE83" s="22"/>
+      <c r="CF83" s="22"/>
+      <c r="CG83" s="22"/>
+      <c r="CH83" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="CI83" s="13"/>
-      <c r="CJ83" s="13"/>
-      <c r="CK83" s="13"/>
-      <c r="CL83" s="13" t="s">
+      <c r="CI83" s="22"/>
+      <c r="CJ83" s="22"/>
+      <c r="CK83" s="22"/>
+      <c r="CL83" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="CM83" s="13"/>
-      <c r="CN83" s="13"/>
-      <c r="CO83" s="13"/>
+      <c r="CM83" s="23"/>
+      <c r="CN83" s="23"/>
+      <c r="CO83" s="20"/>
       <c r="CP83" s="13"/>
-      <c r="CQ83" s="14"/>
+      <c r="CQ83" s="13"/>
+      <c r="CR83" s="13"/>
     </row>
-    <row r="84" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -37280,21 +37633,31 @@
       <c r="CK84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL84" s="4" t="s">
+      <c r="CL84" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM84" s="4" t="s">
+      <c r="CM84" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN84" s="4"/>
-      <c r="CO84" s="4"/>
-      <c r="CP84" s="4"/>
-      <c r="CQ84" s="4"/>
+      <c r="CN84" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO84" s="15"/>
+      <c r="CP84" s="15"/>
+      <c r="CQ84" s="15"/>
+      <c r="CR84" s="15"/>
     </row>
-    <row r="85" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
+      <c r="CL85" s="14"/>
+      <c r="CM85" s="14"/>
+      <c r="CN85" s="14"/>
+      <c r="CO85" s="14"/>
+      <c r="CP85" s="14"/>
+      <c r="CQ85" s="14"/>
+      <c r="CR85" s="14"/>
     </row>
-    <row r="86" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37562,18 +37925,21 @@
       <c r="CK86" s="11">
         <v>4.8713566289459038</v>
       </c>
-      <c r="CL86" s="11">
+      <c r="CL86" s="21">
         <v>6.393067936711887</v>
       </c>
-      <c r="CM86" s="11">
-        <v>10.490605282387861</v>
-      </c>
-      <c r="CN86" s="11"/>
-      <c r="CO86" s="11"/>
-      <c r="CP86" s="11"/>
-      <c r="CQ86" s="11"/>
+      <c r="CM86" s="21">
+        <v>10.492944436353753</v>
+      </c>
+      <c r="CN86" s="21">
+        <v>18.650716487583409</v>
+      </c>
+      <c r="CO86" s="21"/>
+      <c r="CP86" s="21"/>
+      <c r="CQ86" s="21"/>
+      <c r="CR86" s="21"/>
     </row>
-    <row r="87" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -37841,18 +38207,21 @@
       <c r="CK87" s="11">
         <v>10.234143498594392</v>
       </c>
-      <c r="CL87" s="11">
+      <c r="CL87" s="21">
         <v>26.124127226005498</v>
       </c>
-      <c r="CM87" s="11">
+      <c r="CM87" s="21">
         <v>8.4874408919940976</v>
       </c>
-      <c r="CN87" s="11"/>
-      <c r="CO87" s="11"/>
-      <c r="CP87" s="11"/>
-      <c r="CQ87" s="11"/>
+      <c r="CN87" s="21">
+        <v>12.151453351553499</v>
+      </c>
+      <c r="CO87" s="21"/>
+      <c r="CP87" s="21"/>
+      <c r="CQ87" s="21"/>
+      <c r="CR87" s="21"/>
     </row>
-    <row r="88" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -38120,18 +38489,21 @@
       <c r="CK88" s="11">
         <v>2.8338712942072846</v>
       </c>
-      <c r="CL88" s="11">
+      <c r="CL88" s="21">
         <v>-9.7331441540463146</v>
       </c>
-      <c r="CM88" s="11">
+      <c r="CM88" s="21">
         <v>-11.512124754987113</v>
       </c>
-      <c r="CN88" s="11"/>
-      <c r="CO88" s="11"/>
-      <c r="CP88" s="11"/>
-      <c r="CQ88" s="11"/>
+      <c r="CN88" s="21">
+        <v>-5.4402600380920347</v>
+      </c>
+      <c r="CO88" s="21"/>
+      <c r="CP88" s="21"/>
+      <c r="CQ88" s="21"/>
+      <c r="CR88" s="21"/>
     </row>
-    <row r="89" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -38399,18 +38771,21 @@
       <c r="CK89" s="11">
         <v>122.38590880581671</v>
       </c>
-      <c r="CL89" s="11">
+      <c r="CL89" s="21">
         <v>41.51177778004481</v>
       </c>
-      <c r="CM89" s="11">
+      <c r="CM89" s="21">
         <v>34.103826282240107</v>
       </c>
-      <c r="CN89" s="11"/>
-      <c r="CO89" s="11"/>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
+      <c r="CN89" s="21">
+        <v>-25.442452594337936</v>
+      </c>
+      <c r="CO89" s="21"/>
+      <c r="CP89" s="21"/>
+      <c r="CQ89" s="21"/>
+      <c r="CR89" s="21"/>
     </row>
-    <row r="90" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -38678,18 +39053,21 @@
       <c r="CK90" s="11">
         <v>-18.313046080680962</v>
       </c>
-      <c r="CL90" s="11">
+      <c r="CL90" s="21">
         <v>-1.3983466766366348</v>
       </c>
-      <c r="CM90" s="11">
+      <c r="CM90" s="21">
         <v>10.88170894176443</v>
       </c>
-      <c r="CN90" s="11"/>
-      <c r="CO90" s="11"/>
-      <c r="CP90" s="11"/>
-      <c r="CQ90" s="11"/>
+      <c r="CN90" s="21">
+        <v>17.250935601359146</v>
+      </c>
+      <c r="CO90" s="21"/>
+      <c r="CP90" s="21"/>
+      <c r="CQ90" s="21"/>
+      <c r="CR90" s="21"/>
     </row>
-    <row r="91" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -38957,18 +39335,21 @@
       <c r="CK91" s="11">
         <v>15.925154837542436</v>
       </c>
-      <c r="CL91" s="11">
+      <c r="CL91" s="21">
         <v>23.048213983813227</v>
       </c>
-      <c r="CM91" s="11">
+      <c r="CM91" s="21">
         <v>16.28424607036176</v>
       </c>
-      <c r="CN91" s="11"/>
-      <c r="CO91" s="11"/>
-      <c r="CP91" s="11"/>
-      <c r="CQ91" s="11"/>
+      <c r="CN91" s="21">
+        <v>25.681892105815976</v>
+      </c>
+      <c r="CO91" s="21"/>
+      <c r="CP91" s="21"/>
+      <c r="CQ91" s="21"/>
+      <c r="CR91" s="21"/>
     </row>
-    <row r="92" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -39236,18 +39617,21 @@
       <c r="CK92" s="11">
         <v>30.595818578834837</v>
       </c>
-      <c r="CL92" s="11">
+      <c r="CL92" s="21">
         <v>-4.7591547446685638</v>
       </c>
-      <c r="CM92" s="11">
+      <c r="CM92" s="21">
         <v>21.326558438107384</v>
       </c>
-      <c r="CN92" s="11"/>
-      <c r="CO92" s="11"/>
-      <c r="CP92" s="11"/>
-      <c r="CQ92" s="11"/>
+      <c r="CN92" s="21">
+        <v>19.172659228180009</v>
+      </c>
+      <c r="CO92" s="21"/>
+      <c r="CP92" s="21"/>
+      <c r="CQ92" s="21"/>
+      <c r="CR92" s="21"/>
     </row>
-    <row r="93" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -39515,18 +39899,21 @@
       <c r="CK93" s="11">
         <v>15.046153425567681</v>
       </c>
-      <c r="CL93" s="11">
+      <c r="CL93" s="21">
         <v>-0.90494101153673512</v>
       </c>
-      <c r="CM93" s="11">
+      <c r="CM93" s="21">
         <v>-16.45720628622793</v>
       </c>
-      <c r="CN93" s="11"/>
-      <c r="CO93" s="11"/>
-      <c r="CP93" s="11"/>
-      <c r="CQ93" s="11"/>
+      <c r="CN93" s="21">
+        <v>4.1763513702329362</v>
+      </c>
+      <c r="CO93" s="21"/>
+      <c r="CP93" s="21"/>
+      <c r="CQ93" s="21"/>
+      <c r="CR93" s="21"/>
     </row>
-    <row r="94" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -39794,18 +40181,21 @@
       <c r="CK94" s="11">
         <v>9.6931945170118325</v>
       </c>
-      <c r="CL94" s="11">
+      <c r="CL94" s="21">
         <v>23.03114230208611</v>
       </c>
-      <c r="CM94" s="11">
+      <c r="CM94" s="21">
         <v>19.482741052679415</v>
       </c>
-      <c r="CN94" s="11"/>
-      <c r="CO94" s="11"/>
-      <c r="CP94" s="11"/>
-      <c r="CQ94" s="11"/>
+      <c r="CN94" s="21">
+        <v>14.051652235324013</v>
+      </c>
+      <c r="CO94" s="21"/>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
     </row>
-    <row r="95" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -40073,18 +40463,21 @@
       <c r="CK95" s="11">
         <v>-17.413661532995292</v>
       </c>
-      <c r="CL95" s="11">
+      <c r="CL95" s="21">
         <v>-17.029005207731558</v>
       </c>
-      <c r="CM95" s="11">
+      <c r="CM95" s="21">
         <v>-22.049400213918531</v>
       </c>
-      <c r="CN95" s="11"/>
-      <c r="CO95" s="11"/>
-      <c r="CP95" s="11"/>
-      <c r="CQ95" s="11"/>
+      <c r="CN95" s="21">
+        <v>-16.618432547511659</v>
+      </c>
+      <c r="CO95" s="21"/>
+      <c r="CP95" s="21"/>
+      <c r="CQ95" s="21"/>
+      <c r="CR95" s="21"/>
     </row>
-    <row r="96" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -40352,18 +40745,21 @@
       <c r="CK96" s="11">
         <v>18.180018888481527</v>
       </c>
-      <c r="CL96" s="11">
+      <c r="CL96" s="21">
         <v>12.524267970084239</v>
       </c>
-      <c r="CM96" s="11">
+      <c r="CM96" s="21">
         <v>36.437935252036169</v>
       </c>
-      <c r="CN96" s="11"/>
-      <c r="CO96" s="11"/>
-      <c r="CP96" s="11"/>
-      <c r="CQ96" s="11"/>
+      <c r="CN96" s="21">
+        <v>26.774861032079201</v>
+      </c>
+      <c r="CO96" s="21"/>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
     </row>
-    <row r="97" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -40631,18 +41027,21 @@
       <c r="CK97" s="11">
         <v>4.920602940752957</v>
       </c>
-      <c r="CL97" s="11">
+      <c r="CL97" s="21">
         <v>-5.8877712864958198</v>
       </c>
-      <c r="CM97" s="11">
+      <c r="CM97" s="21">
         <v>-10.774677104462654</v>
       </c>
-      <c r="CN97" s="11"/>
-      <c r="CO97" s="11"/>
-      <c r="CP97" s="11"/>
-      <c r="CQ97" s="11"/>
+      <c r="CN97" s="21">
+        <v>-16.041315907165924</v>
+      </c>
+      <c r="CO97" s="21"/>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
     </row>
-    <row r="98" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -40910,18 +41309,21 @@
       <c r="CK98" s="11">
         <v>3.8779954697188259</v>
       </c>
-      <c r="CL98" s="11">
+      <c r="CL98" s="21">
         <v>13.473105268174848</v>
       </c>
-      <c r="CM98" s="11">
+      <c r="CM98" s="21">
         <v>35.309661564954354</v>
       </c>
-      <c r="CN98" s="11"/>
-      <c r="CO98" s="11"/>
-      <c r="CP98" s="11"/>
-      <c r="CQ98" s="11"/>
+      <c r="CN98" s="21">
+        <v>216.56679956713208</v>
+      </c>
+      <c r="CO98" s="21"/>
+      <c r="CP98" s="21"/>
+      <c r="CQ98" s="21"/>
+      <c r="CR98" s="21"/>
     </row>
-    <row r="99" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -41189,18 +41591,21 @@
       <c r="CK99" s="11">
         <v>14.846660577404336</v>
       </c>
-      <c r="CL99" s="11">
+      <c r="CL99" s="21">
         <v>41.316699765683893</v>
       </c>
-      <c r="CM99" s="11">
+      <c r="CM99" s="21">
         <v>15.000547252088609</v>
       </c>
-      <c r="CN99" s="11"/>
-      <c r="CO99" s="11"/>
-      <c r="CP99" s="11"/>
-      <c r="CQ99" s="11"/>
+      <c r="CN99" s="21">
+        <v>8.9520880963583238</v>
+      </c>
+      <c r="CO99" s="21"/>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
     </row>
-    <row r="100" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -41468,18 +41873,21 @@
       <c r="CK100" s="11">
         <v>8.8225653087932017</v>
       </c>
-      <c r="CL100" s="11">
+      <c r="CL100" s="21">
         <v>4.0991414600554776</v>
       </c>
-      <c r="CM100" s="11">
+      <c r="CM100" s="21">
         <v>-3.4122547334508937</v>
       </c>
-      <c r="CN100" s="11"/>
-      <c r="CO100" s="11"/>
-      <c r="CP100" s="11"/>
-      <c r="CQ100" s="11"/>
+      <c r="CN100" s="21">
+        <v>-2.6888078660967949</v>
+      </c>
+      <c r="CO100" s="21"/>
+      <c r="CP100" s="21"/>
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
     </row>
-    <row r="101" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -41747,18 +42155,21 @@
       <c r="CK101" s="11">
         <v>18.779783724568077</v>
       </c>
-      <c r="CL101" s="11">
+      <c r="CL101" s="21">
         <v>18.2673577325114</v>
       </c>
-      <c r="CM101" s="11">
+      <c r="CM101" s="21">
         <v>9.2477243630222148</v>
       </c>
-      <c r="CN101" s="11"/>
-      <c r="CO101" s="11"/>
-      <c r="CP101" s="11"/>
-      <c r="CQ101" s="11"/>
+      <c r="CN101" s="21">
+        <v>0.31424042316308487</v>
+      </c>
+      <c r="CO101" s="21"/>
+      <c r="CP101" s="21"/>
+      <c r="CQ101" s="21"/>
+      <c r="CR101" s="21"/>
     </row>
-    <row r="102" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -42026,18 +42437,21 @@
       <c r="CK102" s="11">
         <v>13.138399104304227</v>
       </c>
-      <c r="CL102" s="11">
+      <c r="CL102" s="21">
         <v>10.074491854212781</v>
       </c>
-      <c r="CM102" s="11">
+      <c r="CM102" s="21">
         <v>-5.3915231296592196</v>
       </c>
-      <c r="CN102" s="11"/>
-      <c r="CO102" s="11"/>
-      <c r="CP102" s="11"/>
-      <c r="CQ102" s="11"/>
+      <c r="CN102" s="21">
+        <v>-1.1187236378466565</v>
+      </c>
+      <c r="CO102" s="21"/>
+      <c r="CP102" s="21"/>
+      <c r="CQ102" s="21"/>
+      <c r="CR102" s="21"/>
     </row>
-    <row r="103" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -42305,18 +42719,21 @@
       <c r="CK103" s="11">
         <v>-9.8109539025426926</v>
       </c>
-      <c r="CL103" s="11">
+      <c r="CL103" s="21">
         <v>-58.511027364021736</v>
       </c>
-      <c r="CM103" s="11">
-        <v>-26.782789218889064</v>
-      </c>
-      <c r="CN103" s="11"/>
-      <c r="CO103" s="11"/>
-      <c r="CP103" s="11"/>
-      <c r="CQ103" s="11"/>
+      <c r="CM103" s="21">
+        <v>-29.453984477104129</v>
+      </c>
+      <c r="CN103" s="21">
+        <v>12.32553317106661</v>
+      </c>
+      <c r="CO103" s="21"/>
+      <c r="CP103" s="21"/>
+      <c r="CQ103" s="21"/>
+      <c r="CR103" s="21"/>
     </row>
-    <row r="104" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -42584,18 +43001,21 @@
       <c r="CK104" s="11">
         <v>10.695761205811948</v>
       </c>
-      <c r="CL104" s="11">
+      <c r="CL104" s="21">
         <v>25.432070793034512</v>
       </c>
-      <c r="CM104" s="11">
-        <v>-9.4449764424431635</v>
-      </c>
-      <c r="CN104" s="11"/>
-      <c r="CO104" s="11"/>
-      <c r="CP104" s="11"/>
-      <c r="CQ104" s="11"/>
+      <c r="CM104" s="21">
+        <v>-8.7395832536855096</v>
+      </c>
+      <c r="CN104" s="21">
+        <v>-0.29763563438967822</v>
+      </c>
+      <c r="CO104" s="21"/>
+      <c r="CP104" s="21"/>
+      <c r="CQ104" s="21"/>
+      <c r="CR104" s="21"/>
     </row>
-    <row r="105" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -42863,19 +43283,22 @@
       <c r="CK105" s="11">
         <v>14.372115279933226</v>
       </c>
-      <c r="CL105" s="11">
+      <c r="CL105" s="21">
         <v>13.183020768680521</v>
       </c>
-      <c r="CM105" s="11">
+      <c r="CM105" s="21">
         <v>10.85969493729155</v>
       </c>
-      <c r="CN105" s="11"/>
-      <c r="CO105" s="11"/>
-      <c r="CP105" s="11"/>
-      <c r="CQ105" s="11"/>
+      <c r="CN105" s="21">
+        <v>8.6647214046826662</v>
+      </c>
+      <c r="CO105" s="21"/>
+      <c r="CP105" s="21"/>
+      <c r="CQ105" s="21"/>
+      <c r="CR105" s="21"/>
     </row>
-    <row r="106" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -43143,18 +43566,21 @@
       <c r="CK107" s="11">
         <v>9.9755754418846294</v>
       </c>
-      <c r="CL107" s="11">
+      <c r="CL107" s="21">
         <v>13.399410256295567</v>
       </c>
-      <c r="CM107" s="11">
-        <v>4.658429051677075</v>
-      </c>
-      <c r="CN107" s="11"/>
-      <c r="CO107" s="11"/>
-      <c r="CP107" s="11"/>
-      <c r="CQ107" s="11"/>
+      <c r="CM107" s="21">
+        <v>4.7526460650888112</v>
+      </c>
+      <c r="CN107" s="21">
+        <v>5.4528657271190326</v>
+      </c>
+      <c r="CO107" s="21"/>
+      <c r="CP107" s="21"/>
+      <c r="CQ107" s="21"/>
+      <c r="CR107" s="21"/>
     </row>
-    <row r="108" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -43244,196 +43670,263 @@
       <c r="CI108" s="10"/>
       <c r="CJ108" s="10"/>
       <c r="CK108" s="10"/>
-      <c r="CL108" s="10"/>
-      <c r="CM108" s="10"/>
-      <c r="CN108" s="10"/>
-      <c r="CO108" s="10"/>
-      <c r="CP108" s="10"/>
-      <c r="CQ108" s="10"/>
+      <c r="CL108" s="19"/>
+      <c r="CM108" s="19"/>
+      <c r="CN108" s="19"/>
+      <c r="CO108" s="19"/>
+      <c r="CP108" s="19"/>
+      <c r="CQ108" s="19"/>
+      <c r="CR108" s="19"/>
     </row>
-    <row r="109" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL109" s="14"/>
+      <c r="CM109" s="14"/>
+      <c r="CN109" s="14"/>
+      <c r="CO109" s="14"/>
+      <c r="CP109" s="14"/>
+      <c r="CQ109" s="14"/>
+      <c r="CR109" s="14"/>
     </row>
-    <row r="110" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL112" s="14"/>
+      <c r="CM112" s="14"/>
+      <c r="CN112" s="14"/>
+      <c r="CO112" s="14"/>
+      <c r="CP112" s="14"/>
+      <c r="CQ112" s="14"/>
+      <c r="CR112" s="14"/>
     </row>
-    <row r="113" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CL113" s="14"/>
+      <c r="CM113" s="14"/>
+      <c r="CN113" s="14"/>
+      <c r="CO113" s="14"/>
+      <c r="CP113" s="14"/>
+      <c r="CQ113" s="14"/>
+      <c r="CR113" s="14"/>
     </row>
-    <row r="114" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="CL114" s="14"/>
+      <c r="CM114" s="14"/>
+      <c r="CN114" s="14"/>
+      <c r="CO114" s="14"/>
+      <c r="CP114" s="14"/>
+      <c r="CQ114" s="14"/>
+      <c r="CR114" s="14"/>
     </row>
-    <row r="115" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL115" s="14"/>
+      <c r="CM115" s="14"/>
+      <c r="CN115" s="14"/>
+      <c r="CO115" s="14"/>
+      <c r="CP115" s="14"/>
+      <c r="CQ115" s="14"/>
+      <c r="CR115" s="14"/>
+    </row>
+    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="CL116" s="14"/>
+      <c r="CM116" s="14"/>
+      <c r="CN116" s="14"/>
+      <c r="CO116" s="14"/>
+      <c r="CP116" s="14"/>
+      <c r="CQ116" s="14"/>
+      <c r="CR116" s="14"/>
     </row>
-    <row r="117" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="CL117" s="14"/>
+      <c r="CM117" s="14"/>
+      <c r="CN117" s="14"/>
+      <c r="CO117" s="14"/>
+      <c r="CP117" s="14"/>
+      <c r="CQ117" s="14"/>
+      <c r="CR117" s="14"/>
     </row>
-    <row r="118" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="CL118" s="14"/>
+      <c r="CM118" s="14"/>
+      <c r="CN118" s="14"/>
+      <c r="CO118" s="14"/>
+      <c r="CP118" s="14"/>
+      <c r="CQ118" s="14"/>
+      <c r="CR118" s="14"/>
     </row>
-    <row r="119" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL119" s="14"/>
+      <c r="CM119" s="14"/>
+      <c r="CN119" s="14"/>
+      <c r="CO119" s="14"/>
+      <c r="CP119" s="14"/>
+      <c r="CQ119" s="14"/>
+      <c r="CR119" s="14"/>
+    </row>
+    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13" t="s">
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13" t="s">
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13" t="s">
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="13" t="s">
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="13"/>
-      <c r="T120" s="13"/>
-      <c r="U120" s="13"/>
-      <c r="V120" s="13" t="s">
+      <c r="S120" s="22"/>
+      <c r="T120" s="22"/>
+      <c r="U120" s="22"/>
+      <c r="V120" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="13"/>
-      <c r="X120" s="13"/>
-      <c r="Y120" s="13"/>
-      <c r="Z120" s="13" t="s">
+      <c r="W120" s="22"/>
+      <c r="X120" s="22"/>
+      <c r="Y120" s="22"/>
+      <c r="Z120" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="13"/>
-      <c r="AB120" s="13"/>
-      <c r="AC120" s="13"/>
-      <c r="AD120" s="13" t="s">
+      <c r="AA120" s="22"/>
+      <c r="AB120" s="22"/>
+      <c r="AC120" s="22"/>
+      <c r="AD120" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="13"/>
-      <c r="AF120" s="13"/>
-      <c r="AG120" s="13"/>
-      <c r="AH120" s="13" t="s">
+      <c r="AE120" s="22"/>
+      <c r="AF120" s="22"/>
+      <c r="AG120" s="22"/>
+      <c r="AH120" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="13"/>
-      <c r="AJ120" s="13"/>
-      <c r="AK120" s="13"/>
-      <c r="AL120" s="13" t="s">
+      <c r="AI120" s="22"/>
+      <c r="AJ120" s="22"/>
+      <c r="AK120" s="22"/>
+      <c r="AL120" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="13"/>
-      <c r="AN120" s="13"/>
-      <c r="AO120" s="13"/>
-      <c r="AP120" s="13" t="s">
+      <c r="AM120" s="22"/>
+      <c r="AN120" s="22"/>
+      <c r="AO120" s="22"/>
+      <c r="AP120" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="13"/>
-      <c r="AR120" s="13"/>
-      <c r="AS120" s="13"/>
-      <c r="AT120" s="13" t="s">
+      <c r="AQ120" s="22"/>
+      <c r="AR120" s="22"/>
+      <c r="AS120" s="22"/>
+      <c r="AT120" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="13"/>
-      <c r="AV120" s="13"/>
-      <c r="AW120" s="13"/>
-      <c r="AX120" s="13" t="s">
+      <c r="AU120" s="22"/>
+      <c r="AV120" s="22"/>
+      <c r="AW120" s="22"/>
+      <c r="AX120" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="13"/>
-      <c r="AZ120" s="13"/>
-      <c r="BA120" s="13"/>
-      <c r="BB120" s="13" t="s">
+      <c r="AY120" s="22"/>
+      <c r="AZ120" s="22"/>
+      <c r="BA120" s="22"/>
+      <c r="BB120" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="13"/>
-      <c r="BD120" s="13"/>
-      <c r="BE120" s="13"/>
-      <c r="BF120" s="13" t="s">
+      <c r="BC120" s="22"/>
+      <c r="BD120" s="22"/>
+      <c r="BE120" s="22"/>
+      <c r="BF120" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="13"/>
-      <c r="BH120" s="13"/>
-      <c r="BI120" s="13"/>
-      <c r="BJ120" s="13" t="s">
+      <c r="BG120" s="22"/>
+      <c r="BH120" s="22"/>
+      <c r="BI120" s="22"/>
+      <c r="BJ120" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="13"/>
-      <c r="BL120" s="13"/>
-      <c r="BM120" s="13"/>
-      <c r="BN120" s="13" t="s">
+      <c r="BK120" s="22"/>
+      <c r="BL120" s="22"/>
+      <c r="BM120" s="22"/>
+      <c r="BN120" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="13"/>
-      <c r="BP120" s="13"/>
-      <c r="BQ120" s="13"/>
-      <c r="BR120" s="13" t="s">
+      <c r="BO120" s="22"/>
+      <c r="BP120" s="22"/>
+      <c r="BQ120" s="22"/>
+      <c r="BR120" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="13"/>
-      <c r="BT120" s="13"/>
-      <c r="BU120" s="13"/>
-      <c r="BV120" s="13" t="s">
+      <c r="BS120" s="22"/>
+      <c r="BT120" s="22"/>
+      <c r="BU120" s="22"/>
+      <c r="BV120" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="13"/>
-      <c r="BX120" s="13"/>
-      <c r="BY120" s="13"/>
-      <c r="BZ120" s="13" t="s">
+      <c r="BW120" s="22"/>
+      <c r="BX120" s="22"/>
+      <c r="BY120" s="22"/>
+      <c r="BZ120" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="13"/>
-      <c r="CB120" s="13"/>
-      <c r="CC120" s="13"/>
-      <c r="CD120" s="13" t="s">
+      <c r="CA120" s="22"/>
+      <c r="CB120" s="22"/>
+      <c r="CC120" s="22"/>
+      <c r="CD120" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="13"/>
-      <c r="CF120" s="13"/>
-      <c r="CG120" s="13"/>
-      <c r="CH120" s="13" t="s">
+      <c r="CE120" s="22"/>
+      <c r="CF120" s="22"/>
+      <c r="CG120" s="22"/>
+      <c r="CH120" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="CI120" s="13"/>
-      <c r="CJ120" s="13"/>
-      <c r="CK120" s="13"/>
-      <c r="CL120" s="13" t="s">
+      <c r="CI120" s="22"/>
+      <c r="CJ120" s="22"/>
+      <c r="CK120" s="22"/>
+      <c r="CL120" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="CM120" s="13"/>
-      <c r="CN120" s="13"/>
-      <c r="CO120" s="13"/>
+      <c r="CM120" s="23"/>
+      <c r="CN120" s="23"/>
+      <c r="CO120" s="20"/>
       <c r="CP120" s="13"/>
-      <c r="CQ120" s="14"/>
+      <c r="CQ120" s="13"/>
+      <c r="CR120" s="13"/>
     </row>
-    <row r="121" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -43701,21 +44194,31 @@
       <c r="CK121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL121" s="4" t="s">
+      <c r="CL121" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM121" s="4" t="s">
+      <c r="CM121" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN121" s="4"/>
-      <c r="CO121" s="4"/>
-      <c r="CP121" s="4"/>
-      <c r="CQ121" s="4"/>
+      <c r="CN121" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="CO121" s="15"/>
+      <c r="CP121" s="15"/>
+      <c r="CQ121" s="15"/>
+      <c r="CR121" s="15"/>
     </row>
-    <row r="122" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
+      <c r="CL122" s="14"/>
+      <c r="CM122" s="14"/>
+      <c r="CN122" s="14"/>
+      <c r="CO122" s="14"/>
+      <c r="CP122" s="14"/>
+      <c r="CQ122" s="14"/>
+      <c r="CR122" s="14"/>
     </row>
-    <row r="123" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -43983,18 +44486,21 @@
       <c r="CK123" s="11">
         <v>-2.4900856224084436</v>
       </c>
-      <c r="CL123" s="11">
+      <c r="CL123" s="21">
         <v>4.4684958115665836</v>
       </c>
-      <c r="CM123" s="11">
-        <v>2.3154782775492606</v>
-      </c>
-      <c r="CN123" s="11"/>
-      <c r="CO123" s="11"/>
-      <c r="CP123" s="11"/>
-      <c r="CQ123" s="11"/>
+      <c r="CM123" s="21">
+        <v>2.3176443590561462</v>
+      </c>
+      <c r="CN123" s="21">
+        <v>0.2125625150712267</v>
+      </c>
+      <c r="CO123" s="21"/>
+      <c r="CP123" s="21"/>
+      <c r="CQ123" s="21"/>
+      <c r="CR123" s="21"/>
     </row>
-    <row r="124" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -44262,18 +44768,21 @@
       <c r="CK124" s="11">
         <v>-6.9888091837713802</v>
       </c>
-      <c r="CL124" s="11">
+      <c r="CL124" s="21">
         <v>3.2227857967411069</v>
       </c>
-      <c r="CM124" s="11">
+      <c r="CM124" s="21">
         <v>-0.75199101453945616</v>
       </c>
-      <c r="CN124" s="11"/>
-      <c r="CO124" s="11"/>
-      <c r="CP124" s="11"/>
-      <c r="CQ124" s="11"/>
+      <c r="CN124" s="21">
+        <v>4.9985431332181491</v>
+      </c>
+      <c r="CO124" s="21"/>
+      <c r="CP124" s="21"/>
+      <c r="CQ124" s="21"/>
+      <c r="CR124" s="21"/>
     </row>
-    <row r="125" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -44541,18 +45050,21 @@
       <c r="CK125" s="11">
         <v>1.3340196748929003</v>
       </c>
-      <c r="CL125" s="11">
+      <c r="CL125" s="21">
         <v>3.3222958462834526</v>
       </c>
-      <c r="CM125" s="11">
+      <c r="CM125" s="21">
         <v>2.33297319877353</v>
       </c>
-      <c r="CN125" s="11"/>
-      <c r="CO125" s="11"/>
-      <c r="CP125" s="11"/>
-      <c r="CQ125" s="11"/>
+      <c r="CN125" s="21">
+        <v>-1.4833370126690397</v>
+      </c>
+      <c r="CO125" s="21"/>
+      <c r="CP125" s="21"/>
+      <c r="CQ125" s="21"/>
+      <c r="CR125" s="21"/>
     </row>
-    <row r="126" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -44820,18 +45332,21 @@
       <c r="CK126" s="11">
         <v>15.970006910383375</v>
       </c>
-      <c r="CL126" s="11">
+      <c r="CL126" s="21">
         <v>-17.025058969499938</v>
       </c>
-      <c r="CM126" s="11">
+      <c r="CM126" s="21">
         <v>-6.045314636700823</v>
       </c>
-      <c r="CN126" s="11"/>
-      <c r="CO126" s="11"/>
-      <c r="CP126" s="11"/>
-      <c r="CQ126" s="11"/>
+      <c r="CN126" s="21">
+        <v>-20.24956807380363</v>
+      </c>
+      <c r="CO126" s="21"/>
+      <c r="CP126" s="21"/>
+      <c r="CQ126" s="21"/>
+      <c r="CR126" s="21"/>
     </row>
-    <row r="127" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -45099,18 +45614,21 @@
       <c r="CK127" s="11">
         <v>-0.89943316715083199</v>
       </c>
-      <c r="CL127" s="11">
+      <c r="CL127" s="21">
         <v>0.12358624278181196</v>
       </c>
-      <c r="CM127" s="11">
+      <c r="CM127" s="21">
         <v>0.70755479694437895</v>
       </c>
-      <c r="CN127" s="11"/>
-      <c r="CO127" s="11"/>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
+      <c r="CN127" s="21">
+        <v>0.19876157660007721</v>
+      </c>
+      <c r="CO127" s="21"/>
+      <c r="CP127" s="21"/>
+      <c r="CQ127" s="21"/>
+      <c r="CR127" s="21"/>
     </row>
-    <row r="128" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -45378,18 +45896,21 @@
       <c r="CK128" s="11">
         <v>-6.068027579192659</v>
       </c>
-      <c r="CL128" s="11">
+      <c r="CL128" s="21">
         <v>7.5586256213377823</v>
       </c>
-      <c r="CM128" s="11">
+      <c r="CM128" s="21">
         <v>11.281556691571652</v>
       </c>
-      <c r="CN128" s="11"/>
-      <c r="CO128" s="11"/>
-      <c r="CP128" s="11"/>
-      <c r="CQ128" s="11"/>
+      <c r="CN128" s="21">
+        <v>15.12511104848744</v>
+      </c>
+      <c r="CO128" s="21"/>
+      <c r="CP128" s="21"/>
+      <c r="CQ128" s="21"/>
+      <c r="CR128" s="21"/>
     </row>
-    <row r="129" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -45657,18 +46178,21 @@
       <c r="CK129" s="11">
         <v>5.595813956014652</v>
       </c>
-      <c r="CL129" s="11">
+      <c r="CL129" s="21">
         <v>-3.9408382556680408</v>
       </c>
-      <c r="CM129" s="11">
+      <c r="CM129" s="21">
         <v>3.6394811164642533</v>
       </c>
-      <c r="CN129" s="11"/>
-      <c r="CO129" s="11"/>
-      <c r="CP129" s="11"/>
-      <c r="CQ129" s="11"/>
+      <c r="CN129" s="21">
+        <v>3.5257203939863757</v>
+      </c>
+      <c r="CO129" s="21"/>
+      <c r="CP129" s="21"/>
+      <c r="CQ129" s="21"/>
+      <c r="CR129" s="21"/>
     </row>
-    <row r="130" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -45936,18 +46460,21 @@
       <c r="CK130" s="11">
         <v>1.9497123807054209</v>
       </c>
-      <c r="CL130" s="11">
+      <c r="CL130" s="21">
         <v>1.5125899912571441</v>
       </c>
-      <c r="CM130" s="11">
+      <c r="CM130" s="21">
         <v>2.5220551038642043</v>
       </c>
-      <c r="CN130" s="11"/>
-      <c r="CO130" s="11"/>
-      <c r="CP130" s="11"/>
-      <c r="CQ130" s="11"/>
+      <c r="CN130" s="21">
+        <v>5.9459860974229173</v>
+      </c>
+      <c r="CO130" s="21"/>
+      <c r="CP130" s="21"/>
+      <c r="CQ130" s="21"/>
+      <c r="CR130" s="21"/>
     </row>
-    <row r="131" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -46215,18 +46742,21 @@
       <c r="CK131" s="11">
         <v>0.46930708951668976</v>
       </c>
-      <c r="CL131" s="11">
+      <c r="CL131" s="21">
         <v>5.1789264010787974</v>
       </c>
-      <c r="CM131" s="11">
+      <c r="CM131" s="21">
         <v>1.4698587735843205</v>
       </c>
-      <c r="CN131" s="11"/>
-      <c r="CO131" s="11"/>
-      <c r="CP131" s="11"/>
-      <c r="CQ131" s="11"/>
+      <c r="CN131" s="21">
+        <v>-2.8697240945092517</v>
+      </c>
+      <c r="CO131" s="21"/>
+      <c r="CP131" s="21"/>
+      <c r="CQ131" s="21"/>
+      <c r="CR131" s="21"/>
     </row>
-    <row r="132" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -46494,18 +47024,21 @@
       <c r="CK132" s="11">
         <v>-7.3593899079029228</v>
       </c>
-      <c r="CL132" s="11">
+      <c r="CL132" s="21">
         <v>-3.9429555484268519</v>
       </c>
-      <c r="CM132" s="11">
+      <c r="CM132" s="21">
         <v>-8.5130936985379435</v>
       </c>
-      <c r="CN132" s="11"/>
-      <c r="CO132" s="11"/>
-      <c r="CP132" s="11"/>
-      <c r="CQ132" s="11"/>
+      <c r="CN132" s="21">
+        <v>-12.649802634651721</v>
+      </c>
+      <c r="CO132" s="21"/>
+      <c r="CP132" s="21"/>
+      <c r="CQ132" s="21"/>
+      <c r="CR132" s="21"/>
     </row>
-    <row r="133" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -46773,18 +47306,21 @@
       <c r="CK133" s="11">
         <v>2.2731118212873156</v>
       </c>
-      <c r="CL133" s="11">
+      <c r="CL133" s="21">
         <v>-1.6277013319149063</v>
       </c>
-      <c r="CM133" s="11">
+      <c r="CM133" s="21">
         <v>4.0019164716362354</v>
       </c>
-      <c r="CN133" s="11"/>
-      <c r="CO133" s="11"/>
-      <c r="CP133" s="11"/>
-      <c r="CQ133" s="11"/>
+      <c r="CN133" s="21">
+        <v>5.4468089975034104</v>
+      </c>
+      <c r="CO133" s="21"/>
+      <c r="CP133" s="21"/>
+      <c r="CQ133" s="21"/>
+      <c r="CR133" s="21"/>
     </row>
-    <row r="134" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -47052,18 +47588,21 @@
       <c r="CK134" s="11">
         <v>2.8895328248791543</v>
       </c>
-      <c r="CL134" s="11">
+      <c r="CL134" s="21">
         <v>3.6245510123515743</v>
       </c>
-      <c r="CM134" s="11">
+      <c r="CM134" s="21">
         <v>-0.95114953020107862</v>
       </c>
-      <c r="CN134" s="11"/>
-      <c r="CO134" s="11"/>
-      <c r="CP134" s="11"/>
-      <c r="CQ134" s="11"/>
+      <c r="CN134" s="21">
+        <v>-6.4431139980691938</v>
+      </c>
+      <c r="CO134" s="21"/>
+      <c r="CP134" s="21"/>
+      <c r="CQ134" s="21"/>
+      <c r="CR134" s="21"/>
     </row>
-    <row r="135" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -47331,18 +47870,21 @@
       <c r="CK135" s="11">
         <v>8.2553686832053046</v>
       </c>
-      <c r="CL135" s="11">
+      <c r="CL135" s="21">
         <v>14.250590902089911</v>
       </c>
-      <c r="CM135" s="11">
+      <c r="CM135" s="21">
         <v>1.7031445197811337</v>
       </c>
-      <c r="CN135" s="11"/>
-      <c r="CO135" s="11"/>
-      <c r="CP135" s="11"/>
-      <c r="CQ135" s="11"/>
+      <c r="CN135" s="21">
+        <v>119.10713170413123</v>
+      </c>
+      <c r="CO135" s="21"/>
+      <c r="CP135" s="21"/>
+      <c r="CQ135" s="21"/>
+      <c r="CR135" s="21"/>
     </row>
-    <row r="136" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -47610,18 +48152,21 @@
       <c r="CK136" s="11">
         <v>0.15767647966600862</v>
       </c>
-      <c r="CL136" s="11">
+      <c r="CL136" s="21">
         <v>1.0928465609175078</v>
       </c>
-      <c r="CM136" s="11">
+      <c r="CM136" s="21">
         <v>0.53397434419426304</v>
       </c>
-      <c r="CN136" s="11"/>
-      <c r="CO136" s="11"/>
-      <c r="CP136" s="11"/>
-      <c r="CQ136" s="11"/>
+      <c r="CN136" s="21">
+        <v>-5.8588693130665774</v>
+      </c>
+      <c r="CO136" s="21"/>
+      <c r="CP136" s="21"/>
+      <c r="CQ136" s="21"/>
+      <c r="CR136" s="21"/>
     </row>
-    <row r="137" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -47889,18 +48434,21 @@
       <c r="CK137" s="11">
         <v>3.0540395797123807</v>
       </c>
-      <c r="CL137" s="11">
+      <c r="CL137" s="21">
         <v>4.9892708715376415</v>
       </c>
-      <c r="CM137" s="11">
+      <c r="CM137" s="21">
         <v>1.5562310497868452</v>
       </c>
-      <c r="CN137" s="11"/>
-      <c r="CO137" s="11"/>
-      <c r="CP137" s="11"/>
-      <c r="CQ137" s="11"/>
+      <c r="CN137" s="21">
+        <v>2.6994402243762465</v>
+      </c>
+      <c r="CO137" s="21"/>
+      <c r="CP137" s="21"/>
+      <c r="CQ137" s="21"/>
+      <c r="CR137" s="21"/>
     </row>
-    <row r="138" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -48168,18 +48716,21 @@
       <c r="CK138" s="11">
         <v>1.5515981110379045</v>
       </c>
-      <c r="CL138" s="11">
+      <c r="CL138" s="21">
         <v>3.1520113444878319</v>
       </c>
-      <c r="CM138" s="11">
+      <c r="CM138" s="21">
         <v>1.1768233666116714</v>
       </c>
-      <c r="CN138" s="11"/>
-      <c r="CO138" s="11"/>
-      <c r="CP138" s="11"/>
-      <c r="CQ138" s="11"/>
+      <c r="CN138" s="21">
+        <v>2.8655028611268847</v>
+      </c>
+      <c r="CO138" s="21"/>
+      <c r="CP138" s="21"/>
+      <c r="CQ138" s="21"/>
+      <c r="CR138" s="21"/>
     </row>
-    <row r="139" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -48447,18 +48998,21 @@
       <c r="CK139" s="11">
         <v>1.9810838194844962</v>
       </c>
-      <c r="CL139" s="11">
+      <c r="CL139" s="21">
         <v>2.8541318017312136</v>
       </c>
-      <c r="CM139" s="11">
+      <c r="CM139" s="21">
         <v>1.3181907605474237</v>
       </c>
-      <c r="CN139" s="11"/>
-      <c r="CO139" s="11"/>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
+      <c r="CN139" s="21">
+        <v>2.9084357239755718</v>
+      </c>
+      <c r="CO139" s="21"/>
+      <c r="CP139" s="21"/>
+      <c r="CQ139" s="21"/>
+      <c r="CR139" s="21"/>
     </row>
-    <row r="140" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -48726,18 +49280,21 @@
       <c r="CK140" s="11">
         <v>-11.879161885810305</v>
       </c>
-      <c r="CL140" s="11">
+      <c r="CL140" s="21">
         <v>-46.606505758392167</v>
       </c>
-      <c r="CM140" s="11">
-        <v>-16.798373391513437</v>
-      </c>
-      <c r="CN140" s="11"/>
-      <c r="CO140" s="11"/>
-      <c r="CP140" s="11"/>
-      <c r="CQ140" s="11"/>
+      <c r="CM140" s="21">
+        <v>-19.960181631561923</v>
+      </c>
+      <c r="CN140" s="21">
+        <v>13.7928116395084</v>
+      </c>
+      <c r="CO140" s="21"/>
+      <c r="CP140" s="21"/>
+      <c r="CQ140" s="21"/>
+      <c r="CR140" s="21"/>
     </row>
-    <row r="141" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -49005,18 +49562,21 @@
       <c r="CK141" s="11">
         <v>-3.1409038543950345</v>
       </c>
-      <c r="CL141" s="11">
+      <c r="CL141" s="21">
         <v>0.60179286974442903</v>
       </c>
-      <c r="CM141" s="11">
-        <v>-13.712701858149615</v>
-      </c>
-      <c r="CN141" s="11"/>
-      <c r="CO141" s="11"/>
-      <c r="CP141" s="11"/>
-      <c r="CQ141" s="11"/>
+      <c r="CM141" s="21">
+        <v>-13.260477140436222</v>
+      </c>
+      <c r="CN141" s="21">
+        <v>-4.0971193627453175</v>
+      </c>
+      <c r="CO141" s="21"/>
+      <c r="CP141" s="21"/>
+      <c r="CQ141" s="21"/>
+      <c r="CR141" s="21"/>
     </row>
-    <row r="142" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -49284,19 +49844,22 @@
       <c r="CK142" s="11">
         <v>3.7755543920010979</v>
       </c>
-      <c r="CL142" s="11">
+      <c r="CL142" s="21">
         <v>3.141822909983631</v>
       </c>
-      <c r="CM142" s="11">
+      <c r="CM142" s="21">
         <v>3.6400956448746342</v>
       </c>
-      <c r="CN142" s="11"/>
-      <c r="CO142" s="11"/>
-      <c r="CP142" s="11"/>
-      <c r="CQ142" s="11"/>
+      <c r="CN142" s="21">
+        <v>4.2205108384205374</v>
+      </c>
+      <c r="CO142" s="21"/>
+      <c r="CP142" s="21"/>
+      <c r="CQ142" s="21"/>
+      <c r="CR142" s="21"/>
     </row>
-    <row r="143" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -49564,18 +50127,21 @@
       <c r="CK144" s="11">
         <v>-0.34722986491927088</v>
       </c>
-      <c r="CL144" s="11">
+      <c r="CL144" s="21">
         <v>2.2401954730820677</v>
       </c>
-      <c r="CM144" s="11">
-        <v>0.15577110856415288</v>
-      </c>
-      <c r="CN144" s="11"/>
-      <c r="CO144" s="11"/>
-      <c r="CP144" s="11"/>
-      <c r="CQ144" s="11"/>
+      <c r="CM144" s="21">
+        <v>0.20386316084042733</v>
+      </c>
+      <c r="CN144" s="21">
+        <v>0.92006033368478768</v>
+      </c>
+      <c r="CO144" s="21"/>
+      <c r="CP144" s="21"/>
+      <c r="CQ144" s="21"/>
+      <c r="CR144" s="21"/>
     </row>
-    <row r="145" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -49665,193 +50231,253 @@
       <c r="CI145" s="10"/>
       <c r="CJ145" s="10"/>
       <c r="CK145" s="10"/>
-      <c r="CL145" s="10"/>
-      <c r="CM145" s="10"/>
-      <c r="CN145" s="10"/>
-      <c r="CO145" s="10"/>
-      <c r="CP145" s="10"/>
-      <c r="CQ145" s="10"/>
+      <c r="CL145" s="19"/>
+      <c r="CM145" s="19"/>
+      <c r="CN145" s="19"/>
+      <c r="CO145" s="19"/>
+      <c r="CP145" s="19"/>
+      <c r="CQ145" s="19"/>
+      <c r="CR145" s="19"/>
     </row>
-    <row r="146" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL146" s="14"/>
+      <c r="CM146" s="14"/>
+      <c r="CN146" s="14"/>
+      <c r="CO146" s="14"/>
+      <c r="CP146" s="14"/>
+      <c r="CQ146" s="14"/>
+      <c r="CR146" s="14"/>
     </row>
-    <row r="147" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL149" s="14"/>
+      <c r="CM149" s="14"/>
+      <c r="CN149" s="14"/>
+      <c r="CO149" s="14"/>
+      <c r="CP149" s="14"/>
+      <c r="CQ149" s="14"/>
+      <c r="CR149" s="14"/>
     </row>
-    <row r="150" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="CL150" s="14"/>
+      <c r="CM150" s="14"/>
+      <c r="CN150" s="14"/>
+      <c r="CO150" s="14"/>
+      <c r="CP150" s="14"/>
+      <c r="CQ150" s="14"/>
+      <c r="CR150" s="14"/>
     </row>
-    <row r="151" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL151" s="14"/>
+      <c r="CM151" s="14"/>
+      <c r="CN151" s="14"/>
+      <c r="CO151" s="14"/>
+      <c r="CP151" s="14"/>
+      <c r="CQ151" s="14"/>
+      <c r="CR151" s="14"/>
+    </row>
+    <row r="152" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="CL152" s="14"/>
+      <c r="CM152" s="14"/>
+      <c r="CN152" s="14"/>
+      <c r="CO152" s="14"/>
+      <c r="CP152" s="14"/>
+      <c r="CQ152" s="14"/>
+      <c r="CR152" s="14"/>
     </row>
-    <row r="153" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="CL153" s="14"/>
+      <c r="CM153" s="14"/>
+      <c r="CN153" s="14"/>
+      <c r="CO153" s="14"/>
+      <c r="CP153" s="14"/>
+      <c r="CQ153" s="14"/>
+      <c r="CR153" s="14"/>
     </row>
-    <row r="154" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="CL154" s="14"/>
+      <c r="CM154" s="14"/>
+      <c r="CN154" s="14"/>
+      <c r="CO154" s="14"/>
+      <c r="CP154" s="14"/>
+      <c r="CQ154" s="14"/>
+      <c r="CR154" s="14"/>
     </row>
-    <row r="155" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL155" s="14"/>
+      <c r="CM155" s="14"/>
+      <c r="CN155" s="14"/>
+      <c r="CO155" s="14"/>
+      <c r="CP155" s="14"/>
+      <c r="CQ155" s="14"/>
+      <c r="CR155" s="14"/>
+    </row>
+    <row r="156" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="13">
+      <c r="B156" s="22">
         <v>2000</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13">
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22">
         <v>2001</v>
       </c>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="13">
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="22"/>
+      <c r="J156" s="22">
         <v>2002</v>
       </c>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13">
+      <c r="K156" s="22"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="22">
         <v>2003</v>
       </c>
-      <c r="O156" s="13"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="13"/>
-      <c r="R156" s="13">
+      <c r="O156" s="22"/>
+      <c r="P156" s="22"/>
+      <c r="Q156" s="22"/>
+      <c r="R156" s="22">
         <v>2004</v>
       </c>
-      <c r="S156" s="13"/>
-      <c r="T156" s="13"/>
-      <c r="U156" s="13"/>
-      <c r="V156" s="13">
+      <c r="S156" s="22"/>
+      <c r="T156" s="22"/>
+      <c r="U156" s="22"/>
+      <c r="V156" s="22">
         <v>2005</v>
       </c>
-      <c r="W156" s="13"/>
-      <c r="X156" s="13"/>
-      <c r="Y156" s="13"/>
-      <c r="Z156" s="13">
+      <c r="W156" s="22"/>
+      <c r="X156" s="22"/>
+      <c r="Y156" s="22"/>
+      <c r="Z156" s="22">
         <v>2006</v>
       </c>
-      <c r="AA156" s="13"/>
-      <c r="AB156" s="13"/>
-      <c r="AC156" s="13"/>
-      <c r="AD156" s="13">
+      <c r="AA156" s="22"/>
+      <c r="AB156" s="22"/>
+      <c r="AC156" s="22"/>
+      <c r="AD156" s="22">
         <v>2007</v>
       </c>
-      <c r="AE156" s="13"/>
-      <c r="AF156" s="13"/>
-      <c r="AG156" s="13"/>
-      <c r="AH156" s="13">
+      <c r="AE156" s="22"/>
+      <c r="AF156" s="22"/>
+      <c r="AG156" s="22"/>
+      <c r="AH156" s="22">
         <v>2008</v>
       </c>
-      <c r="AI156" s="13"/>
-      <c r="AJ156" s="13"/>
-      <c r="AK156" s="13"/>
-      <c r="AL156" s="13">
+      <c r="AI156" s="22"/>
+      <c r="AJ156" s="22"/>
+      <c r="AK156" s="22"/>
+      <c r="AL156" s="22">
         <v>2009</v>
       </c>
-      <c r="AM156" s="13"/>
-      <c r="AN156" s="13"/>
-      <c r="AO156" s="13"/>
-      <c r="AP156" s="13">
+      <c r="AM156" s="22"/>
+      <c r="AN156" s="22"/>
+      <c r="AO156" s="22"/>
+      <c r="AP156" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ156" s="13"/>
-      <c r="AR156" s="13"/>
-      <c r="AS156" s="13"/>
-      <c r="AT156" s="13">
+      <c r="AQ156" s="22"/>
+      <c r="AR156" s="22"/>
+      <c r="AS156" s="22"/>
+      <c r="AT156" s="22">
         <v>2011</v>
       </c>
-      <c r="AU156" s="13"/>
-      <c r="AV156" s="13"/>
-      <c r="AW156" s="13"/>
-      <c r="AX156" s="13">
+      <c r="AU156" s="22"/>
+      <c r="AV156" s="22"/>
+      <c r="AW156" s="22"/>
+      <c r="AX156" s="22">
         <v>2012</v>
       </c>
-      <c r="AY156" s="13"/>
-      <c r="AZ156" s="13"/>
-      <c r="BA156" s="13"/>
-      <c r="BB156" s="13">
+      <c r="AY156" s="22"/>
+      <c r="AZ156" s="22"/>
+      <c r="BA156" s="22"/>
+      <c r="BB156" s="22">
         <v>2013</v>
       </c>
-      <c r="BC156" s="13"/>
-      <c r="BD156" s="13"/>
-      <c r="BE156" s="13"/>
-      <c r="BF156" s="13">
+      <c r="BC156" s="22"/>
+      <c r="BD156" s="22"/>
+      <c r="BE156" s="22"/>
+      <c r="BF156" s="22">
         <v>2014</v>
       </c>
-      <c r="BG156" s="13"/>
-      <c r="BH156" s="13"/>
-      <c r="BI156" s="13"/>
-      <c r="BJ156" s="13">
+      <c r="BG156" s="22"/>
+      <c r="BH156" s="22"/>
+      <c r="BI156" s="22"/>
+      <c r="BJ156" s="22">
         <v>2015</v>
       </c>
-      <c r="BK156" s="13"/>
-      <c r="BL156" s="13"/>
-      <c r="BM156" s="13"/>
-      <c r="BN156" s="13">
+      <c r="BK156" s="22"/>
+      <c r="BL156" s="22"/>
+      <c r="BM156" s="22"/>
+      <c r="BN156" s="22">
         <v>2016</v>
       </c>
-      <c r="BO156" s="13"/>
-      <c r="BP156" s="13"/>
-      <c r="BQ156" s="13"/>
-      <c r="BR156" s="13">
+      <c r="BO156" s="22"/>
+      <c r="BP156" s="22"/>
+      <c r="BQ156" s="22"/>
+      <c r="BR156" s="22">
         <v>2017</v>
       </c>
-      <c r="BS156" s="13"/>
-      <c r="BT156" s="13"/>
-      <c r="BU156" s="13"/>
-      <c r="BV156" s="13">
+      <c r="BS156" s="22"/>
+      <c r="BT156" s="22"/>
+      <c r="BU156" s="22"/>
+      <c r="BV156" s="22">
         <v>2018</v>
       </c>
-      <c r="BW156" s="13"/>
-      <c r="BX156" s="13"/>
-      <c r="BY156" s="13"/>
-      <c r="BZ156" s="13">
+      <c r="BW156" s="22"/>
+      <c r="BX156" s="22"/>
+      <c r="BY156" s="22"/>
+      <c r="BZ156" s="22">
         <v>2019</v>
       </c>
-      <c r="CA156" s="13"/>
-      <c r="CB156" s="13"/>
-      <c r="CC156" s="13"/>
-      <c r="CD156" s="13">
+      <c r="CA156" s="22"/>
+      <c r="CB156" s="22"/>
+      <c r="CC156" s="22"/>
+      <c r="CD156" s="22">
         <v>2020</v>
       </c>
-      <c r="CE156" s="13"/>
-      <c r="CF156" s="13"/>
-      <c r="CG156" s="13"/>
-      <c r="CH156" s="13">
+      <c r="CE156" s="22"/>
+      <c r="CF156" s="22"/>
+      <c r="CG156" s="22"/>
+      <c r="CH156" s="22">
         <v>2021</v>
       </c>
-      <c r="CI156" s="13"/>
-      <c r="CJ156" s="13"/>
-      <c r="CK156" s="13"/>
-      <c r="CL156" s="13">
+      <c r="CI156" s="22"/>
+      <c r="CJ156" s="22"/>
+      <c r="CK156" s="22"/>
+      <c r="CL156" s="23">
         <v>2022</v>
       </c>
-      <c r="CM156" s="13"/>
-      <c r="CN156" s="13"/>
-      <c r="CO156" s="13"/>
-      <c r="CP156" s="13">
+      <c r="CM156" s="23"/>
+      <c r="CN156" s="23"/>
+      <c r="CO156" s="23"/>
+      <c r="CP156" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ156" s="14"/>
+      <c r="CQ156" s="23"/>
+      <c r="CR156" s="23"/>
     </row>
-    <row r="157" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -50119,29 +50745,39 @@
       <c r="CK157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL157" s="4" t="s">
+      <c r="CL157" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM157" s="4" t="s">
+      <c r="CM157" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN157" s="4" t="s">
+      <c r="CN157" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="CO157" s="4" t="s">
+      <c r="CO157" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="CP157" s="4" t="s">
+      <c r="CP157" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CQ157" s="4" t="s">
+      <c r="CQ157" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="CR157" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="158" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
+      <c r="CL158" s="14"/>
+      <c r="CM158" s="14"/>
+      <c r="CN158" s="14"/>
+      <c r="CO158" s="14"/>
+      <c r="CP158" s="14"/>
+      <c r="CQ158" s="14"/>
+      <c r="CR158" s="14"/>
     </row>
-    <row r="159" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -50409,26 +51045,29 @@
       <c r="CK159" s="11">
         <v>93.508475912110981</v>
       </c>
-      <c r="CL159" s="11">
+      <c r="CL159" s="21">
         <v>96.91462012291791</v>
       </c>
-      <c r="CM159" s="11">
+      <c r="CM159" s="21">
         <v>91.249804091315511</v>
       </c>
-      <c r="CN159" s="11">
+      <c r="CN159" s="21">
         <v>84.166032863989074</v>
       </c>
-      <c r="CO159" s="11">
+      <c r="CO159" s="21">
         <v>100.56783238712144</v>
       </c>
-      <c r="CP159" s="11">
+      <c r="CP159" s="21">
         <v>98.700030882004981</v>
       </c>
-      <c r="CQ159" s="11">
+      <c r="CQ159" s="21">
         <v>98.540770718960474</v>
       </c>
+      <c r="CR159" s="21">
+        <v>99.651778705169036</v>
+      </c>
     </row>
-    <row r="160" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -50696,26 +51335,29 @@
       <c r="CK160" s="11">
         <v>112.42038281965048</v>
       </c>
-      <c r="CL160" s="11">
+      <c r="CL160" s="21">
         <v>116.48761590246943</v>
       </c>
-      <c r="CM160" s="11">
+      <c r="CM160" s="21">
         <v>114.27373461737471</v>
       </c>
-      <c r="CN160" s="11">
+      <c r="CN160" s="21">
         <v>118.07483007597521</v>
       </c>
-      <c r="CO160" s="11">
+      <c r="CO160" s="21">
         <v>133.23735029254144</v>
       </c>
-      <c r="CP160" s="11">
+      <c r="CP160" s="21">
         <v>142.33193548241709</v>
       </c>
-      <c r="CQ160" s="11">
+      <c r="CQ160" s="21">
         <v>124.9119771422922</v>
       </c>
+      <c r="CR160" s="21">
+        <v>126.11854795410883</v>
+      </c>
     </row>
-    <row r="161" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -50983,26 +51625,29 @@
       <c r="CK161" s="11">
         <v>85.575649563318734</v>
       </c>
-      <c r="CL161" s="11">
+      <c r="CL161" s="21">
         <v>86.345794487154976</v>
       </c>
-      <c r="CM161" s="11">
+      <c r="CM161" s="21">
         <v>138.35544094285771</v>
       </c>
-      <c r="CN161" s="11">
+      <c r="CN161" s="21">
         <v>169.85500019157971</v>
       </c>
-      <c r="CO161" s="11">
+      <c r="CO161" s="21">
         <v>86.842260490065811</v>
       </c>
-      <c r="CP161" s="11">
+      <c r="CP161" s="21">
         <v>75.435445177021961</v>
       </c>
-      <c r="CQ161" s="11">
+      <c r="CQ161" s="21">
         <v>119.6366978787935</v>
       </c>
+      <c r="CR161" s="21">
+        <v>163.03277194245882</v>
+      </c>
     </row>
-    <row r="162" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -51270,26 +51915,29 @@
       <c r="CK162" s="11">
         <v>130.24193745815339</v>
       </c>
-      <c r="CL162" s="11">
+      <c r="CL162" s="21">
         <v>85.256293773044789</v>
       </c>
-      <c r="CM162" s="11">
+      <c r="CM162" s="21">
         <v>78.282590447997961</v>
       </c>
-      <c r="CN162" s="11">
+      <c r="CN162" s="21">
         <v>342.96223912087396</v>
       </c>
-      <c r="CO162" s="11">
+      <c r="CO162" s="21">
         <v>249.7539872412346</v>
       </c>
-      <c r="CP162" s="11">
+      <c r="CP162" s="21">
         <v>145.40257032935455</v>
       </c>
-      <c r="CQ162" s="11">
+      <c r="CQ162" s="21">
         <v>111.73466091413064</v>
       </c>
+      <c r="CR162" s="21">
+        <v>320.63053182295323</v>
+      </c>
     </row>
-    <row r="163" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -51557,26 +52205,29 @@
       <c r="CK163" s="11">
         <v>127.13075375552197</v>
       </c>
-      <c r="CL163" s="11">
+      <c r="CL163" s="21">
         <v>115.44681378265848</v>
       </c>
-      <c r="CM163" s="11">
+      <c r="CM163" s="21">
         <v>100.26407681837881</v>
       </c>
-      <c r="CN163" s="11">
+      <c r="CN163" s="21">
         <v>95.227918634738955</v>
       </c>
-      <c r="CO163" s="11">
+      <c r="CO163" s="21">
         <v>104.79177219310614</v>
       </c>
-      <c r="CP163" s="11">
+      <c r="CP163" s="21">
         <v>113.69195947778216</v>
       </c>
-      <c r="CQ163" s="11">
+      <c r="CQ163" s="21">
         <v>110.39342783673179</v>
       </c>
+      <c r="CR163" s="21">
+        <v>111.43413730475483</v>
+      </c>
     </row>
-    <row r="164" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -51844,26 +52495,29 @@
       <c r="CK164" s="11">
         <v>106.38609549126849</v>
       </c>
-      <c r="CL164" s="11">
+      <c r="CL164" s="21">
         <v>96.30140390069208</v>
       </c>
-      <c r="CM164" s="11">
+      <c r="CM164" s="21">
         <v>111.688300085706</v>
       </c>
-      <c r="CN164" s="11">
+      <c r="CN164" s="21">
         <v>116.45572375648744</v>
       </c>
-      <c r="CO164" s="11">
+      <c r="CO164" s="21">
         <v>131.29527970664617</v>
       </c>
-      <c r="CP164" s="11">
+      <c r="CP164" s="21">
         <v>110.16983236501309</v>
       </c>
-      <c r="CQ164" s="11">
+      <c r="CQ164" s="21">
         <v>116.70927471245835</v>
       </c>
+      <c r="CR164" s="21">
+        <v>127.13451978433392</v>
+      </c>
     </row>
-    <row r="165" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -52131,26 +52785,29 @@
       <c r="CK165" s="11">
         <v>87.053363136280538</v>
       </c>
-      <c r="CL165" s="11">
+      <c r="CL165" s="21">
         <v>96.80229949700238</v>
       </c>
-      <c r="CM165" s="11">
+      <c r="CM165" s="21">
         <v>67.293238780528782</v>
       </c>
-      <c r="CN165" s="11">
+      <c r="CN165" s="21">
         <v>132.06207587793227</v>
       </c>
-      <c r="CO165" s="11">
+      <c r="CO165" s="21">
         <v>107.66340816842165</v>
       </c>
-      <c r="CP165" s="11">
+      <c r="CP165" s="21">
         <v>95.977652306530331</v>
       </c>
-      <c r="CQ165" s="11">
+      <c r="CQ165" s="21">
         <v>78.777479194637991</v>
       </c>
+      <c r="CR165" s="21">
+        <v>152.02201641941991</v>
+      </c>
     </row>
-    <row r="166" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -52418,26 +53075,29 @@
       <c r="CK166" s="11">
         <v>113.9767516049917</v>
       </c>
-      <c r="CL166" s="11">
+      <c r="CL166" s="21">
         <v>84.972249285207511</v>
       </c>
-      <c r="CM166" s="11">
+      <c r="CM166" s="21">
         <v>142.68836584229675</v>
       </c>
-      <c r="CN166" s="11">
+      <c r="CN166" s="21">
         <v>98.872552100295678</v>
       </c>
-      <c r="CO166" s="11">
+      <c r="CO166" s="21">
         <v>128.61818386627763</v>
       </c>
-      <c r="CP166" s="11">
+      <c r="CP166" s="21">
         <v>82.948627909358365</v>
       </c>
-      <c r="CQ166" s="11">
+      <c r="CQ166" s="21">
         <v>116.27336869946274</v>
       </c>
+      <c r="CR166" s="21">
+        <v>97.221066204438401</v>
+      </c>
     </row>
-    <row r="167" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -52705,26 +53365,29 @@
       <c r="CK167" s="11">
         <v>132.28286280999393</v>
       </c>
-      <c r="CL167" s="11">
+      <c r="CL167" s="21">
         <v>95.088472257642394</v>
       </c>
-      <c r="CM167" s="11">
+      <c r="CM167" s="21">
         <v>95.121780653887086</v>
       </c>
-      <c r="CN167" s="11">
+      <c r="CN167" s="21">
         <v>154.6949205520753</v>
       </c>
-      <c r="CO167" s="11">
+      <c r="CO167" s="21">
         <v>144.42748956708922</v>
       </c>
-      <c r="CP167" s="11">
+      <c r="CP167" s="21">
         <v>111.22801650405492</v>
       </c>
-      <c r="CQ167" s="11">
+      <c r="CQ167" s="21">
         <v>112.00775504870342</v>
       </c>
+      <c r="CR167" s="21">
+        <v>181.64481792004264</v>
+      </c>
     </row>
-    <row r="168" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -52992,26 +53655,29 @@
       <c r="CK168" s="11">
         <v>112.58528943246635</v>
       </c>
-      <c r="CL168" s="11">
+      <c r="CL168" s="21">
         <v>149.71224611712287</v>
       </c>
-      <c r="CM168" s="11">
+      <c r="CM168" s="21">
         <v>102.54471021675218</v>
       </c>
-      <c r="CN168" s="11">
+      <c r="CN168" s="21">
         <v>105.9696254178089</v>
       </c>
-      <c r="CO168" s="11">
+      <c r="CO168" s="21">
         <v>100.36642472703818</v>
       </c>
-      <c r="CP168" s="11">
+      <c r="CP168" s="21">
         <v>129.31663746103504</v>
       </c>
-      <c r="CQ168" s="11">
+      <c r="CQ168" s="21">
         <v>87.372302654396407</v>
       </c>
+      <c r="CR168" s="21">
+        <v>101.15504871423624</v>
+      </c>
     </row>
-    <row r="169" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -53279,26 +53945,29 @@
       <c r="CK169" s="11">
         <v>88.387728810821798</v>
       </c>
-      <c r="CL169" s="11">
+      <c r="CL169" s="21">
         <v>71.232118838415204</v>
       </c>
-      <c r="CM169" s="11">
+      <c r="CM169" s="21">
         <v>55.40140822894498</v>
       </c>
-      <c r="CN169" s="11">
+      <c r="CN169" s="21">
         <v>115.39683787202594</v>
       </c>
-      <c r="CO169" s="11">
+      <c r="CO169" s="21">
         <v>102.13499202630818</v>
       </c>
-      <c r="CP169" s="11">
+      <c r="CP169" s="21">
         <v>81.479665889429214</v>
       </c>
-      <c r="CQ169" s="11">
+      <c r="CQ169" s="21">
         <v>72.679946728422991</v>
       </c>
+      <c r="CR169" s="21">
+        <v>138.73741864596238</v>
+      </c>
     </row>
-    <row r="170" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -53566,26 +54235,29 @@
       <c r="CK170" s="11">
         <v>112.39245898829793</v>
       </c>
-      <c r="CL170" s="11">
+      <c r="CL170" s="21">
         <v>85.257860065424808</v>
       </c>
-      <c r="CM170" s="11">
+      <c r="CM170" s="21">
         <v>60.25517120150645</v>
       </c>
-      <c r="CN170" s="11">
+      <c r="CN170" s="21">
         <v>139.18033193760283</v>
       </c>
-      <c r="CO170" s="11">
+      <c r="CO170" s="21">
         <v>114.61111970560565</v>
       </c>
-      <c r="CP170" s="11">
+      <c r="CP170" s="21">
         <v>77.431527062971725</v>
       </c>
-      <c r="CQ170" s="11">
+      <c r="CQ170" s="21">
         <v>54.279146916698295</v>
       </c>
+      <c r="CR170" s="21">
+        <v>124.90152270399231</v>
+      </c>
     </row>
-    <row r="171" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -53853,26 +54525,29 @@
       <c r="CK171" s="11">
         <v>88.134624587534333</v>
       </c>
-      <c r="CL171" s="11">
+      <c r="CL171" s="21">
         <v>64.241690265595182</v>
       </c>
-      <c r="CM171" s="11">
+      <c r="CM171" s="21">
         <v>40.7406655630123</v>
       </c>
-      <c r="CN171" s="11">
+      <c r="CN171" s="21">
         <v>150.25865216989723</v>
       </c>
-      <c r="CO171" s="11">
+      <c r="CO171" s="21">
         <v>84.57084618519805</v>
       </c>
-      <c r="CP171" s="11">
+      <c r="CP171" s="21">
         <v>63.804519736449073</v>
       </c>
-      <c r="CQ171" s="11">
+      <c r="CQ171" s="21">
         <v>54.202902921944464</v>
       </c>
+      <c r="CR171" s="21">
+        <v>217.094260030416</v>
+      </c>
     </row>
-    <row r="172" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -54140,26 +54815,29 @@
       <c r="CK172" s="11">
         <v>112.75519002331902</v>
       </c>
-      <c r="CL172" s="11">
+      <c r="CL172" s="21">
         <v>101.71192148539778</v>
       </c>
-      <c r="CM172" s="11">
+      <c r="CM172" s="21">
         <v>78.8376513108675</v>
       </c>
-      <c r="CN172" s="11">
+      <c r="CN172" s="21">
         <v>146.09928053966718</v>
       </c>
-      <c r="CO172" s="11">
+      <c r="CO172" s="21">
         <v>129.29170775619843</v>
       </c>
-      <c r="CP172" s="11">
+      <c r="CP172" s="21">
         <v>142.18209853732225</v>
       </c>
-      <c r="CQ172" s="11">
+      <c r="CQ172" s="21">
         <v>90.182180740004497</v>
       </c>
+      <c r="CR172" s="21">
+        <v>169.08466647917311</v>
+      </c>
     </row>
-    <row r="173" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -54427,26 +55105,29 @@
       <c r="CK173" s="11">
         <v>157.90963923175531</v>
       </c>
-      <c r="CL173" s="11">
+      <c r="CL173" s="21">
         <v>149.70002576320661</v>
       </c>
-      <c r="CM173" s="11">
+      <c r="CM173" s="21">
         <v>170.45210514201133</v>
       </c>
-      <c r="CN173" s="11">
+      <c r="CN173" s="21">
         <v>167.59712846432353</v>
       </c>
-      <c r="CO173" s="11">
+      <c r="CO173" s="21">
         <v>166.74874753350863</v>
       </c>
-      <c r="CP173" s="11">
+      <c r="CP173" s="21">
         <v>148.430825637086</v>
       </c>
-      <c r="CQ173" s="11">
+      <c r="CQ173" s="21">
         <v>162.11299239268288</v>
       </c>
+      <c r="CR173" s="21">
+        <v>158.8039460921151</v>
+      </c>
     </row>
-    <row r="174" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -54714,26 +55395,29 @@
       <c r="CK174" s="11">
         <v>106.58149701015273</v>
       </c>
-      <c r="CL174" s="11">
+      <c r="CL174" s="21">
         <v>143.51421296297423</v>
       </c>
-      <c r="CM174" s="11">
+      <c r="CM174" s="21">
         <v>110.77995781938968</v>
       </c>
-      <c r="CN174" s="11">
+      <c r="CN174" s="21">
         <v>123.89214229630045</v>
       </c>
-      <c r="CO174" s="11">
+      <c r="CO174" s="21">
         <v>124.66300284180976</v>
       </c>
-      <c r="CP174" s="11">
+      <c r="CP174" s="21">
         <v>164.54402142008152</v>
       </c>
-      <c r="CQ174" s="11">
+      <c r="CQ174" s="21">
         <v>119.61690329955267</v>
       </c>
+      <c r="CR174" s="21">
+        <v>120.81937873409687</v>
+      </c>
     </row>
-    <row r="175" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -55001,26 +55685,29 @@
       <c r="CK175" s="11">
         <v>104.95420091424201</v>
       </c>
-      <c r="CL175" s="11">
+      <c r="CL175" s="21">
         <v>106.96039683621908</v>
       </c>
-      <c r="CM175" s="11">
+      <c r="CM175" s="21">
         <v>88.919034501513394</v>
       </c>
-      <c r="CN175" s="11">
+      <c r="CN175" s="21">
         <v>101.46451947025396</v>
       </c>
-      <c r="CO175" s="11">
+      <c r="CO175" s="21">
         <v>116.43679225578236</v>
       </c>
-      <c r="CP175" s="11">
+      <c r="CP175" s="21">
         <v>114.46901669412171</v>
       </c>
-      <c r="CQ175" s="11">
+      <c r="CQ175" s="21">
         <v>83.030444541309649</v>
       </c>
+      <c r="CR175" s="21">
+        <v>97.493865494194864</v>
+      </c>
     </row>
-    <row r="176" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -55288,26 +55975,29 @@
       <c r="CK176" s="11">
         <v>43.019600753562941</v>
       </c>
-      <c r="CL176" s="11">
+      <c r="CL176" s="21">
         <v>50.766659291685471</v>
       </c>
-      <c r="CM176" s="11">
+      <c r="CM176" s="21">
         <v>41.529860855094967</v>
       </c>
-      <c r="CN176" s="11">
+      <c r="CN176" s="21">
         <v>41.639337093175165</v>
       </c>
-      <c r="CO176" s="11">
+      <c r="CO176" s="21">
         <v>44.02927659890851</v>
       </c>
-      <c r="CP176" s="11">
+      <c r="CP176" s="21">
         <v>39.447812286678023</v>
       </c>
-      <c r="CQ176" s="11">
-        <v>36.546167423456893</v>
+      <c r="CQ176" s="21">
+        <v>36.603858782649645</v>
+      </c>
+      <c r="CR176" s="21">
+        <v>41.102427055741899</v>
       </c>
     </row>
-    <row r="177" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -55575,26 +56265,29 @@
       <c r="CK177" s="11">
         <v>96.692081784944705</v>
       </c>
-      <c r="CL177" s="11">
+      <c r="CL177" s="21">
         <v>126.44937918590674</v>
       </c>
-      <c r="CM177" s="11">
+      <c r="CM177" s="21">
         <v>133.25635413023804</v>
       </c>
-      <c r="CN177" s="11">
+      <c r="CN177" s="21">
         <v>135.57981316954169</v>
       </c>
-      <c r="CO177" s="11">
+      <c r="CO177" s="21">
         <v>110.50488825199254</v>
       </c>
-      <c r="CP177" s="11">
+      <c r="CP177" s="21">
         <v>157.65929243744111</v>
       </c>
-      <c r="CQ177" s="11">
-        <v>139.84714491373308</v>
+      <c r="CQ177" s="21">
+        <v>140.20172132730531</v>
+      </c>
+      <c r="CR177" s="21">
+        <v>140.95121901896167</v>
       </c>
     </row>
-    <row r="178" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -55862,27 +56555,30 @@
       <c r="CK178" s="11">
         <v>130.21329535318404</v>
       </c>
-      <c r="CL178" s="11">
+      <c r="CL178" s="21">
         <v>119.47974928179744</v>
       </c>
-      <c r="CM178" s="11">
+      <c r="CM178" s="21">
         <v>138.10486328172698</v>
       </c>
-      <c r="CN178" s="11">
+      <c r="CN178" s="21">
         <v>90.819850045424431</v>
       </c>
-      <c r="CO178" s="11">
+      <c r="CO178" s="21">
         <v>143.50942391363682</v>
       </c>
-      <c r="CP178" s="11">
+      <c r="CP178" s="21">
         <v>131.1114983511645</v>
       </c>
-      <c r="CQ178" s="11">
+      <c r="CQ178" s="21">
         <v>147.72528834042768</v>
       </c>
+      <c r="CR178" s="21">
+        <v>94.692624549705812</v>
+      </c>
     </row>
-    <row r="179" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -56150,26 +56846,29 @@
       <c r="CK180" s="11">
         <v>110.08096954025271</v>
       </c>
-      <c r="CL180" s="11">
+      <c r="CL180" s="21">
         <v>114.9729942968812</v>
       </c>
-      <c r="CM180" s="11">
+      <c r="CM180" s="21">
         <v>115.26337621955187</v>
       </c>
-      <c r="CN180" s="11">
+      <c r="CN180" s="21">
         <v>119.21485577285237</v>
       </c>
-      <c r="CO180" s="11">
+      <c r="CO180" s="21">
         <v>121.4840084623811</v>
       </c>
-      <c r="CP180" s="11">
+      <c r="CP180" s="21">
         <v>127.52195639237982</v>
       </c>
-      <c r="CQ180" s="11">
-        <v>120.44521996894917</v>
+      <c r="CQ180" s="21">
+        <v>120.49579000774946</v>
+      </c>
+      <c r="CR180" s="21">
+        <v>124.56936843800489</v>
       </c>
     </row>
-    <row r="181" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -56259,196 +56958,263 @@
       <c r="CI181" s="10"/>
       <c r="CJ181" s="10"/>
       <c r="CK181" s="10"/>
-      <c r="CL181" s="10"/>
-      <c r="CM181" s="10"/>
-      <c r="CN181" s="10"/>
-      <c r="CO181" s="10"/>
-      <c r="CP181" s="10"/>
-      <c r="CQ181" s="10"/>
+      <c r="CL181" s="19"/>
+      <c r="CM181" s="19"/>
+      <c r="CN181" s="19"/>
+      <c r="CO181" s="19"/>
+      <c r="CP181" s="19"/>
+      <c r="CQ181" s="19"/>
+      <c r="CR181" s="19"/>
     </row>
-    <row r="182" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL182" s="14"/>
+      <c r="CM182" s="14"/>
+      <c r="CN182" s="14"/>
+      <c r="CO182" s="14"/>
+      <c r="CP182" s="14"/>
+      <c r="CQ182" s="14"/>
+      <c r="CR182" s="14"/>
     </row>
-    <row r="185" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL185" s="14"/>
+      <c r="CM185" s="14"/>
+      <c r="CN185" s="14"/>
+      <c r="CO185" s="14"/>
+      <c r="CP185" s="14"/>
+      <c r="CQ185" s="14"/>
+      <c r="CR185" s="14"/>
     </row>
-    <row r="186" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CL186" s="14"/>
+      <c r="CM186" s="14"/>
+      <c r="CN186" s="14"/>
+      <c r="CO186" s="14"/>
+      <c r="CP186" s="14"/>
+      <c r="CQ186" s="14"/>
+      <c r="CR186" s="14"/>
     </row>
-    <row r="187" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="CL187" s="14"/>
+      <c r="CM187" s="14"/>
+      <c r="CN187" s="14"/>
+      <c r="CO187" s="14"/>
+      <c r="CP187" s="14"/>
+      <c r="CQ187" s="14"/>
+      <c r="CR187" s="14"/>
     </row>
-    <row r="188" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL188" s="14"/>
+      <c r="CM188" s="14"/>
+      <c r="CN188" s="14"/>
+      <c r="CO188" s="14"/>
+      <c r="CP188" s="14"/>
+      <c r="CQ188" s="14"/>
+      <c r="CR188" s="14"/>
+    </row>
+    <row r="189" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="CL189" s="14"/>
+      <c r="CM189" s="14"/>
+      <c r="CN189" s="14"/>
+      <c r="CO189" s="14"/>
+      <c r="CP189" s="14"/>
+      <c r="CQ189" s="14"/>
+      <c r="CR189" s="14"/>
     </row>
-    <row r="190" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="CL190" s="14"/>
+      <c r="CM190" s="14"/>
+      <c r="CN190" s="14"/>
+      <c r="CO190" s="14"/>
+      <c r="CP190" s="14"/>
+      <c r="CQ190" s="14"/>
+      <c r="CR190" s="14"/>
     </row>
-    <row r="191" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="CL191" s="14"/>
+      <c r="CM191" s="14"/>
+      <c r="CN191" s="14"/>
+      <c r="CO191" s="14"/>
+      <c r="CP191" s="14"/>
+      <c r="CQ191" s="14"/>
+      <c r="CR191" s="14"/>
     </row>
-    <row r="192" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL192" s="14"/>
+      <c r="CM192" s="14"/>
+      <c r="CN192" s="14"/>
+      <c r="CO192" s="14"/>
+      <c r="CP192" s="14"/>
+      <c r="CQ192" s="14"/>
+      <c r="CR192" s="14"/>
+    </row>
+    <row r="193" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="B193" s="13">
+      <c r="B193" s="22">
         <v>2000</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13">
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="E193" s="22"/>
+      <c r="F193" s="22">
         <v>2001</v>
       </c>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="13">
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="22"/>
+      <c r="J193" s="22">
         <v>2002</v>
       </c>
-      <c r="K193" s="13"/>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="13">
+      <c r="K193" s="22"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="22"/>
+      <c r="N193" s="22">
         <v>2003</v>
       </c>
-      <c r="O193" s="13"/>
-      <c r="P193" s="13"/>
-      <c r="Q193" s="13"/>
-      <c r="R193" s="13">
+      <c r="O193" s="22"/>
+      <c r="P193" s="22"/>
+      <c r="Q193" s="22"/>
+      <c r="R193" s="22">
         <v>2004</v>
       </c>
-      <c r="S193" s="13"/>
-      <c r="T193" s="13"/>
-      <c r="U193" s="13"/>
-      <c r="V193" s="13">
+      <c r="S193" s="22"/>
+      <c r="T193" s="22"/>
+      <c r="U193" s="22"/>
+      <c r="V193" s="22">
         <v>2005</v>
       </c>
-      <c r="W193" s="13"/>
-      <c r="X193" s="13"/>
-      <c r="Y193" s="13"/>
-      <c r="Z193" s="13">
+      <c r="W193" s="22"/>
+      <c r="X193" s="22"/>
+      <c r="Y193" s="22"/>
+      <c r="Z193" s="22">
         <v>2006</v>
       </c>
-      <c r="AA193" s="13"/>
-      <c r="AB193" s="13"/>
-      <c r="AC193" s="13"/>
-      <c r="AD193" s="13">
+      <c r="AA193" s="22"/>
+      <c r="AB193" s="22"/>
+      <c r="AC193" s="22"/>
+      <c r="AD193" s="22">
         <v>2007</v>
       </c>
-      <c r="AE193" s="13"/>
-      <c r="AF193" s="13"/>
-      <c r="AG193" s="13"/>
-      <c r="AH193" s="13">
+      <c r="AE193" s="22"/>
+      <c r="AF193" s="22"/>
+      <c r="AG193" s="22"/>
+      <c r="AH193" s="22">
         <v>2008</v>
       </c>
-      <c r="AI193" s="13"/>
-      <c r="AJ193" s="13"/>
-      <c r="AK193" s="13"/>
-      <c r="AL193" s="13">
+      <c r="AI193" s="22"/>
+      <c r="AJ193" s="22"/>
+      <c r="AK193" s="22"/>
+      <c r="AL193" s="22">
         <v>2009</v>
       </c>
-      <c r="AM193" s="13"/>
-      <c r="AN193" s="13"/>
-      <c r="AO193" s="13"/>
-      <c r="AP193" s="13">
+      <c r="AM193" s="22"/>
+      <c r="AN193" s="22"/>
+      <c r="AO193" s="22"/>
+      <c r="AP193" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ193" s="13"/>
-      <c r="AR193" s="13"/>
-      <c r="AS193" s="13"/>
-      <c r="AT193" s="13">
+      <c r="AQ193" s="22"/>
+      <c r="AR193" s="22"/>
+      <c r="AS193" s="22"/>
+      <c r="AT193" s="22">
         <v>2011</v>
       </c>
-      <c r="AU193" s="13"/>
-      <c r="AV193" s="13"/>
-      <c r="AW193" s="13"/>
-      <c r="AX193" s="13">
+      <c r="AU193" s="22"/>
+      <c r="AV193" s="22"/>
+      <c r="AW193" s="22"/>
+      <c r="AX193" s="22">
         <v>2012</v>
       </c>
-      <c r="AY193" s="13"/>
-      <c r="AZ193" s="13"/>
-      <c r="BA193" s="13"/>
-      <c r="BB193" s="13">
+      <c r="AY193" s="22"/>
+      <c r="AZ193" s="22"/>
+      <c r="BA193" s="22"/>
+      <c r="BB193" s="22">
         <v>2013</v>
       </c>
-      <c r="BC193" s="13"/>
-      <c r="BD193" s="13"/>
-      <c r="BE193" s="13"/>
-      <c r="BF193" s="13">
+      <c r="BC193" s="22"/>
+      <c r="BD193" s="22"/>
+      <c r="BE193" s="22"/>
+      <c r="BF193" s="22">
         <v>2014</v>
       </c>
-      <c r="BG193" s="13"/>
-      <c r="BH193" s="13"/>
-      <c r="BI193" s="13"/>
-      <c r="BJ193" s="13">
+      <c r="BG193" s="22"/>
+      <c r="BH193" s="22"/>
+      <c r="BI193" s="22"/>
+      <c r="BJ193" s="22">
         <v>2015</v>
       </c>
-      <c r="BK193" s="13"/>
-      <c r="BL193" s="13"/>
-      <c r="BM193" s="13"/>
-      <c r="BN193" s="13">
+      <c r="BK193" s="22"/>
+      <c r="BL193" s="22"/>
+      <c r="BM193" s="22"/>
+      <c r="BN193" s="22">
         <v>2016</v>
       </c>
-      <c r="BO193" s="13"/>
-      <c r="BP193" s="13"/>
-      <c r="BQ193" s="13"/>
-      <c r="BR193" s="13">
+      <c r="BO193" s="22"/>
+      <c r="BP193" s="22"/>
+      <c r="BQ193" s="22"/>
+      <c r="BR193" s="22">
         <v>2017</v>
       </c>
-      <c r="BS193" s="13"/>
-      <c r="BT193" s="13"/>
-      <c r="BU193" s="13"/>
-      <c r="BV193" s="13">
+      <c r="BS193" s="22"/>
+      <c r="BT193" s="22"/>
+      <c r="BU193" s="22"/>
+      <c r="BV193" s="22">
         <v>2018</v>
       </c>
-      <c r="BW193" s="13"/>
-      <c r="BX193" s="13"/>
-      <c r="BY193" s="13"/>
-      <c r="BZ193" s="13">
+      <c r="BW193" s="22"/>
+      <c r="BX193" s="22"/>
+      <c r="BY193" s="22"/>
+      <c r="BZ193" s="22">
         <v>2019</v>
       </c>
-      <c r="CA193" s="13"/>
-      <c r="CB193" s="13"/>
-      <c r="CC193" s="13"/>
-      <c r="CD193" s="13">
+      <c r="CA193" s="22"/>
+      <c r="CB193" s="22"/>
+      <c r="CC193" s="22"/>
+      <c r="CD193" s="22">
         <v>2020</v>
       </c>
-      <c r="CE193" s="13"/>
-      <c r="CF193" s="13"/>
-      <c r="CG193" s="13"/>
-      <c r="CH193" s="13">
+      <c r="CE193" s="22"/>
+      <c r="CF193" s="22"/>
+      <c r="CG193" s="22"/>
+      <c r="CH193" s="22">
         <v>2021</v>
       </c>
-      <c r="CI193" s="13"/>
-      <c r="CJ193" s="13"/>
-      <c r="CK193" s="13"/>
-      <c r="CL193" s="13">
+      <c r="CI193" s="22"/>
+      <c r="CJ193" s="22"/>
+      <c r="CK193" s="22"/>
+      <c r="CL193" s="23">
         <v>2022</v>
       </c>
-      <c r="CM193" s="13"/>
-      <c r="CN193" s="13"/>
-      <c r="CO193" s="13"/>
-      <c r="CP193" s="13">
+      <c r="CM193" s="23"/>
+      <c r="CN193" s="23"/>
+      <c r="CO193" s="23"/>
+      <c r="CP193" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ193" s="14"/>
+      <c r="CQ193" s="23"/>
+      <c r="CR193" s="23"/>
     </row>
-    <row r="194" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -56716,29 +57482,39 @@
       <c r="CK194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL194" s="4" t="s">
+      <c r="CL194" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM194" s="4" t="s">
+      <c r="CM194" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN194" s="4" t="s">
+      <c r="CN194" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="CO194" s="4" t="s">
+      <c r="CO194" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="CP194" s="4" t="s">
+      <c r="CP194" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CQ194" s="4" t="s">
+      <c r="CQ194" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="CR194" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="195" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
+      <c r="CL195" s="14"/>
+      <c r="CM195" s="14"/>
+      <c r="CN195" s="14"/>
+      <c r="CO195" s="14"/>
+      <c r="CP195" s="14"/>
+      <c r="CQ195" s="14"/>
+      <c r="CR195" s="14"/>
     </row>
-    <row r="196" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -57006,26 +57782,29 @@
       <c r="CK196" s="11">
         <v>22.076097459876479</v>
       </c>
-      <c r="CL196" s="11">
+      <c r="CL196" s="21">
         <v>17.640230026081397</v>
       </c>
-      <c r="CM196" s="11">
+      <c r="CM196" s="21">
         <v>15.46763988635983</v>
       </c>
-      <c r="CN196" s="11">
+      <c r="CN196" s="21">
         <v>12.449303571396273</v>
       </c>
-      <c r="CO196" s="11">
+      <c r="CO196" s="21">
         <v>21.051495119600339</v>
       </c>
-      <c r="CP196" s="11">
+      <c r="CP196" s="21">
         <v>16.550334674072161</v>
       </c>
-      <c r="CQ196" s="11">
-        <v>16.329586721486493</v>
+      <c r="CQ196" s="21">
+        <v>16.315244900478657</v>
+      </c>
+      <c r="CR196" s="21">
+        <v>14.007384041510521</v>
       </c>
     </row>
-    <row r="197" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -57293,26 +58072,29 @@
       <c r="CK197" s="11">
         <v>5.0398927588314608</v>
       </c>
-      <c r="CL197" s="11">
+      <c r="CL197" s="21">
         <v>7.2371291117132763</v>
       </c>
-      <c r="CM197" s="11">
+      <c r="CM197" s="21">
         <v>4.7345519246931831</v>
       </c>
-      <c r="CN197" s="11">
+      <c r="CN197" s="21">
         <v>7.3294301384347715</v>
       </c>
-      <c r="CO197" s="11">
+      <c r="CO197" s="21">
         <v>5.0517422560624654</v>
       </c>
-      <c r="CP197" s="11">
+      <c r="CP197" s="21">
         <v>8.0492181641313181</v>
       </c>
-      <c r="CQ197" s="11">
-        <v>4.9077692712797116</v>
+      <c r="CQ197" s="21">
+        <v>4.9033551072406816</v>
+      </c>
+      <c r="CR197" s="21">
+        <v>7.7950109425309275</v>
       </c>
     </row>
-    <row r="198" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -57580,26 +58362,29 @@
       <c r="CK198" s="11">
         <v>3.2770714155040279</v>
       </c>
-      <c r="CL198" s="11">
+      <c r="CL198" s="21">
         <v>4.5105034804554984</v>
       </c>
-      <c r="CM198" s="11">
+      <c r="CM198" s="21">
         <v>3.8961383406283909</v>
       </c>
-      <c r="CN198" s="11">
+      <c r="CN198" s="21">
         <v>7.6940534118237665</v>
       </c>
-      <c r="CO198" s="11">
+      <c r="CO198" s="21">
         <v>3.0642616672821825</v>
       </c>
-      <c r="CP198" s="11">
+      <c r="CP198" s="21">
         <v>3.5903975738740246</v>
       </c>
-      <c r="CQ198" s="11">
-        <v>3.2941541980589482</v>
+      <c r="CQ198" s="21">
+        <v>3.2911913576733607</v>
+      </c>
+      <c r="CR198" s="21">
+        <v>6.8992690227856421</v>
       </c>
     </row>
-    <row r="199" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -57867,26 +58652,29 @@
       <c r="CK199" s="11">
         <v>1.4529521726031689</v>
       </c>
-      <c r="CL199" s="11">
+      <c r="CL199" s="21">
         <v>2.2731418595051873</v>
       </c>
-      <c r="CM199" s="11">
+      <c r="CM199" s="21">
         <v>0.93726174699792797</v>
       </c>
-      <c r="CN199" s="11">
+      <c r="CN199" s="21">
         <v>0.66915415660504651</v>
       </c>
-      <c r="CO199" s="11">
+      <c r="CO199" s="21">
         <v>2.9380713677328165</v>
       </c>
-      <c r="CP199" s="11">
+      <c r="CP199" s="21">
         <v>2.836666830610413</v>
       </c>
-      <c r="CQ199" s="11">
-        <v>1.2009580846884009</v>
+      <c r="CQ199" s="21">
+        <v>1.199877914513972</v>
+      </c>
+      <c r="CR199" s="21">
+        <v>0.47310703610348986</v>
       </c>
     </row>
-    <row r="200" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -58154,26 +58942,29 @@
       <c r="CK200" s="11">
         <v>7.5697238935289981</v>
       </c>
-      <c r="CL200" s="11">
+      <c r="CL200" s="21">
         <v>7.0106179443084287</v>
       </c>
-      <c r="CM200" s="11">
+      <c r="CM200" s="21">
         <v>7.1227149006431771</v>
       </c>
-      <c r="CN200" s="11">
+      <c r="CN200" s="21">
         <v>6.926104751631601</v>
       </c>
-      <c r="CO200" s="11">
+      <c r="CO200" s="21">
         <v>5.622591056133464</v>
       </c>
-      <c r="CP200" s="11">
+      <c r="CP200" s="21">
         <v>6.0957858472537643</v>
       </c>
-      <c r="CQ200" s="11">
-        <v>7.5462512445922263</v>
+      <c r="CQ200" s="21">
+        <v>7.5394639673116295</v>
+      </c>
+      <c r="CR200" s="21">
+        <v>7.7009975651423286</v>
       </c>
     </row>
-    <row r="201" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -58441,26 +59232,29 @@
       <c r="CK201" s="11">
         <v>1.4003098307539354</v>
       </c>
-      <c r="CL201" s="11">
+      <c r="CL201" s="21">
         <v>1.0549180157016762</v>
       </c>
-      <c r="CM201" s="11">
+      <c r="CM201" s="21">
         <v>4.2111159811035117</v>
       </c>
-      <c r="CN201" s="11">
+      <c r="CN201" s="21">
         <v>0.54859117962408066</v>
       </c>
-      <c r="CO201" s="11">
+      <c r="CO201" s="21">
         <v>1.4760653290372179</v>
       </c>
-      <c r="CP201" s="11">
+      <c r="CP201" s="21">
         <v>1.1446777142673288</v>
       </c>
-      <c r="CQ201" s="11">
-        <v>4.6789011779995437</v>
+      <c r="CQ201" s="21">
+        <v>4.6746928633497564</v>
+      </c>
+      <c r="CR201" s="21">
+        <v>0.65382744197898879</v>
       </c>
     </row>
-    <row r="202" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -58728,26 +59522,29 @@
       <c r="CK202" s="11">
         <v>1.3315260376372888</v>
       </c>
-      <c r="CL202" s="11">
+      <c r="CL202" s="21">
         <v>1.4365403382092234</v>
       </c>
-      <c r="CM202" s="11">
+      <c r="CM202" s="21">
         <v>0.89904768371309784</v>
       </c>
-      <c r="CN202" s="11">
+      <c r="CN202" s="21">
         <v>1.7868497179000218</v>
       </c>
-      <c r="CO202" s="11">
+      <c r="CO202" s="21">
         <v>1.5811850235433897</v>
       </c>
-      <c r="CP202" s="11">
+      <c r="CP202" s="21">
         <v>1.2065081797621648</v>
       </c>
-      <c r="CQ202" s="11">
-        <v>1.042231976201389</v>
+      <c r="CQ202" s="21">
+        <v>1.0412945680521104</v>
+      </c>
+      <c r="CR202" s="21">
+        <v>2.0193252317514476</v>
       </c>
     </row>
-    <row r="203" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -59015,26 +59812,29 @@
       <c r="CK203" s="11">
         <v>0.47900453214565364</v>
       </c>
-      <c r="CL203" s="11">
+      <c r="CL203" s="21">
         <v>0.39033198484213522</v>
       </c>
-      <c r="CM203" s="11">
+      <c r="CM203" s="21">
         <v>0.15721628107813473</v>
       </c>
-      <c r="CN203" s="11">
+      <c r="CN203" s="21">
         <v>0.11770729236301997</v>
       </c>
-      <c r="CO203" s="11">
+      <c r="CO203" s="21">
         <v>0.50108970719495938</v>
       </c>
-      <c r="CP203" s="11">
+      <c r="CP203" s="21">
         <v>0.34109499313615649</v>
       </c>
-      <c r="CQ203" s="11">
-        <v>0.12549669871379127</v>
+      <c r="CQ203" s="21">
+        <v>0.12538382400761441</v>
+      </c>
+      <c r="CR203" s="21">
+        <v>0.11628243730976422</v>
       </c>
     </row>
-    <row r="204" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -59302,26 +60102,29 @@
       <c r="CK204" s="11">
         <v>1.360623488776137</v>
       </c>
-      <c r="CL204" s="11">
+      <c r="CL204" s="21">
         <v>0.6780478543585744</v>
       </c>
-      <c r="CM204" s="11">
+      <c r="CM204" s="21">
         <v>1.0784455944901543</v>
       </c>
-      <c r="CN204" s="11">
+      <c r="CN204" s="21">
         <v>1.4990108358986252</v>
       </c>
-      <c r="CO204" s="11">
+      <c r="CO204" s="21">
         <v>1.3571298574164419</v>
       </c>
-      <c r="CP204" s="11">
+      <c r="CP204" s="21">
         <v>0.73563876451097021</v>
       </c>
-      <c r="CQ204" s="11">
-        <v>1.2312016994087034</v>
+      <c r="CQ204" s="21">
+        <v>1.2300943274101608</v>
+      </c>
+      <c r="CR204" s="21">
+        <v>1.6212424515356327</v>
       </c>
     </row>
-    <row r="205" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -59589,26 +60392,29 @@
       <c r="CK205" s="11">
         <v>0.70575667147620669</v>
       </c>
-      <c r="CL205" s="11">
+      <c r="CL205" s="21">
         <v>0.26839558959573534</v>
       </c>
-      <c r="CM205" s="11">
+      <c r="CM205" s="21">
         <v>0.70053886918759456</v>
       </c>
-      <c r="CN205" s="11">
+      <c r="CN205" s="21">
         <v>0.49665251687564343</v>
       </c>
-      <c r="CO205" s="11">
+      <c r="CO205" s="21">
         <v>0.52998912814674159</v>
       </c>
-      <c r="CP205" s="11">
+      <c r="CP205" s="21">
         <v>0.19637711533318372</v>
       </c>
-      <c r="CQ205" s="11">
-        <v>0.52176805558272632</v>
+      <c r="CQ205" s="21">
+        <v>0.5212987650231341</v>
+      </c>
+      <c r="CR205" s="21">
+        <v>0.39270308161634759</v>
       </c>
     </row>
-    <row r="206" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -59876,26 +60682,29 @@
       <c r="CK206" s="11">
         <v>8.5332206814521305E-2</v>
       </c>
-      <c r="CL206" s="11">
+      <c r="CL206" s="21">
         <v>8.5886687475933546E-2</v>
       </c>
-      <c r="CM206" s="11">
+      <c r="CM206" s="21">
         <v>5.7224554783248685E-2</v>
       </c>
-      <c r="CN206" s="11">
+      <c r="CN206" s="21">
         <v>8.8019289366159964E-2</v>
       </c>
-      <c r="CO206" s="11">
+      <c r="CO206" s="21">
         <v>9.1698195464001139E-2</v>
       </c>
-      <c r="CP206" s="11">
+      <c r="CP206" s="21">
         <v>8.5223870342555769E-2</v>
       </c>
-      <c r="CQ206" s="11">
-        <v>7.4600776746690245E-2</v>
+      <c r="CQ206" s="21">
+        <v>7.4533679039402723E-2</v>
+      </c>
+      <c r="CR206" s="21">
+        <v>0.10581631044918735</v>
       </c>
     </row>
-    <row r="207" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -60163,26 +60972,29 @@
       <c r="CK207" s="11">
         <v>9.1675564226051068E-2</v>
       </c>
-      <c r="CL207" s="11">
+      <c r="CL207" s="21">
         <v>7.8163459609223745E-2</v>
       </c>
-      <c r="CM207" s="11">
+      <c r="CM207" s="21">
         <v>5.7126629041668167E-2</v>
       </c>
-      <c r="CN207" s="11">
+      <c r="CN207" s="21">
         <v>9.6099353168138141E-2</v>
       </c>
-      <c r="CO207" s="11">
+      <c r="CO207" s="21">
         <v>8.7461742617694876E-2</v>
       </c>
-      <c r="CP207" s="11">
+      <c r="CP207" s="21">
         <v>6.4869273756859094E-2</v>
       </c>
-      <c r="CQ207" s="11">
-        <v>4.8702641233603967E-2</v>
+      <c r="CQ207" s="21">
+        <v>4.8658836923406001E-2</v>
+      </c>
+      <c r="CR207" s="21">
+        <v>7.6511673519124496E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -60450,26 +61262,29 @@
       <c r="CK208" s="11">
         <v>0.13053685868927514</v>
       </c>
-      <c r="CL208" s="11">
+      <c r="CL208" s="21">
         <v>3.4868136919661105E-2</v>
       </c>
-      <c r="CM208" s="11">
+      <c r="CM208" s="21">
         <v>3.0705559280714476E-2</v>
       </c>
-      <c r="CN208" s="11">
+      <c r="CN208" s="21">
         <v>6.1619624747909059E-2</v>
       </c>
-      <c r="CO208" s="11">
+      <c r="CO208" s="21">
         <v>0.12329926132299651</v>
       </c>
-      <c r="CP208" s="11">
+      <c r="CP208" s="21">
         <v>3.489079671796777E-2</v>
       </c>
-      <c r="CQ208" s="11">
-        <v>3.9698272485865695E-2</v>
+      <c r="CQ208" s="21">
+        <v>3.9662566918400609E-2</v>
+      </c>
+      <c r="CR208" s="21">
+        <v>0.18498053383822571</v>
       </c>
     </row>
-    <row r="209" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -60737,26 +61552,29 @@
       <c r="CK209" s="11">
         <v>5.004246704203557</v>
       </c>
-      <c r="CL209" s="11">
+      <c r="CL209" s="21">
         <v>5.0139927701088638</v>
       </c>
-      <c r="CM209" s="11">
+      <c r="CM209" s="21">
         <v>3.9020561127311186</v>
       </c>
-      <c r="CN209" s="11">
+      <c r="CN209" s="21">
         <v>5.4035466547898645</v>
       </c>
-      <c r="CO209" s="11">
+      <c r="CO209" s="21">
         <v>5.2258969355151503</v>
       </c>
-      <c r="CP209" s="11">
+      <c r="CP209" s="21">
         <v>6.2483650428106792</v>
       </c>
-      <c r="CQ209" s="11">
-        <v>4.2876488061067972</v>
+      <c r="CQ209" s="21">
+        <v>4.2837923931163449</v>
+      </c>
+      <c r="CR209" s="21">
+        <v>5.5828515148075883</v>
       </c>
     </row>
-    <row r="210" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -61024,26 +61842,29 @@
       <c r="CK210" s="11">
         <v>12.789581329132682</v>
       </c>
-      <c r="CL210" s="11">
+      <c r="CL210" s="21">
         <v>13.392647165341351</v>
       </c>
-      <c r="CM210" s="11">
+      <c r="CM210" s="21">
         <v>15.866890705490096</v>
       </c>
-      <c r="CN210" s="11">
+      <c r="CN210" s="21">
         <v>15.624902498523211</v>
       </c>
-      <c r="CO210" s="11">
+      <c r="CO210" s="21">
         <v>12.655492311537319</v>
       </c>
-      <c r="CP210" s="11">
+      <c r="CP210" s="21">
         <v>12.294270919385852</v>
       </c>
-      <c r="CQ210" s="11">
-        <v>14.643323156296653</v>
+      <c r="CQ210" s="21">
+        <v>14.63015260427688</v>
+      </c>
+      <c r="CR210" s="21">
+        <v>14.418554475720418</v>
       </c>
     </row>
-    <row r="211" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -61311,26 +62132,29 @@
       <c r="CK211" s="11">
         <v>9.7295826391920315</v>
       </c>
-      <c r="CL211" s="11">
+      <c r="CL211" s="21">
         <v>14.154393094390953</v>
       </c>
-      <c r="CM211" s="11">
+      <c r="CM211" s="21">
         <v>9.3601942612531843</v>
       </c>
-      <c r="CN211" s="11">
+      <c r="CN211" s="21">
         <v>11.006978590610641</v>
       </c>
-      <c r="CO211" s="11">
+      <c r="CO211" s="21">
         <v>10.508494426785218</v>
       </c>
-      <c r="CP211" s="11">
+      <c r="CP211" s="21">
         <v>14.762005091538724</v>
       </c>
-      <c r="CQ211" s="11">
-        <v>9.7706408542862047</v>
+      <c r="CQ211" s="21">
+        <v>9.761852908253438</v>
+      </c>
+      <c r="CR211" s="21">
+        <v>10.47061821466623</v>
       </c>
     </row>
-    <row r="212" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -61598,26 +62422,29 @@
       <c r="CK212" s="11">
         <v>3.4711954954082489</v>
       </c>
-      <c r="CL212" s="11">
+      <c r="CL212" s="21">
         <v>3.9542693036881489</v>
       </c>
-      <c r="CM212" s="11">
+      <c r="CM212" s="21">
         <v>3.1217437944296145</v>
       </c>
-      <c r="CN212" s="11">
+      <c r="CN212" s="21">
         <v>3.6163760763295825</v>
       </c>
-      <c r="CO212" s="11">
+      <c r="CO212" s="21">
         <v>3.5710247457272271</v>
       </c>
-      <c r="CP212" s="11">
+      <c r="CP212" s="21">
         <v>3.8383284646228604</v>
       </c>
-      <c r="CQ212" s="11">
-        <v>2.8219745723929472</v>
+      <c r="CQ212" s="21">
+        <v>2.8194364215574113</v>
+      </c>
+      <c r="CR212" s="21">
+        <v>3.3910115174903619</v>
       </c>
     </row>
-    <row r="213" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -61885,26 +62712,29 @@
       <c r="CK213" s="11">
         <v>1.6080104380887833E-2</v>
       </c>
-      <c r="CL213" s="11">
+      <c r="CL213" s="21">
         <v>8.4620379064092477E-2</v>
       </c>
-      <c r="CM213" s="11">
+      <c r="CM213" s="21">
         <v>6.0005161127094003E-2</v>
       </c>
-      <c r="CN213" s="11">
+      <c r="CN213" s="21">
         <v>8.4885548814195855E-2</v>
       </c>
-      <c r="CO213" s="11">
+      <c r="CO213" s="21">
         <v>1.3187012383728656E-2</v>
       </c>
-      <c r="CP213" s="11">
+      <c r="CP213" s="21">
         <v>3.095970766956728E-2</v>
       </c>
-      <c r="CQ213" s="11">
-        <v>4.1978563695310549E-2</v>
+      <c r="CQ213" s="21">
+        <v>4.041067397663213E-2</v>
+      </c>
+      <c r="CR213" s="21">
+        <v>9.0417784887386984E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -62172,26 +63002,29 @@
       <c r="CK214" s="11">
         <v>11.905796336274671</v>
       </c>
-      <c r="CL214" s="11">
+      <c r="CL214" s="21">
         <v>11.411055236980253</v>
       </c>
-      <c r="CM214" s="11">
+      <c r="CM214" s="21">
         <v>13.532602531465255</v>
       </c>
-      <c r="CN214" s="11">
+      <c r="CN214" s="21">
         <v>14.670829664492741</v>
       </c>
-      <c r="CO214" s="11">
+      <c r="CO214" s="21">
         <v>11.98376260283114</v>
       </c>
-      <c r="CP214" s="11">
+      <c r="CP214" s="21">
         <v>12.621867124998321</v>
       </c>
-      <c r="CQ214" s="11">
-        <v>11.708996132808402</v>
+      <c r="CQ214" s="21">
+        <v>11.789591891706285</v>
+      </c>
+      <c r="CR214" s="21">
+        <v>13.870807537275843</v>
       </c>
     </row>
-    <row r="215" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -62459,27 +63292,30 @@
       <c r="CK215" s="11">
         <v>12.083014500544744</v>
       </c>
-      <c r="CL215" s="11">
+      <c r="CL215" s="21">
         <v>9.2902475616503786</v>
       </c>
-      <c r="CM215" s="11">
+      <c r="CM215" s="21">
         <v>14.806779481503012</v>
       </c>
-      <c r="CN215" s="11">
+      <c r="CN215" s="21">
         <v>9.829885126604692</v>
       </c>
-      <c r="CO215" s="11">
+      <c r="CO215" s="21">
         <v>12.566062253665494</v>
       </c>
-      <c r="CP215" s="11">
+      <c r="CP215" s="21">
         <v>9.272519851205157</v>
       </c>
-      <c r="CQ215" s="11">
-        <v>15.684117095935605</v>
+      <c r="CQ215" s="21">
+        <v>15.670010429170731</v>
+      </c>
+      <c r="CR215" s="21">
+        <v>10.129281185080554</v>
       </c>
     </row>
-    <row r="216" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -62747,26 +63583,29 @@
       <c r="CK217" s="11">
         <v>100</v>
       </c>
-      <c r="CL217" s="11">
+      <c r="CL217" s="21">
         <v>100</v>
       </c>
-      <c r="CM217" s="11">
+      <c r="CM217" s="21">
         <v>100</v>
       </c>
-      <c r="CN217" s="11">
+      <c r="CN217" s="21">
         <v>100</v>
       </c>
-      <c r="CO217" s="11">
+      <c r="CO217" s="21">
         <v>100</v>
       </c>
-      <c r="CP217" s="11">
+      <c r="CP217" s="21">
         <v>100</v>
       </c>
-      <c r="CQ217" s="11">
+      <c r="CQ217" s="21">
         <v>100</v>
       </c>
+      <c r="CR217" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -62856,198 +63695,265 @@
       <c r="CI218" s="10"/>
       <c r="CJ218" s="10"/>
       <c r="CK218" s="10"/>
-      <c r="CL218" s="10"/>
-      <c r="CM218" s="10"/>
-      <c r="CN218" s="10"/>
-      <c r="CO218" s="10"/>
-      <c r="CP218" s="10"/>
-      <c r="CQ218" s="10"/>
+      <c r="CL218" s="19"/>
+      <c r="CM218" s="19"/>
+      <c r="CN218" s="19"/>
+      <c r="CO218" s="19"/>
+      <c r="CP218" s="19"/>
+      <c r="CQ218" s="19"/>
+      <c r="CR218" s="19"/>
     </row>
-    <row r="219" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL219" s="14"/>
+      <c r="CM219" s="14"/>
+      <c r="CN219" s="14"/>
+      <c r="CO219" s="14"/>
+      <c r="CP219" s="14"/>
+      <c r="CQ219" s="14"/>
+      <c r="CR219" s="14"/>
     </row>
-    <row r="220" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CL222" s="14"/>
+      <c r="CM222" s="14"/>
+      <c r="CN222" s="14"/>
+      <c r="CO222" s="14"/>
+      <c r="CP222" s="14"/>
+      <c r="CQ222" s="14"/>
+      <c r="CR222" s="14"/>
     </row>
-    <row r="223" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CL223" s="14"/>
+      <c r="CM223" s="14"/>
+      <c r="CN223" s="14"/>
+      <c r="CO223" s="14"/>
+      <c r="CP223" s="14"/>
+      <c r="CQ223" s="14"/>
+      <c r="CR223" s="14"/>
     </row>
-    <row r="224" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="CL224" s="14"/>
+      <c r="CM224" s="14"/>
+      <c r="CN224" s="14"/>
+      <c r="CO224" s="14"/>
+      <c r="CP224" s="14"/>
+      <c r="CQ224" s="14"/>
+      <c r="CR224" s="14"/>
     </row>
-    <row r="225" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL225" s="14"/>
+      <c r="CM225" s="14"/>
+      <c r="CN225" s="14"/>
+      <c r="CO225" s="14"/>
+      <c r="CP225" s="14"/>
+      <c r="CQ225" s="14"/>
+      <c r="CR225" s="14"/>
+    </row>
+    <row r="226" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="CL226" s="14"/>
+      <c r="CM226" s="14"/>
+      <c r="CN226" s="14"/>
+      <c r="CO226" s="14"/>
+      <c r="CP226" s="14"/>
+      <c r="CQ226" s="14"/>
+      <c r="CR226" s="14"/>
     </row>
-    <row r="227" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="CL227" s="14"/>
+      <c r="CM227" s="14"/>
+      <c r="CN227" s="14"/>
+      <c r="CO227" s="14"/>
+      <c r="CP227" s="14"/>
+      <c r="CQ227" s="14"/>
+      <c r="CR227" s="14"/>
     </row>
-    <row r="228" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="CL228" s="14"/>
+      <c r="CM228" s="14"/>
+      <c r="CN228" s="14"/>
+      <c r="CO228" s="14"/>
+      <c r="CP228" s="14"/>
+      <c r="CQ228" s="14"/>
+      <c r="CR228" s="14"/>
     </row>
-    <row r="229" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL229" s="14"/>
+      <c r="CM229" s="14"/>
+      <c r="CN229" s="14"/>
+      <c r="CO229" s="14"/>
+      <c r="CP229" s="14"/>
+      <c r="CQ229" s="14"/>
+      <c r="CR229" s="14"/>
+    </row>
+    <row r="230" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="13">
+      <c r="B230" s="22">
         <v>2000</v>
       </c>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13">
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22">
         <v>2001</v>
       </c>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="13">
+      <c r="G230" s="22"/>
+      <c r="H230" s="22"/>
+      <c r="I230" s="22"/>
+      <c r="J230" s="22">
         <v>2002</v>
       </c>
-      <c r="K230" s="13"/>
-      <c r="L230" s="13"/>
-      <c r="M230" s="13"/>
-      <c r="N230" s="13">
+      <c r="K230" s="22"/>
+      <c r="L230" s="22"/>
+      <c r="M230" s="22"/>
+      <c r="N230" s="22">
         <v>2003</v>
       </c>
-      <c r="O230" s="13"/>
-      <c r="P230" s="13"/>
-      <c r="Q230" s="13"/>
-      <c r="R230" s="13">
+      <c r="O230" s="22"/>
+      <c r="P230" s="22"/>
+      <c r="Q230" s="22"/>
+      <c r="R230" s="22">
         <v>2004</v>
       </c>
-      <c r="S230" s="13"/>
-      <c r="T230" s="13"/>
-      <c r="U230" s="13"/>
-      <c r="V230" s="13">
+      <c r="S230" s="22"/>
+      <c r="T230" s="22"/>
+      <c r="U230" s="22"/>
+      <c r="V230" s="22">
         <v>2005</v>
       </c>
-      <c r="W230" s="13"/>
-      <c r="X230" s="13"/>
-      <c r="Y230" s="13"/>
-      <c r="Z230" s="13">
+      <c r="W230" s="22"/>
+      <c r="X230" s="22"/>
+      <c r="Y230" s="22"/>
+      <c r="Z230" s="22">
         <v>2006</v>
       </c>
-      <c r="AA230" s="13"/>
-      <c r="AB230" s="13"/>
-      <c r="AC230" s="13"/>
-      <c r="AD230" s="13">
+      <c r="AA230" s="22"/>
+      <c r="AB230" s="22"/>
+      <c r="AC230" s="22"/>
+      <c r="AD230" s="22">
         <v>2007</v>
       </c>
-      <c r="AE230" s="13"/>
-      <c r="AF230" s="13"/>
-      <c r="AG230" s="13"/>
-      <c r="AH230" s="13">
+      <c r="AE230" s="22"/>
+      <c r="AF230" s="22"/>
+      <c r="AG230" s="22"/>
+      <c r="AH230" s="22">
         <v>2008</v>
       </c>
-      <c r="AI230" s="13"/>
-      <c r="AJ230" s="13"/>
-      <c r="AK230" s="13"/>
-      <c r="AL230" s="13">
+      <c r="AI230" s="22"/>
+      <c r="AJ230" s="22"/>
+      <c r="AK230" s="22"/>
+      <c r="AL230" s="22">
         <v>2009</v>
       </c>
-      <c r="AM230" s="13"/>
-      <c r="AN230" s="13"/>
-      <c r="AO230" s="13"/>
-      <c r="AP230" s="13">
+      <c r="AM230" s="22"/>
+      <c r="AN230" s="22"/>
+      <c r="AO230" s="22"/>
+      <c r="AP230" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ230" s="13"/>
-      <c r="AR230" s="13"/>
-      <c r="AS230" s="13"/>
-      <c r="AT230" s="13">
+      <c r="AQ230" s="22"/>
+      <c r="AR230" s="22"/>
+      <c r="AS230" s="22"/>
+      <c r="AT230" s="22">
         <v>2011</v>
       </c>
-      <c r="AU230" s="13"/>
-      <c r="AV230" s="13"/>
-      <c r="AW230" s="13"/>
-      <c r="AX230" s="13">
+      <c r="AU230" s="22"/>
+      <c r="AV230" s="22"/>
+      <c r="AW230" s="22"/>
+      <c r="AX230" s="22">
         <v>2012</v>
       </c>
-      <c r="AY230" s="13"/>
-      <c r="AZ230" s="13"/>
-      <c r="BA230" s="13"/>
-      <c r="BB230" s="13">
+      <c r="AY230" s="22"/>
+      <c r="AZ230" s="22"/>
+      <c r="BA230" s="22"/>
+      <c r="BB230" s="22">
         <v>2013</v>
       </c>
-      <c r="BC230" s="13"/>
-      <c r="BD230" s="13"/>
-      <c r="BE230" s="13"/>
-      <c r="BF230" s="13">
+      <c r="BC230" s="22"/>
+      <c r="BD230" s="22"/>
+      <c r="BE230" s="22"/>
+      <c r="BF230" s="22">
         <v>2014</v>
       </c>
-      <c r="BG230" s="13"/>
-      <c r="BH230" s="13"/>
-      <c r="BI230" s="13"/>
-      <c r="BJ230" s="13">
+      <c r="BG230" s="22"/>
+      <c r="BH230" s="22"/>
+      <c r="BI230" s="22"/>
+      <c r="BJ230" s="22">
         <v>2015</v>
       </c>
-      <c r="BK230" s="13"/>
-      <c r="BL230" s="13"/>
-      <c r="BM230" s="13"/>
-      <c r="BN230" s="13">
+      <c r="BK230" s="22"/>
+      <c r="BL230" s="22"/>
+      <c r="BM230" s="22"/>
+      <c r="BN230" s="22">
         <v>2016</v>
       </c>
-      <c r="BO230" s="13"/>
-      <c r="BP230" s="13"/>
-      <c r="BQ230" s="13"/>
-      <c r="BR230" s="13">
+      <c r="BO230" s="22"/>
+      <c r="BP230" s="22"/>
+      <c r="BQ230" s="22"/>
+      <c r="BR230" s="22">
         <v>2017</v>
       </c>
-      <c r="BS230" s="13"/>
-      <c r="BT230" s="13"/>
-      <c r="BU230" s="13"/>
-      <c r="BV230" s="13">
+      <c r="BS230" s="22"/>
+      <c r="BT230" s="22"/>
+      <c r="BU230" s="22"/>
+      <c r="BV230" s="22">
         <v>2018</v>
       </c>
-      <c r="BW230" s="13"/>
-      <c r="BX230" s="13"/>
-      <c r="BY230" s="13"/>
-      <c r="BZ230" s="13">
+      <c r="BW230" s="22"/>
+      <c r="BX230" s="22"/>
+      <c r="BY230" s="22"/>
+      <c r="BZ230" s="22">
         <v>2019</v>
       </c>
-      <c r="CA230" s="13"/>
-      <c r="CB230" s="13"/>
-      <c r="CC230" s="13"/>
-      <c r="CD230" s="13">
+      <c r="CA230" s="22"/>
+      <c r="CB230" s="22"/>
+      <c r="CC230" s="22"/>
+      <c r="CD230" s="22">
         <v>2020</v>
       </c>
-      <c r="CE230" s="13"/>
-      <c r="CF230" s="13"/>
-      <c r="CG230" s="13"/>
-      <c r="CH230" s="13">
+      <c r="CE230" s="22"/>
+      <c r="CF230" s="22"/>
+      <c r="CG230" s="22"/>
+      <c r="CH230" s="22">
         <v>2021</v>
       </c>
-      <c r="CI230" s="13"/>
-      <c r="CJ230" s="13"/>
-      <c r="CK230" s="13"/>
-      <c r="CL230" s="13">
+      <c r="CI230" s="22"/>
+      <c r="CJ230" s="22"/>
+      <c r="CK230" s="22"/>
+      <c r="CL230" s="23">
         <v>2022</v>
       </c>
-      <c r="CM230" s="13"/>
-      <c r="CN230" s="13"/>
-      <c r="CO230" s="13"/>
-      <c r="CP230" s="13">
+      <c r="CM230" s="23"/>
+      <c r="CN230" s="23"/>
+      <c r="CO230" s="23"/>
+      <c r="CP230" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ230" s="14"/>
+      <c r="CQ230" s="23"/>
+      <c r="CR230" s="23"/>
     </row>
-    <row r="231" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -63315,29 +64221,39 @@
       <c r="CK231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL231" s="4" t="s">
+      <c r="CL231" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CM231" s="4" t="s">
+      <c r="CM231" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="CN231" s="4" t="s">
+      <c r="CN231" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="CO231" s="4" t="s">
+      <c r="CO231" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="CP231" s="4" t="s">
+      <c r="CP231" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CQ231" s="4" t="s">
+      <c r="CQ231" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="CR231" s="15" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="232" spans="1:95" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
+      <c r="CL232" s="14"/>
+      <c r="CM232" s="14"/>
+      <c r="CN232" s="14"/>
+      <c r="CO232" s="14"/>
+      <c r="CP232" s="14"/>
+      <c r="CQ232" s="14"/>
+      <c r="CR232" s="14"/>
     </row>
-    <row r="233" spans="1:95" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -63605,26 +64521,29 @@
       <c r="CK233" s="11">
         <v>25.988641011884621</v>
       </c>
-      <c r="CL233" s="11">
+      <c r="CL233" s="21">
         <v>20.927183779000558</v>
       </c>
-      <c r="CM233" s="11">
+      <c r="CM233" s="21">
         <v>19.538150390612383</v>
       </c>
-      <c r="CN233" s="11">
+      <c r="CN233" s="21">
         <v>17.633502248285978</v>
       </c>
-      <c r="CO233" s="11">
+      <c r="CO233" s="21">
         <v>25.429801463860542</v>
       </c>
-      <c r="CP233" s="11">
+      <c r="CP233" s="21">
         <v>21.383286689235621</v>
       </c>
-      <c r="CQ233" s="11">
-        <v>19.95946094516421</v>
+      <c r="CQ233" s="21">
+        <v>19.95030391085438</v>
+      </c>
+      <c r="CR233" s="21">
+        <v>17.509882976419412</v>
       </c>
     </row>
-    <row r="234" spans="1:95" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -63892,26 +64811,29 @@
       <c r="CK234" s="11">
         <v>4.9350150511504118</v>
       </c>
-      <c r="CL234" s="11">
+      <c r="CL234" s="21">
         <v>7.1430288759919955</v>
       </c>
-      <c r="CM234" s="11">
+      <c r="CM234" s="21">
         <v>4.7755544312449549</v>
       </c>
-      <c r="CN234" s="11">
+      <c r="CN234" s="21">
         <v>7.4001966065796356</v>
       </c>
-      <c r="CO234" s="11">
+      <c r="CO234" s="21">
         <v>4.6061100557597596</v>
       </c>
-      <c r="CP234" s="11">
+      <c r="CP234" s="21">
         <v>7.2116777182862633</v>
       </c>
-      <c r="CQ234" s="11">
-        <v>4.732271179750593</v>
+      <c r="CQ234" s="21">
+        <v>4.7299999635940182</v>
+      </c>
+      <c r="CR234" s="21">
+        <v>7.6992607814652514</v>
       </c>
     </row>
-    <row r="235" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -64179,26 +65101,29 @@
       <c r="CK235" s="11">
         <v>4.2154888746057635</v>
       </c>
-      <c r="CL235" s="11">
+      <c r="CL235" s="21">
         <v>6.0059218172069633</v>
       </c>
-      <c r="CM235" s="11">
+      <c r="CM235" s="21">
         <v>3.2458575990860132</v>
       </c>
-      <c r="CN235" s="11">
+      <c r="CN235" s="21">
         <v>5.4001675945049055</v>
       </c>
-      <c r="CO235" s="11">
+      <c r="CO235" s="21">
         <v>4.2866087112235256</v>
       </c>
-      <c r="CP235" s="11">
+      <c r="CP235" s="21">
         <v>6.0694879147652276</v>
       </c>
-      <c r="CQ235" s="11">
-        <v>3.3164165680903244</v>
+      <c r="CQ235" s="21">
+        <v>3.3148248801660127</v>
+      </c>
+      <c r="CR235" s="21">
+        <v>5.27156334651312</v>
       </c>
     </row>
-    <row r="236" spans="1:95" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -64466,26 +65391,29 @@
       <c r="CK236" s="11">
         <v>1.2280405756952346</v>
       </c>
-      <c r="CL236" s="11">
+      <c r="CL236" s="21">
         <v>3.0654619674720367</v>
       </c>
-      <c r="CM236" s="11">
+      <c r="CM236" s="21">
         <v>1.3800252743575308</v>
       </c>
-      <c r="CN236" s="11">
+      <c r="CN236" s="21">
         <v>0.2326002899734976</v>
       </c>
-      <c r="CO236" s="11">
+      <c r="CO236" s="21">
         <v>1.4291210756766803</v>
       </c>
-      <c r="CP236" s="11">
+      <c r="CP236" s="21">
         <v>2.4878329389462115</v>
       </c>
-      <c r="CQ236" s="11">
-        <v>1.2945818200043337</v>
+      <c r="CQ236" s="21">
+        <v>1.2939604956900841</v>
+      </c>
+      <c r="CR236" s="21">
+        <v>0.18380858602552183</v>
       </c>
     </row>
-    <row r="237" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -64753,26 +65681,29 @@
       <c r="CK237" s="11">
         <v>6.5545316198952763</v>
       </c>
-      <c r="CL237" s="11">
+      <c r="CL237" s="21">
         <v>6.9818448038421455</v>
       </c>
-      <c r="CM237" s="11">
+      <c r="CM237" s="21">
         <v>8.188258380761873</v>
       </c>
-      <c r="CN237" s="11">
+      <c r="CN237" s="21">
         <v>8.6707195838281965</v>
       </c>
-      <c r="CO237" s="11">
+      <c r="CO237" s="21">
         <v>6.5182111643757645</v>
       </c>
-      <c r="CP237" s="11">
+      <c r="CP237" s="21">
         <v>6.8373044194272214</v>
       </c>
-      <c r="CQ237" s="11">
-        <v>8.2333695846469652</v>
+      <c r="CQ237" s="21">
+        <v>8.2294180439779279</v>
+      </c>
+      <c r="CR237" s="21">
+        <v>8.608747967499724</v>
       </c>
     </row>
-    <row r="238" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -65040,26 +65971,29 @@
       <c r="CK238" s="11">
         <v>1.4489437093665296</v>
       </c>
-      <c r="CL238" s="11">
+      <c r="CL238" s="21">
         <v>1.2594529060865995</v>
       </c>
-      <c r="CM238" s="11">
+      <c r="CM238" s="21">
         <v>4.3459113019146196</v>
       </c>
-      <c r="CN238" s="11">
+      <c r="CN238" s="21">
         <v>0.56158869867055761</v>
       </c>
-      <c r="CO238" s="11">
+      <c r="CO238" s="21">
         <v>1.3657637450823574</v>
       </c>
-      <c r="CP238" s="11">
+      <c r="CP238" s="21">
         <v>1.3249683550256888</v>
       </c>
-      <c r="CQ238" s="11">
-        <v>4.8286760669670512</v>
+      <c r="CQ238" s="21">
+        <v>4.8263585820466828</v>
+      </c>
+      <c r="CR238" s="21">
+        <v>0.64063538095650352</v>
       </c>
     </row>
-    <row r="239" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -65327,26 +66261,29 @@
       <c r="CK239" s="11">
         <v>1.6837451410319677</v>
       </c>
-      <c r="CL239" s="11">
+      <c r="CL239" s="21">
         <v>1.7061923628919926</v>
       </c>
-      <c r="CM239" s="11">
+      <c r="CM239" s="21">
         <v>1.5399358581195812</v>
       </c>
-      <c r="CN239" s="11">
+      <c r="CN239" s="21">
         <v>1.6130219822086627</v>
       </c>
-      <c r="CO239" s="11">
+      <c r="CO239" s="21">
         <v>1.7841595213133541</v>
       </c>
-      <c r="CP239" s="11">
+      <c r="CP239" s="21">
         <v>1.6030427895370798</v>
       </c>
-      <c r="CQ239" s="11">
-        <v>1.5934993213237172</v>
+      <c r="CQ239" s="21">
+        <v>1.5927345339168655</v>
+      </c>
+      <c r="CR239" s="21">
+        <v>1.6546686770434926</v>
       </c>
     </row>
-    <row r="240" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -65614,26 +66551,29 @@
       <c r="CK240" s="11">
         <v>0.46263191896810812</v>
       </c>
-      <c r="CL240" s="11">
+      <c r="CL240" s="21">
         <v>0.52814462891895819</v>
       </c>
-      <c r="CM240" s="11">
+      <c r="CM240" s="21">
         <v>0.12699899705751774</v>
       </c>
-      <c r="CN240" s="11">
+      <c r="CN240" s="21">
         <v>0.14192470594099724</v>
       </c>
-      <c r="CO240" s="11">
+      <c r="CO240" s="21">
         <v>0.47329533351656311</v>
       </c>
-      <c r="CP240" s="11">
+      <c r="CP240" s="21">
         <v>0.52438601983747402</v>
       </c>
-      <c r="CQ240" s="11">
-        <v>0.12999948011336299</v>
+      <c r="CQ240" s="21">
+        <v>0.12993708789018626</v>
+      </c>
+      <c r="CR240" s="21">
+        <v>0.14899270643308307</v>
       </c>
     </row>
-    <row r="241" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -65901,26 +66841,29 @@
       <c r="CK241" s="11">
         <v>1.1322611987832074</v>
       </c>
-      <c r="CL241" s="11">
+      <c r="CL241" s="21">
         <v>0.81983851713334654</v>
       </c>
-      <c r="CM241" s="11">
+      <c r="CM241" s="21">
         <v>1.3068014437443911</v>
       </c>
-      <c r="CN241" s="11">
+      <c r="CN241" s="21">
         <v>1.1552050963653966</v>
       </c>
-      <c r="CO241" s="11">
+      <c r="CO241" s="21">
         <v>1.1415387443007805</v>
       </c>
-      <c r="CP241" s="11">
+      <c r="CP241" s="21">
         <v>0.84340346431595481</v>
       </c>
-      <c r="CQ241" s="11">
-        <v>1.3239472521071829</v>
+      <c r="CQ241" s="21">
+        <v>1.3233118340858518</v>
+      </c>
+      <c r="CR241" s="21">
+        <v>1.1118244417056535</v>
       </c>
     </row>
-    <row r="242" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -66188,26 +67131,29 @@
       <c r="CK242" s="11">
         <v>0.69005799112151833</v>
       </c>
-      <c r="CL242" s="11">
+      <c r="CL242" s="21">
         <v>0.20611703713106763</v>
       </c>
-      <c r="CM242" s="11">
+      <c r="CM242" s="21">
         <v>0.78742701661463199</v>
       </c>
-      <c r="CN242" s="11">
+      <c r="CN242" s="21">
         <v>0.55872952211647253</v>
       </c>
-      <c r="CO242" s="11">
+      <c r="CO242" s="21">
         <v>0.64150141746957845</v>
       </c>
-      <c r="CP242" s="11">
+      <c r="CP242" s="21">
         <v>0.19365175610543719</v>
       </c>
-      <c r="CQ242" s="11">
-        <v>0.71927219860526548</v>
+      <c r="CQ242" s="21">
+        <v>0.71892698959749812</v>
+      </c>
+      <c r="CR242" s="21">
+        <v>0.48360191095159871</v>
       </c>
     </row>
-    <row r="243" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -66475,26 +67421,29 @@
       <c r="CK243" s="11">
         <v>0.10627552246824756</v>
       </c>
-      <c r="CL243" s="11">
+      <c r="CL243" s="21">
         <v>0.13862636392648151</v>
       </c>
-      <c r="CM243" s="11">
+      <c r="CM243" s="21">
         <v>0.1190564571882464</v>
       </c>
-      <c r="CN243" s="11">
+      <c r="CN243" s="21">
         <v>9.0931494142435607E-2</v>
       </c>
-      <c r="CO243" s="11">
+      <c r="CO243" s="21">
         <v>0.10907000757256982</v>
       </c>
-      <c r="CP243" s="11">
+      <c r="CP243" s="21">
         <v>0.13338192491070558</v>
       </c>
-      <c r="CQ243" s="11">
-        <v>0.12362841979898817</v>
+      <c r="CQ243" s="21">
+        <v>0.12356908531586286</v>
+      </c>
+      <c r="CR243" s="21">
+        <v>9.5010207712832764E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -66762,26 +67711,29 @@
       <c r="CK244" s="11">
         <v>8.9790143253331067E-2</v>
       </c>
-      <c r="CL244" s="11">
+      <c r="CL244" s="21">
         <v>0.10540596478705447</v>
       </c>
-      <c r="CM244" s="11">
+      <c r="CM244" s="21">
         <v>0.10927872254091202</v>
       </c>
-      <c r="CN244" s="11">
+      <c r="CN244" s="21">
         <v>8.2313861220995987E-2</v>
       </c>
-      <c r="CO244" s="11">
+      <c r="CO244" s="21">
         <v>9.2706563792369634E-2</v>
       </c>
-      <c r="CP244" s="11">
+      <c r="CP244" s="21">
         <v>0.10683318556406698</v>
       </c>
-      <c r="CQ244" s="11">
-        <v>0.10807097512886008</v>
+      <c r="CQ244" s="21">
+        <v>0.10801910731836355</v>
+      </c>
+      <c r="CR244" s="21">
+        <v>7.6308203791878318E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -67049,26 +68001,29 @@
       <c r="CK245" s="11">
         <v>0.1630417560919275</v>
       </c>
-      <c r="CL245" s="11">
+      <c r="CL245" s="21">
         <v>6.2403309916551852E-2</v>
       </c>
-      <c r="CM245" s="11">
+      <c r="CM245" s="21">
         <v>8.687208180069457E-2</v>
       </c>
-      <c r="CN245" s="11">
+      <c r="CN245" s="21">
         <v>4.8888863110479519E-2</v>
       </c>
-      <c r="CO245" s="11">
+      <c r="CO245" s="21">
         <v>0.17711645539370183</v>
       </c>
-      <c r="CP245" s="11">
+      <c r="CP245" s="21">
         <v>6.9733973015430994E-2</v>
       </c>
-      <c r="CQ245" s="11">
-        <v>8.8214226622381917E-2</v>
+      <c r="CQ245" s="21">
+        <v>8.8171888901415751E-2</v>
+      </c>
+      <c r="CR245" s="21">
+        <v>0.10614241145907931</v>
       </c>
     </row>
-    <row r="246" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -67336,26 +68291,29 @@
       <c r="CK246" s="11">
         <v>4.8855607347512358</v>
       </c>
-      <c r="CL246" s="11">
+      <c r="CL246" s="21">
         <v>5.6677108616524476</v>
       </c>
-      <c r="CM246" s="11">
+      <c r="CM246" s="21">
         <v>5.7049411578491629</v>
       </c>
-      <c r="CN246" s="11">
+      <c r="CN246" s="21">
         <v>4.4092142872514115</v>
       </c>
-      <c r="CO246" s="11">
+      <c r="CO246" s="21">
         <v>4.9103141922666556</v>
       </c>
-      <c r="CP246" s="11">
+      <c r="CP246" s="21">
         <v>5.604107287133731</v>
       </c>
-      <c r="CQ246" s="11">
-        <v>5.7264838725734029</v>
+      <c r="CQ246" s="21">
+        <v>5.7237354918915422</v>
+      </c>
+      <c r="CR246" s="21">
+        <v>4.1130417190632835</v>
       </c>
     </row>
-    <row r="247" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -67623,26 +68581,29 @@
       <c r="CK247" s="11">
         <v>8.9157920920746161</v>
       </c>
-      <c r="CL247" s="11">
+      <c r="CL247" s="21">
         <v>10.28585491759738</v>
       </c>
-      <c r="CM247" s="11">
+      <c r="CM247" s="21">
         <v>10.729532447239068</v>
       </c>
-      <c r="CN247" s="11">
+      <c r="CN247" s="21">
         <v>11.114274539750504</v>
       </c>
-      <c r="CO247" s="11">
+      <c r="CO247" s="21">
         <v>9.2200988481874244</v>
       </c>
-      <c r="CP247" s="11">
+      <c r="CP247" s="21">
         <v>10.562425111689924</v>
       </c>
-      <c r="CQ247" s="11">
-        <v>10.879561549048084</v>
+      <c r="CQ247" s="21">
+        <v>10.874339989456914</v>
+      </c>
+      <c r="CR247" s="21">
+        <v>11.310236735475184</v>
       </c>
     </row>
-    <row r="248" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -67910,26 +68871,29 @@
       <c r="CK248" s="11">
         <v>10.049041533374638</v>
       </c>
-      <c r="CL248" s="11">
+      <c r="CL248" s="21">
         <v>11.339454977445875</v>
       </c>
-      <c r="CM248" s="11">
+      <c r="CM248" s="21">
         <v>9.7390142933786166</v>
       </c>
-      <c r="CN248" s="11">
+      <c r="CN248" s="21">
         <v>10.591433329454221</v>
       </c>
-      <c r="CO248" s="11">
+      <c r="CO248" s="21">
         <v>10.240520417195551</v>
       </c>
-      <c r="CP248" s="11">
+      <c r="CP248" s="21">
         <v>11.44058443023774</v>
       </c>
-      <c r="CQ248" s="11">
-        <v>9.8383000601931148</v>
+      <c r="CQ248" s="21">
+        <v>9.8335782458250911</v>
+      </c>
+      <c r="CR248" s="21">
+        <v>10.795605074472592</v>
       </c>
     </row>
-    <row r="249" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -68197,26 +69161,29 @@
       <c r="CK249" s="11">
         <v>3.6407553225098797</v>
       </c>
-      <c r="CL249" s="11">
+      <c r="CL249" s="21">
         <v>4.2504907942462022</v>
       </c>
-      <c r="CM249" s="11">
+      <c r="CM249" s="21">
         <v>4.0466333384700421</v>
       </c>
-      <c r="CN249" s="11">
+      <c r="CN249" s="21">
         <v>4.2490296569769583</v>
       </c>
-      <c r="CO249" s="11">
+      <c r="CO249" s="21">
         <v>3.7258188930205152</v>
       </c>
-      <c r="CP249" s="11">
+      <c r="CP249" s="21">
         <v>4.276014324410653</v>
       </c>
-      <c r="CQ249" s="11">
-        <v>4.0935990406452021</v>
+      <c r="CQ249" s="21">
+        <v>4.0916343501347692</v>
+      </c>
+      <c r="CR249" s="21">
+        <v>4.3327460754433531</v>
       </c>
     </row>
-    <row r="250" spans="1:95" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -68484,26 +69451,29 @@
       <c r="CK250" s="11">
         <v>4.1146673831230156E-2</v>
       </c>
-      <c r="CL250" s="11">
+      <c r="CL250" s="21">
         <v>0.19164267444971012</v>
       </c>
-      <c r="CM250" s="11">
+      <c r="CM250" s="21">
         <v>0.16654034758844005</v>
       </c>
-      <c r="CN250" s="11">
+      <c r="CN250" s="21">
         <v>0.24303024893118247</v>
       </c>
-      <c r="CO250" s="11">
+      <c r="CO250" s="21">
         <v>3.6385133887440031E-2</v>
       </c>
-      <c r="CP250" s="11">
+      <c r="CP250" s="21">
         <v>0.10008267284045773</v>
       </c>
-      <c r="CQ250" s="11">
-        <v>0.13834877073914431</v>
+      <c r="CQ250" s="21">
+        <v>0.13302739786188783</v>
+      </c>
+      <c r="CR250" s="21">
+        <v>0.27402971468595377</v>
       </c>
     </row>
-    <row r="251" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -68771,26 +69741,29 @@
       <c r="CK251" s="11">
         <v>13.554383974903411</v>
       </c>
-      <c r="CL251" s="11">
+      <c r="CL251" s="21">
         <v>10.375402371520305</v>
       </c>
-      <c r="CM251" s="11">
+      <c r="CM251" s="21">
         <v>11.705358945131101</v>
       </c>
-      <c r="CN251" s="11">
+      <c r="CN251" s="21">
         <v>12.900009239085591</v>
       </c>
-      <c r="CO251" s="11">
+      <c r="CO251" s="21">
         <v>13.174399254932995</v>
       </c>
-      <c r="CP251" s="11">
+      <c r="CP251" s="21">
         <v>10.20913619628935</v>
       </c>
-      <c r="CQ251" s="11">
-        <v>10.084529188648395</v>
+      <c r="CQ251" s="21">
+        <v>10.132516030553434</v>
+      </c>
+      <c r="CR251" s="21">
+        <v>12.258693090203955</v>
       </c>
     </row>
-    <row r="252" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -69058,27 +70031,30 @@
       <c r="CK252" s="11">
         <v>10.214855154238849</v>
       </c>
-      <c r="CL252" s="11">
+      <c r="CL252" s="21">
         <v>8.939821068782333</v>
       </c>
-      <c r="CM252" s="11">
+      <c r="CM252" s="21">
         <v>12.357851515300245</v>
       </c>
-      <c r="CN252" s="11">
+      <c r="CN252" s="21">
         <v>12.903218151601923</v>
       </c>
-      <c r="CO252" s="11">
+      <c r="CO252" s="21">
         <v>10.637459001171878</v>
       </c>
-      <c r="CP252" s="11">
+      <c r="CP252" s="21">
         <v>9.0186588284257692</v>
       </c>
-      <c r="CQ252" s="11">
-        <v>12.787769479829405</v>
+      <c r="CQ252" s="21">
+        <v>12.781632090921219</v>
+      </c>
+      <c r="CR252" s="21">
+        <v>13.325199992678524</v>
       </c>
     </row>
-    <row r="253" spans="1:95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:95" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -69346,26 +70322,29 @@
       <c r="CK254" s="11">
         <v>100</v>
       </c>
-      <c r="CL254" s="11">
+      <c r="CL254" s="21">
         <v>100</v>
       </c>
-      <c r="CM254" s="11">
+      <c r="CM254" s="21">
         <v>100</v>
       </c>
-      <c r="CN254" s="11">
+      <c r="CN254" s="21">
         <v>100</v>
       </c>
-      <c r="CO254" s="11">
+      <c r="CO254" s="21">
         <v>100</v>
       </c>
-      <c r="CP254" s="11">
+      <c r="CP254" s="21">
         <v>100</v>
       </c>
-      <c r="CQ254" s="11">
+      <c r="CQ254" s="21">
         <v>100</v>
       </c>
+      <c r="CR254" s="21">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:95" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -69455,19 +70434,27 @@
       <c r="CI255" s="10"/>
       <c r="CJ255" s="10"/>
       <c r="CK255" s="10"/>
-      <c r="CL255" s="10"/>
-      <c r="CM255" s="10"/>
-      <c r="CN255" s="10"/>
-      <c r="CO255" s="10"/>
-      <c r="CP255" s="10"/>
-      <c r="CQ255" s="10"/>
+      <c r="CL255" s="19"/>
+      <c r="CM255" s="19"/>
+      <c r="CN255" s="19"/>
+      <c r="CO255" s="19"/>
+      <c r="CP255" s="19"/>
+      <c r="CQ255" s="19"/>
+      <c r="CR255" s="19"/>
     </row>
-    <row r="256" spans="1:95" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CL256" s="14"/>
+      <c r="CM256" s="14"/>
+      <c r="CN256" s="14"/>
+      <c r="CO256" s="14"/>
+      <c r="CP256" s="14"/>
+      <c r="CQ256" s="14"/>
+      <c r="CR256" s="14"/>
     </row>
-    <row r="257" spans="1:95" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:96" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -69485,14 +70472,15 @@
       <c r="CI257" s="7"/>
       <c r="CJ257" s="7"/>
       <c r="CK257" s="7"/>
-      <c r="CL257" s="7"/>
-      <c r="CM257" s="7"/>
-      <c r="CN257" s="7"/>
-      <c r="CO257" s="7"/>
-      <c r="CP257" s="7"/>
-      <c r="CQ257" s="7"/>
+      <c r="CL257" s="17"/>
+      <c r="CM257" s="17"/>
+      <c r="CN257" s="17"/>
+      <c r="CO257" s="17"/>
+      <c r="CP257" s="17"/>
+      <c r="CQ257" s="17"/>
+      <c r="CR257" s="17"/>
     </row>
-    <row r="258" spans="1:95" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:96" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -69510,20 +70498,16 @@
       <c r="CI258" s="7"/>
       <c r="CJ258" s="7"/>
       <c r="CK258" s="7"/>
-      <c r="CL258" s="7"/>
-      <c r="CM258" s="7"/>
-      <c r="CN258" s="7"/>
-      <c r="CO258" s="7"/>
-      <c r="CP258" s="7"/>
-      <c r="CQ258" s="7"/>
+      <c r="CL258" s="17"/>
+      <c r="CM258" s="17"/>
+      <c r="CN258" s="17"/>
+      <c r="CO258" s="17"/>
+      <c r="CP258" s="17"/>
+      <c r="CQ258" s="17"/>
+      <c r="CR258" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP230:CQ230"/>
-    <mergeCell ref="CL83:CO83"/>
-    <mergeCell ref="CP83:CQ83"/>
-    <mergeCell ref="CL120:CO120"/>
-    <mergeCell ref="CP120:CQ120"/>
+  <mergeCells count="166">
     <mergeCell ref="CL230:CO230"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL46:CO46"/>
@@ -69531,19 +70515,29 @@
     <mergeCell ref="CH120:CK120"/>
     <mergeCell ref="CL156:CO156"/>
     <mergeCell ref="CL193:CO193"/>
+    <mergeCell ref="CH230:CK230"/>
+    <mergeCell ref="CP193:CR193"/>
+    <mergeCell ref="CP230:CR230"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH46:CK46"/>
+    <mergeCell ref="CD83:CG83"/>
+    <mergeCell ref="CH193:CK193"/>
+    <mergeCell ref="CH156:CK156"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP46:CR46"/>
+    <mergeCell ref="CL83:CN83"/>
+    <mergeCell ref="CL120:CN120"/>
+    <mergeCell ref="CP156:CR156"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD46:CG46"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP46:CQ46"/>
-    <mergeCell ref="CP156:CQ156"/>
-    <mergeCell ref="CP193:CQ193"/>
     <mergeCell ref="BN193:BQ193"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CH230:CK230"/>
     <mergeCell ref="CD193:CG193"/>
     <mergeCell ref="CD156:CG156"/>
     <mergeCell ref="BZ193:CC193"/>
+    <mergeCell ref="BZ83:CC83"/>
+    <mergeCell ref="BZ46:CC46"/>
     <mergeCell ref="BR230:BU230"/>
     <mergeCell ref="BR120:BU120"/>
     <mergeCell ref="BV120:BY120"/>
@@ -69553,14 +70547,7 @@
     <mergeCell ref="BR193:BU193"/>
     <mergeCell ref="BV193:BY193"/>
     <mergeCell ref="BV230:BY230"/>
-    <mergeCell ref="BZ83:CC83"/>
-    <mergeCell ref="BZ46:CC46"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH46:CK46"/>
-    <mergeCell ref="CD83:CG83"/>
     <mergeCell ref="CD120:CG120"/>
-    <mergeCell ref="CH193:CK193"/>
-    <mergeCell ref="CH156:CK156"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063F153B-D6AA-43D8-A59E-FA8D4C568AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A4EDD-C68F-45D0-B022-13903584F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="70">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -664,13 +664,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -775,23 +775,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23338,9 +23331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23378,7 +23371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23484,7 +23477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23626,7 +23619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23637,259 +23630,202 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CR258"/>
+  <dimension ref="A1:CS258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CL1" sqref="CL1:CR1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
     <col min="2" max="89" width="9.44140625" style="7" customWidth="1"/>
-    <col min="90" max="96" width="9.109375" style="17" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="7"/>
+    <col min="90" max="97" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL1" s="14"/>
-      <c r="CM1" s="14"/>
-      <c r="CN1" s="14"/>
-      <c r="CO1" s="14"/>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
     </row>
-    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="14"/>
-      <c r="CN2" s="14"/>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
     </row>
-    <row r="3" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL4" s="14"/>
-      <c r="CM4" s="14"/>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-    </row>
-    <row r="5" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
-      <c r="CN5" s="14"/>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14"/>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="14"/>
     </row>
-    <row r="6" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CL6" s="14"/>
-      <c r="CM6" s="14"/>
-      <c r="CN6" s="14"/>
-      <c r="CO6" s="14"/>
-      <c r="CP6" s="14"/>
-      <c r="CQ6" s="14"/>
-      <c r="CR6" s="14"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CL7" s="14"/>
-      <c r="CM7" s="14"/>
-      <c r="CN7" s="14"/>
-      <c r="CO7" s="14"/>
-      <c r="CP7" s="14"/>
-      <c r="CQ7" s="14"/>
-      <c r="CR7" s="14"/>
     </row>
-    <row r="8" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL8" s="14"/>
-      <c r="CM8" s="14"/>
-      <c r="CN8" s="14"/>
-      <c r="CO8" s="14"/>
-      <c r="CP8" s="14"/>
-      <c r="CQ8" s="14"/>
-      <c r="CR8" s="14"/>
+    <row r="8" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
+        <v>2001</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
+        <v>2002</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
+        <v>2003</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16">
+        <v>2005</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16">
+        <v>2006</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16">
+        <v>2007</v>
+      </c>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16">
+        <v>2008</v>
+      </c>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16">
+        <v>2009</v>
+      </c>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16">
+        <v>2010</v>
+      </c>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16">
+        <v>2011</v>
+      </c>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16">
+        <v>2012</v>
+      </c>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16">
+        <v>2013</v>
+      </c>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16">
+        <v>2014</v>
+      </c>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16">
+        <v>2017</v>
+      </c>
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16">
+        <v>2018</v>
+      </c>
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16">
+        <v>2019</v>
+      </c>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16">
+        <v>2020</v>
+      </c>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
+      <c r="CH9" s="16">
+        <v>2021</v>
+      </c>
+      <c r="CI9" s="16"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="14">
+        <v>2022</v>
+      </c>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="14">
+        <v>2023</v>
+      </c>
+      <c r="CQ9" s="14"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
     </row>
-    <row r="9" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="22">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
-        <v>2001</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
-        <v>2002</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
-        <v>2003</v>
-      </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
-        <v>2004</v>
-      </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
-        <v>2005</v>
-      </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
-        <v>2006</v>
-      </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
-        <v>2007</v>
-      </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
-        <v>2008</v>
-      </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
-        <v>2009</v>
-      </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
-        <v>2010</v>
-      </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
-        <v>2011</v>
-      </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
-        <v>2012</v>
-      </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
-        <v>2013</v>
-      </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
-        <v>2014</v>
-      </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
-        <v>2015</v>
-      </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
-        <v>2016</v>
-      </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
-        <v>2017</v>
-      </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
-        <v>2018</v>
-      </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
-        <v>2019</v>
-      </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
-        <v>2020</v>
-      </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
-        <v>2021</v>
-      </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="23">
-        <v>2022</v>
-      </c>
-      <c r="CM9" s="23"/>
-      <c r="CN9" s="23"/>
-      <c r="CO9" s="23"/>
-      <c r="CP9" s="23">
-        <v>2023</v>
-      </c>
-      <c r="CQ9" s="23"/>
-      <c r="CR9" s="23"/>
-    </row>
-    <row r="10" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24157,39 +24093,35 @@
       <c r="CK10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL10" s="15" t="s">
+      <c r="CL10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM10" s="15" t="s">
+      <c r="CM10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN10" s="15" t="s">
+      <c r="CN10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO10" s="15" t="s">
+      <c r="CO10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP10" s="15" t="s">
+      <c r="CP10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ10" s="15" t="s">
+      <c r="CQ10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR10" s="15" t="s">
+      <c r="CR10" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CS10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="CL11" s="14"/>
-      <c r="CM11" s="14"/>
-      <c r="CN11" s="14"/>
-      <c r="CO11" s="14"/>
-      <c r="CP11" s="14"/>
-      <c r="CQ11" s="14"/>
-      <c r="CR11" s="14"/>
     </row>
-    <row r="12" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24457,29 +24389,32 @@
       <c r="CK12" s="6">
         <v>128092.71962728637</v>
       </c>
-      <c r="CL12" s="16">
+      <c r="CL12" s="6">
         <v>88196.306217954858</v>
       </c>
-      <c r="CM12" s="16">
+      <c r="CM12" s="6">
         <v>74312.857413969788</v>
       </c>
-      <c r="CN12" s="16">
+      <c r="CN12" s="6">
         <v>60338.102480430149</v>
       </c>
-      <c r="CO12" s="16">
+      <c r="CO12" s="6">
         <v>134332.57281604729</v>
       </c>
-      <c r="CP12" s="16">
+      <c r="CP12" s="6">
         <v>93834.755992139151</v>
       </c>
-      <c r="CQ12" s="16">
+      <c r="CQ12" s="6">
         <v>82110.464251484431</v>
       </c>
-      <c r="CR12" s="16">
-        <v>71591.590908042708</v>
+      <c r="CR12" s="6">
+        <v>71591.590908097729</v>
+      </c>
+      <c r="CS12" s="6">
+        <v>167825.30170241185</v>
       </c>
     </row>
-    <row r="13" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24747,29 +24682,32 @@
       <c r="CK13" s="6">
         <v>29243.102014834159</v>
       </c>
-      <c r="CL13" s="16">
+      <c r="CL13" s="6">
         <v>36183.658281769538</v>
       </c>
-      <c r="CM13" s="16">
+      <c r="CM13" s="6">
         <v>22746.720552308041</v>
       </c>
-      <c r="CN13" s="16">
+      <c r="CN13" s="6">
         <v>35523.586060840986</v>
       </c>
-      <c r="CO13" s="16">
+      <c r="CO13" s="6">
         <v>32235.883038472639</v>
       </c>
-      <c r="CP13" s="16">
+      <c r="CP13" s="6">
         <v>45636.323206322086</v>
       </c>
-      <c r="CQ13" s="16">
+      <c r="CQ13" s="6">
         <v>24677.33501405226</v>
       </c>
-      <c r="CR13" s="16">
-        <v>39840.218049823037</v>
+      <c r="CR13" s="6">
+        <v>39840.218049799907</v>
+      </c>
+      <c r="CS13" s="6">
+        <v>32065.15508492104</v>
       </c>
     </row>
-    <row r="14" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -25037,29 +24975,32 @@
       <c r="CK14" s="6">
         <v>19014.637473298262</v>
       </c>
-      <c r="CL14" s="16">
+      <c r="CL14" s="6">
         <v>22551.278842239324</v>
       </c>
-      <c r="CM14" s="16">
+      <c r="CM14" s="6">
         <v>18718.63937222536</v>
       </c>
-      <c r="CN14" s="16">
+      <c r="CN14" s="6">
         <v>37290.807521087503</v>
       </c>
-      <c r="CO14" s="16">
+      <c r="CO14" s="6">
         <v>19553.487826351644</v>
       </c>
-      <c r="CP14" s="16">
+      <c r="CP14" s="6">
         <v>20356.330363943223</v>
       </c>
-      <c r="CQ14" s="16">
+      <c r="CQ14" s="6">
         <v>16563.72625525864</v>
       </c>
-      <c r="CR14" s="16">
-        <v>35262.090621635958</v>
+      <c r="CR14" s="6">
+        <v>35403.329791440192</v>
+      </c>
+      <c r="CS14" s="6">
+        <v>18687.049301499384</v>
       </c>
     </row>
-    <row r="15" spans="1:96" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:97" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25327,29 +25268,32 @@
       <c r="CK15" s="6">
         <v>8430.5025204466383</v>
       </c>
-      <c r="CL15" s="16">
+      <c r="CL15" s="6">
         <v>11365.085104976155</v>
       </c>
-      <c r="CM15" s="16">
+      <c r="CM15" s="6">
         <v>4502.9881142789445</v>
       </c>
-      <c r="CN15" s="16">
+      <c r="CN15" s="6">
         <v>3243.19282961406</v>
       </c>
-      <c r="CO15" s="16">
+      <c r="CO15" s="6">
         <v>18748.249646992539</v>
       </c>
-      <c r="CP15" s="16">
+      <c r="CP15" s="6">
         <v>16082.933978266828</v>
       </c>
-      <c r="CQ15" s="16">
+      <c r="CQ15" s="6">
         <v>6038.6793582825558</v>
       </c>
-      <c r="CR15" s="16">
-        <v>2418.0450313965357</v>
+      <c r="CR15" s="6">
+        <v>2418.0641588093122</v>
+      </c>
+      <c r="CS15" s="6">
+        <v>17214.339468550705</v>
       </c>
     </row>
-    <row r="16" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25617,29 +25561,32 @@
       <c r="CK16" s="6">
         <v>43922.007597225289</v>
       </c>
-      <c r="CL16" s="16">
+      <c r="CL16" s="6">
         <v>35051.164643495693</v>
       </c>
-      <c r="CM16" s="16">
+      <c r="CM16" s="6">
         <v>34220.430569929864</v>
       </c>
-      <c r="CN16" s="16">
+      <c r="CN16" s="6">
         <v>33568.786872089309</v>
       </c>
-      <c r="CO16" s="16">
+      <c r="CO16" s="6">
         <v>35878.550106385228</v>
       </c>
-      <c r="CP16" s="16">
+      <c r="CP16" s="6">
         <v>34561.027847580932</v>
       </c>
-      <c r="CQ16" s="16">
+      <c r="CQ16" s="6">
         <v>37944.198223168212</v>
       </c>
-      <c r="CR16" s="16">
-        <v>39359.716677550939</v>
+      <c r="CR16" s="6">
+        <v>39337.243160708676</v>
+      </c>
+      <c r="CS16" s="6">
+        <v>38631.761528142772</v>
       </c>
     </row>
-    <row r="17" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25907,29 +25854,32 @@
       <c r="CK17" s="6">
         <v>8125.0544788589777</v>
       </c>
-      <c r="CL17" s="16">
+      <c r="CL17" s="6">
         <v>5274.3004036852817</v>
       </c>
-      <c r="CM17" s="16">
+      <c r="CM17" s="6">
         <v>20231.920561675448</v>
       </c>
-      <c r="CN17" s="16">
+      <c r="CN17" s="6">
         <v>2658.8596403152333</v>
       </c>
-      <c r="CO17" s="16">
+      <c r="CO17" s="6">
         <v>9418.9819852519468</v>
       </c>
-      <c r="CP17" s="16">
+      <c r="CP17" s="6">
         <v>6489.9324468757904</v>
       </c>
-      <c r="CQ17" s="16">
+      <c r="CQ17" s="6">
         <v>23526.536290698794</v>
       </c>
-      <c r="CR17" s="16">
-        <v>3341.7051043860779</v>
+      <c r="CR17" s="6">
+        <v>3341.6963286605487</v>
+      </c>
+      <c r="CS17" s="6">
+        <v>10893.529227800982</v>
       </c>
     </row>
-    <row r="18" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26197,29 +26147,32 @@
       <c r="CK18" s="6">
         <v>7725.9484709875487</v>
       </c>
-      <c r="CL18" s="16">
+      <c r="CL18" s="6">
         <v>7182.3072247822456</v>
       </c>
-      <c r="CM18" s="16">
+      <c r="CM18" s="6">
         <v>4319.3921515491511</v>
       </c>
-      <c r="CN18" s="16">
+      <c r="CN18" s="6">
         <v>8660.3335501832444</v>
       </c>
-      <c r="CO18" s="16">
+      <c r="CO18" s="6">
         <v>10089.765648665163</v>
       </c>
-      <c r="CP18" s="16">
+      <c r="CP18" s="6">
         <v>6840.4901097173479</v>
       </c>
-      <c r="CQ18" s="16">
+      <c r="CQ18" s="6">
         <v>5240.5698429203048</v>
       </c>
-      <c r="CR18" s="16">
-        <v>10320.749789783622</v>
+      <c r="CR18" s="6">
+        <v>10320.749827385991</v>
+      </c>
+      <c r="CS18" s="6">
+        <v>12221.209886522283</v>
       </c>
     </row>
-    <row r="19" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26487,29 +26440,32 @@
       <c r="CK19" s="6">
         <v>2779.3405672288604</v>
       </c>
-      <c r="CL19" s="16">
+      <c r="CL19" s="6">
         <v>1951.5527411433893</v>
       </c>
-      <c r="CM19" s="16">
+      <c r="CM19" s="6">
         <v>755.33120532608655</v>
       </c>
-      <c r="CN19" s="16">
+      <c r="CN19" s="6">
         <v>570.49252824166513</v>
       </c>
-      <c r="CO19" s="16">
+      <c r="CO19" s="6">
         <v>3197.5244131931577</v>
       </c>
-      <c r="CP19" s="16">
+      <c r="CP19" s="6">
         <v>1933.8923400270132</v>
       </c>
-      <c r="CQ19" s="16">
+      <c r="CQ19" s="6">
         <v>631.02479072132064</v>
       </c>
-      <c r="CR19" s="16">
-        <v>594.3183007619624</v>
+      <c r="CR19" s="6">
+        <v>594.32013132931183</v>
+      </c>
+      <c r="CS19" s="6">
+        <v>4198.9531829048128</v>
       </c>
     </row>
-    <row r="20" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26777,29 +26733,32 @@
       <c r="CK20" s="6">
         <v>7894.7813753254331</v>
       </c>
-      <c r="CL20" s="16">
+      <c r="CL20" s="6">
         <v>3390.0530834926053</v>
       </c>
-      <c r="CM20" s="16">
+      <c r="CM20" s="6">
         <v>5181.2929626545319</v>
       </c>
-      <c r="CN20" s="16">
+      <c r="CN20" s="6">
         <v>7265.2633873865943</v>
       </c>
-      <c r="CO20" s="16">
+      <c r="CO20" s="6">
         <v>8660.0378907285485</v>
       </c>
-      <c r="CP20" s="16">
+      <c r="CP20" s="6">
         <v>4170.8210332680455</v>
       </c>
-      <c r="CQ20" s="16">
+      <c r="CQ20" s="6">
         <v>6190.7508537492158</v>
       </c>
-      <c r="CR20" s="16">
-        <v>8286.1529325624797</v>
+      <c r="CR20" s="6">
+        <v>8285.0277917038547</v>
+      </c>
+      <c r="CS20" s="6">
+        <v>10064.952841787968</v>
       </c>
     </row>
-    <row r="21" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -27067,29 +27026,32 @@
       <c r="CK21" s="6">
         <v>4095.0304558491662</v>
       </c>
-      <c r="CL21" s="16">
+      <c r="CL21" s="6">
         <v>1341.9042479908298</v>
       </c>
-      <c r="CM21" s="16">
+      <c r="CM21" s="6">
         <v>3365.6747559005253</v>
       </c>
-      <c r="CN21" s="16">
+      <c r="CN21" s="6">
         <v>2407.1282613156754</v>
       </c>
-      <c r="CO21" s="16">
+      <c r="CO21" s="6">
         <v>3381.935712594518</v>
       </c>
-      <c r="CP21" s="16">
+      <c r="CP21" s="6">
         <v>1113.3913037177003</v>
       </c>
-      <c r="CQ21" s="16">
+      <c r="CQ21" s="6">
         <v>2623.5636590731929</v>
       </c>
-      <c r="CR21" s="16">
-        <v>2007.1012748768396</v>
+      <c r="CR21" s="6">
+        <v>2007.1012748685953</v>
+      </c>
+      <c r="CS21" s="6">
+        <v>3288.3455263702308</v>
       </c>
     </row>
-    <row r="22" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27357,29 +27319,32 @@
       <c r="CK22" s="6">
         <v>495.12530294524487</v>
       </c>
-      <c r="CL22" s="16">
+      <c r="CL22" s="6">
         <v>429.40985335642529</v>
       </c>
-      <c r="CM22" s="16">
+      <c r="CM22" s="6">
         <v>274.93012582582531</v>
       </c>
-      <c r="CN22" s="16">
+      <c r="CN22" s="6">
         <v>426.60353421153985</v>
       </c>
-      <c r="CO22" s="16">
+      <c r="CO22" s="6">
         <v>585.13917654234183</v>
       </c>
-      <c r="CP22" s="16">
+      <c r="CP22" s="6">
         <v>483.1902940807297</v>
       </c>
-      <c r="CQ22" s="16">
+      <c r="CQ22" s="6">
         <v>375.10898706258115</v>
       </c>
-      <c r="CR22" s="16">
-        <v>540.82603765461806</v>
+      <c r="CR22" s="6">
+        <v>540.82603765416945</v>
+      </c>
+      <c r="CS22" s="6">
+        <v>707.92578037398664</v>
       </c>
     </row>
-    <row r="23" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27647,29 +27612,32 @@
       <c r="CK23" s="6">
         <v>531.93153212082927</v>
       </c>
-      <c r="CL23" s="16">
+      <c r="CL23" s="6">
         <v>390.79583477978133</v>
       </c>
-      <c r="CM23" s="16">
+      <c r="CM23" s="6">
         <v>274.45965058042941</v>
       </c>
-      <c r="CN23" s="16">
+      <c r="CN23" s="6">
         <v>465.76522023969198</v>
       </c>
-      <c r="CO23" s="16">
+      <c r="CO23" s="6">
         <v>558.10577073315903</v>
       </c>
-      <c r="CP23" s="16">
+      <c r="CP23" s="6">
         <v>367.78666983079574</v>
       </c>
-      <c r="CQ23" s="16">
+      <c r="CQ23" s="6">
         <v>244.88750944835169</v>
       </c>
-      <c r="CR23" s="16">
-        <v>391.05034987533588</v>
+      <c r="CR23" s="6">
+        <v>394.42102316856995</v>
+      </c>
+      <c r="CS23" s="6">
+        <v>534.88237358809658</v>
       </c>
     </row>
-    <row r="24" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27937,29 +27905,32 @@
       <c r="CK24" s="6">
         <v>757.41744080910485</v>
       </c>
-      <c r="CL24" s="16">
+      <c r="CL24" s="6">
         <v>174.33110999511962</v>
       </c>
-      <c r="CM24" s="16">
+      <c r="CM24" s="6">
         <v>147.52204379002626</v>
       </c>
-      <c r="CN24" s="16">
+      <c r="CN24" s="6">
         <v>298.6521464050046</v>
       </c>
-      <c r="CO24" s="16">
+      <c r="CO24" s="6">
         <v>786.79005485054222</v>
       </c>
-      <c r="CP24" s="16">
+      <c r="CP24" s="6">
         <v>197.81892395993975</v>
       </c>
-      <c r="CQ24" s="16">
+      <c r="CQ24" s="6">
         <v>199.61157818598826</v>
       </c>
-      <c r="CR24" s="16">
+      <c r="CR24" s="6">
         <v>945.43354171286865</v>
       </c>
+      <c r="CS24" s="6">
+        <v>1366.2487149965418</v>
+      </c>
     </row>
-    <row r="25" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28227,29 +28198,32 @@
       <c r="CK25" s="6">
         <v>29036.271976618853</v>
       </c>
-      <c r="CL25" s="16">
+      <c r="CL25" s="6">
         <v>25068.587035050525</v>
       </c>
-      <c r="CM25" s="16">
+      <c r="CM25" s="6">
         <v>18747.070765618875</v>
       </c>
-      <c r="CN25" s="16">
+      <c r="CN25" s="6">
         <v>26189.396856191277</v>
       </c>
-      <c r="CO25" s="16">
+      <c r="CO25" s="6">
         <v>33347.188721319428</v>
       </c>
-      <c r="CP25" s="16">
+      <c r="CP25" s="6">
         <v>35426.099875821506</v>
       </c>
-      <c r="CQ25" s="16">
+      <c r="CQ25" s="6">
         <v>21559.233974198025</v>
       </c>
-      <c r="CR25" s="16">
-        <v>28533.894734662415</v>
+      <c r="CR25" s="6">
+        <v>28785.275138821104</v>
+      </c>
+      <c r="CS25" s="6">
+        <v>35627.716670595488</v>
       </c>
     </row>
-    <row r="26" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28517,29 +28491,32 @@
       <c r="CK26" s="6">
         <v>74209.323378849396</v>
       </c>
-      <c r="CL26" s="16">
+      <c r="CL26" s="6">
         <v>66959.558277702279</v>
       </c>
-      <c r="CM26" s="16">
+      <c r="CM26" s="6">
         <v>76231.021362213913</v>
       </c>
-      <c r="CN26" s="16">
+      <c r="CN26" s="6">
         <v>75729.293835260207</v>
       </c>
-      <c r="CO26" s="16">
+      <c r="CO26" s="6">
         <v>80756.489399161917</v>
       </c>
-      <c r="CP26" s="16">
+      <c r="CP26" s="6">
         <v>69704.325292533584</v>
       </c>
-      <c r="CQ26" s="16">
+      <c r="CQ26" s="6">
         <v>73629.824727423809</v>
       </c>
-      <c r="CR26" s="16">
-        <v>73693.078625678172</v>
+      <c r="CR26" s="6">
+        <v>73693.114706633613</v>
+      </c>
+      <c r="CS26" s="6">
+        <v>87802.275977595564</v>
       </c>
     </row>
-    <row r="27" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28807,29 +28784,32 @@
       <c r="CK27" s="6">
         <v>56454.21267765644</v>
       </c>
-      <c r="CL27" s="16">
+      <c r="CL27" s="6">
         <v>70768.078751608089</v>
       </c>
-      <c r="CM27" s="16">
+      <c r="CM27" s="6">
         <v>44970.194975703256</v>
       </c>
-      <c r="CN27" s="16">
+      <c r="CN27" s="6">
         <v>53347.578713246665</v>
       </c>
-      <c r="CO27" s="16">
+      <c r="CO27" s="6">
         <v>67056.191721928015</v>
       </c>
-      <c r="CP27" s="16">
+      <c r="CP27" s="6">
         <v>83695.53685758973</v>
       </c>
-      <c r="CQ27" s="16">
+      <c r="CQ27" s="6">
         <v>49128.914652569962</v>
       </c>
-      <c r="CR27" s="16">
+      <c r="CR27" s="6">
         <v>53515.218370342423</v>
       </c>
+      <c r="CS27" s="6">
+        <v>73016.498276974715</v>
+      </c>
     </row>
-    <row r="28" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -29097,29 +29077,32 @@
       <c r="CK28" s="6">
         <v>20141.008716461612</v>
       </c>
-      <c r="CL28" s="16">
+      <c r="CL28" s="6">
         <v>19770.260697321013</v>
       </c>
-      <c r="CM28" s="16">
+      <c r="CM28" s="6">
         <v>14998.131788869097</v>
       </c>
-      <c r="CN28" s="16">
+      <c r="CN28" s="6">
         <v>17527.508189510481</v>
       </c>
-      <c r="CO28" s="16">
+      <c r="CO28" s="6">
         <v>22787.214825263043</v>
       </c>
-      <c r="CP28" s="16">
+      <c r="CP28" s="6">
         <v>21762.014000829251</v>
       </c>
-      <c r="CQ28" s="16">
+      <c r="CQ28" s="6">
         <v>14189.504044455447</v>
       </c>
-      <c r="CR28" s="16">
+      <c r="CR28" s="6">
         <v>17331.42381226892</v>
       </c>
+      <c r="CS28" s="6">
+        <v>24845.051097139803</v>
+      </c>
     </row>
-    <row r="29" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29387,29 +29370,32 @@
       <c r="CK29" s="6">
         <v>93.302011634174448</v>
       </c>
-      <c r="CL29" s="16">
+      <c r="CL29" s="6">
         <v>423.07865901871082</v>
       </c>
-      <c r="CM29" s="16">
+      <c r="CM29" s="6">
         <v>288.2892940164927</v>
       </c>
-      <c r="CN29" s="16">
+      <c r="CN29" s="6">
         <v>411.41521805496927</v>
       </c>
-      <c r="CO29" s="16">
+      <c r="CO29" s="6">
         <v>84.148194282600571</v>
       </c>
-      <c r="CP29" s="16">
+      <c r="CP29" s="6">
         <v>175.53098906893672</v>
       </c>
-      <c r="CQ29" s="16">
+      <c r="CQ29" s="6">
         <v>203.37661010772183</v>
       </c>
-      <c r="CR29" s="16">
-        <v>462.12433722715059</v>
+      <c r="CR29" s="6">
+        <v>378.39676483628864</v>
+      </c>
+      <c r="CS29" s="6">
+        <v>74.193810884066011</v>
       </c>
     </row>
-    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29677,29 +29663,32 @@
       <c r="CK30" s="6">
         <v>69081.314521907247</v>
       </c>
-      <c r="CL30" s="16">
+      <c r="CL30" s="6">
         <v>57052.142770400853</v>
       </c>
-      <c r="CM30" s="16">
+      <c r="CM30" s="6">
         <v>65016.147889991626</v>
       </c>
-      <c r="CN30" s="16">
+      <c r="CN30" s="6">
         <v>71105.184213113011</v>
       </c>
-      <c r="CO30" s="16">
+      <c r="CO30" s="6">
         <v>76470.086961006338</v>
       </c>
-      <c r="CP30" s="16">
+      <c r="CP30" s="6">
         <v>71561.684108712318</v>
       </c>
-      <c r="CQ30" s="16">
+      <c r="CQ30" s="6">
         <v>59334.007516806509</v>
       </c>
-      <c r="CR30" s="16">
-        <v>70893.549846996364</v>
+      <c r="CR30" s="6">
+        <v>70917.440098877822</v>
+      </c>
+      <c r="CS30" s="6">
+        <v>72096.24959576939</v>
       </c>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29967,30 +29956,33 @@
       <c r="CK31" s="6">
         <v>70109.592127130134</v>
       </c>
-      <c r="CL31" s="16">
+      <c r="CL31" s="6">
         <v>46448.686756152194</v>
       </c>
-      <c r="CM31" s="16">
+      <c r="CM31" s="6">
         <v>71137.81420133519</v>
       </c>
-      <c r="CN31" s="16">
+      <c r="CN31" s="6">
         <v>47642.553877687154</v>
       </c>
-      <c r="CO31" s="16">
+      <c r="CO31" s="6">
         <v>80185.82352993227</v>
       </c>
-      <c r="CP31" s="16">
+      <c r="CP31" s="6">
         <v>52572.026777995095</v>
       </c>
-      <c r="CQ31" s="16">
+      <c r="CQ31" s="6">
         <v>78863.163808657453</v>
       </c>
-      <c r="CR31" s="16">
+      <c r="CR31" s="6">
         <v>51770.64844126458</v>
       </c>
+      <c r="CS31" s="6">
+        <v>91851.100268369395</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -30258,29 +30250,32 @@
       <c r="CK33" s="8">
         <v>580232.62426747358</v>
       </c>
-      <c r="CL33" s="18">
+      <c r="CL33" s="8">
         <v>499972.54053691495</v>
       </c>
-      <c r="CM33" s="18">
+      <c r="CM33" s="8">
         <v>480440.82975776243</v>
       </c>
-      <c r="CN33" s="18">
+      <c r="CN33" s="8">
         <v>484670.50493542448</v>
       </c>
-      <c r="CO33" s="18">
+      <c r="CO33" s="8">
         <v>638114.16743970243</v>
       </c>
-      <c r="CP33" s="18">
+      <c r="CP33" s="8">
         <v>566965.91241227987</v>
       </c>
-      <c r="CQ33" s="18">
+      <c r="CQ33" s="8">
         <v>503274.48194832471</v>
       </c>
-      <c r="CR33" s="18">
-        <v>511098.93678850296</v>
+      <c r="CR33" s="8">
+        <v>511411.5393583845</v>
+      </c>
+      <c r="CS33" s="8">
+        <v>703012.74031719903</v>
       </c>
     </row>
-    <row r="34" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30370,265 +30365,202 @@
       <c r="CI34" s="10"/>
       <c r="CJ34" s="10"/>
       <c r="CK34" s="10"/>
-      <c r="CL34" s="19"/>
-      <c r="CM34" s="19"/>
-      <c r="CN34" s="19"/>
-      <c r="CO34" s="19"/>
-      <c r="CP34" s="19"/>
-      <c r="CQ34" s="19"/>
-      <c r="CR34" s="19"/>
+      <c r="CL34" s="10"/>
+      <c r="CM34" s="10"/>
+      <c r="CN34" s="10"/>
+      <c r="CO34" s="10"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
+      <c r="CR34" s="10"/>
+      <c r="CS34" s="10"/>
     </row>
-    <row r="35" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL35" s="14"/>
-      <c r="CM35" s="14"/>
-      <c r="CN35" s="14"/>
-      <c r="CO35" s="14"/>
-      <c r="CP35" s="14"/>
-      <c r="CQ35" s="14"/>
-      <c r="CR35" s="14"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL38" s="14"/>
-      <c r="CM38" s="14"/>
-      <c r="CN38" s="14"/>
-      <c r="CO38" s="14"/>
-      <c r="CP38" s="14"/>
-      <c r="CQ38" s="14"/>
-      <c r="CR38" s="14"/>
     </row>
-    <row r="39" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CL39" s="14"/>
-      <c r="CM39" s="14"/>
-      <c r="CN39" s="14"/>
-      <c r="CO39" s="14"/>
-      <c r="CP39" s="14"/>
-      <c r="CQ39" s="14"/>
-      <c r="CR39" s="14"/>
     </row>
-    <row r="40" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL40" s="14"/>
-      <c r="CM40" s="14"/>
-      <c r="CN40" s="14"/>
-      <c r="CO40" s="14"/>
-      <c r="CP40" s="14"/>
-      <c r="CQ40" s="14"/>
-      <c r="CR40" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="41" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL41" s="14"/>
-      <c r="CM41" s="14"/>
-      <c r="CN41" s="14"/>
-      <c r="CO41" s="14"/>
-      <c r="CP41" s="14"/>
-      <c r="CQ41" s="14"/>
-      <c r="CR41" s="14"/>
-    </row>
-    <row r="42" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="CL42" s="14"/>
-      <c r="CM42" s="14"/>
-      <c r="CN42" s="14"/>
-      <c r="CO42" s="14"/>
-      <c r="CP42" s="14"/>
-      <c r="CQ42" s="14"/>
-      <c r="CR42" s="14"/>
     </row>
-    <row r="43" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CL43" s="14"/>
-      <c r="CM43" s="14"/>
-      <c r="CN43" s="14"/>
-      <c r="CO43" s="14"/>
-      <c r="CP43" s="14"/>
-      <c r="CQ43" s="14"/>
-      <c r="CR43" s="14"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="44" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CL44" s="14"/>
-      <c r="CM44" s="14"/>
-      <c r="CN44" s="14"/>
-      <c r="CO44" s="14"/>
-      <c r="CP44" s="14"/>
-      <c r="CQ44" s="14"/>
-      <c r="CR44" s="14"/>
     </row>
-    <row r="45" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL45" s="14"/>
-      <c r="CM45" s="14"/>
-      <c r="CN45" s="14"/>
-      <c r="CO45" s="14"/>
-      <c r="CP45" s="14"/>
-      <c r="CQ45" s="14"/>
-      <c r="CR45" s="14"/>
+    <row r="45" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16">
+        <v>2001</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
+        <v>2002</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16">
+        <v>2003</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16">
+        <v>2005</v>
+      </c>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16">
+        <v>2006</v>
+      </c>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16">
+        <v>2007</v>
+      </c>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16">
+        <v>2008</v>
+      </c>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16">
+        <v>2009</v>
+      </c>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16">
+        <v>2010</v>
+      </c>
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16">
+        <v>2011</v>
+      </c>
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="16"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16">
+        <v>2012</v>
+      </c>
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16">
+        <v>2013</v>
+      </c>
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
+      <c r="BF46" s="16">
+        <v>2014</v>
+      </c>
+      <c r="BG46" s="16"/>
+      <c r="BH46" s="16"/>
+      <c r="BI46" s="16"/>
+      <c r="BJ46" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BK46" s="16"/>
+      <c r="BL46" s="16"/>
+      <c r="BM46" s="16"/>
+      <c r="BN46" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BO46" s="16"/>
+      <c r="BP46" s="16"/>
+      <c r="BQ46" s="16"/>
+      <c r="BR46" s="16">
+        <v>2017</v>
+      </c>
+      <c r="BS46" s="16"/>
+      <c r="BT46" s="16"/>
+      <c r="BU46" s="16"/>
+      <c r="BV46" s="16">
+        <v>2018</v>
+      </c>
+      <c r="BW46" s="16"/>
+      <c r="BX46" s="16"/>
+      <c r="BY46" s="16"/>
+      <c r="BZ46" s="16">
+        <v>2019</v>
+      </c>
+      <c r="CA46" s="16"/>
+      <c r="CB46" s="16"/>
+      <c r="CC46" s="16"/>
+      <c r="CD46" s="16">
+        <v>2020</v>
+      </c>
+      <c r="CE46" s="16"/>
+      <c r="CF46" s="16"/>
+      <c r="CG46" s="16"/>
+      <c r="CH46" s="16">
+        <v>2021</v>
+      </c>
+      <c r="CI46" s="16"/>
+      <c r="CJ46" s="16"/>
+      <c r="CK46" s="16"/>
+      <c r="CL46" s="14">
+        <v>2022</v>
+      </c>
+      <c r="CM46" s="14"/>
+      <c r="CN46" s="14"/>
+      <c r="CO46" s="14"/>
+      <c r="CP46" s="14">
+        <v>2023</v>
+      </c>
+      <c r="CQ46" s="14"/>
+      <c r="CR46" s="14"/>
+      <c r="CS46" s="14"/>
     </row>
-    <row r="46" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="22">
-        <v>2000</v>
-      </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22">
-        <v>2001</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22">
-        <v>2002</v>
-      </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22">
-        <v>2003</v>
-      </c>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22">
-        <v>2004</v>
-      </c>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22">
-        <v>2005</v>
-      </c>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22">
-        <v>2006</v>
-      </c>
-      <c r="AA46" s="22"/>
-      <c r="AB46" s="22"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="22">
-        <v>2007</v>
-      </c>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22">
-        <v>2008</v>
-      </c>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="22">
-        <v>2009</v>
-      </c>
-      <c r="AM46" s="22"/>
-      <c r="AN46" s="22"/>
-      <c r="AO46" s="22"/>
-      <c r="AP46" s="22">
-        <v>2010</v>
-      </c>
-      <c r="AQ46" s="22"/>
-      <c r="AR46" s="22"/>
-      <c r="AS46" s="22"/>
-      <c r="AT46" s="22">
-        <v>2011</v>
-      </c>
-      <c r="AU46" s="22"/>
-      <c r="AV46" s="22"/>
-      <c r="AW46" s="22"/>
-      <c r="AX46" s="22">
-        <v>2012</v>
-      </c>
-      <c r="AY46" s="22"/>
-      <c r="AZ46" s="22"/>
-      <c r="BA46" s="22"/>
-      <c r="BB46" s="22">
-        <v>2013</v>
-      </c>
-      <c r="BC46" s="22"/>
-      <c r="BD46" s="22"/>
-      <c r="BE46" s="22"/>
-      <c r="BF46" s="22">
-        <v>2014</v>
-      </c>
-      <c r="BG46" s="22"/>
-      <c r="BH46" s="22"/>
-      <c r="BI46" s="22"/>
-      <c r="BJ46" s="22">
-        <v>2015</v>
-      </c>
-      <c r="BK46" s="22"/>
-      <c r="BL46" s="22"/>
-      <c r="BM46" s="22"/>
-      <c r="BN46" s="22">
-        <v>2016</v>
-      </c>
-      <c r="BO46" s="22"/>
-      <c r="BP46" s="22"/>
-      <c r="BQ46" s="22"/>
-      <c r="BR46" s="22">
-        <v>2017</v>
-      </c>
-      <c r="BS46" s="22"/>
-      <c r="BT46" s="22"/>
-      <c r="BU46" s="22"/>
-      <c r="BV46" s="22">
-        <v>2018</v>
-      </c>
-      <c r="BW46" s="22"/>
-      <c r="BX46" s="22"/>
-      <c r="BY46" s="22"/>
-      <c r="BZ46" s="22">
-        <v>2019</v>
-      </c>
-      <c r="CA46" s="22"/>
-      <c r="CB46" s="22"/>
-      <c r="CC46" s="22"/>
-      <c r="CD46" s="22">
-        <v>2020</v>
-      </c>
-      <c r="CE46" s="22"/>
-      <c r="CF46" s="22"/>
-      <c r="CG46" s="22"/>
-      <c r="CH46" s="22">
-        <v>2021</v>
-      </c>
-      <c r="CI46" s="22"/>
-      <c r="CJ46" s="22"/>
-      <c r="CK46" s="22"/>
-      <c r="CL46" s="23">
-        <v>2022</v>
-      </c>
-      <c r="CM46" s="23"/>
-      <c r="CN46" s="23"/>
-      <c r="CO46" s="23"/>
-      <c r="CP46" s="23">
-        <v>2023</v>
-      </c>
-      <c r="CQ46" s="23"/>
-      <c r="CR46" s="23"/>
-    </row>
-    <row r="47" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30896,39 +30828,35 @@
       <c r="CK47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL47" s="15" t="s">
+      <c r="CL47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM47" s="15" t="s">
+      <c r="CM47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN47" s="15" t="s">
+      <c r="CN47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO47" s="15" t="s">
+      <c r="CO47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP47" s="15" t="s">
+      <c r="CP47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ47" s="15" t="s">
+      <c r="CQ47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR47" s="15" t="s">
+      <c r="CR47" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CS47" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="48" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="CL48" s="14"/>
-      <c r="CM48" s="14"/>
-      <c r="CN48" s="14"/>
-      <c r="CO48" s="14"/>
-      <c r="CP48" s="14"/>
-      <c r="CQ48" s="14"/>
-      <c r="CR48" s="14"/>
     </row>
-    <row r="49" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -31196,29 +31124,32 @@
       <c r="CK49" s="6">
         <v>136985.14319459262</v>
       </c>
-      <c r="CL49" s="16">
+      <c r="CL49" s="6">
         <v>91004.129311031167</v>
       </c>
-      <c r="CM49" s="16">
+      <c r="CM49" s="6">
         <v>81438.922695771951</v>
       </c>
-      <c r="CN49" s="16">
+      <c r="CN49" s="6">
         <v>71689.374474778364</v>
       </c>
-      <c r="CO49" s="16">
+      <c r="CO49" s="6">
         <v>133574.09583906844</v>
       </c>
-      <c r="CP49" s="16">
+      <c r="CP49" s="6">
         <v>95070.645017647243</v>
       </c>
-      <c r="CQ49" s="16">
+      <c r="CQ49" s="6">
         <v>83326.387293706604</v>
       </c>
-      <c r="CR49" s="16">
+      <c r="CR49" s="6">
         <v>71841.759212200777</v>
       </c>
+      <c r="CS49" s="6">
+        <v>133795.62188317452</v>
+      </c>
     </row>
-    <row r="50" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31486,29 +31417,32 @@
       <c r="CK50" s="6">
         <v>26012.277561576338</v>
       </c>
-      <c r="CL50" s="16">
+      <c r="CL50" s="6">
         <v>31062.236102475232</v>
       </c>
-      <c r="CM50" s="16">
+      <c r="CM50" s="6">
         <v>19905.467016083261</v>
       </c>
-      <c r="CN50" s="16">
+      <c r="CN50" s="6">
         <v>30085.655035864416</v>
       </c>
-      <c r="CO50" s="16">
+      <c r="CO50" s="6">
         <v>24194.329118444788</v>
       </c>
-      <c r="CP50" s="16">
+      <c r="CP50" s="6">
         <v>32063.305435735991</v>
       </c>
-      <c r="CQ50" s="16">
+      <c r="CQ50" s="6">
         <v>19755.7796927202</v>
       </c>
-      <c r="CR50" s="16">
+      <c r="CR50" s="6">
         <v>31589.499479743317</v>
       </c>
+      <c r="CS50" s="6">
+        <v>23770.218784570905</v>
+      </c>
     </row>
-    <row r="51" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31776,29 +31710,32 @@
       <c r="CK51" s="6">
         <v>22219.682316555529</v>
       </c>
-      <c r="CL51" s="16">
+      <c r="CL51" s="6">
         <v>26117.402678591501</v>
       </c>
-      <c r="CM51" s="16">
+      <c r="CM51" s="6">
         <v>13529.384348503043</v>
       </c>
-      <c r="CN51" s="16">
+      <c r="CN51" s="6">
         <v>21954.494998102586</v>
       </c>
-      <c r="CO51" s="16">
+      <c r="CO51" s="6">
         <v>22516.097250357081</v>
       </c>
-      <c r="CP51" s="16">
+      <c r="CP51" s="6">
         <v>26985.100062939469</v>
       </c>
-      <c r="CQ51" s="16">
+      <c r="CQ51" s="6">
         <v>13845.021259312678</v>
       </c>
-      <c r="CR51" s="16">
-        <v>21628.835847851158</v>
+      <c r="CR51" s="6">
+        <v>21716.187030552432</v>
+      </c>
+      <c r="CS51" s="6">
+        <v>22152.817713807355</v>
       </c>
     </row>
-    <row r="52" spans="1:96" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:97" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -32066,29 +32003,32 @@
       <c r="CK52" s="6">
         <v>6472.9553974543342</v>
       </c>
-      <c r="CL52" s="16">
+      <c r="CL52" s="6">
         <v>13330.49397529572</v>
       </c>
-      <c r="CM52" s="16">
+      <c r="CM52" s="6">
         <v>5752.2216478901746</v>
       </c>
-      <c r="CN52" s="16">
+      <c r="CN52" s="6">
         <v>945.64137379305657</v>
       </c>
-      <c r="CO52" s="16">
+      <c r="CO52" s="6">
         <v>7506.6868217338251</v>
       </c>
-      <c r="CP52" s="16">
+      <c r="CP52" s="6">
         <v>11060.969515075987</v>
       </c>
-      <c r="CQ52" s="16">
+      <c r="CQ52" s="6">
         <v>5404.4817506747968</v>
       </c>
-      <c r="CR52" s="16">
-        <v>754.15308007277974</v>
+      <c r="CR52" s="6">
+        <v>754.15904563718243</v>
+      </c>
+      <c r="CS52" s="6">
+        <v>8475.99226786908</v>
       </c>
     </row>
-    <row r="53" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -32356,29 +32296,32 @@
       <c r="CK53" s="6">
         <v>34548.688102399865</v>
       </c>
-      <c r="CL53" s="16">
+      <c r="CL53" s="6">
         <v>30361.309675885401</v>
       </c>
-      <c r="CM53" s="16">
+      <c r="CM53" s="6">
         <v>34130.300358639637</v>
       </c>
-      <c r="CN53" s="16">
+      <c r="CN53" s="6">
         <v>35250.992937110655</v>
       </c>
-      <c r="CO53" s="16">
+      <c r="CO53" s="6">
         <v>34237.945742791388</v>
       </c>
-      <c r="CP53" s="16">
+      <c r="CP53" s="6">
         <v>30398.832077773182</v>
       </c>
-      <c r="CQ53" s="16">
+      <c r="CQ53" s="6">
         <v>34371.790936038713</v>
       </c>
-      <c r="CR53" s="16">
-        <v>35321.05836643964</v>
+      <c r="CR53" s="6">
+        <v>35322.648439687189</v>
+      </c>
+      <c r="CS53" s="6">
+        <v>34163.539879318785</v>
       </c>
     </row>
-    <row r="54" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32646,29 +32589,32 @@
       <c r="CK54" s="6">
         <v>7637.3274546257144</v>
       </c>
-      <c r="CL54" s="16">
+      <c r="CL54" s="6">
         <v>5476.8676156831989</v>
       </c>
-      <c r="CM54" s="16">
+      <c r="CM54" s="6">
         <v>18114.628431223435</v>
       </c>
-      <c r="CN54" s="16">
+      <c r="CN54" s="6">
         <v>2283.1506726753864</v>
       </c>
-      <c r="CO54" s="16">
+      <c r="CO54" s="6">
         <v>7173.8923183657735</v>
       </c>
-      <c r="CP54" s="16">
+      <c r="CP54" s="6">
         <v>5890.8435345289809</v>
       </c>
-      <c r="CQ54" s="16">
+      <c r="CQ54" s="6">
         <v>20158.240507159462</v>
       </c>
-      <c r="CR54" s="16">
-        <v>2628.4797473218264</v>
+      <c r="CR54" s="6">
+        <v>2628.4309591994365</v>
+      </c>
+      <c r="CS54" s="6">
+        <v>7731.4209721385942</v>
       </c>
     </row>
-    <row r="55" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32936,29 +32882,32 @@
       <c r="CK55" s="6">
         <v>8874.956914522314</v>
       </c>
-      <c r="CL55" s="16">
+      <c r="CL55" s="6">
         <v>7419.562615870148</v>
       </c>
-      <c r="CM55" s="16">
+      <c r="CM55" s="6">
         <v>6418.7609778100941</v>
       </c>
-      <c r="CN55" s="16">
+      <c r="CN55" s="6">
         <v>6557.774813556749</v>
       </c>
-      <c r="CO55" s="16">
+      <c r="CO55" s="6">
         <v>9371.5829921354416</v>
       </c>
-      <c r="CP55" s="16">
+      <c r="CP55" s="6">
         <v>7127.1696539006925</v>
       </c>
-      <c r="CQ55" s="16">
+      <c r="CQ55" s="6">
         <v>6652.3705715084698</v>
       </c>
-      <c r="CR55" s="16">
-        <v>6788.9836175500213</v>
+      <c r="CR55" s="6">
+        <v>6788.9836422933449</v>
+      </c>
+      <c r="CS55" s="6">
+        <v>9397.6510004173979</v>
       </c>
     </row>
-    <row r="56" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -33226,29 +33175,32 @@
       <c r="CK56" s="6">
         <v>2438.5153358828811</v>
       </c>
-      <c r="CL56" s="16">
+      <c r="CL56" s="6">
         <v>2296.69422377304</v>
       </c>
-      <c r="CM56" s="16">
+      <c r="CM56" s="6">
         <v>529.35724707990573</v>
       </c>
-      <c r="CN56" s="16">
+      <c r="CN56" s="6">
         <v>576.99787870647981</v>
       </c>
-      <c r="CO56" s="16">
+      <c r="CO56" s="6">
         <v>2486.0593712919899</v>
       </c>
-      <c r="CP56" s="16">
+      <c r="CP56" s="6">
         <v>2331.4337907316117</v>
       </c>
-      <c r="CQ56" s="16">
+      <c r="CQ56" s="6">
         <v>542.7079285475595</v>
       </c>
-      <c r="CR56" s="16">
-        <v>611.30609235679231</v>
+      <c r="CR56" s="6">
+        <v>611.3079649947116</v>
+      </c>
+      <c r="CS56" s="6">
+        <v>2444.9284564662621</v>
       </c>
     </row>
-    <row r="57" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33516,29 +33468,32 @@
       <c r="CK57" s="6">
         <v>5968.1059266650409</v>
       </c>
-      <c r="CL57" s="16">
+      <c r="CL57" s="6">
         <v>3565.1567461376917</v>
       </c>
-      <c r="CM57" s="16">
+      <c r="CM57" s="6">
         <v>5447.0100612469996</v>
       </c>
-      <c r="CN57" s="16">
+      <c r="CN57" s="6">
         <v>4696.510629733878</v>
       </c>
-      <c r="CO57" s="16">
+      <c r="CO57" s="6">
         <v>5996.1146708887454</v>
       </c>
-      <c r="CP57" s="16">
+      <c r="CP57" s="6">
         <v>3749.7935901032583</v>
       </c>
-      <c r="CQ57" s="16">
+      <c r="CQ57" s="6">
         <v>5527.0734165302592</v>
       </c>
-      <c r="CR57" s="16">
-        <v>4561.7337325912167</v>
+      <c r="CR57" s="6">
+        <v>4561.3216873435822</v>
+      </c>
+      <c r="CS57" s="6">
+        <v>5847.9412760270097</v>
       </c>
     </row>
-    <row r="58" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33806,29 +33761,32 @@
       <c r="CK58" s="6">
         <v>3637.2695549231116</v>
       </c>
-      <c r="CL58" s="16">
+      <c r="CL58" s="6">
         <v>896.32230014172092</v>
       </c>
-      <c r="CM58" s="16">
+      <c r="CM58" s="6">
         <v>3282.1534614378315</v>
       </c>
-      <c r="CN58" s="16">
+      <c r="CN58" s="6">
         <v>2271.5266302254395</v>
       </c>
-      <c r="CO58" s="16">
+      <c r="CO58" s="6">
         <v>3369.5887063748746</v>
       </c>
-      <c r="CP58" s="16">
+      <c r="CP58" s="6">
         <v>860.98071027649576</v>
       </c>
-      <c r="CQ58" s="16">
+      <c r="CQ58" s="6">
         <v>3002.7406619358226</v>
       </c>
-      <c r="CR58" s="16">
+      <c r="CR58" s="6">
         <v>1984.1829947083663</v>
       </c>
+      <c r="CS58" s="6">
+        <v>3118.5188417332056</v>
+      </c>
     </row>
-    <row r="59" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -34096,29 +34054,32 @@
       <c r="CK59" s="6">
         <v>560.17425677377958</v>
       </c>
-      <c r="CL59" s="16">
+      <c r="CL59" s="6">
         <v>602.83178481677601</v>
       </c>
-      <c r="CM59" s="16">
+      <c r="CM59" s="6">
         <v>496.2511506741547</v>
       </c>
-      <c r="CN59" s="16">
+      <c r="CN59" s="6">
         <v>369.68390302396267</v>
       </c>
-      <c r="CO59" s="16">
+      <c r="CO59" s="6">
         <v>572.90764402431273</v>
       </c>
-      <c r="CP59" s="16">
+      <c r="CP59" s="6">
         <v>593.01948382610692</v>
       </c>
-      <c r="CQ59" s="16">
+      <c r="CQ59" s="6">
         <v>516.11070721366809</v>
       </c>
-      <c r="CR59" s="16">
+      <c r="CR59" s="6">
         <v>389.81987911619365</v>
       </c>
+      <c r="CS59" s="6">
+        <v>592.97319456812647</v>
+      </c>
     </row>
-    <row r="60" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -34386,29 +34347,32 @@
       <c r="CK60" s="6">
         <v>473.28044684582699</v>
       </c>
-      <c r="CL60" s="16">
+      <c r="CL60" s="6">
         <v>458.36927466851046</v>
       </c>
-      <c r="CM60" s="16">
+      <c r="CM60" s="6">
         <v>455.4955949964467</v>
       </c>
-      <c r="CN60" s="16">
+      <c r="CN60" s="6">
         <v>334.6487350299634</v>
       </c>
-      <c r="CO60" s="16">
+      <c r="CO60" s="6">
         <v>486.95604071117191</v>
       </c>
-      <c r="CP60" s="16">
+      <c r="CP60" s="6">
         <v>474.98310285381649</v>
       </c>
-      <c r="CQ60" s="16">
+      <c r="CQ60" s="6">
         <v>451.16315078455136</v>
       </c>
-      <c r="CR60" s="16">
-        <v>313.08693553888634</v>
+      <c r="CR60" s="6">
+        <v>315.78560023108719</v>
+      </c>
+      <c r="CS60" s="6">
+        <v>506.51206521063375</v>
       </c>
     </row>
-    <row r="61" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34676,29 +34640,32 @@
       <c r="CK61" s="6">
         <v>859.3869258010468</v>
       </c>
-      <c r="CL61" s="16">
+      <c r="CL61" s="6">
         <v>271.36756407619481</v>
       </c>
-      <c r="CM61" s="16">
+      <c r="CM61" s="6">
         <v>362.10023020330527</v>
       </c>
-      <c r="CN61" s="16">
+      <c r="CN61" s="6">
         <v>198.75870180661479</v>
       </c>
-      <c r="CO61" s="16">
+      <c r="CO61" s="6">
         <v>930.3324849411872</v>
       </c>
-      <c r="CP61" s="16">
+      <c r="CP61" s="6">
         <v>310.03904547366005</v>
       </c>
-      <c r="CQ61" s="16">
+      <c r="CQ61" s="6">
         <v>368.26732043012771</v>
       </c>
-      <c r="CR61" s="16">
+      <c r="CR61" s="6">
         <v>435.49449054084096</v>
       </c>
+      <c r="CS61" s="6">
+        <v>943.72135303281129</v>
+      </c>
     </row>
-    <row r="62" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34966,29 +34933,32 @@
       <c r="CK62" s="6">
         <v>25751.605731508971</v>
       </c>
-      <c r="CL62" s="16">
+      <c r="CL62" s="6">
         <v>24646.655641688456</v>
       </c>
-      <c r="CM62" s="16">
+      <c r="CM62" s="6">
         <v>23779.336971489225</v>
       </c>
-      <c r="CN62" s="16">
+      <c r="CN62" s="6">
         <v>17925.753473563913</v>
       </c>
-      <c r="CO62" s="16">
+      <c r="CO62" s="6">
         <v>25792.209956883882</v>
       </c>
-      <c r="CP62" s="16">
+      <c r="CP62" s="6">
         <v>24916.005770249827</v>
       </c>
-      <c r="CQ62" s="16">
+      <c r="CQ62" s="6">
         <v>23906.312530136482</v>
       </c>
-      <c r="CR62" s="16">
-        <v>16875.507004165313</v>
+      <c r="CR62" s="6">
+        <v>17032.932600548505</v>
+      </c>
+      <c r="CS62" s="6">
+        <v>25650.126657423727</v>
       </c>
     </row>
-    <row r="63" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -35256,29 +35226,32 @@
       <c r="CK63" s="6">
         <v>46994.802685817325</v>
       </c>
-      <c r="CL63" s="16">
+      <c r="CL63" s="6">
         <v>44729.156148321548</v>
       </c>
-      <c r="CM63" s="16">
+      <c r="CM63" s="6">
         <v>44722.839473705768</v>
       </c>
-      <c r="CN63" s="16">
+      <c r="CN63" s="6">
         <v>45185.317033269297</v>
       </c>
-      <c r="CO63" s="16">
+      <c r="CO63" s="6">
         <v>48430.042560249916</v>
       </c>
-      <c r="CP63" s="16">
+      <c r="CP63" s="6">
         <v>46960.814907114342</v>
       </c>
-      <c r="CQ63" s="16">
+      <c r="CQ63" s="6">
         <v>45418.830187941901</v>
       </c>
-      <c r="CR63" s="16">
-        <v>46405.067656777304</v>
+      <c r="CR63" s="6">
+        <v>46405.432668481109</v>
+      </c>
+      <c r="CS63" s="6">
+        <v>49730.947136093979</v>
       </c>
     </row>
-    <row r="64" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -35546,29 +35519,32 @@
       <c r="CK64" s="6">
         <v>52968.11760138697</v>
       </c>
-      <c r="CL64" s="16">
+      <c r="CL64" s="6">
         <v>49310.850326626402</v>
       </c>
-      <c r="CM64" s="16">
+      <c r="CM64" s="6">
         <v>40594.161489951555</v>
       </c>
-      <c r="CN64" s="16">
+      <c r="CN64" s="6">
         <v>43059.695089992543</v>
       </c>
-      <c r="CO64" s="16">
+      <c r="CO64" s="6">
         <v>53789.969913542431</v>
       </c>
-      <c r="CP64" s="16">
+      <c r="CP64" s="6">
         <v>50865.133922985086</v>
       </c>
-      <c r="CQ64" s="16">
+      <c r="CQ64" s="6">
         <v>41071.883067845381</v>
       </c>
-      <c r="CR64" s="16">
+      <c r="CR64" s="6">
         <v>44293.571884788791</v>
       </c>
+      <c r="CS64" s="6">
+        <v>57975.432662686813</v>
+      </c>
     </row>
-    <row r="65" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35836,29 +35812,32 @@
       <c r="CK65" s="6">
         <v>19190.283515110379</v>
       </c>
-      <c r="CL65" s="16">
+      <c r="CL65" s="6">
         <v>18483.720406903332</v>
       </c>
-      <c r="CM65" s="16">
+      <c r="CM65" s="6">
         <v>16867.177959083474</v>
       </c>
-      <c r="CN65" s="16">
+      <c r="CN65" s="6">
         <v>17274.519488212791</v>
       </c>
-      <c r="CO65" s="16">
+      <c r="CO65" s="6">
         <v>19570.459116741433</v>
       </c>
-      <c r="CP65" s="16">
+      <c r="CP65" s="6">
         <v>19011.270149179843</v>
       </c>
-      <c r="CQ65" s="16">
+      <c r="CQ65" s="6">
         <v>17089.519540505204</v>
       </c>
-      <c r="CR65" s="16">
+      <c r="CR65" s="6">
         <v>17776.937784153091</v>
       </c>
+      <c r="CS65" s="6">
+        <v>20609.756698521654</v>
+      </c>
     </row>
-    <row r="66" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -36126,29 +36105,32 @@
       <c r="CK66" s="6">
         <v>216.88256050690347</v>
       </c>
-      <c r="CL66" s="16">
+      <c r="CL66" s="6">
         <v>833.37896351986751</v>
       </c>
-      <c r="CM66" s="16">
+      <c r="CM66" s="6">
         <v>694.17351293900333</v>
       </c>
-      <c r="CN66" s="16">
+      <c r="CN66" s="6">
         <v>988.04459142650876</v>
       </c>
-      <c r="CO66" s="16">
+      <c r="CO66" s="6">
         <v>191.11873004219791</v>
       </c>
-      <c r="CP66" s="16">
+      <c r="CP66" s="6">
         <v>444.97014889775153</v>
       </c>
-      <c r="CQ66" s="16">
+      <c r="CQ66" s="6">
         <v>555.61521891818427</v>
       </c>
-      <c r="CR66" s="16">
-        <v>1124.3237208363175</v>
+      <c r="CR66" s="6">
+        <v>917.26373215974377</v>
+      </c>
+      <c r="CS66" s="6">
+        <v>171.61549115987964</v>
       </c>
     </row>
-    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -36416,29 +36398,32 @@
       <c r="CK67" s="6">
         <v>71444.644945749271</v>
       </c>
-      <c r="CL67" s="16">
+      <c r="CL67" s="6">
         <v>45118.562967812133</v>
       </c>
-      <c r="CM67" s="16">
+      <c r="CM67" s="6">
         <v>48790.279693865945</v>
       </c>
-      <c r="CN67" s="16">
+      <c r="CN67" s="6">
         <v>52445.259032918431</v>
       </c>
-      <c r="CO67" s="16">
+      <c r="CO67" s="6">
         <v>69200.637338889384</v>
       </c>
-      <c r="CP67" s="16">
+      <c r="CP67" s="6">
         <v>45390.083262683576</v>
       </c>
-      <c r="CQ67" s="16">
+      <c r="CQ67" s="6">
         <v>42320.455808305953</v>
       </c>
-      <c r="CR67" s="16">
-        <v>50296.514170238792</v>
+      <c r="CR67" s="6">
+        <v>50290.444941104666</v>
+      </c>
+      <c r="CS67" s="6">
+        <v>65599.631467612271</v>
       </c>
     </row>
-    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36706,30 +36691,33 @@
       <c r="CK68" s="6">
         <v>53842.114921497356</v>
       </c>
-      <c r="CL68" s="16">
+      <c r="CL68" s="6">
         <v>38875.78190895031</v>
       </c>
-      <c r="CM68" s="16">
+      <c r="CM68" s="6">
         <v>51509.999366363823</v>
       </c>
-      <c r="CN68" s="16">
+      <c r="CN68" s="6">
         <v>52458.304934282831</v>
       </c>
-      <c r="CO68" s="16">
+      <c r="CO68" s="6">
         <v>55874.953256162233</v>
       </c>
-      <c r="CP68" s="16">
+      <c r="CP68" s="6">
         <v>40097.190131400988</v>
       </c>
-      <c r="CQ68" s="16">
+      <c r="CQ68" s="6">
         <v>53385.012609973783</v>
       </c>
-      <c r="CR68" s="16">
+      <c r="CR68" s="6">
         <v>54672.313379685933</v>
       </c>
+      <c r="CS68" s="6">
+        <v>59744.66307843184</v>
+      </c>
     </row>
-    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36997,29 +36985,32 @@
       <c r="CK70" s="8">
         <v>527096.21535019553</v>
       </c>
-      <c r="CL70" s="18">
+      <c r="CL70" s="8">
         <v>434860.85023226833</v>
       </c>
-      <c r="CM70" s="18">
+      <c r="CM70" s="8">
         <v>416820.02168895892</v>
       </c>
-      <c r="CN70" s="18">
+      <c r="CN70" s="8">
         <v>406552.10442807386</v>
       </c>
-      <c r="CO70" s="18">
+      <c r="CO70" s="8">
         <v>525265.97987364046</v>
       </c>
-      <c r="CP70" s="18">
+      <c r="CP70" s="8">
         <v>444602.58331337787</v>
       </c>
-      <c r="CQ70" s="18">
+      <c r="CQ70" s="8">
         <v>417669.76416018978</v>
       </c>
-      <c r="CR70" s="18">
-        <v>410292.62907667737</v>
+      <c r="CR70" s="8">
+        <v>410328.4774171703</v>
+      </c>
+      <c r="CS70" s="8">
+        <v>532424.03088026482</v>
       </c>
     </row>
-    <row r="71" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -37109,263 +37100,209 @@
       <c r="CI71" s="10"/>
       <c r="CJ71" s="10"/>
       <c r="CK71" s="10"/>
-      <c r="CL71" s="19"/>
-      <c r="CM71" s="19"/>
-      <c r="CN71" s="19"/>
-      <c r="CO71" s="19"/>
-      <c r="CP71" s="19"/>
-      <c r="CQ71" s="19"/>
-      <c r="CR71" s="19"/>
+      <c r="CL71" s="10"/>
+      <c r="CM71" s="10"/>
+      <c r="CN71" s="10"/>
+      <c r="CO71" s="10"/>
+      <c r="CP71" s="10"/>
+      <c r="CQ71" s="10"/>
+      <c r="CR71" s="10"/>
+      <c r="CS71" s="10"/>
     </row>
-    <row r="72" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL72" s="14"/>
-      <c r="CM72" s="14"/>
-      <c r="CN72" s="14"/>
-      <c r="CO72" s="14"/>
-      <c r="CP72" s="14"/>
-      <c r="CQ72" s="14"/>
-      <c r="CR72" s="14"/>
     </row>
-    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL75" s="14"/>
-      <c r="CM75" s="14"/>
-      <c r="CN75" s="14"/>
-      <c r="CO75" s="14"/>
-      <c r="CP75" s="14"/>
-      <c r="CQ75" s="14"/>
-      <c r="CR75" s="14"/>
     </row>
-    <row r="76" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CL76" s="14"/>
-      <c r="CM76" s="14"/>
-      <c r="CN76" s="14"/>
-      <c r="CO76" s="14"/>
-      <c r="CP76" s="14"/>
-      <c r="CQ76" s="14"/>
-      <c r="CR76" s="14"/>
     </row>
-    <row r="77" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL77" s="14"/>
-      <c r="CM77" s="14"/>
-      <c r="CN77" s="14"/>
-      <c r="CO77" s="14"/>
-      <c r="CP77" s="14"/>
-      <c r="CQ77" s="14"/>
-      <c r="CR77" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="78" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL78" s="14"/>
-      <c r="CM78" s="14"/>
-      <c r="CN78" s="14"/>
-      <c r="CO78" s="14"/>
-      <c r="CP78" s="14"/>
-      <c r="CQ78" s="14"/>
-      <c r="CR78" s="14"/>
-    </row>
-    <row r="79" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="CL79" s="14"/>
-      <c r="CM79" s="14"/>
-      <c r="CN79" s="14"/>
-      <c r="CO79" s="14"/>
-      <c r="CP79" s="14"/>
-      <c r="CQ79" s="14"/>
-      <c r="CR79" s="14"/>
     </row>
-    <row r="80" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CL80" s="14"/>
-      <c r="CM80" s="14"/>
-      <c r="CN80" s="14"/>
-      <c r="CO80" s="14"/>
-      <c r="CP80" s="14"/>
-      <c r="CQ80" s="14"/>
-      <c r="CR80" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="81" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="CL81" s="14"/>
-      <c r="CM81" s="14"/>
-      <c r="CN81" s="14"/>
-      <c r="CO81" s="14"/>
-      <c r="CP81" s="14"/>
-      <c r="CQ81" s="14"/>
-      <c r="CR81" s="14"/>
+      <c r="CP81" s="5"/>
+      <c r="CQ81" s="5"/>
+      <c r="CR81" s="5"/>
+      <c r="CS81" s="5"/>
     </row>
-    <row r="82" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL82" s="14"/>
-      <c r="CM82" s="14"/>
-      <c r="CN82" s="14"/>
-      <c r="CO82" s="14"/>
-      <c r="CP82" s="14"/>
-      <c r="CQ82" s="14"/>
-      <c r="CR82" s="14"/>
+    <row r="82" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP82" s="5"/>
+      <c r="CQ82" s="5"/>
+      <c r="CR82" s="5"/>
+      <c r="CS82" s="5"/>
     </row>
-    <row r="83" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22" t="s">
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22" t="s">
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22" t="s">
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22" t="s">
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
-      <c r="V83" s="22" t="s">
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="22"/>
-      <c r="X83" s="22"/>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22" t="s">
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22" t="s">
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
-      <c r="AG83" s="22"/>
-      <c r="AH83" s="22" t="s">
+      <c r="AE83" s="16"/>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+      <c r="AH83" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="22"/>
-      <c r="AJ83" s="22"/>
-      <c r="AK83" s="22"/>
-      <c r="AL83" s="22" t="s">
+      <c r="AI83" s="16"/>
+      <c r="AJ83" s="16"/>
+      <c r="AK83" s="16"/>
+      <c r="AL83" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="22"/>
-      <c r="AN83" s="22"/>
-      <c r="AO83" s="22"/>
-      <c r="AP83" s="22" t="s">
+      <c r="AM83" s="16"/>
+      <c r="AN83" s="16"/>
+      <c r="AO83" s="16"/>
+      <c r="AP83" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="22"/>
-      <c r="AR83" s="22"/>
-      <c r="AS83" s="22"/>
-      <c r="AT83" s="22" t="s">
+      <c r="AQ83" s="16"/>
+      <c r="AR83" s="16"/>
+      <c r="AS83" s="16"/>
+      <c r="AT83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="22"/>
-      <c r="AV83" s="22"/>
-      <c r="AW83" s="22"/>
-      <c r="AX83" s="22" t="s">
+      <c r="AU83" s="16"/>
+      <c r="AV83" s="16"/>
+      <c r="AW83" s="16"/>
+      <c r="AX83" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="22"/>
-      <c r="AZ83" s="22"/>
-      <c r="BA83" s="22"/>
-      <c r="BB83" s="22" t="s">
+      <c r="AY83" s="16"/>
+      <c r="AZ83" s="16"/>
+      <c r="BA83" s="16"/>
+      <c r="BB83" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="22"/>
-      <c r="BD83" s="22"/>
-      <c r="BE83" s="22"/>
-      <c r="BF83" s="22" t="s">
+      <c r="BC83" s="16"/>
+      <c r="BD83" s="16"/>
+      <c r="BE83" s="16"/>
+      <c r="BF83" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="22"/>
-      <c r="BH83" s="22"/>
-      <c r="BI83" s="22"/>
-      <c r="BJ83" s="22" t="s">
+      <c r="BG83" s="16"/>
+      <c r="BH83" s="16"/>
+      <c r="BI83" s="16"/>
+      <c r="BJ83" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="22"/>
-      <c r="BL83" s="22"/>
-      <c r="BM83" s="22"/>
-      <c r="BN83" s="22" t="s">
+      <c r="BK83" s="16"/>
+      <c r="BL83" s="16"/>
+      <c r="BM83" s="16"/>
+      <c r="BN83" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="22"/>
-      <c r="BP83" s="22"/>
-      <c r="BQ83" s="22"/>
-      <c r="BR83" s="22" t="s">
+      <c r="BO83" s="16"/>
+      <c r="BP83" s="16"/>
+      <c r="BQ83" s="16"/>
+      <c r="BR83" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="22"/>
-      <c r="BT83" s="22"/>
-      <c r="BU83" s="22"/>
-      <c r="BV83" s="22" t="s">
+      <c r="BS83" s="16"/>
+      <c r="BT83" s="16"/>
+      <c r="BU83" s="16"/>
+      <c r="BV83" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="22"/>
-      <c r="BX83" s="22"/>
-      <c r="BY83" s="22"/>
-      <c r="BZ83" s="22" t="s">
+      <c r="BW83" s="16"/>
+      <c r="BX83" s="16"/>
+      <c r="BY83" s="16"/>
+      <c r="BZ83" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="22"/>
-      <c r="CB83" s="22"/>
-      <c r="CC83" s="22"/>
-      <c r="CD83" s="22" t="s">
+      <c r="CA83" s="16"/>
+      <c r="CB83" s="16"/>
+      <c r="CC83" s="16"/>
+      <c r="CD83" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="22"/>
-      <c r="CF83" s="22"/>
-      <c r="CG83" s="22"/>
-      <c r="CH83" s="22" t="s">
+      <c r="CE83" s="16"/>
+      <c r="CF83" s="16"/>
+      <c r="CG83" s="16"/>
+      <c r="CH83" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CI83" s="22"/>
-      <c r="CJ83" s="22"/>
-      <c r="CK83" s="22"/>
-      <c r="CL83" s="23" t="s">
+      <c r="CI83" s="16"/>
+      <c r="CJ83" s="16"/>
+      <c r="CK83" s="16"/>
+      <c r="CL83" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="CM83" s="23"/>
-      <c r="CN83" s="23"/>
-      <c r="CO83" s="20"/>
+      <c r="CM83" s="14"/>
+      <c r="CN83" s="14"/>
+      <c r="CO83" s="14"/>
       <c r="CP83" s="13"/>
       <c r="CQ83" s="13"/>
       <c r="CR83" s="13"/>
+      <c r="CS83" s="13"/>
     </row>
-    <row r="84" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -37633,31 +37570,31 @@
       <c r="CK84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL84" s="15" t="s">
+      <c r="CL84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM84" s="15" t="s">
+      <c r="CM84" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN84" s="15" t="s">
+      <c r="CN84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO84" s="15"/>
-      <c r="CP84" s="15"/>
-      <c r="CQ84" s="15"/>
-      <c r="CR84" s="15"/>
+      <c r="CO84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP84" s="4"/>
+      <c r="CQ84" s="4"/>
+      <c r="CR84" s="4"/>
+      <c r="CS84" s="4"/>
     </row>
-    <row r="85" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="CL85" s="14"/>
-      <c r="CM85" s="14"/>
-      <c r="CN85" s="14"/>
-      <c r="CO85" s="14"/>
-      <c r="CP85" s="14"/>
-      <c r="CQ85" s="14"/>
-      <c r="CR85" s="14"/>
+      <c r="CP85" s="5"/>
+      <c r="CQ85" s="5"/>
+      <c r="CR85" s="5"/>
+      <c r="CS85" s="5"/>
     </row>
-    <row r="86" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37925,21 +37862,24 @@
       <c r="CK86" s="11">
         <v>4.8713566289459038</v>
       </c>
-      <c r="CL86" s="21">
+      <c r="CL86" s="11">
         <v>6.393067936711887</v>
       </c>
-      <c r="CM86" s="21">
+      <c r="CM86" s="11">
         <v>10.492944436353753</v>
       </c>
-      <c r="CN86" s="21">
-        <v>18.650716487583409</v>
-      </c>
-      <c r="CO86" s="21"/>
-      <c r="CP86" s="21"/>
-      <c r="CQ86" s="21"/>
-      <c r="CR86" s="21"/>
+      <c r="CN86" s="11">
+        <v>18.6507164876746</v>
+      </c>
+      <c r="CO86" s="11">
+        <v>24.932693675292668</v>
+      </c>
+      <c r="CP86" s="15"/>
+      <c r="CQ86" s="15"/>
+      <c r="CR86" s="15"/>
+      <c r="CS86" s="15"/>
     </row>
-    <row r="87" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -38207,21 +38147,24 @@
       <c r="CK87" s="11">
         <v>10.234143498594392</v>
       </c>
-      <c r="CL87" s="21">
+      <c r="CL87" s="11">
         <v>26.124127226005498</v>
       </c>
-      <c r="CM87" s="21">
+      <c r="CM87" s="11">
         <v>8.4874408919940976</v>
       </c>
-      <c r="CN87" s="21">
-        <v>12.151453351553499</v>
-      </c>
-      <c r="CO87" s="21"/>
-      <c r="CP87" s="21"/>
-      <c r="CQ87" s="21"/>
-      <c r="CR87" s="21"/>
+      <c r="CN87" s="11">
+        <v>12.151453351488371</v>
+      </c>
+      <c r="CO87" s="11">
+        <v>-0.52962083696556306</v>
+      </c>
+      <c r="CP87" s="15"/>
+      <c r="CQ87" s="15"/>
+      <c r="CR87" s="15"/>
+      <c r="CS87" s="15"/>
     </row>
-    <row r="88" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -38489,21 +38432,24 @@
       <c r="CK88" s="11">
         <v>2.8338712942072846</v>
       </c>
-      <c r="CL88" s="21">
+      <c r="CL88" s="11">
         <v>-9.7331441540463146</v>
       </c>
-      <c r="CM88" s="21">
+      <c r="CM88" s="11">
         <v>-11.512124754987113</v>
       </c>
-      <c r="CN88" s="21">
-        <v>-5.4402600380920347</v>
-      </c>
-      <c r="CO88" s="21"/>
-      <c r="CP88" s="21"/>
-      <c r="CQ88" s="21"/>
-      <c r="CR88" s="21"/>
+      <c r="CN88" s="11">
+        <v>-5.0615094043752293</v>
+      </c>
+      <c r="CO88" s="11">
+        <v>-4.4311200771280568</v>
+      </c>
+      <c r="CP88" s="11"/>
+      <c r="CQ88" s="11"/>
+      <c r="CR88" s="11"/>
+      <c r="CS88" s="11"/>
     </row>
-    <row r="89" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -38771,21 +38717,24 @@
       <c r="CK89" s="11">
         <v>122.38590880581671</v>
       </c>
-      <c r="CL89" s="21">
+      <c r="CL89" s="11">
         <v>41.51177778004481</v>
       </c>
-      <c r="CM89" s="21">
+      <c r="CM89" s="11">
         <v>34.103826282240107</v>
       </c>
-      <c r="CN89" s="21">
-        <v>-25.442452594337936</v>
-      </c>
-      <c r="CO89" s="21"/>
-      <c r="CP89" s="21"/>
-      <c r="CQ89" s="21"/>
-      <c r="CR89" s="21"/>
+      <c r="CN89" s="11">
+        <v>-25.441862823276466</v>
+      </c>
+      <c r="CO89" s="11">
+        <v>-8.18161805674427</v>
+      </c>
+      <c r="CP89" s="11"/>
+      <c r="CQ89" s="11"/>
+      <c r="CR89" s="11"/>
+      <c r="CS89" s="11"/>
     </row>
-    <row r="90" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -39053,21 +39002,24 @@
       <c r="CK90" s="11">
         <v>-18.313046080680962</v>
       </c>
-      <c r="CL90" s="21">
+      <c r="CL90" s="11">
         <v>-1.3983466766366348</v>
       </c>
-      <c r="CM90" s="21">
+      <c r="CM90" s="11">
         <v>10.88170894176443</v>
       </c>
-      <c r="CN90" s="21">
-        <v>17.250935601359146</v>
-      </c>
-      <c r="CO90" s="21"/>
-      <c r="CP90" s="21"/>
-      <c r="CQ90" s="21"/>
-      <c r="CR90" s="21"/>
+      <c r="CN90" s="11">
+        <v>17.183987942726446</v>
+      </c>
+      <c r="CO90" s="11">
+        <v>7.6736975535350922</v>
+      </c>
+      <c r="CP90" s="11"/>
+      <c r="CQ90" s="11"/>
+      <c r="CR90" s="11"/>
+      <c r="CS90" s="11"/>
     </row>
-    <row r="91" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -39335,21 +39287,24 @@
       <c r="CK91" s="11">
         <v>15.925154837542436</v>
       </c>
-      <c r="CL91" s="21">
+      <c r="CL91" s="11">
         <v>23.048213983813227</v>
       </c>
-      <c r="CM91" s="21">
+      <c r="CM91" s="11">
         <v>16.28424607036176</v>
       </c>
-      <c r="CN91" s="21">
-        <v>25.681892105815976</v>
-      </c>
-      <c r="CO91" s="21"/>
-      <c r="CP91" s="21"/>
-      <c r="CQ91" s="21"/>
-      <c r="CR91" s="21"/>
+      <c r="CN91" s="11">
+        <v>25.681562049825189</v>
+      </c>
+      <c r="CO91" s="11">
+        <v>15.65505958985645</v>
+      </c>
+      <c r="CP91" s="11"/>
+      <c r="CQ91" s="11"/>
+      <c r="CR91" s="11"/>
+      <c r="CS91" s="11"/>
     </row>
-    <row r="92" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -39617,21 +39572,24 @@
       <c r="CK92" s="11">
         <v>30.595818578834837</v>
       </c>
-      <c r="CL92" s="21">
+      <c r="CL92" s="11">
         <v>-4.7591547446685638</v>
       </c>
-      <c r="CM92" s="21">
+      <c r="CM92" s="11">
         <v>21.326558438107384</v>
       </c>
-      <c r="CN92" s="21">
-        <v>19.172659228180009</v>
-      </c>
-      <c r="CO92" s="21"/>
-      <c r="CP92" s="21"/>
-      <c r="CQ92" s="21"/>
-      <c r="CR92" s="21"/>
+      <c r="CN92" s="11">
+        <v>19.172659662370791</v>
+      </c>
+      <c r="CO92" s="11">
+        <v>21.124814114380371</v>
+      </c>
+      <c r="CP92" s="11"/>
+      <c r="CQ92" s="11"/>
+      <c r="CR92" s="11"/>
+      <c r="CS92" s="11"/>
     </row>
-    <row r="93" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -39899,21 +39857,24 @@
       <c r="CK93" s="11">
         <v>15.046153425567681</v>
       </c>
-      <c r="CL93" s="21">
+      <c r="CL93" s="11">
         <v>-0.90494101153673512</v>
       </c>
-      <c r="CM93" s="21">
+      <c r="CM93" s="11">
         <v>-16.45720628622793</v>
       </c>
-      <c r="CN93" s="21">
-        <v>4.1763513702329362</v>
-      </c>
-      <c r="CO93" s="21"/>
-      <c r="CP93" s="21"/>
-      <c r="CQ93" s="21"/>
-      <c r="CR93" s="21"/>
+      <c r="CN93" s="11">
+        <v>4.1766722451364302</v>
+      </c>
+      <c r="CO93" s="11">
+        <v>31.318877991351854</v>
+      </c>
+      <c r="CP93" s="11"/>
+      <c r="CQ93" s="11"/>
+      <c r="CR93" s="11"/>
+      <c r="CS93" s="11"/>
     </row>
-    <row r="94" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -40181,21 +40142,24 @@
       <c r="CK94" s="11">
         <v>9.6931945170118325</v>
       </c>
-      <c r="CL94" s="21">
+      <c r="CL94" s="11">
         <v>23.03114230208611</v>
       </c>
-      <c r="CM94" s="21">
+      <c r="CM94" s="11">
         <v>19.482741052679415</v>
       </c>
-      <c r="CN94" s="21">
-        <v>14.051652235324013</v>
-      </c>
-      <c r="CO94" s="21"/>
-      <c r="CP94" s="21"/>
-      <c r="CQ94" s="21"/>
-      <c r="CR94" s="21"/>
+      <c r="CN94" s="11">
+        <v>14.03616565488457</v>
+      </c>
+      <c r="CO94" s="11">
+        <v>16.222965404845667</v>
+      </c>
+      <c r="CP94" s="11"/>
+      <c r="CQ94" s="11"/>
+      <c r="CR94" s="11"/>
+      <c r="CS94" s="11"/>
     </row>
-    <row r="95" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -40463,21 +40427,24 @@
       <c r="CK95" s="11">
         <v>-17.413661532995292</v>
       </c>
-      <c r="CL95" s="21">
+      <c r="CL95" s="11">
         <v>-17.029005207731558</v>
       </c>
-      <c r="CM95" s="21">
+      <c r="CM95" s="11">
         <v>-22.049400213918531</v>
       </c>
-      <c r="CN95" s="21">
-        <v>-16.618432547511659</v>
-      </c>
-      <c r="CO95" s="21"/>
-      <c r="CP95" s="21"/>
-      <c r="CQ95" s="21"/>
-      <c r="CR95" s="21"/>
+      <c r="CN95" s="11">
+        <v>-16.618432547854155</v>
+      </c>
+      <c r="CO95" s="11">
+        <v>-2.7673555672791821</v>
+      </c>
+      <c r="CP95" s="11"/>
+      <c r="CQ95" s="11"/>
+      <c r="CR95" s="11"/>
+      <c r="CS95" s="11"/>
     </row>
-    <row r="96" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -40745,21 +40712,24 @@
       <c r="CK96" s="11">
         <v>18.180018888481527</v>
       </c>
-      <c r="CL96" s="21">
+      <c r="CL96" s="11">
         <v>12.524267970084239</v>
       </c>
-      <c r="CM96" s="21">
+      <c r="CM96" s="11">
         <v>36.437935252036169</v>
       </c>
-      <c r="CN96" s="21">
-        <v>26.774861032079201</v>
-      </c>
-      <c r="CO96" s="21"/>
-      <c r="CP96" s="21"/>
-      <c r="CQ96" s="21"/>
-      <c r="CR96" s="21"/>
+      <c r="CN96" s="11">
+        <v>26.774861031974041</v>
+      </c>
+      <c r="CO96" s="11">
+        <v>20.984170733056317</v>
+      </c>
+      <c r="CP96" s="11"/>
+      <c r="CQ96" s="11"/>
+      <c r="CR96" s="11"/>
+      <c r="CS96" s="11"/>
     </row>
-    <row r="97" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -41027,21 +40997,24 @@
       <c r="CK97" s="11">
         <v>4.920602940752957</v>
       </c>
-      <c r="CL97" s="21">
+      <c r="CL97" s="11">
         <v>-5.8877712864958198</v>
       </c>
-      <c r="CM97" s="21">
+      <c r="CM97" s="11">
         <v>-10.774677104462654</v>
       </c>
-      <c r="CN97" s="21">
-        <v>-16.041315907165924</v>
-      </c>
-      <c r="CO97" s="21"/>
-      <c r="CP97" s="21"/>
-      <c r="CQ97" s="21"/>
-      <c r="CR97" s="21"/>
+      <c r="CN97" s="11">
+        <v>-15.317630851527923</v>
+      </c>
+      <c r="CO97" s="11">
+        <v>-4.1611103777971863</v>
+      </c>
+      <c r="CP97" s="11"/>
+      <c r="CQ97" s="11"/>
+      <c r="CR97" s="11"/>
+      <c r="CS97" s="11"/>
     </row>
-    <row r="98" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -41309,21 +41282,24 @@
       <c r="CK98" s="11">
         <v>3.8779954697188259</v>
       </c>
-      <c r="CL98" s="21">
+      <c r="CL98" s="11">
         <v>13.473105268174848</v>
       </c>
-      <c r="CM98" s="21">
+      <c r="CM98" s="11">
         <v>35.309661564954354</v>
       </c>
-      <c r="CN98" s="21">
+      <c r="CN98" s="11">
         <v>216.56679956713208</v>
       </c>
-      <c r="CO98" s="21"/>
-      <c r="CP98" s="21"/>
-      <c r="CQ98" s="21"/>
-      <c r="CR98" s="21"/>
+      <c r="CO98" s="11">
+        <v>73.648447457317303</v>
+      </c>
+      <c r="CP98" s="11"/>
+      <c r="CQ98" s="11"/>
+      <c r="CR98" s="11"/>
+      <c r="CS98" s="11"/>
     </row>
-    <row r="99" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -41591,21 +41567,24 @@
       <c r="CK99" s="11">
         <v>14.846660577404336</v>
       </c>
-      <c r="CL99" s="21">
+      <c r="CL99" s="11">
         <v>41.316699765683893</v>
       </c>
-      <c r="CM99" s="21">
+      <c r="CM99" s="11">
         <v>15.000547252088609</v>
       </c>
-      <c r="CN99" s="21">
-        <v>8.9520880963583238</v>
-      </c>
-      <c r="CO99" s="21"/>
-      <c r="CP99" s="21"/>
-      <c r="CQ99" s="21"/>
-      <c r="CR99" s="21"/>
+      <c r="CN99" s="11">
+        <v>9.9119437415228191</v>
+      </c>
+      <c r="CO99" s="11">
+        <v>6.8387412454294179</v>
+      </c>
+      <c r="CP99" s="11"/>
+      <c r="CQ99" s="11"/>
+      <c r="CR99" s="11"/>
+      <c r="CS99" s="11"/>
     </row>
-    <row r="100" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -41873,21 +41852,24 @@
       <c r="CK100" s="11">
         <v>8.8225653087932017</v>
       </c>
-      <c r="CL100" s="21">
+      <c r="CL100" s="11">
         <v>4.0991414600554776</v>
       </c>
-      <c r="CM100" s="21">
+      <c r="CM100" s="11">
         <v>-3.4122547334508937</v>
       </c>
-      <c r="CN100" s="21">
-        <v>-2.6888078660967949</v>
-      </c>
-      <c r="CO100" s="21"/>
-      <c r="CP100" s="21"/>
-      <c r="CQ100" s="21"/>
-      <c r="CR100" s="21"/>
+      <c r="CN100" s="11">
+        <v>-2.6887602214488453</v>
+      </c>
+      <c r="CO100" s="11">
+        <v>8.7247311403147307</v>
+      </c>
+      <c r="CP100" s="11"/>
+      <c r="CQ100" s="11"/>
+      <c r="CR100" s="11"/>
+      <c r="CS100" s="11"/>
     </row>
-    <row r="101" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -42155,21 +42137,24 @@
       <c r="CK101" s="11">
         <v>18.779783724568077</v>
       </c>
-      <c r="CL101" s="21">
+      <c r="CL101" s="11">
         <v>18.2673577325114</v>
       </c>
-      <c r="CM101" s="21">
+      <c r="CM101" s="11">
         <v>9.2477243630222148</v>
       </c>
-      <c r="CN101" s="21">
+      <c r="CN101" s="11">
         <v>0.31424042316308487</v>
       </c>
-      <c r="CO101" s="21"/>
-      <c r="CP101" s="21"/>
-      <c r="CQ101" s="21"/>
-      <c r="CR101" s="21"/>
+      <c r="CO101" s="11">
+        <v>8.88852528303903</v>
+      </c>
+      <c r="CP101" s="11"/>
+      <c r="CQ101" s="11"/>
+      <c r="CR101" s="11"/>
+      <c r="CS101" s="11"/>
     </row>
-    <row r="102" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -42437,21 +42422,24 @@
       <c r="CK102" s="11">
         <v>13.138399104304227</v>
       </c>
-      <c r="CL102" s="21">
+      <c r="CL102" s="11">
         <v>10.074491854212781</v>
       </c>
-      <c r="CM102" s="21">
+      <c r="CM102" s="11">
         <v>-5.3915231296592196</v>
       </c>
-      <c r="CN102" s="21">
+      <c r="CN102" s="11">
         <v>-1.1187236378466565</v>
       </c>
-      <c r="CO102" s="21"/>
-      <c r="CP102" s="21"/>
-      <c r="CQ102" s="21"/>
-      <c r="CR102" s="21"/>
+      <c r="CO102" s="11">
+        <v>9.030661656795985</v>
+      </c>
+      <c r="CP102" s="11"/>
+      <c r="CQ102" s="11"/>
+      <c r="CR102" s="11"/>
+      <c r="CS102" s="11"/>
     </row>
-    <row r="103" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -42719,21 +42707,24 @@
       <c r="CK103" s="11">
         <v>-9.8109539025426926</v>
       </c>
-      <c r="CL103" s="21">
+      <c r="CL103" s="11">
         <v>-58.511027364021736</v>
       </c>
-      <c r="CM103" s="21">
+      <c r="CM103" s="11">
         <v>-29.453984477104129</v>
       </c>
-      <c r="CN103" s="21">
-        <v>12.32553317106661</v>
-      </c>
-      <c r="CO103" s="21"/>
-      <c r="CP103" s="21"/>
-      <c r="CQ103" s="21"/>
-      <c r="CR103" s="21"/>
+      <c r="CN103" s="11">
+        <v>-8.025578969776717</v>
+      </c>
+      <c r="CO103" s="11">
+        <v>-11.829586461599021</v>
+      </c>
+      <c r="CP103" s="11"/>
+      <c r="CQ103" s="11"/>
+      <c r="CR103" s="11"/>
+      <c r="CS103" s="11"/>
     </row>
-    <row r="104" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -43001,21 +42992,24 @@
       <c r="CK104" s="11">
         <v>10.695761205811948</v>
       </c>
-      <c r="CL104" s="21">
+      <c r="CL104" s="11">
         <v>25.432070793034512</v>
       </c>
-      <c r="CM104" s="21">
+      <c r="CM104" s="11">
         <v>-8.7395832536855096</v>
       </c>
-      <c r="CN104" s="21">
-        <v>-0.29763563438967822</v>
-      </c>
-      <c r="CO104" s="21"/>
-      <c r="CP104" s="21"/>
-      <c r="CQ104" s="21"/>
-      <c r="CR104" s="21"/>
+      <c r="CN104" s="11">
+        <v>-0.26403716734984073</v>
+      </c>
+      <c r="CO104" s="11">
+        <v>-5.7196709707774431</v>
+      </c>
+      <c r="CP104" s="11"/>
+      <c r="CQ104" s="11"/>
+      <c r="CR104" s="11"/>
+      <c r="CS104" s="11"/>
     </row>
-    <row r="105" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -43283,22 +43277,25 @@
       <c r="CK105" s="11">
         <v>14.372115279933226</v>
       </c>
-      <c r="CL105" s="21">
+      <c r="CL105" s="11">
         <v>13.183020768680521</v>
       </c>
-      <c r="CM105" s="21">
+      <c r="CM105" s="11">
         <v>10.85969493729155</v>
       </c>
-      <c r="CN105" s="21">
+      <c r="CN105" s="11">
         <v>8.6647214046826662</v>
       </c>
-      <c r="CO105" s="21"/>
-      <c r="CP105" s="21"/>
-      <c r="CQ105" s="21"/>
-      <c r="CR105" s="21"/>
+      <c r="CO105" s="11">
+        <v>14.547804368539843</v>
+      </c>
+      <c r="CP105" s="11"/>
+      <c r="CQ105" s="11"/>
+      <c r="CR105" s="11"/>
+      <c r="CS105" s="11"/>
     </row>
-    <row r="106" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -43566,21 +43563,24 @@
       <c r="CK107" s="11">
         <v>9.9755754418846294</v>
       </c>
-      <c r="CL107" s="21">
+      <c r="CL107" s="11">
         <v>13.399410256295567</v>
       </c>
-      <c r="CM107" s="21">
+      <c r="CM107" s="11">
         <v>4.7526460650888112</v>
       </c>
-      <c r="CN107" s="21">
-        <v>5.4528657271190326</v>
-      </c>
-      <c r="CO107" s="21"/>
-      <c r="CP107" s="21"/>
-      <c r="CQ107" s="21"/>
-      <c r="CR107" s="21"/>
+      <c r="CN107" s="11">
+        <v>5.517363683297134</v>
+      </c>
+      <c r="CO107" s="11">
+        <v>10.170370160858269</v>
+      </c>
+      <c r="CP107" s="11"/>
+      <c r="CQ107" s="11"/>
+      <c r="CR107" s="11"/>
+      <c r="CS107" s="11"/>
     </row>
-    <row r="108" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -43670,263 +43670,200 @@
       <c r="CI108" s="10"/>
       <c r="CJ108" s="10"/>
       <c r="CK108" s="10"/>
-      <c r="CL108" s="19"/>
-      <c r="CM108" s="19"/>
-      <c r="CN108" s="19"/>
-      <c r="CO108" s="19"/>
-      <c r="CP108" s="19"/>
-      <c r="CQ108" s="19"/>
-      <c r="CR108" s="19"/>
+      <c r="CL108" s="10"/>
+      <c r="CM108" s="10"/>
+      <c r="CN108" s="10"/>
+      <c r="CO108" s="10"/>
+      <c r="CP108" s="10"/>
+      <c r="CQ108" s="10"/>
+      <c r="CR108" s="10"/>
+      <c r="CS108" s="10"/>
     </row>
-    <row r="109" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL109" s="14"/>
-      <c r="CM109" s="14"/>
-      <c r="CN109" s="14"/>
-      <c r="CO109" s="14"/>
-      <c r="CP109" s="14"/>
-      <c r="CQ109" s="14"/>
-      <c r="CR109" s="14"/>
     </row>
-    <row r="110" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL112" s="14"/>
-      <c r="CM112" s="14"/>
-      <c r="CN112" s="14"/>
-      <c r="CO112" s="14"/>
-      <c r="CP112" s="14"/>
-      <c r="CQ112" s="14"/>
-      <c r="CR112" s="14"/>
     </row>
-    <row r="113" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CL113" s="14"/>
-      <c r="CM113" s="14"/>
-      <c r="CN113" s="14"/>
-      <c r="CO113" s="14"/>
-      <c r="CP113" s="14"/>
-      <c r="CQ113" s="14"/>
-      <c r="CR113" s="14"/>
     </row>
-    <row r="114" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL114" s="14"/>
-      <c r="CM114" s="14"/>
-      <c r="CN114" s="14"/>
-      <c r="CO114" s="14"/>
-      <c r="CP114" s="14"/>
-      <c r="CQ114" s="14"/>
-      <c r="CR114" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="115" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL115" s="14"/>
-      <c r="CM115" s="14"/>
-      <c r="CN115" s="14"/>
-      <c r="CO115" s="14"/>
-      <c r="CP115" s="14"/>
-      <c r="CQ115" s="14"/>
-      <c r="CR115" s="14"/>
-    </row>
-    <row r="116" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="CL116" s="14"/>
-      <c r="CM116" s="14"/>
-      <c r="CN116" s="14"/>
-      <c r="CO116" s="14"/>
-      <c r="CP116" s="14"/>
-      <c r="CQ116" s="14"/>
-      <c r="CR116" s="14"/>
     </row>
-    <row r="117" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CL117" s="14"/>
-      <c r="CM117" s="14"/>
-      <c r="CN117" s="14"/>
-      <c r="CO117" s="14"/>
-      <c r="CP117" s="14"/>
-      <c r="CQ117" s="14"/>
-      <c r="CR117" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="118" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="CL118" s="14"/>
-      <c r="CM118" s="14"/>
-      <c r="CN118" s="14"/>
-      <c r="CO118" s="14"/>
-      <c r="CP118" s="14"/>
-      <c r="CQ118" s="14"/>
-      <c r="CR118" s="14"/>
     </row>
-    <row r="119" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL119" s="14"/>
-      <c r="CM119" s="14"/>
-      <c r="CN119" s="14"/>
-      <c r="CO119" s="14"/>
-      <c r="CP119" s="14"/>
-      <c r="CQ119" s="14"/>
-      <c r="CR119" s="14"/>
-    </row>
-    <row r="120" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="22" t="s">
+      <c r="B120" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22" t="s">
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22" t="s">
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22" t="s">
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22" t="s">
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22" t="s">
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22" t="s">
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
+      <c r="Z120" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22" t="s">
+      <c r="AA120" s="16"/>
+      <c r="AB120" s="16"/>
+      <c r="AC120" s="16"/>
+      <c r="AD120" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22" t="s">
+      <c r="AE120" s="16"/>
+      <c r="AF120" s="16"/>
+      <c r="AG120" s="16"/>
+      <c r="AH120" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="22"/>
-      <c r="AJ120" s="22"/>
-      <c r="AK120" s="22"/>
-      <c r="AL120" s="22" t="s">
+      <c r="AI120" s="16"/>
+      <c r="AJ120" s="16"/>
+      <c r="AK120" s="16"/>
+      <c r="AL120" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="22"/>
-      <c r="AN120" s="22"/>
-      <c r="AO120" s="22"/>
-      <c r="AP120" s="22" t="s">
+      <c r="AM120" s="16"/>
+      <c r="AN120" s="16"/>
+      <c r="AO120" s="16"/>
+      <c r="AP120" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="22"/>
-      <c r="AR120" s="22"/>
-      <c r="AS120" s="22"/>
-      <c r="AT120" s="22" t="s">
+      <c r="AQ120" s="16"/>
+      <c r="AR120" s="16"/>
+      <c r="AS120" s="16"/>
+      <c r="AT120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="22"/>
-      <c r="AV120" s="22"/>
-      <c r="AW120" s="22"/>
-      <c r="AX120" s="22" t="s">
+      <c r="AU120" s="16"/>
+      <c r="AV120" s="16"/>
+      <c r="AW120" s="16"/>
+      <c r="AX120" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="22"/>
-      <c r="AZ120" s="22"/>
-      <c r="BA120" s="22"/>
-      <c r="BB120" s="22" t="s">
+      <c r="AY120" s="16"/>
+      <c r="AZ120" s="16"/>
+      <c r="BA120" s="16"/>
+      <c r="BB120" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="22"/>
-      <c r="BD120" s="22"/>
-      <c r="BE120" s="22"/>
-      <c r="BF120" s="22" t="s">
+      <c r="BC120" s="16"/>
+      <c r="BD120" s="16"/>
+      <c r="BE120" s="16"/>
+      <c r="BF120" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="22"/>
-      <c r="BH120" s="22"/>
-      <c r="BI120" s="22"/>
-      <c r="BJ120" s="22" t="s">
+      <c r="BG120" s="16"/>
+      <c r="BH120" s="16"/>
+      <c r="BI120" s="16"/>
+      <c r="BJ120" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="22"/>
-      <c r="BL120" s="22"/>
-      <c r="BM120" s="22"/>
-      <c r="BN120" s="22" t="s">
+      <c r="BK120" s="16"/>
+      <c r="BL120" s="16"/>
+      <c r="BM120" s="16"/>
+      <c r="BN120" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="22"/>
-      <c r="BP120" s="22"/>
-      <c r="BQ120" s="22"/>
-      <c r="BR120" s="22" t="s">
+      <c r="BO120" s="16"/>
+      <c r="BP120" s="16"/>
+      <c r="BQ120" s="16"/>
+      <c r="BR120" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="22"/>
-      <c r="BT120" s="22"/>
-      <c r="BU120" s="22"/>
-      <c r="BV120" s="22" t="s">
+      <c r="BS120" s="16"/>
+      <c r="BT120" s="16"/>
+      <c r="BU120" s="16"/>
+      <c r="BV120" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="22"/>
-      <c r="BX120" s="22"/>
-      <c r="BY120" s="22"/>
-      <c r="BZ120" s="22" t="s">
+      <c r="BW120" s="16"/>
+      <c r="BX120" s="16"/>
+      <c r="BY120" s="16"/>
+      <c r="BZ120" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="22"/>
-      <c r="CB120" s="22"/>
-      <c r="CC120" s="22"/>
-      <c r="CD120" s="22" t="s">
+      <c r="CA120" s="16"/>
+      <c r="CB120" s="16"/>
+      <c r="CC120" s="16"/>
+      <c r="CD120" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="22"/>
-      <c r="CF120" s="22"/>
-      <c r="CG120" s="22"/>
-      <c r="CH120" s="22" t="s">
+      <c r="CE120" s="16"/>
+      <c r="CF120" s="16"/>
+      <c r="CG120" s="16"/>
+      <c r="CH120" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CI120" s="22"/>
-      <c r="CJ120" s="22"/>
-      <c r="CK120" s="22"/>
-      <c r="CL120" s="23" t="s">
+      <c r="CI120" s="16"/>
+      <c r="CJ120" s="16"/>
+      <c r="CK120" s="16"/>
+      <c r="CL120" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="CM120" s="23"/>
-      <c r="CN120" s="23"/>
-      <c r="CO120" s="20"/>
+      <c r="CM120" s="14"/>
+      <c r="CN120" s="14"/>
+      <c r="CO120" s="14"/>
       <c r="CP120" s="13"/>
       <c r="CQ120" s="13"/>
       <c r="CR120" s="13"/>
+      <c r="CS120" s="13"/>
     </row>
-    <row r="121" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -44194,31 +44131,27 @@
       <c r="CK121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL121" s="15" t="s">
+      <c r="CL121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM121" s="15" t="s">
+      <c r="CM121" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN121" s="15" t="s">
+      <c r="CN121" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO121" s="15"/>
-      <c r="CP121" s="15"/>
-      <c r="CQ121" s="15"/>
-      <c r="CR121" s="15"/>
+      <c r="CO121" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP121" s="4"/>
+      <c r="CQ121" s="4"/>
+      <c r="CR121" s="4"/>
+      <c r="CS121" s="4"/>
     </row>
-    <row r="122" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="CL122" s="14"/>
-      <c r="CM122" s="14"/>
-      <c r="CN122" s="14"/>
-      <c r="CO122" s="14"/>
-      <c r="CP122" s="14"/>
-      <c r="CQ122" s="14"/>
-      <c r="CR122" s="14"/>
     </row>
-    <row r="123" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -44486,21 +44419,24 @@
       <c r="CK123" s="11">
         <v>-2.4900856224084436</v>
       </c>
-      <c r="CL123" s="21">
+      <c r="CL123" s="11">
         <v>4.4684958115665836</v>
       </c>
-      <c r="CM123" s="21">
+      <c r="CM123" s="11">
         <v>2.3176443590561462</v>
       </c>
-      <c r="CN123" s="21">
+      <c r="CN123" s="11">
         <v>0.2125625150712267</v>
       </c>
-      <c r="CO123" s="21"/>
-      <c r="CP123" s="21"/>
-      <c r="CQ123" s="21"/>
-      <c r="CR123" s="21"/>
+      <c r="CO123" s="11">
+        <v>0.16584506353160577</v>
+      </c>
+      <c r="CP123" s="11"/>
+      <c r="CQ123" s="11"/>
+      <c r="CR123" s="11"/>
+      <c r="CS123" s="11"/>
     </row>
-    <row r="124" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -44768,21 +44704,24 @@
       <c r="CK124" s="11">
         <v>-6.9888091837713802</v>
       </c>
-      <c r="CL124" s="21">
+      <c r="CL124" s="11">
         <v>3.2227857967411069</v>
       </c>
-      <c r="CM124" s="21">
+      <c r="CM124" s="11">
         <v>-0.75199101453945616</v>
       </c>
-      <c r="CN124" s="21">
+      <c r="CN124" s="11">
         <v>4.9985431332181491</v>
       </c>
-      <c r="CO124" s="21"/>
-      <c r="CP124" s="21"/>
-      <c r="CQ124" s="21"/>
-      <c r="CR124" s="21"/>
+      <c r="CO124" s="11">
+        <v>-1.7529328124686714</v>
+      </c>
+      <c r="CP124" s="11"/>
+      <c r="CQ124" s="11"/>
+      <c r="CR124" s="11"/>
+      <c r="CS124" s="11"/>
     </row>
-    <row r="125" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -45050,21 +44989,24 @@
       <c r="CK125" s="11">
         <v>1.3340196748929003</v>
       </c>
-      <c r="CL125" s="21">
+      <c r="CL125" s="11">
         <v>3.3222958462834526</v>
       </c>
-      <c r="CM125" s="21">
+      <c r="CM125" s="11">
         <v>2.33297319877353</v>
       </c>
-      <c r="CN125" s="21">
-        <v>-1.4833370126690397</v>
-      </c>
-      <c r="CO125" s="21"/>
-      <c r="CP125" s="21"/>
-      <c r="CQ125" s="21"/>
-      <c r="CR125" s="21"/>
+      <c r="CN125" s="11">
+        <v>-1.0854632163971445</v>
+      </c>
+      <c r="CO125" s="11">
+        <v>-1.6134214225068035</v>
+      </c>
+      <c r="CP125" s="11"/>
+      <c r="CQ125" s="11"/>
+      <c r="CR125" s="11"/>
+      <c r="CS125" s="11"/>
     </row>
-    <row r="126" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -45332,21 +45274,24 @@
       <c r="CK126" s="11">
         <v>15.970006910383375</v>
       </c>
-      <c r="CL126" s="21">
+      <c r="CL126" s="11">
         <v>-17.025058969499938</v>
       </c>
-      <c r="CM126" s="21">
+      <c r="CM126" s="11">
         <v>-6.045314636700823</v>
       </c>
-      <c r="CN126" s="21">
-        <v>-20.24956807380363</v>
-      </c>
-      <c r="CO126" s="21"/>
-      <c r="CP126" s="21"/>
-      <c r="CQ126" s="21"/>
-      <c r="CR126" s="21"/>
+      <c r="CN126" s="11">
+        <v>-20.248937225305667</v>
+      </c>
+      <c r="CO126" s="11">
+        <v>12.912560083482646</v>
+      </c>
+      <c r="CP126" s="11"/>
+      <c r="CQ126" s="11"/>
+      <c r="CR126" s="11"/>
+      <c r="CS126" s="11"/>
     </row>
-    <row r="127" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -45614,21 +45559,24 @@
       <c r="CK127" s="11">
         <v>-0.89943316715083199</v>
       </c>
-      <c r="CL127" s="21">
+      <c r="CL127" s="11">
         <v>0.12358624278181196</v>
       </c>
-      <c r="CM127" s="21">
+      <c r="CM127" s="11">
         <v>0.70755479694437895</v>
       </c>
-      <c r="CN127" s="21">
-        <v>0.19876157660007721</v>
-      </c>
-      <c r="CO127" s="21"/>
-      <c r="CP127" s="21"/>
-      <c r="CQ127" s="21"/>
-      <c r="CR127" s="21"/>
+      <c r="CN127" s="11">
+        <v>0.20327229563254434</v>
+      </c>
+      <c r="CO127" s="11">
+        <v>-0.21731988254074963</v>
+      </c>
+      <c r="CP127" s="11"/>
+      <c r="CQ127" s="11"/>
+      <c r="CR127" s="11"/>
+      <c r="CS127" s="11"/>
     </row>
-    <row r="128" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -45896,21 +45844,24 @@
       <c r="CK128" s="11">
         <v>-6.068027579192659</v>
       </c>
-      <c r="CL128" s="21">
+      <c r="CL128" s="11">
         <v>7.5586256213377823</v>
       </c>
-      <c r="CM128" s="21">
+      <c r="CM128" s="11">
         <v>11.281556691571652</v>
       </c>
-      <c r="CN128" s="21">
-        <v>15.12511104848744</v>
-      </c>
-      <c r="CO128" s="21"/>
-      <c r="CP128" s="21"/>
-      <c r="CQ128" s="21"/>
-      <c r="CR128" s="21"/>
+      <c r="CN128" s="11">
+        <v>15.122974171452825</v>
+      </c>
+      <c r="CO128" s="11">
+        <v>7.7716339893407707</v>
+      </c>
+      <c r="CP128" s="11"/>
+      <c r="CQ128" s="11"/>
+      <c r="CR128" s="11"/>
+      <c r="CS128" s="11"/>
     </row>
-    <row r="129" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -46178,21 +46129,24 @@
       <c r="CK129" s="11">
         <v>5.595813956014652</v>
       </c>
-      <c r="CL129" s="21">
+      <c r="CL129" s="11">
         <v>-3.9408382556680408</v>
       </c>
-      <c r="CM129" s="21">
+      <c r="CM129" s="11">
         <v>3.6394811164642533</v>
       </c>
-      <c r="CN129" s="21">
-        <v>3.5257203939863757</v>
-      </c>
-      <c r="CO129" s="21"/>
-      <c r="CP129" s="21"/>
-      <c r="CQ129" s="21"/>
-      <c r="CR129" s="21"/>
+      <c r="CN129" s="11">
+        <v>3.5257207712991772</v>
+      </c>
+      <c r="CO129" s="11">
+        <v>0.27816013904835302</v>
+      </c>
+      <c r="CP129" s="11"/>
+      <c r="CQ129" s="11"/>
+      <c r="CR129" s="11"/>
+      <c r="CS129" s="11"/>
     </row>
-    <row r="130" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -46460,21 +46414,24 @@
       <c r="CK130" s="11">
         <v>1.9497123807054209</v>
       </c>
-      <c r="CL130" s="21">
+      <c r="CL130" s="11">
         <v>1.5125899912571441</v>
       </c>
-      <c r="CM130" s="21">
+      <c r="CM130" s="11">
         <v>2.5220551038642043</v>
       </c>
-      <c r="CN130" s="21">
-        <v>5.9459860974229173</v>
-      </c>
-      <c r="CO130" s="21"/>
-      <c r="CP130" s="21"/>
-      <c r="CQ130" s="21"/>
-      <c r="CR130" s="21"/>
+      <c r="CN130" s="11">
+        <v>5.9463106459158013</v>
+      </c>
+      <c r="CO130" s="11">
+        <v>-1.6544622908322708</v>
+      </c>
+      <c r="CP130" s="11"/>
+      <c r="CQ130" s="11"/>
+      <c r="CR130" s="11"/>
+      <c r="CS130" s="11"/>
     </row>
-    <row r="131" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -46742,21 +46699,24 @@
       <c r="CK131" s="11">
         <v>0.46930708951668976</v>
       </c>
-      <c r="CL131" s="21">
+      <c r="CL131" s="11">
         <v>5.1789264010787974</v>
       </c>
-      <c r="CM131" s="21">
+      <c r="CM131" s="11">
         <v>1.4698587735843205</v>
       </c>
-      <c r="CN131" s="21">
-        <v>-2.8697240945092517</v>
-      </c>
-      <c r="CO131" s="21"/>
-      <c r="CP131" s="21"/>
-      <c r="CQ131" s="21"/>
-      <c r="CR131" s="21"/>
+      <c r="CN131" s="11">
+        <v>-2.8784975282373892</v>
+      </c>
+      <c r="CO131" s="11">
+        <v>-2.4711567905984282</v>
+      </c>
+      <c r="CP131" s="11"/>
+      <c r="CQ131" s="11"/>
+      <c r="CR131" s="11"/>
+      <c r="CS131" s="11"/>
     </row>
-    <row r="132" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -47024,21 +46984,24 @@
       <c r="CK132" s="11">
         <v>-7.3593899079029228</v>
       </c>
-      <c r="CL132" s="21">
+      <c r="CL132" s="11">
         <v>-3.9429555484268519</v>
       </c>
-      <c r="CM132" s="21">
+      <c r="CM132" s="11">
         <v>-8.5130936985379435</v>
       </c>
-      <c r="CN132" s="21">
+      <c r="CN132" s="11">
         <v>-12.649802634651721</v>
       </c>
-      <c r="CO132" s="21"/>
-      <c r="CP132" s="21"/>
-      <c r="CQ132" s="21"/>
-      <c r="CR132" s="21"/>
+      <c r="CO132" s="11">
+        <v>-7.4510537196030384</v>
+      </c>
+      <c r="CP132" s="11"/>
+      <c r="CQ132" s="11"/>
+      <c r="CR132" s="11"/>
+      <c r="CS132" s="11"/>
     </row>
-    <row r="133" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -47306,21 +47269,24 @@
       <c r="CK133" s="11">
         <v>2.2731118212873156</v>
       </c>
-      <c r="CL133" s="21">
+      <c r="CL133" s="11">
         <v>-1.6277013319149063</v>
       </c>
-      <c r="CM133" s="21">
+      <c r="CM133" s="11">
         <v>4.0019164716362354</v>
       </c>
-      <c r="CN133" s="21">
+      <c r="CN133" s="11">
         <v>5.4468089975034104</v>
       </c>
-      <c r="CO133" s="21"/>
-      <c r="CP133" s="21"/>
-      <c r="CQ133" s="21"/>
-      <c r="CR133" s="21"/>
+      <c r="CO133" s="11">
+        <v>3.5024057984051353</v>
+      </c>
+      <c r="CP133" s="11"/>
+      <c r="CQ133" s="11"/>
+      <c r="CR133" s="11"/>
+      <c r="CS133" s="11"/>
     </row>
-    <row r="134" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -47588,21 +47554,24 @@
       <c r="CK134" s="11">
         <v>2.8895328248791543</v>
       </c>
-      <c r="CL134" s="21">
+      <c r="CL134" s="11">
         <v>3.6245510123515743</v>
       </c>
-      <c r="CM134" s="21">
+      <c r="CM134" s="11">
         <v>-0.95114953020107862</v>
       </c>
-      <c r="CN134" s="21">
-        <v>-6.4431139980691938</v>
-      </c>
-      <c r="CO134" s="21"/>
-      <c r="CP134" s="21"/>
-      <c r="CQ134" s="21"/>
-      <c r="CR134" s="21"/>
+      <c r="CN134" s="11">
+        <v>-5.6366968777537068</v>
+      </c>
+      <c r="CO134" s="11">
+        <v>4.0159732839336755</v>
+      </c>
+      <c r="CP134" s="11"/>
+      <c r="CQ134" s="11"/>
+      <c r="CR134" s="11"/>
+      <c r="CS134" s="11"/>
     </row>
-    <row r="135" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -47870,21 +47839,24 @@
       <c r="CK135" s="11">
         <v>8.2553686832053046</v>
       </c>
-      <c r="CL135" s="21">
+      <c r="CL135" s="11">
         <v>14.250590902089911</v>
       </c>
-      <c r="CM135" s="21">
+      <c r="CM135" s="11">
         <v>1.7031445197811337</v>
       </c>
-      <c r="CN135" s="21">
+      <c r="CN135" s="11">
         <v>119.10713170413123</v>
       </c>
-      <c r="CO135" s="21"/>
-      <c r="CP135" s="21"/>
-      <c r="CQ135" s="21"/>
-      <c r="CR135" s="21"/>
+      <c r="CO135" s="11">
+        <v>1.4391487246057579</v>
+      </c>
+      <c r="CP135" s="11"/>
+      <c r="CQ135" s="11"/>
+      <c r="CR135" s="11"/>
+      <c r="CS135" s="11"/>
     </row>
-    <row r="136" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -48152,21 +48124,24 @@
       <c r="CK136" s="11">
         <v>0.15767647966600862</v>
       </c>
-      <c r="CL136" s="21">
+      <c r="CL136" s="11">
         <v>1.0928465609175078</v>
       </c>
-      <c r="CM136" s="21">
+      <c r="CM136" s="11">
         <v>0.53397434419426304</v>
       </c>
-      <c r="CN136" s="21">
-        <v>-5.8588693130665774</v>
-      </c>
-      <c r="CO136" s="21"/>
-      <c r="CP136" s="21"/>
-      <c r="CQ136" s="21"/>
-      <c r="CR136" s="21"/>
+      <c r="CN136" s="11">
+        <v>-4.980660223471773</v>
+      </c>
+      <c r="CO136" s="11">
+        <v>-0.55087679457351157</v>
+      </c>
+      <c r="CP136" s="11"/>
+      <c r="CQ136" s="11"/>
+      <c r="CR136" s="11"/>
+      <c r="CS136" s="11"/>
     </row>
-    <row r="137" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -48434,21 +48409,24 @@
       <c r="CK137" s="11">
         <v>3.0540395797123807</v>
       </c>
-      <c r="CL137" s="21">
+      <c r="CL137" s="11">
         <v>4.9892708715376415</v>
       </c>
-      <c r="CM137" s="21">
+      <c r="CM137" s="11">
         <v>1.5562310497868452</v>
       </c>
-      <c r="CN137" s="21">
-        <v>2.6994402243762465</v>
-      </c>
-      <c r="CO137" s="21"/>
-      <c r="CP137" s="21"/>
-      <c r="CQ137" s="21"/>
-      <c r="CR137" s="21"/>
+      <c r="CN137" s="11">
+        <v>2.7002480348062221</v>
+      </c>
+      <c r="CO137" s="11">
+        <v>2.6861520392546794</v>
+      </c>
+      <c r="CP137" s="11"/>
+      <c r="CQ137" s="11"/>
+      <c r="CR137" s="11"/>
+      <c r="CS137" s="11"/>
     </row>
-    <row r="138" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -48716,21 +48694,24 @@
       <c r="CK138" s="11">
         <v>1.5515981110379045</v>
       </c>
-      <c r="CL138" s="21">
+      <c r="CL138" s="11">
         <v>3.1520113444878319</v>
       </c>
-      <c r="CM138" s="21">
+      <c r="CM138" s="11">
         <v>1.1768233666116714</v>
       </c>
-      <c r="CN138" s="21">
+      <c r="CN138" s="11">
         <v>2.8655028611268847</v>
       </c>
-      <c r="CO138" s="21"/>
-      <c r="CP138" s="21"/>
-      <c r="CQ138" s="21"/>
-      <c r="CR138" s="21"/>
+      <c r="CO138" s="11">
+        <v>7.7811211939173006</v>
+      </c>
+      <c r="CP138" s="11"/>
+      <c r="CQ138" s="11"/>
+      <c r="CR138" s="11"/>
+      <c r="CS138" s="11"/>
     </row>
-    <row r="139" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -48998,21 +48979,24 @@
       <c r="CK139" s="11">
         <v>1.9810838194844962</v>
       </c>
-      <c r="CL139" s="21">
+      <c r="CL139" s="11">
         <v>2.8541318017312136</v>
       </c>
-      <c r="CM139" s="21">
+      <c r="CM139" s="11">
         <v>1.3181907605474237</v>
       </c>
-      <c r="CN139" s="21">
+      <c r="CN139" s="11">
         <v>2.9084357239755718</v>
       </c>
-      <c r="CO139" s="21"/>
-      <c r="CP139" s="21"/>
-      <c r="CQ139" s="21"/>
-      <c r="CR139" s="21"/>
+      <c r="CO139" s="11">
+        <v>5.3105426683176802</v>
+      </c>
+      <c r="CP139" s="11"/>
+      <c r="CQ139" s="11"/>
+      <c r="CR139" s="11"/>
+      <c r="CS139" s="11"/>
     </row>
-    <row r="140" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -49280,21 +49264,24 @@
       <c r="CK140" s="11">
         <v>-11.879161885810305</v>
       </c>
-      <c r="CL140" s="21">
+      <c r="CL140" s="11">
         <v>-46.606505758392167</v>
       </c>
-      <c r="CM140" s="21">
+      <c r="CM140" s="11">
         <v>-19.960181631561923</v>
       </c>
-      <c r="CN140" s="21">
-        <v>13.7928116395084</v>
-      </c>
-      <c r="CO140" s="21"/>
-      <c r="CP140" s="21"/>
-      <c r="CQ140" s="21"/>
-      <c r="CR140" s="21"/>
+      <c r="CN140" s="11">
+        <v>-7.1637312608101809</v>
+      </c>
+      <c r="CO140" s="11">
+        <v>-10.204776307383412</v>
+      </c>
+      <c r="CP140" s="11"/>
+      <c r="CQ140" s="11"/>
+      <c r="CR140" s="11"/>
+      <c r="CS140" s="11"/>
     </row>
-    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -49562,21 +49549,24 @@
       <c r="CK141" s="11">
         <v>-3.1409038543950345</v>
       </c>
-      <c r="CL141" s="21">
+      <c r="CL141" s="11">
         <v>0.60179286974442903</v>
       </c>
-      <c r="CM141" s="21">
+      <c r="CM141" s="11">
         <v>-13.260477140436222</v>
       </c>
-      <c r="CN141" s="21">
-        <v>-4.0971193627453175</v>
-      </c>
-      <c r="CO141" s="21"/>
-      <c r="CP141" s="21"/>
-      <c r="CQ141" s="21"/>
-      <c r="CR141" s="21"/>
+      <c r="CN141" s="11">
+        <v>-4.1086918656674953</v>
+      </c>
+      <c r="CO141" s="11">
+        <v>-5.2037177831791723</v>
+      </c>
+      <c r="CP141" s="11"/>
+      <c r="CQ141" s="11"/>
+      <c r="CR141" s="11"/>
+      <c r="CS141" s="11"/>
     </row>
-    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -49844,22 +49834,25 @@
       <c r="CK142" s="11">
         <v>3.7755543920010979</v>
       </c>
-      <c r="CL142" s="21">
+      <c r="CL142" s="11">
         <v>3.141822909983631</v>
       </c>
-      <c r="CM142" s="21">
+      <c r="CM142" s="11">
         <v>3.6400956448746342</v>
       </c>
-      <c r="CN142" s="21">
+      <c r="CN142" s="11">
         <v>4.2205108384205374</v>
       </c>
-      <c r="CO142" s="21"/>
-      <c r="CP142" s="21"/>
-      <c r="CQ142" s="21"/>
-      <c r="CR142" s="21"/>
+      <c r="CO142" s="11">
+        <v>6.9256609567594154</v>
+      </c>
+      <c r="CP142" s="11"/>
+      <c r="CQ142" s="11"/>
+      <c r="CR142" s="11"/>
+      <c r="CS142" s="11"/>
     </row>
-    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -50127,21 +50120,24 @@
       <c r="CK144" s="11">
         <v>-0.34722986491927088</v>
       </c>
-      <c r="CL144" s="21">
+      <c r="CL144" s="11">
         <v>2.2401954730820677</v>
       </c>
-      <c r="CM144" s="21">
+      <c r="CM144" s="11">
         <v>0.20386316084042733</v>
       </c>
-      <c r="CN144" s="21">
-        <v>0.92006033368478768</v>
-      </c>
-      <c r="CO144" s="21"/>
-      <c r="CP144" s="21"/>
-      <c r="CQ144" s="21"/>
-      <c r="CR144" s="21"/>
+      <c r="CN144" s="11">
+        <v>0.92887798340362338</v>
+      </c>
+      <c r="CO144" s="11">
+        <v>1.3627478802922468</v>
+      </c>
+      <c r="CP144" s="11"/>
+      <c r="CQ144" s="11"/>
+      <c r="CR144" s="11"/>
+      <c r="CS144" s="11"/>
     </row>
-    <row r="145" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -50231,253 +50227,197 @@
       <c r="CI145" s="10"/>
       <c r="CJ145" s="10"/>
       <c r="CK145" s="10"/>
-      <c r="CL145" s="19"/>
-      <c r="CM145" s="19"/>
-      <c r="CN145" s="19"/>
-      <c r="CO145" s="19"/>
-      <c r="CP145" s="19"/>
-      <c r="CQ145" s="19"/>
-      <c r="CR145" s="19"/>
+      <c r="CL145" s="10"/>
+      <c r="CM145" s="10"/>
+      <c r="CN145" s="10"/>
+      <c r="CO145" s="10"/>
+      <c r="CP145" s="10"/>
+      <c r="CQ145" s="10"/>
+      <c r="CR145" s="10"/>
+      <c r="CS145" s="10"/>
     </row>
-    <row r="146" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL146" s="14"/>
-      <c r="CM146" s="14"/>
-      <c r="CN146" s="14"/>
-      <c r="CO146" s="14"/>
-      <c r="CP146" s="14"/>
-      <c r="CQ146" s="14"/>
-      <c r="CR146" s="14"/>
     </row>
-    <row r="147" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL149" s="14"/>
-      <c r="CM149" s="14"/>
-      <c r="CN149" s="14"/>
-      <c r="CO149" s="14"/>
-      <c r="CP149" s="14"/>
-      <c r="CQ149" s="14"/>
-      <c r="CR149" s="14"/>
     </row>
-    <row r="150" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL150" s="14"/>
-      <c r="CM150" s="14"/>
-      <c r="CN150" s="14"/>
-      <c r="CO150" s="14"/>
-      <c r="CP150" s="14"/>
-      <c r="CQ150" s="14"/>
-      <c r="CR150" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="151" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL151" s="14"/>
-      <c r="CM151" s="14"/>
-      <c r="CN151" s="14"/>
-      <c r="CO151" s="14"/>
-      <c r="CP151" s="14"/>
-      <c r="CQ151" s="14"/>
-      <c r="CR151" s="14"/>
-    </row>
-    <row r="152" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CL152" s="14"/>
-      <c r="CM152" s="14"/>
-      <c r="CN152" s="14"/>
-      <c r="CO152" s="14"/>
-      <c r="CP152" s="14"/>
-      <c r="CQ152" s="14"/>
-      <c r="CR152" s="14"/>
     </row>
-    <row r="153" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CL153" s="14"/>
-      <c r="CM153" s="14"/>
-      <c r="CN153" s="14"/>
-      <c r="CO153" s="14"/>
-      <c r="CP153" s="14"/>
-      <c r="CQ153" s="14"/>
-      <c r="CR153" s="14"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="154" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="CL154" s="14"/>
-      <c r="CM154" s="14"/>
-      <c r="CN154" s="14"/>
-      <c r="CO154" s="14"/>
-      <c r="CP154" s="14"/>
-      <c r="CQ154" s="14"/>
-      <c r="CR154" s="14"/>
     </row>
-    <row r="155" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL155" s="14"/>
-      <c r="CM155" s="14"/>
-      <c r="CN155" s="14"/>
-      <c r="CO155" s="14"/>
-      <c r="CP155" s="14"/>
-      <c r="CQ155" s="14"/>
-      <c r="CR155" s="14"/>
+    <row r="155" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+      <c r="B156" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16">
+        <v>2001</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16">
+        <v>2002</v>
+      </c>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16">
+        <v>2003</v>
+      </c>
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+      <c r="R156" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S156" s="16"/>
+      <c r="T156" s="16"/>
+      <c r="U156" s="16"/>
+      <c r="V156" s="16">
+        <v>2005</v>
+      </c>
+      <c r="W156" s="16"/>
+      <c r="X156" s="16"/>
+      <c r="Y156" s="16"/>
+      <c r="Z156" s="16">
+        <v>2006</v>
+      </c>
+      <c r="AA156" s="16"/>
+      <c r="AB156" s="16"/>
+      <c r="AC156" s="16"/>
+      <c r="AD156" s="16">
+        <v>2007</v>
+      </c>
+      <c r="AE156" s="16"/>
+      <c r="AF156" s="16"/>
+      <c r="AG156" s="16"/>
+      <c r="AH156" s="16">
+        <v>2008</v>
+      </c>
+      <c r="AI156" s="16"/>
+      <c r="AJ156" s="16"/>
+      <c r="AK156" s="16"/>
+      <c r="AL156" s="16">
+        <v>2009</v>
+      </c>
+      <c r="AM156" s="16"/>
+      <c r="AN156" s="16"/>
+      <c r="AO156" s="16"/>
+      <c r="AP156" s="16">
+        <v>2010</v>
+      </c>
+      <c r="AQ156" s="16"/>
+      <c r="AR156" s="16"/>
+      <c r="AS156" s="16"/>
+      <c r="AT156" s="16">
+        <v>2011</v>
+      </c>
+      <c r="AU156" s="16"/>
+      <c r="AV156" s="16"/>
+      <c r="AW156" s="16"/>
+      <c r="AX156" s="16">
+        <v>2012</v>
+      </c>
+      <c r="AY156" s="16"/>
+      <c r="AZ156" s="16"/>
+      <c r="BA156" s="16"/>
+      <c r="BB156" s="16">
+        <v>2013</v>
+      </c>
+      <c r="BC156" s="16"/>
+      <c r="BD156" s="16"/>
+      <c r="BE156" s="16"/>
+      <c r="BF156" s="16">
+        <v>2014</v>
+      </c>
+      <c r="BG156" s="16"/>
+      <c r="BH156" s="16"/>
+      <c r="BI156" s="16"/>
+      <c r="BJ156" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BK156" s="16"/>
+      <c r="BL156" s="16"/>
+      <c r="BM156" s="16"/>
+      <c r="BN156" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BO156" s="16"/>
+      <c r="BP156" s="16"/>
+      <c r="BQ156" s="16"/>
+      <c r="BR156" s="16">
+        <v>2017</v>
+      </c>
+      <c r="BS156" s="16"/>
+      <c r="BT156" s="16"/>
+      <c r="BU156" s="16"/>
+      <c r="BV156" s="16">
+        <v>2018</v>
+      </c>
+      <c r="BW156" s="16"/>
+      <c r="BX156" s="16"/>
+      <c r="BY156" s="16"/>
+      <c r="BZ156" s="16">
+        <v>2019</v>
+      </c>
+      <c r="CA156" s="16"/>
+      <c r="CB156" s="16"/>
+      <c r="CC156" s="16"/>
+      <c r="CD156" s="16">
+        <v>2020</v>
+      </c>
+      <c r="CE156" s="16"/>
+      <c r="CF156" s="16"/>
+      <c r="CG156" s="16"/>
+      <c r="CH156" s="16">
+        <v>2021</v>
+      </c>
+      <c r="CI156" s="16"/>
+      <c r="CJ156" s="16"/>
+      <c r="CK156" s="16"/>
+      <c r="CL156" s="14">
+        <v>2022</v>
+      </c>
+      <c r="CM156" s="14"/>
+      <c r="CN156" s="14"/>
+      <c r="CO156" s="14"/>
+      <c r="CP156" s="14">
+        <v>2023</v>
+      </c>
+      <c r="CQ156" s="14"/>
+      <c r="CR156" s="14"/>
+      <c r="CS156" s="14"/>
     </row>
-    <row r="156" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="22">
-        <v>2000</v>
-      </c>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22">
-        <v>2001</v>
-      </c>
-      <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22">
-        <v>2002</v>
-      </c>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="22">
-        <v>2003</v>
-      </c>
-      <c r="O156" s="22"/>
-      <c r="P156" s="22"/>
-      <c r="Q156" s="22"/>
-      <c r="R156" s="22">
-        <v>2004</v>
-      </c>
-      <c r="S156" s="22"/>
-      <c r="T156" s="22"/>
-      <c r="U156" s="22"/>
-      <c r="V156" s="22">
-        <v>2005</v>
-      </c>
-      <c r="W156" s="22"/>
-      <c r="X156" s="22"/>
-      <c r="Y156" s="22"/>
-      <c r="Z156" s="22">
-        <v>2006</v>
-      </c>
-      <c r="AA156" s="22"/>
-      <c r="AB156" s="22"/>
-      <c r="AC156" s="22"/>
-      <c r="AD156" s="22">
-        <v>2007</v>
-      </c>
-      <c r="AE156" s="22"/>
-      <c r="AF156" s="22"/>
-      <c r="AG156" s="22"/>
-      <c r="AH156" s="22">
-        <v>2008</v>
-      </c>
-      <c r="AI156" s="22"/>
-      <c r="AJ156" s="22"/>
-      <c r="AK156" s="22"/>
-      <c r="AL156" s="22">
-        <v>2009</v>
-      </c>
-      <c r="AM156" s="22"/>
-      <c r="AN156" s="22"/>
-      <c r="AO156" s="22"/>
-      <c r="AP156" s="22">
-        <v>2010</v>
-      </c>
-      <c r="AQ156" s="22"/>
-      <c r="AR156" s="22"/>
-      <c r="AS156" s="22"/>
-      <c r="AT156" s="22">
-        <v>2011</v>
-      </c>
-      <c r="AU156" s="22"/>
-      <c r="AV156" s="22"/>
-      <c r="AW156" s="22"/>
-      <c r="AX156" s="22">
-        <v>2012</v>
-      </c>
-      <c r="AY156" s="22"/>
-      <c r="AZ156" s="22"/>
-      <c r="BA156" s="22"/>
-      <c r="BB156" s="22">
-        <v>2013</v>
-      </c>
-      <c r="BC156" s="22"/>
-      <c r="BD156" s="22"/>
-      <c r="BE156" s="22"/>
-      <c r="BF156" s="22">
-        <v>2014</v>
-      </c>
-      <c r="BG156" s="22"/>
-      <c r="BH156" s="22"/>
-      <c r="BI156" s="22"/>
-      <c r="BJ156" s="22">
-        <v>2015</v>
-      </c>
-      <c r="BK156" s="22"/>
-      <c r="BL156" s="22"/>
-      <c r="BM156" s="22"/>
-      <c r="BN156" s="22">
-        <v>2016</v>
-      </c>
-      <c r="BO156" s="22"/>
-      <c r="BP156" s="22"/>
-      <c r="BQ156" s="22"/>
-      <c r="BR156" s="22">
-        <v>2017</v>
-      </c>
-      <c r="BS156" s="22"/>
-      <c r="BT156" s="22"/>
-      <c r="BU156" s="22"/>
-      <c r="BV156" s="22">
-        <v>2018</v>
-      </c>
-      <c r="BW156" s="22"/>
-      <c r="BX156" s="22"/>
-      <c r="BY156" s="22"/>
-      <c r="BZ156" s="22">
-        <v>2019</v>
-      </c>
-      <c r="CA156" s="22"/>
-      <c r="CB156" s="22"/>
-      <c r="CC156" s="22"/>
-      <c r="CD156" s="22">
-        <v>2020</v>
-      </c>
-      <c r="CE156" s="22"/>
-      <c r="CF156" s="22"/>
-      <c r="CG156" s="22"/>
-      <c r="CH156" s="22">
-        <v>2021</v>
-      </c>
-      <c r="CI156" s="22"/>
-      <c r="CJ156" s="22"/>
-      <c r="CK156" s="22"/>
-      <c r="CL156" s="23">
-        <v>2022</v>
-      </c>
-      <c r="CM156" s="23"/>
-      <c r="CN156" s="23"/>
-      <c r="CO156" s="23"/>
-      <c r="CP156" s="23">
-        <v>2023</v>
-      </c>
-      <c r="CQ156" s="23"/>
-      <c r="CR156" s="23"/>
-    </row>
-    <row r="157" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -50745,39 +50685,35 @@
       <c r="CK157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL157" s="15" t="s">
+      <c r="CL157" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM157" s="15" t="s">
+      <c r="CM157" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN157" s="15" t="s">
+      <c r="CN157" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO157" s="15" t="s">
+      <c r="CO157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP157" s="15" t="s">
+      <c r="CP157" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ157" s="15" t="s">
+      <c r="CQ157" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR157" s="15" t="s">
+      <c r="CR157" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CS157" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="158" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-      <c r="CL158" s="14"/>
-      <c r="CM158" s="14"/>
-      <c r="CN158" s="14"/>
-      <c r="CO158" s="14"/>
-      <c r="CP158" s="14"/>
-      <c r="CQ158" s="14"/>
-      <c r="CR158" s="14"/>
     </row>
-    <row r="159" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -51045,29 +50981,32 @@
       <c r="CK159" s="11">
         <v>93.508475912110981</v>
       </c>
-      <c r="CL159" s="21">
+      <c r="CL159" s="11">
         <v>96.91462012291791</v>
       </c>
-      <c r="CM159" s="21">
+      <c r="CM159" s="11">
         <v>91.249804091315511</v>
       </c>
-      <c r="CN159" s="21">
+      <c r="CN159" s="11">
         <v>84.166032863989074</v>
       </c>
-      <c r="CO159" s="21">
+      <c r="CO159" s="11">
         <v>100.56783238712144</v>
       </c>
-      <c r="CP159" s="21">
+      <c r="CP159" s="11">
         <v>98.700030882004981</v>
       </c>
-      <c r="CQ159" s="21">
+      <c r="CQ159" s="11">
         <v>98.540770718960474</v>
       </c>
-      <c r="CR159" s="21">
-        <v>99.651778705169036</v>
+      <c r="CR159" s="11">
+        <v>99.651778705245619</v>
+      </c>
+      <c r="CS159" s="11">
+        <v>125.43407574946721</v>
       </c>
     </row>
-    <row r="160" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -51335,29 +51274,32 @@
       <c r="CK160" s="11">
         <v>112.42038281965048</v>
       </c>
-      <c r="CL160" s="21">
+      <c r="CL160" s="11">
         <v>116.48761590246943</v>
       </c>
-      <c r="CM160" s="21">
+      <c r="CM160" s="11">
         <v>114.27373461737471</v>
       </c>
-      <c r="CN160" s="21">
+      <c r="CN160" s="11">
         <v>118.07483007597521</v>
       </c>
-      <c r="CO160" s="21">
+      <c r="CO160" s="11">
         <v>133.23735029254144</v>
       </c>
-      <c r="CP160" s="21">
+      <c r="CP160" s="11">
         <v>142.33193548241709</v>
       </c>
-      <c r="CQ160" s="21">
+      <c r="CQ160" s="11">
         <v>124.9119771422922</v>
       </c>
-      <c r="CR160" s="21">
-        <v>126.11854795410883</v>
+      <c r="CR160" s="11">
+        <v>126.11854795403561</v>
+      </c>
+      <c r="CS160" s="11">
+        <v>134.89633972462349</v>
       </c>
     </row>
-    <row r="161" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -51625,29 +51567,32 @@
       <c r="CK161" s="11">
         <v>85.575649563318734</v>
       </c>
-      <c r="CL161" s="21">
+      <c r="CL161" s="11">
         <v>86.345794487154976</v>
       </c>
-      <c r="CM161" s="21">
+      <c r="CM161" s="11">
         <v>138.35544094285771</v>
       </c>
-      <c r="CN161" s="21">
+      <c r="CN161" s="11">
         <v>169.85500019157971</v>
       </c>
-      <c r="CO161" s="21">
+      <c r="CO161" s="11">
         <v>86.842260490065811</v>
       </c>
-      <c r="CP161" s="21">
+      <c r="CP161" s="11">
         <v>75.435445177021961</v>
       </c>
-      <c r="CQ161" s="21">
+      <c r="CQ161" s="11">
         <v>119.6366978787935</v>
       </c>
-      <c r="CR161" s="21">
-        <v>163.03277194245882</v>
+      <c r="CR161" s="11">
+        <v>163.02737557763416</v>
+      </c>
+      <c r="CS161" s="11">
+        <v>84.355180198373432</v>
       </c>
     </row>
-    <row r="162" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -51915,29 +51860,32 @@
       <c r="CK162" s="11">
         <v>130.24193745815339</v>
       </c>
-      <c r="CL162" s="21">
+      <c r="CL162" s="11">
         <v>85.256293773044789</v>
       </c>
-      <c r="CM162" s="21">
+      <c r="CM162" s="11">
         <v>78.282590447997961</v>
       </c>
-      <c r="CN162" s="21">
+      <c r="CN162" s="11">
         <v>342.96223912087396</v>
       </c>
-      <c r="CO162" s="21">
+      <c r="CO162" s="11">
         <v>249.7539872412346</v>
       </c>
-      <c r="CP162" s="21">
+      <c r="CP162" s="11">
         <v>145.40257032935455</v>
       </c>
-      <c r="CQ162" s="21">
+      <c r="CQ162" s="11">
         <v>111.73466091413064</v>
       </c>
-      <c r="CR162" s="21">
-        <v>320.63053182295323</v>
+      <c r="CR162" s="11">
+        <v>320.63053182187991</v>
+      </c>
+      <c r="CS162" s="11">
+        <v>203.09527102575453</v>
       </c>
     </row>
-    <row r="163" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -52205,29 +52153,32 @@
       <c r="CK163" s="11">
         <v>127.13075375552197</v>
       </c>
-      <c r="CL163" s="21">
+      <c r="CL163" s="11">
         <v>115.44681378265848</v>
       </c>
-      <c r="CM163" s="21">
+      <c r="CM163" s="11">
         <v>100.26407681837881</v>
       </c>
-      <c r="CN163" s="21">
+      <c r="CN163" s="11">
         <v>95.227918634738955</v>
       </c>
-      <c r="CO163" s="21">
+      <c r="CO163" s="11">
         <v>104.79177219310614</v>
       </c>
-      <c r="CP163" s="21">
+      <c r="CP163" s="11">
         <v>113.69195947778216</v>
       </c>
-      <c r="CQ163" s="21">
+      <c r="CQ163" s="11">
         <v>110.39342783673179</v>
       </c>
-      <c r="CR163" s="21">
-        <v>111.43413730475483</v>
+      <c r="CR163" s="11">
+        <v>111.36549748775589</v>
+      </c>
+      <c r="CS163" s="11">
+        <v>113.07891882576509</v>
       </c>
     </row>
-    <row r="164" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -52495,29 +52446,32 @@
       <c r="CK164" s="11">
         <v>106.38609549126849</v>
       </c>
-      <c r="CL164" s="21">
+      <c r="CL164" s="11">
         <v>96.30140390069208</v>
       </c>
-      <c r="CM164" s="21">
+      <c r="CM164" s="11">
         <v>111.688300085706</v>
       </c>
-      <c r="CN164" s="21">
+      <c r="CN164" s="11">
         <v>116.45572375648744</v>
       </c>
-      <c r="CO164" s="21">
+      <c r="CO164" s="11">
         <v>131.29527970664617</v>
       </c>
-      <c r="CP164" s="21">
+      <c r="CP164" s="11">
         <v>110.16983236501309</v>
       </c>
-      <c r="CQ164" s="21">
+      <c r="CQ164" s="11">
         <v>116.70927471245835</v>
       </c>
-      <c r="CR164" s="21">
-        <v>127.13451978433392</v>
+      <c r="CR164" s="11">
+        <v>127.13654573899697</v>
+      </c>
+      <c r="CS164" s="11">
+        <v>140.89944483759905</v>
       </c>
     </row>
-    <row r="165" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -52785,29 +52739,32 @@
       <c r="CK165" s="11">
         <v>87.053363136280538</v>
       </c>
-      <c r="CL165" s="21">
+      <c r="CL165" s="11">
         <v>96.80229949700238</v>
       </c>
-      <c r="CM165" s="21">
+      <c r="CM165" s="11">
         <v>67.293238780528782</v>
       </c>
-      <c r="CN165" s="21">
+      <c r="CN165" s="11">
         <v>132.06207587793227</v>
       </c>
-      <c r="CO165" s="21">
+      <c r="CO165" s="11">
         <v>107.66340816842165</v>
       </c>
-      <c r="CP165" s="21">
+      <c r="CP165" s="11">
         <v>95.977652306530331</v>
       </c>
-      <c r="CQ165" s="21">
+      <c r="CQ165" s="11">
         <v>78.777479194637991</v>
       </c>
-      <c r="CR165" s="21">
-        <v>152.02201641941991</v>
+      <c r="CR165" s="11">
+        <v>152.02201641922946</v>
+      </c>
+      <c r="CS165" s="11">
+        <v>130.04536863498629</v>
       </c>
     </row>
-    <row r="166" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -53075,29 +53032,32 @@
       <c r="CK166" s="11">
         <v>113.9767516049917</v>
       </c>
-      <c r="CL166" s="21">
+      <c r="CL166" s="11">
         <v>84.972249285207511</v>
       </c>
-      <c r="CM166" s="21">
+      <c r="CM166" s="11">
         <v>142.68836584229675</v>
       </c>
-      <c r="CN166" s="21">
+      <c r="CN166" s="11">
         <v>98.872552100295678</v>
       </c>
-      <c r="CO166" s="21">
+      <c r="CO166" s="11">
         <v>128.61818386627763</v>
       </c>
-      <c r="CP166" s="21">
+      <c r="CP166" s="11">
         <v>82.948627909358365</v>
       </c>
-      <c r="CQ166" s="21">
+      <c r="CQ166" s="11">
         <v>116.27336869946274</v>
       </c>
-      <c r="CR166" s="21">
-        <v>97.221066204438401</v>
+      <c r="CR166" s="11">
+        <v>97.221067835170984</v>
+      </c>
+      <c r="CS166" s="11">
+        <v>171.74135185017653</v>
       </c>
     </row>
-    <row r="167" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -53365,29 +53325,32 @@
       <c r="CK167" s="11">
         <v>132.28286280999393</v>
       </c>
-      <c r="CL167" s="21">
+      <c r="CL167" s="11">
         <v>95.088472257642394</v>
       </c>
-      <c r="CM167" s="21">
+      <c r="CM167" s="11">
         <v>95.121780653887086</v>
       </c>
-      <c r="CN167" s="21">
+      <c r="CN167" s="11">
         <v>154.6949205520753</v>
       </c>
-      <c r="CO167" s="21">
+      <c r="CO167" s="11">
         <v>144.42748956708922</v>
       </c>
-      <c r="CP167" s="21">
+      <c r="CP167" s="11">
         <v>111.22801650405492</v>
       </c>
-      <c r="CQ167" s="21">
+      <c r="CQ167" s="11">
         <v>112.00775504870342</v>
       </c>
-      <c r="CR167" s="21">
-        <v>181.64481792004264</v>
+      <c r="CR167" s="11">
+        <v>181.63655974303538</v>
+      </c>
+      <c r="CS167" s="11">
+        <v>172.11104501079947</v>
       </c>
     </row>
-    <row r="168" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -53655,29 +53618,32 @@
       <c r="CK168" s="11">
         <v>112.58528943246635</v>
       </c>
-      <c r="CL168" s="21">
+      <c r="CL168" s="11">
         <v>149.71224611712287</v>
       </c>
-      <c r="CM168" s="21">
+      <c r="CM168" s="11">
         <v>102.54471021675218</v>
       </c>
-      <c r="CN168" s="21">
+      <c r="CN168" s="11">
         <v>105.9696254178089</v>
       </c>
-      <c r="CO168" s="21">
+      <c r="CO168" s="11">
         <v>100.36642472703818</v>
       </c>
-      <c r="CP168" s="21">
+      <c r="CP168" s="11">
         <v>129.31663746103504</v>
       </c>
-      <c r="CQ168" s="21">
+      <c r="CQ168" s="11">
         <v>87.372302654396407</v>
       </c>
-      <c r="CR168" s="21">
-        <v>101.15504871423624</v>
+      <c r="CR168" s="11">
+        <v>101.15504871382075</v>
+      </c>
+      <c r="CS168" s="11">
+        <v>105.44574823035666</v>
       </c>
     </row>
-    <row r="169" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -53945,29 +53911,32 @@
       <c r="CK169" s="11">
         <v>88.387728810821798</v>
       </c>
-      <c r="CL169" s="21">
+      <c r="CL169" s="11">
         <v>71.232118838415204</v>
       </c>
-      <c r="CM169" s="21">
+      <c r="CM169" s="11">
         <v>55.40140822894498</v>
       </c>
-      <c r="CN169" s="21">
+      <c r="CN169" s="11">
         <v>115.39683787202594</v>
       </c>
-      <c r="CO169" s="21">
+      <c r="CO169" s="11">
         <v>102.13499202630818</v>
       </c>
-      <c r="CP169" s="21">
+      <c r="CP169" s="11">
         <v>81.479665889429214</v>
       </c>
-      <c r="CQ169" s="21">
+      <c r="CQ169" s="11">
         <v>72.679946728422991</v>
       </c>
-      <c r="CR169" s="21">
-        <v>138.73741864596238</v>
+      <c r="CR169" s="11">
+        <v>138.7374186458473</v>
+      </c>
+      <c r="CS169" s="11">
+        <v>119.38579801901201</v>
       </c>
     </row>
-    <row r="170" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -54235,29 +54204,32 @@
       <c r="CK170" s="11">
         <v>112.39245898829793</v>
       </c>
-      <c r="CL170" s="21">
+      <c r="CL170" s="11">
         <v>85.257860065424808</v>
       </c>
-      <c r="CM170" s="21">
+      <c r="CM170" s="11">
         <v>60.25517120150645</v>
       </c>
-      <c r="CN170" s="21">
+      <c r="CN170" s="11">
         <v>139.18033193760283</v>
       </c>
-      <c r="CO170" s="21">
+      <c r="CO170" s="11">
         <v>114.61111970560565</v>
       </c>
-      <c r="CP170" s="21">
+      <c r="CP170" s="11">
         <v>77.431527062971725</v>
       </c>
-      <c r="CQ170" s="21">
+      <c r="CQ170" s="11">
         <v>54.279146916698295</v>
       </c>
-      <c r="CR170" s="21">
-        <v>124.90152270399231</v>
+      <c r="CR170" s="11">
+        <v>124.90152270399237</v>
+      </c>
+      <c r="CS170" s="11">
+        <v>105.60111206149946</v>
       </c>
     </row>
-    <row r="171" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -54525,29 +54497,32 @@
       <c r="CK171" s="11">
         <v>88.134624587534333</v>
       </c>
-      <c r="CL171" s="21">
+      <c r="CL171" s="11">
         <v>64.241690265595182</v>
       </c>
-      <c r="CM171" s="21">
+      <c r="CM171" s="11">
         <v>40.7406655630123</v>
       </c>
-      <c r="CN171" s="21">
+      <c r="CN171" s="11">
         <v>150.25865216989723</v>
       </c>
-      <c r="CO171" s="21">
+      <c r="CO171" s="11">
         <v>84.57084618519805</v>
       </c>
-      <c r="CP171" s="21">
+      <c r="CP171" s="11">
         <v>63.804519736449073</v>
       </c>
-      <c r="CQ171" s="21">
+      <c r="CQ171" s="11">
         <v>54.202902921944464</v>
       </c>
-      <c r="CR171" s="21">
+      <c r="CR171" s="11">
         <v>217.094260030416</v>
       </c>
+      <c r="CS171" s="11">
+        <v>144.77247024302946</v>
+      </c>
     </row>
-    <row r="172" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -54815,29 +54790,32 @@
       <c r="CK172" s="11">
         <v>112.75519002331902</v>
       </c>
-      <c r="CL172" s="21">
+      <c r="CL172" s="11">
         <v>101.71192148539778</v>
       </c>
-      <c r="CM172" s="21">
+      <c r="CM172" s="11">
         <v>78.8376513108675</v>
       </c>
-      <c r="CN172" s="21">
+      <c r="CN172" s="11">
         <v>146.09928053966718</v>
       </c>
-      <c r="CO172" s="21">
+      <c r="CO172" s="11">
         <v>129.29170775619843</v>
       </c>
-      <c r="CP172" s="21">
+      <c r="CP172" s="11">
         <v>142.18209853732225</v>
       </c>
-      <c r="CQ172" s="21">
+      <c r="CQ172" s="11">
         <v>90.182180740004497</v>
       </c>
-      <c r="CR172" s="21">
-        <v>169.08466647917311</v>
+      <c r="CR172" s="11">
+        <v>168.99776341447003</v>
+      </c>
+      <c r="CS172" s="11">
+        <v>138.89879432733338</v>
       </c>
     </row>
-    <row r="173" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -55105,29 +55083,32 @@
       <c r="CK173" s="11">
         <v>157.90963923175531</v>
       </c>
-      <c r="CL173" s="21">
+      <c r="CL173" s="11">
         <v>149.70002576320661</v>
       </c>
-      <c r="CM173" s="21">
+      <c r="CM173" s="11">
         <v>170.45210514201133</v>
       </c>
-      <c r="CN173" s="21">
+      <c r="CN173" s="11">
         <v>167.59712846432353</v>
       </c>
-      <c r="CO173" s="21">
+      <c r="CO173" s="11">
         <v>166.74874753350863</v>
       </c>
-      <c r="CP173" s="21">
+      <c r="CP173" s="11">
         <v>148.430825637086</v>
       </c>
-      <c r="CQ173" s="21">
+      <c r="CQ173" s="11">
         <v>162.11299239268288</v>
       </c>
-      <c r="CR173" s="21">
-        <v>158.8039460921151</v>
+      <c r="CR173" s="11">
+        <v>158.80277473780885</v>
+      </c>
+      <c r="CS173" s="11">
+        <v>176.5546023833316</v>
       </c>
     </row>
-    <row r="174" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -55395,29 +55376,32 @@
       <c r="CK174" s="11">
         <v>106.58149701015273</v>
       </c>
-      <c r="CL174" s="21">
+      <c r="CL174" s="11">
         <v>143.51421296297423</v>
       </c>
-      <c r="CM174" s="21">
+      <c r="CM174" s="11">
         <v>110.77995781938968</v>
       </c>
-      <c r="CN174" s="21">
+      <c r="CN174" s="11">
         <v>123.89214229630045</v>
       </c>
-      <c r="CO174" s="21">
+      <c r="CO174" s="11">
         <v>124.66300284180976</v>
       </c>
-      <c r="CP174" s="21">
+      <c r="CP174" s="11">
         <v>164.54402142008152</v>
       </c>
-      <c r="CQ174" s="21">
+      <c r="CQ174" s="11">
         <v>119.61690329955267</v>
       </c>
-      <c r="CR174" s="21">
+      <c r="CR174" s="11">
         <v>120.81937873409687</v>
       </c>
+      <c r="CS174" s="11">
+        <v>125.94386091398397</v>
+      </c>
     </row>
-    <row r="175" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -55685,29 +55669,32 @@
       <c r="CK175" s="11">
         <v>104.95420091424201</v>
       </c>
-      <c r="CL175" s="21">
+      <c r="CL175" s="11">
         <v>106.96039683621908</v>
       </c>
-      <c r="CM175" s="21">
+      <c r="CM175" s="11">
         <v>88.919034501513394</v>
       </c>
-      <c r="CN175" s="21">
+      <c r="CN175" s="11">
         <v>101.46451947025396</v>
       </c>
-      <c r="CO175" s="21">
+      <c r="CO175" s="11">
         <v>116.43679225578236</v>
       </c>
-      <c r="CP175" s="21">
+      <c r="CP175" s="11">
         <v>114.46901669412171</v>
       </c>
-      <c r="CQ175" s="21">
+      <c r="CQ175" s="11">
         <v>83.030444541309649</v>
       </c>
-      <c r="CR175" s="21">
+      <c r="CR175" s="11">
         <v>97.493865494194864</v>
       </c>
+      <c r="CS175" s="11">
+        <v>120.54994855384173</v>
+      </c>
     </row>
-    <row r="176" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -55975,29 +55962,32 @@
       <c r="CK176" s="11">
         <v>43.019600753562941</v>
       </c>
-      <c r="CL176" s="21">
+      <c r="CL176" s="11">
         <v>50.766659291685471</v>
       </c>
-      <c r="CM176" s="21">
+      <c r="CM176" s="11">
         <v>41.529860855094967</v>
       </c>
-      <c r="CN176" s="21">
+      <c r="CN176" s="11">
         <v>41.639337093175165</v>
       </c>
-      <c r="CO176" s="21">
+      <c r="CO176" s="11">
         <v>44.02927659890851</v>
       </c>
-      <c r="CP176" s="21">
+      <c r="CP176" s="11">
         <v>39.447812286678023</v>
       </c>
-      <c r="CQ176" s="21">
+      <c r="CQ176" s="11">
         <v>36.603858782649645</v>
       </c>
-      <c r="CR176" s="21">
-        <v>41.102427055741899</v>
+      <c r="CR176" s="11">
+        <v>41.252777316872034</v>
+      </c>
+      <c r="CS176" s="11">
+        <v>43.23258371526957</v>
       </c>
     </row>
-    <row r="177" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -56265,29 +56255,32 @@
       <c r="CK177" s="11">
         <v>96.692081784944705</v>
       </c>
-      <c r="CL177" s="21">
+      <c r="CL177" s="11">
         <v>126.44937918590674</v>
       </c>
-      <c r="CM177" s="21">
+      <c r="CM177" s="11">
         <v>133.25635413023804</v>
       </c>
-      <c r="CN177" s="21">
+      <c r="CN177" s="11">
         <v>135.57981316954169</v>
       </c>
-      <c r="CO177" s="21">
+      <c r="CO177" s="11">
         <v>110.50488825199254</v>
       </c>
-      <c r="CP177" s="21">
+      <c r="CP177" s="11">
         <v>157.65929243744111</v>
       </c>
-      <c r="CQ177" s="21">
+      <c r="CQ177" s="11">
         <v>140.20172132730531</v>
       </c>
-      <c r="CR177" s="21">
-        <v>140.95121901896167</v>
+      <c r="CR177" s="11">
+        <v>141.01573406624161</v>
+      </c>
+      <c r="CS177" s="11">
+        <v>109.90343692916113</v>
       </c>
     </row>
-    <row r="178" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -56555,30 +56548,33 @@
       <c r="CK178" s="11">
         <v>130.21329535318404</v>
       </c>
-      <c r="CL178" s="21">
+      <c r="CL178" s="11">
         <v>119.47974928179744</v>
       </c>
-      <c r="CM178" s="21">
+      <c r="CM178" s="11">
         <v>138.10486328172698</v>
       </c>
-      <c r="CN178" s="21">
+      <c r="CN178" s="11">
         <v>90.819850045424431</v>
       </c>
-      <c r="CO178" s="21">
+      <c r="CO178" s="11">
         <v>143.50942391363682</v>
       </c>
-      <c r="CP178" s="21">
+      <c r="CP178" s="11">
         <v>131.1114983511645</v>
       </c>
-      <c r="CQ178" s="21">
+      <c r="CQ178" s="11">
         <v>147.72528834042768</v>
       </c>
-      <c r="CR178" s="21">
+      <c r="CR178" s="11">
         <v>94.692624549705812</v>
       </c>
+      <c r="CS178" s="11">
+        <v>153.73942296366914</v>
+      </c>
     </row>
-    <row r="179" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -56846,29 +56842,32 @@
       <c r="CK180" s="11">
         <v>110.08096954025271</v>
       </c>
-      <c r="CL180" s="21">
+      <c r="CL180" s="11">
         <v>114.9729942968812</v>
       </c>
-      <c r="CM180" s="21">
+      <c r="CM180" s="11">
         <v>115.26337621955187</v>
       </c>
-      <c r="CN180" s="21">
+      <c r="CN180" s="11">
         <v>119.21485577285237</v>
       </c>
-      <c r="CO180" s="21">
+      <c r="CO180" s="11">
         <v>121.4840084623811</v>
       </c>
-      <c r="CP180" s="21">
+      <c r="CP180" s="11">
         <v>127.52195639237982</v>
       </c>
-      <c r="CQ180" s="21">
+      <c r="CQ180" s="11">
         <v>120.49579000774946</v>
       </c>
-      <c r="CR180" s="21">
-        <v>124.56936843800489</v>
+      <c r="CR180" s="11">
+        <v>124.63466893097103</v>
+      </c>
+      <c r="CS180" s="11">
+        <v>132.04000938028611</v>
       </c>
     </row>
-    <row r="181" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -56958,263 +56957,200 @@
       <c r="CI181" s="10"/>
       <c r="CJ181" s="10"/>
       <c r="CK181" s="10"/>
-      <c r="CL181" s="19"/>
-      <c r="CM181" s="19"/>
-      <c r="CN181" s="19"/>
-      <c r="CO181" s="19"/>
-      <c r="CP181" s="19"/>
-      <c r="CQ181" s="19"/>
-      <c r="CR181" s="19"/>
+      <c r="CL181" s="10"/>
+      <c r="CM181" s="10"/>
+      <c r="CN181" s="10"/>
+      <c r="CO181" s="10"/>
+      <c r="CP181" s="10"/>
+      <c r="CQ181" s="10"/>
+      <c r="CR181" s="10"/>
+      <c r="CS181" s="10"/>
     </row>
-    <row r="182" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL182" s="14"/>
-      <c r="CM182" s="14"/>
-      <c r="CN182" s="14"/>
-      <c r="CO182" s="14"/>
-      <c r="CP182" s="14"/>
-      <c r="CQ182" s="14"/>
-      <c r="CR182" s="14"/>
     </row>
-    <row r="185" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL185" s="14"/>
-      <c r="CM185" s="14"/>
-      <c r="CN185" s="14"/>
-      <c r="CO185" s="14"/>
-      <c r="CP185" s="14"/>
-      <c r="CQ185" s="14"/>
-      <c r="CR185" s="14"/>
     </row>
-    <row r="186" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CL186" s="14"/>
-      <c r="CM186" s="14"/>
-      <c r="CN186" s="14"/>
-      <c r="CO186" s="14"/>
-      <c r="CP186" s="14"/>
-      <c r="CQ186" s="14"/>
-      <c r="CR186" s="14"/>
     </row>
-    <row r="187" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL187" s="14"/>
-      <c r="CM187" s="14"/>
-      <c r="CN187" s="14"/>
-      <c r="CO187" s="14"/>
-      <c r="CP187" s="14"/>
-      <c r="CQ187" s="14"/>
-      <c r="CR187" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="188" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL188" s="14"/>
-      <c r="CM188" s="14"/>
-      <c r="CN188" s="14"/>
-      <c r="CO188" s="14"/>
-      <c r="CP188" s="14"/>
-      <c r="CQ188" s="14"/>
-      <c r="CR188" s="14"/>
-    </row>
-    <row r="189" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CL189" s="14"/>
-      <c r="CM189" s="14"/>
-      <c r="CN189" s="14"/>
-      <c r="CO189" s="14"/>
-      <c r="CP189" s="14"/>
-      <c r="CQ189" s="14"/>
-      <c r="CR189" s="14"/>
     </row>
-    <row r="190" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CL190" s="14"/>
-      <c r="CM190" s="14"/>
-      <c r="CN190" s="14"/>
-      <c r="CO190" s="14"/>
-      <c r="CP190" s="14"/>
-      <c r="CQ190" s="14"/>
-      <c r="CR190" s="14"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="191" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="CL191" s="14"/>
-      <c r="CM191" s="14"/>
-      <c r="CN191" s="14"/>
-      <c r="CO191" s="14"/>
-      <c r="CP191" s="14"/>
-      <c r="CQ191" s="14"/>
-      <c r="CR191" s="14"/>
     </row>
-    <row r="192" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL192" s="14"/>
-      <c r="CM192" s="14"/>
-      <c r="CN192" s="14"/>
-      <c r="CO192" s="14"/>
-      <c r="CP192" s="14"/>
-      <c r="CQ192" s="14"/>
-      <c r="CR192" s="14"/>
+    <row r="192" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16">
+        <v>2001</v>
+      </c>
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16">
+        <v>2002</v>
+      </c>
+      <c r="K193" s="16"/>
+      <c r="L193" s="16"/>
+      <c r="M193" s="16"/>
+      <c r="N193" s="16">
+        <v>2003</v>
+      </c>
+      <c r="O193" s="16"/>
+      <c r="P193" s="16"/>
+      <c r="Q193" s="16"/>
+      <c r="R193" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S193" s="16"/>
+      <c r="T193" s="16"/>
+      <c r="U193" s="16"/>
+      <c r="V193" s="16">
+        <v>2005</v>
+      </c>
+      <c r="W193" s="16"/>
+      <c r="X193" s="16"/>
+      <c r="Y193" s="16"/>
+      <c r="Z193" s="16">
+        <v>2006</v>
+      </c>
+      <c r="AA193" s="16"/>
+      <c r="AB193" s="16"/>
+      <c r="AC193" s="16"/>
+      <c r="AD193" s="16">
+        <v>2007</v>
+      </c>
+      <c r="AE193" s="16"/>
+      <c r="AF193" s="16"/>
+      <c r="AG193" s="16"/>
+      <c r="AH193" s="16">
+        <v>2008</v>
+      </c>
+      <c r="AI193" s="16"/>
+      <c r="AJ193" s="16"/>
+      <c r="AK193" s="16"/>
+      <c r="AL193" s="16">
+        <v>2009</v>
+      </c>
+      <c r="AM193" s="16"/>
+      <c r="AN193" s="16"/>
+      <c r="AO193" s="16"/>
+      <c r="AP193" s="16">
+        <v>2010</v>
+      </c>
+      <c r="AQ193" s="16"/>
+      <c r="AR193" s="16"/>
+      <c r="AS193" s="16"/>
+      <c r="AT193" s="16">
+        <v>2011</v>
+      </c>
+      <c r="AU193" s="16"/>
+      <c r="AV193" s="16"/>
+      <c r="AW193" s="16"/>
+      <c r="AX193" s="16">
+        <v>2012</v>
+      </c>
+      <c r="AY193" s="16"/>
+      <c r="AZ193" s="16"/>
+      <c r="BA193" s="16"/>
+      <c r="BB193" s="16">
+        <v>2013</v>
+      </c>
+      <c r="BC193" s="16"/>
+      <c r="BD193" s="16"/>
+      <c r="BE193" s="16"/>
+      <c r="BF193" s="16">
+        <v>2014</v>
+      </c>
+      <c r="BG193" s="16"/>
+      <c r="BH193" s="16"/>
+      <c r="BI193" s="16"/>
+      <c r="BJ193" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BK193" s="16"/>
+      <c r="BL193" s="16"/>
+      <c r="BM193" s="16"/>
+      <c r="BN193" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BO193" s="16"/>
+      <c r="BP193" s="16"/>
+      <c r="BQ193" s="16"/>
+      <c r="BR193" s="16">
+        <v>2017</v>
+      </c>
+      <c r="BS193" s="16"/>
+      <c r="BT193" s="16"/>
+      <c r="BU193" s="16"/>
+      <c r="BV193" s="16">
+        <v>2018</v>
+      </c>
+      <c r="BW193" s="16"/>
+      <c r="BX193" s="16"/>
+      <c r="BY193" s="16"/>
+      <c r="BZ193" s="16">
+        <v>2019</v>
+      </c>
+      <c r="CA193" s="16"/>
+      <c r="CB193" s="16"/>
+      <c r="CC193" s="16"/>
+      <c r="CD193" s="16">
+        <v>2020</v>
+      </c>
+      <c r="CE193" s="16"/>
+      <c r="CF193" s="16"/>
+      <c r="CG193" s="16"/>
+      <c r="CH193" s="16">
+        <v>2021</v>
+      </c>
+      <c r="CI193" s="16"/>
+      <c r="CJ193" s="16"/>
+      <c r="CK193" s="16"/>
+      <c r="CL193" s="14">
+        <v>2022</v>
+      </c>
+      <c r="CM193" s="14"/>
+      <c r="CN193" s="14"/>
+      <c r="CO193" s="14"/>
+      <c r="CP193" s="14">
+        <v>2023</v>
+      </c>
+      <c r="CQ193" s="14"/>
+      <c r="CR193" s="14"/>
+      <c r="CS193" s="14"/>
     </row>
-    <row r="193" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="22">
-        <v>2000</v>
-      </c>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="22"/>
-      <c r="F193" s="22">
-        <v>2001</v>
-      </c>
-      <c r="G193" s="22"/>
-      <c r="H193" s="22"/>
-      <c r="I193" s="22"/>
-      <c r="J193" s="22">
-        <v>2002</v>
-      </c>
-      <c r="K193" s="22"/>
-      <c r="L193" s="22"/>
-      <c r="M193" s="22"/>
-      <c r="N193" s="22">
-        <v>2003</v>
-      </c>
-      <c r="O193" s="22"/>
-      <c r="P193" s="22"/>
-      <c r="Q193" s="22"/>
-      <c r="R193" s="22">
-        <v>2004</v>
-      </c>
-      <c r="S193" s="22"/>
-      <c r="T193" s="22"/>
-      <c r="U193" s="22"/>
-      <c r="V193" s="22">
-        <v>2005</v>
-      </c>
-      <c r="W193" s="22"/>
-      <c r="X193" s="22"/>
-      <c r="Y193" s="22"/>
-      <c r="Z193" s="22">
-        <v>2006</v>
-      </c>
-      <c r="AA193" s="22"/>
-      <c r="AB193" s="22"/>
-      <c r="AC193" s="22"/>
-      <c r="AD193" s="22">
-        <v>2007</v>
-      </c>
-      <c r="AE193" s="22"/>
-      <c r="AF193" s="22"/>
-      <c r="AG193" s="22"/>
-      <c r="AH193" s="22">
-        <v>2008</v>
-      </c>
-      <c r="AI193" s="22"/>
-      <c r="AJ193" s="22"/>
-      <c r="AK193" s="22"/>
-      <c r="AL193" s="22">
-        <v>2009</v>
-      </c>
-      <c r="AM193" s="22"/>
-      <c r="AN193" s="22"/>
-      <c r="AO193" s="22"/>
-      <c r="AP193" s="22">
-        <v>2010</v>
-      </c>
-      <c r="AQ193" s="22"/>
-      <c r="AR193" s="22"/>
-      <c r="AS193" s="22"/>
-      <c r="AT193" s="22">
-        <v>2011</v>
-      </c>
-      <c r="AU193" s="22"/>
-      <c r="AV193" s="22"/>
-      <c r="AW193" s="22"/>
-      <c r="AX193" s="22">
-        <v>2012</v>
-      </c>
-      <c r="AY193" s="22"/>
-      <c r="AZ193" s="22"/>
-      <c r="BA193" s="22"/>
-      <c r="BB193" s="22">
-        <v>2013</v>
-      </c>
-      <c r="BC193" s="22"/>
-      <c r="BD193" s="22"/>
-      <c r="BE193" s="22"/>
-      <c r="BF193" s="22">
-        <v>2014</v>
-      </c>
-      <c r="BG193" s="22"/>
-      <c r="BH193" s="22"/>
-      <c r="BI193" s="22"/>
-      <c r="BJ193" s="22">
-        <v>2015</v>
-      </c>
-      <c r="BK193" s="22"/>
-      <c r="BL193" s="22"/>
-      <c r="BM193" s="22"/>
-      <c r="BN193" s="22">
-        <v>2016</v>
-      </c>
-      <c r="BO193" s="22"/>
-      <c r="BP193" s="22"/>
-      <c r="BQ193" s="22"/>
-      <c r="BR193" s="22">
-        <v>2017</v>
-      </c>
-      <c r="BS193" s="22"/>
-      <c r="BT193" s="22"/>
-      <c r="BU193" s="22"/>
-      <c r="BV193" s="22">
-        <v>2018</v>
-      </c>
-      <c r="BW193" s="22"/>
-      <c r="BX193" s="22"/>
-      <c r="BY193" s="22"/>
-      <c r="BZ193" s="22">
-        <v>2019</v>
-      </c>
-      <c r="CA193" s="22"/>
-      <c r="CB193" s="22"/>
-      <c r="CC193" s="22"/>
-      <c r="CD193" s="22">
-        <v>2020</v>
-      </c>
-      <c r="CE193" s="22"/>
-      <c r="CF193" s="22"/>
-      <c r="CG193" s="22"/>
-      <c r="CH193" s="22">
-        <v>2021</v>
-      </c>
-      <c r="CI193" s="22"/>
-      <c r="CJ193" s="22"/>
-      <c r="CK193" s="22"/>
-      <c r="CL193" s="23">
-        <v>2022</v>
-      </c>
-      <c r="CM193" s="23"/>
-      <c r="CN193" s="23"/>
-      <c r="CO193" s="23"/>
-      <c r="CP193" s="23">
-        <v>2023</v>
-      </c>
-      <c r="CQ193" s="23"/>
-      <c r="CR193" s="23"/>
-    </row>
-    <row r="194" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -57482,39 +57418,35 @@
       <c r="CK194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL194" s="15" t="s">
+      <c r="CL194" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM194" s="15" t="s">
+      <c r="CM194" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN194" s="15" t="s">
+      <c r="CN194" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO194" s="15" t="s">
+      <c r="CO194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP194" s="15" t="s">
+      <c r="CP194" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ194" s="15" t="s">
+      <c r="CQ194" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR194" s="15" t="s">
+      <c r="CR194" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CS194" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="195" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
-      <c r="CL195" s="14"/>
-      <c r="CM195" s="14"/>
-      <c r="CN195" s="14"/>
-      <c r="CO195" s="14"/>
-      <c r="CP195" s="14"/>
-      <c r="CQ195" s="14"/>
-      <c r="CR195" s="14"/>
     </row>
-    <row r="196" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -57782,29 +57714,32 @@
       <c r="CK196" s="11">
         <v>22.076097459876479</v>
       </c>
-      <c r="CL196" s="21">
+      <c r="CL196" s="11">
         <v>17.640230026081397</v>
       </c>
-      <c r="CM196" s="21">
+      <c r="CM196" s="11">
         <v>15.46763988635983</v>
       </c>
-      <c r="CN196" s="21">
+      <c r="CN196" s="11">
         <v>12.449303571396273</v>
       </c>
-      <c r="CO196" s="21">
+      <c r="CO196" s="11">
         <v>21.051495119600339</v>
       </c>
-      <c r="CP196" s="21">
+      <c r="CP196" s="11">
         <v>16.550334674072161</v>
       </c>
-      <c r="CQ196" s="21">
+      <c r="CQ196" s="11">
         <v>16.315244900478657</v>
       </c>
-      <c r="CR196" s="21">
-        <v>14.007384041510521</v>
+      <c r="CR196" s="11">
+        <v>13.998821965948666</v>
+      </c>
+      <c r="CS196" s="11">
+        <v>23.872298761853042</v>
       </c>
     </row>
-    <row r="197" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -58072,29 +58007,32 @@
       <c r="CK197" s="11">
         <v>5.0398927588314608</v>
       </c>
-      <c r="CL197" s="21">
+      <c r="CL197" s="11">
         <v>7.2371291117132763</v>
       </c>
-      <c r="CM197" s="21">
+      <c r="CM197" s="11">
         <v>4.7345519246931831</v>
       </c>
-      <c r="CN197" s="21">
+      <c r="CN197" s="11">
         <v>7.3294301384347715</v>
       </c>
-      <c r="CO197" s="21">
+      <c r="CO197" s="11">
         <v>5.0517422560624654</v>
       </c>
-      <c r="CP197" s="21">
+      <c r="CP197" s="11">
         <v>8.0492181641313181</v>
       </c>
-      <c r="CQ197" s="21">
+      <c r="CQ197" s="11">
         <v>4.9033551072406816</v>
       </c>
-      <c r="CR197" s="21">
-        <v>7.7950109425309275</v>
+      <c r="CR197" s="11">
+        <v>7.7902462075422338</v>
+      </c>
+      <c r="CS197" s="11">
+        <v>4.5611058300953768</v>
       </c>
     </row>
-    <row r="198" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -58362,29 +58300,32 @@
       <c r="CK198" s="11">
         <v>3.2770714155040279</v>
       </c>
-      <c r="CL198" s="21">
+      <c r="CL198" s="11">
         <v>4.5105034804554984</v>
       </c>
-      <c r="CM198" s="21">
+      <c r="CM198" s="11">
         <v>3.8961383406283909</v>
       </c>
-      <c r="CN198" s="21">
+      <c r="CN198" s="11">
         <v>7.6940534118237665</v>
       </c>
-      <c r="CO198" s="21">
+      <c r="CO198" s="11">
         <v>3.0642616672821825</v>
       </c>
-      <c r="CP198" s="21">
+      <c r="CP198" s="11">
         <v>3.5903975738740246</v>
       </c>
-      <c r="CQ198" s="21">
+      <c r="CQ198" s="11">
         <v>3.2911913576733607</v>
       </c>
-      <c r="CR198" s="21">
-        <v>6.8992690227856421</v>
+      <c r="CR198" s="11">
+        <v>6.9226693312116323</v>
+      </c>
+      <c r="CS198" s="11">
+        <v>2.6581380720167029</v>
       </c>
     </row>
-    <row r="199" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -58652,29 +58593,32 @@
       <c r="CK199" s="11">
         <v>1.4529521726031689</v>
       </c>
-      <c r="CL199" s="21">
+      <c r="CL199" s="11">
         <v>2.2731418595051873</v>
       </c>
-      <c r="CM199" s="21">
+      <c r="CM199" s="11">
         <v>0.93726174699792797</v>
       </c>
-      <c r="CN199" s="21">
+      <c r="CN199" s="11">
         <v>0.66915415660504651</v>
       </c>
-      <c r="CO199" s="21">
+      <c r="CO199" s="11">
         <v>2.9380713677328165</v>
       </c>
-      <c r="CP199" s="21">
+      <c r="CP199" s="11">
         <v>2.836666830610413</v>
       </c>
-      <c r="CQ199" s="21">
+      <c r="CQ199" s="11">
         <v>1.199877914513972</v>
       </c>
-      <c r="CR199" s="21">
-        <v>0.47310703610348986</v>
+      <c r="CR199" s="11">
+        <v>0.47282158745244757</v>
+      </c>
+      <c r="CS199" s="11">
+        <v>2.4486525608033225</v>
       </c>
     </row>
-    <row r="200" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -58942,29 +58886,32 @@
       <c r="CK200" s="11">
         <v>7.5697238935289981</v>
       </c>
-      <c r="CL200" s="21">
+      <c r="CL200" s="11">
         <v>7.0106179443084287</v>
       </c>
-      <c r="CM200" s="21">
+      <c r="CM200" s="11">
         <v>7.1227149006431771</v>
       </c>
-      <c r="CN200" s="21">
+      <c r="CN200" s="11">
         <v>6.926104751631601</v>
       </c>
-      <c r="CO200" s="21">
+      <c r="CO200" s="11">
         <v>5.622591056133464</v>
       </c>
-      <c r="CP200" s="21">
+      <c r="CP200" s="11">
         <v>6.0957858472537643</v>
       </c>
-      <c r="CQ200" s="21">
+      <c r="CQ200" s="11">
         <v>7.5394639673116295</v>
       </c>
-      <c r="CR200" s="21">
-        <v>7.7009975651423286</v>
+      <c r="CR200" s="11">
+        <v>7.6918958868353009</v>
+      </c>
+      <c r="CS200" s="11">
+        <v>5.4951723222984752</v>
       </c>
     </row>
-    <row r="201" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -59232,29 +59179,32 @@
       <c r="CK201" s="11">
         <v>1.4003098307539354</v>
       </c>
-      <c r="CL201" s="21">
+      <c r="CL201" s="11">
         <v>1.0549180157016762</v>
       </c>
-      <c r="CM201" s="21">
+      <c r="CM201" s="11">
         <v>4.2111159811035117</v>
       </c>
-      <c r="CN201" s="21">
+      <c r="CN201" s="11">
         <v>0.54859117962408066</v>
       </c>
-      <c r="CO201" s="21">
+      <c r="CO201" s="11">
         <v>1.4760653290372179</v>
       </c>
-      <c r="CP201" s="21">
+      <c r="CP201" s="11">
         <v>1.1446777142673288</v>
       </c>
-      <c r="CQ201" s="21">
+      <c r="CQ201" s="11">
         <v>4.6746928633497564</v>
       </c>
-      <c r="CR201" s="21">
-        <v>0.65382744197898879</v>
+      <c r="CR201" s="11">
+        <v>0.65342607107634521</v>
+      </c>
+      <c r="CS201" s="11">
+        <v>1.5495493329019652</v>
       </c>
     </row>
-    <row r="202" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -59522,29 +59472,32 @@
       <c r="CK202" s="11">
         <v>1.3315260376372888</v>
       </c>
-      <c r="CL202" s="21">
+      <c r="CL202" s="11">
         <v>1.4365403382092234</v>
       </c>
-      <c r="CM202" s="21">
+      <c r="CM202" s="11">
         <v>0.89904768371309784</v>
       </c>
-      <c r="CN202" s="21">
+      <c r="CN202" s="11">
         <v>1.7868497179000218</v>
       </c>
-      <c r="CO202" s="21">
+      <c r="CO202" s="11">
         <v>1.5811850235433897</v>
       </c>
-      <c r="CP202" s="21">
+      <c r="CP202" s="11">
         <v>1.2065081797621648</v>
       </c>
-      <c r="CQ202" s="21">
+      <c r="CQ202" s="11">
         <v>1.0412945680521104</v>
       </c>
-      <c r="CR202" s="21">
-        <v>2.0193252317514476</v>
+      <c r="CR202" s="11">
+        <v>2.0180909176070556</v>
+      </c>
+      <c r="CS202" s="11">
+        <v>1.7384051789741506</v>
       </c>
     </row>
-    <row r="203" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -59812,29 +59765,32 @@
       <c r="CK203" s="11">
         <v>0.47900453214565364</v>
       </c>
-      <c r="CL203" s="21">
+      <c r="CL203" s="11">
         <v>0.39033198484213522</v>
       </c>
-      <c r="CM203" s="21">
+      <c r="CM203" s="11">
         <v>0.15721628107813473</v>
       </c>
-      <c r="CN203" s="21">
+      <c r="CN203" s="11">
         <v>0.11770729236301997</v>
       </c>
-      <c r="CO203" s="21">
+      <c r="CO203" s="11">
         <v>0.50108970719495938</v>
       </c>
-      <c r="CP203" s="21">
+      <c r="CP203" s="11">
         <v>0.34109499313615649</v>
       </c>
-      <c r="CQ203" s="21">
+      <c r="CQ203" s="11">
         <v>0.12538382400761441</v>
       </c>
-      <c r="CR203" s="21">
-        <v>0.11628243730976422</v>
+      <c r="CR203" s="11">
+        <v>0.11621171709870767</v>
+      </c>
+      <c r="CS203" s="11">
+        <v>0.59727981330896607</v>
       </c>
     </row>
-    <row r="204" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -60102,29 +60058,32 @@
       <c r="CK204" s="11">
         <v>1.360623488776137</v>
       </c>
-      <c r="CL204" s="21">
+      <c r="CL204" s="11">
         <v>0.6780478543585744</v>
       </c>
-      <c r="CM204" s="21">
+      <c r="CM204" s="11">
         <v>1.0784455944901543</v>
       </c>
-      <c r="CN204" s="21">
+      <c r="CN204" s="11">
         <v>1.4990108358986252</v>
       </c>
-      <c r="CO204" s="21">
+      <c r="CO204" s="11">
         <v>1.3571298574164419</v>
       </c>
-      <c r="CP204" s="21">
+      <c r="CP204" s="11">
         <v>0.73563876451097021</v>
       </c>
-      <c r="CQ204" s="21">
+      <c r="CQ204" s="11">
         <v>1.2300943274101608</v>
       </c>
-      <c r="CR204" s="21">
-        <v>1.6212424515356327</v>
+      <c r="CR204" s="11">
+        <v>1.6200314529660844</v>
+      </c>
+      <c r="CS204" s="11">
+        <v>1.4316885405585489</v>
       </c>
     </row>
-    <row r="205" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -60392,29 +60351,32 @@
       <c r="CK205" s="11">
         <v>0.70575667147620669</v>
       </c>
-      <c r="CL205" s="21">
+      <c r="CL205" s="11">
         <v>0.26839558959573534</v>
       </c>
-      <c r="CM205" s="21">
+      <c r="CM205" s="11">
         <v>0.70053886918759456</v>
       </c>
-      <c r="CN205" s="21">
+      <c r="CN205" s="11">
         <v>0.49665251687564343</v>
       </c>
-      <c r="CO205" s="21">
+      <c r="CO205" s="11">
         <v>0.52998912814674159</v>
       </c>
-      <c r="CP205" s="21">
+      <c r="CP205" s="11">
         <v>0.19637711533318372</v>
       </c>
-      <c r="CQ205" s="21">
+      <c r="CQ205" s="11">
         <v>0.5212987650231341</v>
       </c>
-      <c r="CR205" s="21">
-        <v>0.39270308161634759</v>
+      <c r="CR205" s="11">
+        <v>0.39246304011573513</v>
+      </c>
+      <c r="CS205" s="11">
+        <v>0.46775048840317329</v>
       </c>
     </row>
-    <row r="206" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -60682,29 +60644,32 @@
       <c r="CK206" s="11">
         <v>8.5332206814521305E-2</v>
       </c>
-      <c r="CL206" s="21">
+      <c r="CL206" s="11">
         <v>8.5886687475933546E-2</v>
       </c>
-      <c r="CM206" s="21">
+      <c r="CM206" s="11">
         <v>5.7224554783248685E-2</v>
       </c>
-      <c r="CN206" s="21">
+      <c r="CN206" s="11">
         <v>8.8019289366159964E-2</v>
       </c>
-      <c r="CO206" s="21">
+      <c r="CO206" s="11">
         <v>9.1698195464001139E-2</v>
       </c>
-      <c r="CP206" s="21">
+      <c r="CP206" s="11">
         <v>8.5223870342555769E-2</v>
       </c>
-      <c r="CQ206" s="21">
+      <c r="CQ206" s="11">
         <v>7.4533679039402723E-2</v>
       </c>
-      <c r="CR206" s="21">
-        <v>0.10581631044918735</v>
+      <c r="CR206" s="11">
+        <v>0.10575162976038599</v>
+      </c>
+      <c r="CS206" s="11">
+        <v>0.10069885505269376</v>
       </c>
     </row>
-    <row r="207" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -60972,29 +60937,32 @@
       <c r="CK207" s="11">
         <v>9.1675564226051068E-2</v>
       </c>
-      <c r="CL207" s="21">
+      <c r="CL207" s="11">
         <v>7.8163459609223745E-2</v>
       </c>
-      <c r="CM207" s="21">
+      <c r="CM207" s="11">
         <v>5.7126629041668167E-2</v>
       </c>
-      <c r="CN207" s="21">
+      <c r="CN207" s="11">
         <v>9.6099353168138141E-2</v>
       </c>
-      <c r="CO207" s="21">
+      <c r="CO207" s="11">
         <v>8.7461742617694876E-2</v>
       </c>
-      <c r="CP207" s="21">
+      <c r="CP207" s="11">
         <v>6.4869273756859094E-2</v>
       </c>
-      <c r="CQ207" s="21">
+      <c r="CQ207" s="11">
         <v>4.8658836923406001E-2</v>
       </c>
-      <c r="CR207" s="21">
-        <v>7.6511673519124496E-2</v>
+      <c r="CR207" s="11">
+        <v>7.7123997566306279E-2</v>
+      </c>
+      <c r="CS207" s="11">
+        <v>7.6084307283927441E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -61262,29 +61230,32 @@
       <c r="CK208" s="11">
         <v>0.13053685868927514</v>
       </c>
-      <c r="CL208" s="21">
+      <c r="CL208" s="11">
         <v>3.4868136919661105E-2</v>
       </c>
-      <c r="CM208" s="21">
+      <c r="CM208" s="11">
         <v>3.0705559280714476E-2</v>
       </c>
-      <c r="CN208" s="21">
+      <c r="CN208" s="11">
         <v>6.1619624747909059E-2</v>
       </c>
-      <c r="CO208" s="21">
+      <c r="CO208" s="11">
         <v>0.12329926132299651</v>
       </c>
-      <c r="CP208" s="21">
+      <c r="CP208" s="11">
         <v>3.489079671796777E-2</v>
       </c>
-      <c r="CQ208" s="21">
+      <c r="CQ208" s="11">
         <v>3.9662566918400609E-2</v>
       </c>
-      <c r="CR208" s="21">
-        <v>0.18498053383822571</v>
+      <c r="CR208" s="11">
+        <v>0.18486746366712942</v>
+      </c>
+      <c r="CS208" s="11">
+        <v>0.19434195664506607</v>
       </c>
     </row>
-    <row r="209" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -61552,29 +61523,32 @@
       <c r="CK209" s="11">
         <v>5.004246704203557</v>
       </c>
-      <c r="CL209" s="21">
+      <c r="CL209" s="11">
         <v>5.0139927701088638</v>
       </c>
-      <c r="CM209" s="21">
+      <c r="CM209" s="11">
         <v>3.9020561127311186</v>
       </c>
-      <c r="CN209" s="21">
+      <c r="CN209" s="11">
         <v>5.4035466547898645</v>
       </c>
-      <c r="CO209" s="21">
+      <c r="CO209" s="11">
         <v>5.2258969355151503</v>
       </c>
-      <c r="CP209" s="21">
+      <c r="CP209" s="11">
         <v>6.2483650428106792</v>
       </c>
-      <c r="CQ209" s="21">
+      <c r="CQ209" s="11">
         <v>4.2837923931163449</v>
       </c>
-      <c r="CR209" s="21">
-        <v>5.5828515148075883</v>
+      <c r="CR209" s="11">
+        <v>5.6285932020491813</v>
+      </c>
+      <c r="CS209" s="11">
+        <v>5.0678621634254135</v>
       </c>
     </row>
-    <row r="210" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -61842,29 +61816,32 @@
       <c r="CK210" s="11">
         <v>12.789581329132682</v>
       </c>
-      <c r="CL210" s="21">
+      <c r="CL210" s="11">
         <v>13.392647165341351</v>
       </c>
-      <c r="CM210" s="21">
+      <c r="CM210" s="11">
         <v>15.866890705490096</v>
       </c>
-      <c r="CN210" s="21">
+      <c r="CN210" s="11">
         <v>15.624902498523211</v>
       </c>
-      <c r="CO210" s="21">
+      <c r="CO210" s="11">
         <v>12.655492311537319</v>
       </c>
-      <c r="CP210" s="21">
+      <c r="CP210" s="11">
         <v>12.294270919385852</v>
       </c>
-      <c r="CQ210" s="21">
+      <c r="CQ210" s="11">
         <v>14.63015260427688</v>
       </c>
-      <c r="CR210" s="21">
-        <v>14.418554475720418</v>
+      <c r="CR210" s="11">
+        <v>14.409748125568067</v>
+      </c>
+      <c r="CS210" s="11">
+        <v>12.489428845625076</v>
       </c>
     </row>
-    <row r="211" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -62132,29 +62109,32 @@
       <c r="CK211" s="11">
         <v>9.7295826391920315</v>
       </c>
-      <c r="CL211" s="21">
+      <c r="CL211" s="11">
         <v>14.154393094390953</v>
       </c>
-      <c r="CM211" s="21">
+      <c r="CM211" s="11">
         <v>9.3601942612531843</v>
       </c>
-      <c r="CN211" s="21">
+      <c r="CN211" s="11">
         <v>11.006978590610641</v>
       </c>
-      <c r="CO211" s="21">
+      <c r="CO211" s="11">
         <v>10.508494426785218</v>
       </c>
-      <c r="CP211" s="21">
+      <c r="CP211" s="11">
         <v>14.762005091538724</v>
       </c>
-      <c r="CQ211" s="21">
+      <c r="CQ211" s="11">
         <v>9.761852908253438</v>
       </c>
-      <c r="CR211" s="21">
-        <v>10.47061821466623</v>
+      <c r="CR211" s="11">
+        <v>10.464218002879338</v>
+      </c>
+      <c r="CS211" s="11">
+        <v>10.386226890287892</v>
       </c>
     </row>
-    <row r="212" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -62422,29 +62402,32 @@
       <c r="CK212" s="11">
         <v>3.4711954954082489</v>
       </c>
-      <c r="CL212" s="21">
+      <c r="CL212" s="11">
         <v>3.9542693036881489</v>
       </c>
-      <c r="CM212" s="21">
+      <c r="CM212" s="11">
         <v>3.1217437944296145</v>
       </c>
-      <c r="CN212" s="21">
+      <c r="CN212" s="11">
         <v>3.6163760763295825</v>
       </c>
-      <c r="CO212" s="21">
+      <c r="CO212" s="11">
         <v>3.5710247457272271</v>
       </c>
-      <c r="CP212" s="21">
+      <c r="CP212" s="11">
         <v>3.8383284646228604</v>
       </c>
-      <c r="CQ212" s="21">
+      <c r="CQ212" s="11">
         <v>2.8194364215574113</v>
       </c>
-      <c r="CR212" s="21">
-        <v>3.3910115174903619</v>
+      <c r="CR212" s="11">
+        <v>3.3889387466721765</v>
+      </c>
+      <c r="CS212" s="11">
+        <v>3.534082623585133</v>
       </c>
     </row>
-    <row r="213" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -62712,29 +62695,32 @@
       <c r="CK213" s="11">
         <v>1.6080104380887833E-2</v>
       </c>
-      <c r="CL213" s="21">
+      <c r="CL213" s="11">
         <v>8.4620379064092477E-2</v>
       </c>
-      <c r="CM213" s="21">
+      <c r="CM213" s="11">
         <v>6.0005161127094003E-2</v>
       </c>
-      <c r="CN213" s="21">
+      <c r="CN213" s="11">
         <v>8.4885548814195855E-2</v>
       </c>
-      <c r="CO213" s="21">
+      <c r="CO213" s="11">
         <v>1.3187012383728656E-2</v>
       </c>
-      <c r="CP213" s="21">
+      <c r="CP213" s="11">
         <v>3.095970766956728E-2</v>
       </c>
-      <c r="CQ213" s="21">
+      <c r="CQ213" s="11">
         <v>4.041067397663213E-2</v>
       </c>
-      <c r="CR213" s="21">
-        <v>9.0417784887386984E-2</v>
+      <c r="CR213" s="11">
+        <v>7.3990658347487456E-2</v>
+      </c>
+      <c r="CS213" s="11">
+        <v>1.0553693642961548E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -63002,29 +62988,32 @@
       <c r="CK214" s="11">
         <v>11.905796336274671</v>
       </c>
-      <c r="CL214" s="21">
+      <c r="CL214" s="11">
         <v>11.411055236980253</v>
       </c>
-      <c r="CM214" s="21">
+      <c r="CM214" s="11">
         <v>13.532602531465255</v>
       </c>
-      <c r="CN214" s="21">
+      <c r="CN214" s="11">
         <v>14.670829664492741</v>
       </c>
-      <c r="CO214" s="21">
+      <c r="CO214" s="11">
         <v>11.98376260283114</v>
       </c>
-      <c r="CP214" s="21">
+      <c r="CP214" s="11">
         <v>12.621867124998321</v>
       </c>
-      <c r="CQ214" s="21">
+      <c r="CQ214" s="11">
         <v>11.789591891706285</v>
       </c>
-      <c r="CR214" s="21">
-        <v>13.870807537275843</v>
+      <c r="CR214" s="11">
+        <v>13.867000378569996</v>
+      </c>
+      <c r="CS214" s="11">
+        <v>10.255326178475741</v>
       </c>
     </row>
-    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -63292,30 +63281,33 @@
       <c r="CK215" s="11">
         <v>12.083014500544744</v>
       </c>
-      <c r="CL215" s="21">
+      <c r="CL215" s="11">
         <v>9.2902475616503786</v>
       </c>
-      <c r="CM215" s="21">
+      <c r="CM215" s="11">
         <v>14.806779481503012</v>
       </c>
-      <c r="CN215" s="21">
+      <c r="CN215" s="11">
         <v>9.829885126604692</v>
       </c>
-      <c r="CO215" s="21">
+      <c r="CO215" s="11">
         <v>12.566062253665494</v>
       </c>
-      <c r="CP215" s="21">
+      <c r="CP215" s="11">
         <v>9.272519851205157</v>
       </c>
-      <c r="CQ215" s="21">
+      <c r="CQ215" s="11">
         <v>15.670010429170731</v>
       </c>
-      <c r="CR215" s="21">
-        <v>10.129281185080554</v>
+      <c r="CR215" s="11">
+        <v>10.123089617065718</v>
+      </c>
+      <c r="CS215" s="11">
+        <v>13.065353584762379</v>
       </c>
     </row>
-    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -63583,29 +63575,32 @@
       <c r="CK217" s="11">
         <v>100</v>
       </c>
-      <c r="CL217" s="21">
+      <c r="CL217" s="11">
         <v>100</v>
       </c>
-      <c r="CM217" s="21">
+      <c r="CM217" s="11">
         <v>100</v>
       </c>
-      <c r="CN217" s="21">
+      <c r="CN217" s="11">
         <v>100</v>
       </c>
-      <c r="CO217" s="21">
+      <c r="CO217" s="11">
         <v>100</v>
       </c>
-      <c r="CP217" s="21">
+      <c r="CP217" s="11">
         <v>100</v>
       </c>
-      <c r="CQ217" s="21">
+      <c r="CQ217" s="11">
         <v>100</v>
       </c>
-      <c r="CR217" s="21">
+      <c r="CR217" s="11">
         <v>100</v>
       </c>
+      <c r="CS217" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -63695,265 +63690,202 @@
       <c r="CI218" s="10"/>
       <c r="CJ218" s="10"/>
       <c r="CK218" s="10"/>
-      <c r="CL218" s="19"/>
-      <c r="CM218" s="19"/>
-      <c r="CN218" s="19"/>
-      <c r="CO218" s="19"/>
-      <c r="CP218" s="19"/>
-      <c r="CQ218" s="19"/>
-      <c r="CR218" s="19"/>
+      <c r="CL218" s="10"/>
+      <c r="CM218" s="10"/>
+      <c r="CN218" s="10"/>
+      <c r="CO218" s="10"/>
+      <c r="CP218" s="10"/>
+      <c r="CQ218" s="10"/>
+      <c r="CR218" s="10"/>
+      <c r="CS218" s="10"/>
     </row>
-    <row r="219" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL219" s="14"/>
-      <c r="CM219" s="14"/>
-      <c r="CN219" s="14"/>
-      <c r="CO219" s="14"/>
-      <c r="CP219" s="14"/>
-      <c r="CQ219" s="14"/>
-      <c r="CR219" s="14"/>
     </row>
-    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CL222" s="14"/>
-      <c r="CM222" s="14"/>
-      <c r="CN222" s="14"/>
-      <c r="CO222" s="14"/>
-      <c r="CP222" s="14"/>
-      <c r="CQ222" s="14"/>
-      <c r="CR222" s="14"/>
     </row>
-    <row r="223" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CL223" s="14"/>
-      <c r="CM223" s="14"/>
-      <c r="CN223" s="14"/>
-      <c r="CO223" s="14"/>
-      <c r="CP223" s="14"/>
-      <c r="CQ223" s="14"/>
-      <c r="CR223" s="14"/>
     </row>
-    <row r="224" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="CL224" s="14"/>
-      <c r="CM224" s="14"/>
-      <c r="CN224" s="14"/>
-      <c r="CO224" s="14"/>
-      <c r="CP224" s="14"/>
-      <c r="CQ224" s="14"/>
-      <c r="CR224" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="225" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL225" s="14"/>
-      <c r="CM225" s="14"/>
-      <c r="CN225" s="14"/>
-      <c r="CO225" s="14"/>
-      <c r="CP225" s="14"/>
-      <c r="CQ225" s="14"/>
-      <c r="CR225" s="14"/>
-    </row>
-    <row r="226" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CL226" s="14"/>
-      <c r="CM226" s="14"/>
-      <c r="CN226" s="14"/>
-      <c r="CO226" s="14"/>
-      <c r="CP226" s="14"/>
-      <c r="CQ226" s="14"/>
-      <c r="CR226" s="14"/>
     </row>
-    <row r="227" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CL227" s="14"/>
-      <c r="CM227" s="14"/>
-      <c r="CN227" s="14"/>
-      <c r="CO227" s="14"/>
-      <c r="CP227" s="14"/>
-      <c r="CQ227" s="14"/>
-      <c r="CR227" s="14"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="228" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CL228" s="14"/>
-      <c r="CM228" s="14"/>
-      <c r="CN228" s="14"/>
-      <c r="CO228" s="14"/>
-      <c r="CP228" s="14"/>
-      <c r="CQ228" s="14"/>
-      <c r="CR228" s="14"/>
     </row>
-    <row r="229" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CL229" s="14"/>
-      <c r="CM229" s="14"/>
-      <c r="CN229" s="14"/>
-      <c r="CO229" s="14"/>
-      <c r="CP229" s="14"/>
-      <c r="CQ229" s="14"/>
-      <c r="CR229" s="14"/>
+    <row r="229" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+      <c r="B230" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16">
+        <v>2001</v>
+      </c>
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="16"/>
+      <c r="J230" s="16">
+        <v>2002</v>
+      </c>
+      <c r="K230" s="16"/>
+      <c r="L230" s="16"/>
+      <c r="M230" s="16"/>
+      <c r="N230" s="16">
+        <v>2003</v>
+      </c>
+      <c r="O230" s="16"/>
+      <c r="P230" s="16"/>
+      <c r="Q230" s="16"/>
+      <c r="R230" s="16">
+        <v>2004</v>
+      </c>
+      <c r="S230" s="16"/>
+      <c r="T230" s="16"/>
+      <c r="U230" s="16"/>
+      <c r="V230" s="16">
+        <v>2005</v>
+      </c>
+      <c r="W230" s="16"/>
+      <c r="X230" s="16"/>
+      <c r="Y230" s="16"/>
+      <c r="Z230" s="16">
+        <v>2006</v>
+      </c>
+      <c r="AA230" s="16"/>
+      <c r="AB230" s="16"/>
+      <c r="AC230" s="16"/>
+      <c r="AD230" s="16">
+        <v>2007</v>
+      </c>
+      <c r="AE230" s="16"/>
+      <c r="AF230" s="16"/>
+      <c r="AG230" s="16"/>
+      <c r="AH230" s="16">
+        <v>2008</v>
+      </c>
+      <c r="AI230" s="16"/>
+      <c r="AJ230" s="16"/>
+      <c r="AK230" s="16"/>
+      <c r="AL230" s="16">
+        <v>2009</v>
+      </c>
+      <c r="AM230" s="16"/>
+      <c r="AN230" s="16"/>
+      <c r="AO230" s="16"/>
+      <c r="AP230" s="16">
+        <v>2010</v>
+      </c>
+      <c r="AQ230" s="16"/>
+      <c r="AR230" s="16"/>
+      <c r="AS230" s="16"/>
+      <c r="AT230" s="16">
+        <v>2011</v>
+      </c>
+      <c r="AU230" s="16"/>
+      <c r="AV230" s="16"/>
+      <c r="AW230" s="16"/>
+      <c r="AX230" s="16">
+        <v>2012</v>
+      </c>
+      <c r="AY230" s="16"/>
+      <c r="AZ230" s="16"/>
+      <c r="BA230" s="16"/>
+      <c r="BB230" s="16">
+        <v>2013</v>
+      </c>
+      <c r="BC230" s="16"/>
+      <c r="BD230" s="16"/>
+      <c r="BE230" s="16"/>
+      <c r="BF230" s="16">
+        <v>2014</v>
+      </c>
+      <c r="BG230" s="16"/>
+      <c r="BH230" s="16"/>
+      <c r="BI230" s="16"/>
+      <c r="BJ230" s="16">
+        <v>2015</v>
+      </c>
+      <c r="BK230" s="16"/>
+      <c r="BL230" s="16"/>
+      <c r="BM230" s="16"/>
+      <c r="BN230" s="16">
+        <v>2016</v>
+      </c>
+      <c r="BO230" s="16"/>
+      <c r="BP230" s="16"/>
+      <c r="BQ230" s="16"/>
+      <c r="BR230" s="16">
+        <v>2017</v>
+      </c>
+      <c r="BS230" s="16"/>
+      <c r="BT230" s="16"/>
+      <c r="BU230" s="16"/>
+      <c r="BV230" s="16">
+        <v>2018</v>
+      </c>
+      <c r="BW230" s="16"/>
+      <c r="BX230" s="16"/>
+      <c r="BY230" s="16"/>
+      <c r="BZ230" s="16">
+        <v>2019</v>
+      </c>
+      <c r="CA230" s="16"/>
+      <c r="CB230" s="16"/>
+      <c r="CC230" s="16"/>
+      <c r="CD230" s="16">
+        <v>2020</v>
+      </c>
+      <c r="CE230" s="16"/>
+      <c r="CF230" s="16"/>
+      <c r="CG230" s="16"/>
+      <c r="CH230" s="16">
+        <v>2021</v>
+      </c>
+      <c r="CI230" s="16"/>
+      <c r="CJ230" s="16"/>
+      <c r="CK230" s="16"/>
+      <c r="CL230" s="14">
+        <v>2022</v>
+      </c>
+      <c r="CM230" s="14"/>
+      <c r="CN230" s="14"/>
+      <c r="CO230" s="14"/>
+      <c r="CP230" s="14">
+        <v>2023</v>
+      </c>
+      <c r="CQ230" s="14"/>
+      <c r="CR230" s="14"/>
+      <c r="CS230" s="14"/>
     </row>
-    <row r="230" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="B230" s="22">
-        <v>2000</v>
-      </c>
-      <c r="C230" s="22"/>
-      <c r="D230" s="22"/>
-      <c r="E230" s="22"/>
-      <c r="F230" s="22">
-        <v>2001</v>
-      </c>
-      <c r="G230" s="22"/>
-      <c r="H230" s="22"/>
-      <c r="I230" s="22"/>
-      <c r="J230" s="22">
-        <v>2002</v>
-      </c>
-      <c r="K230" s="22"/>
-      <c r="L230" s="22"/>
-      <c r="M230" s="22"/>
-      <c r="N230" s="22">
-        <v>2003</v>
-      </c>
-      <c r="O230" s="22"/>
-      <c r="P230" s="22"/>
-      <c r="Q230" s="22"/>
-      <c r="R230" s="22">
-        <v>2004</v>
-      </c>
-      <c r="S230" s="22"/>
-      <c r="T230" s="22"/>
-      <c r="U230" s="22"/>
-      <c r="V230" s="22">
-        <v>2005</v>
-      </c>
-      <c r="W230" s="22"/>
-      <c r="X230" s="22"/>
-      <c r="Y230" s="22"/>
-      <c r="Z230" s="22">
-        <v>2006</v>
-      </c>
-      <c r="AA230" s="22"/>
-      <c r="AB230" s="22"/>
-      <c r="AC230" s="22"/>
-      <c r="AD230" s="22">
-        <v>2007</v>
-      </c>
-      <c r="AE230" s="22"/>
-      <c r="AF230" s="22"/>
-      <c r="AG230" s="22"/>
-      <c r="AH230" s="22">
-        <v>2008</v>
-      </c>
-      <c r="AI230" s="22"/>
-      <c r="AJ230" s="22"/>
-      <c r="AK230" s="22"/>
-      <c r="AL230" s="22">
-        <v>2009</v>
-      </c>
-      <c r="AM230" s="22"/>
-      <c r="AN230" s="22"/>
-      <c r="AO230" s="22"/>
-      <c r="AP230" s="22">
-        <v>2010</v>
-      </c>
-      <c r="AQ230" s="22"/>
-      <c r="AR230" s="22"/>
-      <c r="AS230" s="22"/>
-      <c r="AT230" s="22">
-        <v>2011</v>
-      </c>
-      <c r="AU230" s="22"/>
-      <c r="AV230" s="22"/>
-      <c r="AW230" s="22"/>
-      <c r="AX230" s="22">
-        <v>2012</v>
-      </c>
-      <c r="AY230" s="22"/>
-      <c r="AZ230" s="22"/>
-      <c r="BA230" s="22"/>
-      <c r="BB230" s="22">
-        <v>2013</v>
-      </c>
-      <c r="BC230" s="22"/>
-      <c r="BD230" s="22"/>
-      <c r="BE230" s="22"/>
-      <c r="BF230" s="22">
-        <v>2014</v>
-      </c>
-      <c r="BG230" s="22"/>
-      <c r="BH230" s="22"/>
-      <c r="BI230" s="22"/>
-      <c r="BJ230" s="22">
-        <v>2015</v>
-      </c>
-      <c r="BK230" s="22"/>
-      <c r="BL230" s="22"/>
-      <c r="BM230" s="22"/>
-      <c r="BN230" s="22">
-        <v>2016</v>
-      </c>
-      <c r="BO230" s="22"/>
-      <c r="BP230" s="22"/>
-      <c r="BQ230" s="22"/>
-      <c r="BR230" s="22">
-        <v>2017</v>
-      </c>
-      <c r="BS230" s="22"/>
-      <c r="BT230" s="22"/>
-      <c r="BU230" s="22"/>
-      <c r="BV230" s="22">
-        <v>2018</v>
-      </c>
-      <c r="BW230" s="22"/>
-      <c r="BX230" s="22"/>
-      <c r="BY230" s="22"/>
-      <c r="BZ230" s="22">
-        <v>2019</v>
-      </c>
-      <c r="CA230" s="22"/>
-      <c r="CB230" s="22"/>
-      <c r="CC230" s="22"/>
-      <c r="CD230" s="22">
-        <v>2020</v>
-      </c>
-      <c r="CE230" s="22"/>
-      <c r="CF230" s="22"/>
-      <c r="CG230" s="22"/>
-      <c r="CH230" s="22">
-        <v>2021</v>
-      </c>
-      <c r="CI230" s="22"/>
-      <c r="CJ230" s="22"/>
-      <c r="CK230" s="22"/>
-      <c r="CL230" s="23">
-        <v>2022</v>
-      </c>
-      <c r="CM230" s="23"/>
-      <c r="CN230" s="23"/>
-      <c r="CO230" s="23"/>
-      <c r="CP230" s="23">
-        <v>2023</v>
-      </c>
-      <c r="CQ230" s="23"/>
-      <c r="CR230" s="23"/>
-    </row>
-    <row r="231" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -64221,39 +64153,35 @@
       <c r="CK231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CL231" s="15" t="s">
+      <c r="CL231" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CM231" s="15" t="s">
+      <c r="CM231" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CN231" s="15" t="s">
+      <c r="CN231" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CO231" s="15" t="s">
+      <c r="CO231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP231" s="15" t="s">
+      <c r="CP231" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ231" s="15" t="s">
+      <c r="CQ231" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR231" s="15" t="s">
+      <c r="CR231" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="CS231" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="232" spans="1:96" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
-      <c r="CL232" s="14"/>
-      <c r="CM232" s="14"/>
-      <c r="CN232" s="14"/>
-      <c r="CO232" s="14"/>
-      <c r="CP232" s="14"/>
-      <c r="CQ232" s="14"/>
-      <c r="CR232" s="14"/>
     </row>
-    <row r="233" spans="1:96" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -64521,29 +64449,32 @@
       <c r="CK233" s="11">
         <v>25.988641011884621</v>
       </c>
-      <c r="CL233" s="21">
+      <c r="CL233" s="11">
         <v>20.927183779000558</v>
       </c>
-      <c r="CM233" s="21">
+      <c r="CM233" s="11">
         <v>19.538150390612383</v>
       </c>
-      <c r="CN233" s="21">
+      <c r="CN233" s="11">
         <v>17.633502248285978</v>
       </c>
-      <c r="CO233" s="21">
+      <c r="CO233" s="11">
         <v>25.429801463860542</v>
       </c>
-      <c r="CP233" s="21">
+      <c r="CP233" s="11">
         <v>21.383286689235621</v>
       </c>
-      <c r="CQ233" s="21">
+      <c r="CQ233" s="11">
         <v>19.95030391085438</v>
       </c>
-      <c r="CR233" s="21">
-        <v>17.509882976419412</v>
+      <c r="CR233" s="11">
+        <v>17.508353225789183</v>
+      </c>
+      <c r="CS233" s="11">
+        <v>25.129523485626326</v>
       </c>
     </row>
-    <row r="234" spans="1:96" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -64811,29 +64742,32 @@
       <c r="CK234" s="11">
         <v>4.9350150511504118</v>
       </c>
-      <c r="CL234" s="21">
+      <c r="CL234" s="11">
         <v>7.1430288759919955</v>
       </c>
-      <c r="CM234" s="21">
+      <c r="CM234" s="11">
         <v>4.7755544312449549</v>
       </c>
-      <c r="CN234" s="21">
+      <c r="CN234" s="11">
         <v>7.4001966065796356</v>
       </c>
-      <c r="CO234" s="21">
+      <c r="CO234" s="11">
         <v>4.6061100557597596</v>
       </c>
-      <c r="CP234" s="21">
+      <c r="CP234" s="11">
         <v>7.2116777182862633</v>
       </c>
-      <c r="CQ234" s="21">
+      <c r="CQ234" s="11">
         <v>4.7299999635940182</v>
       </c>
-      <c r="CR234" s="21">
-        <v>7.6992607814652514</v>
+      <c r="CR234" s="11">
+        <v>7.6985881356772357</v>
+      </c>
+      <c r="CS234" s="11">
+        <v>4.4645277834795012</v>
       </c>
     </row>
-    <row r="235" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -65101,29 +65035,32 @@
       <c r="CK235" s="11">
         <v>4.2154888746057635</v>
       </c>
-      <c r="CL235" s="21">
+      <c r="CL235" s="11">
         <v>6.0059218172069633</v>
       </c>
-      <c r="CM235" s="21">
+      <c r="CM235" s="11">
         <v>3.2458575990860132</v>
       </c>
-      <c r="CN235" s="21">
+      <c r="CN235" s="11">
         <v>5.4001675945049055</v>
       </c>
-      <c r="CO235" s="21">
+      <c r="CO235" s="11">
         <v>4.2866087112235256</v>
       </c>
-      <c r="CP235" s="21">
+      <c r="CP235" s="11">
         <v>6.0694879147652276</v>
       </c>
-      <c r="CQ235" s="21">
+      <c r="CQ235" s="11">
         <v>3.3148248801660127</v>
       </c>
-      <c r="CR235" s="21">
-        <v>5.27156334651312</v>
+      <c r="CR235" s="11">
+        <v>5.2923909077054256</v>
+      </c>
+      <c r="CS235" s="11">
+        <v>4.1607471543276811</v>
       </c>
     </row>
-    <row r="236" spans="1:96" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -65391,29 +65328,32 @@
       <c r="CK236" s="11">
         <v>1.2280405756952346</v>
       </c>
-      <c r="CL236" s="21">
+      <c r="CL236" s="11">
         <v>3.0654619674720367</v>
       </c>
-      <c r="CM236" s="21">
+      <c r="CM236" s="11">
         <v>1.3800252743575308</v>
       </c>
-      <c r="CN236" s="21">
+      <c r="CN236" s="11">
         <v>0.2326002899734976</v>
       </c>
-      <c r="CO236" s="21">
+      <c r="CO236" s="11">
         <v>1.4291210756766803</v>
       </c>
-      <c r="CP236" s="21">
+      <c r="CP236" s="11">
         <v>2.4878329389462115</v>
       </c>
-      <c r="CQ236" s="21">
+      <c r="CQ236" s="11">
         <v>1.2939604956900841</v>
       </c>
-      <c r="CR236" s="21">
-        <v>0.18380858602552183</v>
+      <c r="CR236" s="11">
+        <v>0.18379398144244533</v>
+      </c>
+      <c r="CS236" s="11">
+        <v>1.5919627545465203</v>
       </c>
     </row>
-    <row r="237" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -65681,29 +65621,32 @@
       <c r="CK237" s="11">
         <v>6.5545316198952763</v>
       </c>
-      <c r="CL237" s="21">
+      <c r="CL237" s="11">
         <v>6.9818448038421455</v>
       </c>
-      <c r="CM237" s="21">
+      <c r="CM237" s="11">
         <v>8.188258380761873</v>
       </c>
-      <c r="CN237" s="21">
+      <c r="CN237" s="11">
         <v>8.6707195838281965</v>
       </c>
-      <c r="CO237" s="21">
+      <c r="CO237" s="11">
         <v>6.5182111643757645</v>
       </c>
-      <c r="CP237" s="21">
+      <c r="CP237" s="11">
         <v>6.8373044194272214</v>
       </c>
-      <c r="CQ237" s="21">
+      <c r="CQ237" s="11">
         <v>8.2294180439779279</v>
       </c>
-      <c r="CR237" s="21">
-        <v>8.608747967499724</v>
+      <c r="CR237" s="11">
+        <v>8.6083833766613207</v>
+      </c>
+      <c r="CS237" s="11">
+        <v>6.4166036650967238</v>
       </c>
     </row>
-    <row r="238" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -65971,29 +65914,32 @@
       <c r="CK238" s="11">
         <v>1.4489437093665296</v>
       </c>
-      <c r="CL238" s="21">
+      <c r="CL238" s="11">
         <v>1.2594529060865995</v>
       </c>
-      <c r="CM238" s="21">
+      <c r="CM238" s="11">
         <v>4.3459113019146196</v>
       </c>
-      <c r="CN238" s="21">
+      <c r="CN238" s="11">
         <v>0.56158869867055761</v>
       </c>
-      <c r="CO238" s="21">
+      <c r="CO238" s="11">
         <v>1.3657637450823574</v>
       </c>
-      <c r="CP238" s="21">
+      <c r="CP238" s="11">
         <v>1.3249683550256888</v>
       </c>
-      <c r="CQ238" s="21">
+      <c r="CQ238" s="11">
         <v>4.8263585820466828</v>
       </c>
-      <c r="CR238" s="21">
-        <v>0.64063538095650352</v>
+      <c r="CR238" s="11">
+        <v>0.64056752184108812</v>
+      </c>
+      <c r="CS238" s="11">
+        <v>1.4521172080373828</v>
       </c>
     </row>
-    <row r="239" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -66261,29 +66207,32 @@
       <c r="CK239" s="11">
         <v>1.6837451410319677</v>
       </c>
-      <c r="CL239" s="21">
+      <c r="CL239" s="11">
         <v>1.7061923628919926</v>
       </c>
-      <c r="CM239" s="21">
+      <c r="CM239" s="11">
         <v>1.5399358581195812</v>
       </c>
-      <c r="CN239" s="21">
+      <c r="CN239" s="11">
         <v>1.6130219822086627</v>
       </c>
-      <c r="CO239" s="21">
+      <c r="CO239" s="11">
         <v>1.7841595213133541</v>
       </c>
-      <c r="CP239" s="21">
+      <c r="CP239" s="11">
         <v>1.6030427895370798</v>
       </c>
-      <c r="CQ239" s="21">
+      <c r="CQ239" s="11">
         <v>1.5927345339168655</v>
       </c>
-      <c r="CR239" s="21">
-        <v>1.6546686770434926</v>
+      <c r="CR239" s="11">
+        <v>1.6545241229726206</v>
+      </c>
+      <c r="CS239" s="11">
+        <v>1.7650689028592712</v>
       </c>
     </row>
-    <row r="240" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -66551,29 +66500,32 @@
       <c r="CK240" s="11">
         <v>0.46263191896810812</v>
       </c>
-      <c r="CL240" s="21">
+      <c r="CL240" s="11">
         <v>0.52814462891895819</v>
       </c>
-      <c r="CM240" s="21">
+      <c r="CM240" s="11">
         <v>0.12699899705751774</v>
       </c>
-      <c r="CN240" s="21">
+      <c r="CN240" s="11">
         <v>0.14192470594099724</v>
       </c>
-      <c r="CO240" s="21">
+      <c r="CO240" s="11">
         <v>0.47329533351656311</v>
       </c>
-      <c r="CP240" s="21">
+      <c r="CP240" s="11">
         <v>0.52438601983747402</v>
       </c>
-      <c r="CQ240" s="21">
+      <c r="CQ240" s="11">
         <v>0.12993708789018626</v>
       </c>
-      <c r="CR240" s="21">
-        <v>0.14899270643308307</v>
+      <c r="CR240" s="11">
+        <v>0.14898014606312851</v>
+      </c>
+      <c r="CS240" s="11">
+        <v>0.45920700694595329</v>
       </c>
     </row>
-    <row r="241" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -66841,29 +66793,32 @@
       <c r="CK241" s="11">
         <v>1.1322611987832074</v>
       </c>
-      <c r="CL241" s="21">
+      <c r="CL241" s="11">
         <v>0.81983851713334654</v>
       </c>
-      <c r="CM241" s="21">
+      <c r="CM241" s="11">
         <v>1.3068014437443911</v>
       </c>
-      <c r="CN241" s="21">
+      <c r="CN241" s="11">
         <v>1.1552050963653966</v>
       </c>
-      <c r="CO241" s="21">
+      <c r="CO241" s="11">
         <v>1.1415387443007805</v>
       </c>
-      <c r="CP241" s="21">
+      <c r="CP241" s="11">
         <v>0.84340346431595481</v>
       </c>
-      <c r="CQ241" s="21">
+      <c r="CQ241" s="11">
         <v>1.3233118340858518</v>
       </c>
-      <c r="CR241" s="21">
-        <v>1.1118244417056535</v>
+      <c r="CR241" s="11">
+        <v>1.1116268887928549</v>
+      </c>
+      <c r="CS241" s="11">
+        <v>1.0983616322423535</v>
       </c>
     </row>
-    <row r="242" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -67131,29 +67086,32 @@
       <c r="CK242" s="11">
         <v>0.69005799112151833</v>
       </c>
-      <c r="CL242" s="21">
+      <c r="CL242" s="11">
         <v>0.20611703713106763</v>
       </c>
-      <c r="CM242" s="21">
+      <c r="CM242" s="11">
         <v>0.78742701661463199</v>
       </c>
-      <c r="CN242" s="21">
+      <c r="CN242" s="11">
         <v>0.55872952211647253</v>
       </c>
-      <c r="CO242" s="21">
+      <c r="CO242" s="11">
         <v>0.64150141746957845</v>
       </c>
-      <c r="CP242" s="21">
+      <c r="CP242" s="11">
         <v>0.19365175610543719</v>
       </c>
-      <c r="CQ242" s="21">
+      <c r="CQ242" s="11">
         <v>0.71892698959749812</v>
       </c>
-      <c r="CR242" s="21">
-        <v>0.48360191095159871</v>
+      <c r="CR242" s="11">
+        <v>0.4835596610788237</v>
+      </c>
+      <c r="CS242" s="11">
+        <v>0.5857209030511471</v>
       </c>
     </row>
-    <row r="243" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -67421,29 +67379,32 @@
       <c r="CK243" s="11">
         <v>0.10627552246824756</v>
       </c>
-      <c r="CL243" s="21">
+      <c r="CL243" s="11">
         <v>0.13862636392648151</v>
       </c>
-      <c r="CM243" s="21">
+      <c r="CM243" s="11">
         <v>0.1190564571882464</v>
       </c>
-      <c r="CN243" s="21">
+      <c r="CN243" s="11">
         <v>9.0931494142435607E-2</v>
       </c>
-      <c r="CO243" s="21">
+      <c r="CO243" s="11">
         <v>0.10907000757256982</v>
       </c>
-      <c r="CP243" s="21">
+      <c r="CP243" s="11">
         <v>0.13338192491070558</v>
       </c>
-      <c r="CQ243" s="21">
+      <c r="CQ243" s="11">
         <v>0.12356908531586286</v>
       </c>
-      <c r="CR243" s="21">
-        <v>9.5010207712832764E-2</v>
+      <c r="CR243" s="11">
+        <v>9.5001907147642076E-2</v>
+      </c>
+      <c r="CS243" s="11">
+        <v>0.11137235740237997</v>
       </c>
     </row>
-    <row r="244" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -67711,29 +67672,32 @@
       <c r="CK244" s="11">
         <v>8.9790143253331067E-2</v>
       </c>
-      <c r="CL244" s="21">
+      <c r="CL244" s="11">
         <v>0.10540596478705447</v>
       </c>
-      <c r="CM244" s="21">
+      <c r="CM244" s="11">
         <v>0.10927872254091202</v>
       </c>
-      <c r="CN244" s="21">
+      <c r="CN244" s="11">
         <v>8.2313861220995987E-2</v>
       </c>
-      <c r="CO244" s="21">
+      <c r="CO244" s="11">
         <v>9.2706563792369634E-2</v>
       </c>
-      <c r="CP244" s="21">
+      <c r="CP244" s="11">
         <v>0.10683318556406698</v>
       </c>
-      <c r="CQ244" s="21">
+      <c r="CQ244" s="11">
         <v>0.10801910731836355</v>
       </c>
-      <c r="CR244" s="21">
-        <v>7.6308203791878318E-2</v>
+      <c r="CR244" s="11">
+        <v>7.6959221114462434E-2</v>
+      </c>
+      <c r="CS244" s="11">
+        <v>9.5133208839805666E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -68001,29 +67965,32 @@
       <c r="CK245" s="11">
         <v>0.1630417560919275</v>
       </c>
-      <c r="CL245" s="21">
+      <c r="CL245" s="11">
         <v>6.2403309916551852E-2</v>
       </c>
-      <c r="CM245" s="21">
+      <c r="CM245" s="11">
         <v>8.687208180069457E-2</v>
       </c>
-      <c r="CN245" s="21">
+      <c r="CN245" s="11">
         <v>4.8888863110479519E-2</v>
       </c>
-      <c r="CO245" s="21">
+      <c r="CO245" s="11">
         <v>0.17711645539370183</v>
       </c>
-      <c r="CP245" s="21">
+      <c r="CP245" s="11">
         <v>6.9733973015430994E-2</v>
       </c>
-      <c r="CQ245" s="21">
+      <c r="CQ245" s="11">
         <v>8.8171888901415751E-2</v>
       </c>
-      <c r="CR245" s="21">
-        <v>0.10614241145907931</v>
+      <c r="CR245" s="11">
+        <v>0.10613313832909654</v>
+      </c>
+      <c r="CS245" s="11">
+        <v>0.17724995460339052</v>
       </c>
     </row>
-    <row r="246" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -68291,29 +68258,32 @@
       <c r="CK246" s="11">
         <v>4.8855607347512358</v>
       </c>
-      <c r="CL246" s="21">
+      <c r="CL246" s="11">
         <v>5.6677108616524476</v>
       </c>
-      <c r="CM246" s="21">
+      <c r="CM246" s="11">
         <v>5.7049411578491629</v>
       </c>
-      <c r="CN246" s="21">
+      <c r="CN246" s="11">
         <v>4.4092142872514115</v>
       </c>
-      <c r="CO246" s="21">
+      <c r="CO246" s="11">
         <v>4.9103141922666556</v>
       </c>
-      <c r="CP246" s="21">
+      <c r="CP246" s="11">
         <v>5.604107287133731</v>
       </c>
-      <c r="CQ246" s="21">
+      <c r="CQ246" s="11">
         <v>5.7237354918915422</v>
       </c>
-      <c r="CR246" s="21">
-        <v>4.1130417190632835</v>
+      <c r="CR246" s="11">
+        <v>4.1510481328917281</v>
+      </c>
+      <c r="CS246" s="11">
+        <v>4.8176124986349658</v>
       </c>
     </row>
-    <row r="247" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -68581,29 +68551,32 @@
       <c r="CK247" s="11">
         <v>8.9157920920746161</v>
       </c>
-      <c r="CL247" s="21">
+      <c r="CL247" s="11">
         <v>10.28585491759738</v>
       </c>
-      <c r="CM247" s="21">
+      <c r="CM247" s="11">
         <v>10.729532447239068</v>
       </c>
-      <c r="CN247" s="21">
+      <c r="CN247" s="11">
         <v>11.114274539750504</v>
       </c>
-      <c r="CO247" s="21">
+      <c r="CO247" s="11">
         <v>9.2200988481874244</v>
       </c>
-      <c r="CP247" s="21">
+      <c r="CP247" s="11">
         <v>10.562425111689924</v>
       </c>
-      <c r="CQ247" s="21">
+      <c r="CQ247" s="11">
         <v>10.874339989456914</v>
       </c>
-      <c r="CR247" s="21">
-        <v>11.310236735475184</v>
+      <c r="CR247" s="11">
+        <v>11.309337572810456</v>
+      </c>
+      <c r="CS247" s="11">
+        <v>9.34047756144159</v>
       </c>
     </row>
-    <row r="248" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -68871,29 +68844,32 @@
       <c r="CK248" s="11">
         <v>10.049041533374638</v>
       </c>
-      <c r="CL248" s="21">
+      <c r="CL248" s="11">
         <v>11.339454977445875</v>
       </c>
-      <c r="CM248" s="21">
+      <c r="CM248" s="11">
         <v>9.7390142933786166</v>
       </c>
-      <c r="CN248" s="21">
+      <c r="CN248" s="11">
         <v>10.591433329454221</v>
       </c>
-      <c r="CO248" s="21">
+      <c r="CO248" s="11">
         <v>10.240520417195551</v>
       </c>
-      <c r="CP248" s="21">
+      <c r="CP248" s="11">
         <v>11.44058443023774</v>
       </c>
-      <c r="CQ248" s="21">
+      <c r="CQ248" s="11">
         <v>9.8335782458250911</v>
       </c>
-      <c r="CR248" s="21">
-        <v>10.795605074472592</v>
+      <c r="CR248" s="11">
+        <v>10.794661916617761</v>
+      </c>
+      <c r="CS248" s="11">
+        <v>10.888958668307128</v>
       </c>
     </row>
-    <row r="249" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -69161,29 +69137,32 @@
       <c r="CK249" s="11">
         <v>3.6407553225098797</v>
       </c>
-      <c r="CL249" s="21">
+      <c r="CL249" s="11">
         <v>4.2504907942462022</v>
       </c>
-      <c r="CM249" s="21">
+      <c r="CM249" s="11">
         <v>4.0466333384700421</v>
       </c>
-      <c r="CN249" s="21">
+      <c r="CN249" s="11">
         <v>4.2490296569769583</v>
       </c>
-      <c r="CO249" s="21">
+      <c r="CO249" s="11">
         <v>3.7258188930205152</v>
       </c>
-      <c r="CP249" s="21">
+      <c r="CP249" s="11">
         <v>4.276014324410653</v>
       </c>
-      <c r="CQ249" s="21">
+      <c r="CQ249" s="11">
         <v>4.0916343501347692</v>
       </c>
-      <c r="CR249" s="21">
-        <v>4.3327460754433531</v>
+      <c r="CR249" s="11">
+        <v>4.3323675451557175</v>
+      </c>
+      <c r="CS249" s="11">
+        <v>3.8709290909441538</v>
       </c>
     </row>
-    <row r="250" spans="1:96" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -69451,29 +69430,32 @@
       <c r="CK250" s="11">
         <v>4.1146673831230156E-2</v>
       </c>
-      <c r="CL250" s="21">
+      <c r="CL250" s="11">
         <v>0.19164267444971012</v>
       </c>
-      <c r="CM250" s="21">
+      <c r="CM250" s="11">
         <v>0.16654034758844005</v>
       </c>
-      <c r="CN250" s="21">
+      <c r="CN250" s="11">
         <v>0.24303024893118247</v>
       </c>
-      <c r="CO250" s="21">
+      <c r="CO250" s="11">
         <v>3.6385133887440031E-2</v>
       </c>
-      <c r="CP250" s="21">
+      <c r="CP250" s="11">
         <v>0.10008267284045773</v>
       </c>
-      <c r="CQ250" s="21">
+      <c r="CQ250" s="11">
         <v>0.13302739786188783</v>
       </c>
-      <c r="CR250" s="21">
-        <v>0.27402971468595377</v>
+      <c r="CR250" s="11">
+        <v>0.22354376618788407</v>
+      </c>
+      <c r="CS250" s="11">
+        <v>3.2232859752056107E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -69741,29 +69723,32 @@
       <c r="CK251" s="11">
         <v>13.554383974903411</v>
       </c>
-      <c r="CL251" s="21">
+      <c r="CL251" s="11">
         <v>10.375402371520305</v>
       </c>
-      <c r="CM251" s="21">
+      <c r="CM251" s="11">
         <v>11.705358945131101</v>
       </c>
-      <c r="CN251" s="21">
+      <c r="CN251" s="11">
         <v>12.900009239085591</v>
       </c>
-      <c r="CO251" s="21">
+      <c r="CO251" s="11">
         <v>13.174399254932995</v>
       </c>
-      <c r="CP251" s="21">
+      <c r="CP251" s="11">
         <v>10.20913619628935</v>
       </c>
-      <c r="CQ251" s="21">
+      <c r="CQ251" s="11">
         <v>10.132516030553434</v>
       </c>
-      <c r="CR251" s="21">
-        <v>12.258693090203955</v>
+      <c r="CR251" s="11">
+        <v>12.2561429949147</v>
+      </c>
+      <c r="CS251" s="11">
+        <v>12.320937385030385</v>
       </c>
     </row>
-    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -70031,30 +70016,33 @@
       <c r="CK252" s="11">
         <v>10.214855154238849</v>
       </c>
-      <c r="CL252" s="21">
+      <c r="CL252" s="11">
         <v>8.939821068782333</v>
       </c>
-      <c r="CM252" s="21">
+      <c r="CM252" s="11">
         <v>12.357851515300245</v>
       </c>
-      <c r="CN252" s="21">
+      <c r="CN252" s="11">
         <v>12.903218151601923</v>
       </c>
-      <c r="CO252" s="21">
+      <c r="CO252" s="11">
         <v>10.637459001171878</v>
       </c>
-      <c r="CP252" s="21">
+      <c r="CP252" s="11">
         <v>9.0186588284257692</v>
       </c>
-      <c r="CQ252" s="21">
+      <c r="CQ252" s="11">
         <v>12.781632090921219</v>
       </c>
-      <c r="CR252" s="21">
-        <v>13.325199992678524</v>
+      <c r="CR252" s="11">
+        <v>13.324035836806425</v>
+      </c>
+      <c r="CS252" s="11">
+        <v>11.221255918831288</v>
       </c>
     </row>
-    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -70322,29 +70310,32 @@
       <c r="CK254" s="11">
         <v>100</v>
       </c>
-      <c r="CL254" s="21">
+      <c r="CL254" s="11">
         <v>100</v>
       </c>
-      <c r="CM254" s="21">
+      <c r="CM254" s="11">
         <v>100</v>
       </c>
-      <c r="CN254" s="21">
+      <c r="CN254" s="11">
         <v>100</v>
       </c>
-      <c r="CO254" s="21">
+      <c r="CO254" s="11">
         <v>100</v>
       </c>
-      <c r="CP254" s="21">
+      <c r="CP254" s="11">
         <v>100</v>
       </c>
-      <c r="CQ254" s="21">
+      <c r="CQ254" s="11">
         <v>100</v>
       </c>
-      <c r="CR254" s="21">
+      <c r="CR254" s="11">
         <v>100</v>
       </c>
+      <c r="CS254" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:96" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -70434,27 +70425,21 @@
       <c r="CI255" s="10"/>
       <c r="CJ255" s="10"/>
       <c r="CK255" s="10"/>
-      <c r="CL255" s="19"/>
-      <c r="CM255" s="19"/>
-      <c r="CN255" s="19"/>
-      <c r="CO255" s="19"/>
-      <c r="CP255" s="19"/>
-      <c r="CQ255" s="19"/>
-      <c r="CR255" s="19"/>
+      <c r="CL255" s="10"/>
+      <c r="CM255" s="10"/>
+      <c r="CN255" s="10"/>
+      <c r="CO255" s="10"/>
+      <c r="CP255" s="10"/>
+      <c r="CQ255" s="10"/>
+      <c r="CR255" s="10"/>
+      <c r="CS255" s="10"/>
     </row>
-    <row r="256" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CL256" s="14"/>
-      <c r="CM256" s="14"/>
-      <c r="CN256" s="14"/>
-      <c r="CO256" s="14"/>
-      <c r="CP256" s="14"/>
-      <c r="CQ256" s="14"/>
-      <c r="CR256" s="14"/>
     </row>
-    <row r="257" spans="1:96" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:97" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -70472,15 +70457,16 @@
       <c r="CI257" s="7"/>
       <c r="CJ257" s="7"/>
       <c r="CK257" s="7"/>
-      <c r="CL257" s="17"/>
-      <c r="CM257" s="17"/>
-      <c r="CN257" s="17"/>
-      <c r="CO257" s="17"/>
-      <c r="CP257" s="17"/>
-      <c r="CQ257" s="17"/>
-      <c r="CR257" s="17"/>
+      <c r="CL257" s="7"/>
+      <c r="CM257" s="7"/>
+      <c r="CN257" s="7"/>
+      <c r="CO257" s="7"/>
+      <c r="CP257" s="7"/>
+      <c r="CQ257" s="7"/>
+      <c r="CR257" s="7"/>
+      <c r="CS257" s="7"/>
     </row>
-    <row r="258" spans="1:96" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:97" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -70498,38 +70484,26 @@
       <c r="CI258" s="7"/>
       <c r="CJ258" s="7"/>
       <c r="CK258" s="7"/>
-      <c r="CL258" s="17"/>
-      <c r="CM258" s="17"/>
-      <c r="CN258" s="17"/>
-      <c r="CO258" s="17"/>
-      <c r="CP258" s="17"/>
-      <c r="CQ258" s="17"/>
-      <c r="CR258" s="17"/>
+      <c r="CL258" s="7"/>
+      <c r="CM258" s="7"/>
+      <c r="CN258" s="7"/>
+      <c r="CO258" s="7"/>
+      <c r="CP258" s="7"/>
+      <c r="CQ258" s="7"/>
+      <c r="CR258" s="7"/>
+      <c r="CS258" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL230:CO230"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL46:CO46"/>
+  <mergeCells count="154">
+    <mergeCell ref="CH193:CK193"/>
+    <mergeCell ref="CH156:CK156"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD46:CG46"/>
     <mergeCell ref="CH83:CK83"/>
     <mergeCell ref="CH120:CK120"/>
-    <mergeCell ref="CL156:CO156"/>
-    <mergeCell ref="CL193:CO193"/>
     <mergeCell ref="CH230:CK230"/>
-    <mergeCell ref="CP193:CR193"/>
-    <mergeCell ref="CP230:CR230"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH46:CK46"/>
-    <mergeCell ref="CD83:CG83"/>
-    <mergeCell ref="CH193:CK193"/>
-    <mergeCell ref="CH156:CK156"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP46:CR46"/>
-    <mergeCell ref="CL83:CN83"/>
-    <mergeCell ref="CL120:CN120"/>
-    <mergeCell ref="CP156:CR156"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD46:CG46"/>
     <mergeCell ref="BN193:BQ193"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR9:BU9"/>
@@ -70548,6 +70522,7 @@
     <mergeCell ref="BV193:BY193"/>
     <mergeCell ref="BV230:BY230"/>
     <mergeCell ref="CD120:CG120"/>
+    <mergeCell ref="CD83:CG83"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A4EDD-C68F-45D0-B022-13903584F533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7758B1-F1D7-484D-907E-4F248F7814E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="71">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -664,13 +664,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -776,12 +779,27 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23630,202 +23648,249 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CS258"/>
+  <dimension ref="A1:CT258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CW17" sqref="CW17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="89" width="9.44140625" style="7" customWidth="1"/>
-    <col min="90" max="97" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="7"/>
+    <col min="2" max="85" width="9.44140625" style="7" customWidth="1"/>
+    <col min="86" max="89" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="90" max="93" width="8.21875" style="7" customWidth="1"/>
+    <col min="94" max="98" width="8.21875" style="18" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="14"/>
+      <c r="CR1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CT1" s="14"/>
     </row>
-    <row r="2" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="CP2" s="14"/>
+      <c r="CQ2" s="14"/>
+      <c r="CR2" s="14"/>
+      <c r="CS2" s="14"/>
+      <c r="CT2" s="14"/>
     </row>
-    <row r="3" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
     </row>
-    <row r="4" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
+    </row>
+    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="CP5" s="14"/>
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="14"/>
+      <c r="CS5" s="14"/>
+      <c r="CT5" s="14"/>
     </row>
-    <row r="6" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="14"/>
     </row>
-    <row r="7" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="CP7" s="14"/>
+      <c r="CQ7" s="14"/>
+      <c r="CR7" s="14"/>
+      <c r="CS7" s="14"/>
+      <c r="CT7" s="14"/>
     </row>
-    <row r="8" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="14"/>
+    </row>
+    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="16">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="16">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="16"/>
-      <c r="BE9" s="16"/>
-      <c r="BF9" s="16">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="16"/>
-      <c r="BH9" s="16"/>
-      <c r="BI9" s="16"/>
-      <c r="BJ9" s="16">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="16"/>
-      <c r="BL9" s="16"/>
-      <c r="BM9" s="16"/>
-      <c r="BN9" s="16">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="16"/>
-      <c r="BP9" s="16"/>
-      <c r="BQ9" s="16"/>
-      <c r="BR9" s="16">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="16"/>
-      <c r="BT9" s="16"/>
-      <c r="BU9" s="16"/>
-      <c r="BV9" s="16">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="16"/>
-      <c r="BX9" s="16"/>
-      <c r="BY9" s="16"/>
-      <c r="BZ9" s="16">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="16"/>
-      <c r="CB9" s="16"/>
-      <c r="CC9" s="16"/>
-      <c r="CD9" s="16">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="16"/>
-      <c r="CF9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="13">
         <v>2021</v>
       </c>
-      <c r="CI9" s="16"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="16"/>
-      <c r="CL9" s="14">
+      <c r="CI9" s="13"/>
+      <c r="CJ9" s="13"/>
+      <c r="CK9" s="13"/>
+      <c r="CL9" s="13">
         <v>2022</v>
       </c>
-      <c r="CM9" s="14"/>
-      <c r="CN9" s="14"/>
-      <c r="CO9" s="14"/>
-      <c r="CP9" s="14">
+      <c r="CM9" s="13"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="14"/>
-      <c r="CR9" s="14"/>
-      <c r="CS9" s="14"/>
+      <c r="CQ9" s="15"/>
+      <c r="CR9" s="15"/>
+      <c r="CS9" s="15"/>
+      <c r="CT9" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24105,23 +24170,31 @@
       <c r="CO10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP10" s="4" t="s">
+      <c r="CP10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CQ10" s="4" t="s">
+      <c r="CQ10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CR10" s="4" t="s">
+      <c r="CR10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="CS10" s="4" t="s">
+      <c r="CS10" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="CT10" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
+      <c r="CP11" s="14"/>
+      <c r="CQ11" s="14"/>
+      <c r="CR11" s="14"/>
+      <c r="CS11" s="14"/>
+      <c r="CT11" s="14"/>
     </row>
-    <row r="12" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24396,25 +24469,28 @@
         <v>74312.857413969788</v>
       </c>
       <c r="CN12" s="6">
-        <v>60338.102480430149</v>
+        <v>60340.027078651074</v>
       </c>
       <c r="CO12" s="6">
         <v>134332.57281604729</v>
       </c>
-      <c r="CP12" s="6">
+      <c r="CP12" s="17">
         <v>93834.755992139151</v>
       </c>
-      <c r="CQ12" s="6">
+      <c r="CQ12" s="17">
         <v>82110.464251484431</v>
       </c>
-      <c r="CR12" s="6">
-        <v>71591.590908097729</v>
-      </c>
-      <c r="CS12" s="6">
+      <c r="CR12" s="17">
+        <v>71593.874578880786</v>
+      </c>
+      <c r="CS12" s="17">
         <v>167825.30170241185</v>
       </c>
+      <c r="CT12" s="17">
+        <v>129335.17998345399</v>
+      </c>
     </row>
-    <row r="13" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24694,20 +24770,23 @@
       <c r="CO13" s="6">
         <v>32235.883038472639</v>
       </c>
-      <c r="CP13" s="6">
+      <c r="CP13" s="17">
         <v>45636.323206322086</v>
       </c>
-      <c r="CQ13" s="6">
+      <c r="CQ13" s="17">
         <v>24677.33501405226</v>
       </c>
-      <c r="CR13" s="6">
+      <c r="CR13" s="17">
         <v>39840.218049799907</v>
       </c>
-      <c r="CS13" s="6">
+      <c r="CS13" s="17">
         <v>32065.15508492104</v>
       </c>
+      <c r="CT13" s="17">
+        <v>41694.097981516163</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -24987,20 +25066,23 @@
       <c r="CO14" s="6">
         <v>19553.487826351644</v>
       </c>
-      <c r="CP14" s="6">
+      <c r="CP14" s="17">
         <v>20356.330363943223</v>
       </c>
-      <c r="CQ14" s="6">
+      <c r="CQ14" s="17">
         <v>16563.72625525864</v>
       </c>
-      <c r="CR14" s="6">
+      <c r="CR14" s="17">
         <v>35403.329791440192</v>
       </c>
-      <c r="CS14" s="6">
-        <v>18687.049301499384</v>
+      <c r="CS14" s="17">
+        <v>18687.049301843635</v>
+      </c>
+      <c r="CT14" s="17">
+        <v>24370.600546811016</v>
       </c>
     </row>
-    <row r="15" spans="1:97" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25280,20 +25362,23 @@
       <c r="CO15" s="6">
         <v>18748.249646992539</v>
       </c>
-      <c r="CP15" s="6">
+      <c r="CP15" s="17">
         <v>16082.933978266828</v>
       </c>
-      <c r="CQ15" s="6">
+      <c r="CQ15" s="17">
         <v>6038.6793582825558</v>
       </c>
-      <c r="CR15" s="6">
+      <c r="CR15" s="17">
         <v>2418.0641588093122</v>
       </c>
-      <c r="CS15" s="6">
+      <c r="CS15" s="17">
         <v>17214.339468550705</v>
       </c>
+      <c r="CT15" s="17">
+        <v>16493.286659836653</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25573,20 +25658,23 @@
       <c r="CO16" s="6">
         <v>35878.550106385228</v>
       </c>
-      <c r="CP16" s="6">
+      <c r="CP16" s="17">
         <v>34561.027847580932</v>
       </c>
-      <c r="CQ16" s="6">
+      <c r="CQ16" s="17">
         <v>37944.198223168212</v>
       </c>
-      <c r="CR16" s="6">
+      <c r="CR16" s="17">
         <v>39337.243160708676</v>
       </c>
-      <c r="CS16" s="6">
-        <v>38631.761528142772</v>
+      <c r="CS16" s="17">
+        <v>38631.761527630413</v>
+      </c>
+      <c r="CT16" s="17">
+        <v>39149.705217882336</v>
       </c>
     </row>
-    <row r="17" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25866,20 +25954,23 @@
       <c r="CO17" s="6">
         <v>9418.9819852519468</v>
       </c>
-      <c r="CP17" s="6">
+      <c r="CP17" s="17">
         <v>6489.9324468757904</v>
       </c>
-      <c r="CQ17" s="6">
+      <c r="CQ17" s="17">
         <v>23526.536290698794</v>
       </c>
-      <c r="CR17" s="6">
+      <c r="CR17" s="17">
         <v>3341.6963286605487</v>
       </c>
-      <c r="CS17" s="6">
-        <v>10893.529227800982</v>
+      <c r="CS17" s="17">
+        <v>10893.529227295439</v>
+      </c>
+      <c r="CT17" s="17">
+        <v>6479.5451629189356</v>
       </c>
     </row>
-    <row r="18" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26159,20 +26250,23 @@
       <c r="CO18" s="6">
         <v>10089.765648665163</v>
       </c>
-      <c r="CP18" s="6">
+      <c r="CP18" s="17">
         <v>6840.4901097173479</v>
       </c>
-      <c r="CQ18" s="6">
+      <c r="CQ18" s="17">
         <v>5240.5698429203048</v>
       </c>
-      <c r="CR18" s="6">
+      <c r="CR18" s="17">
         <v>10320.749827385991</v>
       </c>
-      <c r="CS18" s="6">
-        <v>12221.209886522283</v>
+      <c r="CS18" s="17">
+        <v>12221.209886021175</v>
+      </c>
+      <c r="CT18" s="17">
+        <v>10172.532026986082</v>
       </c>
     </row>
-    <row r="19" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26452,20 +26546,23 @@
       <c r="CO19" s="6">
         <v>3197.5244131931577</v>
       </c>
-      <c r="CP19" s="6">
+      <c r="CP19" s="17">
         <v>1933.8923400270132</v>
       </c>
-      <c r="CQ19" s="6">
+      <c r="CQ19" s="17">
         <v>631.02479072132064</v>
       </c>
-      <c r="CR19" s="6">
+      <c r="CR19" s="17">
         <v>594.32013132931183</v>
       </c>
-      <c r="CS19" s="6">
-        <v>4198.9531829048128</v>
+      <c r="CS19" s="17">
+        <v>4198.9531827400488</v>
+      </c>
+      <c r="CT19" s="17">
+        <v>3446.7943306933698</v>
       </c>
     </row>
-    <row r="20" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26745,20 +26842,23 @@
       <c r="CO20" s="6">
         <v>8660.0378907285485</v>
       </c>
-      <c r="CP20" s="6">
+      <c r="CP20" s="17">
         <v>4170.8210332680455</v>
       </c>
-      <c r="CQ20" s="6">
+      <c r="CQ20" s="17">
         <v>6190.7508537492158</v>
       </c>
-      <c r="CR20" s="6">
+      <c r="CR20" s="17">
         <v>8285.0277917038547</v>
       </c>
-      <c r="CS20" s="6">
-        <v>10064.952841787968</v>
+      <c r="CS20" s="17">
+        <v>10064.952842221624</v>
+      </c>
+      <c r="CT20" s="17">
+        <v>5552.1997192394001</v>
       </c>
     </row>
-    <row r="21" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -27038,20 +27138,23 @@
       <c r="CO21" s="6">
         <v>3381.935712594518</v>
       </c>
-      <c r="CP21" s="6">
+      <c r="CP21" s="17">
         <v>1113.3913037177003</v>
       </c>
-      <c r="CQ21" s="6">
+      <c r="CQ21" s="17">
         <v>2623.5636590731929</v>
       </c>
-      <c r="CR21" s="6">
+      <c r="CR21" s="17">
         <v>2007.1012748685953</v>
       </c>
-      <c r="CS21" s="6">
+      <c r="CS21" s="17">
         <v>3288.3455263702308</v>
       </c>
+      <c r="CT21" s="17">
+        <v>1207.2686285614161</v>
+      </c>
     </row>
-    <row r="22" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27331,20 +27434,23 @@
       <c r="CO22" s="6">
         <v>585.13917654234183</v>
       </c>
-      <c r="CP22" s="6">
+      <c r="CP22" s="17">
         <v>483.1902940807297</v>
       </c>
-      <c r="CQ22" s="6">
+      <c r="CQ22" s="17">
         <v>375.10898706258115</v>
       </c>
-      <c r="CR22" s="6">
+      <c r="CR22" s="17">
         <v>540.82603765416945</v>
       </c>
-      <c r="CS22" s="6">
-        <v>707.92578037398664</v>
+      <c r="CS22" s="17">
+        <v>707.92578038240333</v>
+      </c>
+      <c r="CT22" s="17">
+        <v>473.36384016910296</v>
       </c>
     </row>
-    <row r="23" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27622,22 +27728,25 @@
         <v>465.76522023969198</v>
       </c>
       <c r="CO23" s="6">
-        <v>558.10577073315903</v>
-      </c>
-      <c r="CP23" s="6">
+        <v>558.10577073315869</v>
+      </c>
+      <c r="CP23" s="17">
         <v>367.78666983079574</v>
       </c>
-      <c r="CQ23" s="6">
+      <c r="CQ23" s="17">
         <v>244.88750944835169</v>
       </c>
-      <c r="CR23" s="6">
+      <c r="CR23" s="17">
         <v>394.42102316856995</v>
       </c>
-      <c r="CS23" s="6">
-        <v>534.88237358809658</v>
+      <c r="CS23" s="17">
+        <v>534.88237358809613</v>
+      </c>
+      <c r="CT23" s="17">
+        <v>422.22787348047871</v>
       </c>
     </row>
-    <row r="24" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -27917,20 +28026,23 @@
       <c r="CO24" s="6">
         <v>786.79005485054222</v>
       </c>
-      <c r="CP24" s="6">
+      <c r="CP24" s="17">
         <v>197.81892395993975</v>
       </c>
-      <c r="CQ24" s="6">
+      <c r="CQ24" s="17">
         <v>199.61157818598826</v>
       </c>
-      <c r="CR24" s="6">
+      <c r="CR24" s="17">
         <v>945.43354171286865</v>
       </c>
-      <c r="CS24" s="6">
+      <c r="CS24" s="17">
         <v>1366.2487149965418</v>
       </c>
+      <c r="CT24" s="17">
+        <v>273.73435091963302</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28208,22 +28320,25 @@
         <v>26189.396856191277</v>
       </c>
       <c r="CO25" s="6">
-        <v>33347.188721319428</v>
-      </c>
-      <c r="CP25" s="6">
+        <v>33611.455886567855</v>
+      </c>
+      <c r="CP25" s="17">
         <v>35426.099875821506</v>
       </c>
-      <c r="CQ25" s="6">
+      <c r="CQ25" s="17">
         <v>21559.233974198025</v>
       </c>
-      <c r="CR25" s="6">
+      <c r="CR25" s="17">
         <v>28785.275138821104</v>
       </c>
-      <c r="CS25" s="6">
-        <v>35627.716670595488</v>
+      <c r="CS25" s="17">
+        <v>35491.763821986278</v>
+      </c>
+      <c r="CT25" s="17">
+        <v>31486.771724364495</v>
       </c>
     </row>
-    <row r="26" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28503,20 +28618,23 @@
       <c r="CO26" s="6">
         <v>80756.489399161917</v>
       </c>
-      <c r="CP26" s="6">
+      <c r="CP26" s="17">
         <v>69704.325292533584</v>
       </c>
-      <c r="CQ26" s="6">
+      <c r="CQ26" s="17">
         <v>73629.824727423809</v>
       </c>
-      <c r="CR26" s="6">
-        <v>73693.114706633613</v>
-      </c>
-      <c r="CS26" s="6">
-        <v>87802.275977595564</v>
+      <c r="CR26" s="17">
+        <v>73720.905685042642</v>
+      </c>
+      <c r="CS26" s="17">
+        <v>87797.367259765975</v>
+      </c>
+      <c r="CT26" s="17">
+        <v>71229.059445716761</v>
       </c>
     </row>
-    <row r="27" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28794,22 +28912,25 @@
         <v>53347.578713246665</v>
       </c>
       <c r="CO27" s="6">
-        <v>67056.191721928015</v>
-      </c>
-      <c r="CP27" s="6">
+        <v>67509.397635126952</v>
+      </c>
+      <c r="CP27" s="17">
         <v>83695.53685758973</v>
       </c>
-      <c r="CQ27" s="6">
+      <c r="CQ27" s="17">
         <v>49128.914652569962</v>
       </c>
-      <c r="CR27" s="6">
-        <v>53515.218370342423</v>
-      </c>
-      <c r="CS27" s="6">
-        <v>73016.498276974715</v>
+      <c r="CR27" s="17">
+        <v>53515.218370342409</v>
+      </c>
+      <c r="CS27" s="17">
+        <v>73509.826706937834</v>
+      </c>
+      <c r="CT27" s="17">
+        <v>86350.405458862486</v>
       </c>
     </row>
-    <row r="28" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -29089,20 +29210,23 @@
       <c r="CO28" s="6">
         <v>22787.214825263043</v>
       </c>
-      <c r="CP28" s="6">
-        <v>21762.014000829251</v>
-      </c>
-      <c r="CQ28" s="6">
+      <c r="CP28" s="17">
+        <v>21762.014000829244</v>
+      </c>
+      <c r="CQ28" s="17">
         <v>14189.504044455447</v>
       </c>
-      <c r="CR28" s="6">
+      <c r="CR28" s="17">
         <v>17331.42381226892</v>
       </c>
-      <c r="CS28" s="6">
+      <c r="CS28" s="17">
         <v>24845.051097139803</v>
       </c>
+      <c r="CT28" s="17">
+        <v>22298.097873814884</v>
+      </c>
     </row>
-    <row r="29" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29371,31 +29495,34 @@
         <v>93.302011634174448</v>
       </c>
       <c r="CL29" s="6">
-        <v>423.07865901871082</v>
+        <v>423.25672996893923</v>
       </c>
       <c r="CM29" s="6">
-        <v>288.2892940164927</v>
+        <v>287.47180525297881</v>
       </c>
       <c r="CN29" s="6">
-        <v>411.41521805496927</v>
+        <v>413.92996386438153</v>
       </c>
       <c r="CO29" s="6">
-        <v>84.148194282600571</v>
-      </c>
-      <c r="CP29" s="6">
-        <v>175.53098906893672</v>
-      </c>
-      <c r="CQ29" s="6">
-        <v>203.37661010772183</v>
-      </c>
-      <c r="CR29" s="6">
-        <v>378.39676483628864</v>
-      </c>
-      <c r="CS29" s="6">
-        <v>74.193810884066011</v>
+        <v>94.99969401780919</v>
+      </c>
+      <c r="CP29" s="17">
+        <v>176.18690390542451</v>
+      </c>
+      <c r="CQ29" s="17">
+        <v>205.39671450235858</v>
+      </c>
+      <c r="CR29" s="17">
+        <v>382.78745927411933</v>
+      </c>
+      <c r="CS29" s="17">
+        <v>86.516266674247447</v>
+      </c>
+      <c r="CT29" s="17">
+        <v>233.18148013119685</v>
       </c>
     </row>
-    <row r="30" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29667,28 +29794,31 @@
         <v>57052.142770400853</v>
       </c>
       <c r="CM30" s="6">
-        <v>65016.147889991626</v>
+        <v>65016.818572219388</v>
       </c>
       <c r="CN30" s="6">
-        <v>71105.184213113011</v>
+        <v>71264.206272714553</v>
       </c>
       <c r="CO30" s="6">
         <v>76470.086961006338</v>
       </c>
-      <c r="CP30" s="6">
+      <c r="CP30" s="17">
         <v>71561.684108712318</v>
       </c>
-      <c r="CQ30" s="6">
-        <v>59334.007516806509</v>
-      </c>
-      <c r="CR30" s="6">
-        <v>70917.440098877822</v>
-      </c>
-      <c r="CS30" s="6">
-        <v>72096.24959576939</v>
+      <c r="CQ30" s="17">
+        <v>59333.486420183559</v>
+      </c>
+      <c r="CR30" s="17">
+        <v>70833.762317437751</v>
+      </c>
+      <c r="CS30" s="17">
+        <v>72273.0040163823</v>
+      </c>
+      <c r="CT30" s="17">
+        <v>66366.367811998061</v>
       </c>
     </row>
-    <row r="31" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -29968,21 +30098,24 @@
       <c r="CO31" s="6">
         <v>80185.82352993227</v>
       </c>
-      <c r="CP31" s="6">
+      <c r="CP31" s="17">
         <v>52572.026777995095</v>
       </c>
-      <c r="CQ31" s="6">
+      <c r="CQ31" s="17">
         <v>78863.163808657453</v>
       </c>
-      <c r="CR31" s="6">
+      <c r="CR31" s="17">
         <v>51770.64844126458</v>
       </c>
-      <c r="CS31" s="6">
-        <v>91851.100268369395</v>
+      <c r="CS31" s="17">
+        <v>91851.100267737143</v>
+      </c>
+      <c r="CT31" s="17">
+        <v>56461.038595811908</v>
       </c>
     </row>
-    <row r="32" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -30251,31 +30384,34 @@
         <v>580232.62426747358</v>
       </c>
       <c r="CL33" s="8">
-        <v>499972.54053691495</v>
+        <v>499972.71860786516</v>
       </c>
       <c r="CM33" s="8">
-        <v>480440.82975776243</v>
+        <v>480440.68295122666</v>
       </c>
       <c r="CN33" s="8">
-        <v>484670.50493542448</v>
+        <v>484833.96633905632</v>
       </c>
       <c r="CO33" s="8">
-        <v>638114.16743970243</v>
-      </c>
-      <c r="CP33" s="8">
-        <v>566965.91241227987</v>
-      </c>
-      <c r="CQ33" s="8">
-        <v>503274.48194832471</v>
-      </c>
-      <c r="CR33" s="8">
-        <v>511411.5393583845</v>
-      </c>
-      <c r="CS33" s="8">
-        <v>703012.74031719903</v>
+        <v>638842.49201788486</v>
+      </c>
+      <c r="CP33" s="19">
+        <v>566966.56832711643</v>
+      </c>
+      <c r="CQ33" s="19">
+        <v>503275.98095609643</v>
+      </c>
+      <c r="CR33" s="19">
+        <v>511362.3269205743</v>
+      </c>
+      <c r="CS33" s="19">
+        <v>703554.2840555968</v>
+      </c>
+      <c r="CT33" s="19">
+        <v>613495.45871316828</v>
       </c>
     </row>
-    <row r="34" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30369,198 +30505,249 @@
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
-      <c r="CP34" s="10"/>
-      <c r="CQ34" s="10"/>
-      <c r="CR34" s="10"/>
-      <c r="CS34" s="10"/>
+      <c r="CP34" s="20"/>
+      <c r="CQ34" s="20"/>
+      <c r="CR34" s="20"/>
+      <c r="CS34" s="20"/>
+      <c r="CT34" s="20"/>
     </row>
-    <row r="35" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP35" s="14"/>
+      <c r="CQ35" s="14"/>
+      <c r="CR35" s="14"/>
+      <c r="CS35" s="14"/>
+      <c r="CT35" s="14"/>
     </row>
-    <row r="36" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
+      <c r="CS38" s="14"/>
+      <c r="CT38" s="14"/>
     </row>
-    <row r="39" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="CP39" s="14"/>
+      <c r="CQ39" s="14"/>
+      <c r="CR39" s="14"/>
+      <c r="CS39" s="14"/>
+      <c r="CT39" s="14"/>
     </row>
-    <row r="40" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP40" s="14"/>
+      <c r="CQ40" s="14"/>
+      <c r="CR40" s="14"/>
+      <c r="CS40" s="14"/>
+      <c r="CT40" s="14"/>
     </row>
-    <row r="41" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP41" s="14"/>
+      <c r="CQ41" s="14"/>
+      <c r="CR41" s="14"/>
+      <c r="CS41" s="14"/>
+      <c r="CT41" s="14"/>
+    </row>
+    <row r="42" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="CP42" s="14"/>
+      <c r="CQ42" s="14"/>
+      <c r="CR42" s="14"/>
+      <c r="CS42" s="14"/>
+      <c r="CT42" s="14"/>
     </row>
-    <row r="43" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="CP43" s="14"/>
+      <c r="CQ43" s="14"/>
+      <c r="CR43" s="14"/>
+      <c r="CS43" s="14"/>
+      <c r="CT43" s="14"/>
     </row>
-    <row r="44" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="CP44" s="14"/>
+      <c r="CQ44" s="14"/>
+      <c r="CR44" s="14"/>
+      <c r="CS44" s="14"/>
+      <c r="CT44" s="14"/>
     </row>
-    <row r="45" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP45" s="14"/>
+      <c r="CQ45" s="14"/>
+      <c r="CR45" s="14"/>
+      <c r="CS45" s="14"/>
+      <c r="CT45" s="14"/>
+    </row>
+    <row r="46" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="16">
+      <c r="B46" s="25">
         <v>2000</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25">
         <v>2001</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25">
         <v>2002</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16">
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25">
         <v>2003</v>
       </c>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16">
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25">
         <v>2004</v>
       </c>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16">
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25">
         <v>2005</v>
       </c>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="16">
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25">
         <v>2006</v>
       </c>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16">
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25">
         <v>2007</v>
       </c>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16">
+      <c r="AE46" s="25"/>
+      <c r="AF46" s="25"/>
+      <c r="AG46" s="25"/>
+      <c r="AH46" s="25">
         <v>2008</v>
       </c>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="16"/>
-      <c r="AK46" s="16"/>
-      <c r="AL46" s="16">
+      <c r="AI46" s="25"/>
+      <c r="AJ46" s="25"/>
+      <c r="AK46" s="25"/>
+      <c r="AL46" s="25">
         <v>2009</v>
       </c>
-      <c r="AM46" s="16"/>
-      <c r="AN46" s="16"/>
-      <c r="AO46" s="16"/>
-      <c r="AP46" s="16">
+      <c r="AM46" s="25"/>
+      <c r="AN46" s="25"/>
+      <c r="AO46" s="25"/>
+      <c r="AP46" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ46" s="16"/>
-      <c r="AR46" s="16"/>
-      <c r="AS46" s="16"/>
-      <c r="AT46" s="16">
+      <c r="AQ46" s="25"/>
+      <c r="AR46" s="25"/>
+      <c r="AS46" s="25"/>
+      <c r="AT46" s="25">
         <v>2011</v>
       </c>
-      <c r="AU46" s="16"/>
-      <c r="AV46" s="16"/>
-      <c r="AW46" s="16"/>
-      <c r="AX46" s="16">
+      <c r="AU46" s="25"/>
+      <c r="AV46" s="25"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="25">
         <v>2012</v>
       </c>
-      <c r="AY46" s="16"/>
-      <c r="AZ46" s="16"/>
-      <c r="BA46" s="16"/>
-      <c r="BB46" s="16">
+      <c r="AY46" s="25"/>
+      <c r="AZ46" s="25"/>
+      <c r="BA46" s="25"/>
+      <c r="BB46" s="25">
         <v>2013</v>
       </c>
-      <c r="BC46" s="16"/>
-      <c r="BD46" s="16"/>
-      <c r="BE46" s="16"/>
-      <c r="BF46" s="16">
+      <c r="BC46" s="25"/>
+      <c r="BD46" s="25"/>
+      <c r="BE46" s="25"/>
+      <c r="BF46" s="25">
         <v>2014</v>
       </c>
-      <c r="BG46" s="16"/>
-      <c r="BH46" s="16"/>
-      <c r="BI46" s="16"/>
-      <c r="BJ46" s="16">
+      <c r="BG46" s="25"/>
+      <c r="BH46" s="25"/>
+      <c r="BI46" s="25"/>
+      <c r="BJ46" s="25">
         <v>2015</v>
       </c>
-      <c r="BK46" s="16"/>
-      <c r="BL46" s="16"/>
-      <c r="BM46" s="16"/>
-      <c r="BN46" s="16">
+      <c r="BK46" s="25"/>
+      <c r="BL46" s="25"/>
+      <c r="BM46" s="25"/>
+      <c r="BN46" s="25">
         <v>2016</v>
       </c>
-      <c r="BO46" s="16"/>
-      <c r="BP46" s="16"/>
-      <c r="BQ46" s="16"/>
-      <c r="BR46" s="16">
+      <c r="BO46" s="25"/>
+      <c r="BP46" s="25"/>
+      <c r="BQ46" s="25"/>
+      <c r="BR46" s="25">
         <v>2017</v>
       </c>
-      <c r="BS46" s="16"/>
-      <c r="BT46" s="16"/>
-      <c r="BU46" s="16"/>
-      <c r="BV46" s="16">
+      <c r="BS46" s="25"/>
+      <c r="BT46" s="25"/>
+      <c r="BU46" s="25"/>
+      <c r="BV46" s="25">
         <v>2018</v>
       </c>
-      <c r="BW46" s="16"/>
-      <c r="BX46" s="16"/>
-      <c r="BY46" s="16"/>
-      <c r="BZ46" s="16">
+      <c r="BW46" s="25"/>
+      <c r="BX46" s="25"/>
+      <c r="BY46" s="25"/>
+      <c r="BZ46" s="25">
         <v>2019</v>
       </c>
-      <c r="CA46" s="16"/>
-      <c r="CB46" s="16"/>
-      <c r="CC46" s="16"/>
-      <c r="CD46" s="16">
+      <c r="CA46" s="25"/>
+      <c r="CB46" s="25"/>
+      <c r="CC46" s="25"/>
+      <c r="CD46" s="25">
         <v>2020</v>
       </c>
-      <c r="CE46" s="16"/>
-      <c r="CF46" s="16"/>
-      <c r="CG46" s="16"/>
-      <c r="CH46" s="16">
+      <c r="CE46" s="25"/>
+      <c r="CF46" s="25"/>
+      <c r="CG46" s="25"/>
+      <c r="CH46" s="13">
         <v>2021</v>
       </c>
-      <c r="CI46" s="16"/>
-      <c r="CJ46" s="16"/>
-      <c r="CK46" s="16"/>
-      <c r="CL46" s="14">
+      <c r="CI46" s="13"/>
+      <c r="CJ46" s="13"/>
+      <c r="CK46" s="13"/>
+      <c r="CL46" s="13">
         <v>2022</v>
       </c>
-      <c r="CM46" s="14"/>
-      <c r="CN46" s="14"/>
-      <c r="CO46" s="14"/>
-      <c r="CP46" s="14">
+      <c r="CM46" s="13"/>
+      <c r="CN46" s="13"/>
+      <c r="CO46" s="13"/>
+      <c r="CP46" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ46" s="14"/>
-      <c r="CR46" s="14"/>
-      <c r="CS46" s="14"/>
+      <c r="CQ46" s="15"/>
+      <c r="CR46" s="15"/>
+      <c r="CS46" s="15"/>
+      <c r="CT46" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="47" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -30840,23 +31027,31 @@
       <c r="CO47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP47" s="4" t="s">
+      <c r="CP47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CQ47" s="4" t="s">
+      <c r="CQ47" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CR47" s="4" t="s">
+      <c r="CR47" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="CS47" s="4" t="s">
+      <c r="CS47" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="CT47" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="48" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
+      <c r="CP48" s="14"/>
+      <c r="CQ48" s="14"/>
+      <c r="CR48" s="14"/>
+      <c r="CS48" s="14"/>
+      <c r="CT48" s="14"/>
     </row>
-    <row r="49" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -31131,25 +31326,28 @@
         <v>81438.922695771951</v>
       </c>
       <c r="CN49" s="6">
-        <v>71689.374474778364</v>
+        <v>71691.661143349324</v>
       </c>
       <c r="CO49" s="6">
         <v>133574.09583906844</v>
       </c>
-      <c r="CP49" s="6">
+      <c r="CP49" s="17">
         <v>95070.645017647243</v>
       </c>
-      <c r="CQ49" s="6">
+      <c r="CQ49" s="17">
         <v>83326.387293706604</v>
       </c>
-      <c r="CR49" s="6">
-        <v>71841.759212200777</v>
-      </c>
-      <c r="CS49" s="6">
+      <c r="CR49" s="17">
+        <v>71844.050862999909</v>
+      </c>
+      <c r="CS49" s="17">
         <v>133795.62188317452</v>
       </c>
+      <c r="CT49" s="17">
+        <v>93205.598637419986</v>
+      </c>
     </row>
-    <row r="50" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31429,20 +31627,23 @@
       <c r="CO50" s="6">
         <v>24194.329118444788</v>
       </c>
-      <c r="CP50" s="6">
+      <c r="CP50" s="17">
         <v>32063.305435735991</v>
       </c>
-      <c r="CQ50" s="6">
+      <c r="CQ50" s="17">
         <v>19755.7796927202</v>
       </c>
-      <c r="CR50" s="6">
+      <c r="CR50" s="17">
         <v>31589.499479743317</v>
       </c>
-      <c r="CS50" s="6">
+      <c r="CS50" s="17">
         <v>23770.218784570905</v>
       </c>
+      <c r="CT50" s="17">
+        <v>32592.814514224698</v>
+      </c>
     </row>
-    <row r="51" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31722,20 +31923,23 @@
       <c r="CO51" s="6">
         <v>22516.097250357081</v>
       </c>
-      <c r="CP51" s="6">
+      <c r="CP51" s="17">
         <v>26985.100062939469</v>
       </c>
-      <c r="CQ51" s="6">
+      <c r="CQ51" s="17">
         <v>13845.021259312678</v>
       </c>
-      <c r="CR51" s="6">
+      <c r="CR51" s="17">
         <v>21716.187030552432</v>
       </c>
-      <c r="CS51" s="6">
+      <c r="CS51" s="17">
         <v>22152.817713807355</v>
       </c>
+      <c r="CT51" s="17">
+        <v>26092.998144661105</v>
+      </c>
     </row>
-    <row r="52" spans="1:97" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:98" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -32015,20 +32219,23 @@
       <c r="CO52" s="6">
         <v>7506.6868217338251</v>
       </c>
-      <c r="CP52" s="6">
+      <c r="CP52" s="17">
         <v>11060.969515075987</v>
       </c>
-      <c r="CQ52" s="6">
+      <c r="CQ52" s="17">
         <v>5404.4817506747968</v>
       </c>
-      <c r="CR52" s="6">
+      <c r="CR52" s="17">
         <v>754.15904563718243</v>
       </c>
-      <c r="CS52" s="6">
+      <c r="CS52" s="17">
         <v>8475.99226786908</v>
       </c>
+      <c r="CT52" s="17">
+        <v>13069.084820787437</v>
+      </c>
     </row>
-    <row r="53" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -32308,20 +32515,23 @@
       <c r="CO53" s="6">
         <v>34237.945742791388</v>
       </c>
-      <c r="CP53" s="6">
+      <c r="CP53" s="17">
         <v>30398.832077773182</v>
       </c>
-      <c r="CQ53" s="6">
+      <c r="CQ53" s="17">
         <v>34371.790936038713</v>
       </c>
-      <c r="CR53" s="6">
+      <c r="CR53" s="17">
         <v>35322.648439687189</v>
       </c>
-      <c r="CS53" s="6">
-        <v>34163.539879318785</v>
+      <c r="CS53" s="17">
+        <v>34163.539880984637</v>
+      </c>
+      <c r="CT53" s="17">
+        <v>29028.459562434164</v>
       </c>
     </row>
-    <row r="54" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32601,20 +32811,23 @@
       <c r="CO54" s="6">
         <v>7173.8923183657735</v>
       </c>
-      <c r="CP54" s="6">
+      <c r="CP54" s="17">
         <v>5890.8435345289809</v>
       </c>
-      <c r="CQ54" s="6">
+      <c r="CQ54" s="17">
         <v>20158.240507159462</v>
       </c>
-      <c r="CR54" s="6">
+      <c r="CR54" s="17">
         <v>2628.4309591994365</v>
       </c>
-      <c r="CS54" s="6">
+      <c r="CS54" s="17">
         <v>7731.4209721385942</v>
       </c>
+      <c r="CT54" s="17">
+        <v>6085.0793194334274</v>
+      </c>
     </row>
-    <row r="55" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -32892,22 +33105,25 @@
         <v>6557.774813556749</v>
       </c>
       <c r="CO55" s="6">
-        <v>9371.5829921354416</v>
-      </c>
-      <c r="CP55" s="6">
+        <v>9371.5829921354398</v>
+      </c>
+      <c r="CP55" s="17">
         <v>7127.1696539006925</v>
       </c>
-      <c r="CQ55" s="6">
+      <c r="CQ55" s="17">
         <v>6652.3705715084698</v>
       </c>
-      <c r="CR55" s="6">
+      <c r="CR55" s="17">
         <v>6788.9836422933449</v>
       </c>
-      <c r="CS55" s="6">
+      <c r="CS55" s="17">
         <v>9397.6510004173979</v>
       </c>
+      <c r="CT55" s="17">
+        <v>7200.6207291156579</v>
+      </c>
     </row>
-    <row r="56" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -33187,20 +33403,23 @@
       <c r="CO56" s="6">
         <v>2486.0593712919899</v>
       </c>
-      <c r="CP56" s="6">
+      <c r="CP56" s="17">
         <v>2331.4337907316117</v>
       </c>
-      <c r="CQ56" s="6">
+      <c r="CQ56" s="17">
         <v>542.7079285475595</v>
       </c>
-      <c r="CR56" s="6">
+      <c r="CR56" s="17">
         <v>611.3079649947116</v>
       </c>
-      <c r="CS56" s="6">
+      <c r="CS56" s="17">
         <v>2444.9284564662621</v>
       </c>
+      <c r="CT56" s="17">
+        <v>2902.9001699220694</v>
+      </c>
     </row>
-    <row r="57" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33480,20 +33699,23 @@
       <c r="CO57" s="6">
         <v>5996.1146708887454</v>
       </c>
-      <c r="CP57" s="6">
+      <c r="CP57" s="17">
         <v>3749.7935901032583</v>
       </c>
-      <c r="CQ57" s="6">
+      <c r="CQ57" s="17">
         <v>5527.0734165302592</v>
       </c>
-      <c r="CR57" s="6">
+      <c r="CR57" s="17">
         <v>4561.3216873435822</v>
       </c>
-      <c r="CS57" s="6">
+      <c r="CS57" s="17">
         <v>5847.9412760270097</v>
       </c>
+      <c r="CT57" s="17">
+        <v>3419.8023351042493</v>
+      </c>
     </row>
-    <row r="58" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33773,20 +33995,23 @@
       <c r="CO58" s="6">
         <v>3369.5887063748746</v>
       </c>
-      <c r="CP58" s="6">
+      <c r="CP58" s="17">
         <v>860.98071027649576</v>
       </c>
-      <c r="CQ58" s="6">
+      <c r="CQ58" s="17">
         <v>3002.7406619358226</v>
       </c>
-      <c r="CR58" s="6">
+      <c r="CR58" s="17">
         <v>1984.1829947083663</v>
       </c>
-      <c r="CS58" s="6">
+      <c r="CS58" s="17">
         <v>3118.5188417332056</v>
       </c>
+      <c r="CT58" s="17">
+        <v>869.88421782536614</v>
+      </c>
     </row>
-    <row r="59" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -34066,20 +34291,23 @@
       <c r="CO59" s="6">
         <v>572.90764402431273</v>
       </c>
-      <c r="CP59" s="6">
+      <c r="CP59" s="17">
         <v>593.01948382610692</v>
       </c>
-      <c r="CQ59" s="6">
+      <c r="CQ59" s="17">
         <v>516.11070721366809</v>
       </c>
-      <c r="CR59" s="6">
+      <c r="CR59" s="17">
         <v>389.81987911619365</v>
       </c>
-      <c r="CS59" s="6">
+      <c r="CS59" s="17">
         <v>592.97319456812647</v>
       </c>
+      <c r="CT59" s="17">
+        <v>612.60612707752489</v>
+      </c>
     </row>
-    <row r="60" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -34357,22 +34585,25 @@
         <v>334.6487350299634</v>
       </c>
       <c r="CO60" s="6">
-        <v>486.95604071117191</v>
-      </c>
-      <c r="CP60" s="6">
+        <v>486.95604071117202</v>
+      </c>
+      <c r="CP60" s="17">
         <v>474.98310285381649</v>
       </c>
-      <c r="CQ60" s="6">
+      <c r="CQ60" s="17">
         <v>451.16315078455136</v>
       </c>
-      <c r="CR60" s="6">
+      <c r="CR60" s="17">
         <v>315.78560023108719</v>
       </c>
-      <c r="CS60" s="6">
+      <c r="CS60" s="17">
         <v>506.51206521063375</v>
       </c>
+      <c r="CT60" s="17">
+        <v>470.87196908372277</v>
+      </c>
     </row>
-    <row r="61" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34652,20 +34883,23 @@
       <c r="CO61" s="6">
         <v>930.3324849411872</v>
       </c>
-      <c r="CP61" s="6">
+      <c r="CP61" s="17">
         <v>310.03904547366005</v>
       </c>
-      <c r="CQ61" s="6">
+      <c r="CQ61" s="17">
         <v>368.26732043012771</v>
       </c>
-      <c r="CR61" s="6">
+      <c r="CR61" s="17">
         <v>435.49449054084096</v>
       </c>
-      <c r="CS61" s="6">
+      <c r="CS61" s="17">
         <v>943.72135303281129</v>
       </c>
+      <c r="CT61" s="17">
+        <v>339.59208483626787</v>
+      </c>
     </row>
-    <row r="62" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -34943,22 +35177,25 @@
         <v>17925.753473563913</v>
       </c>
       <c r="CO62" s="6">
-        <v>25792.209956883882</v>
-      </c>
-      <c r="CP62" s="6">
+        <v>25996.598193503189</v>
+      </c>
+      <c r="CP62" s="17">
         <v>24916.005770249827</v>
       </c>
-      <c r="CQ62" s="6">
+      <c r="CQ62" s="17">
         <v>23906.312530136482</v>
       </c>
-      <c r="CR62" s="6">
+      <c r="CR62" s="17">
         <v>17032.932600548505</v>
       </c>
-      <c r="CS62" s="6">
-        <v>25650.126657423727</v>
+      <c r="CS62" s="17">
+        <v>25552.251454777797</v>
+      </c>
+      <c r="CT62" s="17">
+        <v>25638.440300193259</v>
       </c>
     </row>
-    <row r="63" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -35238,20 +35475,23 @@
       <c r="CO63" s="6">
         <v>48430.042560249916</v>
       </c>
-      <c r="CP63" s="6">
+      <c r="CP63" s="17">
         <v>46960.814907114342</v>
       </c>
-      <c r="CQ63" s="6">
+      <c r="CQ63" s="17">
         <v>45418.830187941901</v>
       </c>
-      <c r="CR63" s="6">
-        <v>46405.432668481109</v>
-      </c>
-      <c r="CS63" s="6">
-        <v>49730.947136093979</v>
+      <c r="CR63" s="17">
+        <v>46414.151680448267</v>
+      </c>
+      <c r="CS63" s="17">
+        <v>49729.62025624793</v>
+      </c>
+      <c r="CT63" s="17">
+        <v>45316.173416147416</v>
       </c>
     </row>
-    <row r="64" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -35531,20 +35771,23 @@
       <c r="CO64" s="6">
         <v>53789.969913542431</v>
       </c>
-      <c r="CP64" s="6">
+      <c r="CP64" s="17">
         <v>50865.133922985086</v>
       </c>
-      <c r="CQ64" s="6">
+      <c r="CQ64" s="17">
         <v>41071.883067845381</v>
       </c>
-      <c r="CR64" s="6">
+      <c r="CR64" s="17">
         <v>44293.571884788791</v>
       </c>
-      <c r="CS64" s="6">
+      <c r="CS64" s="17">
         <v>57975.432662686813</v>
       </c>
+      <c r="CT64" s="17">
+        <v>53838.503761657586</v>
+      </c>
     </row>
-    <row r="65" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -35824,20 +36067,23 @@
       <c r="CO65" s="6">
         <v>19570.459116741433</v>
       </c>
-      <c r="CP65" s="6">
+      <c r="CP65" s="17">
         <v>19011.270149179843</v>
       </c>
-      <c r="CQ65" s="6">
+      <c r="CQ65" s="17">
         <v>17089.519540505204</v>
       </c>
-      <c r="CR65" s="6">
+      <c r="CR65" s="17">
         <v>17776.937784153091</v>
       </c>
-      <c r="CS65" s="6">
+      <c r="CS65" s="17">
         <v>20609.756698521654</v>
       </c>
+      <c r="CT65" s="17">
+        <v>19250.255092911597</v>
+      </c>
     </row>
-    <row r="66" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -36106,31 +36352,34 @@
         <v>216.88256050690347</v>
       </c>
       <c r="CL66" s="6">
-        <v>833.37896351986751</v>
+        <v>833.72493756758013</v>
       </c>
       <c r="CM66" s="6">
-        <v>694.17351293900333</v>
+        <v>692.20507686269161</v>
       </c>
       <c r="CN66" s="6">
-        <v>988.04459142650876</v>
+        <v>994.04526817474652</v>
       </c>
       <c r="CO66" s="6">
-        <v>191.11873004219791</v>
-      </c>
-      <c r="CP66" s="6">
-        <v>444.97014889775153</v>
-      </c>
-      <c r="CQ66" s="6">
-        <v>555.61521891818427</v>
-      </c>
-      <c r="CR66" s="6">
-        <v>917.26373215974377</v>
-      </c>
-      <c r="CS66" s="6">
-        <v>171.61549115987964</v>
+        <v>215.76483048591405</v>
+      </c>
+      <c r="CP66" s="17">
+        <v>446.59607527988817</v>
+      </c>
+      <c r="CQ66" s="17">
+        <v>561.13383911854567</v>
+      </c>
+      <c r="CR66" s="17">
+        <v>927.82225501203015</v>
+      </c>
+      <c r="CS66" s="17">
+        <v>199.87882496944098</v>
+      </c>
+      <c r="CT66" s="17">
+        <v>619.4447100857542</v>
       </c>
     </row>
-    <row r="67" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -36410,20 +36659,23 @@
       <c r="CO67" s="6">
         <v>69200.637338889384</v>
       </c>
-      <c r="CP67" s="6">
+      <c r="CP67" s="17">
         <v>45390.083262683576</v>
       </c>
-      <c r="CQ67" s="6">
-        <v>42320.455808305953</v>
-      </c>
-      <c r="CR67" s="6">
-        <v>50290.444941104666</v>
-      </c>
-      <c r="CS67" s="6">
-        <v>65599.631467612271</v>
+      <c r="CQ67" s="17">
+        <v>42320.239029445991</v>
+      </c>
+      <c r="CR67" s="17">
+        <v>50286.296459411155</v>
+      </c>
+      <c r="CS67" s="17">
+        <v>65528.420210024575</v>
+      </c>
+      <c r="CT67" s="17">
+        <v>44931.831562354564</v>
       </c>
     </row>
-    <row r="68" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36698,26 +36950,29 @@
         <v>51509.999366363823</v>
       </c>
       <c r="CN68" s="6">
-        <v>52458.304934282831</v>
+        <v>52458.304934282838</v>
       </c>
       <c r="CO68" s="6">
         <v>55874.953256162233</v>
       </c>
-      <c r="CP68" s="6">
+      <c r="CP68" s="17">
         <v>40097.190131400988</v>
       </c>
-      <c r="CQ68" s="6">
+      <c r="CQ68" s="17">
         <v>53385.012609973783</v>
       </c>
-      <c r="CR68" s="6">
+      <c r="CR68" s="17">
         <v>54672.313379685933</v>
       </c>
-      <c r="CS68" s="6">
-        <v>59744.66307843184</v>
+      <c r="CS68" s="17">
+        <v>59744.663076623474</v>
+      </c>
+      <c r="CT68" s="17">
+        <v>40818.374024669072</v>
       </c>
     </row>
-    <row r="69" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -36986,31 +37241,34 @@
         <v>527096.21535019553</v>
       </c>
       <c r="CL70" s="8">
-        <v>434860.85023226833</v>
+        <v>434861.19620631606</v>
       </c>
       <c r="CM70" s="8">
-        <v>416820.02168895892</v>
+        <v>416818.05325288262</v>
       </c>
       <c r="CN70" s="8">
-        <v>406552.10442807386</v>
+        <v>406560.39177339303</v>
       </c>
       <c r="CO70" s="8">
-        <v>525265.97987364046</v>
-      </c>
-      <c r="CP70" s="8">
-        <v>444602.58331337787</v>
-      </c>
-      <c r="CQ70" s="8">
-        <v>417669.76416018978</v>
-      </c>
-      <c r="CR70" s="8">
-        <v>410328.4774171703</v>
-      </c>
-      <c r="CS70" s="8">
-        <v>532424.03088026482</v>
+        <v>525495.01421070355</v>
+      </c>
+      <c r="CP70" s="19">
+        <v>444604.20923976001</v>
+      </c>
+      <c r="CQ70" s="19">
+        <v>417675.06600153015</v>
+      </c>
+      <c r="CR70" s="19">
+        <v>410345.89812109544</v>
+      </c>
+      <c r="CS70" s="19">
+        <v>532281.88087385229</v>
+      </c>
+      <c r="CT70" s="19">
+        <v>446303.33549994486</v>
       </c>
     </row>
-    <row r="71" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -37104,205 +37362,247 @@
       <c r="CM71" s="10"/>
       <c r="CN71" s="10"/>
       <c r="CO71" s="10"/>
-      <c r="CP71" s="10"/>
-      <c r="CQ71" s="10"/>
-      <c r="CR71" s="10"/>
-      <c r="CS71" s="10"/>
+      <c r="CP71" s="20"/>
+      <c r="CQ71" s="20"/>
+      <c r="CR71" s="20"/>
+      <c r="CS71" s="20"/>
+      <c r="CT71" s="20"/>
     </row>
-    <row r="72" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP72" s="14"/>
+      <c r="CQ72" s="14"/>
+      <c r="CR72" s="14"/>
+      <c r="CS72" s="14"/>
+      <c r="CT72" s="14"/>
     </row>
-    <row r="73" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP75" s="14"/>
+      <c r="CQ75" s="14"/>
+      <c r="CR75" s="14"/>
+      <c r="CS75" s="14"/>
+      <c r="CT75" s="14"/>
     </row>
-    <row r="76" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CP76" s="14"/>
+      <c r="CQ76" s="14"/>
+      <c r="CR76" s="14"/>
+      <c r="CS76" s="14"/>
+      <c r="CT76" s="14"/>
     </row>
-    <row r="77" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP77" s="14"/>
+      <c r="CQ77" s="14"/>
+      <c r="CR77" s="14"/>
+      <c r="CS77" s="14"/>
+      <c r="CT77" s="14"/>
     </row>
-    <row r="78" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP78" s="14"/>
+      <c r="CQ78" s="14"/>
+      <c r="CR78" s="14"/>
+      <c r="CS78" s="14"/>
+      <c r="CT78" s="14"/>
+    </row>
+    <row r="79" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="CP79" s="14"/>
+      <c r="CQ79" s="14"/>
+      <c r="CR79" s="14"/>
+      <c r="CS79" s="14"/>
+      <c r="CT79" s="14"/>
     </row>
-    <row r="80" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="CP80" s="14"/>
+      <c r="CQ80" s="14"/>
+      <c r="CR80" s="14"/>
+      <c r="CS80" s="14"/>
+      <c r="CT80" s="14"/>
     </row>
-    <row r="81" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="CP81" s="5"/>
-      <c r="CQ81" s="5"/>
-      <c r="CR81" s="5"/>
-      <c r="CS81" s="5"/>
+      <c r="CP81" s="21"/>
+      <c r="CQ81" s="21"/>
+      <c r="CR81" s="21"/>
+      <c r="CS81" s="21"/>
+      <c r="CT81" s="21"/>
     </row>
-    <row r="82" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP82" s="5"/>
-      <c r="CQ82" s="5"/>
-      <c r="CR82" s="5"/>
-      <c r="CS82" s="5"/>
+    <row r="82" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP82" s="14"/>
+      <c r="CQ82" s="21"/>
+      <c r="CR82" s="21"/>
+      <c r="CS82" s="21"/>
+      <c r="CT82" s="21"/>
     </row>
-    <row r="83" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16" t="s">
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16" t="s">
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16" t="s">
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16" t="s">
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16" t="s">
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16" t="s">
+      <c r="W83" s="25"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16"/>
-      <c r="AC83" s="16"/>
-      <c r="AD83" s="16" t="s">
+      <c r="AA83" s="25"/>
+      <c r="AB83" s="25"/>
+      <c r="AC83" s="25"/>
+      <c r="AD83" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="16"/>
-      <c r="AF83" s="16"/>
-      <c r="AG83" s="16"/>
-      <c r="AH83" s="16" t="s">
+      <c r="AE83" s="25"/>
+      <c r="AF83" s="25"/>
+      <c r="AG83" s="25"/>
+      <c r="AH83" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="16"/>
-      <c r="AJ83" s="16"/>
-      <c r="AK83" s="16"/>
-      <c r="AL83" s="16" t="s">
+      <c r="AI83" s="25"/>
+      <c r="AJ83" s="25"/>
+      <c r="AK83" s="25"/>
+      <c r="AL83" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="16"/>
-      <c r="AN83" s="16"/>
-      <c r="AO83" s="16"/>
-      <c r="AP83" s="16" t="s">
+      <c r="AM83" s="25"/>
+      <c r="AN83" s="25"/>
+      <c r="AO83" s="25"/>
+      <c r="AP83" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="16"/>
-      <c r="AR83" s="16"/>
-      <c r="AS83" s="16"/>
-      <c r="AT83" s="16" t="s">
+      <c r="AQ83" s="25"/>
+      <c r="AR83" s="25"/>
+      <c r="AS83" s="25"/>
+      <c r="AT83" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="16"/>
-      <c r="AV83" s="16"/>
-      <c r="AW83" s="16"/>
-      <c r="AX83" s="16" t="s">
+      <c r="AU83" s="25"/>
+      <c r="AV83" s="25"/>
+      <c r="AW83" s="25"/>
+      <c r="AX83" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="16"/>
-      <c r="AZ83" s="16"/>
-      <c r="BA83" s="16"/>
-      <c r="BB83" s="16" t="s">
+      <c r="AY83" s="25"/>
+      <c r="AZ83" s="25"/>
+      <c r="BA83" s="25"/>
+      <c r="BB83" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="16"/>
-      <c r="BD83" s="16"/>
-      <c r="BE83" s="16"/>
-      <c r="BF83" s="16" t="s">
+      <c r="BC83" s="25"/>
+      <c r="BD83" s="25"/>
+      <c r="BE83" s="25"/>
+      <c r="BF83" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="16"/>
-      <c r="BH83" s="16"/>
-      <c r="BI83" s="16"/>
-      <c r="BJ83" s="16" t="s">
+      <c r="BG83" s="25"/>
+      <c r="BH83" s="25"/>
+      <c r="BI83" s="25"/>
+      <c r="BJ83" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="16"/>
-      <c r="BL83" s="16"/>
-      <c r="BM83" s="16"/>
-      <c r="BN83" s="16" t="s">
+      <c r="BK83" s="25"/>
+      <c r="BL83" s="25"/>
+      <c r="BM83" s="25"/>
+      <c r="BN83" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="16"/>
-      <c r="BP83" s="16"/>
-      <c r="BQ83" s="16"/>
-      <c r="BR83" s="16" t="s">
+      <c r="BO83" s="25"/>
+      <c r="BP83" s="25"/>
+      <c r="BQ83" s="25"/>
+      <c r="BR83" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="16"/>
-      <c r="BT83" s="16"/>
-      <c r="BU83" s="16"/>
-      <c r="BV83" s="16" t="s">
+      <c r="BS83" s="25"/>
+      <c r="BT83" s="25"/>
+      <c r="BU83" s="25"/>
+      <c r="BV83" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="16"/>
-      <c r="BX83" s="16"/>
-      <c r="BY83" s="16"/>
-      <c r="BZ83" s="16" t="s">
+      <c r="BW83" s="25"/>
+      <c r="BX83" s="25"/>
+      <c r="BY83" s="25"/>
+      <c r="BZ83" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="16"/>
-      <c r="CB83" s="16"/>
-      <c r="CC83" s="16"/>
-      <c r="CD83" s="16" t="s">
+      <c r="CA83" s="25"/>
+      <c r="CB83" s="25"/>
+      <c r="CC83" s="25"/>
+      <c r="CD83" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="16"/>
-      <c r="CF83" s="16"/>
-      <c r="CG83" s="16"/>
-      <c r="CH83" s="16" t="s">
+      <c r="CE83" s="25"/>
+      <c r="CF83" s="25"/>
+      <c r="CG83" s="25"/>
+      <c r="CH83" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CI83" s="16"/>
-      <c r="CJ83" s="16"/>
-      <c r="CK83" s="16"/>
-      <c r="CL83" s="14" t="s">
+      <c r="CI83" s="13"/>
+      <c r="CJ83" s="13"/>
+      <c r="CK83" s="13"/>
+      <c r="CL83" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CM83" s="14"/>
-      <c r="CN83" s="14"/>
-      <c r="CO83" s="14"/>
-      <c r="CP83" s="13"/>
-      <c r="CQ83" s="13"/>
-      <c r="CR83" s="13"/>
-      <c r="CS83" s="13"/>
+      <c r="CM83" s="13"/>
+      <c r="CN83" s="13"/>
+      <c r="CO83" s="13"/>
+      <c r="CP83" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="CQ83" s="22"/>
+      <c r="CR83" s="22"/>
+      <c r="CS83" s="22"/>
+      <c r="CT83" s="22"/>
     </row>
-    <row r="84" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -37582,19 +37882,23 @@
       <c r="CO84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP84" s="4"/>
-      <c r="CQ84" s="4"/>
-      <c r="CR84" s="4"/>
-      <c r="CS84" s="4"/>
+      <c r="CP84" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ84" s="16"/>
+      <c r="CR84" s="16"/>
+      <c r="CS84" s="16"/>
+      <c r="CT84" s="16"/>
     </row>
-    <row r="85" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="CP85" s="5"/>
-      <c r="CQ85" s="5"/>
-      <c r="CR85" s="5"/>
-      <c r="CS85" s="5"/>
+      <c r="CP85" s="14"/>
+      <c r="CQ85" s="21"/>
+      <c r="CR85" s="21"/>
+      <c r="CS85" s="21"/>
+      <c r="CT85" s="21"/>
     </row>
-    <row r="86" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -37857,7 +38161,7 @@
         <v>1.4647896483150618</v>
       </c>
       <c r="CJ86" s="11">
-        <v>3.9339872410536287</v>
+        <v>3.9373024127066287</v>
       </c>
       <c r="CK86" s="11">
         <v>4.8713566289459038</v>
@@ -37869,17 +38173,20 @@
         <v>10.492944436353753</v>
       </c>
       <c r="CN86" s="11">
-        <v>18.6507164876746</v>
+        <v>18.650716688543611</v>
       </c>
       <c r="CO86" s="11">
         <v>24.932693675292668</v>
       </c>
-      <c r="CP86" s="15"/>
-      <c r="CQ86" s="15"/>
-      <c r="CR86" s="15"/>
-      <c r="CS86" s="15"/>
+      <c r="CP86" s="23">
+        <v>37.832915550277363</v>
+      </c>
+      <c r="CQ86" s="24"/>
+      <c r="CR86" s="24"/>
+      <c r="CS86" s="24"/>
+      <c r="CT86" s="24"/>
     </row>
-    <row r="87" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -38159,12 +38466,15 @@
       <c r="CO87" s="11">
         <v>-0.52962083696556306</v>
       </c>
-      <c r="CP87" s="15"/>
-      <c r="CQ87" s="15"/>
-      <c r="CR87" s="15"/>
-      <c r="CS87" s="15"/>
+      <c r="CP87" s="23">
+        <v>-8.6383497789317971</v>
+      </c>
+      <c r="CQ87" s="24"/>
+      <c r="CR87" s="24"/>
+      <c r="CS87" s="24"/>
+      <c r="CT87" s="24"/>
     </row>
-    <row r="88" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -38442,14 +38752,17 @@
         <v>-5.0615094043752293</v>
       </c>
       <c r="CO88" s="11">
-        <v>-4.4311200771280568</v>
-      </c>
-      <c r="CP88" s="11"/>
-      <c r="CQ88" s="11"/>
-      <c r="CR88" s="11"/>
-      <c r="CS88" s="11"/>
+        <v>-4.4311200753675024</v>
+      </c>
+      <c r="CP88" s="23">
+        <v>19.72000901487722</v>
+      </c>
+      <c r="CQ88" s="23"/>
+      <c r="CR88" s="23"/>
+      <c r="CS88" s="23"/>
+      <c r="CT88" s="23"/>
     </row>
-    <row r="89" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -38729,12 +39042,15 @@
       <c r="CO89" s="11">
         <v>-8.18161805674427</v>
       </c>
-      <c r="CP89" s="11"/>
-      <c r="CQ89" s="11"/>
-      <c r="CR89" s="11"/>
-      <c r="CS89" s="11"/>
+      <c r="CP89" s="23">
+        <v>2.5514789908628757</v>
+      </c>
+      <c r="CQ89" s="23"/>
+      <c r="CR89" s="23"/>
+      <c r="CS89" s="23"/>
+      <c r="CT89" s="23"/>
     </row>
-    <row r="90" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -39012,14 +39328,17 @@
         <v>17.183987942726446</v>
       </c>
       <c r="CO90" s="11">
-        <v>7.6736975535350922</v>
-      </c>
-      <c r="CP90" s="11"/>
-      <c r="CQ90" s="11"/>
-      <c r="CR90" s="11"/>
-      <c r="CS90" s="11"/>
+        <v>7.6736975521070576</v>
+      </c>
+      <c r="CP90" s="23">
+        <v>13.277028074911797</v>
+      </c>
+      <c r="CQ90" s="23"/>
+      <c r="CR90" s="23"/>
+      <c r="CS90" s="23"/>
+      <c r="CT90" s="23"/>
     </row>
-    <row r="91" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -39297,14 +39616,17 @@
         <v>25.681562049825189</v>
       </c>
       <c r="CO91" s="11">
-        <v>15.65505958985645</v>
-      </c>
-      <c r="CP91" s="11"/>
-      <c r="CQ91" s="11"/>
-      <c r="CR91" s="11"/>
-      <c r="CS91" s="11"/>
+        <v>15.655059584489166</v>
+      </c>
+      <c r="CP91" s="23">
+        <v>-0.16005226621203406</v>
+      </c>
+      <c r="CQ91" s="23"/>
+      <c r="CR91" s="23"/>
+      <c r="CS91" s="23"/>
+      <c r="CT91" s="23"/>
     </row>
-    <row r="92" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -39582,14 +39904,17 @@
         <v>19.172659662370791</v>
       </c>
       <c r="CO92" s="11">
-        <v>21.124814114380371</v>
-      </c>
-      <c r="CP92" s="11"/>
-      <c r="CQ92" s="11"/>
-      <c r="CR92" s="11"/>
-      <c r="CS92" s="11"/>
+        <v>21.124814109413876</v>
+      </c>
+      <c r="CP92" s="23">
+        <v>48.710572836518793</v>
+      </c>
+      <c r="CQ92" s="23"/>
+      <c r="CR92" s="23"/>
+      <c r="CS92" s="23"/>
+      <c r="CT92" s="23"/>
     </row>
-    <row r="93" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -39867,14 +40192,17 @@
         <v>4.1766722451364302</v>
       </c>
       <c r="CO93" s="11">
-        <v>31.318877991351854</v>
-      </c>
-      <c r="CP93" s="11"/>
-      <c r="CQ93" s="11"/>
-      <c r="CR93" s="11"/>
-      <c r="CS93" s="11"/>
+        <v>31.318877986198999</v>
+      </c>
+      <c r="CP93" s="23">
+        <v>78.230931440848678</v>
+      </c>
+      <c r="CQ93" s="23"/>
+      <c r="CR93" s="23"/>
+      <c r="CS93" s="23"/>
+      <c r="CT93" s="23"/>
     </row>
-    <row r="94" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -40152,14 +40480,17 @@
         <v>14.03616565488457</v>
       </c>
       <c r="CO94" s="11">
-        <v>16.222965404845667</v>
-      </c>
-      <c r="CP94" s="11"/>
-      <c r="CQ94" s="11"/>
-      <c r="CR94" s="11"/>
-      <c r="CS94" s="11"/>
+        <v>16.222965409853245</v>
+      </c>
+      <c r="CP94" s="23">
+        <v>33.120066168098703</v>
+      </c>
+      <c r="CQ94" s="23"/>
+      <c r="CR94" s="23"/>
+      <c r="CS94" s="23"/>
+      <c r="CT94" s="23"/>
     </row>
-    <row r="95" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -40439,12 +40770,15 @@
       <c r="CO95" s="11">
         <v>-2.7673555672791821</v>
       </c>
-      <c r="CP95" s="11"/>
-      <c r="CQ95" s="11"/>
-      <c r="CR95" s="11"/>
-      <c r="CS95" s="11"/>
+      <c r="CP95" s="23">
+        <v>8.4316560161959302</v>
+      </c>
+      <c r="CQ95" s="23"/>
+      <c r="CR95" s="23"/>
+      <c r="CS95" s="23"/>
+      <c r="CT95" s="23"/>
     </row>
-    <row r="96" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -40722,14 +41056,17 @@
         <v>26.774861031974041</v>
       </c>
       <c r="CO96" s="11">
-        <v>20.984170733056317</v>
-      </c>
-      <c r="CP96" s="11"/>
-      <c r="CQ96" s="11"/>
-      <c r="CR96" s="11"/>
-      <c r="CS96" s="11"/>
+        <v>20.984170734494725</v>
+      </c>
+      <c r="CP96" s="23">
+        <v>-2.0336612783834198</v>
+      </c>
+      <c r="CQ96" s="23"/>
+      <c r="CR96" s="23"/>
+      <c r="CS96" s="23"/>
+      <c r="CT96" s="23"/>
     </row>
-    <row r="97" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -40995,7 +41332,7 @@
         <v>23.798489345351584</v>
       </c>
       <c r="CK97" s="11">
-        <v>4.920602940752957</v>
+        <v>4.9206029407529002</v>
       </c>
       <c r="CL97" s="11">
         <v>-5.8877712864958198</v>
@@ -41007,14 +41344,17 @@
         <v>-15.317630851527923</v>
       </c>
       <c r="CO97" s="11">
-        <v>-4.1611103777971863</v>
-      </c>
-      <c r="CP97" s="11"/>
-      <c r="CQ97" s="11"/>
-      <c r="CR97" s="11"/>
-      <c r="CS97" s="11"/>
+        <v>-4.1611103777972005</v>
+      </c>
+      <c r="CP97" s="23">
+        <v>14.802386305824839</v>
+      </c>
+      <c r="CQ97" s="23"/>
+      <c r="CR97" s="23"/>
+      <c r="CS97" s="23"/>
+      <c r="CT97" s="23"/>
     </row>
-    <row r="98" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -41294,12 +41634,15 @@
       <c r="CO98" s="11">
         <v>73.648447457317303</v>
       </c>
-      <c r="CP98" s="11"/>
-      <c r="CQ98" s="11"/>
-      <c r="CR98" s="11"/>
-      <c r="CS98" s="11"/>
+      <c r="CP98" s="23">
+        <v>38.376220757861802</v>
+      </c>
+      <c r="CQ98" s="23"/>
+      <c r="CR98" s="23"/>
+      <c r="CS98" s="23"/>
+      <c r="CT98" s="23"/>
     </row>
-    <row r="99" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -41565,7 +41908,7 @@
         <v>7.4969139611984446</v>
       </c>
       <c r="CK99" s="11">
-        <v>14.846660577404336</v>
+        <v>15.756788315087846</v>
       </c>
       <c r="CL99" s="11">
         <v>41.316699765683893</v>
@@ -41577,14 +41920,17 @@
         <v>9.9119437415228191</v>
       </c>
       <c r="CO99" s="11">
-        <v>6.8387412454294179</v>
-      </c>
-      <c r="CP99" s="11"/>
-      <c r="CQ99" s="11"/>
-      <c r="CR99" s="11"/>
-      <c r="CS99" s="11"/>
+        <v>5.5942472166754555</v>
+      </c>
+      <c r="CP99" s="23">
+        <v>-11.119847133230792</v>
+      </c>
+      <c r="CQ99" s="23"/>
+      <c r="CR99" s="23"/>
+      <c r="CS99" s="23"/>
+      <c r="CT99" s="23"/>
     </row>
-    <row r="100" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -41859,17 +42205,20 @@
         <v>-3.4122547334508937</v>
       </c>
       <c r="CN100" s="11">
-        <v>-2.6887602214488453</v>
+        <v>-2.6520624298789386</v>
       </c>
       <c r="CO100" s="11">
-        <v>8.7247311403147307</v>
-      </c>
-      <c r="CP100" s="11"/>
-      <c r="CQ100" s="11"/>
-      <c r="CR100" s="11"/>
-      <c r="CS100" s="11"/>
+        <v>8.7186527212723632</v>
+      </c>
+      <c r="CP100" s="23">
+        <v>2.1874311913704219</v>
+      </c>
+      <c r="CQ100" s="23"/>
+      <c r="CR100" s="23"/>
+      <c r="CS100" s="23"/>
+      <c r="CT100" s="23"/>
     </row>
-    <row r="101" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -42135,7 +42484,7 @@
         <v>35.334467146640094</v>
       </c>
       <c r="CK101" s="11">
-        <v>18.779783724568077</v>
+        <v>19.582568657176495</v>
       </c>
       <c r="CL101" s="11">
         <v>18.2673577325114</v>
@@ -42144,17 +42493,20 @@
         <v>9.2477243630222148</v>
       </c>
       <c r="CN101" s="11">
-        <v>0.31424042316308487</v>
+        <v>0.31424042316304224</v>
       </c>
       <c r="CO101" s="11">
-        <v>8.88852528303903</v>
-      </c>
-      <c r="CP101" s="11"/>
-      <c r="CQ101" s="11"/>
-      <c r="CR101" s="11"/>
-      <c r="CS101" s="11"/>
+        <v>8.8882870859577849</v>
+      </c>
+      <c r="CP101" s="23">
+        <v>3.1720551668007033</v>
+      </c>
+      <c r="CQ101" s="23"/>
+      <c r="CR101" s="23"/>
+      <c r="CS101" s="23"/>
+      <c r="CT101" s="23"/>
     </row>
-    <row r="102" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -42423,7 +42775,7 @@
         <v>13.138399104304227</v>
       </c>
       <c r="CL102" s="11">
-        <v>10.074491854212781</v>
+        <v>10.074491854212738</v>
       </c>
       <c r="CM102" s="11">
         <v>-5.3915231296592196</v>
@@ -42434,12 +42786,15 @@
       <c r="CO102" s="11">
         <v>9.030661656795985</v>
       </c>
-      <c r="CP102" s="11"/>
-      <c r="CQ102" s="11"/>
-      <c r="CR102" s="11"/>
-      <c r="CS102" s="11"/>
+      <c r="CP102" s="23">
+        <v>2.4633927400525124</v>
+      </c>
+      <c r="CQ102" s="23"/>
+      <c r="CR102" s="23"/>
+      <c r="CS102" s="23"/>
+      <c r="CT102" s="23"/>
     </row>
-    <row r="103" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -42696,35 +43051,38 @@
         <v>-54.51930848796988</v>
       </c>
       <c r="CH103" s="11">
-        <v>4.1138699710000282</v>
+        <v>4.157690795715439</v>
       </c>
       <c r="CI103" s="11">
-        <v>-41.456716137674675</v>
+        <v>-41.622724649714385</v>
       </c>
       <c r="CJ103" s="11">
-        <v>5.1241945344509645</v>
+        <v>5.7667585818461049</v>
       </c>
       <c r="CK103" s="11">
-        <v>-9.8109539025426926</v>
+        <v>1.819556035180824</v>
       </c>
       <c r="CL103" s="11">
-        <v>-58.511027364021736</v>
+        <v>-58.373513891118982</v>
       </c>
       <c r="CM103" s="11">
-        <v>-29.453984477104129</v>
+        <v>-28.5506575778425</v>
       </c>
       <c r="CN103" s="11">
-        <v>-8.025578969776717</v>
+        <v>-7.5236168697527859</v>
       </c>
       <c r="CO103" s="11">
-        <v>-11.829586461599021</v>
-      </c>
-      <c r="CP103" s="11"/>
-      <c r="CQ103" s="11"/>
-      <c r="CR103" s="11"/>
-      <c r="CS103" s="11"/>
+        <v>-8.9299522817109107</v>
+      </c>
+      <c r="CP103" s="23">
+        <v>32.348928871788615</v>
+      </c>
+      <c r="CQ103" s="23"/>
+      <c r="CR103" s="23"/>
+      <c r="CS103" s="23"/>
+      <c r="CT103" s="23"/>
     </row>
-    <row r="104" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -42984,10 +43342,10 @@
         <v>-2.3890201557280193</v>
       </c>
       <c r="CI104" s="11">
-        <v>16.788366449445519</v>
+        <v>16.78957119448701</v>
       </c>
       <c r="CJ104" s="11">
-        <v>9.2811397118715462</v>
+        <v>9.5255397806555777</v>
       </c>
       <c r="CK104" s="11">
         <v>10.695761205811948</v>
@@ -42996,20 +43354,23 @@
         <v>25.432070793034512</v>
       </c>
       <c r="CM104" s="11">
-        <v>-8.7395832536855096</v>
+        <v>-8.7413261319805997</v>
       </c>
       <c r="CN104" s="11">
-        <v>-0.26403716734984073</v>
+        <v>-0.60401143545972502</v>
       </c>
       <c r="CO104" s="11">
-        <v>-5.7196709707774431</v>
-      </c>
-      <c r="CP104" s="11"/>
-      <c r="CQ104" s="11"/>
-      <c r="CR104" s="11"/>
-      <c r="CS104" s="11"/>
+        <v>-5.4885290594271368</v>
+      </c>
+      <c r="CP104" s="23">
+        <v>-7.2599134039688522</v>
+      </c>
+      <c r="CQ104" s="23"/>
+      <c r="CR104" s="23"/>
+      <c r="CS104" s="23"/>
+      <c r="CT104" s="23"/>
     </row>
-    <row r="105" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -43287,15 +43648,18 @@
         <v>8.6647214046826662</v>
       </c>
       <c r="CO105" s="11">
-        <v>14.547804368539843</v>
-      </c>
-      <c r="CP105" s="11"/>
-      <c r="CQ105" s="11"/>
-      <c r="CR105" s="11"/>
-      <c r="CS105" s="11"/>
+        <v>14.54780436775134</v>
+      </c>
+      <c r="CP105" s="23">
+        <v>7.3974926518233843</v>
+      </c>
+      <c r="CQ105" s="23"/>
+      <c r="CR105" s="23"/>
+      <c r="CS105" s="23"/>
+      <c r="CT105" s="23"/>
     </row>
-    <row r="106" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -43552,35 +43916,38 @@
         <v>5.1569012915554566</v>
       </c>
       <c r="CH107" s="11">
-        <v>2.6768479316231293</v>
+        <v>2.6768845011592362</v>
       </c>
       <c r="CI107" s="11">
-        <v>5.8630821060132803</v>
+        <v>5.8630497578209742</v>
       </c>
       <c r="CJ107" s="11">
-        <v>11.808225986585526</v>
+        <v>11.845934758568234</v>
       </c>
       <c r="CK107" s="11">
-        <v>9.9755754418846294</v>
+        <v>10.101098300772819</v>
       </c>
       <c r="CL107" s="11">
-        <v>13.399410256295567</v>
+        <v>13.399501057935794</v>
       </c>
       <c r="CM107" s="11">
-        <v>4.7526460650888112</v>
+        <v>4.7529900808145982</v>
       </c>
       <c r="CN107" s="11">
-        <v>5.517363683297134</v>
+        <v>5.4716382150020451</v>
       </c>
       <c r="CO107" s="11">
-        <v>10.170370160858269</v>
-      </c>
-      <c r="CP107" s="11"/>
-      <c r="CQ107" s="11"/>
-      <c r="CR107" s="11"/>
-      <c r="CS107" s="11"/>
+        <v>10.129537851076492</v>
+      </c>
+      <c r="CP107" s="23">
+        <v>8.206637390162058</v>
+      </c>
+      <c r="CQ107" s="23"/>
+      <c r="CR107" s="23"/>
+      <c r="CS107" s="23"/>
+      <c r="CT107" s="23"/>
     </row>
-    <row r="108" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -43674,196 +44041,247 @@
       <c r="CM108" s="10"/>
       <c r="CN108" s="10"/>
       <c r="CO108" s="10"/>
-      <c r="CP108" s="10"/>
-      <c r="CQ108" s="10"/>
-      <c r="CR108" s="10"/>
-      <c r="CS108" s="10"/>
+      <c r="CP108" s="20"/>
+      <c r="CQ108" s="20"/>
+      <c r="CR108" s="20"/>
+      <c r="CS108" s="20"/>
+      <c r="CT108" s="20"/>
     </row>
-    <row r="109" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP109" s="14"/>
+      <c r="CQ109" s="14"/>
+      <c r="CR109" s="14"/>
+      <c r="CS109" s="14"/>
+      <c r="CT109" s="14"/>
     </row>
-    <row r="110" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP112" s="14"/>
+      <c r="CQ112" s="14"/>
+      <c r="CR112" s="14"/>
+      <c r="CS112" s="14"/>
+      <c r="CT112" s="14"/>
     </row>
-    <row r="113" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CP113" s="14"/>
+      <c r="CQ113" s="14"/>
+      <c r="CR113" s="14"/>
+      <c r="CS113" s="14"/>
+      <c r="CT113" s="14"/>
     </row>
-    <row r="114" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP114" s="14"/>
+      <c r="CQ114" s="14"/>
+      <c r="CR114" s="14"/>
+      <c r="CS114" s="14"/>
+      <c r="CT114" s="14"/>
     </row>
-    <row r="115" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP115" s="14"/>
+      <c r="CQ115" s="14"/>
+      <c r="CR115" s="14"/>
+      <c r="CS115" s="14"/>
+      <c r="CT115" s="14"/>
+    </row>
+    <row r="116" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="CP116" s="14"/>
+      <c r="CQ116" s="14"/>
+      <c r="CR116" s="14"/>
+      <c r="CS116" s="14"/>
+      <c r="CT116" s="14"/>
     </row>
-    <row r="117" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="CP117" s="14"/>
+      <c r="CQ117" s="14"/>
+      <c r="CR117" s="14"/>
+      <c r="CS117" s="14"/>
+      <c r="CT117" s="14"/>
     </row>
-    <row r="118" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="CP118" s="14"/>
+      <c r="CQ118" s="14"/>
+      <c r="CR118" s="14"/>
+      <c r="CS118" s="14"/>
+      <c r="CT118" s="14"/>
     </row>
-    <row r="119" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP119" s="14"/>
+      <c r="CQ119" s="14"/>
+      <c r="CR119" s="14"/>
+      <c r="CS119" s="14"/>
+      <c r="CT119" s="14"/>
+    </row>
+    <row r="120" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16" t="s">
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16" t="s">
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="16" t="s">
+      <c r="K120" s="25"/>
+      <c r="L120" s="25"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="16" t="s">
+      <c r="O120" s="25"/>
+      <c r="P120" s="25"/>
+      <c r="Q120" s="25"/>
+      <c r="R120" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="16"/>
-      <c r="T120" s="16"/>
-      <c r="U120" s="16"/>
-      <c r="V120" s="16" t="s">
+      <c r="S120" s="25"/>
+      <c r="T120" s="25"/>
+      <c r="U120" s="25"/>
+      <c r="V120" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="16"/>
-      <c r="X120" s="16"/>
-      <c r="Y120" s="16"/>
-      <c r="Z120" s="16" t="s">
+      <c r="W120" s="25"/>
+      <c r="X120" s="25"/>
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="16"/>
-      <c r="AB120" s="16"/>
-      <c r="AC120" s="16"/>
-      <c r="AD120" s="16" t="s">
+      <c r="AA120" s="25"/>
+      <c r="AB120" s="25"/>
+      <c r="AC120" s="25"/>
+      <c r="AD120" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="16"/>
-      <c r="AF120" s="16"/>
-      <c r="AG120" s="16"/>
-      <c r="AH120" s="16" t="s">
+      <c r="AE120" s="25"/>
+      <c r="AF120" s="25"/>
+      <c r="AG120" s="25"/>
+      <c r="AH120" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="16"/>
-      <c r="AJ120" s="16"/>
-      <c r="AK120" s="16"/>
-      <c r="AL120" s="16" t="s">
+      <c r="AI120" s="25"/>
+      <c r="AJ120" s="25"/>
+      <c r="AK120" s="25"/>
+      <c r="AL120" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="16"/>
-      <c r="AN120" s="16"/>
-      <c r="AO120" s="16"/>
-      <c r="AP120" s="16" t="s">
+      <c r="AM120" s="25"/>
+      <c r="AN120" s="25"/>
+      <c r="AO120" s="25"/>
+      <c r="AP120" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="16"/>
-      <c r="AR120" s="16"/>
-      <c r="AS120" s="16"/>
-      <c r="AT120" s="16" t="s">
+      <c r="AQ120" s="25"/>
+      <c r="AR120" s="25"/>
+      <c r="AS120" s="25"/>
+      <c r="AT120" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="16"/>
-      <c r="AV120" s="16"/>
-      <c r="AW120" s="16"/>
-      <c r="AX120" s="16" t="s">
+      <c r="AU120" s="25"/>
+      <c r="AV120" s="25"/>
+      <c r="AW120" s="25"/>
+      <c r="AX120" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="16"/>
-      <c r="AZ120" s="16"/>
-      <c r="BA120" s="16"/>
-      <c r="BB120" s="16" t="s">
+      <c r="AY120" s="25"/>
+      <c r="AZ120" s="25"/>
+      <c r="BA120" s="25"/>
+      <c r="BB120" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="16"/>
-      <c r="BD120" s="16"/>
-      <c r="BE120" s="16"/>
-      <c r="BF120" s="16" t="s">
+      <c r="BC120" s="25"/>
+      <c r="BD120" s="25"/>
+      <c r="BE120" s="25"/>
+      <c r="BF120" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="16"/>
-      <c r="BH120" s="16"/>
-      <c r="BI120" s="16"/>
-      <c r="BJ120" s="16" t="s">
+      <c r="BG120" s="25"/>
+      <c r="BH120" s="25"/>
+      <c r="BI120" s="25"/>
+      <c r="BJ120" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="16"/>
-      <c r="BL120" s="16"/>
-      <c r="BM120" s="16"/>
-      <c r="BN120" s="16" t="s">
+      <c r="BK120" s="25"/>
+      <c r="BL120" s="25"/>
+      <c r="BM120" s="25"/>
+      <c r="BN120" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="16"/>
-      <c r="BP120" s="16"/>
-      <c r="BQ120" s="16"/>
-      <c r="BR120" s="16" t="s">
+      <c r="BO120" s="25"/>
+      <c r="BP120" s="25"/>
+      <c r="BQ120" s="25"/>
+      <c r="BR120" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="16"/>
-      <c r="BT120" s="16"/>
-      <c r="BU120" s="16"/>
-      <c r="BV120" s="16" t="s">
+      <c r="BS120" s="25"/>
+      <c r="BT120" s="25"/>
+      <c r="BU120" s="25"/>
+      <c r="BV120" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="16"/>
-      <c r="BX120" s="16"/>
-      <c r="BY120" s="16"/>
-      <c r="BZ120" s="16" t="s">
+      <c r="BW120" s="25"/>
+      <c r="BX120" s="25"/>
+      <c r="BY120" s="25"/>
+      <c r="BZ120" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="16"/>
-      <c r="CB120" s="16"/>
-      <c r="CC120" s="16"/>
-      <c r="CD120" s="16" t="s">
+      <c r="CA120" s="25"/>
+      <c r="CB120" s="25"/>
+      <c r="CC120" s="25"/>
+      <c r="CD120" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="16"/>
-      <c r="CF120" s="16"/>
-      <c r="CG120" s="16"/>
-      <c r="CH120" s="16" t="s">
+      <c r="CE120" s="25"/>
+      <c r="CF120" s="25"/>
+      <c r="CG120" s="25"/>
+      <c r="CH120" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="CI120" s="16"/>
-      <c r="CJ120" s="16"/>
-      <c r="CK120" s="16"/>
-      <c r="CL120" s="14" t="s">
+      <c r="CI120" s="13"/>
+      <c r="CJ120" s="13"/>
+      <c r="CK120" s="13"/>
+      <c r="CL120" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="CM120" s="14"/>
-      <c r="CN120" s="14"/>
-      <c r="CO120" s="14"/>
-      <c r="CP120" s="13"/>
-      <c r="CQ120" s="13"/>
-      <c r="CR120" s="13"/>
-      <c r="CS120" s="13"/>
+      <c r="CM120" s="13"/>
+      <c r="CN120" s="13"/>
+      <c r="CO120" s="13"/>
+      <c r="CP120" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="CQ120" s="22"/>
+      <c r="CR120" s="22"/>
+      <c r="CS120" s="22"/>
+      <c r="CT120" s="22"/>
     </row>
-    <row r="121" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -44143,15 +44561,23 @@
       <c r="CO121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP121" s="4"/>
-      <c r="CQ121" s="4"/>
-      <c r="CR121" s="4"/>
-      <c r="CS121" s="4"/>
+      <c r="CP121" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="CQ121" s="16"/>
+      <c r="CR121" s="16"/>
+      <c r="CS121" s="16"/>
+      <c r="CT121" s="16"/>
     </row>
-    <row r="122" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
+      <c r="CP122" s="14"/>
+      <c r="CQ122" s="14"/>
+      <c r="CR122" s="14"/>
+      <c r="CS122" s="14"/>
+      <c r="CT122" s="14"/>
     </row>
-    <row r="123" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -44414,7 +44840,7 @@
         <v>0.70634198095417844</v>
       </c>
       <c r="CJ123" s="11">
-        <v>0.9767297794783758</v>
+        <v>0.9799506237956308</v>
       </c>
       <c r="CK123" s="11">
         <v>-2.4900856224084436</v>
@@ -44426,17 +44852,20 @@
         <v>2.3176443590561462</v>
       </c>
       <c r="CN123" s="11">
-        <v>0.2125625150712267</v>
+        <v>0.21256268472546935</v>
       </c>
       <c r="CO123" s="11">
         <v>0.16584506353160577</v>
       </c>
-      <c r="CP123" s="11"/>
-      <c r="CQ123" s="11"/>
-      <c r="CR123" s="11"/>
-      <c r="CS123" s="11"/>
+      <c r="CP123" s="23">
+        <v>-1.9617478979774035</v>
+      </c>
+      <c r="CQ123" s="23"/>
+      <c r="CR123" s="23"/>
+      <c r="CS123" s="23"/>
+      <c r="CT123" s="23"/>
     </row>
-    <row r="124" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -44716,12 +45145,15 @@
       <c r="CO124" s="11">
         <v>-1.7529328124686714</v>
       </c>
-      <c r="CP124" s="11"/>
-      <c r="CQ124" s="11"/>
-      <c r="CR124" s="11"/>
-      <c r="CS124" s="11"/>
+      <c r="CP124" s="23">
+        <v>1.6514488175587445</v>
+      </c>
+      <c r="CQ124" s="23"/>
+      <c r="CR124" s="23"/>
+      <c r="CS124" s="23"/>
+      <c r="CT124" s="23"/>
     </row>
-    <row r="125" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -45001,12 +45433,15 @@
       <c r="CO125" s="11">
         <v>-1.6134214225068035</v>
       </c>
-      <c r="CP125" s="11"/>
-      <c r="CQ125" s="11"/>
-      <c r="CR125" s="11"/>
-      <c r="CS125" s="11"/>
+      <c r="CP125" s="23">
+        <v>-3.3059055411973475</v>
+      </c>
+      <c r="CQ125" s="23"/>
+      <c r="CR125" s="23"/>
+      <c r="CS125" s="23"/>
+      <c r="CT125" s="23"/>
     </row>
-    <row r="126" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -45286,12 +45721,15 @@
       <c r="CO126" s="11">
         <v>12.912560083482646</v>
       </c>
-      <c r="CP126" s="11"/>
-      <c r="CQ126" s="11"/>
-      <c r="CR126" s="11"/>
-      <c r="CS126" s="11"/>
+      <c r="CP126" s="23">
+        <v>18.154966460891231</v>
+      </c>
+      <c r="CQ126" s="23"/>
+      <c r="CR126" s="23"/>
+      <c r="CS126" s="23"/>
+      <c r="CT126" s="23"/>
     </row>
-    <row r="127" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -45569,14 +46007,17 @@
         <v>0.20327229563254434</v>
       </c>
       <c r="CO127" s="11">
-        <v>-0.21731988254074963</v>
-      </c>
-      <c r="CP127" s="11"/>
-      <c r="CQ127" s="11"/>
-      <c r="CR127" s="11"/>
-      <c r="CS127" s="11"/>
+        <v>-0.21731987767523719</v>
+      </c>
+      <c r="CP127" s="23">
+        <v>-4.5079775164816169</v>
+      </c>
+      <c r="CQ127" s="23"/>
+      <c r="CR127" s="23"/>
+      <c r="CS127" s="23"/>
+      <c r="CT127" s="23"/>
     </row>
-    <row r="128" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -45856,12 +46297,15 @@
       <c r="CO128" s="11">
         <v>7.7716339893407707</v>
       </c>
-      <c r="CP128" s="11"/>
-      <c r="CQ128" s="11"/>
-      <c r="CR128" s="11"/>
-      <c r="CS128" s="11"/>
+      <c r="CP128" s="23">
+        <v>3.2972490911690358</v>
+      </c>
+      <c r="CQ128" s="23"/>
+      <c r="CR128" s="23"/>
+      <c r="CS128" s="23"/>
+      <c r="CT128" s="23"/>
     </row>
-    <row r="129" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -46127,7 +46571,7 @@
         <v>4.2006800414762893</v>
       </c>
       <c r="CK129" s="11">
-        <v>5.595813956014652</v>
+        <v>5.5958139560146236</v>
       </c>
       <c r="CL129" s="11">
         <v>-3.9408382556680408</v>
@@ -46139,14 +46583,17 @@
         <v>3.5257207712991772</v>
       </c>
       <c r="CO129" s="11">
-        <v>0.27816013904835302</v>
-      </c>
-      <c r="CP129" s="11"/>
-      <c r="CQ129" s="11"/>
-      <c r="CR129" s="11"/>
-      <c r="CS129" s="11"/>
+        <v>0.27816013904838144</v>
+      </c>
+      <c r="CP129" s="23">
+        <v>1.0305784593574998</v>
+      </c>
+      <c r="CQ129" s="23"/>
+      <c r="CR129" s="23"/>
+      <c r="CS129" s="23"/>
+      <c r="CT129" s="23"/>
     </row>
-    <row r="130" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -46426,12 +46873,15 @@
       <c r="CO130" s="11">
         <v>-1.6544622908322708</v>
       </c>
-      <c r="CP130" s="11"/>
-      <c r="CQ130" s="11"/>
-      <c r="CR130" s="11"/>
-      <c r="CS130" s="11"/>
+      <c r="CP130" s="23">
+        <v>24.511370705111446</v>
+      </c>
+      <c r="CQ130" s="23"/>
+      <c r="CR130" s="23"/>
+      <c r="CS130" s="23"/>
+      <c r="CT130" s="23"/>
     </row>
-    <row r="131" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -46711,12 +47161,15 @@
       <c r="CO131" s="11">
         <v>-2.4711567905984282</v>
       </c>
-      <c r="CP131" s="11"/>
-      <c r="CQ131" s="11"/>
-      <c r="CR131" s="11"/>
-      <c r="CS131" s="11"/>
+      <c r="CP131" s="23">
+        <v>-8.8002511890240385</v>
+      </c>
+      <c r="CQ131" s="23"/>
+      <c r="CR131" s="23"/>
+      <c r="CS131" s="23"/>
+      <c r="CT131" s="23"/>
     </row>
-    <row r="132" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -46996,12 +47449,15 @@
       <c r="CO132" s="11">
         <v>-7.4510537196030384</v>
       </c>
-      <c r="CP132" s="11"/>
-      <c r="CQ132" s="11"/>
-      <c r="CR132" s="11"/>
-      <c r="CS132" s="11"/>
+      <c r="CP132" s="23">
+        <v>1.0341123143178237</v>
+      </c>
+      <c r="CQ132" s="23"/>
+      <c r="CR132" s="23"/>
+      <c r="CS132" s="23"/>
+      <c r="CT132" s="23"/>
     </row>
-    <row r="133" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -47281,12 +47737,15 @@
       <c r="CO133" s="11">
         <v>3.5024057984051353</v>
       </c>
-      <c r="CP133" s="11"/>
-      <c r="CQ133" s="11"/>
-      <c r="CR133" s="11"/>
-      <c r="CS133" s="11"/>
+      <c r="CP133" s="23">
+        <v>3.3028667329860326</v>
+      </c>
+      <c r="CQ133" s="23"/>
+      <c r="CR133" s="23"/>
+      <c r="CS133" s="23"/>
+      <c r="CT133" s="23"/>
     </row>
-    <row r="134" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -47552,7 +48011,7 @@
         <v>17.176935232129708</v>
       </c>
       <c r="CK134" s="11">
-        <v>2.8895328248791543</v>
+        <v>2.8895328248791827</v>
       </c>
       <c r="CL134" s="11">
         <v>3.6245510123515743</v>
@@ -47564,14 +48023,17 @@
         <v>-5.6366968777537068</v>
       </c>
       <c r="CO134" s="11">
-        <v>4.0159732839336755</v>
-      </c>
-      <c r="CP134" s="11"/>
-      <c r="CQ134" s="11"/>
-      <c r="CR134" s="11"/>
-      <c r="CS134" s="11"/>
+        <v>4.0159732839336328</v>
+      </c>
+      <c r="CP134" s="23">
+        <v>-0.8655326358754678</v>
+      </c>
+      <c r="CQ134" s="23"/>
+      <c r="CR134" s="23"/>
+      <c r="CS134" s="23"/>
+      <c r="CT134" s="23"/>
     </row>
-    <row r="135" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -47851,12 +48313,15 @@
       <c r="CO135" s="11">
         <v>1.4391487246057579</v>
       </c>
-      <c r="CP135" s="11"/>
-      <c r="CQ135" s="11"/>
-      <c r="CR135" s="11"/>
-      <c r="CS135" s="11"/>
+      <c r="CP135" s="23">
+        <v>9.5320379139531894</v>
+      </c>
+      <c r="CQ135" s="23"/>
+      <c r="CR135" s="23"/>
+      <c r="CS135" s="23"/>
+      <c r="CT135" s="23"/>
     </row>
-    <row r="136" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -48122,7 +48587,7 @@
         <v>1.0886932326595229</v>
       </c>
       <c r="CK136" s="11">
-        <v>0.15767647966600862</v>
+        <v>0.95136771100239059</v>
       </c>
       <c r="CL136" s="11">
         <v>1.0928465609175078</v>
@@ -48134,14 +48599,17 @@
         <v>-4.980660223471773</v>
       </c>
       <c r="CO136" s="11">
-        <v>-0.55087679457351157</v>
-      </c>
-      <c r="CP136" s="11"/>
-      <c r="CQ136" s="11"/>
-      <c r="CR136" s="11"/>
-      <c r="CS136" s="11"/>
+        <v>-1.7092495541837422</v>
+      </c>
+      <c r="CP136" s="23">
+        <v>2.8994797023447205</v>
+      </c>
+      <c r="CQ136" s="23"/>
+      <c r="CR136" s="23"/>
+      <c r="CS136" s="23"/>
+      <c r="CT136" s="23"/>
     </row>
-    <row r="137" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -48416,17 +48884,20 @@
         <v>1.5562310497868452</v>
       </c>
       <c r="CN137" s="11">
-        <v>2.7002480348062221</v>
+        <v>2.7195441525267938</v>
       </c>
       <c r="CO137" s="11">
-        <v>2.6861520392546794</v>
-      </c>
-      <c r="CP137" s="11"/>
-      <c r="CQ137" s="11"/>
-      <c r="CR137" s="11"/>
-      <c r="CS137" s="11"/>
+        <v>2.6834122525935413</v>
+      </c>
+      <c r="CP137" s="23">
+        <v>-3.5021570520441969</v>
+      </c>
+      <c r="CQ137" s="23"/>
+      <c r="CR137" s="23"/>
+      <c r="CS137" s="23"/>
+      <c r="CT137" s="23"/>
     </row>
-    <row r="138" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -48706,12 +49177,15 @@
       <c r="CO138" s="11">
         <v>7.7811211939173006</v>
       </c>
-      <c r="CP138" s="11"/>
-      <c r="CQ138" s="11"/>
-      <c r="CR138" s="11"/>
-      <c r="CS138" s="11"/>
+      <c r="CP138" s="23">
+        <v>5.8455952227993322</v>
+      </c>
+      <c r="CQ138" s="23"/>
+      <c r="CR138" s="23"/>
+      <c r="CS138" s="23"/>
+      <c r="CT138" s="23"/>
     </row>
-    <row r="139" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -48991,12 +49465,15 @@
       <c r="CO139" s="11">
         <v>5.3105426683176802</v>
       </c>
-      <c r="CP139" s="11"/>
-      <c r="CQ139" s="11"/>
-      <c r="CR139" s="11"/>
-      <c r="CS139" s="11"/>
+      <c r="CP139" s="23">
+        <v>1.2570698425536904</v>
+      </c>
+      <c r="CQ139" s="23"/>
+      <c r="CR139" s="23"/>
+      <c r="CS139" s="23"/>
+      <c r="CT139" s="23"/>
     </row>
-    <row r="140" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -49253,35 +49730,38 @@
         <v>-14.122010188660397</v>
       </c>
       <c r="CH140" s="11">
-        <v>12.188933799558683</v>
+        <v>12.235508600740673</v>
       </c>
       <c r="CI140" s="11">
-        <v>-14.326990475492678</v>
+        <v>-14.569929509568226</v>
       </c>
       <c r="CJ140" s="11">
-        <v>5.1584851299894154</v>
+        <v>5.7971426177940657</v>
       </c>
       <c r="CK140" s="11">
-        <v>-11.879161885810305</v>
+        <v>-0.51536187067186745</v>
       </c>
       <c r="CL140" s="11">
-        <v>-46.606505758392167</v>
+        <v>-46.43364314100441</v>
       </c>
       <c r="CM140" s="11">
-        <v>-19.960181631561923</v>
+        <v>-18.935318755274849</v>
       </c>
       <c r="CN140" s="11">
-        <v>-7.1637312608101809</v>
+        <v>-6.6619715704008371</v>
       </c>
       <c r="CO140" s="11">
-        <v>-10.204776307383412</v>
-      </c>
-      <c r="CP140" s="11"/>
-      <c r="CQ140" s="11"/>
-      <c r="CR140" s="11"/>
-      <c r="CS140" s="11"/>
+        <v>-7.3626482502718034</v>
+      </c>
+      <c r="CP140" s="23">
+        <v>38.703572282299916</v>
+      </c>
+      <c r="CQ140" s="23"/>
+      <c r="CR140" s="23"/>
+      <c r="CS140" s="23"/>
+      <c r="CT140" s="23"/>
     </row>
-    <row r="141" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -49553,20 +50033,23 @@
         <v>0.60179286974442903</v>
       </c>
       <c r="CM141" s="11">
-        <v>-13.260477140436222</v>
+        <v>-13.260921447911656</v>
       </c>
       <c r="CN141" s="11">
-        <v>-4.1086918656674953</v>
+        <v>-4.1166019833216154</v>
       </c>
       <c r="CO141" s="11">
-        <v>-5.2037177831791723</v>
-      </c>
-      <c r="CP141" s="11"/>
-      <c r="CQ141" s="11"/>
-      <c r="CR141" s="11"/>
-      <c r="CS141" s="11"/>
+        <v>-5.306623277010047</v>
+      </c>
+      <c r="CP141" s="23">
+        <v>-1.0095855028002347</v>
+      </c>
+      <c r="CQ141" s="23"/>
+      <c r="CR141" s="23"/>
+      <c r="CS141" s="23"/>
+      <c r="CT141" s="23"/>
     </row>
-    <row r="142" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -49829,7 +50312,7 @@
         <v>4.6767933738564409</v>
       </c>
       <c r="CJ142" s="11">
-        <v>4.027100847874479</v>
+        <v>4.0271008478744932</v>
       </c>
       <c r="CK142" s="11">
         <v>3.7755543920010979</v>
@@ -49841,18 +50324,21 @@
         <v>3.6400956448746342</v>
       </c>
       <c r="CN142" s="11">
-        <v>4.2205108384205374</v>
+        <v>4.2205108384205232</v>
       </c>
       <c r="CO142" s="11">
-        <v>6.9256609567594154</v>
-      </c>
-      <c r="CP142" s="11"/>
-      <c r="CQ142" s="11"/>
-      <c r="CR142" s="11"/>
-      <c r="CS142" s="11"/>
+        <v>6.9256609535229785</v>
+      </c>
+      <c r="CP142" s="23">
+        <v>1.7985896041710703</v>
+      </c>
+      <c r="CQ142" s="23"/>
+      <c r="CR142" s="23"/>
+      <c r="CS142" s="23"/>
+      <c r="CT142" s="23"/>
     </row>
-    <row r="143" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -50109,35 +50595,38 @@
         <v>1.409471734185999</v>
       </c>
       <c r="CH144" s="11">
-        <v>0.1827736875249002</v>
+        <v>0.18285339265288769</v>
       </c>
       <c r="CI144" s="11">
-        <v>0.22236550221728635</v>
+        <v>0.22189220124890596</v>
       </c>
       <c r="CJ144" s="11">
-        <v>2.1099275237402253</v>
+        <v>2.1120089795257968</v>
       </c>
       <c r="CK144" s="11">
-        <v>-0.34722986491927088</v>
+        <v>-0.30377777203885614</v>
       </c>
       <c r="CL144" s="11">
-        <v>2.2401954730820677</v>
+        <v>2.2404880266257265</v>
       </c>
       <c r="CM144" s="11">
-        <v>0.20386316084042733</v>
+        <v>0.205608356442184</v>
       </c>
       <c r="CN144" s="11">
-        <v>0.92887798340362338</v>
+        <v>0.93110554404726997</v>
       </c>
       <c r="CO144" s="11">
-        <v>1.3627478802922468</v>
-      </c>
-      <c r="CP144" s="11"/>
-      <c r="CQ144" s="11"/>
-      <c r="CR144" s="11"/>
-      <c r="CS144" s="11"/>
+        <v>1.2915187546246614</v>
+      </c>
+      <c r="CP144" s="23">
+        <v>0.3821660310167232</v>
+      </c>
+      <c r="CQ144" s="23"/>
+      <c r="CR144" s="23"/>
+      <c r="CS144" s="23"/>
+      <c r="CT144" s="23"/>
     </row>
-    <row r="145" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -50231,193 +50720,239 @@
       <c r="CM145" s="10"/>
       <c r="CN145" s="10"/>
       <c r="CO145" s="10"/>
-      <c r="CP145" s="10"/>
-      <c r="CQ145" s="10"/>
-      <c r="CR145" s="10"/>
-      <c r="CS145" s="10"/>
+      <c r="CP145" s="20"/>
+      <c r="CQ145" s="20"/>
+      <c r="CR145" s="20"/>
+      <c r="CS145" s="20"/>
+      <c r="CT145" s="20"/>
     </row>
-    <row r="146" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP146" s="14"/>
+      <c r="CQ146" s="14"/>
+      <c r="CR146" s="14"/>
+      <c r="CS146" s="14"/>
+      <c r="CT146" s="14"/>
     </row>
-    <row r="147" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP149" s="14"/>
+      <c r="CQ149" s="14"/>
+      <c r="CR149" s="14"/>
+      <c r="CS149" s="14"/>
+      <c r="CT149" s="14"/>
     </row>
-    <row r="150" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP150" s="14"/>
+      <c r="CQ150" s="14"/>
+      <c r="CR150" s="14"/>
+      <c r="CS150" s="14"/>
+      <c r="CT150" s="14"/>
     </row>
-    <row r="151" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP151" s="14"/>
+      <c r="CQ151" s="14"/>
+      <c r="CR151" s="14"/>
+      <c r="CS151" s="14"/>
+      <c r="CT151" s="14"/>
+    </row>
+    <row r="152" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="CP152" s="14"/>
+      <c r="CQ152" s="14"/>
+      <c r="CR152" s="14"/>
+      <c r="CS152" s="14"/>
+      <c r="CT152" s="14"/>
     </row>
-    <row r="153" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="CP153" s="14"/>
+      <c r="CQ153" s="14"/>
+      <c r="CR153" s="14"/>
+      <c r="CS153" s="14"/>
+      <c r="CT153" s="14"/>
     </row>
-    <row r="154" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="CP154" s="14"/>
+      <c r="CQ154" s="14"/>
+      <c r="CR154" s="14"/>
+      <c r="CS154" s="14"/>
+      <c r="CT154" s="14"/>
     </row>
-    <row r="155" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP155" s="14"/>
+      <c r="CQ155" s="14"/>
+      <c r="CR155" s="14"/>
+      <c r="CS155" s="14"/>
+      <c r="CT155" s="14"/>
+    </row>
+    <row r="156" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="16">
+      <c r="B156" s="25">
         <v>2000</v>
       </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16">
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25">
         <v>2001</v>
       </c>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
-      <c r="I156" s="16"/>
-      <c r="J156" s="16">
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25">
         <v>2002</v>
       </c>
-      <c r="K156" s="16"/>
-      <c r="L156" s="16"/>
-      <c r="M156" s="16"/>
-      <c r="N156" s="16">
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25">
         <v>2003</v>
       </c>
-      <c r="O156" s="16"/>
-      <c r="P156" s="16"/>
-      <c r="Q156" s="16"/>
-      <c r="R156" s="16">
+      <c r="O156" s="25"/>
+      <c r="P156" s="25"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25">
         <v>2004</v>
       </c>
-      <c r="S156" s="16"/>
-      <c r="T156" s="16"/>
-      <c r="U156" s="16"/>
-      <c r="V156" s="16">
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="25">
         <v>2005</v>
       </c>
-      <c r="W156" s="16"/>
-      <c r="X156" s="16"/>
-      <c r="Y156" s="16"/>
-      <c r="Z156" s="16">
+      <c r="W156" s="25"/>
+      <c r="X156" s="25"/>
+      <c r="Y156" s="25"/>
+      <c r="Z156" s="25">
         <v>2006</v>
       </c>
-      <c r="AA156" s="16"/>
-      <c r="AB156" s="16"/>
-      <c r="AC156" s="16"/>
-      <c r="AD156" s="16">
+      <c r="AA156" s="25"/>
+      <c r="AB156" s="25"/>
+      <c r="AC156" s="25"/>
+      <c r="AD156" s="25">
         <v>2007</v>
       </c>
-      <c r="AE156" s="16"/>
-      <c r="AF156" s="16"/>
-      <c r="AG156" s="16"/>
-      <c r="AH156" s="16">
+      <c r="AE156" s="25"/>
+      <c r="AF156" s="25"/>
+      <c r="AG156" s="25"/>
+      <c r="AH156" s="25">
         <v>2008</v>
       </c>
-      <c r="AI156" s="16"/>
-      <c r="AJ156" s="16"/>
-      <c r="AK156" s="16"/>
-      <c r="AL156" s="16">
+      <c r="AI156" s="25"/>
+      <c r="AJ156" s="25"/>
+      <c r="AK156" s="25"/>
+      <c r="AL156" s="25">
         <v>2009</v>
       </c>
-      <c r="AM156" s="16"/>
-      <c r="AN156" s="16"/>
-      <c r="AO156" s="16"/>
-      <c r="AP156" s="16">
+      <c r="AM156" s="25"/>
+      <c r="AN156" s="25"/>
+      <c r="AO156" s="25"/>
+      <c r="AP156" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ156" s="16"/>
-      <c r="AR156" s="16"/>
-      <c r="AS156" s="16"/>
-      <c r="AT156" s="16">
+      <c r="AQ156" s="25"/>
+      <c r="AR156" s="25"/>
+      <c r="AS156" s="25"/>
+      <c r="AT156" s="25">
         <v>2011</v>
       </c>
-      <c r="AU156" s="16"/>
-      <c r="AV156" s="16"/>
-      <c r="AW156" s="16"/>
-      <c r="AX156" s="16">
+      <c r="AU156" s="25"/>
+      <c r="AV156" s="25"/>
+      <c r="AW156" s="25"/>
+      <c r="AX156" s="25">
         <v>2012</v>
       </c>
-      <c r="AY156" s="16"/>
-      <c r="AZ156" s="16"/>
-      <c r="BA156" s="16"/>
-      <c r="BB156" s="16">
+      <c r="AY156" s="25"/>
+      <c r="AZ156" s="25"/>
+      <c r="BA156" s="25"/>
+      <c r="BB156" s="25">
         <v>2013</v>
       </c>
-      <c r="BC156" s="16"/>
-      <c r="BD156" s="16"/>
-      <c r="BE156" s="16"/>
-      <c r="BF156" s="16">
+      <c r="BC156" s="25"/>
+      <c r="BD156" s="25"/>
+      <c r="BE156" s="25"/>
+      <c r="BF156" s="25">
         <v>2014</v>
       </c>
-      <c r="BG156" s="16"/>
-      <c r="BH156" s="16"/>
-      <c r="BI156" s="16"/>
-      <c r="BJ156" s="16">
+      <c r="BG156" s="25"/>
+      <c r="BH156" s="25"/>
+      <c r="BI156" s="25"/>
+      <c r="BJ156" s="25">
         <v>2015</v>
       </c>
-      <c r="BK156" s="16"/>
-      <c r="BL156" s="16"/>
-      <c r="BM156" s="16"/>
-      <c r="BN156" s="16">
+      <c r="BK156" s="25"/>
+      <c r="BL156" s="25"/>
+      <c r="BM156" s="25"/>
+      <c r="BN156" s="25">
         <v>2016</v>
       </c>
-      <c r="BO156" s="16"/>
-      <c r="BP156" s="16"/>
-      <c r="BQ156" s="16"/>
-      <c r="BR156" s="16">
+      <c r="BO156" s="25"/>
+      <c r="BP156" s="25"/>
+      <c r="BQ156" s="25"/>
+      <c r="BR156" s="25">
         <v>2017</v>
       </c>
-      <c r="BS156" s="16"/>
-      <c r="BT156" s="16"/>
-      <c r="BU156" s="16"/>
-      <c r="BV156" s="16">
+      <c r="BS156" s="25"/>
+      <c r="BT156" s="25"/>
+      <c r="BU156" s="25"/>
+      <c r="BV156" s="25">
         <v>2018</v>
       </c>
-      <c r="BW156" s="16"/>
-      <c r="BX156" s="16"/>
-      <c r="BY156" s="16"/>
-      <c r="BZ156" s="16">
+      <c r="BW156" s="25"/>
+      <c r="BX156" s="25"/>
+      <c r="BY156" s="25"/>
+      <c r="BZ156" s="25">
         <v>2019</v>
       </c>
-      <c r="CA156" s="16"/>
-      <c r="CB156" s="16"/>
-      <c r="CC156" s="16"/>
-      <c r="CD156" s="16">
+      <c r="CA156" s="25"/>
+      <c r="CB156" s="25"/>
+      <c r="CC156" s="25"/>
+      <c r="CD156" s="25">
         <v>2020</v>
       </c>
-      <c r="CE156" s="16"/>
-      <c r="CF156" s="16"/>
-      <c r="CG156" s="16"/>
-      <c r="CH156" s="16">
+      <c r="CE156" s="25"/>
+      <c r="CF156" s="25"/>
+      <c r="CG156" s="25"/>
+      <c r="CH156" s="13">
         <v>2021</v>
       </c>
-      <c r="CI156" s="16"/>
-      <c r="CJ156" s="16"/>
-      <c r="CK156" s="16"/>
-      <c r="CL156" s="14">
+      <c r="CI156" s="13"/>
+      <c r="CJ156" s="13"/>
+      <c r="CK156" s="13"/>
+      <c r="CL156" s="13">
         <v>2022</v>
       </c>
-      <c r="CM156" s="14"/>
-      <c r="CN156" s="14"/>
-      <c r="CO156" s="14"/>
-      <c r="CP156" s="14">
+      <c r="CM156" s="13"/>
+      <c r="CN156" s="13"/>
+      <c r="CO156" s="13"/>
+      <c r="CP156" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ156" s="14"/>
-      <c r="CR156" s="14"/>
-      <c r="CS156" s="14"/>
+      <c r="CQ156" s="15"/>
+      <c r="CR156" s="15"/>
+      <c r="CS156" s="15"/>
+      <c r="CT156" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="157" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -50697,23 +51232,31 @@
       <c r="CO157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP157" s="4" t="s">
+      <c r="CP157" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CQ157" s="4" t="s">
+      <c r="CQ157" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CR157" s="4" t="s">
+      <c r="CR157" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="CS157" s="4" t="s">
+      <c r="CS157" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="CT157" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="158" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
+      <c r="CP158" s="14"/>
+      <c r="CQ158" s="14"/>
+      <c r="CR158" s="14"/>
+      <c r="CS158" s="14"/>
+      <c r="CT158" s="14"/>
     </row>
-    <row r="159" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -50993,20 +51536,23 @@
       <c r="CO159" s="11">
         <v>100.56783238712144</v>
       </c>
-      <c r="CP159" s="11">
+      <c r="CP159" s="23">
         <v>98.700030882004981</v>
       </c>
-      <c r="CQ159" s="11">
+      <c r="CQ159" s="23">
         <v>98.540770718960474</v>
       </c>
-      <c r="CR159" s="11">
-        <v>99.651778705245619</v>
-      </c>
-      <c r="CS159" s="11">
+      <c r="CR159" s="23">
+        <v>99.651778705245633</v>
+      </c>
+      <c r="CS159" s="23">
         <v>125.43407574946721</v>
       </c>
+      <c r="CT159" s="23">
+        <v>138.76331666146154</v>
+      </c>
     </row>
-    <row r="160" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -51286,20 +51832,23 @@
       <c r="CO160" s="11">
         <v>133.23735029254144</v>
       </c>
-      <c r="CP160" s="11">
+      <c r="CP160" s="23">
         <v>142.33193548241709</v>
       </c>
-      <c r="CQ160" s="11">
+      <c r="CQ160" s="23">
         <v>124.9119771422922</v>
       </c>
-      <c r="CR160" s="11">
+      <c r="CR160" s="23">
         <v>126.11854795403561</v>
       </c>
-      <c r="CS160" s="11">
+      <c r="CS160" s="23">
         <v>134.89633972462349</v>
       </c>
+      <c r="CT160" s="23">
+        <v>127.92420232170907</v>
+      </c>
     </row>
-    <row r="161" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -51579,20 +52128,23 @@
       <c r="CO161" s="11">
         <v>86.842260490065811</v>
       </c>
-      <c r="CP161" s="11">
+      <c r="CP161" s="23">
         <v>75.435445177021961</v>
       </c>
-      <c r="CQ161" s="11">
+      <c r="CQ161" s="23">
         <v>119.6366978787935</v>
       </c>
-      <c r="CR161" s="11">
+      <c r="CR161" s="23">
         <v>163.02737557763416</v>
       </c>
-      <c r="CS161" s="11">
-        <v>84.355180198373432</v>
+      <c r="CS161" s="23">
+        <v>84.355180199927418</v>
+      </c>
+      <c r="CT161" s="23">
+        <v>93.399004636029119</v>
       </c>
     </row>
-    <row r="162" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -51872,20 +52424,23 @@
       <c r="CO162" s="11">
         <v>249.7539872412346</v>
       </c>
-      <c r="CP162" s="11">
+      <c r="CP162" s="23">
         <v>145.40257032935455</v>
       </c>
-      <c r="CQ162" s="11">
+      <c r="CQ162" s="23">
         <v>111.73466091413064</v>
       </c>
-      <c r="CR162" s="11">
+      <c r="CR162" s="23">
         <v>320.63053182187991</v>
       </c>
-      <c r="CS162" s="11">
+      <c r="CS162" s="23">
         <v>203.09527102575453</v>
       </c>
+      <c r="CT162" s="23">
+        <v>126.20077752959982</v>
+      </c>
     </row>
-    <row r="163" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -52165,20 +52720,23 @@
       <c r="CO163" s="11">
         <v>104.79177219310614</v>
       </c>
-      <c r="CP163" s="11">
+      <c r="CP163" s="23">
         <v>113.69195947778216</v>
       </c>
-      <c r="CQ163" s="11">
+      <c r="CQ163" s="23">
         <v>110.39342783673179</v>
       </c>
-      <c r="CR163" s="11">
+      <c r="CR163" s="23">
         <v>111.36549748775589</v>
       </c>
-      <c r="CS163" s="11">
-        <v>113.07891882576509</v>
+      <c r="CS163" s="23">
+        <v>113.07891881875152</v>
+      </c>
+      <c r="CT163" s="23">
+        <v>134.8666302243131</v>
       </c>
     </row>
-    <row r="164" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -52458,20 +53016,23 @@
       <c r="CO164" s="11">
         <v>131.29527970664617</v>
       </c>
-      <c r="CP164" s="11">
+      <c r="CP164" s="23">
         <v>110.16983236501309</v>
       </c>
-      <c r="CQ164" s="11">
+      <c r="CQ164" s="23">
         <v>116.70927471245835</v>
       </c>
-      <c r="CR164" s="11">
+      <c r="CR164" s="23">
         <v>127.13654573899697</v>
       </c>
-      <c r="CS164" s="11">
-        <v>140.89944483759905</v>
+      <c r="CS164" s="23">
+        <v>140.89944483106024</v>
+      </c>
+      <c r="CT164" s="23">
+        <v>106.48250947568974</v>
       </c>
     </row>
-    <row r="165" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -52749,22 +53310,25 @@
         <v>132.06207587793227</v>
       </c>
       <c r="CO165" s="11">
-        <v>107.66340816842165</v>
-      </c>
-      <c r="CP165" s="11">
+        <v>107.66340816842168</v>
+      </c>
+      <c r="CP165" s="23">
         <v>95.977652306530331</v>
       </c>
-      <c r="CQ165" s="11">
+      <c r="CQ165" s="23">
         <v>78.777479194637991</v>
       </c>
-      <c r="CR165" s="11">
+      <c r="CR165" s="23">
         <v>152.02201641922946</v>
       </c>
-      <c r="CS165" s="11">
-        <v>130.04536863498629</v>
+      <c r="CS165" s="23">
+        <v>130.04536862965404</v>
+      </c>
+      <c r="CT165" s="23">
+        <v>141.27298756138512</v>
       </c>
     </row>
-    <row r="166" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -53044,20 +53608,23 @@
       <c r="CO166" s="11">
         <v>128.61818386627763</v>
       </c>
-      <c r="CP166" s="11">
+      <c r="CP166" s="23">
         <v>82.948627909358365</v>
       </c>
-      <c r="CQ166" s="11">
+      <c r="CQ166" s="23">
         <v>116.27336869946274</v>
       </c>
-      <c r="CR166" s="11">
+      <c r="CR166" s="23">
         <v>97.221067835170984</v>
       </c>
-      <c r="CS166" s="11">
-        <v>171.74135185017653</v>
+      <c r="CS166" s="23">
+        <v>171.74135184343751</v>
+      </c>
+      <c r="CT166" s="23">
+        <v>118.73623372952235</v>
       </c>
     </row>
-    <row r="167" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -53337,20 +53904,23 @@
       <c r="CO167" s="11">
         <v>144.42748956708922</v>
       </c>
-      <c r="CP167" s="11">
+      <c r="CP167" s="23">
         <v>111.22801650405492</v>
       </c>
-      <c r="CQ167" s="11">
+      <c r="CQ167" s="23">
         <v>112.00775504870342</v>
       </c>
-      <c r="CR167" s="11">
+      <c r="CR167" s="23">
         <v>181.63655974303538</v>
       </c>
-      <c r="CS167" s="11">
-        <v>172.11104501079947</v>
+      <c r="CS167" s="23">
+        <v>172.11104501821501</v>
+      </c>
+      <c r="CT167" s="23">
+        <v>162.35440458783555</v>
       </c>
     </row>
-    <row r="168" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -53630,20 +54200,23 @@
       <c r="CO168" s="11">
         <v>100.36642472703818</v>
       </c>
-      <c r="CP168" s="11">
+      <c r="CP168" s="23">
         <v>129.31663746103504</v>
       </c>
-      <c r="CQ168" s="11">
+      <c r="CQ168" s="23">
         <v>87.372302654396407</v>
       </c>
-      <c r="CR168" s="11">
+      <c r="CR168" s="23">
         <v>101.15504871382075</v>
       </c>
-      <c r="CS168" s="11">
+      <c r="CS168" s="23">
         <v>105.44574823035666</v>
       </c>
+      <c r="CT168" s="23">
+        <v>138.78497894575915</v>
+      </c>
     </row>
-    <row r="169" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -53923,20 +54496,23 @@
       <c r="CO169" s="11">
         <v>102.13499202630818</v>
       </c>
-      <c r="CP169" s="11">
+      <c r="CP169" s="23">
         <v>81.479665889429214</v>
       </c>
-      <c r="CQ169" s="11">
+      <c r="CQ169" s="23">
         <v>72.679946728422991</v>
       </c>
-      <c r="CR169" s="11">
+      <c r="CR169" s="23">
         <v>138.7374186458473</v>
       </c>
-      <c r="CS169" s="11">
-        <v>119.38579801901201</v>
+      <c r="CS169" s="23">
+        <v>119.38579802043144</v>
+      </c>
+      <c r="CT169" s="23">
+        <v>77.270503712934484</v>
       </c>
     </row>
-    <row r="170" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -54214,22 +54790,25 @@
         <v>139.18033193760283</v>
       </c>
       <c r="CO170" s="11">
-        <v>114.61111970560565</v>
-      </c>
-      <c r="CP170" s="11">
+        <v>114.61111970560556</v>
+      </c>
+      <c r="CP170" s="23">
         <v>77.431527062971725</v>
       </c>
-      <c r="CQ170" s="11">
+      <c r="CQ170" s="23">
         <v>54.279146916698295</v>
       </c>
-      <c r="CR170" s="11">
+      <c r="CR170" s="23">
         <v>124.90152270399237</v>
       </c>
-      <c r="CS170" s="11">
-        <v>105.60111206149946</v>
+      <c r="CS170" s="23">
+        <v>105.60111206149938</v>
+      </c>
+      <c r="CT170" s="23">
+        <v>89.669358382512897</v>
       </c>
     </row>
-    <row r="171" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -54509,20 +55088,23 @@
       <c r="CO171" s="11">
         <v>84.57084618519805</v>
       </c>
-      <c r="CP171" s="11">
+      <c r="CP171" s="23">
         <v>63.804519736449073</v>
       </c>
-      <c r="CQ171" s="11">
+      <c r="CQ171" s="23">
         <v>54.202902921944464</v>
       </c>
-      <c r="CR171" s="11">
+      <c r="CR171" s="23">
         <v>217.094260030416</v>
       </c>
-      <c r="CS171" s="11">
+      <c r="CS171" s="23">
         <v>144.77247024302946</v>
       </c>
+      <c r="CT171" s="23">
+        <v>80.606811272298145</v>
+      </c>
     </row>
-    <row r="172" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -54800,22 +55382,25 @@
         <v>146.09928053966718</v>
       </c>
       <c r="CO172" s="11">
-        <v>129.29170775619843</v>
-      </c>
-      <c r="CP172" s="11">
+        <v>129.29174669848803</v>
+      </c>
+      <c r="CP172" s="23">
         <v>142.18209853732225</v>
       </c>
-      <c r="CQ172" s="11">
+      <c r="CQ172" s="23">
         <v>90.182180740004497</v>
       </c>
-      <c r="CR172" s="11">
+      <c r="CR172" s="23">
         <v>168.99776341447003</v>
       </c>
-      <c r="CS172" s="11">
-        <v>138.89879432733338</v>
+      <c r="CS172" s="23">
+        <v>138.89877330300763</v>
+      </c>
+      <c r="CT172" s="23">
+        <v>122.81079252752809</v>
       </c>
     </row>
-    <row r="173" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -55095,20 +55680,23 @@
       <c r="CO173" s="11">
         <v>166.74874753350863</v>
       </c>
-      <c r="CP173" s="11">
+      <c r="CP173" s="23">
         <v>148.430825637086</v>
       </c>
-      <c r="CQ173" s="11">
+      <c r="CQ173" s="23">
         <v>162.11299239268288</v>
       </c>
-      <c r="CR173" s="11">
-        <v>158.80277473780885</v>
-      </c>
-      <c r="CS173" s="11">
-        <v>176.5546023833316</v>
+      <c r="CR173" s="23">
+        <v>158.83281933621382</v>
+      </c>
+      <c r="CS173" s="23">
+        <v>176.54944237933387</v>
+      </c>
+      <c r="CT173" s="23">
+        <v>157.18242313093421</v>
       </c>
     </row>
-    <row r="174" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -55386,22 +55974,25 @@
         <v>123.89214229630045</v>
       </c>
       <c r="CO174" s="11">
-        <v>124.66300284180976</v>
-      </c>
-      <c r="CP174" s="11">
+        <v>125.50555009351372</v>
+      </c>
+      <c r="CP174" s="23">
         <v>164.54402142008152</v>
       </c>
-      <c r="CQ174" s="11">
+      <c r="CQ174" s="23">
         <v>119.61690329955267</v>
       </c>
-      <c r="CR174" s="11">
-        <v>120.81937873409687</v>
-      </c>
-      <c r="CS174" s="11">
-        <v>125.94386091398397</v>
+      <c r="CR174" s="23">
+        <v>120.81937873409684</v>
+      </c>
+      <c r="CS174" s="23">
+        <v>126.7947876036275</v>
+      </c>
+      <c r="CT174" s="23">
+        <v>160.38782548849184</v>
       </c>
     </row>
-    <row r="175" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -55681,20 +56272,23 @@
       <c r="CO175" s="11">
         <v>116.43679225578236</v>
       </c>
-      <c r="CP175" s="11">
-        <v>114.46901669412171</v>
-      </c>
-      <c r="CQ175" s="11">
+      <c r="CP175" s="23">
+        <v>114.46901669412166</v>
+      </c>
+      <c r="CQ175" s="23">
         <v>83.030444541309649</v>
       </c>
-      <c r="CR175" s="11">
+      <c r="CR175" s="23">
         <v>97.493865494194864</v>
       </c>
-      <c r="CS175" s="11">
+      <c r="CS175" s="23">
         <v>120.54994855384173</v>
       </c>
+      <c r="CT175" s="23">
+        <v>115.83273970237191</v>
+      </c>
     </row>
-    <row r="176" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -55963,31 +56557,34 @@
         <v>43.019600753562941</v>
       </c>
       <c r="CL176" s="11">
-        <v>50.766659291685471</v>
+        <v>50.766950932738631</v>
       </c>
       <c r="CM176" s="11">
-        <v>41.529860855094967</v>
+        <v>41.529860855094938</v>
       </c>
       <c r="CN176" s="11">
-        <v>41.639337093175165</v>
+        <v>41.640957119028847</v>
       </c>
       <c r="CO176" s="11">
-        <v>44.02927659890851</v>
-      </c>
-      <c r="CP176" s="11">
-        <v>39.447812286678023</v>
-      </c>
-      <c r="CQ176" s="11">
-        <v>36.603858782649645</v>
-      </c>
-      <c r="CR176" s="11">
-        <v>41.252777316872034</v>
-      </c>
-      <c r="CS176" s="11">
-        <v>43.23258371526957</v>
+        <v>44.029276598908517</v>
+      </c>
+      <c r="CP176" s="23">
+        <v>39.451064095224226</v>
+      </c>
+      <c r="CQ176" s="23">
+        <v>36.603872406804946</v>
+      </c>
+      <c r="CR176" s="23">
+        <v>41.25655072470277</v>
+      </c>
+      <c r="CS176" s="23">
+        <v>43.284358254294681</v>
+      </c>
+      <c r="CT176" s="23">
+        <v>37.6436308736765</v>
       </c>
     </row>
-    <row r="177" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -56259,28 +56856,31 @@
         <v>126.44937918590674</v>
       </c>
       <c r="CM177" s="11">
-        <v>133.25635413023804</v>
+        <v>133.25772875287183</v>
       </c>
       <c r="CN177" s="11">
-        <v>135.57981316954169</v>
+        <v>135.8830284887791</v>
       </c>
       <c r="CO177" s="11">
         <v>110.50488825199254</v>
       </c>
-      <c r="CP177" s="11">
+      <c r="CP177" s="23">
         <v>157.65929243744111</v>
       </c>
-      <c r="CQ177" s="11">
-        <v>140.20172132730531</v>
-      </c>
-      <c r="CR177" s="11">
-        <v>141.01573406624161</v>
-      </c>
-      <c r="CS177" s="11">
-        <v>109.90343692916113</v>
+      <c r="CQ177" s="23">
+        <v>140.2012081711068</v>
+      </c>
+      <c r="CR177" s="23">
+        <v>140.86096472547266</v>
+      </c>
+      <c r="CS177" s="23">
+        <v>110.29260858836626</v>
+      </c>
+      <c r="CT177" s="23">
+        <v>147.7045682411088</v>
       </c>
     </row>
-    <row r="178" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -56555,26 +57155,29 @@
         <v>138.10486328172698</v>
       </c>
       <c r="CN178" s="11">
-        <v>90.819850045424431</v>
+        <v>90.819850045424417</v>
       </c>
       <c r="CO178" s="11">
         <v>143.50942391363682</v>
       </c>
-      <c r="CP178" s="11">
+      <c r="CP178" s="23">
         <v>131.1114983511645</v>
       </c>
-      <c r="CQ178" s="11">
+      <c r="CQ178" s="23">
         <v>147.72528834042768</v>
       </c>
-      <c r="CR178" s="11">
+      <c r="CR178" s="23">
         <v>94.692624549705812</v>
       </c>
-      <c r="CS178" s="11">
-        <v>153.73942296366914</v>
+      <c r="CS178" s="23">
+        <v>153.73942296726432</v>
+      </c>
+      <c r="CT178" s="23">
+        <v>138.32260579926333</v>
       </c>
     </row>
-    <row r="179" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -56843,31 +57446,34 @@
         <v>110.08096954025271</v>
       </c>
       <c r="CL180" s="11">
-        <v>114.9729942968812</v>
+        <v>114.97294377368578</v>
       </c>
       <c r="CM180" s="11">
-        <v>115.26337621955187</v>
+        <v>115.26388533361927</v>
       </c>
       <c r="CN180" s="11">
-        <v>119.21485577285237</v>
+        <v>119.25263162607614</v>
       </c>
       <c r="CO180" s="11">
-        <v>121.4840084623811</v>
-      </c>
-      <c r="CP180" s="11">
-        <v>127.52195639237982</v>
-      </c>
-      <c r="CQ180" s="11">
-        <v>120.49579000774946</v>
-      </c>
-      <c r="CR180" s="11">
-        <v>124.63466893097103</v>
-      </c>
-      <c r="CS180" s="11">
-        <v>132.04000938028611</v>
+        <v>121.56965808275648</v>
+      </c>
+      <c r="CP180" s="23">
+        <v>127.52163756987072</v>
+      </c>
+      <c r="CQ180" s="23">
+        <v>120.49461936381252</v>
+      </c>
+      <c r="CR180" s="23">
+        <v>124.61738481169571</v>
+      </c>
+      <c r="CS180" s="23">
+        <v>132.17701171803273</v>
+      </c>
+      <c r="CT180" s="23">
+        <v>137.46154462994016</v>
       </c>
     </row>
-    <row r="181" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -56961,196 +57567,247 @@
       <c r="CM181" s="10"/>
       <c r="CN181" s="10"/>
       <c r="CO181" s="10"/>
-      <c r="CP181" s="10"/>
-      <c r="CQ181" s="10"/>
-      <c r="CR181" s="10"/>
-      <c r="CS181" s="10"/>
+      <c r="CP181" s="20"/>
+      <c r="CQ181" s="20"/>
+      <c r="CR181" s="20"/>
+      <c r="CS181" s="20"/>
+      <c r="CT181" s="20"/>
     </row>
-    <row r="182" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP182" s="14"/>
+      <c r="CQ182" s="14"/>
+      <c r="CR182" s="14"/>
+      <c r="CS182" s="14"/>
+      <c r="CT182" s="14"/>
     </row>
-    <row r="185" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP185" s="14"/>
+      <c r="CQ185" s="14"/>
+      <c r="CR185" s="14"/>
+      <c r="CS185" s="14"/>
+      <c r="CT185" s="14"/>
     </row>
-    <row r="186" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CP186" s="14"/>
+      <c r="CQ186" s="14"/>
+      <c r="CR186" s="14"/>
+      <c r="CS186" s="14"/>
+      <c r="CT186" s="14"/>
     </row>
-    <row r="187" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP187" s="14"/>
+      <c r="CQ187" s="14"/>
+      <c r="CR187" s="14"/>
+      <c r="CS187" s="14"/>
+      <c r="CT187" s="14"/>
     </row>
-    <row r="188" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP188" s="14"/>
+      <c r="CQ188" s="14"/>
+      <c r="CR188" s="14"/>
+      <c r="CS188" s="14"/>
+      <c r="CT188" s="14"/>
+    </row>
+    <row r="189" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="CP189" s="14"/>
+      <c r="CQ189" s="14"/>
+      <c r="CR189" s="14"/>
+      <c r="CS189" s="14"/>
+      <c r="CT189" s="14"/>
     </row>
-    <row r="190" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="CP190" s="14"/>
+      <c r="CQ190" s="14"/>
+      <c r="CR190" s="14"/>
+      <c r="CS190" s="14"/>
+      <c r="CT190" s="14"/>
     </row>
-    <row r="191" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="CP191" s="14"/>
+      <c r="CQ191" s="14"/>
+      <c r="CR191" s="14"/>
+      <c r="CS191" s="14"/>
+      <c r="CT191" s="14"/>
     </row>
-    <row r="192" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP192" s="14"/>
+      <c r="CQ192" s="14"/>
+      <c r="CR192" s="14"/>
+      <c r="CS192" s="14"/>
+      <c r="CT192" s="14"/>
+    </row>
+    <row r="193" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="B193" s="16">
+      <c r="B193" s="25">
         <v>2000</v>
       </c>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16">
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25">
         <v>2001</v>
       </c>
-      <c r="G193" s="16"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="16"/>
-      <c r="J193" s="16">
+      <c r="G193" s="25"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="25">
         <v>2002</v>
       </c>
-      <c r="K193" s="16"/>
-      <c r="L193" s="16"/>
-      <c r="M193" s="16"/>
-      <c r="N193" s="16">
+      <c r="K193" s="25"/>
+      <c r="L193" s="25"/>
+      <c r="M193" s="25"/>
+      <c r="N193" s="25">
         <v>2003</v>
       </c>
-      <c r="O193" s="16"/>
-      <c r="P193" s="16"/>
-      <c r="Q193" s="16"/>
-      <c r="R193" s="16">
+      <c r="O193" s="25"/>
+      <c r="P193" s="25"/>
+      <c r="Q193" s="25"/>
+      <c r="R193" s="25">
         <v>2004</v>
       </c>
-      <c r="S193" s="16"/>
-      <c r="T193" s="16"/>
-      <c r="U193" s="16"/>
-      <c r="V193" s="16">
+      <c r="S193" s="25"/>
+      <c r="T193" s="25"/>
+      <c r="U193" s="25"/>
+      <c r="V193" s="25">
         <v>2005</v>
       </c>
-      <c r="W193" s="16"/>
-      <c r="X193" s="16"/>
-      <c r="Y193" s="16"/>
-      <c r="Z193" s="16">
+      <c r="W193" s="25"/>
+      <c r="X193" s="25"/>
+      <c r="Y193" s="25"/>
+      <c r="Z193" s="25">
         <v>2006</v>
       </c>
-      <c r="AA193" s="16"/>
-      <c r="AB193" s="16"/>
-      <c r="AC193" s="16"/>
-      <c r="AD193" s="16">
+      <c r="AA193" s="25"/>
+      <c r="AB193" s="25"/>
+      <c r="AC193" s="25"/>
+      <c r="AD193" s="25">
         <v>2007</v>
       </c>
-      <c r="AE193" s="16"/>
-      <c r="AF193" s="16"/>
-      <c r="AG193" s="16"/>
-      <c r="AH193" s="16">
+      <c r="AE193" s="25"/>
+      <c r="AF193" s="25"/>
+      <c r="AG193" s="25"/>
+      <c r="AH193" s="25">
         <v>2008</v>
       </c>
-      <c r="AI193" s="16"/>
-      <c r="AJ193" s="16"/>
-      <c r="AK193" s="16"/>
-      <c r="AL193" s="16">
+      <c r="AI193" s="25"/>
+      <c r="AJ193" s="25"/>
+      <c r="AK193" s="25"/>
+      <c r="AL193" s="25">
         <v>2009</v>
       </c>
-      <c r="AM193" s="16"/>
-      <c r="AN193" s="16"/>
-      <c r="AO193" s="16"/>
-      <c r="AP193" s="16">
+      <c r="AM193" s="25"/>
+      <c r="AN193" s="25"/>
+      <c r="AO193" s="25"/>
+      <c r="AP193" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ193" s="16"/>
-      <c r="AR193" s="16"/>
-      <c r="AS193" s="16"/>
-      <c r="AT193" s="16">
+      <c r="AQ193" s="25"/>
+      <c r="AR193" s="25"/>
+      <c r="AS193" s="25"/>
+      <c r="AT193" s="25">
         <v>2011</v>
       </c>
-      <c r="AU193" s="16"/>
-      <c r="AV193" s="16"/>
-      <c r="AW193" s="16"/>
-      <c r="AX193" s="16">
+      <c r="AU193" s="25"/>
+      <c r="AV193" s="25"/>
+      <c r="AW193" s="25"/>
+      <c r="AX193" s="25">
         <v>2012</v>
       </c>
-      <c r="AY193" s="16"/>
-      <c r="AZ193" s="16"/>
-      <c r="BA193" s="16"/>
-      <c r="BB193" s="16">
+      <c r="AY193" s="25"/>
+      <c r="AZ193" s="25"/>
+      <c r="BA193" s="25"/>
+      <c r="BB193" s="25">
         <v>2013</v>
       </c>
-      <c r="BC193" s="16"/>
-      <c r="BD193" s="16"/>
-      <c r="BE193" s="16"/>
-      <c r="BF193" s="16">
+      <c r="BC193" s="25"/>
+      <c r="BD193" s="25"/>
+      <c r="BE193" s="25"/>
+      <c r="BF193" s="25">
         <v>2014</v>
       </c>
-      <c r="BG193" s="16"/>
-      <c r="BH193" s="16"/>
-      <c r="BI193" s="16"/>
-      <c r="BJ193" s="16">
+      <c r="BG193" s="25"/>
+      <c r="BH193" s="25"/>
+      <c r="BI193" s="25"/>
+      <c r="BJ193" s="25">
         <v>2015</v>
       </c>
-      <c r="BK193" s="16"/>
-      <c r="BL193" s="16"/>
-      <c r="BM193" s="16"/>
-      <c r="BN193" s="16">
+      <c r="BK193" s="25"/>
+      <c r="BL193" s="25"/>
+      <c r="BM193" s="25"/>
+      <c r="BN193" s="25">
         <v>2016</v>
       </c>
-      <c r="BO193" s="16"/>
-      <c r="BP193" s="16"/>
-      <c r="BQ193" s="16"/>
-      <c r="BR193" s="16">
+      <c r="BO193" s="25"/>
+      <c r="BP193" s="25"/>
+      <c r="BQ193" s="25"/>
+      <c r="BR193" s="25">
         <v>2017</v>
       </c>
-      <c r="BS193" s="16"/>
-      <c r="BT193" s="16"/>
-      <c r="BU193" s="16"/>
-      <c r="BV193" s="16">
+      <c r="BS193" s="25"/>
+      <c r="BT193" s="25"/>
+      <c r="BU193" s="25"/>
+      <c r="BV193" s="25">
         <v>2018</v>
       </c>
-      <c r="BW193" s="16"/>
-      <c r="BX193" s="16"/>
-      <c r="BY193" s="16"/>
-      <c r="BZ193" s="16">
+      <c r="BW193" s="25"/>
+      <c r="BX193" s="25"/>
+      <c r="BY193" s="25"/>
+      <c r="BZ193" s="25">
         <v>2019</v>
       </c>
-      <c r="CA193" s="16"/>
-      <c r="CB193" s="16"/>
-      <c r="CC193" s="16"/>
-      <c r="CD193" s="16">
+      <c r="CA193" s="25"/>
+      <c r="CB193" s="25"/>
+      <c r="CC193" s="25"/>
+      <c r="CD193" s="25">
         <v>2020</v>
       </c>
-      <c r="CE193" s="16"/>
-      <c r="CF193" s="16"/>
-      <c r="CG193" s="16"/>
-      <c r="CH193" s="16">
+      <c r="CE193" s="25"/>
+      <c r="CF193" s="25"/>
+      <c r="CG193" s="25"/>
+      <c r="CH193" s="13">
         <v>2021</v>
       </c>
-      <c r="CI193" s="16"/>
-      <c r="CJ193" s="16"/>
-      <c r="CK193" s="16"/>
-      <c r="CL193" s="14">
+      <c r="CI193" s="13"/>
+      <c r="CJ193" s="13"/>
+      <c r="CK193" s="13"/>
+      <c r="CL193" s="13">
         <v>2022</v>
       </c>
-      <c r="CM193" s="14"/>
-      <c r="CN193" s="14"/>
-      <c r="CO193" s="14"/>
-      <c r="CP193" s="14">
+      <c r="CM193" s="13"/>
+      <c r="CN193" s="13"/>
+      <c r="CO193" s="13"/>
+      <c r="CP193" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ193" s="14"/>
-      <c r="CR193" s="14"/>
-      <c r="CS193" s="14"/>
+      <c r="CQ193" s="15"/>
+      <c r="CR193" s="15"/>
+      <c r="CS193" s="15"/>
+      <c r="CT193" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="194" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -57430,23 +58087,31 @@
       <c r="CO194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP194" s="4" t="s">
+      <c r="CP194" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CQ194" s="4" t="s">
+      <c r="CQ194" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CR194" s="4" t="s">
+      <c r="CR194" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="CS194" s="4" t="s">
+      <c r="CS194" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="CT194" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="195" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
+      <c r="CP195" s="14"/>
+      <c r="CQ195" s="14"/>
+      <c r="CR195" s="14"/>
+      <c r="CS195" s="14"/>
+      <c r="CT195" s="14"/>
     </row>
-    <row r="196" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -57715,31 +58380,34 @@
         <v>22.076097459876479</v>
       </c>
       <c r="CL196" s="11">
-        <v>17.640230026081397</v>
+        <v>17.640223743313545</v>
       </c>
       <c r="CM196" s="11">
-        <v>15.46763988635983</v>
+        <v>15.467644612751055</v>
       </c>
       <c r="CN196" s="11">
-        <v>12.449303571396273</v>
+        <v>12.445503258419359</v>
       </c>
       <c r="CO196" s="11">
-        <v>21.051495119600339</v>
-      </c>
-      <c r="CP196" s="11">
-        <v>16.550334674072161</v>
-      </c>
-      <c r="CQ196" s="11">
-        <v>16.315244900478657</v>
-      </c>
-      <c r="CR196" s="11">
-        <v>13.998821965948666</v>
-      </c>
-      <c r="CS196" s="11">
-        <v>23.872298761853042</v>
+        <v>21.027494960727587</v>
+      </c>
+      <c r="CP196" s="23">
+        <v>16.550315527246457</v>
+      </c>
+      <c r="CQ196" s="23">
+        <v>16.315196305513211</v>
+      </c>
+      <c r="CR196" s="23">
+        <v>14.000615768865757</v>
+      </c>
+      <c r="CS196" s="23">
+        <v>23.85392364253585</v>
+      </c>
+      <c r="CT196" s="23">
+        <v>21.081684981782882</v>
       </c>
     </row>
-    <row r="197" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -58008,31 +58676,34 @@
         <v>5.0398927588314608</v>
       </c>
       <c r="CL197" s="11">
-        <v>7.2371291117132763</v>
+        <v>7.2371265341277216</v>
       </c>
       <c r="CM197" s="11">
-        <v>4.7345519246931831</v>
+        <v>4.7345533714132282</v>
       </c>
       <c r="CN197" s="11">
-        <v>7.3294301384347715</v>
+        <v>7.3269590266286055</v>
       </c>
       <c r="CO197" s="11">
-        <v>5.0517422560624654</v>
-      </c>
-      <c r="CP197" s="11">
-        <v>8.0492181641313181</v>
-      </c>
-      <c r="CQ197" s="11">
-        <v>4.9033551072406816</v>
-      </c>
-      <c r="CR197" s="11">
-        <v>7.7902462075422338</v>
-      </c>
-      <c r="CS197" s="11">
-        <v>4.5611058300953768</v>
+        <v>5.0459829208684148</v>
+      </c>
+      <c r="CP197" s="23">
+        <v>8.0492088521155623</v>
+      </c>
+      <c r="CQ197" s="23">
+        <v>4.9033405025949373</v>
+      </c>
+      <c r="CR197" s="23">
+        <v>7.7909959244979659</v>
+      </c>
+      <c r="CS197" s="23">
+        <v>4.55759503020625</v>
+      </c>
+      <c r="CT197" s="23">
+        <v>6.7961542973718547</v>
       </c>
     </row>
-    <row r="198" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -58301,31 +58972,34 @@
         <v>3.2770714155040279</v>
       </c>
       <c r="CL198" s="11">
-        <v>4.5105034804554984</v>
+        <v>4.5105018739885638</v>
       </c>
       <c r="CM198" s="11">
-        <v>3.8961383406283909</v>
+        <v>3.8961395311574054</v>
       </c>
       <c r="CN198" s="11">
-        <v>7.6940534118237665</v>
+        <v>7.691459367557826</v>
       </c>
       <c r="CO198" s="11">
-        <v>3.0642616672821825</v>
-      </c>
-      <c r="CP198" s="11">
-        <v>3.5903975738740246</v>
-      </c>
-      <c r="CQ198" s="11">
-        <v>3.2911913576733607</v>
-      </c>
-      <c r="CR198" s="11">
-        <v>6.9226693312116323</v>
-      </c>
-      <c r="CS198" s="11">
-        <v>2.6581380720167029</v>
+        <v>3.0607681972733007</v>
+      </c>
+      <c r="CP198" s="23">
+        <v>3.590393420198712</v>
+      </c>
+      <c r="CQ198" s="23">
+        <v>3.291181554858186</v>
+      </c>
+      <c r="CR198" s="23">
+        <v>6.9233355543884452</v>
+      </c>
+      <c r="CS198" s="23">
+        <v>2.6560920351622697</v>
+      </c>
+      <c r="CT198" s="23">
+        <v>3.9724174320588035</v>
       </c>
     </row>
-    <row r="199" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -58594,31 +59268,34 @@
         <v>1.4529521726031689</v>
       </c>
       <c r="CL199" s="11">
-        <v>2.2731418595051873</v>
+        <v>2.2731410498999511</v>
       </c>
       <c r="CM199" s="11">
-        <v>0.93726174699792797</v>
+        <v>0.93726203339363712</v>
       </c>
       <c r="CN199" s="11">
-        <v>0.66915415660504651</v>
+        <v>0.66892855178921506</v>
       </c>
       <c r="CO199" s="11">
-        <v>2.9380713677328165</v>
-      </c>
-      <c r="CP199" s="11">
-        <v>2.836666830610413</v>
-      </c>
-      <c r="CQ199" s="11">
-        <v>1.199877914513972</v>
-      </c>
-      <c r="CR199" s="11">
-        <v>0.47282158745244757</v>
-      </c>
-      <c r="CS199" s="11">
-        <v>2.4486525608033225</v>
+        <v>2.9347217633838403</v>
+      </c>
+      <c r="CP199" s="23">
+        <v>2.8366635489145167</v>
+      </c>
+      <c r="CQ199" s="23">
+        <v>1.1998743406769781</v>
+      </c>
+      <c r="CR199" s="23">
+        <v>0.4728670908103268</v>
+      </c>
+      <c r="CS199" s="23">
+        <v>2.4467677702592709</v>
+      </c>
+      <c r="CT199" s="23">
+        <v>2.6884121839193389</v>
       </c>
     </row>
-    <row r="200" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -58887,31 +59564,34 @@
         <v>7.5697238935289981</v>
       </c>
       <c r="CL200" s="11">
-        <v>7.0106179443084287</v>
+        <v>7.0106154473973916</v>
       </c>
       <c r="CM200" s="11">
-        <v>7.1227149006431771</v>
+        <v>7.1227170771056141</v>
       </c>
       <c r="CN200" s="11">
-        <v>6.926104751631601</v>
+        <v>6.9237696206733643</v>
       </c>
       <c r="CO200" s="11">
-        <v>5.622591056133464</v>
-      </c>
-      <c r="CP200" s="11">
-        <v>6.0957858472537643</v>
-      </c>
-      <c r="CQ200" s="11">
-        <v>7.5394639673116295</v>
-      </c>
-      <c r="CR200" s="11">
-        <v>7.6918958868353009</v>
-      </c>
-      <c r="CS200" s="11">
-        <v>5.4951723222984752</v>
+        <v>5.6161809138676997</v>
+      </c>
+      <c r="CP200" s="23">
+        <v>6.0957787951335849</v>
+      </c>
+      <c r="CQ200" s="23">
+        <v>7.539441511014271</v>
+      </c>
+      <c r="CR200" s="23">
+        <v>7.6926361387624489</v>
+      </c>
+      <c r="CS200" s="23">
+        <v>5.4909425474520486</v>
+      </c>
+      <c r="CT200" s="23">
+        <v>6.3814172805778284</v>
       </c>
     </row>
-    <row r="201" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -59180,31 +59860,34 @@
         <v>1.4003098307539354</v>
       </c>
       <c r="CL201" s="11">
-        <v>1.0549180157016762</v>
+        <v>1.0549176399806688</v>
       </c>
       <c r="CM201" s="11">
-        <v>4.2111159811035117</v>
+        <v>4.2111172678791133</v>
       </c>
       <c r="CN201" s="11">
-        <v>0.54859117962408066</v>
+        <v>0.54840622252439863</v>
       </c>
       <c r="CO201" s="11">
-        <v>1.4760653290372179</v>
-      </c>
-      <c r="CP201" s="11">
-        <v>1.1446777142673288</v>
-      </c>
-      <c r="CQ201" s="11">
-        <v>4.6746928633497564</v>
-      </c>
-      <c r="CR201" s="11">
-        <v>0.65342607107634521</v>
-      </c>
-      <c r="CS201" s="11">
-        <v>1.5495493329019652</v>
+        <v>1.4743825125815606</v>
+      </c>
+      <c r="CP201" s="23">
+        <v>1.1446763900074204</v>
+      </c>
+      <c r="CQ201" s="23">
+        <v>4.6746789397746253</v>
+      </c>
+      <c r="CR201" s="23">
+        <v>0.65348895543092811</v>
+      </c>
+      <c r="CS201" s="23">
+        <v>1.5483566050511892</v>
+      </c>
+      <c r="CT201" s="23">
+        <v>1.0561683987865282</v>
       </c>
     </row>
-    <row r="202" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -59473,31 +60156,34 @@
         <v>1.3315260376372888</v>
       </c>
       <c r="CL202" s="11">
-        <v>1.4365403382092234</v>
+        <v>1.436539826569101</v>
       </c>
       <c r="CM202" s="11">
-        <v>0.89904768371309784</v>
+        <v>0.89904795843187302</v>
       </c>
       <c r="CN202" s="11">
-        <v>1.7868497179000218</v>
+        <v>1.7862472828743314</v>
       </c>
       <c r="CO202" s="11">
-        <v>1.5811850235433897</v>
-      </c>
-      <c r="CP202" s="11">
-        <v>1.2065081797621648</v>
-      </c>
-      <c r="CQ202" s="11">
-        <v>1.0412945680521104</v>
-      </c>
-      <c r="CR202" s="11">
-        <v>2.0180909176070556</v>
-      </c>
-      <c r="CS202" s="11">
-        <v>1.7384051789741506</v>
+        <v>1.5793823633733324</v>
+      </c>
+      <c r="CP202" s="23">
+        <v>1.2065067839715491</v>
+      </c>
+      <c r="CQ202" s="23">
+        <v>1.0412914665556965</v>
+      </c>
+      <c r="CR202" s="23">
+        <v>2.0182851344442176</v>
+      </c>
+      <c r="CS202" s="23">
+        <v>1.7370670839459237</v>
+      </c>
+      <c r="CT202" s="23">
+        <v>1.6581267037124254</v>
       </c>
     </row>
-    <row r="203" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -59766,31 +60452,34 @@
         <v>0.47900453214565364</v>
       </c>
       <c r="CL203" s="11">
-        <v>0.39033198484213522</v>
+        <v>0.39033184582097497</v>
       </c>
       <c r="CM203" s="11">
-        <v>0.15721628107813473</v>
+        <v>0.15721632911814967</v>
       </c>
       <c r="CN203" s="11">
-        <v>0.11770729236301997</v>
+        <v>0.11766760743877125</v>
       </c>
       <c r="CO203" s="11">
-        <v>0.50108970719495938</v>
-      </c>
-      <c r="CP203" s="11">
-        <v>0.34109499313615649</v>
-      </c>
-      <c r="CQ203" s="11">
-        <v>0.12538382400761441</v>
-      </c>
-      <c r="CR203" s="11">
-        <v>0.11621171709870767</v>
-      </c>
-      <c r="CS203" s="11">
-        <v>0.59727981330896607</v>
+        <v>0.50051843030874044</v>
+      </c>
+      <c r="CP203" s="23">
+        <v>0.34109459852864493</v>
+      </c>
+      <c r="CQ203" s="23">
+        <v>0.12538345055182923</v>
+      </c>
+      <c r="CR203" s="23">
+        <v>0.1162229010706185</v>
+      </c>
+      <c r="CS203" s="23">
+        <v>0.5968200717271499</v>
+      </c>
+      <c r="CT203" s="23">
+        <v>0.5618288255830225</v>
       </c>
     </row>
-    <row r="204" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -60059,31 +60748,34 @@
         <v>1.360623488776137</v>
       </c>
       <c r="CL204" s="11">
-        <v>0.6780478543585744</v>
+        <v>0.67804761286414639</v>
       </c>
       <c r="CM204" s="11">
-        <v>1.0784455944901543</v>
+        <v>1.0784459240269055</v>
       </c>
       <c r="CN204" s="11">
-        <v>1.4990108358986252</v>
+        <v>1.4985054455334543</v>
       </c>
       <c r="CO204" s="11">
-        <v>1.3571298574164419</v>
-      </c>
-      <c r="CP204" s="11">
-        <v>0.73563876451097021</v>
-      </c>
-      <c r="CQ204" s="11">
-        <v>1.2300943274101608</v>
-      </c>
-      <c r="CR204" s="11">
-        <v>1.6200314529660844</v>
-      </c>
-      <c r="CS204" s="11">
-        <v>1.4316885405585489</v>
+        <v>1.3555826356156198</v>
+      </c>
+      <c r="CP204" s="23">
+        <v>0.7356379134618839</v>
+      </c>
+      <c r="CQ204" s="23">
+        <v>1.2300906635735651</v>
+      </c>
+      <c r="CR204" s="23">
+        <v>1.62018736139526</v>
+      </c>
+      <c r="CS204" s="23">
+        <v>1.4305865333095269</v>
+      </c>
+      <c r="CT204" s="23">
+        <v>0.90501072834106477</v>
       </c>
     </row>
-    <row r="205" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -60352,31 +61044,34 @@
         <v>0.70575667147620669</v>
       </c>
       <c r="CL205" s="11">
-        <v>0.26839558959573534</v>
+        <v>0.26839549400360424</v>
       </c>
       <c r="CM205" s="11">
-        <v>0.70053886918759456</v>
+        <v>0.70053908324874348</v>
       </c>
       <c r="CN205" s="11">
-        <v>0.49665251687564343</v>
+        <v>0.49648507085667165</v>
       </c>
       <c r="CO205" s="11">
-        <v>0.52998912814674159</v>
-      </c>
-      <c r="CP205" s="11">
-        <v>0.19637711533318372</v>
-      </c>
-      <c r="CQ205" s="11">
-        <v>0.5212987650231341</v>
-      </c>
-      <c r="CR205" s="11">
-        <v>0.39246304011573513</v>
-      </c>
-      <c r="CS205" s="11">
-        <v>0.46775048840317329</v>
+        <v>0.52938490392399229</v>
+      </c>
+      <c r="CP205" s="23">
+        <v>0.19637688814754228</v>
+      </c>
+      <c r="CQ205" s="23">
+        <v>0.52129721233449067</v>
+      </c>
+      <c r="CR205" s="23">
+        <v>0.39250080993556297</v>
+      </c>
+      <c r="CS205" s="23">
+        <v>0.46739044888118064</v>
+      </c>
+      <c r="CT205" s="23">
+        <v>0.19678525919225404</v>
       </c>
     </row>
-    <row r="206" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -60645,31 +61340,34 @@
         <v>8.5332206814521305E-2</v>
       </c>
       <c r="CL206" s="11">
-        <v>8.5886687475933546E-2</v>
+        <v>8.588665688641639E-2</v>
       </c>
       <c r="CM206" s="11">
-        <v>5.7224554783248685E-2</v>
+        <v>5.7224572269150578E-2</v>
       </c>
       <c r="CN206" s="11">
-        <v>8.8019289366159964E-2</v>
+        <v>8.7989613729580474E-2</v>
       </c>
       <c r="CO206" s="11">
-        <v>9.1698195464001139E-2</v>
-      </c>
-      <c r="CP206" s="11">
-        <v>8.5223870342555769E-2</v>
-      </c>
-      <c r="CQ206" s="11">
-        <v>7.4533679039402723E-2</v>
-      </c>
-      <c r="CR206" s="11">
-        <v>0.10575162976038599</v>
-      </c>
-      <c r="CS206" s="11">
-        <v>0.10069885505269376</v>
+        <v>9.1593653185793475E-2</v>
+      </c>
+      <c r="CP206" s="23">
+        <v>8.5223771748380889E-2</v>
+      </c>
+      <c r="CQ206" s="23">
+        <v>7.4533457040800846E-2</v>
+      </c>
+      <c r="CR206" s="23">
+        <v>0.10576180707543038</v>
+      </c>
+      <c r="CS206" s="23">
+        <v>0.10062134456798519</v>
+      </c>
+      <c r="CT206" s="23">
+        <v>7.7158491305217305E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -60938,31 +61636,34 @@
         <v>9.1675564226051068E-2</v>
       </c>
       <c r="CL207" s="11">
-        <v>7.8163459609223745E-2</v>
+        <v>7.8163431770421732E-2</v>
       </c>
       <c r="CM207" s="11">
-        <v>5.7126629041668167E-2</v>
+        <v>5.7126646497647246E-2</v>
       </c>
       <c r="CN207" s="11">
-        <v>9.6099353168138141E-2</v>
+        <v>9.6066953344182762E-2</v>
       </c>
       <c r="CO207" s="11">
-        <v>8.7461742617694876E-2</v>
-      </c>
-      <c r="CP207" s="11">
-        <v>6.4869273756859094E-2</v>
-      </c>
-      <c r="CQ207" s="11">
-        <v>4.8658836923406001E-2</v>
-      </c>
-      <c r="CR207" s="11">
-        <v>7.7123997566306279E-2</v>
-      </c>
-      <c r="CS207" s="11">
-        <v>7.6084307283927441E-2</v>
+        <v>8.7362030188426185E-2</v>
+      </c>
+      <c r="CP207" s="23">
+        <v>6.4869198710601553E-2</v>
+      </c>
+      <c r="CQ207" s="23">
+        <v>4.8658691993034846E-2</v>
+      </c>
+      <c r="CR207" s="23">
+        <v>7.7131419818071992E-2</v>
+      </c>
+      <c r="CS207" s="23">
+        <v>7.6025743245396571E-2</v>
+      </c>
+      <c r="CT207" s="23">
+        <v>6.8823308711382952E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -61231,31 +61932,34 @@
         <v>0.13053685868927514</v>
       </c>
       <c r="CL208" s="11">
-        <v>3.4868136919661105E-2</v>
+        <v>3.486812450097896E-2</v>
       </c>
       <c r="CM208" s="11">
-        <v>3.0705559280714476E-2</v>
+        <v>3.0705568663302062E-2</v>
       </c>
       <c r="CN208" s="11">
-        <v>6.1619624747909059E-2</v>
+        <v>6.159884973821117E-2</v>
       </c>
       <c r="CO208" s="11">
-        <v>0.12329926132299651</v>
-      </c>
-      <c r="CP208" s="11">
-        <v>3.489079671796777E-2</v>
-      </c>
-      <c r="CQ208" s="11">
-        <v>3.9662566918400609E-2</v>
-      </c>
-      <c r="CR208" s="11">
-        <v>0.18486746366712942</v>
-      </c>
-      <c r="CS208" s="11">
-        <v>0.19434195664506607</v>
+        <v>0.12315869164640907</v>
+      </c>
+      <c r="CP208" s="23">
+        <v>3.489075635334575E-2</v>
+      </c>
+      <c r="CQ208" s="23">
+        <v>3.9662448783424356E-2</v>
+      </c>
+      <c r="CR208" s="23">
+        <v>0.18488525492409125</v>
+      </c>
+      <c r="CS208" s="23">
+        <v>0.19419236666727158</v>
+      </c>
+      <c r="CT208" s="23">
+        <v>4.4618806387548809E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -61524,31 +62228,34 @@
         <v>5.004246704203557</v>
       </c>
       <c r="CL209" s="11">
-        <v>5.0139927701088638</v>
+        <v>5.0139909843185126</v>
       </c>
       <c r="CM209" s="11">
-        <v>3.9020561127311186</v>
+        <v>3.9020573050684049</v>
       </c>
       <c r="CN209" s="11">
-        <v>5.4035466547898645</v>
+        <v>5.4017248531379476</v>
       </c>
       <c r="CO209" s="11">
-        <v>5.2258969355151503</v>
-      </c>
-      <c r="CP209" s="11">
-        <v>6.2483650428106792</v>
-      </c>
-      <c r="CQ209" s="11">
-        <v>4.2837923931163449</v>
-      </c>
-      <c r="CR209" s="11">
-        <v>5.6285932020491813</v>
-      </c>
-      <c r="CS209" s="11">
-        <v>5.0678621634254135</v>
+        <v>5.2613056123428432</v>
+      </c>
+      <c r="CP209" s="23">
+        <v>6.2483578141739926</v>
+      </c>
+      <c r="CQ209" s="23">
+        <v>4.2837796338384679</v>
+      </c>
+      <c r="CR209" s="23">
+        <v>5.6291348860535209</v>
+      </c>
+      <c r="CS209" s="23">
+        <v>5.0446375818218492</v>
+      </c>
+      <c r="CT209" s="23">
+        <v>5.1323561205178736</v>
       </c>
     </row>
-    <row r="210" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -61817,31 +62524,34 @@
         <v>12.789581329132682</v>
       </c>
       <c r="CL210" s="11">
-        <v>13.392647165341351</v>
+        <v>13.392642395398276</v>
       </c>
       <c r="CM210" s="11">
-        <v>15.866890705490096</v>
+        <v>15.866895553878965</v>
       </c>
       <c r="CN210" s="11">
-        <v>15.624902498523211</v>
+        <v>15.619634574509339</v>
       </c>
       <c r="CO210" s="11">
-        <v>12.655492311537319</v>
-      </c>
-      <c r="CP210" s="11">
-        <v>12.294270919385852</v>
-      </c>
-      <c r="CQ210" s="11">
-        <v>14.63015260427688</v>
-      </c>
-      <c r="CR210" s="11">
-        <v>14.409748125568067</v>
-      </c>
-      <c r="CS210" s="11">
-        <v>12.489428845625076</v>
+        <v>12.641064175941052</v>
+      </c>
+      <c r="CP210" s="23">
+        <v>12.294256696334351</v>
+      </c>
+      <c r="CQ210" s="23">
+        <v>14.630109028359719</v>
+      </c>
+      <c r="CR210" s="23">
+        <v>14.416569583643401</v>
+      </c>
+      <c r="CS210" s="23">
+        <v>12.479117709818107</v>
+      </c>
+      <c r="CT210" s="23">
+        <v>11.610364581202054</v>
       </c>
     </row>
-    <row r="211" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -62110,31 +62820,34 @@
         <v>9.7295826391920315</v>
       </c>
       <c r="CL211" s="11">
-        <v>14.154393094390953</v>
+        <v>14.15438805314343</v>
       </c>
       <c r="CM211" s="11">
-        <v>9.3601942612531843</v>
+        <v>9.3601971214141617</v>
       </c>
       <c r="CN211" s="11">
-        <v>11.006978590610641</v>
+        <v>11.003267596136073</v>
       </c>
       <c r="CO211" s="11">
-        <v>10.508494426785218</v>
-      </c>
-      <c r="CP211" s="11">
-        <v>14.762005091538724</v>
-      </c>
-      <c r="CQ211" s="11">
-        <v>9.761852908253438</v>
-      </c>
-      <c r="CR211" s="11">
-        <v>10.464218002879338</v>
-      </c>
-      <c r="CS211" s="11">
-        <v>10.386226890287892</v>
+        <v>10.567455746703363</v>
+      </c>
+      <c r="CP211" s="23">
+        <v>14.7619880136038</v>
+      </c>
+      <c r="CQ211" s="23">
+        <v>9.7618238325694602</v>
+      </c>
+      <c r="CR211" s="23">
+        <v>10.465225057272255</v>
+      </c>
+      <c r="CS211" s="23">
+        <v>10.44835180068762</v>
+      </c>
+      <c r="CT211" s="23">
+        <v>14.075149902492512</v>
       </c>
     </row>
-    <row r="212" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -62403,31 +63116,34 @@
         <v>3.4711954954082489</v>
       </c>
       <c r="CL212" s="11">
-        <v>3.9542693036881489</v>
+        <v>3.9542678953303199</v>
       </c>
       <c r="CM212" s="11">
-        <v>3.1217437944296145</v>
+        <v>3.1217447483296654</v>
       </c>
       <c r="CN212" s="11">
-        <v>3.6163760763295825</v>
+        <v>3.6151568178812501</v>
       </c>
       <c r="CO212" s="11">
-        <v>3.5710247457272271</v>
-      </c>
-      <c r="CP212" s="11">
-        <v>3.8383284646228604</v>
-      </c>
-      <c r="CQ212" s="11">
-        <v>2.8194364215574113</v>
-      </c>
-      <c r="CR212" s="11">
-        <v>3.3889387466721765</v>
-      </c>
-      <c r="CS212" s="11">
-        <v>3.534082623585133</v>
+        <v>3.5669535307969307</v>
+      </c>
+      <c r="CP212" s="23">
+        <v>3.8383240241201411</v>
+      </c>
+      <c r="CQ212" s="23">
+        <v>2.8194280238645595</v>
+      </c>
+      <c r="CR212" s="23">
+        <v>3.3892648910291876</v>
+      </c>
+      <c r="CS212" s="23">
+        <v>3.5313623497425084</v>
+      </c>
+      <c r="CT212" s="23">
+        <v>3.6345986848192902</v>
       </c>
     </row>
-    <row r="213" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -62696,31 +63412,34 @@
         <v>1.6080104380887833E-2</v>
       </c>
       <c r="CL213" s="11">
-        <v>8.4620379064092477E-2</v>
+        <v>8.46559650589465E-2</v>
       </c>
       <c r="CM213" s="11">
-        <v>6.0005161127094003E-2</v>
+        <v>5.9835025520135296E-2</v>
       </c>
       <c r="CN213" s="11">
-        <v>8.4885548814195855E-2</v>
+        <v>8.5375611570685656E-2</v>
       </c>
       <c r="CO213" s="11">
-        <v>1.3187012383728656E-2</v>
-      </c>
-      <c r="CP213" s="11">
-        <v>3.095970766956728E-2</v>
-      </c>
-      <c r="CQ213" s="11">
-        <v>4.041067397663213E-2</v>
-      </c>
-      <c r="CR213" s="11">
-        <v>7.3990658347487456E-2</v>
-      </c>
-      <c r="CS213" s="11">
-        <v>1.0553693642961548E-2</v>
+        <v>1.487059724498564E-2</v>
+      </c>
+      <c r="CP213" s="23">
+        <v>3.1075360303038521E-2</v>
+      </c>
+      <c r="CQ213" s="23">
+        <v>4.0811944593929762E-2</v>
+      </c>
+      <c r="CR213" s="23">
+        <v>7.4856405941999424E-2</v>
+      </c>
+      <c r="CS213" s="23">
+        <v>1.2297027910274325E-2</v>
+      </c>
+      <c r="CT213" s="23">
+        <v>3.8008672569525538E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -62989,31 +63708,34 @@
         <v>11.905796336274671</v>
       </c>
       <c r="CL214" s="11">
-        <v>11.411055236980253</v>
+        <v>11.411051172803603</v>
       </c>
       <c r="CM214" s="11">
-        <v>13.532602531465255</v>
+        <v>13.532746263875358</v>
       </c>
       <c r="CN214" s="11">
-        <v>14.670829664492741</v>
+        <v>14.698682687358941</v>
       </c>
       <c r="CO214" s="11">
-        <v>11.98376260283114</v>
-      </c>
-      <c r="CP214" s="11">
-        <v>12.621867124998321</v>
-      </c>
-      <c r="CQ214" s="11">
-        <v>11.789591891706285</v>
-      </c>
-      <c r="CR214" s="11">
-        <v>13.867000378569996</v>
-      </c>
-      <c r="CS214" s="11">
-        <v>10.255326178475741</v>
+        <v>11.970100285512238</v>
+      </c>
+      <c r="CP214" s="23">
+        <v>12.621852522955844</v>
+      </c>
+      <c r="CQ214" s="23">
+        <v>11.789453235472317</v>
+      </c>
+      <c r="CR214" s="23">
+        <v>13.851971212662246</v>
+      </c>
+      <c r="CS214" s="23">
+        <v>10.272555459369654</v>
+      </c>
+      <c r="CT214" s="23">
+        <v>10.817743940795294</v>
       </c>
     </row>
-    <row r="215" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -63282,32 +64004,35 @@
         <v>12.083014500544744</v>
       </c>
       <c r="CL215" s="11">
-        <v>9.2902475616503786</v>
+        <v>9.2902442528234186</v>
       </c>
       <c r="CM215" s="11">
-        <v>14.806779481503012</v>
+        <v>14.806784005957496</v>
       </c>
       <c r="CN215" s="11">
-        <v>9.829885126604692</v>
+        <v>9.8265709882977852</v>
       </c>
       <c r="CO215" s="11">
-        <v>12.566062253665494</v>
-      </c>
-      <c r="CP215" s="11">
-        <v>9.272519851205157</v>
-      </c>
-      <c r="CQ215" s="11">
-        <v>15.670010429170731</v>
-      </c>
-      <c r="CR215" s="11">
-        <v>10.123089617065718</v>
-      </c>
-      <c r="CS215" s="11">
-        <v>13.065353584762379</v>
+        <v>12.551736074513876</v>
+      </c>
+      <c r="CP215" s="23">
+        <v>9.2725091239706394</v>
+      </c>
+      <c r="CQ215" s="23">
+        <v>15.669963756036498</v>
+      </c>
+      <c r="CR215" s="23">
+        <v>10.124063841978272</v>
+      </c>
+      <c r="CS215" s="23">
+        <v>13.055296847638671</v>
+      </c>
+      <c r="CT215" s="23">
+        <v>9.203171399873316</v>
       </c>
     </row>
-    <row r="216" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -63587,20 +64312,23 @@
       <c r="CO217" s="11">
         <v>100</v>
       </c>
-      <c r="CP217" s="11">
+      <c r="CP217" s="23">
         <v>100</v>
       </c>
-      <c r="CQ217" s="11">
+      <c r="CQ217" s="23">
         <v>100</v>
       </c>
-      <c r="CR217" s="11">
+      <c r="CR217" s="23">
         <v>100</v>
       </c>
-      <c r="CS217" s="11">
+      <c r="CS217" s="23">
         <v>100</v>
       </c>
+      <c r="CT217" s="23">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -63694,198 +64422,249 @@
       <c r="CM218" s="10"/>
       <c r="CN218" s="10"/>
       <c r="CO218" s="10"/>
-      <c r="CP218" s="10"/>
-      <c r="CQ218" s="10"/>
-      <c r="CR218" s="10"/>
-      <c r="CS218" s="10"/>
+      <c r="CP218" s="20"/>
+      <c r="CQ218" s="20"/>
+      <c r="CR218" s="20"/>
+      <c r="CS218" s="20"/>
+      <c r="CT218" s="20"/>
     </row>
-    <row r="219" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP219" s="14"/>
+      <c r="CQ219" s="14"/>
+      <c r="CR219" s="14"/>
+      <c r="CS219" s="14"/>
+      <c r="CT219" s="14"/>
     </row>
-    <row r="220" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="CP222" s="14"/>
+      <c r="CQ222" s="14"/>
+      <c r="CR222" s="14"/>
+      <c r="CS222" s="14"/>
+      <c r="CT222" s="14"/>
     </row>
-    <row r="223" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="CP223" s="14"/>
+      <c r="CQ223" s="14"/>
+      <c r="CR223" s="14"/>
+      <c r="CS223" s="14"/>
+      <c r="CT223" s="14"/>
     </row>
-    <row r="224" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CP224" s="14"/>
+      <c r="CQ224" s="14"/>
+      <c r="CR224" s="14"/>
+      <c r="CS224" s="14"/>
+      <c r="CT224" s="14"/>
     </row>
-    <row r="225" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP225" s="14"/>
+      <c r="CQ225" s="14"/>
+      <c r="CR225" s="14"/>
+      <c r="CS225" s="14"/>
+      <c r="CT225" s="14"/>
+    </row>
+    <row r="226" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="CP226" s="14"/>
+      <c r="CQ226" s="14"/>
+      <c r="CR226" s="14"/>
+      <c r="CS226" s="14"/>
+      <c r="CT226" s="14"/>
     </row>
-    <row r="227" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="CP227" s="14"/>
+      <c r="CQ227" s="14"/>
+      <c r="CR227" s="14"/>
+      <c r="CS227" s="14"/>
+      <c r="CT227" s="14"/>
     </row>
-    <row r="228" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="CP228" s="14"/>
+      <c r="CQ228" s="14"/>
+      <c r="CR228" s="14"/>
+      <c r="CS228" s="14"/>
+      <c r="CT228" s="14"/>
     </row>
-    <row r="229" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CP229" s="14"/>
+      <c r="CQ229" s="14"/>
+      <c r="CR229" s="14"/>
+      <c r="CS229" s="14"/>
+      <c r="CT229" s="14"/>
+    </row>
+    <row r="230" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="16">
+      <c r="B230" s="25">
         <v>2000</v>
       </c>
-      <c r="C230" s="16"/>
-      <c r="D230" s="16"/>
-      <c r="E230" s="16"/>
-      <c r="F230" s="16">
+      <c r="C230" s="25"/>
+      <c r="D230" s="25"/>
+      <c r="E230" s="25"/>
+      <c r="F230" s="25">
         <v>2001</v>
       </c>
-      <c r="G230" s="16"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="16"/>
-      <c r="J230" s="16">
+      <c r="G230" s="25"/>
+      <c r="H230" s="25"/>
+      <c r="I230" s="25"/>
+      <c r="J230" s="25">
         <v>2002</v>
       </c>
-      <c r="K230" s="16"/>
-      <c r="L230" s="16"/>
-      <c r="M230" s="16"/>
-      <c r="N230" s="16">
+      <c r="K230" s="25"/>
+      <c r="L230" s="25"/>
+      <c r="M230" s="25"/>
+      <c r="N230" s="25">
         <v>2003</v>
       </c>
-      <c r="O230" s="16"/>
-      <c r="P230" s="16"/>
-      <c r="Q230" s="16"/>
-      <c r="R230" s="16">
+      <c r="O230" s="25"/>
+      <c r="P230" s="25"/>
+      <c r="Q230" s="25"/>
+      <c r="R230" s="25">
         <v>2004</v>
       </c>
-      <c r="S230" s="16"/>
-      <c r="T230" s="16"/>
-      <c r="U230" s="16"/>
-      <c r="V230" s="16">
+      <c r="S230" s="25"/>
+      <c r="T230" s="25"/>
+      <c r="U230" s="25"/>
+      <c r="V230" s="25">
         <v>2005</v>
       </c>
-      <c r="W230" s="16"/>
-      <c r="X230" s="16"/>
-      <c r="Y230" s="16"/>
-      <c r="Z230" s="16">
+      <c r="W230" s="25"/>
+      <c r="X230" s="25"/>
+      <c r="Y230" s="25"/>
+      <c r="Z230" s="25">
         <v>2006</v>
       </c>
-      <c r="AA230" s="16"/>
-      <c r="AB230" s="16"/>
-      <c r="AC230" s="16"/>
-      <c r="AD230" s="16">
+      <c r="AA230" s="25"/>
+      <c r="AB230" s="25"/>
+      <c r="AC230" s="25"/>
+      <c r="AD230" s="25">
         <v>2007</v>
       </c>
-      <c r="AE230" s="16"/>
-      <c r="AF230" s="16"/>
-      <c r="AG230" s="16"/>
-      <c r="AH230" s="16">
+      <c r="AE230" s="25"/>
+      <c r="AF230" s="25"/>
+      <c r="AG230" s="25"/>
+      <c r="AH230" s="25">
         <v>2008</v>
       </c>
-      <c r="AI230" s="16"/>
-      <c r="AJ230" s="16"/>
-      <c r="AK230" s="16"/>
-      <c r="AL230" s="16">
+      <c r="AI230" s="25"/>
+      <c r="AJ230" s="25"/>
+      <c r="AK230" s="25"/>
+      <c r="AL230" s="25">
         <v>2009</v>
       </c>
-      <c r="AM230" s="16"/>
-      <c r="AN230" s="16"/>
-      <c r="AO230" s="16"/>
-      <c r="AP230" s="16">
+      <c r="AM230" s="25"/>
+      <c r="AN230" s="25"/>
+      <c r="AO230" s="25"/>
+      <c r="AP230" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ230" s="16"/>
-      <c r="AR230" s="16"/>
-      <c r="AS230" s="16"/>
-      <c r="AT230" s="16">
+      <c r="AQ230" s="25"/>
+      <c r="AR230" s="25"/>
+      <c r="AS230" s="25"/>
+      <c r="AT230" s="25">
         <v>2011</v>
       </c>
-      <c r="AU230" s="16"/>
-      <c r="AV230" s="16"/>
-      <c r="AW230" s="16"/>
-      <c r="AX230" s="16">
+      <c r="AU230" s="25"/>
+      <c r="AV230" s="25"/>
+      <c r="AW230" s="25"/>
+      <c r="AX230" s="25">
         <v>2012</v>
       </c>
-      <c r="AY230" s="16"/>
-      <c r="AZ230" s="16"/>
-      <c r="BA230" s="16"/>
-      <c r="BB230" s="16">
+      <c r="AY230" s="25"/>
+      <c r="AZ230" s="25"/>
+      <c r="BA230" s="25"/>
+      <c r="BB230" s="25">
         <v>2013</v>
       </c>
-      <c r="BC230" s="16"/>
-      <c r="BD230" s="16"/>
-      <c r="BE230" s="16"/>
-      <c r="BF230" s="16">
+      <c r="BC230" s="25"/>
+      <c r="BD230" s="25"/>
+      <c r="BE230" s="25"/>
+      <c r="BF230" s="25">
         <v>2014</v>
       </c>
-      <c r="BG230" s="16"/>
-      <c r="BH230" s="16"/>
-      <c r="BI230" s="16"/>
-      <c r="BJ230" s="16">
+      <c r="BG230" s="25"/>
+      <c r="BH230" s="25"/>
+      <c r="BI230" s="25"/>
+      <c r="BJ230" s="25">
         <v>2015</v>
       </c>
-      <c r="BK230" s="16"/>
-      <c r="BL230" s="16"/>
-      <c r="BM230" s="16"/>
-      <c r="BN230" s="16">
+      <c r="BK230" s="25"/>
+      <c r="BL230" s="25"/>
+      <c r="BM230" s="25"/>
+      <c r="BN230" s="25">
         <v>2016</v>
       </c>
-      <c r="BO230" s="16"/>
-      <c r="BP230" s="16"/>
-      <c r="BQ230" s="16"/>
-      <c r="BR230" s="16">
+      <c r="BO230" s="25"/>
+      <c r="BP230" s="25"/>
+      <c r="BQ230" s="25"/>
+      <c r="BR230" s="25">
         <v>2017</v>
       </c>
-      <c r="BS230" s="16"/>
-      <c r="BT230" s="16"/>
-      <c r="BU230" s="16"/>
-      <c r="BV230" s="16">
+      <c r="BS230" s="25"/>
+      <c r="BT230" s="25"/>
+      <c r="BU230" s="25"/>
+      <c r="BV230" s="25">
         <v>2018</v>
       </c>
-      <c r="BW230" s="16"/>
-      <c r="BX230" s="16"/>
-      <c r="BY230" s="16"/>
-      <c r="BZ230" s="16">
+      <c r="BW230" s="25"/>
+      <c r="BX230" s="25"/>
+      <c r="BY230" s="25"/>
+      <c r="BZ230" s="25">
         <v>2019</v>
       </c>
-      <c r="CA230" s="16"/>
-      <c r="CB230" s="16"/>
-      <c r="CC230" s="16"/>
-      <c r="CD230" s="16">
+      <c r="CA230" s="25"/>
+      <c r="CB230" s="25"/>
+      <c r="CC230" s="25"/>
+      <c r="CD230" s="25">
         <v>2020</v>
       </c>
-      <c r="CE230" s="16"/>
-      <c r="CF230" s="16"/>
-      <c r="CG230" s="16"/>
-      <c r="CH230" s="16">
+      <c r="CE230" s="25"/>
+      <c r="CF230" s="25"/>
+      <c r="CG230" s="25"/>
+      <c r="CH230" s="13">
         <v>2021</v>
       </c>
-      <c r="CI230" s="16"/>
-      <c r="CJ230" s="16"/>
-      <c r="CK230" s="16"/>
-      <c r="CL230" s="14">
+      <c r="CI230" s="13"/>
+      <c r="CJ230" s="13"/>
+      <c r="CK230" s="13"/>
+      <c r="CL230" s="13">
         <v>2022</v>
       </c>
-      <c r="CM230" s="14"/>
-      <c r="CN230" s="14"/>
-      <c r="CO230" s="14"/>
-      <c r="CP230" s="14">
+      <c r="CM230" s="13"/>
+      <c r="CN230" s="13"/>
+      <c r="CO230" s="13"/>
+      <c r="CP230" s="15">
         <v>2023</v>
       </c>
-      <c r="CQ230" s="14"/>
-      <c r="CR230" s="14"/>
-      <c r="CS230" s="14"/>
+      <c r="CQ230" s="15"/>
+      <c r="CR230" s="15"/>
+      <c r="CS230" s="15"/>
+      <c r="CT230" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="231" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -64165,23 +64944,31 @@
       <c r="CO231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP231" s="4" t="s">
+      <c r="CP231" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CQ231" s="4" t="s">
+      <c r="CQ231" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="CR231" s="4" t="s">
+      <c r="CR231" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="CS231" s="4" t="s">
+      <c r="CS231" s="16" t="s">
         <v>30</v>
       </c>
+      <c r="CT231" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="232" spans="1:97" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
+      <c r="CP232" s="14"/>
+      <c r="CQ232" s="14"/>
+      <c r="CR232" s="14"/>
+      <c r="CS232" s="14"/>
+      <c r="CT232" s="14"/>
     </row>
-    <row r="233" spans="1:97" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -64450,31 +65237,34 @@
         <v>25.988641011884621</v>
       </c>
       <c r="CL233" s="11">
-        <v>20.927183779000558</v>
+        <v>20.927167129406289</v>
       </c>
       <c r="CM233" s="11">
-        <v>19.538150390612383</v>
+        <v>19.538242660128528</v>
       </c>
       <c r="CN233" s="11">
-        <v>17.633502248285978</v>
+        <v>17.633705248717028</v>
       </c>
       <c r="CO233" s="11">
-        <v>25.429801463860542</v>
-      </c>
-      <c r="CP233" s="11">
-        <v>21.383286689235621</v>
-      </c>
-      <c r="CQ233" s="11">
-        <v>19.95030391085438</v>
-      </c>
-      <c r="CR233" s="11">
-        <v>17.508353225789183</v>
-      </c>
-      <c r="CS233" s="11">
-        <v>25.129523485626326</v>
+        <v>25.41871801385166</v>
+      </c>
+      <c r="CP233" s="23">
+        <v>21.383208490133494</v>
+      </c>
+      <c r="CQ233" s="23">
+        <v>19.950050667712432</v>
+      </c>
+      <c r="CR233" s="23">
+        <v>17.508168399382491</v>
+      </c>
+      <c r="CS233" s="23">
+        <v>25.136234519860224</v>
+      </c>
+      <c r="CT233" s="23">
+        <v>20.883912627050375</v>
       </c>
     </row>
-    <row r="234" spans="1:97" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -64743,31 +65533,34 @@
         <v>4.9350150511504118</v>
       </c>
       <c r="CL234" s="11">
-        <v>7.1430288759919955</v>
+        <v>7.1430231930231889</v>
       </c>
       <c r="CM234" s="11">
-        <v>4.7755544312449549</v>
+        <v>4.7755769839476354</v>
       </c>
       <c r="CN234" s="11">
-        <v>7.4001966065796356</v>
+        <v>7.4000457606390331</v>
       </c>
       <c r="CO234" s="11">
-        <v>4.6061100557597596</v>
-      </c>
-      <c r="CP234" s="11">
-        <v>7.2116777182862633</v>
-      </c>
-      <c r="CQ234" s="11">
-        <v>4.7299999635940182</v>
-      </c>
-      <c r="CR234" s="11">
-        <v>7.6985881356772357</v>
-      </c>
-      <c r="CS234" s="11">
-        <v>4.4645277834795012</v>
+        <v>4.6041025060503777</v>
+      </c>
+      <c r="CP234" s="23">
+        <v>7.2116513450382866</v>
+      </c>
+      <c r="CQ234" s="23">
+        <v>4.729939922400785</v>
+      </c>
+      <c r="CR234" s="23">
+        <v>7.6982613020835107</v>
+      </c>
+      <c r="CS234" s="23">
+        <v>4.4657200702656095</v>
+      </c>
+      <c r="CT234" s="23">
+        <v>7.3028391055411968</v>
       </c>
     </row>
-    <row r="235" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -65036,31 +65829,34 @@
         <v>4.2154888746057635</v>
       </c>
       <c r="CL235" s="11">
-        <v>6.0059218172069633</v>
+        <v>6.0059170389165581</v>
       </c>
       <c r="CM235" s="11">
-        <v>3.2458575990860132</v>
+        <v>3.2458729277483562</v>
       </c>
       <c r="CN235" s="11">
-        <v>5.4001675945049055</v>
+        <v>5.4000575172456777</v>
       </c>
       <c r="CO235" s="11">
-        <v>4.2866087112235256</v>
-      </c>
-      <c r="CP235" s="11">
-        <v>6.0694879147652276</v>
-      </c>
-      <c r="CQ235" s="11">
-        <v>3.3148248801660127</v>
-      </c>
-      <c r="CR235" s="11">
-        <v>5.2923909077054256</v>
-      </c>
-      <c r="CS235" s="11">
-        <v>4.1607471543276811</v>
+        <v>4.2847404145549097</v>
+      </c>
+      <c r="CP235" s="23">
+        <v>6.0694657185279413</v>
+      </c>
+      <c r="CQ235" s="23">
+        <v>3.3147828027785495</v>
+      </c>
+      <c r="CR235" s="23">
+        <v>5.2921662261002691</v>
+      </c>
+      <c r="CS235" s="23">
+        <v>4.1618583141396552</v>
+      </c>
+      <c r="CT235" s="23">
+        <v>5.8464716862203083</v>
       </c>
     </row>
-    <row r="236" spans="1:97" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -65329,31 +66125,34 @@
         <v>1.2280405756952346</v>
       </c>
       <c r="CL236" s="11">
-        <v>3.0654619674720367</v>
+        <v>3.0654595286012101</v>
       </c>
       <c r="CM236" s="11">
-        <v>1.3800252743575308</v>
+        <v>1.3800317915693334</v>
       </c>
       <c r="CN236" s="11">
-        <v>0.2326002899734976</v>
+        <v>0.23259554863872089</v>
       </c>
       <c r="CO236" s="11">
-        <v>1.4291210756766803</v>
-      </c>
-      <c r="CP236" s="11">
-        <v>2.4878329389462115</v>
-      </c>
-      <c r="CQ236" s="11">
-        <v>1.2939604956900841</v>
-      </c>
-      <c r="CR236" s="11">
-        <v>0.18379398144244533</v>
-      </c>
-      <c r="CS236" s="11">
-        <v>1.5919627545465203</v>
+        <v>1.428498200503179</v>
+      </c>
+      <c r="CP236" s="23">
+        <v>2.4878238408919744</v>
+      </c>
+      <c r="CQ236" s="23">
+        <v>1.2939440705457379</v>
+      </c>
+      <c r="CR236" s="23">
+        <v>0.18378617870687858</v>
+      </c>
+      <c r="CS236" s="23">
+        <v>1.5923879005526098</v>
+      </c>
+      <c r="CT236" s="23">
+        <v>2.9282964704145824</v>
       </c>
     </row>
-    <row r="237" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -65622,31 +66421,34 @@
         <v>6.5545316198952763</v>
       </c>
       <c r="CL237" s="11">
-        <v>6.9818448038421455</v>
+        <v>6.9818392491108234</v>
       </c>
       <c r="CM237" s="11">
-        <v>8.188258380761873</v>
+        <v>8.1882970500639178</v>
       </c>
       <c r="CN237" s="11">
-        <v>8.6707195838281965</v>
+        <v>8.670542839490059</v>
       </c>
       <c r="CO237" s="11">
-        <v>6.5182111643757645</v>
-      </c>
-      <c r="CP237" s="11">
-        <v>6.8373044194272214</v>
-      </c>
-      <c r="CQ237" s="11">
-        <v>8.2294180439779279</v>
-      </c>
-      <c r="CR237" s="11">
-        <v>8.6083833766613207</v>
-      </c>
-      <c r="CS237" s="11">
-        <v>6.4166036650967238</v>
+        <v>6.515370235094804</v>
+      </c>
+      <c r="CP237" s="23">
+        <v>6.8372794152698004</v>
+      </c>
+      <c r="CQ237" s="23">
+        <v>8.2293135822268084</v>
+      </c>
+      <c r="CR237" s="23">
+        <v>8.6080179188883399</v>
+      </c>
+      <c r="CS237" s="23">
+        <v>6.418317269206689</v>
+      </c>
+      <c r="CT237" s="23">
+        <v>6.5041995552008931</v>
       </c>
     </row>
-    <row r="238" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -65915,31 +66717,34 @@
         <v>1.4489437093665296</v>
       </c>
       <c r="CL238" s="11">
-        <v>1.2594529060865995</v>
+        <v>1.2594519040702696</v>
       </c>
       <c r="CM238" s="11">
-        <v>4.3459113019146196</v>
+        <v>4.3459318256144073</v>
       </c>
       <c r="CN238" s="11">
-        <v>0.56158869867055761</v>
+        <v>0.56157725122125512</v>
       </c>
       <c r="CO238" s="11">
-        <v>1.3657637450823574</v>
-      </c>
-      <c r="CP238" s="11">
-        <v>1.3249683550256888</v>
-      </c>
-      <c r="CQ238" s="11">
-        <v>4.8263585820466828</v>
-      </c>
-      <c r="CR238" s="11">
-        <v>0.64056752184108812</v>
-      </c>
-      <c r="CS238" s="11">
-        <v>1.4521172080373828</v>
+        <v>1.365168483880099</v>
+      </c>
+      <c r="CP238" s="23">
+        <v>1.3249635095902226</v>
+      </c>
+      <c r="CQ238" s="23">
+        <v>4.826297317706203</v>
+      </c>
+      <c r="CR238" s="23">
+        <v>0.64054032737614242</v>
+      </c>
+      <c r="CS238" s="23">
+        <v>1.4525050072051759</v>
+      </c>
+      <c r="CT238" s="23">
+        <v>1.3634402513745452</v>
       </c>
     </row>
-    <row r="239" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -66208,31 +67013,34 @@
         <v>1.6837451410319677</v>
       </c>
       <c r="CL239" s="11">
-        <v>1.7061923628919926</v>
+        <v>1.7061910054513123</v>
       </c>
       <c r="CM239" s="11">
-        <v>1.5399358581195812</v>
+        <v>1.5399431305140341</v>
       </c>
       <c r="CN239" s="11">
-        <v>1.6130219822086627</v>
+        <v>1.6129891022959992</v>
       </c>
       <c r="CO239" s="11">
-        <v>1.7841595213133541</v>
-      </c>
-      <c r="CP239" s="11">
-        <v>1.6030427895370798</v>
-      </c>
-      <c r="CQ239" s="11">
-        <v>1.5927345339168655</v>
-      </c>
-      <c r="CR239" s="11">
-        <v>1.6545241229726206</v>
-      </c>
-      <c r="CS239" s="11">
-        <v>1.7650689028592712</v>
+        <v>1.783381904433786</v>
+      </c>
+      <c r="CP239" s="23">
+        <v>1.6030369271779095</v>
+      </c>
+      <c r="CQ239" s="23">
+        <v>1.5927143162249715</v>
+      </c>
+      <c r="CR239" s="23">
+        <v>1.6544538822927082</v>
+      </c>
+      <c r="CS239" s="23">
+        <v>1.765540278205447</v>
+      </c>
+      <c r="CT239" s="23">
+        <v>1.6133916456280994</v>
       </c>
     </row>
-    <row r="240" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -66501,31 +67309,34 @@
         <v>0.46263191896810812</v>
       </c>
       <c r="CL240" s="11">
-        <v>0.52814462891895819</v>
+        <v>0.52814420872893741</v>
       </c>
       <c r="CM240" s="11">
-        <v>0.12699899705751774</v>
+        <v>0.12699959681418738</v>
       </c>
       <c r="CN240" s="11">
-        <v>0.14192470594099724</v>
+        <v>0.14192181294140541</v>
       </c>
       <c r="CO240" s="11">
-        <v>0.47329533351656311</v>
-      </c>
-      <c r="CP240" s="11">
-        <v>0.52438601983747402</v>
-      </c>
-      <c r="CQ240" s="11">
-        <v>0.12993708789018626</v>
-      </c>
-      <c r="CR240" s="11">
-        <v>0.14898014606312851</v>
-      </c>
-      <c r="CS240" s="11">
-        <v>0.45920700694595329</v>
+        <v>0.47308905014561653</v>
+      </c>
+      <c r="CP240" s="23">
+        <v>0.52438410214743347</v>
+      </c>
+      <c r="CQ240" s="23">
+        <v>0.12993543850797434</v>
+      </c>
+      <c r="CR240" s="23">
+        <v>0.1489738213038774</v>
+      </c>
+      <c r="CS240" s="23">
+        <v>0.4593296417402748</v>
+      </c>
+      <c r="CT240" s="23">
+        <v>0.65043210279176322</v>
       </c>
     </row>
-    <row r="241" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -66794,31 +67605,34 @@
         <v>1.1322611987832074</v>
       </c>
       <c r="CL241" s="11">
-        <v>0.81983851713334654</v>
+        <v>0.81983786487268784</v>
       </c>
       <c r="CM241" s="11">
-        <v>1.3068014437443911</v>
+        <v>1.3068076151544019</v>
       </c>
       <c r="CN241" s="11">
-        <v>1.1552050963653966</v>
+        <v>1.1551815486127335</v>
       </c>
       <c r="CO241" s="11">
-        <v>1.1415387443007805</v>
-      </c>
-      <c r="CP241" s="11">
-        <v>0.84340346431595481</v>
-      </c>
-      <c r="CQ241" s="11">
-        <v>1.3233118340858518</v>
-      </c>
-      <c r="CR241" s="11">
-        <v>1.1116268887928549</v>
-      </c>
-      <c r="CS241" s="11">
-        <v>1.0983616322423535</v>
+        <v>1.1410412104280272</v>
+      </c>
+      <c r="CP241" s="23">
+        <v>0.84340037997281347</v>
+      </c>
+      <c r="CQ241" s="23">
+        <v>1.3232950363644669</v>
+      </c>
+      <c r="CR241" s="23">
+        <v>1.1115796961122564</v>
+      </c>
+      <c r="CS241" s="23">
+        <v>1.0986549582387415</v>
+      </c>
+      <c r="CT241" s="23">
+        <v>0.76625067820150128</v>
       </c>
     </row>
-    <row r="242" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -67087,31 +67901,34 @@
         <v>0.69005799112151833</v>
       </c>
       <c r="CL242" s="11">
-        <v>0.20611703713106763</v>
+        <v>0.20611687314507332</v>
       </c>
       <c r="CM242" s="11">
-        <v>0.78742701661463199</v>
+        <v>0.78743073526293639</v>
       </c>
       <c r="CN242" s="11">
-        <v>0.55872952211647253</v>
+        <v>0.5587181329487535</v>
       </c>
       <c r="CO242" s="11">
-        <v>0.64150141746957845</v>
-      </c>
-      <c r="CP242" s="11">
-        <v>0.19365175610543719</v>
-      </c>
-      <c r="CQ242" s="11">
-        <v>0.71892698959749812</v>
-      </c>
-      <c r="CR242" s="11">
-        <v>0.4835596610788237</v>
-      </c>
-      <c r="CS242" s="11">
-        <v>0.5857209030511471</v>
+        <v>0.64122182232994462</v>
+      </c>
+      <c r="CP242" s="23">
+        <v>0.19365104791713703</v>
+      </c>
+      <c r="CQ242" s="23">
+        <v>0.71891786375508038</v>
+      </c>
+      <c r="CR242" s="23">
+        <v>0.48353913217936506</v>
+      </c>
+      <c r="CS242" s="23">
+        <v>0.58587732436308049</v>
+      </c>
+      <c r="CT242" s="23">
+        <v>0.1949087422461071</v>
       </c>
     </row>
-    <row r="243" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>22</v>
       </c>
@@ -67380,31 +68197,34 @@
         <v>0.10627552246824756</v>
       </c>
       <c r="CL243" s="11">
-        <v>0.13862636392648151</v>
+        <v>0.13862625363583092</v>
       </c>
       <c r="CM243" s="11">
-        <v>0.1190564571882464</v>
+        <v>0.11905701943602721</v>
       </c>
       <c r="CN243" s="11">
-        <v>9.0931494142435607E-2</v>
+        <v>9.0929640590767524E-2</v>
       </c>
       <c r="CO243" s="11">
-        <v>0.10907000757256982</v>
-      </c>
-      <c r="CP243" s="11">
-        <v>0.13338192491070558</v>
-      </c>
-      <c r="CQ243" s="11">
-        <v>0.12356908531586286</v>
-      </c>
-      <c r="CR243" s="11">
-        <v>9.5001907147642076E-2</v>
-      </c>
-      <c r="CS243" s="11">
-        <v>0.11137235740237997</v>
+        <v>0.10902246996288313</v>
+      </c>
+      <c r="CP243" s="23">
+        <v>0.13338143713036948</v>
+      </c>
+      <c r="CQ243" s="23">
+        <v>0.12356751676715538</v>
+      </c>
+      <c r="CR243" s="23">
+        <v>9.499787396465105E-2</v>
+      </c>
+      <c r="CS243" s="23">
+        <v>0.11140210025459381</v>
+      </c>
+      <c r="CT243" s="23">
+        <v>0.13726227844371566</v>
       </c>
     </row>
-    <row r="244" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>23</v>
       </c>
@@ -67673,31 +68493,34 @@
         <v>8.9790143253331067E-2</v>
       </c>
       <c r="CL244" s="11">
-        <v>0.10540596478705447</v>
+        <v>0.10540588092643732</v>
       </c>
       <c r="CM244" s="11">
-        <v>0.10927872254091202</v>
+        <v>0.10927923861304023</v>
       </c>
       <c r="CN244" s="11">
-        <v>8.2313861220995987E-2</v>
+        <v>8.2312183331545136E-2</v>
       </c>
       <c r="CO244" s="11">
-        <v>9.2706563792369634E-2</v>
-      </c>
-      <c r="CP244" s="11">
-        <v>0.10683318556406698</v>
-      </c>
-      <c r="CQ244" s="11">
-        <v>0.10801910731836355</v>
-      </c>
-      <c r="CR244" s="11">
-        <v>7.6959221114462434E-2</v>
-      </c>
-      <c r="CS244" s="11">
-        <v>9.5133208839805666E-2</v>
+        <v>9.2666158106672558E-2</v>
+      </c>
+      <c r="CP244" s="23">
+        <v>0.1068327948729955</v>
+      </c>
+      <c r="CQ244" s="23">
+        <v>0.10801773615638779</v>
+      </c>
+      <c r="CR244" s="23">
+        <v>7.6955953910351274E-2</v>
+      </c>
+      <c r="CS244" s="23">
+        <v>9.5158614901391728E-2</v>
+      </c>
+      <c r="CT244" s="23">
+        <v>0.10550491820910467</v>
       </c>
     </row>
-    <row r="245" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>24</v>
       </c>
@@ -67966,31 +68789,34 @@
         <v>0.1630417560919275</v>
       </c>
       <c r="CL245" s="11">
-        <v>6.2403309916551852E-2</v>
+        <v>6.2403260268696602E-2</v>
       </c>
       <c r="CM245" s="11">
-        <v>8.687208180069457E-2</v>
+        <v>8.6872492056772749E-2</v>
       </c>
       <c r="CN245" s="11">
-        <v>4.8888863110479519E-2</v>
+        <v>4.8887866557694122E-2</v>
       </c>
       <c r="CO245" s="11">
-        <v>0.17711645539370183</v>
-      </c>
-      <c r="CP245" s="11">
-        <v>6.9733973015430994E-2</v>
-      </c>
-      <c r="CQ245" s="11">
-        <v>8.8171888901415751E-2</v>
-      </c>
-      <c r="CR245" s="11">
-        <v>0.10613313832909654</v>
-      </c>
-      <c r="CS245" s="11">
-        <v>0.17724995460339052</v>
+        <v>0.17703926008480819</v>
+      </c>
+      <c r="CP245" s="23">
+        <v>6.9733717996913192E-2</v>
+      </c>
+      <c r="CQ245" s="23">
+        <v>8.8170769674045746E-2</v>
+      </c>
+      <c r="CR245" s="23">
+        <v>0.10612863258409472</v>
+      </c>
+      <c r="CS245" s="23">
+        <v>0.17729729057909971</v>
+      </c>
+      <c r="CT245" s="23">
+        <v>7.6089972407636153E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>25</v>
       </c>
@@ -68259,31 +69085,34 @@
         <v>4.8855607347512358</v>
       </c>
       <c r="CL246" s="11">
-        <v>5.6677108616524476</v>
+        <v>5.6677063524414972</v>
       </c>
       <c r="CM246" s="11">
-        <v>5.7049411578491629</v>
+        <v>5.7049680996092444</v>
       </c>
       <c r="CN246" s="11">
-        <v>4.4092142872514115</v>
+        <v>4.409124409628987</v>
       </c>
       <c r="CO246" s="11">
-        <v>4.9103141922666556</v>
-      </c>
-      <c r="CP246" s="11">
-        <v>5.604107287133731</v>
-      </c>
-      <c r="CQ246" s="11">
-        <v>5.7237354918915422</v>
-      </c>
-      <c r="CR246" s="11">
-        <v>4.1510481328917281</v>
-      </c>
-      <c r="CS246" s="11">
-        <v>4.8176124986349658</v>
+        <v>4.9470684764821655</v>
+      </c>
+      <c r="CP246" s="23">
+        <v>5.6040867928026001</v>
+      </c>
+      <c r="CQ246" s="23">
+        <v>5.7236628365191669</v>
+      </c>
+      <c r="CR246" s="23">
+        <v>4.1508719055166452</v>
+      </c>
+      <c r="CS246" s="23">
+        <v>4.800511227778113</v>
+      </c>
+      <c r="CT246" s="23">
+        <v>5.7446221573659795</v>
       </c>
     </row>
-    <row r="247" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>26</v>
       </c>
@@ -68552,31 +69381,34 @@
         <v>8.9157920920746161</v>
       </c>
       <c r="CL247" s="11">
-        <v>10.28585491759738</v>
+        <v>10.285846734207158</v>
       </c>
       <c r="CM247" s="11">
-        <v>10.729532447239068</v>
+        <v>10.729583117786051</v>
       </c>
       <c r="CN247" s="11">
-        <v>11.114274539750504</v>
+        <v>11.114047985878198</v>
       </c>
       <c r="CO247" s="11">
-        <v>9.2200988481874244</v>
-      </c>
-      <c r="CP247" s="11">
-        <v>10.562425111689924</v>
-      </c>
-      <c r="CQ247" s="11">
-        <v>10.874339989456914</v>
-      </c>
-      <c r="CR247" s="11">
-        <v>11.309337572810456</v>
-      </c>
-      <c r="CS247" s="11">
-        <v>9.34047756144159</v>
+        <v>9.2160803148612391</v>
+      </c>
+      <c r="CP247" s="23">
+        <v>10.562386484692492</v>
+      </c>
+      <c r="CQ247" s="23">
+        <v>10.874201953864182</v>
+      </c>
+      <c r="CR247" s="23">
+        <v>11.310982245215763</v>
+      </c>
+      <c r="CS247" s="23">
+        <v>9.3427227270269526</v>
+      </c>
+      <c r="CT247" s="23">
+        <v>10.153671239177422</v>
       </c>
     </row>
-    <row r="248" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>27</v>
       </c>
@@ -68845,31 +69677,34 @@
         <v>10.049041533374638</v>
       </c>
       <c r="CL248" s="11">
-        <v>11.339454977445875</v>
+        <v>11.33944595581513</v>
       </c>
       <c r="CM248" s="11">
-        <v>9.7390142933786166</v>
+        <v>9.739060286173153</v>
       </c>
       <c r="CN248" s="11">
-        <v>10.591433329454221</v>
+        <v>10.59121743320067</v>
       </c>
       <c r="CO248" s="11">
-        <v>10.240520417195551</v>
-      </c>
-      <c r="CP248" s="11">
-        <v>11.44058443023774</v>
-      </c>
-      <c r="CQ248" s="11">
-        <v>9.8335782458250911</v>
-      </c>
-      <c r="CR248" s="11">
-        <v>10.794661916617761</v>
-      </c>
-      <c r="CS248" s="11">
-        <v>10.888958668307128</v>
+        <v>10.236057138303256</v>
+      </c>
+      <c r="CP248" s="23">
+        <v>11.440542591794321</v>
+      </c>
+      <c r="CQ248" s="23">
+        <v>9.8334534213480964</v>
+      </c>
+      <c r="CR248" s="23">
+        <v>10.794203643219435</v>
+      </c>
+      <c r="CS248" s="23">
+        <v>10.891866649209998</v>
+      </c>
+      <c r="CT248" s="23">
+        <v>12.063208916273995</v>
       </c>
     </row>
-    <row r="249" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>4</v>
       </c>
@@ -69138,31 +69973,34 @@
         <v>3.6407553225098797</v>
       </c>
       <c r="CL249" s="11">
-        <v>4.2504907942462022</v>
+        <v>4.2504874125705836</v>
       </c>
       <c r="CM249" s="11">
-        <v>4.0466333384700421</v>
+        <v>4.0466524488204429</v>
       </c>
       <c r="CN249" s="11">
-        <v>4.2490296569769583</v>
+        <v>4.2489430445652436</v>
       </c>
       <c r="CO249" s="11">
-        <v>3.7258188930205152</v>
-      </c>
-      <c r="CP249" s="11">
-        <v>4.276014324410653</v>
-      </c>
-      <c r="CQ249" s="11">
-        <v>4.0916343501347692</v>
-      </c>
-      <c r="CR249" s="11">
-        <v>4.3323675451557175</v>
-      </c>
-      <c r="CS249" s="11">
-        <v>3.8709290909441538</v>
+        <v>3.7241950137502964</v>
+      </c>
+      <c r="CP249" s="23">
+        <v>4.2759986869417403</v>
+      </c>
+      <c r="CQ249" s="23">
+        <v>4.0915824121621371</v>
+      </c>
+      <c r="CR249" s="23">
+        <v>4.3321836200996975</v>
+      </c>
+      <c r="CS249" s="23">
+        <v>3.8719628525935206</v>
+      </c>
+      <c r="CT249" s="23">
+        <v>4.3132671350859697</v>
       </c>
     </row>
-    <row r="250" spans="1:97" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>3</v>
       </c>
@@ -69431,31 +70269,34 @@
         <v>4.1146673831230156E-2</v>
       </c>
       <c r="CL250" s="11">
-        <v>0.19164267444971012</v>
+        <v>0.19172208162993384</v>
       </c>
       <c r="CM250" s="11">
-        <v>0.16654034758844005</v>
+        <v>0.16606888100471318</v>
       </c>
       <c r="CN250" s="11">
-        <v>0.24303024893118247</v>
+        <v>0.24450125695687627</v>
       </c>
       <c r="CO250" s="11">
-        <v>3.6385133887440031E-2</v>
-      </c>
-      <c r="CP250" s="11">
-        <v>0.10008267284045773</v>
-      </c>
-      <c r="CQ250" s="11">
-        <v>0.13302739786188783</v>
-      </c>
-      <c r="CR250" s="11">
-        <v>0.22354376618788407</v>
-      </c>
-      <c r="CS250" s="11">
-        <v>3.2232859752056107E-2</v>
+        <v>4.1059348738064438E-2</v>
+      </c>
+      <c r="CP250" s="23">
+        <v>0.10044800881294717</v>
+      </c>
+      <c r="CQ250" s="23">
+        <v>0.13434698041479209</v>
+      </c>
+      <c r="CR250" s="23">
+        <v>0.22610735461481923</v>
+      </c>
+      <c r="CS250" s="23">
+        <v>3.7551311091277052E-2</v>
+      </c>
+      <c r="CT250" s="23">
+        <v>0.13879455088361775</v>
       </c>
     </row>
-    <row r="251" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -69724,31 +70565,34 @@
         <v>13.554383974903411</v>
       </c>
       <c r="CL251" s="11">
-        <v>10.375402371520305</v>
+        <v>10.375394116886444</v>
       </c>
       <c r="CM251" s="11">
-        <v>11.705358945131101</v>
+        <v>11.705414224048734</v>
       </c>
       <c r="CN251" s="11">
-        <v>12.900009239085591</v>
+        <v>12.899746284716823</v>
       </c>
       <c r="CO251" s="11">
-        <v>13.174399254932995</v>
-      </c>
-      <c r="CP251" s="11">
-        <v>10.20913619628935</v>
-      </c>
-      <c r="CQ251" s="11">
-        <v>10.132516030553434</v>
-      </c>
-      <c r="CR251" s="11">
-        <v>12.2561429949147</v>
-      </c>
-      <c r="CS251" s="11">
-        <v>12.320937385030385</v>
+        <v>13.168657259827505</v>
+      </c>
+      <c r="CP251" s="23">
+        <v>10.209098861276466</v>
+      </c>
+      <c r="CQ251" s="23">
+        <v>10.132335510133361</v>
+      </c>
+      <c r="CR251" s="23">
+        <v>12.254611704336174</v>
+      </c>
+      <c r="CS251" s="23">
+        <v>12.310849300833974</v>
+      </c>
+      <c r="CT251" s="23">
+        <v>10.067554505731476</v>
       </c>
     </row>
-    <row r="252" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -70017,32 +70861,35 @@
         <v>10.214855154238849</v>
       </c>
       <c r="CL252" s="11">
-        <v>8.939821068782333</v>
+        <v>8.9398139562919372</v>
       </c>
       <c r="CM252" s="11">
-        <v>12.357851515300245</v>
+        <v>12.35790987563411</v>
       </c>
       <c r="CN252" s="11">
-        <v>12.903218151601923</v>
+        <v>12.902955131822539</v>
       </c>
       <c r="CO252" s="11">
-        <v>10.637459001171878</v>
-      </c>
-      <c r="CP252" s="11">
-        <v>9.0186588284257692</v>
-      </c>
-      <c r="CQ252" s="11">
-        <v>12.781632090921219</v>
-      </c>
-      <c r="CR252" s="11">
-        <v>13.324035836806425</v>
-      </c>
-      <c r="CS252" s="11">
-        <v>11.221255918831288</v>
+        <v>10.632822718610702</v>
+      </c>
+      <c r="CP252" s="23">
+        <v>9.018625847012153</v>
+      </c>
+      <c r="CQ252" s="23">
+        <v>12.78146984473768</v>
+      </c>
+      <c r="CR252" s="23">
+        <v>13.323470182112512</v>
+      </c>
+      <c r="CS252" s="23">
+        <v>11.22425264195356</v>
+      </c>
+      <c r="CT252" s="23">
+        <v>9.1458814617517277</v>
       </c>
     </row>
-    <row r="253" spans="1:97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:97" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9" t="s">
         <v>9</v>
       </c>
@@ -70322,20 +71169,23 @@
       <c r="CO254" s="11">
         <v>100</v>
       </c>
-      <c r="CP254" s="11">
+      <c r="CP254" s="23">
         <v>100</v>
       </c>
-      <c r="CQ254" s="11">
+      <c r="CQ254" s="23">
         <v>100</v>
       </c>
-      <c r="CR254" s="11">
+      <c r="CR254" s="23">
         <v>100</v>
       </c>
-      <c r="CS254" s="11">
+      <c r="CS254" s="23">
         <v>100</v>
       </c>
+      <c r="CT254" s="23">
+        <v>100</v>
+      </c>
     </row>
-    <row r="255" spans="1:97" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -70429,17 +71279,23 @@
       <c r="CM255" s="10"/>
       <c r="CN255" s="10"/>
       <c r="CO255" s="10"/>
-      <c r="CP255" s="10"/>
-      <c r="CQ255" s="10"/>
-      <c r="CR255" s="10"/>
-      <c r="CS255" s="10"/>
+      <c r="CP255" s="20"/>
+      <c r="CQ255" s="20"/>
+      <c r="CR255" s="20"/>
+      <c r="CS255" s="20"/>
+      <c r="CT255" s="20"/>
     </row>
-    <row r="256" spans="1:97" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="CP256" s="14"/>
+      <c r="CQ256" s="14"/>
+      <c r="CR256" s="14"/>
+      <c r="CS256" s="14"/>
+      <c r="CT256" s="14"/>
     </row>
-    <row r="257" spans="1:97" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:98" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="BV257" s="7"/>
       <c r="BW257" s="7"/>
@@ -70461,12 +71317,13 @@
       <c r="CM257" s="7"/>
       <c r="CN257" s="7"/>
       <c r="CO257" s="7"/>
-      <c r="CP257" s="7"/>
-      <c r="CQ257" s="7"/>
-      <c r="CR257" s="7"/>
-      <c r="CS257" s="7"/>
+      <c r="CP257" s="18"/>
+      <c r="CQ257" s="18"/>
+      <c r="CR257" s="18"/>
+      <c r="CS257" s="18"/>
+      <c r="CT257" s="18"/>
     </row>
-    <row r="258" spans="1:97" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:98" s="12" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="BV258" s="7"/>
       <c r="BW258" s="7"/>
@@ -70488,22 +71345,14 @@
       <c r="CM258" s="7"/>
       <c r="CN258" s="7"/>
       <c r="CO258" s="7"/>
-      <c r="CP258" s="7"/>
-      <c r="CQ258" s="7"/>
-      <c r="CR258" s="7"/>
-      <c r="CS258" s="7"/>
+      <c r="CP258" s="18"/>
+      <c r="CQ258" s="18"/>
+      <c r="CR258" s="18"/>
+      <c r="CS258" s="18"/>
+      <c r="CT258" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH193:CK193"/>
-    <mergeCell ref="CH156:CK156"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD46:CG46"/>
-    <mergeCell ref="CH83:CK83"/>
-    <mergeCell ref="CH120:CK120"/>
-    <mergeCell ref="CH230:CK230"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH46:CK46"/>
+  <mergeCells count="147">
     <mergeCell ref="BN193:BQ193"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR9:BU9"/>
@@ -70523,6 +71372,8 @@
     <mergeCell ref="BV230:BY230"/>
     <mergeCell ref="CD120:CG120"/>
     <mergeCell ref="CD83:CG83"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD46:CG46"/>
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="BJ9:BM9"/>

--- a/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-08AFF_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7758B1-F1D7-484D-907E-4F248F7814E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9C5138-892E-4F6F-8B36-24642F37F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFF" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="71">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -667,13 +667,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,25 +781,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23648,12 +23633,12 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:CT258"/>
+  <dimension ref="A1:CU258"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="62" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CW17" sqref="CW17"/>
+      <selection pane="topRight" activeCell="CO1" sqref="CO1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23661,213 +23646,171 @@
     <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
     <col min="2" max="85" width="9.44140625" style="7" customWidth="1"/>
     <col min="86" max="89" width="7.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="90" max="93" width="8.21875" style="7" customWidth="1"/>
-    <col min="94" max="98" width="8.21875" style="18" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="7"/>
+    <col min="90" max="92" width="8.21875" style="7" customWidth="1"/>
+    <col min="93" max="99" width="8.5546875" style="7" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP1" s="14"/>
-      <c r="CQ1" s="14"/>
-      <c r="CR1" s="14"/>
-      <c r="CS1" s="14"/>
-      <c r="CT1" s="14"/>
     </row>
-    <row r="2" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CP2" s="14"/>
-      <c r="CQ2" s="14"/>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="14"/>
-      <c r="CT2" s="14"/>
     </row>
-    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14"/>
-      <c r="CT4" s="14"/>
-    </row>
-    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="CP5" s="14"/>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="14"/>
-      <c r="CS5" s="14"/>
-      <c r="CT5" s="14"/>
     </row>
-    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CP6" s="14"/>
-      <c r="CQ6" s="14"/>
-      <c r="CR6" s="14"/>
-      <c r="CS6" s="14"/>
-      <c r="CT6" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="CP7" s="14"/>
-      <c r="CQ7" s="14"/>
-      <c r="CR7" s="14"/>
-      <c r="CS7" s="14"/>
-      <c r="CT7" s="14"/>
     </row>
-    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP8" s="14"/>
-      <c r="CQ8" s="14"/>
-      <c r="CR8" s="14"/>
-      <c r="CS8" s="14"/>
-      <c r="CT8" s="14"/>
-    </row>
-    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="25">
+      <c r="B9" s="16">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="16"/>
+      <c r="BT9" s="16"/>
+      <c r="BU9" s="16"/>
+      <c r="BV9" s="16">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="16"/>
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
+      <c r="CE9" s="16"/>
+      <c r="CF9" s="16"/>
+      <c r="CG9" s="16"/>
       <c r="CH9" s="13">
         <v>2021</v>
       </c>
@@ -23880,17 +23823,18 @@
       <c r="CM9" s="13"/>
       <c r="CN9" s="13"/>
       <c r="CO9" s="13"/>
-      <c r="CP9" s="15">
+      <c r="CP9" s="13">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="15"/>
-      <c r="CR9" s="15"/>
-      <c r="CS9" s="15"/>
-      <c r="CT9" s="15">
+      <c r="CQ9" s="13"/>
+      <c r="CR9" s="13"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13">
         <v>2024</v>
       </c>
+      <c r="CU9" s="13"/>
     </row>
-    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -24170,31 +24114,29 @@
       <c r="CO10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP10" s="16" t="s">
+      <c r="CP10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ10" s="16" t="s">
+      <c r="CQ10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR10" s="16" t="s">
+      <c r="CR10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CS10" s="16" t="s">
+      <c r="CS10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CT10" s="16" t="s">
+      <c r="CT10" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CU10" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="CP11" s="14"/>
-      <c r="CQ11" s="14"/>
-      <c r="CR11" s="14"/>
-      <c r="CS11" s="14"/>
-      <c r="CT11" s="14"/>
     </row>
-    <row r="12" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -24474,23 +24416,26 @@
       <c r="CO12" s="6">
         <v>134332.57281604729</v>
       </c>
-      <c r="CP12" s="17">
+      <c r="CP12" s="6">
         <v>93834.755992139151</v>
       </c>
-      <c r="CQ12" s="17">
+      <c r="CQ12" s="6">
         <v>82110.464251484431</v>
       </c>
-      <c r="CR12" s="17">
+      <c r="CR12" s="6">
         <v>71593.874578880786</v>
       </c>
-      <c r="CS12" s="17">
+      <c r="CS12" s="6">
         <v>167825.30170241185</v>
       </c>
-      <c r="CT12" s="17">
-        <v>129335.17998345399</v>
+      <c r="CT12" s="6">
+        <v>129393.76406607799</v>
+      </c>
+      <c r="CU12" s="6">
+        <v>96233.612593285885</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -24770,23 +24715,26 @@
       <c r="CO13" s="6">
         <v>32235.883038472639</v>
       </c>
-      <c r="CP13" s="17">
+      <c r="CP13" s="6">
         <v>45636.323206322086</v>
       </c>
-      <c r="CQ13" s="17">
+      <c r="CQ13" s="6">
         <v>24677.33501405226</v>
       </c>
-      <c r="CR13" s="17">
+      <c r="CR13" s="6">
         <v>39840.218049799907</v>
       </c>
-      <c r="CS13" s="17">
+      <c r="CS13" s="6">
         <v>32065.15508492104</v>
       </c>
-      <c r="CT13" s="17">
+      <c r="CT13" s="6">
         <v>41694.097981516163</v>
       </c>
+      <c r="CU13" s="6">
+        <v>19437.87212278114</v>
+      </c>
     </row>
-    <row r="14" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -25066,23 +25014,26 @@
       <c r="CO14" s="6">
         <v>19553.487826351644</v>
       </c>
-      <c r="CP14" s="17">
+      <c r="CP14" s="6">
         <v>20356.330363943223</v>
       </c>
-      <c r="CQ14" s="17">
+      <c r="CQ14" s="6">
         <v>16563.72625525864</v>
       </c>
-      <c r="CR14" s="17">
+      <c r="CR14" s="6">
         <v>35403.329791440192</v>
       </c>
-      <c r="CS14" s="17">
+      <c r="CS14" s="6">
         <v>18687.049301843635</v>
       </c>
-      <c r="CT14" s="17">
-        <v>24370.600546811016</v>
+      <c r="CT14" s="6">
+        <v>24338.899491613771</v>
+      </c>
+      <c r="CU14" s="6">
+        <v>17823.954959827162</v>
       </c>
     </row>
-    <row r="15" spans="1:98" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:99" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
@@ -25362,23 +25313,26 @@
       <c r="CO15" s="6">
         <v>18748.249646992539</v>
       </c>
-      <c r="CP15" s="17">
+      <c r="CP15" s="6">
         <v>16082.933978266828</v>
       </c>
-      <c r="CQ15" s="17">
+      <c r="CQ15" s="6">
         <v>6038.6793582825558</v>
       </c>
-      <c r="CR15" s="17">
+      <c r="CR15" s="6">
         <v>2418.0641588093122</v>
       </c>
-      <c r="CS15" s="17">
+      <c r="CS15" s="6">
         <v>17214.339468550705</v>
       </c>
-      <c r="CT15" s="17">
-        <v>16493.286659836653</v>
+      <c r="CT15" s="6">
+        <v>16510.034743379816</v>
+      </c>
+      <c r="CU15" s="6">
+        <v>3028.1769759622866</v>
       </c>
     </row>
-    <row r="16" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -25658,23 +25612,26 @@
       <c r="CO16" s="6">
         <v>35878.550106385228</v>
       </c>
-      <c r="CP16" s="17">
+      <c r="CP16" s="6">
         <v>34561.027847580932</v>
       </c>
-      <c r="CQ16" s="17">
+      <c r="CQ16" s="6">
         <v>37944.198223168212</v>
       </c>
-      <c r="CR16" s="17">
+      <c r="CR16" s="6">
         <v>39337.243160708676</v>
       </c>
-      <c r="CS16" s="17">
+      <c r="CS16" s="6">
         <v>38631.761527630413</v>
       </c>
-      <c r="CT16" s="17">
-        <v>39149.705217882336</v>
+      <c r="CT16" s="6">
+        <v>39340.759417844965</v>
+      </c>
+      <c r="CU16" s="6">
+        <v>41168.812599998862</v>
       </c>
     </row>
-    <row r="17" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -25954,23 +25911,26 @@
       <c r="CO17" s="6">
         <v>9418.9819852519468</v>
       </c>
-      <c r="CP17" s="17">
+      <c r="CP17" s="6">
         <v>6489.9324468757904</v>
       </c>
-      <c r="CQ17" s="17">
+      <c r="CQ17" s="6">
         <v>23526.536290698794</v>
       </c>
-      <c r="CR17" s="17">
+      <c r="CR17" s="6">
         <v>3341.6963286605487</v>
       </c>
-      <c r="CS17" s="17">
+      <c r="CS17" s="6">
         <v>10893.529227295439</v>
       </c>
-      <c r="CT17" s="17">
-        <v>6479.5451629189356</v>
+      <c r="CT17" s="6">
+        <v>6478.039390429285</v>
+      </c>
+      <c r="CU17" s="6">
+        <v>17124.073357142344</v>
       </c>
     </row>
-    <row r="18" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -26250,23 +26210,26 @@
       <c r="CO18" s="6">
         <v>10089.765648665163</v>
       </c>
-      <c r="CP18" s="17">
+      <c r="CP18" s="6">
         <v>6840.4901097173479</v>
       </c>
-      <c r="CQ18" s="17">
+      <c r="CQ18" s="6">
         <v>5240.5698429203048</v>
       </c>
-      <c r="CR18" s="17">
+      <c r="CR18" s="6">
         <v>10320.749827385991</v>
       </c>
-      <c r="CS18" s="17">
+      <c r="CS18" s="6">
         <v>12221.209886021175</v>
       </c>
-      <c r="CT18" s="17">
-        <v>10172.532026986082</v>
+      <c r="CT18" s="6">
+        <v>10137.808028806621</v>
+      </c>
+      <c r="CU18" s="6">
+        <v>9524.4377793339718</v>
       </c>
     </row>
-    <row r="19" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -26546,23 +26509,26 @@
       <c r="CO19" s="6">
         <v>3197.5244131931577</v>
       </c>
-      <c r="CP19" s="17">
+      <c r="CP19" s="6">
         <v>1933.8923400270132</v>
       </c>
-      <c r="CQ19" s="17">
+      <c r="CQ19" s="6">
         <v>631.02479072132064</v>
       </c>
-      <c r="CR19" s="17">
+      <c r="CR19" s="6">
         <v>594.32013132931183</v>
       </c>
-      <c r="CS19" s="17">
+      <c r="CS19" s="6">
         <v>4198.9531827400488</v>
       </c>
-      <c r="CT19" s="17">
-        <v>3446.7943306933698</v>
+      <c r="CT19" s="6">
+        <v>3446.7661225851894</v>
+      </c>
+      <c r="CU19" s="6">
+        <v>995.73357976851241</v>
       </c>
     </row>
-    <row r="20" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -26842,23 +26808,26 @@
       <c r="CO20" s="6">
         <v>8660.0378907285485</v>
       </c>
-      <c r="CP20" s="17">
+      <c r="CP20" s="6">
         <v>4170.8210332680455</v>
       </c>
-      <c r="CQ20" s="17">
+      <c r="CQ20" s="6">
         <v>6190.7508537492158</v>
       </c>
-      <c r="CR20" s="17">
+      <c r="CR20" s="6">
         <v>8285.0277917038547</v>
       </c>
-      <c r="CS20" s="17">
+      <c r="CS20" s="6">
         <v>10064.952842221624</v>
       </c>
-      <c r="CT20" s="17">
-        <v>5552.1997192394001</v>
+      <c r="CT20" s="6">
+        <v>5551.5013316164741</v>
+      </c>
+      <c r="CU20" s="6">
+        <v>6169.4129196843123</v>
       </c>
     </row>
-    <row r="21" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -27138,23 +27107,26 @@
       <c r="CO21" s="6">
         <v>3381.935712594518</v>
       </c>
-      <c r="CP21" s="17">
+      <c r="CP21" s="6">
         <v>1113.3913037177003</v>
       </c>
-      <c r="CQ21" s="17">
+      <c r="CQ21" s="6">
         <v>2623.5636590731929</v>
       </c>
-      <c r="CR21" s="17">
+      <c r="CR21" s="6">
         <v>2007.1012748685953</v>
       </c>
-      <c r="CS21" s="17">
+      <c r="CS21" s="6">
         <v>3288.3455263702308</v>
       </c>
-      <c r="CT21" s="17">
-        <v>1207.2686285614161</v>
+      <c r="CT21" s="6">
+        <v>1209.1299343025059</v>
+      </c>
+      <c r="CU21" s="6">
+        <v>3464.8643830420529</v>
       </c>
     </row>
-    <row r="22" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -27434,23 +27406,26 @@
       <c r="CO22" s="6">
         <v>585.13917654234183</v>
       </c>
-      <c r="CP22" s="17">
+      <c r="CP22" s="6">
         <v>483.1902940807297</v>
       </c>
-      <c r="CQ22" s="17">
+      <c r="CQ22" s="6">
         <v>375.10898706258115</v>
       </c>
-      <c r="CR22" s="17">
+      <c r="CR22" s="6">
         <v>540.82603765416945</v>
       </c>
-      <c r="CS22" s="17">
+      <c r="CS22" s="6">
         <v>707.92578038240333</v>
       </c>
-      <c r="CT22" s="17">
-        <v>473.36384016910296</v>
+      <c r="CT22" s="6">
+        <v>473.36384016910301</v>
+      </c>
+      <c r="CU22" s="6">
+        <v>499.01852261729846</v>
       </c>
     </row>
-    <row r="23" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -27730,23 +27705,26 @@
       <c r="CO23" s="6">
         <v>558.10577073315869</v>
       </c>
-      <c r="CP23" s="17">
+      <c r="CP23" s="6">
         <v>367.78666983079574</v>
       </c>
-      <c r="CQ23" s="17">
+      <c r="CQ23" s="6">
         <v>244.88750944835169</v>
       </c>
-      <c r="CR23" s="17">
+      <c r="CR23" s="6">
         <v>394.42102316856995</v>
       </c>
-      <c r="CS23" s="17">
+      <c r="CS23" s="6">
         <v>534.88237358809613</v>
       </c>
-      <c r="CT23" s="17">
-        <v>422.22787348047871</v>
+      <c r="CT23" s="6">
+        <v>422.22787348047586</v>
+      </c>
+      <c r="CU23" s="6">
+        <v>226.36044104935428</v>
       </c>
     </row>
-    <row r="24" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -28026,23 +28004,26 @@
       <c r="CO24" s="6">
         <v>786.79005485054222</v>
       </c>
-      <c r="CP24" s="17">
+      <c r="CP24" s="6">
         <v>197.81892395993975</v>
       </c>
-      <c r="CQ24" s="17">
+      <c r="CQ24" s="6">
         <v>199.61157818598826</v>
       </c>
-      <c r="CR24" s="17">
+      <c r="CR24" s="6">
         <v>945.43354171286865</v>
       </c>
-      <c r="CS24" s="17">
+      <c r="CS24" s="6">
         <v>1366.2487149965418</v>
       </c>
-      <c r="CT24" s="17">
-        <v>273.73435091963302</v>
+      <c r="CT24" s="6">
+        <v>273.90141816802134</v>
+      </c>
+      <c r="CU24" s="6">
+        <v>208.48513847421191</v>
       </c>
     </row>
-    <row r="25" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -28322,23 +28303,26 @@
       <c r="CO25" s="6">
         <v>33611.455886567855</v>
       </c>
-      <c r="CP25" s="17">
+      <c r="CP25" s="6">
         <v>35426.099875821506</v>
       </c>
-      <c r="CQ25" s="17">
+      <c r="CQ25" s="6">
         <v>21559.233974198025</v>
       </c>
-      <c r="CR25" s="17">
+      <c r="CR25" s="6">
         <v>28785.275138821104</v>
       </c>
-      <c r="CS25" s="17">
+      <c r="CS25" s="6">
         <v>35491.763821986278</v>
       </c>
-      <c r="CT25" s="17">
-        <v>31486.771724364495</v>
+      <c r="CT25" s="6">
+        <v>31605.622291191357</v>
+      </c>
+      <c r="CU25" s="6">
+        <v>20664.347377336311</v>
       </c>
     </row>
-    <row r="26" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -28618,23 +28602,26 @@
       <c r="CO26" s="6">
         <v>80756.489399161917</v>
       </c>
-      <c r="CP26" s="17">
+      <c r="CP26" s="6">
         <v>69704.325292533584</v>
       </c>
-      <c r="CQ26" s="17">
+      <c r="CQ26" s="6">
         <v>73629.824727423809</v>
       </c>
-      <c r="CR26" s="17">
+      <c r="CR26" s="6">
         <v>73720.905685042642</v>
       </c>
-      <c r="CS26" s="17">
+      <c r="CS26" s="6">
         <v>87797.367259765975</v>
       </c>
-      <c r="CT26" s="17">
-        <v>71229.059445716761</v>
+      <c r="CT26" s="6">
+        <v>71260.143786046188</v>
+      </c>
+      <c r="CU26" s="6">
+        <v>82352.457878765068</v>
       </c>
     </row>
-    <row r="27" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -28914,23 +28901,26 @@
       <c r="CO27" s="6">
         <v>67509.397635126952</v>
       </c>
-      <c r="CP27" s="17">
+      <c r="CP27" s="6">
         <v>83695.53685758973</v>
       </c>
-      <c r="CQ27" s="17">
+      <c r="CQ27" s="6">
         <v>49128.914652569962</v>
       </c>
-      <c r="CR27" s="17">
+      <c r="CR27" s="6">
         <v>53515.218370342409</v>
       </c>
-      <c r="CS27" s="17">
+      <c r="CS27" s="6">
         <v>73509.826706937834</v>
       </c>
-      <c r="CT27" s="17">
+      <c r="CT27" s="6">
         <v>86350.405458862486</v>
       </c>
+      <c r="CU27" s="6">
+        <v>55554.919582557748</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -29210,23 +29200,26 @@
       <c r="CO28" s="6">
         <v>22787.214825263043</v>
       </c>
-      <c r="CP28" s="17">
+      <c r="CP28" s="6">
         <v>21762.014000829244</v>
       </c>
-      <c r="CQ28" s="17">
+      <c r="CQ28" s="6">
         <v>14189.504044455447</v>
       </c>
-      <c r="CR28" s="17">
+      <c r="CR28" s="6">
         <v>17331.42381226892</v>
       </c>
-      <c r="CS28" s="17">
+      <c r="CS28" s="6">
         <v>24845.051097139803</v>
       </c>
-      <c r="CT28" s="17">
+      <c r="CT28" s="6">
         <v>22298.097873814884</v>
       </c>
+      <c r="CU28" s="6">
+        <v>16068.018843716171</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -29506,23 +29499,26 @@
       <c r="CO29" s="6">
         <v>94.99969401780919</v>
       </c>
-      <c r="CP29" s="17">
+      <c r="CP29" s="6">
         <v>176.18690390542451</v>
       </c>
-      <c r="CQ29" s="17">
+      <c r="CQ29" s="6">
         <v>205.39671450235858</v>
       </c>
-      <c r="CR29" s="17">
+      <c r="CR29" s="6">
         <v>382.78745927411933</v>
       </c>
-      <c r="CS29" s="17">
+      <c r="CS29" s="6">
         <v>86.516266674247447</v>
       </c>
-      <c r="CT29" s="17">
-        <v>233.18148013119685</v>
+      <c r="CT29" s="6">
+        <v>232.77746573627178</v>
+      </c>
+      <c r="CU29" s="6">
+        <v>264.05929295208796</v>
       </c>
     </row>
-    <row r="30" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -29802,23 +29798,26 @@
       <c r="CO30" s="6">
         <v>76470.086961006338</v>
       </c>
-      <c r="CP30" s="17">
+      <c r="CP30" s="6">
         <v>71561.684108712318</v>
       </c>
-      <c r="CQ30" s="17">
+      <c r="CQ30" s="6">
         <v>59333.486420183559</v>
       </c>
-      <c r="CR30" s="17">
+      <c r="CR30" s="6">
         <v>70833.762317437751</v>
       </c>
-      <c r="CS30" s="17">
+      <c r="CS30" s="6">
         <v>72273.0040163823</v>
       </c>
-      <c r="CT30" s="17">
-        <v>66366.367811998061</v>
+      <c r="CT30" s="6">
+        <v>66661.406459904625</v>
+      </c>
+      <c r="CU30" s="6">
+        <v>54322.580542765878</v>
       </c>
     </row>
-    <row r="31" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -30098,24 +30097,27 @@
       <c r="CO31" s="6">
         <v>80185.82352993227</v>
       </c>
-      <c r="CP31" s="17">
+      <c r="CP31" s="6">
         <v>52572.026777995095</v>
       </c>
-      <c r="CQ31" s="17">
+      <c r="CQ31" s="6">
         <v>78863.163808657453</v>
       </c>
-      <c r="CR31" s="17">
+      <c r="CR31" s="6">
         <v>51770.64844126458</v>
       </c>
-      <c r="CS31" s="17">
+      <c r="CS31" s="6">
         <v>91851.100267737143</v>
       </c>
-      <c r="CT31" s="17">
+      <c r="CT31" s="6">
         <v>56461.038595811908</v>
       </c>
+      <c r="CU31" s="6">
+        <v>91570.485400781021</v>
+      </c>
     </row>
-    <row r="32" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:99" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
@@ -30395,23 +30397,26 @@
       <c r="CO33" s="8">
         <v>638842.49201788486</v>
       </c>
-      <c r="CP33" s="19">
+      <c r="CP33" s="8">
         <v>566966.56832711643</v>
       </c>
-      <c r="CQ33" s="19">
+      <c r="CQ33" s="8">
         <v>503275.98095609643</v>
       </c>
-      <c r="CR33" s="19">
+      <c r="CR33" s="8">
         <v>511362.3269205743</v>
       </c>
-      <c r="CS33" s="19">
+      <c r="CS33" s="8">
         <v>703554.2840555968</v>
       </c>
-      <c r="CT33" s="19">
-        <v>613495.45871316828</v>
+      <c r="CT33" s="8">
+        <v>614139.78557135817</v>
+      </c>
+      <c r="CU33" s="8">
+        <v>536701.6842918417</v>
       </c>
     </row>
-    <row r="34" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:99" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -30505,226 +30510,180 @@
       <c r="CM34" s="10"/>
       <c r="CN34" s="10"/>
       <c r="CO34" s="10"/>
-      <c r="CP34" s="20"/>
-      <c r="CQ34" s="20"/>
-      <c r="CR34" s="20"/>
-      <c r="CS34" s="20"/>
-      <c r="CT34" s="20"/>
+      <c r="CP34" s="10"/>
+      <c r="CQ34" s="10"/>
+      <c r="CR34" s="10"/>
+      <c r="CS34" s="10"/>
+      <c r="CT34" s="10"/>
+      <c r="CU34" s="10"/>
     </row>
-    <row r="35" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CP35" s="14"/>
-      <c r="CQ35" s="14"/>
-      <c r="CR35" s="14"/>
-      <c r="CS35" s="14"/>
-      <c r="CT35" s="14"/>
     </row>
-    <row r="36" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP38" s="14"/>
-      <c r="CQ38" s="14"/>
-      <c r="CR38" s="14"/>
-      <c r="CS38" s="14"/>
-      <c r="CT38" s="14"/>
     </row>
-    <row r="39" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CP39" s="14"/>
-      <c r="CQ39" s="14"/>
-      <c r="CR39" s="14"/>
-      <c r="CS39" s="14"/>
-      <c r="CT39" s="14"/>
     </row>
-    <row r="40" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP40" s="14"/>
-      <c r="CQ40" s="14"/>
-      <c r="CR40" s="14"/>
-      <c r="CS40" s="14"/>
-      <c r="CT40" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="41" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP41" s="14"/>
-      <c r="CQ41" s="14"/>
-      <c r="CR41" s="14"/>
-      <c r="CS41" s="14"/>
-      <c r="CT41" s="14"/>
-    </row>
-    <row r="42" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="CP42" s="14"/>
-      <c r="CQ42" s="14"/>
-      <c r="CR42" s="14"/>
-      <c r="CS42" s="14"/>
-      <c r="CT42" s="14"/>
     </row>
-    <row r="43" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CP43" s="14"/>
-      <c r="CQ43" s="14"/>
-      <c r="CR43" s="14"/>
-      <c r="CS43" s="14"/>
-      <c r="CT43" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="44" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="CP44" s="14"/>
-      <c r="CQ44" s="14"/>
-      <c r="CR44" s="14"/>
-      <c r="CS44" s="14"/>
-      <c r="CT44" s="14"/>
     </row>
-    <row r="45" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP45" s="14"/>
-      <c r="CQ45" s="14"/>
-      <c r="CR45" s="14"/>
-      <c r="CS45" s="14"/>
-      <c r="CT45" s="14"/>
-    </row>
-    <row r="46" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="25">
+      <c r="B46" s="16">
         <v>2000</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16">
         <v>2001</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25">
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
         <v>2002</v>
       </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25">
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16">
         <v>2003</v>
       </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25">
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16">
         <v>2004</v>
       </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25">
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16">
         <v>2005</v>
       </c>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25">
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16">
         <v>2006</v>
       </c>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="25"/>
-      <c r="AD46" s="25">
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16">
         <v>2007</v>
       </c>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25">
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16">
         <v>2008</v>
       </c>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="25"/>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="25">
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16">
         <v>2009</v>
       </c>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="25"/>
-      <c r="AP46" s="25">
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
+      <c r="AO46" s="16"/>
+      <c r="AP46" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="25"/>
-      <c r="AS46" s="25"/>
-      <c r="AT46" s="25">
+      <c r="AQ46" s="16"/>
+      <c r="AR46" s="16"/>
+      <c r="AS46" s="16"/>
+      <c r="AT46" s="16">
         <v>2011</v>
       </c>
-      <c r="AU46" s="25"/>
-      <c r="AV46" s="25"/>
-      <c r="AW46" s="25"/>
-      <c r="AX46" s="25">
+      <c r="AU46" s="16"/>
+      <c r="AV46" s="16"/>
+      <c r="AW46" s="16"/>
+      <c r="AX46" s="16">
         <v>2012</v>
       </c>
-      <c r="AY46" s="25"/>
-      <c r="AZ46" s="25"/>
-      <c r="BA46" s="25"/>
-      <c r="BB46" s="25">
+      <c r="AY46" s="16"/>
+      <c r="AZ46" s="16"/>
+      <c r="BA46" s="16"/>
+      <c r="BB46" s="16">
         <v>2013</v>
       </c>
-      <c r="BC46" s="25"/>
-      <c r="BD46" s="25"/>
-      <c r="BE46" s="25"/>
-      <c r="BF46" s="25">
+      <c r="BC46" s="16"/>
+      <c r="BD46" s="16"/>
+      <c r="BE46" s="16"/>
+      <c r="BF46" s="16">
         <v>2014</v>
       </c>
-      <c r="BG46" s="25"/>
-      <c r="BH46" s="25"/>
-      <c r="BI46" s="25"/>
-      <c r="BJ46" s="25">
+      <c r="BG46" s="16"/>
+      <c r="BH46" s="16"/>
+      <c r="BI46" s="16"/>
+      <c r="BJ46" s="16">
         <v>2015</v>
       </c>
-      <c r="BK46" s="25"/>
-      <c r="BL46" s="25"/>
-      <c r="BM46" s="25"/>
-      <c r="BN46" s="25">
+      <c r="BK46" s="16"/>
+      <c r="BL46" s="16"/>
+      <c r="BM46" s="16"/>
+      <c r="BN46" s="16">
         <v>2016</v>
       </c>
-      <c r="BO46" s="25"/>
-      <c r="BP46" s="25"/>
-      <c r="BQ46" s="25"/>
-      <c r="BR46" s="25">
+      <c r="BO46" s="16"/>
+      <c r="BP46" s="16"/>
+      <c r="BQ46" s="16"/>
+      <c r="BR46" s="16">
         <v>2017</v>
       </c>
-      <c r="BS46" s="25"/>
-      <c r="BT46" s="25"/>
-      <c r="BU46" s="25"/>
-      <c r="BV46" s="25">
+      <c r="BS46" s="16"/>
+      <c r="BT46" s="16"/>
+      <c r="BU46" s="16"/>
+      <c r="BV46" s="16">
         <v>2018</v>
       </c>
-      <c r="BW46" s="25"/>
-      <c r="BX46" s="25"/>
-      <c r="BY46" s="25"/>
-      <c r="BZ46" s="25">
+      <c r="BW46" s="16"/>
+      <c r="BX46" s="16"/>
+      <c r="BY46" s="16"/>
+      <c r="BZ46" s="16">
         <v>2019</v>
       </c>
-      <c r="CA46" s="25"/>
-      <c r="CB46" s="25"/>
-      <c r="CC46" s="25"/>
-      <c r="CD46" s="25">
+      <c r="CA46" s="16"/>
+      <c r="CB46" s="16"/>
+      <c r="CC46" s="16"/>
+      <c r="CD46" s="16">
         <v>2020</v>
       </c>
-      <c r="CE46" s="25"/>
-      <c r="CF46" s="25"/>
-      <c r="CG46" s="25"/>
+      <c r="CE46" s="16"/>
+      <c r="CF46" s="16"/>
+      <c r="CG46" s="16"/>
       <c r="CH46" s="13">
         <v>2021</v>
       </c>
@@ -30737,17 +30696,18 @@
       <c r="CM46" s="13"/>
       <c r="CN46" s="13"/>
       <c r="CO46" s="13"/>
-      <c r="CP46" s="15">
+      <c r="CP46" s="13">
         <v>2023</v>
       </c>
-      <c r="CQ46" s="15"/>
-      <c r="CR46" s="15"/>
-      <c r="CS46" s="15"/>
-      <c r="CT46" s="15">
+      <c r="CQ46" s="13"/>
+      <c r="CR46" s="13"/>
+      <c r="CS46" s="13"/>
+      <c r="CT46" s="13">
         <v>2024</v>
       </c>
+      <c r="CU46" s="13"/>
     </row>
-    <row r="47" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
@@ -31027,31 +30987,29 @@
       <c r="CO47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP47" s="16" t="s">
+      <c r="CP47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ47" s="16" t="s">
+      <c r="CQ47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR47" s="16" t="s">
+      <c r="CR47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CS47" s="16" t="s">
+      <c r="CS47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CT47" s="16" t="s">
+      <c r="CT47" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CU47" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="48" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="CP48" s="14"/>
-      <c r="CQ48" s="14"/>
-      <c r="CR48" s="14"/>
-      <c r="CS48" s="14"/>
-      <c r="CT48" s="14"/>
     </row>
-    <row r="49" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -31331,23 +31289,26 @@
       <c r="CO49" s="6">
         <v>133574.09583906844</v>
       </c>
-      <c r="CP49" s="17">
+      <c r="CP49" s="6">
         <v>95070.645017647243</v>
       </c>
-      <c r="CQ49" s="17">
+      <c r="CQ49" s="6">
         <v>83326.387293706604</v>
       </c>
-      <c r="CR49" s="17">
+      <c r="CR49" s="6">
         <v>71844.050862999909</v>
       </c>
-      <c r="CS49" s="17">
+      <c r="CS49" s="6">
         <v>133795.62188317452</v>
       </c>
-      <c r="CT49" s="17">
+      <c r="CT49" s="6">
         <v>93205.598637419986</v>
       </c>
+      <c r="CU49" s="6">
+        <v>75434.262329546706</v>
+      </c>
     </row>
-    <row r="50" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -31627,23 +31588,26 @@
       <c r="CO50" s="6">
         <v>24194.329118444788</v>
       </c>
-      <c r="CP50" s="17">
+      <c r="CP50" s="6">
         <v>32063.305435735991</v>
       </c>
-      <c r="CQ50" s="17">
+      <c r="CQ50" s="6">
         <v>19755.7796927202</v>
       </c>
-      <c r="CR50" s="17">
+      <c r="CR50" s="6">
         <v>31589.499479743317</v>
       </c>
-      <c r="CS50" s="17">
+      <c r="CS50" s="6">
         <v>23770.218784570905</v>
       </c>
-      <c r="CT50" s="17">
+      <c r="CT50" s="6">
         <v>32592.814514224698</v>
       </c>
+      <c r="CU50" s="6">
+        <v>15959.622331639866</v>
+      </c>
     </row>
-    <row r="51" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -31923,23 +31887,26 @@
       <c r="CO51" s="6">
         <v>22516.097250357081</v>
       </c>
-      <c r="CP51" s="17">
+      <c r="CP51" s="6">
         <v>26985.100062939469</v>
       </c>
-      <c r="CQ51" s="17">
+      <c r="CQ51" s="6">
         <v>13845.021259312678</v>
       </c>
-      <c r="CR51" s="17">
+      <c r="CR51" s="6">
         <v>21716.187030552432</v>
       </c>
-      <c r="CS51" s="17">
+      <c r="CS51" s="6">
         <v>22152.817713807355</v>
       </c>
-      <c r="CT51" s="17">
-        <v>26092.998144661105</v>
+      <c r="CT51" s="6">
+        <v>26092.998144661022</v>
+      </c>
+      <c r="CU51" s="6">
+        <v>13286.050803111899</v>
       </c>
     </row>
-    <row r="52" spans="1:98" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:99" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>15</v>
       </c>
@@ -32219,23 +32186,26 @@
       <c r="CO52" s="6">
         <v>7506.6868217338251</v>
       </c>
-      <c r="CP52" s="17">
+      <c r="CP52" s="6">
         <v>11060.969515075987</v>
       </c>
-      <c r="CQ52" s="17">
+      <c r="CQ52" s="6">
         <v>5404.4817506747968</v>
       </c>
-      <c r="CR52" s="17">
+      <c r="CR52" s="6">
         <v>754.15904563718243</v>
       </c>
-      <c r="CS52" s="17">
+      <c r="CS52" s="6">
         <v>8475.99226786908</v>
       </c>
-      <c r="CT52" s="17">
+      <c r="CT52" s="6">
         <v>13069.084820787437</v>
       </c>
+      <c r="CU52" s="6">
+        <v>3418.7240506912913</v>
+      </c>
     </row>
-    <row r="53" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -32515,23 +32485,26 @@
       <c r="CO53" s="6">
         <v>34237.945742791388</v>
       </c>
-      <c r="CP53" s="17">
+      <c r="CP53" s="6">
         <v>30398.832077773182</v>
       </c>
-      <c r="CQ53" s="17">
+      <c r="CQ53" s="6">
         <v>34371.790936038713</v>
       </c>
-      <c r="CR53" s="17">
+      <c r="CR53" s="6">
         <v>35322.648439687189</v>
       </c>
-      <c r="CS53" s="17">
+      <c r="CS53" s="6">
         <v>34163.539880984637</v>
       </c>
-      <c r="CT53" s="17">
+      <c r="CT53" s="6">
         <v>29028.459562434164</v>
       </c>
+      <c r="CU53" s="6">
+        <v>33244.844540824095</v>
+      </c>
     </row>
-    <row r="54" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
@@ -32811,23 +32784,26 @@
       <c r="CO54" s="6">
         <v>7173.8923183657735</v>
       </c>
-      <c r="CP54" s="17">
+      <c r="CP54" s="6">
         <v>5890.8435345289809</v>
       </c>
-      <c r="CQ54" s="17">
+      <c r="CQ54" s="6">
         <v>20158.240507159462</v>
       </c>
-      <c r="CR54" s="17">
+      <c r="CR54" s="6">
         <v>2628.4309591994365</v>
       </c>
-      <c r="CS54" s="17">
+      <c r="CS54" s="6">
         <v>7731.4209721385942</v>
       </c>
-      <c r="CT54" s="17">
+      <c r="CT54" s="6">
         <v>6085.0793194334274</v>
       </c>
+      <c r="CU54" s="6">
+        <v>19819.628499040904</v>
+      </c>
     </row>
-    <row r="55" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -33107,23 +33083,26 @@
       <c r="CO55" s="6">
         <v>9371.5829921354398</v>
       </c>
-      <c r="CP55" s="17">
+      <c r="CP55" s="6">
         <v>7127.1696539006925</v>
       </c>
-      <c r="CQ55" s="17">
+      <c r="CQ55" s="6">
         <v>6652.3705715084698</v>
       </c>
-      <c r="CR55" s="17">
+      <c r="CR55" s="6">
         <v>6788.9836422933449</v>
       </c>
-      <c r="CS55" s="17">
+      <c r="CS55" s="6">
         <v>9397.6510004173979</v>
       </c>
-      <c r="CT55" s="17">
-        <v>7200.6207291156579</v>
+      <c r="CT55" s="6">
+        <v>7200.6207291156597</v>
+      </c>
+      <c r="CU55" s="6">
+        <v>6438.1368982668055</v>
       </c>
     </row>
-    <row r="56" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
@@ -33403,23 +33382,26 @@
       <c r="CO56" s="6">
         <v>2486.0593712919899</v>
       </c>
-      <c r="CP56" s="17">
+      <c r="CP56" s="6">
         <v>2331.4337907316117</v>
       </c>
-      <c r="CQ56" s="17">
+      <c r="CQ56" s="6">
         <v>542.7079285475595</v>
       </c>
-      <c r="CR56" s="17">
+      <c r="CR56" s="6">
         <v>611.3079649947116</v>
       </c>
-      <c r="CS56" s="17">
+      <c r="CS56" s="6">
         <v>2444.9284564662621</v>
       </c>
-      <c r="CT56" s="17">
-        <v>2902.9001699220694</v>
+      <c r="CT56" s="6">
+        <v>2902.9001699220689</v>
+      </c>
+      <c r="CU56" s="6">
+        <v>529.0067836037141</v>
       </c>
     </row>
-    <row r="57" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
@@ -33699,23 +33681,26 @@
       <c r="CO57" s="6">
         <v>5996.1146708887454</v>
       </c>
-      <c r="CP57" s="17">
+      <c r="CP57" s="6">
         <v>3749.7935901032583</v>
       </c>
-      <c r="CQ57" s="17">
+      <c r="CQ57" s="6">
         <v>5527.0734165302592</v>
       </c>
-      <c r="CR57" s="17">
+      <c r="CR57" s="6">
         <v>4561.3216873435822</v>
       </c>
-      <c r="CS57" s="17">
+      <c r="CS57" s="6">
         <v>5847.9412760270097</v>
       </c>
-      <c r="CT57" s="17">
-        <v>3419.8023351042493</v>
+      <c r="CT57" s="6">
+        <v>3419.802306302412</v>
+      </c>
+      <c r="CU57" s="6">
+        <v>5147.1783710561031</v>
       </c>
     </row>
-    <row r="58" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -33995,23 +33980,26 @@
       <c r="CO58" s="6">
         <v>3369.5887063748746</v>
       </c>
-      <c r="CP58" s="17">
+      <c r="CP58" s="6">
         <v>860.98071027649576</v>
       </c>
-      <c r="CQ58" s="17">
+      <c r="CQ58" s="6">
         <v>3002.7406619358226</v>
       </c>
-      <c r="CR58" s="17">
+      <c r="CR58" s="6">
         <v>1984.1829947083663</v>
       </c>
-      <c r="CS58" s="17">
+      <c r="CS58" s="6">
         <v>3118.5188417332056</v>
       </c>
-      <c r="CT58" s="17">
-        <v>869.88421782536614</v>
+      <c r="CT58" s="6">
+        <v>869.88421782536591</v>
+      </c>
+      <c r="CU58" s="6">
+        <v>2735.1751276075652</v>
       </c>
     </row>
-    <row r="59" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>22</v>
       </c>
@@ -34291,23 +34279,26 @@
       <c r="CO59" s="6">
         <v>572.90764402431273</v>
       </c>
-      <c r="CP59" s="17">
+      <c r="CP59" s="6">
         <v>593.01948382610692</v>
       </c>
-      <c r="CQ59" s="17">
+      <c r="CQ59" s="6">
         <v>516.11070721366809</v>
       </c>
-      <c r="CR59" s="17">
+      <c r="CR59" s="6">
         <v>389.81987911619365</v>
       </c>
-      <c r="CS59" s="17">
+      <c r="CS59" s="6">
         <v>592.97319456812647</v>
       </c>
-      <c r="CT59" s="17">
+      <c r="CT59" s="6">
         <v>612.60612707752489</v>
       </c>
+      <c r="CU59" s="6">
+        <v>547.61137974171561</v>
+      </c>
     </row>
-    <row r="60" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -34587,23 +34578,26 @@
       <c r="CO60" s="6">
         <v>486.95604071117202</v>
       </c>
-      <c r="CP60" s="17">
+      <c r="CP60" s="6">
         <v>474.98310285381649</v>
       </c>
-      <c r="CQ60" s="17">
+      <c r="CQ60" s="6">
         <v>451.16315078455136</v>
       </c>
-      <c r="CR60" s="17">
+      <c r="CR60" s="6">
         <v>315.78560023108719</v>
       </c>
-      <c r="CS60" s="17">
+      <c r="CS60" s="6">
         <v>506.51206521063375</v>
       </c>
-      <c r="CT60" s="17">
-        <v>470.87196908372277</v>
+      <c r="CT60" s="6">
+        <v>470.87196908371982</v>
+      </c>
+      <c r="CU60" s="6">
+        <v>397.76375513695336</v>
       </c>
     </row>
-    <row r="61" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -34883,23 +34877,26 @@
       <c r="CO61" s="6">
         <v>930.3324849411872</v>
       </c>
-      <c r="CP61" s="17">
+      <c r="CP61" s="6">
         <v>310.03904547366005</v>
       </c>
-      <c r="CQ61" s="17">
+      <c r="CQ61" s="6">
         <v>368.26732043012771</v>
       </c>
-      <c r="CR61" s="17">
+      <c r="CR61" s="6">
         <v>435.49449054084096</v>
       </c>
-      <c r="CS61" s="17">
+      <c r="CS61" s="6">
         <v>943.72135303281129</v>
       </c>
-      <c r="CT61" s="17">
-        <v>339.59208483626787</v>
+      <c r="CT61" s="6">
+        <v>339.61967493366058</v>
+      </c>
+      <c r="CU61" s="6">
+        <v>362.8350483106974</v>
       </c>
     </row>
-    <row r="62" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -35179,23 +35176,26 @@
       <c r="CO62" s="6">
         <v>25996.598193503189</v>
       </c>
-      <c r="CP62" s="17">
+      <c r="CP62" s="6">
         <v>24916.005770249827</v>
       </c>
-      <c r="CQ62" s="17">
+      <c r="CQ62" s="6">
         <v>23906.312530136482</v>
       </c>
-      <c r="CR62" s="17">
+      <c r="CR62" s="6">
         <v>17032.932600548505</v>
       </c>
-      <c r="CS62" s="17">
+      <c r="CS62" s="6">
         <v>25552.251454777797</v>
       </c>
-      <c r="CT62" s="17">
-        <v>25638.440300193259</v>
+      <c r="CT62" s="6">
+        <v>25649.491366823924</v>
+      </c>
+      <c r="CU62" s="6">
+        <v>21833.93784422327</v>
       </c>
     </row>
-    <row r="63" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -35475,23 +35475,26 @@
       <c r="CO63" s="6">
         <v>48430.042560249916</v>
       </c>
-      <c r="CP63" s="17">
+      <c r="CP63" s="6">
         <v>46960.814907114342</v>
       </c>
-      <c r="CQ63" s="17">
+      <c r="CQ63" s="6">
         <v>45418.830187941901</v>
       </c>
-      <c r="CR63" s="17">
+      <c r="CR63" s="6">
         <v>46414.151680448267</v>
       </c>
-      <c r="CS63" s="17">
+      <c r="CS63" s="6">
         <v>49729.62025624793</v>
       </c>
-      <c r="CT63" s="17">
-        <v>45316.173416147416</v>
+      <c r="CT63" s="6">
+        <v>45348.472387545393</v>
+      </c>
+      <c r="CU63" s="6">
+        <v>45326.584939633496</v>
       </c>
     </row>
-    <row r="64" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
@@ -35771,23 +35774,26 @@
       <c r="CO64" s="6">
         <v>53789.969913542431</v>
       </c>
-      <c r="CP64" s="17">
+      <c r="CP64" s="6">
         <v>50865.133922985086</v>
       </c>
-      <c r="CQ64" s="17">
+      <c r="CQ64" s="6">
         <v>41071.883067845381</v>
       </c>
-      <c r="CR64" s="17">
+      <c r="CR64" s="6">
         <v>44293.571884788791</v>
       </c>
-      <c r="CS64" s="17">
+      <c r="CS64" s="6">
         <v>57975.432662686813</v>
       </c>
-      <c r="CT64" s="17">
+      <c r="CT64" s="6">
         <v>53838.503761657586</v>
       </c>
+      <c r="CU64" s="6">
+        <v>44629.789715210994</v>
+      </c>
     </row>
-    <row r="65" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -36067,23 +36073,26 @@
       <c r="CO65" s="6">
         <v>19570.459116741433</v>
       </c>
-      <c r="CP65" s="17">
+      <c r="CP65" s="6">
         <v>19011.270149179843</v>
       </c>
-      <c r="CQ65" s="17">
+      <c r="CQ65" s="6">
         <v>17089.519540505204</v>
       </c>
-      <c r="CR65" s="17">
+      <c r="CR65" s="6">
         <v>17776.937784153091</v>
       </c>
-      <c r="CS65" s="17">
+      <c r="CS65" s="6">
         <v>20609.756698521654</v>
       </c>
-      <c r="CT65" s="17">
+      <c r="CT65" s="6">
         <v>19250.255092911597</v>
       </c>
+      <c r="CU65" s="6">
+        <v>17811.059661704054</v>
+      </c>
     </row>
-    <row r="66" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -36363,23 +36372,26 @@
       <c r="CO66" s="6">
         <v>215.76483048591405</v>
       </c>
-      <c r="CP66" s="17">
+      <c r="CP66" s="6">
         <v>446.59607527988817</v>
       </c>
-      <c r="CQ66" s="17">
+      <c r="CQ66" s="6">
         <v>561.13383911854567</v>
       </c>
-      <c r="CR66" s="17">
+      <c r="CR66" s="6">
         <v>927.82225501203015</v>
       </c>
-      <c r="CS66" s="17">
+      <c r="CS66" s="6">
         <v>199.87882496944098</v>
       </c>
-      <c r="CT66" s="17">
-        <v>619.4447100857542</v>
+      <c r="CT66" s="6">
+        <v>619.76081369624319</v>
+      </c>
+      <c r="CU66" s="6">
+        <v>753.49004220387337</v>
       </c>
     </row>
-    <row r="67" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -36659,23 +36671,26 @@
       <c r="CO67" s="6">
         <v>69200.637338889384</v>
       </c>
-      <c r="CP67" s="17">
+      <c r="CP67" s="6">
         <v>45390.083262683576</v>
       </c>
-      <c r="CQ67" s="17">
+      <c r="CQ67" s="6">
         <v>42320.239029445991</v>
       </c>
-      <c r="CR67" s="17">
+      <c r="CR67" s="6">
         <v>50286.296459411155</v>
       </c>
-      <c r="CS67" s="17">
+      <c r="CS67" s="6">
         <v>65528.420210024575</v>
       </c>
-      <c r="CT67" s="17">
-        <v>44931.831562354564</v>
+      <c r="CT67" s="6">
+        <v>45288.150422455277</v>
+      </c>
+      <c r="CU67" s="6">
+        <v>43407.149703732517</v>
       </c>
     </row>
-    <row r="68" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -36955,24 +36970,27 @@
       <c r="CO68" s="6">
         <v>55874.953256162233</v>
       </c>
-      <c r="CP68" s="17">
+      <c r="CP68" s="6">
         <v>40097.190131400988</v>
       </c>
-      <c r="CQ68" s="17">
+      <c r="CQ68" s="6">
         <v>53385.012609973783</v>
       </c>
-      <c r="CR68" s="17">
+      <c r="CR68" s="6">
         <v>54672.313379685933</v>
       </c>
-      <c r="CS68" s="17">
+      <c r="CS68" s="6">
         <v>59744.663076623474</v>
       </c>
-      <c r="CT68" s="17">
+      <c r="CT68" s="6">
         <v>40818.374024669072</v>
       </c>
+      <c r="CU68" s="6">
+        <v>56823.533617291163</v>
+      </c>
     </row>
-    <row r="69" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:99" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>9</v>
       </c>
@@ -37252,23 +37270,26 @@
       <c r="CO70" s="8">
         <v>525495.01421070355</v>
       </c>
-      <c r="CP70" s="19">
+      <c r="CP70" s="8">
         <v>444604.20923976001</v>
       </c>
-      <c r="CQ70" s="19">
+      <c r="CQ70" s="8">
         <v>417675.06600153015</v>
       </c>
-      <c r="CR70" s="19">
+      <c r="CR70" s="8">
         <v>410345.89812109544</v>
       </c>
-      <c r="CS70" s="19">
+      <c r="CS70" s="8">
         <v>532281.88087385229</v>
       </c>
-      <c r="CT70" s="19">
-        <v>446303.33549994486</v>
+      <c r="CT70" s="8">
+        <v>446703.34806298028</v>
+      </c>
+      <c r="CU70" s="8">
+        <v>407906.38544257765</v>
       </c>
     </row>
-    <row r="71" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:99" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -37362,226 +37383,188 @@
       <c r="CM71" s="10"/>
       <c r="CN71" s="10"/>
       <c r="CO71" s="10"/>
-      <c r="CP71" s="20"/>
-      <c r="CQ71" s="20"/>
-      <c r="CR71" s="20"/>
-      <c r="CS71" s="20"/>
-      <c r="CT71" s="20"/>
+      <c r="CP71" s="10"/>
+      <c r="CQ71" s="10"/>
+      <c r="CR71" s="10"/>
+      <c r="CS71" s="10"/>
+      <c r="CT71" s="10"/>
+      <c r="CU71" s="10"/>
     </row>
-    <row r="72" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CP72" s="14"/>
-      <c r="CQ72" s="14"/>
-      <c r="CR72" s="14"/>
-      <c r="CS72" s="14"/>
-      <c r="CT72" s="14"/>
     </row>
-    <row r="73" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP75" s="14"/>
-      <c r="CQ75" s="14"/>
-      <c r="CR75" s="14"/>
-      <c r="CS75" s="14"/>
-      <c r="CT75" s="14"/>
     </row>
-    <row r="76" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CP76" s="14"/>
-      <c r="CQ76" s="14"/>
-      <c r="CR76" s="14"/>
-      <c r="CS76" s="14"/>
-      <c r="CT76" s="14"/>
     </row>
-    <row r="77" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP77" s="14"/>
-      <c r="CQ77" s="14"/>
-      <c r="CR77" s="14"/>
-      <c r="CS77" s="14"/>
-      <c r="CT77" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="78" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP78" s="14"/>
-      <c r="CQ78" s="14"/>
-      <c r="CR78" s="14"/>
-      <c r="CS78" s="14"/>
-      <c r="CT78" s="14"/>
-    </row>
-    <row r="79" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="CP79" s="14"/>
-      <c r="CQ79" s="14"/>
-      <c r="CR79" s="14"/>
-      <c r="CS79" s="14"/>
-      <c r="CT79" s="14"/>
     </row>
-    <row r="80" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CP80" s="14"/>
-      <c r="CQ80" s="14"/>
-      <c r="CR80" s="14"/>
-      <c r="CS80" s="14"/>
-      <c r="CT80" s="14"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="81" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="CP81" s="21"/>
-      <c r="CQ81" s="21"/>
-      <c r="CR81" s="21"/>
-      <c r="CS81" s="21"/>
-      <c r="CT81" s="21"/>
+      <c r="CR81" s="5"/>
+      <c r="CS81" s="5"/>
+      <c r="CT81" s="5"/>
+      <c r="CU81" s="5"/>
     </row>
-    <row r="82" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP82" s="14"/>
-      <c r="CQ82" s="21"/>
-      <c r="CR82" s="21"/>
-      <c r="CS82" s="21"/>
-      <c r="CT82" s="21"/>
+    <row r="82" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CR82" s="5"/>
+      <c r="CS82" s="5"/>
+      <c r="CU82" s="5"/>
     </row>
-    <row r="83" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25" t="s">
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25" t="s">
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25" t="s">
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25" t="s">
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S83" s="25"/>
-      <c r="T83" s="25"/>
-      <c r="U83" s="25"/>
-      <c r="V83" s="25" t="s">
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W83" s="25"/>
-      <c r="X83" s="25"/>
-      <c r="Y83" s="25"/>
-      <c r="Z83" s="25" t="s">
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AA83" s="25"/>
-      <c r="AB83" s="25"/>
-      <c r="AC83" s="25"/>
-      <c r="AD83" s="25" t="s">
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AE83" s="25"/>
-      <c r="AF83" s="25"/>
-      <c r="AG83" s="25"/>
-      <c r="AH83" s="25" t="s">
+      <c r="AE83" s="16"/>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+      <c r="AH83" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AI83" s="25"/>
-      <c r="AJ83" s="25"/>
-      <c r="AK83" s="25"/>
-      <c r="AL83" s="25" t="s">
+      <c r="AI83" s="16"/>
+      <c r="AJ83" s="16"/>
+      <c r="AK83" s="16"/>
+      <c r="AL83" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AM83" s="25"/>
-      <c r="AN83" s="25"/>
-      <c r="AO83" s="25"/>
-      <c r="AP83" s="25" t="s">
+      <c r="AM83" s="16"/>
+      <c r="AN83" s="16"/>
+      <c r="AO83" s="16"/>
+      <c r="AP83" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ83" s="25"/>
-      <c r="AR83" s="25"/>
-      <c r="AS83" s="25"/>
-      <c r="AT83" s="25" t="s">
+      <c r="AQ83" s="16"/>
+      <c r="AR83" s="16"/>
+      <c r="AS83" s="16"/>
+      <c r="AT83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU83" s="25"/>
-      <c r="AV83" s="25"/>
-      <c r="AW83" s="25"/>
-      <c r="AX83" s="25" t="s">
+      <c r="AU83" s="16"/>
+      <c r="AV83" s="16"/>
+      <c r="AW83" s="16"/>
+      <c r="AX83" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AY83" s="25"/>
-      <c r="AZ83" s="25"/>
-      <c r="BA83" s="25"/>
-      <c r="BB83" s="25" t="s">
+      <c r="AY83" s="16"/>
+      <c r="AZ83" s="16"/>
+      <c r="BA83" s="16"/>
+      <c r="BB83" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BC83" s="25"/>
-      <c r="BD83" s="25"/>
-      <c r="BE83" s="25"/>
-      <c r="BF83" s="25" t="s">
+      <c r="BC83" s="16"/>
+      <c r="BD83" s="16"/>
+      <c r="BE83" s="16"/>
+      <c r="BF83" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BG83" s="25"/>
-      <c r="BH83" s="25"/>
-      <c r="BI83" s="25"/>
-      <c r="BJ83" s="25" t="s">
+      <c r="BG83" s="16"/>
+      <c r="BH83" s="16"/>
+      <c r="BI83" s="16"/>
+      <c r="BJ83" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BK83" s="25"/>
-      <c r="BL83" s="25"/>
-      <c r="BM83" s="25"/>
-      <c r="BN83" s="25" t="s">
+      <c r="BK83" s="16"/>
+      <c r="BL83" s="16"/>
+      <c r="BM83" s="16"/>
+      <c r="BN83" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BO83" s="25"/>
-      <c r="BP83" s="25"/>
-      <c r="BQ83" s="25"/>
-      <c r="BR83" s="25" t="s">
+      <c r="BO83" s="16"/>
+      <c r="BP83" s="16"/>
+      <c r="BQ83" s="16"/>
+      <c r="BR83" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BS83" s="25"/>
-      <c r="BT83" s="25"/>
-      <c r="BU83" s="25"/>
-      <c r="BV83" s="25" t="s">
+      <c r="BS83" s="16"/>
+      <c r="BT83" s="16"/>
+      <c r="BU83" s="16"/>
+      <c r="BV83" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BW83" s="25"/>
-      <c r="BX83" s="25"/>
-      <c r="BY83" s="25"/>
-      <c r="BZ83" s="25" t="s">
+      <c r="BW83" s="16"/>
+      <c r="BX83" s="16"/>
+      <c r="BY83" s="16"/>
+      <c r="BZ83" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="CA83" s="25"/>
-      <c r="CB83" s="25"/>
-      <c r="CC83" s="25"/>
-      <c r="CD83" s="25" t="s">
+      <c r="CA83" s="16"/>
+      <c r="CB83" s="16"/>
+      <c r="CC83" s="16"/>
+      <c r="CD83" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="CE83" s="25"/>
-      <c r="CF83" s="25"/>
-      <c r="CG83" s="25"/>
+      <c r="CE83" s="16"/>
+      <c r="CF83" s="16"/>
+      <c r="CG83" s="16"/>
       <c r="CH83" s="13" t="s">
         <v>65</v>
       </c>
@@ -37594,15 +37577,16 @@
       <c r="CM83" s="13"/>
       <c r="CN83" s="13"/>
       <c r="CO83" s="13"/>
-      <c r="CP83" s="15" t="s">
+      <c r="CP83" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CQ83" s="22"/>
-      <c r="CR83" s="22"/>
-      <c r="CS83" s="22"/>
-      <c r="CT83" s="22"/>
+      <c r="CQ83" s="13"/>
+      <c r="CR83" s="14"/>
+      <c r="CS83" s="14"/>
+      <c r="CT83" s="13"/>
+      <c r="CU83" s="14"/>
     </row>
-    <row r="84" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>8</v>
       </c>
@@ -37882,23 +37866,24 @@
       <c r="CO84" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP84" s="16" t="s">
+      <c r="CP84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ84" s="16"/>
-      <c r="CR84" s="16"/>
-      <c r="CS84" s="16"/>
-      <c r="CT84" s="16"/>
+      <c r="CQ84" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR84" s="4"/>
+      <c r="CS84" s="4"/>
+      <c r="CT84" s="4"/>
+      <c r="CU84" s="4"/>
     </row>
-    <row r="85" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="CP85" s="14"/>
-      <c r="CQ85" s="21"/>
-      <c r="CR85" s="21"/>
-      <c r="CS85" s="21"/>
-      <c r="CT85" s="21"/>
+      <c r="CR85" s="5"/>
+      <c r="CS85" s="5"/>
+      <c r="CU85" s="5"/>
     </row>
-    <row r="86" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -38178,15 +38163,18 @@
       <c r="CO86" s="11">
         <v>24.932693675292668</v>
       </c>
-      <c r="CP86" s="23">
-        <v>37.832915550277363</v>
-      </c>
-      <c r="CQ86" s="24"/>
-      <c r="CR86" s="24"/>
-      <c r="CS86" s="24"/>
-      <c r="CT86" s="24"/>
+      <c r="CP86" s="11">
+        <v>37.895348794766136</v>
+      </c>
+      <c r="CQ86" s="11">
+        <v>17.200180842414525</v>
+      </c>
+      <c r="CR86" s="15"/>
+      <c r="CS86" s="15"/>
+      <c r="CT86" s="11"/>
+      <c r="CU86" s="15"/>
     </row>
-    <row r="87" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
@@ -38466,15 +38454,18 @@
       <c r="CO87" s="11">
         <v>-0.52962083696556306</v>
       </c>
-      <c r="CP87" s="23">
+      <c r="CP87" s="11">
         <v>-8.6383497789317971</v>
       </c>
-      <c r="CQ87" s="24"/>
-      <c r="CR87" s="24"/>
-      <c r="CS87" s="24"/>
-      <c r="CT87" s="24"/>
+      <c r="CQ87" s="11">
+        <v>-21.231882973941723</v>
+      </c>
+      <c r="CR87" s="15"/>
+      <c r="CS87" s="15"/>
+      <c r="CT87" s="11"/>
+      <c r="CU87" s="15"/>
     </row>
-    <row r="88" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -38754,15 +38745,18 @@
       <c r="CO88" s="11">
         <v>-4.4311200753675024</v>
       </c>
-      <c r="CP88" s="23">
-        <v>19.72000901487722</v>
-      </c>
-      <c r="CQ88" s="23"/>
-      <c r="CR88" s="23"/>
-      <c r="CS88" s="23"/>
-      <c r="CT88" s="23"/>
+      <c r="CP88" s="11">
+        <v>19.564278317691276</v>
+      </c>
+      <c r="CQ88" s="11">
+        <v>7.6083647190705364</v>
+      </c>
+      <c r="CR88" s="11"/>
+      <c r="CS88" s="11"/>
+      <c r="CT88" s="11"/>
+      <c r="CU88" s="11"/>
     </row>
-    <row r="89" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:99" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>15</v>
       </c>
@@ -39042,15 +39036,18 @@
       <c r="CO89" s="11">
         <v>-8.18161805674427</v>
       </c>
-      <c r="CP89" s="23">
-        <v>2.5514789908628757</v>
-      </c>
-      <c r="CQ89" s="23"/>
-      <c r="CR89" s="23"/>
-      <c r="CS89" s="23"/>
-      <c r="CT89" s="23"/>
+      <c r="CP89" s="11">
+        <v>2.6556147385180964</v>
+      </c>
+      <c r="CQ89" s="11">
+        <v>-49.853655140525255</v>
+      </c>
+      <c r="CR89" s="11"/>
+      <c r="CS89" s="11"/>
+      <c r="CT89" s="11"/>
+      <c r="CU89" s="11"/>
     </row>
-    <row r="90" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -39330,15 +39327,18 @@
       <c r="CO90" s="11">
         <v>7.6736975521070576</v>
       </c>
-      <c r="CP90" s="23">
-        <v>13.277028074911797</v>
-      </c>
-      <c r="CQ90" s="23"/>
-      <c r="CR90" s="23"/>
-      <c r="CS90" s="23"/>
-      <c r="CT90" s="23"/>
+      <c r="CP90" s="11">
+        <v>13.829830499669555</v>
+      </c>
+      <c r="CQ90" s="11">
+        <v>8.4983067974321926</v>
+      </c>
+      <c r="CR90" s="11"/>
+      <c r="CS90" s="11"/>
+      <c r="CT90" s="11"/>
+      <c r="CU90" s="11"/>
     </row>
-    <row r="91" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -39618,15 +39618,18 @@
       <c r="CO91" s="11">
         <v>15.655059584489166</v>
       </c>
-      <c r="CP91" s="23">
-        <v>-0.16005226621203406</v>
-      </c>
-      <c r="CQ91" s="23"/>
-      <c r="CR91" s="23"/>
-      <c r="CS91" s="23"/>
-      <c r="CT91" s="23"/>
+      <c r="CP91" s="11">
+        <v>-0.18325393282377433</v>
+      </c>
+      <c r="CQ91" s="11">
+        <v>-27.213793201201739</v>
+      </c>
+      <c r="CR91" s="11"/>
+      <c r="CS91" s="11"/>
+      <c r="CT91" s="11"/>
+      <c r="CU91" s="11"/>
     </row>
-    <row r="92" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -39906,15 +39909,18 @@
       <c r="CO92" s="11">
         <v>21.124814109413876</v>
       </c>
-      <c r="CP92" s="23">
-        <v>48.710572836518793</v>
-      </c>
-      <c r="CQ92" s="23"/>
-      <c r="CR92" s="23"/>
-      <c r="CS92" s="23"/>
-      <c r="CT92" s="23"/>
+      <c r="CP92" s="11">
+        <v>48.202948417471219</v>
+      </c>
+      <c r="CQ92" s="11">
+        <v>81.744315309544362</v>
+      </c>
+      <c r="CR92" s="11"/>
+      <c r="CS92" s="11"/>
+      <c r="CT92" s="11"/>
+      <c r="CU92" s="11"/>
     </row>
-    <row r="93" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>19</v>
       </c>
@@ -40194,15 +40200,18 @@
       <c r="CO93" s="11">
         <v>31.318877986198999</v>
       </c>
-      <c r="CP93" s="23">
-        <v>78.230931440848678</v>
-      </c>
-      <c r="CQ93" s="23"/>
-      <c r="CR93" s="23"/>
-      <c r="CS93" s="23"/>
-      <c r="CT93" s="23"/>
+      <c r="CP93" s="11">
+        <v>78.229472822517295</v>
+      </c>
+      <c r="CQ93" s="11">
+        <v>57.796269561817923</v>
+      </c>
+      <c r="CR93" s="11"/>
+      <c r="CS93" s="11"/>
+      <c r="CT93" s="11"/>
+      <c r="CU93" s="11"/>
     </row>
-    <row r="94" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
@@ -40482,15 +40491,18 @@
       <c r="CO94" s="11">
         <v>16.222965409853245</v>
       </c>
-      <c r="CP94" s="23">
-        <v>33.120066168098703</v>
-      </c>
-      <c r="CQ94" s="23"/>
-      <c r="CR94" s="23"/>
-      <c r="CS94" s="23"/>
-      <c r="CT94" s="23"/>
+      <c r="CP94" s="11">
+        <v>33.103321560325895</v>
+      </c>
+      <c r="CQ94" s="11">
+        <v>-0.34467441137582</v>
+      </c>
+      <c r="CR94" s="11"/>
+      <c r="CS94" s="11"/>
+      <c r="CT94" s="11"/>
+      <c r="CU94" s="11"/>
     </row>
-    <row r="95" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>21</v>
       </c>
@@ -40770,15 +40782,18 @@
       <c r="CO95" s="11">
         <v>-2.7673555672791821</v>
       </c>
-      <c r="CP95" s="23">
-        <v>8.4316560161959302</v>
-      </c>
-      <c r="CQ95" s="23"/>
-      <c r="CR95" s="23"/>
-      <c r="CS95" s="23"/>
-      <c r="CT95" s="23"/>
+      <c r="CP95" s="11">
+        <v>8.5988304619523177</v>
+      </c>
+      <c r="CQ95" s="11">
+        <v>32.067097783556733</v>
+      </c>
+      <c r="CR95" s="11"/>
+      <c r="CS95" s="11"/>
+      <c r="CT95" s="11"/>
+      <c r="CU95" s="11"/>
     </row>
-    <row r="96" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>22</v>
       </c>
@@ -41058,15 +41073,18 @@
       <c r="CO96" s="11">
         <v>20.984170734494725</v>
       </c>
-      <c r="CP96" s="23">
-        <v>-2.0336612783834198</v>
-      </c>
-      <c r="CQ96" s="23"/>
-      <c r="CR96" s="23"/>
-      <c r="CS96" s="23"/>
-      <c r="CT96" s="23"/>
+      <c r="CP96" s="11">
+        <v>-2.0336612783834056</v>
+      </c>
+      <c r="CQ96" s="11">
+        <v>33.032942378969153</v>
+      </c>
+      <c r="CR96" s="11"/>
+      <c r="CS96" s="11"/>
+      <c r="CT96" s="11"/>
+      <c r="CU96" s="11"/>
     </row>
-    <row r="97" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>23</v>
       </c>
@@ -41346,15 +41364,18 @@
       <c r="CO97" s="11">
         <v>-4.1611103777972005</v>
       </c>
-      <c r="CP97" s="23">
-        <v>14.802386305824839</v>
-      </c>
-      <c r="CQ97" s="23"/>
-      <c r="CR97" s="23"/>
-      <c r="CS97" s="23"/>
-      <c r="CT97" s="23"/>
+      <c r="CP97" s="11">
+        <v>14.802386305824072</v>
+      </c>
+      <c r="CQ97" s="11">
+        <v>-7.5655424160801772</v>
+      </c>
+      <c r="CR97" s="11"/>
+      <c r="CS97" s="11"/>
+      <c r="CT97" s="11"/>
+      <c r="CU97" s="11"/>
     </row>
-    <row r="98" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>24</v>
       </c>
@@ -41634,15 +41655,18 @@
       <c r="CO98" s="11">
         <v>73.648447457317303</v>
       </c>
-      <c r="CP98" s="23">
-        <v>38.376220757861802</v>
-      </c>
-      <c r="CQ98" s="23"/>
-      <c r="CR98" s="23"/>
-      <c r="CS98" s="23"/>
-      <c r="CT98" s="23"/>
+      <c r="CP98" s="11">
+        <v>38.46067539195036</v>
+      </c>
+      <c r="CQ98" s="11">
+        <v>4.4454136222277185</v>
+      </c>
+      <c r="CR98" s="11"/>
+      <c r="CS98" s="11"/>
+      <c r="CT98" s="11"/>
+      <c r="CU98" s="11"/>
     </row>
-    <row r="99" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -41922,15 +41946,18 @@
       <c r="CO99" s="11">
         <v>5.5942472166754555</v>
       </c>
-      <c r="CP99" s="23">
-        <v>-11.119847133230792</v>
-      </c>
-      <c r="CQ99" s="23"/>
-      <c r="CR99" s="23"/>
-      <c r="CS99" s="23"/>
-      <c r="CT99" s="23"/>
+      <c r="CP99" s="11">
+        <v>-10.78435841941959</v>
+      </c>
+      <c r="CQ99" s="11">
+        <v>-4.1508274270445185</v>
+      </c>
+      <c r="CR99" s="11"/>
+      <c r="CS99" s="11"/>
+      <c r="CT99" s="11"/>
+      <c r="CU99" s="11"/>
     </row>
-    <row r="100" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>26</v>
       </c>
@@ -42210,15 +42237,18 @@
       <c r="CO100" s="11">
         <v>8.7186527212723632</v>
       </c>
-      <c r="CP100" s="23">
-        <v>2.1874311913704219</v>
-      </c>
-      <c r="CQ100" s="23"/>
-      <c r="CR100" s="23"/>
-      <c r="CS100" s="23"/>
-      <c r="CT100" s="23"/>
+      <c r="CP100" s="11">
+        <v>2.2320257559099446</v>
+      </c>
+      <c r="CQ100" s="11">
+        <v>11.846603171516819</v>
+      </c>
+      <c r="CR100" s="11"/>
+      <c r="CS100" s="11"/>
+      <c r="CT100" s="11"/>
+      <c r="CU100" s="11"/>
     </row>
-    <row r="101" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
@@ -42498,15 +42528,18 @@
       <c r="CO101" s="11">
         <v>8.8882870859577849</v>
       </c>
-      <c r="CP101" s="23">
+      <c r="CP101" s="11">
         <v>3.1720551668007033</v>
       </c>
-      <c r="CQ101" s="23"/>
-      <c r="CR101" s="23"/>
-      <c r="CS101" s="23"/>
-      <c r="CT101" s="23"/>
+      <c r="CQ101" s="11">
+        <v>13.079883761795344</v>
+      </c>
+      <c r="CR101" s="11"/>
+      <c r="CS101" s="11"/>
+      <c r="CT101" s="11"/>
+      <c r="CU101" s="11"/>
     </row>
-    <row r="102" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>4</v>
       </c>
@@ -42786,15 +42819,18 @@
       <c r="CO102" s="11">
         <v>9.030661656795985</v>
       </c>
-      <c r="CP102" s="23">
+      <c r="CP102" s="11">
         <v>2.4633927400525124</v>
       </c>
-      <c r="CQ102" s="23"/>
-      <c r="CR102" s="23"/>
-      <c r="CS102" s="23"/>
-      <c r="CT102" s="23"/>
+      <c r="CQ102" s="11">
+        <v>13.238762915006561</v>
+      </c>
+      <c r="CR102" s="11"/>
+      <c r="CS102" s="11"/>
+      <c r="CT102" s="11"/>
+      <c r="CU102" s="11"/>
     </row>
-    <row r="103" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -43074,15 +43110,18 @@
       <c r="CO103" s="11">
         <v>-8.9299522817109107</v>
       </c>
-      <c r="CP103" s="23">
-        <v>32.348928871788615</v>
-      </c>
-      <c r="CQ103" s="23"/>
-      <c r="CR103" s="23"/>
-      <c r="CS103" s="23"/>
-      <c r="CT103" s="23"/>
+      <c r="CP103" s="11">
+        <v>32.119618755105961</v>
+      </c>
+      <c r="CQ103" s="11">
+        <v>28.560621620389043</v>
+      </c>
+      <c r="CR103" s="11"/>
+      <c r="CS103" s="11"/>
+      <c r="CT103" s="11"/>
+      <c r="CU103" s="11"/>
     </row>
-    <row r="104" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -43362,15 +43401,18 @@
       <c r="CO104" s="11">
         <v>-5.4885290594271368</v>
       </c>
-      <c r="CP104" s="23">
-        <v>-7.2599134039688522</v>
-      </c>
-      <c r="CQ104" s="23"/>
-      <c r="CR104" s="23"/>
-      <c r="CS104" s="23"/>
-      <c r="CT104" s="23"/>
+      <c r="CP104" s="11">
+        <v>-6.8476276234129472</v>
+      </c>
+      <c r="CQ104" s="11">
+        <v>-8.4453251944977836</v>
+      </c>
+      <c r="CR104" s="11"/>
+      <c r="CS104" s="11"/>
+      <c r="CT104" s="11"/>
+      <c r="CU104" s="11"/>
     </row>
-    <row r="105" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -43650,16 +43692,19 @@
       <c r="CO105" s="11">
         <v>14.54780436775134</v>
       </c>
-      <c r="CP105" s="23">
+      <c r="CP105" s="11">
         <v>7.3974926518233843</v>
       </c>
-      <c r="CQ105" s="23"/>
-      <c r="CR105" s="23"/>
-      <c r="CS105" s="23"/>
-      <c r="CT105" s="23"/>
+      <c r="CQ105" s="11">
+        <v>16.113126811593361</v>
+      </c>
+      <c r="CR105" s="11"/>
+      <c r="CS105" s="11"/>
+      <c r="CT105" s="11"/>
+      <c r="CU105" s="11"/>
     </row>
-    <row r="106" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="1:99" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>9</v>
       </c>
@@ -43939,15 +43984,18 @@
       <c r="CO107" s="11">
         <v>10.129537851076492</v>
       </c>
-      <c r="CP107" s="23">
-        <v>8.206637390162058</v>
-      </c>
-      <c r="CQ107" s="23"/>
-      <c r="CR107" s="23"/>
-      <c r="CS107" s="23"/>
-      <c r="CT107" s="23"/>
+      <c r="CP107" s="11">
+        <v>8.3202819847791716</v>
+      </c>
+      <c r="CQ107" s="11">
+        <v>6.641624993158814</v>
+      </c>
+      <c r="CR107" s="11"/>
+      <c r="CS107" s="11"/>
+      <c r="CT107" s="11"/>
+      <c r="CU107" s="11"/>
     </row>
-    <row r="108" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:99" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -44041,226 +44089,180 @@
       <c r="CM108" s="10"/>
       <c r="CN108" s="10"/>
       <c r="CO108" s="10"/>
-      <c r="CP108" s="20"/>
-      <c r="CQ108" s="20"/>
-      <c r="CR108" s="20"/>
-      <c r="CS108" s="20"/>
-      <c r="CT108" s="20"/>
+      <c r="CP108" s="10"/>
+      <c r="CQ108" s="10"/>
+      <c r="CR108" s="10"/>
+      <c r="CS108" s="10"/>
+      <c r="CT108" s="10"/>
+      <c r="CU108" s="10"/>
     </row>
-    <row r="109" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CP109" s="14"/>
-      <c r="CQ109" s="14"/>
-      <c r="CR109" s="14"/>
-      <c r="CS109" s="14"/>
-      <c r="CT109" s="14"/>
     </row>
-    <row r="110" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP112" s="14"/>
-      <c r="CQ112" s="14"/>
-      <c r="CR112" s="14"/>
-      <c r="CS112" s="14"/>
-      <c r="CT112" s="14"/>
     </row>
-    <row r="113" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CP113" s="14"/>
-      <c r="CQ113" s="14"/>
-      <c r="CR113" s="14"/>
-      <c r="CS113" s="14"/>
-      <c r="CT113" s="14"/>
     </row>
-    <row r="114" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP114" s="14"/>
-      <c r="CQ114" s="14"/>
-      <c r="CR114" s="14"/>
-      <c r="CS114" s="14"/>
-      <c r="CT114" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="115" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP115" s="14"/>
-      <c r="CQ115" s="14"/>
-      <c r="CR115" s="14"/>
-      <c r="CS115" s="14"/>
-      <c r="CT115" s="14"/>
-    </row>
-    <row r="116" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="CP116" s="14"/>
-      <c r="CQ116" s="14"/>
-      <c r="CR116" s="14"/>
-      <c r="CS116" s="14"/>
-      <c r="CT116" s="14"/>
     </row>
-    <row r="117" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="CP117" s="14"/>
-      <c r="CQ117" s="14"/>
-      <c r="CR117" s="14"/>
-      <c r="CS117" s="14"/>
-      <c r="CT117" s="14"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="118" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="CP118" s="14"/>
-      <c r="CQ118" s="14"/>
-      <c r="CR118" s="14"/>
-      <c r="CS118" s="14"/>
-      <c r="CT118" s="14"/>
     </row>
-    <row r="119" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP119" s="14"/>
-      <c r="CQ119" s="14"/>
-      <c r="CR119" s="14"/>
-      <c r="CS119" s="14"/>
-      <c r="CT119" s="14"/>
-    </row>
-    <row r="120" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="25" t="s">
+      <c r="B120" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="25" t="s">
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25" t="s">
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="25" t="s">
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="O120" s="25"/>
-      <c r="P120" s="25"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="25" t="s">
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="S120" s="25"/>
-      <c r="T120" s="25"/>
-      <c r="U120" s="25"/>
-      <c r="V120" s="25" t="s">
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="W120" s="25"/>
-      <c r="X120" s="25"/>
-      <c r="Y120" s="25"/>
-      <c r="Z120" s="25" t="s">
+      <c r="W120" s="16"/>
+      <c r="X120" s="16"/>
+      <c r="Y120" s="16"/>
+      <c r="Z120" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AA120" s="25"/>
-      <c r="AB120" s="25"/>
-      <c r="AC120" s="25"/>
-      <c r="AD120" s="25" t="s">
+      <c r="AA120" s="16"/>
+      <c r="AB120" s="16"/>
+      <c r="AC120" s="16"/>
+      <c r="AD120" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AE120" s="25"/>
-      <c r="AF120" s="25"/>
-      <c r="AG120" s="25"/>
-      <c r="AH120" s="25" t="s">
+      <c r="AE120" s="16"/>
+      <c r="AF120" s="16"/>
+      <c r="AG120" s="16"/>
+      <c r="AH120" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="AI120" s="25"/>
-      <c r="AJ120" s="25"/>
-      <c r="AK120" s="25"/>
-      <c r="AL120" s="25" t="s">
+      <c r="AI120" s="16"/>
+      <c r="AJ120" s="16"/>
+      <c r="AK120" s="16"/>
+      <c r="AL120" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AM120" s="25"/>
-      <c r="AN120" s="25"/>
-      <c r="AO120" s="25"/>
-      <c r="AP120" s="25" t="s">
+      <c r="AM120" s="16"/>
+      <c r="AN120" s="16"/>
+      <c r="AO120" s="16"/>
+      <c r="AP120" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="25"/>
-      <c r="AR120" s="25"/>
-      <c r="AS120" s="25"/>
-      <c r="AT120" s="25" t="s">
+      <c r="AQ120" s="16"/>
+      <c r="AR120" s="16"/>
+      <c r="AS120" s="16"/>
+      <c r="AT120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU120" s="25"/>
-      <c r="AV120" s="25"/>
-      <c r="AW120" s="25"/>
-      <c r="AX120" s="25" t="s">
+      <c r="AU120" s="16"/>
+      <c r="AV120" s="16"/>
+      <c r="AW120" s="16"/>
+      <c r="AX120" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AY120" s="25"/>
-      <c r="AZ120" s="25"/>
-      <c r="BA120" s="25"/>
-      <c r="BB120" s="25" t="s">
+      <c r="AY120" s="16"/>
+      <c r="AZ120" s="16"/>
+      <c r="BA120" s="16"/>
+      <c r="BB120" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BC120" s="25"/>
-      <c r="BD120" s="25"/>
-      <c r="BE120" s="25"/>
-      <c r="BF120" s="25" t="s">
+      <c r="BC120" s="16"/>
+      <c r="BD120" s="16"/>
+      <c r="BE120" s="16"/>
+      <c r="BF120" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BG120" s="25"/>
-      <c r="BH120" s="25"/>
-      <c r="BI120" s="25"/>
-      <c r="BJ120" s="25" t="s">
+      <c r="BG120" s="16"/>
+      <c r="BH120" s="16"/>
+      <c r="BI120" s="16"/>
+      <c r="BJ120" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BK120" s="25"/>
-      <c r="BL120" s="25"/>
-      <c r="BM120" s="25"/>
-      <c r="BN120" s="25" t="s">
+      <c r="BK120" s="16"/>
+      <c r="BL120" s="16"/>
+      <c r="BM120" s="16"/>
+      <c r="BN120" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BO120" s="25"/>
-      <c r="BP120" s="25"/>
-      <c r="BQ120" s="25"/>
-      <c r="BR120" s="25" t="s">
+      <c r="BO120" s="16"/>
+      <c r="BP120" s="16"/>
+      <c r="BQ120" s="16"/>
+      <c r="BR120" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BS120" s="25"/>
-      <c r="BT120" s="25"/>
-      <c r="BU120" s="25"/>
-      <c r="BV120" s="25" t="s">
+      <c r="BS120" s="16"/>
+      <c r="BT120" s="16"/>
+      <c r="BU120" s="16"/>
+      <c r="BV120" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BW120" s="25"/>
-      <c r="BX120" s="25"/>
-      <c r="BY120" s="25"/>
-      <c r="BZ120" s="25" t="s">
+      <c r="BW120" s="16"/>
+      <c r="BX120" s="16"/>
+      <c r="BY120" s="16"/>
+      <c r="BZ120" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="CA120" s="25"/>
-      <c r="CB120" s="25"/>
-      <c r="CC120" s="25"/>
-      <c r="CD120" s="25" t="s">
+      <c r="CA120" s="16"/>
+      <c r="CB120" s="16"/>
+      <c r="CC120" s="16"/>
+      <c r="CD120" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="CE120" s="25"/>
-      <c r="CF120" s="25"/>
-      <c r="CG120" s="25"/>
+      <c r="CE120" s="16"/>
+      <c r="CF120" s="16"/>
+      <c r="CG120" s="16"/>
       <c r="CH120" s="13" t="s">
         <v>65</v>
       </c>
@@ -44273,15 +44275,16 @@
       <c r="CM120" s="13"/>
       <c r="CN120" s="13"/>
       <c r="CO120" s="13"/>
-      <c r="CP120" s="15" t="s">
+      <c r="CP120" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CQ120" s="22"/>
-      <c r="CR120" s="22"/>
-      <c r="CS120" s="22"/>
-      <c r="CT120" s="22"/>
+      <c r="CQ120" s="13"/>
+      <c r="CR120" s="14"/>
+      <c r="CS120" s="14"/>
+      <c r="CT120" s="13"/>
+      <c r="CU120" s="14"/>
     </row>
-    <row r="121" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>8</v>
       </c>
@@ -44561,23 +44564,21 @@
       <c r="CO121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP121" s="16" t="s">
+      <c r="CP121" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ121" s="16"/>
-      <c r="CR121" s="16"/>
-      <c r="CS121" s="16"/>
-      <c r="CT121" s="16"/>
+      <c r="CQ121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR121" s="4"/>
+      <c r="CS121" s="4"/>
+      <c r="CT121" s="4"/>
+      <c r="CU121" s="4"/>
     </row>
-    <row r="122" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="CP122" s="14"/>
-      <c r="CQ122" s="14"/>
-      <c r="CR122" s="14"/>
-      <c r="CS122" s="14"/>
-      <c r="CT122" s="14"/>
     </row>
-    <row r="123" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>12</v>
       </c>
@@ -44857,15 +44858,18 @@
       <c r="CO123" s="11">
         <v>0.16584506353160577</v>
       </c>
-      <c r="CP123" s="23">
+      <c r="CP123" s="11">
         <v>-1.9617478979774035</v>
       </c>
-      <c r="CQ123" s="23"/>
-      <c r="CR123" s="23"/>
-      <c r="CS123" s="23"/>
-      <c r="CT123" s="23"/>
+      <c r="CQ123" s="11">
+        <v>-9.4713394165787435</v>
+      </c>
+      <c r="CR123" s="11"/>
+      <c r="CS123" s="11"/>
+      <c r="CT123" s="11"/>
+      <c r="CU123" s="11"/>
     </row>
-    <row r="124" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>13</v>
       </c>
@@ -45145,15 +45149,18 @@
       <c r="CO124" s="11">
         <v>-1.7529328124686714</v>
       </c>
-      <c r="CP124" s="23">
+      <c r="CP124" s="11">
         <v>1.6514488175587445</v>
       </c>
-      <c r="CQ124" s="23"/>
-      <c r="CR124" s="23"/>
-      <c r="CS124" s="23"/>
-      <c r="CT124" s="23"/>
+      <c r="CQ124" s="11">
+        <v>-19.215426675765059</v>
+      </c>
+      <c r="CR124" s="11"/>
+      <c r="CS124" s="11"/>
+      <c r="CT124" s="11"/>
+      <c r="CU124" s="11"/>
     </row>
-    <row r="125" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
@@ -45433,15 +45440,18 @@
       <c r="CO125" s="11">
         <v>-1.6134214225068035</v>
       </c>
-      <c r="CP125" s="23">
-        <v>-3.3059055411973475</v>
-      </c>
-      <c r="CQ125" s="23"/>
-      <c r="CR125" s="23"/>
-      <c r="CS125" s="23"/>
-      <c r="CT125" s="23"/>
+      <c r="CP125" s="11">
+        <v>-3.3059055411976459</v>
+      </c>
+      <c r="CQ125" s="11">
+        <v>-4.037339096354188</v>
+      </c>
+      <c r="CR125" s="11"/>
+      <c r="CS125" s="11"/>
+      <c r="CT125" s="11"/>
+      <c r="CU125" s="11"/>
     </row>
-    <row r="126" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:99" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>15</v>
       </c>
@@ -45721,15 +45731,18 @@
       <c r="CO126" s="11">
         <v>12.912560083482646</v>
       </c>
-      <c r="CP126" s="23">
+      <c r="CP126" s="11">
         <v>18.154966460891231</v>
       </c>
-      <c r="CQ126" s="23"/>
-      <c r="CR126" s="23"/>
-      <c r="CS126" s="23"/>
-      <c r="CT126" s="23"/>
+      <c r="CQ126" s="11">
+        <v>-36.742795916288671</v>
+      </c>
+      <c r="CR126" s="11"/>
+      <c r="CS126" s="11"/>
+      <c r="CT126" s="11"/>
+      <c r="CU126" s="11"/>
     </row>
-    <row r="127" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -46009,15 +46022,18 @@
       <c r="CO127" s="11">
         <v>-0.21731987767523719</v>
       </c>
-      <c r="CP127" s="23">
+      <c r="CP127" s="11">
         <v>-4.5079775164816169</v>
       </c>
-      <c r="CQ127" s="23"/>
-      <c r="CR127" s="23"/>
-      <c r="CS127" s="23"/>
-      <c r="CT127" s="23"/>
+      <c r="CQ127" s="11">
+        <v>-3.2786955946279051</v>
+      </c>
+      <c r="CR127" s="11"/>
+      <c r="CS127" s="11"/>
+      <c r="CT127" s="11"/>
+      <c r="CU127" s="11"/>
     </row>
-    <row r="128" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -46297,15 +46313,18 @@
       <c r="CO128" s="11">
         <v>7.7716339893407707</v>
       </c>
-      <c r="CP128" s="23">
+      <c r="CP128" s="11">
         <v>3.2972490911690358</v>
       </c>
-      <c r="CQ128" s="23"/>
-      <c r="CR128" s="23"/>
-      <c r="CS128" s="23"/>
-      <c r="CT128" s="23"/>
+      <c r="CQ128" s="11">
+        <v>-1.6797696604438102</v>
+      </c>
+      <c r="CR128" s="11"/>
+      <c r="CS128" s="11"/>
+      <c r="CT128" s="11"/>
+      <c r="CU128" s="11"/>
     </row>
-    <row r="129" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -46585,15 +46604,18 @@
       <c r="CO129" s="11">
         <v>0.27816013904838144</v>
       </c>
-      <c r="CP129" s="23">
-        <v>1.0305784593574998</v>
-      </c>
-      <c r="CQ129" s="23"/>
-      <c r="CR129" s="23"/>
-      <c r="CS129" s="23"/>
-      <c r="CT129" s="23"/>
+      <c r="CP129" s="11">
+        <v>1.0305784593575282</v>
+      </c>
+      <c r="CQ129" s="11">
+        <v>-3.2204109939276151</v>
+      </c>
+      <c r="CR129" s="11"/>
+      <c r="CS129" s="11"/>
+      <c r="CT129" s="11"/>
+      <c r="CU129" s="11"/>
     </row>
-    <row r="130" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -46873,15 +46895,18 @@
       <c r="CO130" s="11">
         <v>-1.6544622908322708</v>
       </c>
-      <c r="CP130" s="23">
-        <v>24.511370705111446</v>
-      </c>
-      <c r="CQ130" s="23"/>
-      <c r="CR130" s="23"/>
-      <c r="CS130" s="23"/>
-      <c r="CT130" s="23"/>
+      <c r="CP130" s="11">
+        <v>24.511370705111418</v>
+      </c>
+      <c r="CQ130" s="11">
+        <v>-2.5245890511519775</v>
+      </c>
+      <c r="CR130" s="11"/>
+      <c r="CS130" s="11"/>
+      <c r="CT130" s="11"/>
+      <c r="CU130" s="11"/>
     </row>
-    <row r="131" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
@@ -47161,15 +47186,18 @@
       <c r="CO131" s="11">
         <v>-2.4711567905984282</v>
       </c>
-      <c r="CP131" s="23">
-        <v>-8.8002511890240385</v>
-      </c>
-      <c r="CQ131" s="23"/>
-      <c r="CR131" s="23"/>
-      <c r="CS131" s="23"/>
-      <c r="CT131" s="23"/>
+      <c r="CP131" s="11">
+        <v>-8.8002519571153073</v>
+      </c>
+      <c r="CQ131" s="11">
+        <v>-6.8733490012630227</v>
+      </c>
+      <c r="CR131" s="11"/>
+      <c r="CS131" s="11"/>
+      <c r="CT131" s="11"/>
+      <c r="CU131" s="11"/>
     </row>
-    <row r="132" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>21</v>
       </c>
@@ -47449,15 +47477,18 @@
       <c r="CO132" s="11">
         <v>-7.4510537196030384</v>
       </c>
-      <c r="CP132" s="23">
-        <v>1.0341123143178237</v>
-      </c>
-      <c r="CQ132" s="23"/>
-      <c r="CR132" s="23"/>
-      <c r="CS132" s="23"/>
-      <c r="CT132" s="23"/>
+      <c r="CP132" s="11">
+        <v>1.0341123143178095</v>
+      </c>
+      <c r="CQ132" s="11">
+        <v>-8.9107107290365235</v>
+      </c>
+      <c r="CR132" s="11"/>
+      <c r="CS132" s="11"/>
+      <c r="CT132" s="11"/>
+      <c r="CU132" s="11"/>
     </row>
-    <row r="133" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>22</v>
       </c>
@@ -47737,15 +47768,18 @@
       <c r="CO133" s="11">
         <v>3.5024057984051353</v>
       </c>
-      <c r="CP133" s="23">
+      <c r="CP133" s="11">
         <v>3.3028667329860326</v>
       </c>
-      <c r="CQ133" s="23"/>
-      <c r="CR133" s="23"/>
-      <c r="CS133" s="23"/>
-      <c r="CT133" s="23"/>
+      <c r="CQ133" s="11">
+        <v>6.1034720047004072</v>
+      </c>
+      <c r="CR133" s="11"/>
+      <c r="CS133" s="11"/>
+      <c r="CT133" s="11"/>
+      <c r="CU133" s="11"/>
     </row>
-    <row r="134" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>23</v>
       </c>
@@ -48025,15 +48059,18 @@
       <c r="CO134" s="11">
         <v>4.0159732839336328</v>
       </c>
-      <c r="CP134" s="23">
-        <v>-0.8655326358754678</v>
-      </c>
-      <c r="CQ134" s="23"/>
-      <c r="CR134" s="23"/>
-      <c r="CS134" s="23"/>
-      <c r="CT134" s="23"/>
+      <c r="CP134" s="11">
+        <v>-0.86553263587609308</v>
+      </c>
+      <c r="CQ134" s="11">
+        <v>-11.835939073202013</v>
+      </c>
+      <c r="CR134" s="11"/>
+      <c r="CS134" s="11"/>
+      <c r="CT134" s="11"/>
+      <c r="CU134" s="11"/>
     </row>
-    <row r="135" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>24</v>
       </c>
@@ -48313,15 +48350,18 @@
       <c r="CO135" s="11">
         <v>1.4391487246057579</v>
       </c>
-      <c r="CP135" s="23">
-        <v>9.5320379139531894</v>
-      </c>
-      <c r="CQ135" s="23"/>
-      <c r="CR135" s="23"/>
-      <c r="CS135" s="23"/>
-      <c r="CT135" s="23"/>
+      <c r="CP135" s="11">
+        <v>9.5409368245244366</v>
+      </c>
+      <c r="CQ135" s="11">
+        <v>-1.4750893761318622</v>
+      </c>
+      <c r="CR135" s="11"/>
+      <c r="CS135" s="11"/>
+      <c r="CT135" s="11"/>
+      <c r="CU135" s="11"/>
     </row>
-    <row r="136" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -48601,15 +48641,18 @@
       <c r="CO136" s="11">
         <v>-1.7092495541837422</v>
       </c>
-      <c r="CP136" s="23">
-        <v>2.8994797023447205</v>
-      </c>
-      <c r="CQ136" s="23"/>
-      <c r="CR136" s="23"/>
-      <c r="CS136" s="23"/>
-      <c r="CT136" s="23"/>
+      <c r="CP136" s="11">
+        <v>2.9438329856621408</v>
+      </c>
+      <c r="CQ136" s="11">
+        <v>-8.668734181822316</v>
+      </c>
+      <c r="CR136" s="11"/>
+      <c r="CS136" s="11"/>
+      <c r="CT136" s="11"/>
+      <c r="CU136" s="11"/>
     </row>
-    <row r="137" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>26</v>
       </c>
@@ -48889,15 +48932,18 @@
       <c r="CO137" s="11">
         <v>2.6834122525935413</v>
       </c>
-      <c r="CP137" s="23">
-        <v>-3.5021570520441969</v>
-      </c>
-      <c r="CQ137" s="23"/>
-      <c r="CR137" s="23"/>
-      <c r="CS137" s="23"/>
-      <c r="CT137" s="23"/>
+      <c r="CP137" s="11">
+        <v>-3.4333784938742298</v>
+      </c>
+      <c r="CQ137" s="11">
+        <v>-0.20309912854800416</v>
+      </c>
+      <c r="CR137" s="11"/>
+      <c r="CS137" s="11"/>
+      <c r="CT137" s="11"/>
+      <c r="CU137" s="11"/>
     </row>
-    <row r="138" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>27</v>
       </c>
@@ -49177,15 +49223,18 @@
       <c r="CO138" s="11">
         <v>7.7811211939173006</v>
       </c>
-      <c r="CP138" s="23">
+      <c r="CP138" s="11">
         <v>5.8455952227993322</v>
       </c>
-      <c r="CQ138" s="23"/>
-      <c r="CR138" s="23"/>
-      <c r="CS138" s="23"/>
-      <c r="CT138" s="23"/>
+      <c r="CQ138" s="11">
+        <v>8.6626333676700824</v>
+      </c>
+      <c r="CR138" s="11"/>
+      <c r="CS138" s="11"/>
+      <c r="CT138" s="11"/>
+      <c r="CU138" s="11"/>
     </row>
-    <row r="139" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -49465,15 +49514,18 @@
       <c r="CO139" s="11">
         <v>5.3105426683176802</v>
       </c>
-      <c r="CP139" s="23">
+      <c r="CP139" s="11">
         <v>1.2570698425536904</v>
       </c>
-      <c r="CQ139" s="23"/>
-      <c r="CR139" s="23"/>
-      <c r="CS139" s="23"/>
-      <c r="CT139" s="23"/>
+      <c r="CQ139" s="11">
+        <v>4.2221205779874111</v>
+      </c>
+      <c r="CR139" s="11"/>
+      <c r="CS139" s="11"/>
+      <c r="CT139" s="11"/>
+      <c r="CU139" s="11"/>
     </row>
-    <row r="140" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -49753,15 +49805,18 @@
       <c r="CO140" s="11">
         <v>-7.3626482502718034</v>
       </c>
-      <c r="CP140" s="23">
-        <v>38.703572282299916</v>
-      </c>
-      <c r="CQ140" s="23"/>
-      <c r="CR140" s="23"/>
-      <c r="CS140" s="23"/>
-      <c r="CT140" s="23"/>
+      <c r="CP140" s="11">
+        <v>38.774352933538466</v>
+      </c>
+      <c r="CQ140" s="11">
+        <v>34.279914999866946</v>
+      </c>
+      <c r="CR140" s="11"/>
+      <c r="CS140" s="11"/>
+      <c r="CT140" s="11"/>
+      <c r="CU140" s="11"/>
     </row>
-    <row r="141" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -50041,15 +50096,18 @@
       <c r="CO141" s="11">
         <v>-5.306623277010047</v>
       </c>
-      <c r="CP141" s="23">
-        <v>-1.0095855028002347</v>
-      </c>
-      <c r="CQ141" s="23"/>
-      <c r="CR141" s="23"/>
-      <c r="CS141" s="23"/>
-      <c r="CT141" s="23"/>
+      <c r="CP141" s="11">
+        <v>-0.22457072757146079</v>
+      </c>
+      <c r="CQ141" s="11">
+        <v>2.5682999416195855</v>
+      </c>
+      <c r="CR141" s="11"/>
+      <c r="CS141" s="11"/>
+      <c r="CT141" s="11"/>
+      <c r="CU141" s="11"/>
     </row>
-    <row r="142" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -50329,16 +50387,19 @@
       <c r="CO142" s="11">
         <v>6.9256609535229785</v>
       </c>
-      <c r="CP142" s="23">
+      <c r="CP142" s="11">
         <v>1.7985896041710703</v>
       </c>
-      <c r="CQ142" s="23"/>
-      <c r="CR142" s="23"/>
-      <c r="CS142" s="23"/>
-      <c r="CT142" s="23"/>
+      <c r="CQ142" s="11">
+        <v>6.440985660973638</v>
+      </c>
+      <c r="CR142" s="11"/>
+      <c r="CS142" s="11"/>
+      <c r="CT142" s="11"/>
+      <c r="CU142" s="11"/>
     </row>
-    <row r="143" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:99" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -50618,15 +50679,18 @@
       <c r="CO144" s="11">
         <v>1.2915187546246614</v>
       </c>
-      <c r="CP144" s="23">
-        <v>0.3821660310167232</v>
-      </c>
-      <c r="CQ144" s="23"/>
-      <c r="CR144" s="23"/>
-      <c r="CS144" s="23"/>
-      <c r="CT144" s="23"/>
+      <c r="CP144" s="11">
+        <v>0.47213651593844475</v>
+      </c>
+      <c r="CQ144" s="11">
+        <v>-2.3388230119814466</v>
+      </c>
+      <c r="CR144" s="11"/>
+      <c r="CS144" s="11"/>
+      <c r="CT144" s="11"/>
+      <c r="CU144" s="11"/>
     </row>
-    <row r="145" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:99" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -50720,216 +50784,175 @@
       <c r="CM145" s="10"/>
       <c r="CN145" s="10"/>
       <c r="CO145" s="10"/>
-      <c r="CP145" s="20"/>
-      <c r="CQ145" s="20"/>
-      <c r="CR145" s="20"/>
-      <c r="CS145" s="20"/>
-      <c r="CT145" s="20"/>
+      <c r="CP145" s="10"/>
+      <c r="CQ145" s="10"/>
+      <c r="CR145" s="10"/>
+      <c r="CS145" s="10"/>
+      <c r="CT145" s="10"/>
+      <c r="CU145" s="10"/>
     </row>
-    <row r="146" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CP146" s="14"/>
-      <c r="CQ146" s="14"/>
-      <c r="CR146" s="14"/>
-      <c r="CS146" s="14"/>
-      <c r="CT146" s="14"/>
     </row>
-    <row r="147" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP149" s="14"/>
-      <c r="CQ149" s="14"/>
-      <c r="CR149" s="14"/>
-      <c r="CS149" s="14"/>
-      <c r="CT149" s="14"/>
     </row>
-    <row r="150" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP150" s="14"/>
-      <c r="CQ150" s="14"/>
-      <c r="CR150" s="14"/>
-      <c r="CS150" s="14"/>
-      <c r="CT150" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="151" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP151" s="14"/>
-      <c r="CQ151" s="14"/>
-      <c r="CR151" s="14"/>
-      <c r="CS151" s="14"/>
-      <c r="CT151" s="14"/>
-    </row>
-    <row r="152" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CP152" s="14"/>
-      <c r="CQ152" s="14"/>
-      <c r="CR152" s="14"/>
-      <c r="CS152" s="14"/>
-      <c r="CT152" s="14"/>
     </row>
-    <row r="153" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CP153" s="14"/>
-      <c r="CQ153" s="14"/>
-      <c r="CR153" s="14"/>
-      <c r="CS153" s="14"/>
-      <c r="CT153" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="154" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="CP154" s="14"/>
-      <c r="CQ154" s="14"/>
-      <c r="CR154" s="14"/>
-      <c r="CS154" s="14"/>
-      <c r="CT154" s="14"/>
     </row>
-    <row r="155" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP155" s="14"/>
-      <c r="CQ155" s="14"/>
-      <c r="CR155" s="14"/>
-      <c r="CS155" s="14"/>
-      <c r="CT155" s="14"/>
-    </row>
-    <row r="156" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="25">
+      <c r="B156" s="16">
         <v>2000</v>
       </c>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25">
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16">
         <v>2001</v>
       </c>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25">
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16">
         <v>2002</v>
       </c>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
-      <c r="N156" s="25">
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
+      <c r="N156" s="16">
         <v>2003</v>
       </c>
-      <c r="O156" s="25"/>
-      <c r="P156" s="25"/>
-      <c r="Q156" s="25"/>
-      <c r="R156" s="25">
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+      <c r="Q156" s="16"/>
+      <c r="R156" s="16">
         <v>2004</v>
       </c>
-      <c r="S156" s="25"/>
-      <c r="T156" s="25"/>
-      <c r="U156" s="25"/>
-      <c r="V156" s="25">
+      <c r="S156" s="16"/>
+      <c r="T156" s="16"/>
+      <c r="U156" s="16"/>
+      <c r="V156" s="16">
         <v>2005</v>
       </c>
-      <c r="W156" s="25"/>
-      <c r="X156" s="25"/>
-      <c r="Y156" s="25"/>
-      <c r="Z156" s="25">
+      <c r="W156" s="16"/>
+      <c r="X156" s="16"/>
+      <c r="Y156" s="16"/>
+      <c r="Z156" s="16">
         <v>2006</v>
       </c>
-      <c r="AA156" s="25"/>
-      <c r="AB156" s="25"/>
-      <c r="AC156" s="25"/>
-      <c r="AD156" s="25">
+      <c r="AA156" s="16"/>
+      <c r="AB156" s="16"/>
+      <c r="AC156" s="16"/>
+      <c r="AD156" s="16">
         <v>2007</v>
       </c>
-      <c r="AE156" s="25"/>
-      <c r="AF156" s="25"/>
-      <c r="AG156" s="25"/>
-      <c r="AH156" s="25">
+      <c r="AE156" s="16"/>
+      <c r="AF156" s="16"/>
+      <c r="AG156" s="16"/>
+      <c r="AH156" s="16">
         <v>2008</v>
       </c>
-      <c r="AI156" s="25"/>
-      <c r="AJ156" s="25"/>
-      <c r="AK156" s="25"/>
-      <c r="AL156" s="25">
+      <c r="AI156" s="16"/>
+      <c r="AJ156" s="16"/>
+      <c r="AK156" s="16"/>
+      <c r="AL156" s="16">
         <v>2009</v>
       </c>
-      <c r="AM156" s="25"/>
-      <c r="AN156" s="25"/>
-      <c r="AO156" s="25"/>
-      <c r="AP156" s="25">
+      <c r="AM156" s="16"/>
+      <c r="AN156" s="16"/>
+      <c r="AO156" s="16"/>
+      <c r="AP156" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ156" s="25"/>
-      <c r="AR156" s="25"/>
-      <c r="AS156" s="25"/>
-      <c r="AT156" s="25">
+      <c r="AQ156" s="16"/>
+      <c r="AR156" s="16"/>
+      <c r="AS156" s="16"/>
+      <c r="AT156" s="16">
         <v>2011</v>
       </c>
-      <c r="AU156" s="25"/>
-      <c r="AV156" s="25"/>
-      <c r="AW156" s="25"/>
-      <c r="AX156" s="25">
+      <c r="AU156" s="16"/>
+      <c r="AV156" s="16"/>
+      <c r="AW156" s="16"/>
+      <c r="AX156" s="16">
         <v>2012</v>
       </c>
-      <c r="AY156" s="25"/>
-      <c r="AZ156" s="25"/>
-      <c r="BA156" s="25"/>
-      <c r="BB156" s="25">
+      <c r="AY156" s="16"/>
+      <c r="AZ156" s="16"/>
+      <c r="BA156" s="16"/>
+      <c r="BB156" s="16">
         <v>2013</v>
       </c>
-      <c r="BC156" s="25"/>
-      <c r="BD156" s="25"/>
-      <c r="BE156" s="25"/>
-      <c r="BF156" s="25">
+      <c r="BC156" s="16"/>
+      <c r="BD156" s="16"/>
+      <c r="BE156" s="16"/>
+      <c r="BF156" s="16">
         <v>2014</v>
       </c>
-      <c r="BG156" s="25"/>
-      <c r="BH156" s="25"/>
-      <c r="BI156" s="25"/>
-      <c r="BJ156" s="25">
+      <c r="BG156" s="16"/>
+      <c r="BH156" s="16"/>
+      <c r="BI156" s="16"/>
+      <c r="BJ156" s="16">
         <v>2015</v>
       </c>
-      <c r="BK156" s="25"/>
-      <c r="BL156" s="25"/>
-      <c r="BM156" s="25"/>
-      <c r="BN156" s="25">
+      <c r="BK156" s="16"/>
+      <c r="BL156" s="16"/>
+      <c r="BM156" s="16"/>
+      <c r="BN156" s="16">
         <v>2016</v>
       </c>
-      <c r="BO156" s="25"/>
-      <c r="BP156" s="25"/>
-      <c r="BQ156" s="25"/>
-      <c r="BR156" s="25">
+      <c r="BO156" s="16"/>
+      <c r="BP156" s="16"/>
+      <c r="BQ156" s="16"/>
+      <c r="BR156" s="16">
         <v>2017</v>
       </c>
-      <c r="BS156" s="25"/>
-      <c r="BT156" s="25"/>
-      <c r="BU156" s="25"/>
-      <c r="BV156" s="25">
+      <c r="BS156" s="16"/>
+      <c r="BT156" s="16"/>
+      <c r="BU156" s="16"/>
+      <c r="BV156" s="16">
         <v>2018</v>
       </c>
-      <c r="BW156" s="25"/>
-      <c r="BX156" s="25"/>
-      <c r="BY156" s="25"/>
-      <c r="BZ156" s="25">
+      <c r="BW156" s="16"/>
+      <c r="BX156" s="16"/>
+      <c r="BY156" s="16"/>
+      <c r="BZ156" s="16">
         <v>2019</v>
       </c>
-      <c r="CA156" s="25"/>
-      <c r="CB156" s="25"/>
-      <c r="CC156" s="25"/>
-      <c r="CD156" s="25">
+      <c r="CA156" s="16"/>
+      <c r="CB156" s="16"/>
+      <c r="CC156" s="16"/>
+      <c r="CD156" s="16">
         <v>2020</v>
       </c>
-      <c r="CE156" s="25"/>
-      <c r="CF156" s="25"/>
-      <c r="CG156" s="25"/>
+      <c r="CE156" s="16"/>
+      <c r="CF156" s="16"/>
+      <c r="CG156" s="16"/>
       <c r="CH156" s="13">
         <v>2021</v>
       </c>
@@ -50942,17 +50965,18 @@
       <c r="CM156" s="13"/>
       <c r="CN156" s="13"/>
       <c r="CO156" s="13"/>
-      <c r="CP156" s="15">
+      <c r="CP156" s="13">
         <v>2023</v>
       </c>
-      <c r="CQ156" s="15"/>
-      <c r="CR156" s="15"/>
-      <c r="CS156" s="15"/>
-      <c r="CT156" s="15">
+      <c r="CQ156" s="13"/>
+      <c r="CR156" s="13"/>
+      <c r="CS156" s="13"/>
+      <c r="CT156" s="13">
         <v>2024</v>
       </c>
+      <c r="CU156" s="13"/>
     </row>
-    <row r="157" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>8</v>
       </c>
@@ -51232,31 +51256,29 @@
       <c r="CO157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP157" s="16" t="s">
+      <c r="CP157" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ157" s="16" t="s">
+      <c r="CQ157" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR157" s="16" t="s">
+      <c r="CR157" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CS157" s="16" t="s">
+      <c r="CS157" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CT157" s="16" t="s">
+      <c r="CT157" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CU157" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="158" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-      <c r="CP158" s="14"/>
-      <c r="CQ158" s="14"/>
-      <c r="CR158" s="14"/>
-      <c r="CS158" s="14"/>
-      <c r="CT158" s="14"/>
     </row>
-    <row r="159" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>12</v>
       </c>
@@ -51536,23 +51558,26 @@
       <c r="CO159" s="11">
         <v>100.56783238712144</v>
       </c>
-      <c r="CP159" s="23">
+      <c r="CP159" s="11">
         <v>98.700030882004981</v>
       </c>
-      <c r="CQ159" s="23">
+      <c r="CQ159" s="11">
         <v>98.540770718960474</v>
       </c>
-      <c r="CR159" s="23">
+      <c r="CR159" s="11">
         <v>99.651778705245633</v>
       </c>
-      <c r="CS159" s="23">
+      <c r="CS159" s="11">
         <v>125.43407574946721</v>
       </c>
-      <c r="CT159" s="23">
-        <v>138.76331666146154</v>
+      <c r="CT159" s="11">
+        <v>138.82617134345537</v>
+      </c>
+      <c r="CU159" s="11">
+        <v>127.5728158815604</v>
       </c>
     </row>
-    <row r="160" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
@@ -51832,23 +51857,26 @@
       <c r="CO160" s="11">
         <v>133.23735029254144</v>
       </c>
-      <c r="CP160" s="23">
+      <c r="CP160" s="11">
         <v>142.33193548241709</v>
       </c>
-      <c r="CQ160" s="23">
+      <c r="CQ160" s="11">
         <v>124.9119771422922</v>
       </c>
-      <c r="CR160" s="23">
+      <c r="CR160" s="11">
         <v>126.11854795403561</v>
       </c>
-      <c r="CS160" s="23">
+      <c r="CS160" s="11">
         <v>134.89633972462349</v>
       </c>
-      <c r="CT160" s="23">
+      <c r="CT160" s="11">
         <v>127.92420232170907</v>
       </c>
+      <c r="CU160" s="11">
+        <v>121.79406077953149</v>
+      </c>
     </row>
-    <row r="161" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>14</v>
       </c>
@@ -52128,23 +52156,26 @@
       <c r="CO161" s="11">
         <v>86.842260490065811</v>
       </c>
-      <c r="CP161" s="23">
+      <c r="CP161" s="11">
         <v>75.435445177021961</v>
       </c>
-      <c r="CQ161" s="23">
+      <c r="CQ161" s="11">
         <v>119.6366978787935</v>
       </c>
-      <c r="CR161" s="23">
+      <c r="CR161" s="11">
         <v>163.02737557763416</v>
       </c>
-      <c r="CS161" s="23">
+      <c r="CS161" s="11">
         <v>84.355180199927418</v>
       </c>
-      <c r="CT161" s="23">
-        <v>93.399004636029119</v>
+      <c r="CT161" s="11">
+        <v>93.277512061579003</v>
+      </c>
+      <c r="CU161" s="11">
+        <v>134.15540271494658</v>
       </c>
     </row>
-    <row r="162" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:99" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>15</v>
       </c>
@@ -52424,23 +52455,26 @@
       <c r="CO162" s="11">
         <v>249.7539872412346</v>
       </c>
-      <c r="CP162" s="23">
+      <c r="CP162" s="11">
         <v>145.40257032935455</v>
       </c>
-      <c r="CQ162" s="23">
+      <c r="CQ162" s="11">
         <v>111.73466091413064</v>
       </c>
-      <c r="CR162" s="23">
+      <c r="CR162" s="11">
         <v>320.63053182187991</v>
       </c>
-      <c r="CS162" s="23">
+      <c r="CS162" s="11">
         <v>203.09527102575453</v>
       </c>
-      <c r="CT162" s="23">
-        <v>126.20077752959982</v>
+      <c r="CT162" s="11">
+        <v>126.32892792247603</v>
+      </c>
+      <c r="CU162" s="11">
+        <v>88.576232859448439</v>
       </c>
     </row>
-    <row r="163" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -52720,23 +52754,26 @@
       <c r="CO163" s="11">
         <v>104.79177219310614</v>
       </c>
-      <c r="CP163" s="23">
+      <c r="CP163" s="11">
         <v>113.69195947778216</v>
       </c>
-      <c r="CQ163" s="23">
+      <c r="CQ163" s="11">
         <v>110.39342783673179</v>
       </c>
-      <c r="CR163" s="23">
+      <c r="CR163" s="11">
         <v>111.36549748775589</v>
       </c>
-      <c r="CS163" s="23">
+      <c r="CS163" s="11">
         <v>113.07891881875152</v>
       </c>
-      <c r="CT163" s="23">
-        <v>134.8666302243131</v>
+      <c r="CT163" s="11">
+        <v>135.52479191405661</v>
+      </c>
+      <c r="CU163" s="11">
+        <v>123.83517856263178</v>
       </c>
     </row>
-    <row r="164" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>17</v>
       </c>
@@ -53016,23 +53053,26 @@
       <c r="CO164" s="11">
         <v>131.29527970664617</v>
       </c>
-      <c r="CP164" s="23">
+      <c r="CP164" s="11">
         <v>110.16983236501309</v>
       </c>
-      <c r="CQ164" s="23">
+      <c r="CQ164" s="11">
         <v>116.70927471245835</v>
       </c>
-      <c r="CR164" s="23">
+      <c r="CR164" s="11">
         <v>127.13654573899697</v>
       </c>
-      <c r="CS164" s="23">
+      <c r="CS164" s="11">
         <v>140.89944483106024</v>
       </c>
-      <c r="CT164" s="23">
-        <v>106.48250947568974</v>
+      <c r="CT164" s="11">
+        <v>106.45776415339225</v>
+      </c>
+      <c r="CU164" s="11">
+        <v>86.399567771772311</v>
       </c>
     </row>
-    <row r="165" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -53312,23 +53352,26 @@
       <c r="CO165" s="11">
         <v>107.66340816842168</v>
       </c>
-      <c r="CP165" s="23">
+      <c r="CP165" s="11">
         <v>95.977652306530331</v>
       </c>
-      <c r="CQ165" s="23">
+      <c r="CQ165" s="11">
         <v>78.777479194637991</v>
       </c>
-      <c r="CR165" s="23">
+      <c r="CR165" s="11">
         <v>152.02201641922946</v>
       </c>
-      <c r="CS165" s="23">
+      <c r="CS165" s="11">
         <v>130.04536862965404</v>
       </c>
-      <c r="CT165" s="23">
-        <v>141.27298756138512</v>
+      <c r="CT165" s="11">
+        <v>140.79075138361983</v>
+      </c>
+      <c r="CU165" s="11">
+        <v>147.93779520124869</v>
       </c>
     </row>
-    <row r="166" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -53608,23 +53651,26 @@
       <c r="CO166" s="11">
         <v>128.61818386627763</v>
       </c>
-      <c r="CP166" s="23">
+      <c r="CP166" s="11">
         <v>82.948627909358365</v>
       </c>
-      <c r="CQ166" s="23">
+      <c r="CQ166" s="11">
         <v>116.27336869946274</v>
       </c>
-      <c r="CR166" s="23">
+      <c r="CR166" s="11">
         <v>97.221067835170984</v>
       </c>
-      <c r="CS166" s="23">
+      <c r="CS166" s="11">
         <v>171.74135184343751</v>
       </c>
-      <c r="CT166" s="23">
-        <v>118.73623372952235</v>
+      <c r="CT166" s="11">
+        <v>118.73526200791538</v>
+      </c>
+      <c r="CU166" s="11">
+        <v>188.22699644517783</v>
       </c>
     </row>
-    <row r="167" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
@@ -53904,23 +53950,26 @@
       <c r="CO167" s="11">
         <v>144.42748956708922</v>
       </c>
-      <c r="CP167" s="23">
+      <c r="CP167" s="11">
         <v>111.22801650405492</v>
       </c>
-      <c r="CQ167" s="23">
+      <c r="CQ167" s="11">
         <v>112.00775504870342</v>
       </c>
-      <c r="CR167" s="23">
+      <c r="CR167" s="11">
         <v>181.63655974303538</v>
       </c>
-      <c r="CS167" s="23">
+      <c r="CS167" s="11">
         <v>172.11104501821501</v>
       </c>
-      <c r="CT167" s="23">
-        <v>162.35440458783555</v>
+      <c r="CT167" s="11">
+        <v>162.33398408397812</v>
+      </c>
+      <c r="CU167" s="11">
+        <v>119.8600956667151</v>
       </c>
     </row>
-    <row r="168" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>21</v>
       </c>
@@ -54200,23 +54249,26 @@
       <c r="CO168" s="11">
         <v>100.36642472703818</v>
       </c>
-      <c r="CP168" s="23">
+      <c r="CP168" s="11">
         <v>129.31663746103504</v>
       </c>
-      <c r="CQ168" s="23">
+      <c r="CQ168" s="11">
         <v>87.372302654396407</v>
       </c>
-      <c r="CR168" s="23">
+      <c r="CR168" s="11">
         <v>101.15504871382075</v>
       </c>
-      <c r="CS168" s="23">
+      <c r="CS168" s="11">
         <v>105.44574823035666</v>
       </c>
-      <c r="CT168" s="23">
-        <v>138.78497894575915</v>
+      <c r="CT168" s="11">
+        <v>138.99895061037256</v>
+      </c>
+      <c r="CU168" s="11">
+        <v>126.67797202706872</v>
       </c>
     </row>
-    <row r="169" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -54496,23 +54548,26 @@
       <c r="CO169" s="11">
         <v>102.13499202630818</v>
       </c>
-      <c r="CP169" s="23">
+      <c r="CP169" s="11">
         <v>81.479665889429214</v>
       </c>
-      <c r="CQ169" s="23">
+      <c r="CQ169" s="11">
         <v>72.679946728422991</v>
       </c>
-      <c r="CR169" s="23">
+      <c r="CR169" s="11">
         <v>138.7374186458473</v>
       </c>
-      <c r="CS169" s="23">
+      <c r="CS169" s="11">
         <v>119.38579802043144</v>
       </c>
-      <c r="CT169" s="23">
+      <c r="CT169" s="11">
         <v>77.270503712934484</v>
       </c>
+      <c r="CU169" s="11">
+        <v>91.126397492445051</v>
+      </c>
     </row>
-    <row r="170" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>23</v>
       </c>
@@ -54792,23 +54847,26 @@
       <c r="CO170" s="11">
         <v>114.61111970560556</v>
       </c>
-      <c r="CP170" s="23">
+      <c r="CP170" s="11">
         <v>77.431527062971725</v>
       </c>
-      <c r="CQ170" s="23">
+      <c r="CQ170" s="11">
         <v>54.279146916698295</v>
       </c>
-      <c r="CR170" s="23">
+      <c r="CR170" s="11">
         <v>124.90152270399237</v>
       </c>
-      <c r="CS170" s="23">
+      <c r="CS170" s="11">
         <v>105.60111206149938</v>
       </c>
-      <c r="CT170" s="23">
-        <v>89.669358382512897</v>
+      <c r="CT170" s="11">
+        <v>89.669358382512854</v>
+      </c>
+      <c r="CU170" s="11">
+        <v>56.908262285339831</v>
       </c>
     </row>
-    <row r="171" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>24</v>
       </c>
@@ -55088,23 +55146,26 @@
       <c r="CO171" s="11">
         <v>84.57084618519805</v>
       </c>
-      <c r="CP171" s="23">
+      <c r="CP171" s="11">
         <v>63.804519736449073</v>
       </c>
-      <c r="CQ171" s="23">
+      <c r="CQ171" s="11">
         <v>54.202902921944464</v>
       </c>
-      <c r="CR171" s="23">
+      <c r="CR171" s="11">
         <v>217.094260030416</v>
       </c>
-      <c r="CS171" s="23">
+      <c r="CS171" s="11">
         <v>144.77247024302946</v>
       </c>
-      <c r="CT171" s="23">
-        <v>80.606811272298145</v>
+      <c r="CT171" s="11">
+        <v>80.649455371372028</v>
+      </c>
+      <c r="CU171" s="11">
+        <v>57.460032994300228</v>
       </c>
     </row>
-    <row r="172" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>25</v>
       </c>
@@ -55384,23 +55445,26 @@
       <c r="CO172" s="11">
         <v>129.29174669848803</v>
       </c>
-      <c r="CP172" s="23">
+      <c r="CP172" s="11">
         <v>142.18209853732225</v>
       </c>
-      <c r="CQ172" s="23">
+      <c r="CQ172" s="11">
         <v>90.182180740004497</v>
       </c>
-      <c r="CR172" s="23">
+      <c r="CR172" s="11">
         <v>168.99776341447003</v>
       </c>
-      <c r="CS172" s="23">
+      <c r="CS172" s="11">
         <v>138.89877330300763</v>
       </c>
-      <c r="CT172" s="23">
-        <v>122.81079252752809</v>
+      <c r="CT172" s="11">
+        <v>123.22124380240666</v>
+      </c>
+      <c r="CU172" s="11">
+        <v>94.643245413486397</v>
       </c>
     </row>
-    <row r="173" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>26</v>
       </c>
@@ -55680,23 +55744,26 @@
       <c r="CO173" s="11">
         <v>166.74874753350863</v>
       </c>
-      <c r="CP173" s="23">
+      <c r="CP173" s="11">
         <v>148.430825637086</v>
       </c>
-      <c r="CQ173" s="23">
+      <c r="CQ173" s="11">
         <v>162.11299239268288</v>
       </c>
-      <c r="CR173" s="23">
+      <c r="CR173" s="11">
         <v>158.83281933621382</v>
       </c>
-      <c r="CS173" s="23">
+      <c r="CS173" s="11">
         <v>176.54944237933387</v>
       </c>
-      <c r="CT173" s="23">
-        <v>157.18242313093421</v>
+      <c r="CT173" s="11">
+        <v>157.1390171140963</v>
+      </c>
+      <c r="CU173" s="11">
+        <v>181.68687976039465</v>
       </c>
     </row>
-    <row r="174" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>27</v>
       </c>
@@ -55976,23 +56043,26 @@
       <c r="CO174" s="11">
         <v>125.50555009351372</v>
       </c>
-      <c r="CP174" s="23">
+      <c r="CP174" s="11">
         <v>164.54402142008152</v>
       </c>
-      <c r="CQ174" s="23">
+      <c r="CQ174" s="11">
         <v>119.61690329955267</v>
       </c>
-      <c r="CR174" s="23">
+      <c r="CR174" s="11">
         <v>120.81937873409684</v>
       </c>
-      <c r="CS174" s="23">
+      <c r="CS174" s="11">
         <v>126.7947876036275</v>
       </c>
-      <c r="CT174" s="23">
+      <c r="CT174" s="11">
         <v>160.38782548849184</v>
       </c>
+      <c r="CU174" s="11">
+        <v>124.47945629379289</v>
+      </c>
     </row>
-    <row r="175" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>4</v>
       </c>
@@ -56272,23 +56342,26 @@
       <c r="CO175" s="11">
         <v>116.43679225578236</v>
       </c>
-      <c r="CP175" s="23">
+      <c r="CP175" s="11">
         <v>114.46901669412166</v>
       </c>
-      <c r="CQ175" s="23">
+      <c r="CQ175" s="11">
         <v>83.030444541309649</v>
       </c>
-      <c r="CR175" s="23">
+      <c r="CR175" s="11">
         <v>97.493865494194864</v>
       </c>
-      <c r="CS175" s="23">
+      <c r="CS175" s="11">
         <v>120.54994855384173</v>
       </c>
-      <c r="CT175" s="23">
+      <c r="CT175" s="11">
         <v>115.83273970237191</v>
       </c>
+      <c r="CU175" s="11">
+        <v>90.213716358855194</v>
+      </c>
     </row>
-    <row r="176" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>3</v>
       </c>
@@ -56568,23 +56641,26 @@
       <c r="CO176" s="11">
         <v>44.029276598908517</v>
       </c>
-      <c r="CP176" s="23">
+      <c r="CP176" s="11">
         <v>39.451064095224226</v>
       </c>
-      <c r="CQ176" s="23">
+      <c r="CQ176" s="11">
         <v>36.603872406804946</v>
       </c>
-      <c r="CR176" s="23">
+      <c r="CR176" s="11">
         <v>41.25655072470277</v>
       </c>
-      <c r="CS176" s="23">
+      <c r="CS176" s="11">
         <v>43.284358254294681</v>
       </c>
-      <c r="CT176" s="23">
-        <v>37.6436308736765</v>
+      <c r="CT176" s="11">
+        <v>37.559242306397337</v>
+      </c>
+      <c r="CU176" s="11">
+        <v>35.044828486351896</v>
       </c>
     </row>
-    <row r="177" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>2</v>
       </c>
@@ -56864,23 +56940,26 @@
       <c r="CO177" s="11">
         <v>110.50488825199254</v>
       </c>
-      <c r="CP177" s="23">
+      <c r="CP177" s="11">
         <v>157.65929243744111</v>
       </c>
-      <c r="CQ177" s="23">
+      <c r="CQ177" s="11">
         <v>140.2012081711068</v>
       </c>
-      <c r="CR177" s="23">
+      <c r="CR177" s="11">
         <v>140.86096472547266</v>
       </c>
-      <c r="CS177" s="23">
+      <c r="CS177" s="11">
         <v>110.29260858836626</v>
       </c>
-      <c r="CT177" s="23">
-        <v>147.7045682411088</v>
+      <c r="CT177" s="11">
+        <v>147.19392564738484</v>
+      </c>
+      <c r="CU177" s="11">
+        <v>125.1466196549062</v>
       </c>
     </row>
-    <row r="178" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -57160,24 +57239,27 @@
       <c r="CO178" s="11">
         <v>143.50942391363682</v>
       </c>
-      <c r="CP178" s="23">
+      <c r="CP178" s="11">
         <v>131.1114983511645</v>
       </c>
-      <c r="CQ178" s="23">
+      <c r="CQ178" s="11">
         <v>147.72528834042768</v>
       </c>
-      <c r="CR178" s="23">
+      <c r="CR178" s="11">
         <v>94.692624549705812</v>
       </c>
-      <c r="CS178" s="23">
+      <c r="CS178" s="11">
         <v>153.73942296726432</v>
       </c>
-      <c r="CT178" s="23">
+      <c r="CT178" s="11">
         <v>138.32260579926333</v>
       </c>
+      <c r="CU178" s="11">
+        <v>161.14887542459434</v>
+      </c>
     </row>
-    <row r="179" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:99" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>9</v>
       </c>
@@ -57457,23 +57539,26 @@
       <c r="CO180" s="11">
         <v>121.56965808275648</v>
       </c>
-      <c r="CP180" s="23">
+      <c r="CP180" s="11">
         <v>127.52163756987072</v>
       </c>
-      <c r="CQ180" s="23">
+      <c r="CQ180" s="11">
         <v>120.49461936381252</v>
       </c>
-      <c r="CR180" s="23">
+      <c r="CR180" s="11">
         <v>124.61738481169571</v>
       </c>
-      <c r="CS180" s="23">
+      <c r="CS180" s="11">
         <v>132.17701171803273</v>
       </c>
-      <c r="CT180" s="23">
-        <v>137.46154462994016</v>
+      <c r="CT180" s="11">
+        <v>137.48269141801265</v>
+      </c>
+      <c r="CU180" s="11">
+        <v>131.57471994696073</v>
       </c>
     </row>
-    <row r="181" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:99" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -57567,224 +57652,178 @@
       <c r="CM181" s="10"/>
       <c r="CN181" s="10"/>
       <c r="CO181" s="10"/>
-      <c r="CP181" s="20"/>
-      <c r="CQ181" s="20"/>
-      <c r="CR181" s="20"/>
-      <c r="CS181" s="20"/>
-      <c r="CT181" s="20"/>
+      <c r="CP181" s="10"/>
+      <c r="CQ181" s="10"/>
+      <c r="CR181" s="10"/>
+      <c r="CS181" s="10"/>
+      <c r="CT181" s="10"/>
+      <c r="CU181" s="10"/>
     </row>
-    <row r="182" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CP182" s="14"/>
-      <c r="CQ182" s="14"/>
-      <c r="CR182" s="14"/>
-      <c r="CS182" s="14"/>
-      <c r="CT182" s="14"/>
     </row>
-    <row r="185" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP185" s="14"/>
-      <c r="CQ185" s="14"/>
-      <c r="CR185" s="14"/>
-      <c r="CS185" s="14"/>
-      <c r="CT185" s="14"/>
     </row>
-    <row r="186" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CP186" s="14"/>
-      <c r="CQ186" s="14"/>
-      <c r="CR186" s="14"/>
-      <c r="CS186" s="14"/>
-      <c r="CT186" s="14"/>
     </row>
-    <row r="187" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP187" s="14"/>
-      <c r="CQ187" s="14"/>
-      <c r="CR187" s="14"/>
-      <c r="CS187" s="14"/>
-      <c r="CT187" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="188" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP188" s="14"/>
-      <c r="CQ188" s="14"/>
-      <c r="CR188" s="14"/>
-      <c r="CS188" s="14"/>
-      <c r="CT188" s="14"/>
-    </row>
-    <row r="189" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="CP189" s="14"/>
-      <c r="CQ189" s="14"/>
-      <c r="CR189" s="14"/>
-      <c r="CS189" s="14"/>
-      <c r="CT189" s="14"/>
     </row>
-    <row r="190" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CP190" s="14"/>
-      <c r="CQ190" s="14"/>
-      <c r="CR190" s="14"/>
-      <c r="CS190" s="14"/>
-      <c r="CT190" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="191" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="CP191" s="14"/>
-      <c r="CQ191" s="14"/>
-      <c r="CR191" s="14"/>
-      <c r="CS191" s="14"/>
-      <c r="CT191" s="14"/>
     </row>
-    <row r="192" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP192" s="14"/>
-      <c r="CQ192" s="14"/>
-      <c r="CR192" s="14"/>
-      <c r="CS192" s="14"/>
-      <c r="CT192" s="14"/>
-    </row>
-    <row r="193" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="B193" s="25">
+      <c r="B193" s="16">
         <v>2000</v>
       </c>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
-      <c r="F193" s="25">
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16">
         <v>2001</v>
       </c>
-      <c r="G193" s="25"/>
-      <c r="H193" s="25"/>
-      <c r="I193" s="25"/>
-      <c r="J193" s="25">
+      <c r="G193" s="16"/>
+      <c r="H193" s="16"/>
+      <c r="I193" s="16"/>
+      <c r="J193" s="16">
         <v>2002</v>
       </c>
-      <c r="K193" s="25"/>
-      <c r="L193" s="25"/>
-      <c r="M193" s="25"/>
-      <c r="N193" s="25">
+      <c r="K193" s="16"/>
+      <c r="L193" s="16"/>
+      <c r="M193" s="16"/>
+      <c r="N193" s="16">
         <v>2003</v>
       </c>
-      <c r="O193" s="25"/>
-      <c r="P193" s="25"/>
-      <c r="Q193" s="25"/>
-      <c r="R193" s="25">
+      <c r="O193" s="16"/>
+      <c r="P193" s="16"/>
+      <c r="Q193" s="16"/>
+      <c r="R193" s="16">
         <v>2004</v>
       </c>
-      <c r="S193" s="25"/>
-      <c r="T193" s="25"/>
-      <c r="U193" s="25"/>
-      <c r="V193" s="25">
+      <c r="S193" s="16"/>
+      <c r="T193" s="16"/>
+      <c r="U193" s="16"/>
+      <c r="V193" s="16">
         <v>2005</v>
       </c>
-      <c r="W193" s="25"/>
-      <c r="X193" s="25"/>
-      <c r="Y193" s="25"/>
-      <c r="Z193" s="25">
+      <c r="W193" s="16"/>
+      <c r="X193" s="16"/>
+      <c r="Y193" s="16"/>
+      <c r="Z193" s="16">
         <v>2006</v>
       </c>
-      <c r="AA193" s="25"/>
-      <c r="AB193" s="25"/>
-      <c r="AC193" s="25"/>
-      <c r="AD193" s="25">
+      <c r="AA193" s="16"/>
+      <c r="AB193" s="16"/>
+      <c r="AC193" s="16"/>
+      <c r="AD193" s="16">
         <v>2007</v>
       </c>
-      <c r="AE193" s="25"/>
-      <c r="AF193" s="25"/>
-      <c r="AG193" s="25"/>
-      <c r="AH193" s="25">
+      <c r="AE193" s="16"/>
+      <c r="AF193" s="16"/>
+      <c r="AG193" s="16"/>
+      <c r="AH193" s="16">
         <v>2008</v>
       </c>
-      <c r="AI193" s="25"/>
-      <c r="AJ193" s="25"/>
-      <c r="AK193" s="25"/>
-      <c r="AL193" s="25">
+      <c r="AI193" s="16"/>
+      <c r="AJ193" s="16"/>
+      <c r="AK193" s="16"/>
+      <c r="AL193" s="16">
         <v>2009</v>
       </c>
-      <c r="AM193" s="25"/>
-      <c r="AN193" s="25"/>
-      <c r="AO193" s="25"/>
-      <c r="AP193" s="25">
+      <c r="AM193" s="16"/>
+      <c r="AN193" s="16"/>
+      <c r="AO193" s="16"/>
+      <c r="AP193" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ193" s="25"/>
-      <c r="AR193" s="25"/>
-      <c r="AS193" s="25"/>
-      <c r="AT193" s="25">
+      <c r="AQ193" s="16"/>
+      <c r="AR193" s="16"/>
+      <c r="AS193" s="16"/>
+      <c r="AT193" s="16">
         <v>2011</v>
       </c>
-      <c r="AU193" s="25"/>
-      <c r="AV193" s="25"/>
-      <c r="AW193" s="25"/>
-      <c r="AX193" s="25">
+      <c r="AU193" s="16"/>
+      <c r="AV193" s="16"/>
+      <c r="AW193" s="16"/>
+      <c r="AX193" s="16">
         <v>2012</v>
       </c>
-      <c r="AY193" s="25"/>
-      <c r="AZ193" s="25"/>
-      <c r="BA193" s="25"/>
-      <c r="BB193" s="25">
+      <c r="AY193" s="16"/>
+      <c r="AZ193" s="16"/>
+      <c r="BA193" s="16"/>
+      <c r="BB193" s="16">
         <v>2013</v>
       </c>
-      <c r="BC193" s="25"/>
-      <c r="BD193" s="25"/>
-      <c r="BE193" s="25"/>
-      <c r="BF193" s="25">
+      <c r="BC193" s="16"/>
+      <c r="BD193" s="16"/>
+      <c r="BE193" s="16"/>
+      <c r="BF193" s="16">
         <v>2014</v>
       </c>
-      <c r="BG193" s="25"/>
-      <c r="BH193" s="25"/>
-      <c r="BI193" s="25"/>
-      <c r="BJ193" s="25">
+      <c r="BG193" s="16"/>
+      <c r="BH193" s="16"/>
+      <c r="BI193" s="16"/>
+      <c r="BJ193" s="16">
         <v>2015</v>
       </c>
-      <c r="BK193" s="25"/>
-      <c r="BL193" s="25"/>
-      <c r="BM193" s="25"/>
-      <c r="BN193" s="25">
+      <c r="BK193" s="16"/>
+      <c r="BL193" s="16"/>
+      <c r="BM193" s="16"/>
+      <c r="BN193" s="16">
         <v>2016</v>
       </c>
-      <c r="BO193" s="25"/>
-      <c r="BP193" s="25"/>
-      <c r="BQ193" s="25"/>
-      <c r="BR193" s="25">
+      <c r="BO193" s="16"/>
+      <c r="BP193" s="16"/>
+      <c r="BQ193" s="16"/>
+      <c r="BR193" s="16">
         <v>2017</v>
       </c>
-      <c r="BS193" s="25"/>
-      <c r="BT193" s="25"/>
-      <c r="BU193" s="25"/>
-      <c r="BV193" s="25">
+      <c r="BS193" s="16"/>
+      <c r="BT193" s="16"/>
+      <c r="BU193" s="16"/>
+      <c r="BV193" s="16">
         <v>2018</v>
       </c>
-      <c r="BW193" s="25"/>
-      <c r="BX193" s="25"/>
-      <c r="BY193" s="25"/>
-      <c r="BZ193" s="25">
+      <c r="BW193" s="16"/>
+      <c r="BX193" s="16"/>
+      <c r="BY193" s="16"/>
+      <c r="BZ193" s="16">
         <v>2019</v>
       </c>
-      <c r="CA193" s="25"/>
-      <c r="CB193" s="25"/>
-      <c r="CC193" s="25"/>
-      <c r="CD193" s="25">
+      <c r="CA193" s="16"/>
+      <c r="CB193" s="16"/>
+      <c r="CC193" s="16"/>
+      <c r="CD193" s="16">
         <v>2020</v>
       </c>
-      <c r="CE193" s="25"/>
-      <c r="CF193" s="25"/>
-      <c r="CG193" s="25"/>
+      <c r="CE193" s="16"/>
+      <c r="CF193" s="16"/>
+      <c r="CG193" s="16"/>
       <c r="CH193" s="13">
         <v>2021</v>
       </c>
@@ -57797,17 +57836,18 @@
       <c r="CM193" s="13"/>
       <c r="CN193" s="13"/>
       <c r="CO193" s="13"/>
-      <c r="CP193" s="15">
+      <c r="CP193" s="13">
         <v>2023</v>
       </c>
-      <c r="CQ193" s="15"/>
-      <c r="CR193" s="15"/>
-      <c r="CS193" s="15"/>
-      <c r="CT193" s="15">
+      <c r="CQ193" s="13"/>
+      <c r="CR193" s="13"/>
+      <c r="CS193" s="13"/>
+      <c r="CT193" s="13">
         <v>2024</v>
       </c>
+      <c r="CU193" s="13"/>
     </row>
-    <row r="194" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>8</v>
       </c>
@@ -58087,31 +58127,29 @@
       <c r="CO194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP194" s="16" t="s">
+      <c r="CP194" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ194" s="16" t="s">
+      <c r="CQ194" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR194" s="16" t="s">
+      <c r="CR194" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CS194" s="16" t="s">
+      <c r="CS194" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CT194" s="16" t="s">
+      <c r="CT194" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CU194" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="195" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
-      <c r="CP195" s="14"/>
-      <c r="CQ195" s="14"/>
-      <c r="CR195" s="14"/>
-      <c r="CS195" s="14"/>
-      <c r="CT195" s="14"/>
     </row>
-    <row r="196" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>12</v>
       </c>
@@ -58391,23 +58429,26 @@
       <c r="CO196" s="11">
         <v>21.027494960727587</v>
       </c>
-      <c r="CP196" s="23">
+      <c r="CP196" s="11">
         <v>16.550315527246457</v>
       </c>
-      <c r="CQ196" s="23">
+      <c r="CQ196" s="11">
         <v>16.315196305513211</v>
       </c>
-      <c r="CR196" s="23">
+      <c r="CR196" s="11">
         <v>14.000615768865757</v>
       </c>
-      <c r="CS196" s="23">
+      <c r="CS196" s="11">
         <v>23.85392364253585</v>
       </c>
-      <c r="CT196" s="23">
-        <v>21.081684981782882</v>
+      <c r="CT196" s="11">
+        <v>21.069106269625234</v>
+      </c>
+      <c r="CU196" s="11">
+        <v>17.930559081487257</v>
       </c>
     </row>
-    <row r="197" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>13</v>
       </c>
@@ -58687,23 +58728,26 @@
       <c r="CO197" s="11">
         <v>5.0459829208684148</v>
       </c>
-      <c r="CP197" s="23">
+      <c r="CP197" s="11">
         <v>8.0492088521155623</v>
       </c>
-      <c r="CQ197" s="23">
+      <c r="CQ197" s="11">
         <v>4.9033405025949373</v>
       </c>
-      <c r="CR197" s="23">
+      <c r="CR197" s="11">
         <v>7.7909959244979659</v>
       </c>
-      <c r="CS197" s="23">
+      <c r="CS197" s="11">
         <v>4.55759503020625</v>
       </c>
-      <c r="CT197" s="23">
-        <v>6.7961542973718547</v>
+      <c r="CT197" s="11">
+        <v>6.7890240888280049</v>
+      </c>
+      <c r="CU197" s="11">
+        <v>3.6217274310269221</v>
       </c>
     </row>
-    <row r="198" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
@@ -58983,23 +59027,26 @@
       <c r="CO198" s="11">
         <v>3.0607681972733007</v>
       </c>
-      <c r="CP198" s="23">
+      <c r="CP198" s="11">
         <v>3.590393420198712</v>
       </c>
-      <c r="CQ198" s="23">
+      <c r="CQ198" s="11">
         <v>3.291181554858186</v>
       </c>
-      <c r="CR198" s="23">
+      <c r="CR198" s="11">
         <v>6.9233355543884452</v>
       </c>
-      <c r="CS198" s="23">
+      <c r="CS198" s="11">
         <v>2.6560920351622697</v>
       </c>
-      <c r="CT198" s="23">
-        <v>3.9724174320588035</v>
+      <c r="CT198" s="11">
+        <v>3.9630878935762719</v>
+      </c>
+      <c r="CU198" s="11">
+        <v>3.3210171463026468</v>
       </c>
     </row>
-    <row r="199" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:99" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>15</v>
       </c>
@@ -59279,23 +59326,26 @@
       <c r="CO199" s="11">
         <v>2.9347217633838403</v>
       </c>
-      <c r="CP199" s="23">
+      <c r="CP199" s="11">
         <v>2.8366635489145167</v>
       </c>
-      <c r="CQ199" s="23">
+      <c r="CQ199" s="11">
         <v>1.1998743406769781</v>
       </c>
-      <c r="CR199" s="23">
+      <c r="CR199" s="11">
         <v>0.4728670908103268</v>
       </c>
-      <c r="CS199" s="23">
+      <c r="CS199" s="11">
         <v>2.4467677702592709</v>
       </c>
-      <c r="CT199" s="23">
-        <v>2.6884121839193389</v>
+      <c r="CT199" s="11">
+        <v>2.6883187071197296</v>
+      </c>
+      <c r="CU199" s="11">
+        <v>0.56421976390065842</v>
       </c>
     </row>
-    <row r="200" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>16</v>
       </c>
@@ -59575,23 +59625,26 @@
       <c r="CO200" s="11">
         <v>5.6161809138676997</v>
       </c>
-      <c r="CP200" s="23">
+      <c r="CP200" s="11">
         <v>6.0957787951335849</v>
       </c>
-      <c r="CQ200" s="23">
+      <c r="CQ200" s="11">
         <v>7.539441511014271</v>
       </c>
-      <c r="CR200" s="23">
+      <c r="CR200" s="11">
         <v>7.6926361387624489</v>
       </c>
-      <c r="CS200" s="23">
+      <c r="CS200" s="11">
         <v>5.4909425474520486</v>
       </c>
-      <c r="CT200" s="23">
-        <v>6.3814172805778284</v>
+      <c r="CT200" s="11">
+        <v>6.405831431559954</v>
+      </c>
+      <c r="CU200" s="11">
+        <v>7.6707068013620292</v>
       </c>
     </row>
-    <row r="201" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>17</v>
       </c>
@@ -59871,23 +59924,26 @@
       <c r="CO201" s="11">
         <v>1.4743825125815606</v>
       </c>
-      <c r="CP201" s="23">
+      <c r="CP201" s="11">
         <v>1.1446763900074204</v>
       </c>
-      <c r="CQ201" s="23">
+      <c r="CQ201" s="11">
         <v>4.6746789397746253</v>
       </c>
-      <c r="CR201" s="23">
+      <c r="CR201" s="11">
         <v>0.65348895543092811</v>
       </c>
-      <c r="CS201" s="23">
+      <c r="CS201" s="11">
         <v>1.5483566050511892</v>
       </c>
-      <c r="CT201" s="23">
-        <v>1.0561683987865282</v>
+      <c r="CT201" s="11">
+        <v>1.0548151320961094</v>
+      </c>
+      <c r="CU201" s="11">
+        <v>3.1906129342107312</v>
       </c>
     </row>
-    <row r="202" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -60167,23 +60223,26 @@
       <c r="CO202" s="11">
         <v>1.5793823633733324</v>
       </c>
-      <c r="CP202" s="23">
+      <c r="CP202" s="11">
         <v>1.2065067839715491</v>
       </c>
-      <c r="CQ202" s="23">
+      <c r="CQ202" s="11">
         <v>1.0412914665556965</v>
       </c>
-      <c r="CR202" s="23">
+      <c r="CR202" s="11">
         <v>2.0182851344442176</v>
       </c>
-      <c r="CS202" s="23">
+      <c r="CS202" s="11">
         <v>1.7370670839459237</v>
       </c>
-      <c r="CT202" s="23">
-        <v>1.6581267037124254</v>
+      <c r="CT202" s="11">
+        <v>1.6507329873401744</v>
+      </c>
+      <c r="CU202" s="11">
+        <v>1.7746241642414669</v>
       </c>
     </row>
-    <row r="203" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>19</v>
       </c>
@@ -60463,23 +60522,26 @@
       <c r="CO203" s="11">
         <v>0.50051843030874044</v>
       </c>
-      <c r="CP203" s="23">
+      <c r="CP203" s="11">
         <v>0.34109459852864493</v>
       </c>
-      <c r="CQ203" s="23">
+      <c r="CQ203" s="11">
         <v>0.12538345055182923</v>
       </c>
-      <c r="CR203" s="23">
+      <c r="CR203" s="11">
         <v>0.1162229010706185</v>
       </c>
-      <c r="CS203" s="23">
+      <c r="CS203" s="11">
         <v>0.5968200717271499</v>
       </c>
-      <c r="CT203" s="23">
-        <v>0.5618288255830225</v>
+      <c r="CT203" s="11">
+        <v>0.56123478783881886</v>
+      </c>
+      <c r="CU203" s="11">
+        <v>0.1855283128247206</v>
       </c>
     </row>
-    <row r="204" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
@@ -60759,23 +60821,26 @@
       <c r="CO204" s="11">
         <v>1.3555826356156198</v>
       </c>
-      <c r="CP204" s="23">
+      <c r="CP204" s="11">
         <v>0.7356379134618839</v>
       </c>
-      <c r="CQ204" s="23">
+      <c r="CQ204" s="11">
         <v>1.2300906635735651</v>
       </c>
-      <c r="CR204" s="23">
+      <c r="CR204" s="11">
         <v>1.62018736139526</v>
       </c>
-      <c r="CS204" s="23">
+      <c r="CS204" s="11">
         <v>1.4305865333095269</v>
       </c>
-      <c r="CT204" s="23">
-        <v>0.90501072834106477</v>
+      <c r="CT204" s="11">
+        <v>0.90394751521458527</v>
+      </c>
+      <c r="CU204" s="11">
+        <v>1.1495050416740591</v>
       </c>
     </row>
-    <row r="205" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>21</v>
       </c>
@@ -61055,23 +61120,26 @@
       <c r="CO205" s="11">
         <v>0.52938490392399229</v>
       </c>
-      <c r="CP205" s="23">
+      <c r="CP205" s="11">
         <v>0.19637688814754228</v>
       </c>
-      <c r="CQ205" s="23">
+      <c r="CQ205" s="11">
         <v>0.52129721233449067</v>
       </c>
-      <c r="CR205" s="23">
+      <c r="CR205" s="11">
         <v>0.39250080993556297</v>
       </c>
-      <c r="CS205" s="23">
+      <c r="CS205" s="11">
         <v>0.46739044888118064</v>
       </c>
-      <c r="CT205" s="23">
-        <v>0.19678525919225404</v>
+      <c r="CT205" s="11">
+        <v>0.19688187652223266</v>
+      </c>
+      <c r="CU205" s="11">
+        <v>0.64558477911501533</v>
       </c>
     </row>
-    <row r="206" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>22</v>
       </c>
@@ -61351,23 +61419,26 @@
       <c r="CO206" s="11">
         <v>9.1593653185793475E-2</v>
       </c>
-      <c r="CP206" s="23">
+      <c r="CP206" s="11">
         <v>8.5223771748380889E-2</v>
       </c>
-      <c r="CQ206" s="23">
+      <c r="CQ206" s="11">
         <v>7.4533457040800846E-2</v>
       </c>
-      <c r="CR206" s="23">
+      <c r="CR206" s="11">
         <v>0.10576180707543038</v>
       </c>
-      <c r="CS206" s="23">
+      <c r="CS206" s="11">
         <v>0.10062134456798519</v>
       </c>
-      <c r="CT206" s="23">
-        <v>7.7158491305217305E-2</v>
+      <c r="CT206" s="11">
+        <v>7.7077540209956302E-2</v>
+      </c>
+      <c r="CU206" s="11">
+        <v>9.2978750993810505E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
@@ -61647,23 +61718,26 @@
       <c r="CO207" s="11">
         <v>8.7362030188426185E-2</v>
       </c>
-      <c r="CP207" s="23">
+      <c r="CP207" s="11">
         <v>6.4869198710601553E-2</v>
       </c>
-      <c r="CQ207" s="23">
+      <c r="CQ207" s="11">
         <v>4.8658691993034846E-2</v>
       </c>
-      <c r="CR207" s="23">
+      <c r="CR207" s="11">
         <v>7.7131419818071992E-2</v>
       </c>
-      <c r="CS207" s="23">
+      <c r="CS207" s="11">
         <v>7.6025743245396571E-2</v>
       </c>
-      <c r="CT207" s="23">
-        <v>6.8823308711382952E-2</v>
+      <c r="CT207" s="11">
+        <v>6.8751102501470554E-2</v>
+      </c>
+      <c r="CU207" s="11">
+        <v>4.2176212163006092E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>24</v>
       </c>
@@ -61943,23 +62017,26 @@
       <c r="CO208" s="11">
         <v>0.12315869164640907</v>
       </c>
-      <c r="CP208" s="23">
+      <c r="CP208" s="11">
         <v>3.489075635334575E-2</v>
       </c>
-      <c r="CQ208" s="23">
+      <c r="CQ208" s="11">
         <v>3.9662448783424356E-2</v>
       </c>
-      <c r="CR208" s="23">
+      <c r="CR208" s="11">
         <v>0.18488525492409125</v>
       </c>
-      <c r="CS208" s="23">
+      <c r="CS208" s="11">
         <v>0.19419236666727158</v>
       </c>
-      <c r="CT208" s="23">
-        <v>4.4618806387548809E-2</v>
+      <c r="CT208" s="11">
+        <v>4.4599197870432733E-2</v>
+      </c>
+      <c r="CU208" s="11">
+        <v>3.8845627762338859E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
@@ -62239,23 +62316,26 @@
       <c r="CO209" s="11">
         <v>5.2613056123428432</v>
       </c>
-      <c r="CP209" s="23">
+      <c r="CP209" s="11">
         <v>6.2483578141739926</v>
       </c>
-      <c r="CQ209" s="23">
+      <c r="CQ209" s="11">
         <v>4.2837796338384679</v>
       </c>
-      <c r="CR209" s="23">
+      <c r="CR209" s="11">
         <v>5.6291348860535209</v>
       </c>
-      <c r="CS209" s="23">
+      <c r="CS209" s="11">
         <v>5.0446375818218492</v>
       </c>
-      <c r="CT209" s="23">
-        <v>5.1323561205178736</v>
+      <c r="CT209" s="11">
+        <v>5.1463238555351714</v>
+      </c>
+      <c r="CU209" s="11">
+        <v>3.8502482817064685</v>
       </c>
     </row>
-    <row r="210" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>26</v>
       </c>
@@ -62535,23 +62615,26 @@
       <c r="CO210" s="11">
         <v>12.641064175941052</v>
       </c>
-      <c r="CP210" s="23">
+      <c r="CP210" s="11">
         <v>12.294256696334351</v>
       </c>
-      <c r="CQ210" s="23">
+      <c r="CQ210" s="11">
         <v>14.630109028359719</v>
       </c>
-      <c r="CR210" s="23">
+      <c r="CR210" s="11">
         <v>14.416569583643401</v>
       </c>
-      <c r="CS210" s="23">
+      <c r="CS210" s="11">
         <v>12.479117709818107</v>
       </c>
-      <c r="CT210" s="23">
-        <v>11.610364581202054</v>
+      <c r="CT210" s="11">
+        <v>11.603244971297553</v>
+      </c>
+      <c r="CU210" s="11">
+        <v>15.34417727558022</v>
       </c>
     </row>
-    <row r="211" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>27</v>
       </c>
@@ -62831,23 +62914,26 @@
       <c r="CO211" s="11">
         <v>10.567455746703363</v>
       </c>
-      <c r="CP211" s="23">
+      <c r="CP211" s="11">
         <v>14.7619880136038</v>
       </c>
-      <c r="CQ211" s="23">
+      <c r="CQ211" s="11">
         <v>9.7618238325694602</v>
       </c>
-      <c r="CR211" s="23">
+      <c r="CR211" s="11">
         <v>10.465225057272255</v>
       </c>
-      <c r="CS211" s="23">
+      <c r="CS211" s="11">
         <v>10.44835180068762</v>
       </c>
-      <c r="CT211" s="23">
-        <v>14.075149902492512</v>
+      <c r="CT211" s="11">
+        <v>14.060382910794052</v>
+      </c>
+      <c r="CU211" s="11">
+        <v>10.351172952971153</v>
       </c>
     </row>
-    <row r="212" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -63127,23 +63213,26 @@
       <c r="CO212" s="11">
         <v>3.5669535307969307</v>
       </c>
-      <c r="CP212" s="23">
+      <c r="CP212" s="11">
         <v>3.8383240241201411</v>
       </c>
-      <c r="CQ212" s="23">
+      <c r="CQ212" s="11">
         <v>2.8194280238645595</v>
       </c>
-      <c r="CR212" s="23">
+      <c r="CR212" s="11">
         <v>3.3892648910291876</v>
       </c>
-      <c r="CS212" s="23">
+      <c r="CS212" s="11">
         <v>3.5313623497425084</v>
       </c>
-      <c r="CT212" s="23">
-        <v>3.6345986848192902</v>
+      <c r="CT212" s="11">
+        <v>3.6307854331681337</v>
+      </c>
+      <c r="CU212" s="11">
+        <v>2.9938454292196486</v>
       </c>
     </row>
-    <row r="213" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>3</v>
       </c>
@@ -63423,23 +63512,26 @@
       <c r="CO213" s="11">
         <v>1.487059724498564E-2</v>
       </c>
-      <c r="CP213" s="23">
+      <c r="CP213" s="11">
         <v>3.1075360303038521E-2</v>
       </c>
-      <c r="CQ213" s="23">
+      <c r="CQ213" s="11">
         <v>4.0811944593929762E-2</v>
       </c>
-      <c r="CR213" s="23">
+      <c r="CR213" s="11">
         <v>7.4856405941999424E-2</v>
       </c>
-      <c r="CS213" s="23">
+      <c r="CS213" s="11">
         <v>1.2297027910274325E-2</v>
       </c>
-      <c r="CT213" s="23">
-        <v>3.8008672569525538E-2</v>
+      <c r="CT213" s="11">
+        <v>3.7903010227502171E-2</v>
+      </c>
+      <c r="CU213" s="11">
+        <v>4.9200384623443949E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -63719,23 +63811,26 @@
       <c r="CO214" s="11">
         <v>11.970100285512238</v>
       </c>
-      <c r="CP214" s="23">
+      <c r="CP214" s="11">
         <v>12.621852522955844</v>
       </c>
-      <c r="CQ214" s="23">
+      <c r="CQ214" s="11">
         <v>11.789453235472317</v>
       </c>
-      <c r="CR214" s="23">
+      <c r="CR214" s="11">
         <v>13.851971212662246</v>
       </c>
-      <c r="CS214" s="23">
+      <c r="CS214" s="11">
         <v>10.272555459369654</v>
       </c>
-      <c r="CT214" s="23">
-        <v>10.817743940795294</v>
+      <c r="CT214" s="11">
+        <v>10.854435427577277</v>
+      </c>
+      <c r="CU214" s="11">
+        <v>10.121559542791921</v>
       </c>
     </row>
-    <row r="215" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -64015,24 +64110,27 @@
       <c r="CO215" s="11">
         <v>12.551736074513876</v>
       </c>
-      <c r="CP215" s="23">
+      <c r="CP215" s="11">
         <v>9.2725091239706394</v>
       </c>
-      <c r="CQ215" s="23">
+      <c r="CQ215" s="11">
         <v>15.669963756036498</v>
       </c>
-      <c r="CR215" s="23">
+      <c r="CR215" s="11">
         <v>10.124063841978272</v>
       </c>
-      <c r="CS215" s="23">
+      <c r="CS215" s="11">
         <v>13.055296847638671</v>
       </c>
-      <c r="CT215" s="23">
-        <v>9.203171399873316</v>
+      <c r="CT215" s="11">
+        <v>9.1935158610973229</v>
+      </c>
+      <c r="CU215" s="11">
+        <v>17.061710086042481</v>
       </c>
     </row>
-    <row r="216" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:98" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:99" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>9</v>
       </c>
@@ -64312,23 +64410,26 @@
       <c r="CO217" s="11">
         <v>100</v>
       </c>
-      <c r="CP217" s="23">
+      <c r="CP217" s="11">
         <v>100</v>
       </c>
-      <c r="CQ217" s="23">
+      <c r="CQ217" s="11">
         <v>100</v>
       </c>
-      <c r="CR217" s="23">
+      <c r="CR217" s="11">
         <v>100</v>
       </c>
-      <c r="CS217" s="23">
+      <c r="CS217" s="11">
         <v>100</v>
       </c>
-      <c r="CT217" s="23">
+      <c r="CT217" s="11">
         <v>100</v>
       </c>
+      <c r="CU217" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="218" spans="1:98" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:99" s="1" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -64422,226 +64523,180 @@
       <c r="CM218" s="10"/>
       <c r="CN218" s="10"/>
       <c r="CO218" s="10"/>
-      <c r="CP218" s="20"/>
-      <c r="CQ218" s="20"/>
-      <c r="CR218" s="20"/>
-      <c r="CS218" s="20"/>
-      <c r="CT218" s="20"/>
+      <c r="CP218" s="10"/>
+      <c r="CQ218" s="10"/>
+      <c r="CR218" s="10"/>
+      <c r="CS218" s="10"/>
+      <c r="CT218" s="10"/>
+      <c r="CU218" s="10"/>
     </row>
-    <row r="219" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="CP219" s="14"/>
-      <c r="CQ219" s="14"/>
-      <c r="CR219" s="14"/>
-      <c r="CS219" s="14"/>
-      <c r="CT219" s="14"/>
     </row>
-    <row r="220" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" spans="1:98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP222" s="14"/>
-      <c r="CQ222" s="14"/>
-      <c r="CR222" s="14"/>
-      <c r="CS222" s="14"/>
-      <c r="CT222" s="14"/>
     </row>
-    <row r="223" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CP223" s="14"/>
-      <c r="CQ223" s="14"/>
-      <c r="CR223" s="14"/>
-      <c r="CS223" s="14"/>
-      <c r="CT223" s="14"/>
     </row>
-    <row r="224" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="CP224" s="14"/>
-      <c r="CQ224" s="14"/>
-      <c r="CR224" s="14"/>
-      <c r="CS224" s="14"/>
-      <c r="CT224" s="14"/>
+        <v>68</v>
+      </c>
     </row>
-    <row r="225" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP225" s="14"/>
-      <c r="CQ225" s="14"/>
-      <c r="CR225" s="14"/>
-      <c r="CS225" s="14"/>
-      <c r="CT225" s="14"/>
-    </row>
-    <row r="226" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="CP226" s="14"/>
-      <c r="CQ226" s="14"/>
-      <c r="CR226" s="14"/>
-      <c r="CS226" s="14"/>
-      <c r="CT226" s="14"/>
     </row>
-    <row r="227" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="CP227" s="14"/>
-      <c r="CQ227" s="14"/>
-      <c r="CR227" s="14"/>
-      <c r="CS227" s="14"/>
-      <c r="CT227" s="14"/>
+        <v>69</v>
+      </c>
     </row>
-    <row r="228" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CP228" s="14"/>
-      <c r="CQ228" s="14"/>
-      <c r="CR228" s="14"/>
-      <c r="CS228" s="14"/>
-      <c r="CT228" s="14"/>
     </row>
-    <row r="229" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="CP229" s="14"/>
-      <c r="CQ229" s="14"/>
-      <c r="CR229" s="14"/>
-      <c r="CS229" s="14"/>
-      <c r="CT229" s="14"/>
-    </row>
-    <row r="230" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="25">
+      <c r="B230" s="16">
         <v>2000</v>
       </c>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
-      <c r="F230" s="25">
+      <c r="C230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
+      <c r="F230" s="16">
         <v>2001</v>
       </c>
-      <c r="G230" s="25"/>
-      <c r="H230" s="25"/>
-      <c r="I230" s="25"/>
-      <c r="J230" s="25">
+      <c r="G230" s="16"/>
+      <c r="H230" s="16"/>
+      <c r="I230" s="16"/>
+      <c r="J230" s="16">
         <v>2002</v>
       </c>
-      <c r="K230" s="25"/>
-      <c r="L230" s="25"/>
-      <c r="M230" s="25"/>
-      <c r="N230" s="25">
+      <c r="K230" s="16"/>
+      <c r="L230" s="16"/>
+      <c r="M230" s="16"/>
+      <c r="N230" s="16">
         <v>2003</v>
       </c>
-      <c r="O230" s="25"/>
-      <c r="P230" s="25"/>
-      <c r="Q230" s="25"/>
-      <c r="R230" s="25">
+      <c r="O230" s="16"/>
+      <c r="P230" s="16"/>
+      <c r="Q230" s="16"/>
+      <c r="R230" s="16">
         <v>2004</v>
       </c>
-      <c r="S230" s="25"/>
-      <c r="T230" s="25"/>
-      <c r="U230" s="25"/>
-      <c r="V230" s="25">
+      <c r="S230" s="16"/>
+      <c r="T230" s="16"/>
+      <c r="U230" s="16"/>
+      <c r="V230" s="16">
         <v>2005</v>
       </c>
-      <c r="W230" s="25"/>
-      <c r="X230" s="25"/>
-      <c r="Y230" s="25"/>
-      <c r="Z230" s="25">
+      <c r="W230" s="16"/>
+      <c r="X230" s="16"/>
+      <c r="Y230" s="16"/>
+      <c r="Z230" s="16">
         <v>2006</v>
       </c>
-      <c r="AA230" s="25"/>
-      <c r="AB230" s="25"/>
-      <c r="AC230" s="25"/>
-      <c r="AD230" s="25">
+      <c r="AA230" s="16"/>
+      <c r="AB230" s="16"/>
+      <c r="AC230" s="16"/>
+      <c r="AD230" s="16">
         <v>2007</v>
       </c>
-      <c r="AE230" s="25"/>
-      <c r="AF230" s="25"/>
-      <c r="AG230" s="25"/>
-      <c r="AH230" s="25">
+      <c r="AE230" s="16"/>
+      <c r="AF230" s="16"/>
+      <c r="AG230" s="16"/>
+      <c r="AH230" s="16">
         <v>2008</v>
       </c>
-      <c r="AI230" s="25"/>
-      <c r="AJ230" s="25"/>
-      <c r="AK230" s="25"/>
-      <c r="AL230" s="25">
+      <c r="AI230" s="16"/>
+      <c r="AJ230" s="16"/>
+      <c r="AK230" s="16"/>
+      <c r="AL230" s="16">
         <v>2009</v>
       </c>
-      <c r="AM230" s="25"/>
-      <c r="AN230" s="25"/>
-      <c r="AO230" s="25"/>
-      <c r="AP230" s="25">
+      <c r="AM230" s="16"/>
+      <c r="AN230" s="16"/>
+      <c r="AO230" s="16"/>
+      <c r="AP230" s="16">
         <v>2010</v>
       </c>
-      <c r="AQ230" s="25"/>
-      <c r="AR230" s="25"/>
-      <c r="AS230" s="25"/>
-      <c r="AT230" s="25">
+      <c r="AQ230" s="16"/>
+      <c r="AR230" s="16"/>
+      <c r="AS230" s="16"/>
+      <c r="AT230" s="16">
         <v>2011</v>
       </c>
-      <c r="AU230" s="25"/>
-      <c r="AV230" s="25"/>
-      <c r="AW230" s="25"/>
-      <c r="AX230" s="25">
+      <c r="AU230" s="16"/>
+      <c r="AV230" s="16"/>
+      <c r="AW230" s="16"/>
+      <c r="AX230" s="16">
         <v>2012</v>
       </c>
-      <c r="AY230" s="25"/>
-      <c r="AZ230" s="25"/>
-      <c r="BA230" s="25"/>
-      <c r="BB230" s="25">
+      <c r="AY230" s="16"/>
+      <c r="AZ230" s="16"/>
+      <c r="BA230" s="16"/>
+      <c r="BB230" s="16">
         <v>2013</v>
       </c>
-      <c r="BC230" s="25"/>
-      <c r="BD230" s="25"/>
-      <c r="BE230" s="25"/>
-      <c r="BF230" s="25">
+      <c r="BC230" s="16"/>
+      <c r="BD230" s="16"/>
+      <c r="BE230" s="16"/>
+      <c r="BF230" s="16">
         <v>2014</v>
       </c>
-      <c r="BG230" s="25"/>
-      <c r="BH230" s="25"/>
-      <c r="BI230" s="25"/>
-      <c r="BJ230" s="25">
+      <c r="BG230" s="16"/>
+      <c r="BH230" s="16"/>
+      <c r="BI230" s="16"/>
+      <c r="BJ230" s="16">
         <v>2015</v>
       </c>
-      <c r="BK230" s="25"/>
-      <c r="BL230" s="25"/>
-      <c r="BM230" s="25"/>
-      <c r="BN230" s="25">
+      <c r="BK230" s="16"/>
+      <c r="BL230" s="16"/>
+      <c r="BM230" s="16"/>
+      <c r="BN230" s="16">
         <v>2016</v>
       </c>
-      <c r="BO230" s="25"/>
-      <c r="BP230" s="25"/>
-      <c r="BQ230" s="25"/>
-      <c r="BR230" s="25">
+      <c r="BO230" s="16"/>
+      <c r="BP230" s="16"/>
+      <c r="BQ230" s="16"/>
+      <c r="BR230" s="16">
         <v>2017</v>
       </c>
-      <c r="BS230" s="25"/>
-      <c r="BT230" s="25"/>
-      <c r="BU230" s="25"/>
-      <c r="BV230" s="25">
+      <c r="BS230" s="16"/>
+      <c r="BT230" s="16"/>
+      <c r="BU230" s="16"/>
+      <c r="BV230" s="16">
         <v>2018</v>
       </c>
-      <c r="BW230" s="25"/>
-      <c r="BX230" s="25"/>
-      <c r="BY230" s="25"/>
-      <c r="BZ230" s="25">
+      <c r="BW230" s="16"/>
+      <c r="BX230" s="16"/>
+      <c r="BY230" s="16"/>
+      <c r="BZ230" s="16">
         <v>2019</v>
       </c>
-      <c r="CA230" s="25"/>
-      <c r="CB230" s="25"/>
-      <c r="CC230" s="25"/>
-      <c r="CD230" s="25">
+      <c r="CA230" s="16"/>
+      <c r="CB230" s="16"/>
+      <c r="CC230" s="16"/>
+      <c r="CD230" s="16">
         <v>2020</v>
       </c>
-      <c r="CE230" s="25"/>
-      <c r="CF230" s="25"/>
-      <c r="CG230" s="25"/>
+      <c r="CE230" s="16"/>
+      <c r="CF230" s="16"/>
+      <c r="CG230" s="16"/>
       <c r="CH230" s="13">
         <v>2021</v>
       </c>
@@ -64654,17 +64709,18 @@
       <c r="CM230" s="13"/>
       <c r="CN230" s="13"/>
       <c r="CO230" s="13"/>
-      <c r="CP230" s="15">
+      <c r="CP230" s="13">
         <v>2023</v>
       </c>
-      <c r="CQ230" s="15"/>
-      <c r="CR230" s="15"/>
-      <c r="CS230" s="15"/>
-      <c r="CT230" s="15">
+      <c r="CQ230" s="13"/>
+      <c r="CR230" s="13"/>
+      <c r="CS230" s="13"/>
+      <c r="CT230" s="13">
         <v>2024</v>
       </c>
+      <c r="CU230" s="13"/>
     </row>
-    <row r="231" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:99" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>8</v>
       </c>
@@ -64944,31 +65000,29 @@
       <c r="CO231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CP231" s="16" t="s">
+      <c r="CP231" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="CQ231" s="16" t="s">
+      <c r="CQ231" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="CR231" s="16" t="s">
+      <c r="CR231" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="CS231" s="16" t="s">
+      <c r="CS231" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="CT231" s="16" t="s">
+      <c r="CT231" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="CU231" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="232" spans="1:98" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:99" s="1" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
-      <c r="CP232" s="14"/>
-      <c r="CQ232" s="14"/>
-      <c r="CR232" s="14"/>
-      <c r="CS232" s="14"/>
-      <c r="CT232" s="14"/>
     </row>
-    <row r="233" spans="1:98" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:99" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>12</v>
       </c>
@@ -65248,23 +65302,26 @@
       <c r="CO233" s="11">
         <v>25.41871801385166</v>
       </c>
-      <c r="CP233" s="23">
+      <c r="CP233" s="11">
         <v>21.383208490133494</v>
       </c>
-      <c r="CQ233" s="23">
+      <c r="CQ233" s="11">
         <v>19.950050667712432</v>
       </c>
-      <c r="CR233" s="23">
+      <c r="CR233" s="11">
         <v>17.508168399382491</v>
       </c>
-      <c r="CS233" s="23">
+      <c r="CS233" s="11">
         <v>25.136234519860224</v>
       </c>
-      <c r="CT233" s="23">
-        <v>20.883912627050375</v>
+      <c r="CT233" s="11">
+        <v>20.865211564136075</v>
+      </c>
+      <c r="CU233" s="11">
+        <v>18.493032965811672</v>
       </c>
     </row>
-    <row r="234" spans="1:98" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:99" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>13</v>
       </c>
@@ -65544,23 +65601,26 @@
       <c r="CO234" s="11">
         <v>4.6041025060503777</v>
       </c>
-      <c r="CP234" s="23">
+      <c r="CP234" s="11">
         <v>7.2116513450382866</v>
       </c>
-      <c r="CQ234" s="23">
+      <c r="CQ234" s="11">
         <v>4.729939922400785</v>
       </c>
-      <c r="CR234" s="23">
+      <c r="CR234" s="11">
         <v>7.6982613020835107</v>
       </c>
-      <c r="CS234" s="23">
+      <c r="CS234" s="11">
         <v>4.4657200702656095</v>
       </c>
-      <c r="CT234" s="23">
-        <v>7.3028391055411968</v>
+      <c r="CT234" s="11">
+        <v>7.2962995812669549</v>
+      </c>
+      <c r="CU234" s="11">
+        <v>3.9125698692663775</v>
       </c>
     </row>
-    <row r="235" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>14</v>
       </c>
@@ -65840,23 +65900,26 @@
       <c r="CO235" s="11">
         <v>4.2847404145549097</v>
       </c>
-      <c r="CP235" s="23">
+      <c r="CP235" s="11">
         <v>6.0694657185279413</v>
       </c>
-      <c r="CQ235" s="23">
+      <c r="CQ235" s="11">
         <v>3.3147828027785495</v>
       </c>
-      <c r="CR235" s="23">
+      <c r="CR235" s="11">
         <v>5.2921662261002691</v>
       </c>
-      <c r="CS235" s="23">
+      <c r="CS235" s="11">
         <v>4.1618583141396552</v>
       </c>
-      <c r="CT235" s="23">
-        <v>5.8464716862203083</v>
+      <c r="CT235" s="11">
+        <v>5.8412363054378078</v>
+      </c>
+      <c r="CU235" s="11">
+        <v>3.2571323414553954</v>
       </c>
     </row>
-    <row r="236" spans="1:98" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:99" s="8" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>15</v>
       </c>
@@ -66136,23 +66199,26 @@
       <c r="CO236" s="11">
         <v>1.428498200503179</v>
       </c>
-      <c r="CP236" s="23">
+      <c r="CP236" s="11">
         <v>2.4878238408919744</v>
       </c>
-      <c r="CQ236" s="23">
+      <c r="CQ236" s="11">
         <v>1.2939440705457379</v>
       </c>
-      <c r="CR236" s="23">
+      <c r="CR236" s="11">
         <v>0.18378617870687858</v>
       </c>
-      <c r="CS236" s="23">
+      <c r="CS236" s="11">
         <v>1.5923879005526098</v>
       </c>
-      <c r="CT236" s="23">
-        <v>2.9282964704145824</v>
+      <c r="CT236" s="11">
+        <v>2.9256742483481095</v>
+      </c>
+      <c r="CU236" s="11">
+        <v>0.83811486475799635</v>
       </c>
     </row>
-    <row r="237" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>16</v>
       </c>
@@ -66432,23 +66498,26 @@
       <c r="CO237" s="11">
         <v>6.515370235094804</v>
       </c>
-      <c r="CP237" s="23">
+      <c r="CP237" s="11">
         <v>6.8372794152698004</v>
       </c>
-      <c r="CQ237" s="23">
+      <c r="CQ237" s="11">
         <v>8.2293135822268084</v>
       </c>
-      <c r="CR237" s="23">
+      <c r="CR237" s="11">
         <v>8.6080179188883399</v>
       </c>
-      <c r="CS237" s="23">
+      <c r="CS237" s="11">
         <v>6.418317269206689</v>
       </c>
-      <c r="CT237" s="23">
-        <v>6.5041995552008931</v>
+      <c r="CT237" s="11">
+        <v>6.4983751942556438</v>
+      </c>
+      <c r="CU237" s="11">
+        <v>8.1501162343299676</v>
       </c>
     </row>
-    <row r="238" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>17</v>
       </c>
@@ -66728,23 +66797,26 @@
       <c r="CO238" s="11">
         <v>1.365168483880099</v>
       </c>
-      <c r="CP238" s="23">
+      <c r="CP238" s="11">
         <v>1.3249635095902226</v>
       </c>
-      <c r="CQ238" s="23">
+      <c r="CQ238" s="11">
         <v>4.826297317706203</v>
       </c>
-      <c r="CR238" s="23">
+      <c r="CR238" s="11">
         <v>0.64054032737614242</v>
       </c>
-      <c r="CS238" s="23">
+      <c r="CS238" s="11">
         <v>1.4525050072051759</v>
       </c>
-      <c r="CT238" s="23">
-        <v>1.3634402513745452</v>
+      <c r="CT238" s="11">
+        <v>1.3622193220220722</v>
+      </c>
+      <c r="CU238" s="11">
+        <v>4.8588669377010723</v>
       </c>
     </row>
-    <row r="239" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>18</v>
       </c>
@@ -67024,23 +67096,26 @@
       <c r="CO239" s="11">
         <v>1.783381904433786</v>
       </c>
-      <c r="CP239" s="23">
+      <c r="CP239" s="11">
         <v>1.6030369271779095</v>
       </c>
-      <c r="CQ239" s="23">
+      <c r="CQ239" s="11">
         <v>1.5927143162249715</v>
       </c>
-      <c r="CR239" s="23">
+      <c r="CR239" s="11">
         <v>1.6544538822927082</v>
       </c>
-      <c r="CS239" s="23">
+      <c r="CS239" s="11">
         <v>1.765540278205447</v>
       </c>
-      <c r="CT239" s="23">
-        <v>1.6133916456280994</v>
+      <c r="CT239" s="11">
+        <v>1.6119468905570977</v>
+      </c>
+      <c r="CU239" s="11">
+        <v>1.5783368753302156</v>
       </c>
     </row>
-    <row r="240" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>19</v>
       </c>
@@ -67320,23 +67395,26 @@
       <c r="CO240" s="11">
         <v>0.47308905014561653</v>
       </c>
-      <c r="CP240" s="23">
+      <c r="CP240" s="11">
         <v>0.52438410214743347</v>
       </c>
-      <c r="CQ240" s="23">
+      <c r="CQ240" s="11">
         <v>0.12993543850797434</v>
       </c>
-      <c r="CR240" s="23">
+      <c r="CR240" s="11">
         <v>0.1489738213038774</v>
       </c>
-      <c r="CS240" s="23">
+      <c r="CS240" s="11">
         <v>0.4593296417402748</v>
       </c>
-      <c r="CT240" s="23">
-        <v>0.65043210279176322</v>
+      <c r="CT240" s="11">
+        <v>0.64984965581963616</v>
+      </c>
+      <c r="CU240" s="11">
+        <v>0.12968828203798349</v>
       </c>
     </row>
-    <row r="241" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
@@ -67616,23 +67694,26 @@
       <c r="CO241" s="11">
         <v>1.1410412104280272</v>
       </c>
-      <c r="CP241" s="23">
+      <c r="CP241" s="11">
         <v>0.84340037997281347</v>
       </c>
-      <c r="CQ241" s="23">
+      <c r="CQ241" s="11">
         <v>1.3232950363644669</v>
       </c>
-      <c r="CR241" s="23">
+      <c r="CR241" s="11">
         <v>1.1115796961122564</v>
       </c>
-      <c r="CS241" s="23">
+      <c r="CS241" s="11">
         <v>1.0986549582387415</v>
       </c>
-      <c r="CT241" s="23">
-        <v>0.76625067820150128</v>
+      <c r="CT241" s="11">
+        <v>0.76556451191412545</v>
+      </c>
+      <c r="CU241" s="11">
+        <v>1.261852855152396</v>
       </c>
     </row>
-    <row r="242" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -67912,23 +67993,26 @@
       <c r="CO242" s="11">
         <v>0.64122182232994462</v>
       </c>
-      <c r="CP242" s="23">
+      <c r="CP242" s="11">
         <v>0.19365104791713703</v>
       </c>
-      <c r="CQ242" s="23">
+      <c r="CQ242" s="11">
         <v>0.71891786375508038</v>
       </c>
-      <c r="CR242" s="23">
+      <c r="CR242" s="11">
         <v>0.48353913217936506</v>
       </c>
-      <c r="CS242" s="23">
+      <c r="CS242" s="11">
         <v>0.58587732436308049</v>
       </c>
-      <c r="CT242" s="23">
-        <v>0.1949087422461071</v>
+      <c r="CT242" s="11">
+        <v>0.19473420595511673</v>
+      </c>
+      <c r="CU242" s="11">
+        <v>0.67053991435802252</v>
       </c>
     </row>
-    <row r="243" spans="1:98" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:99" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r